--- a/mission wz.xlsx
+++ b/mission wz.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>France</t>
   </si>
@@ -52,13 +52,29 @@
   </si>
   <si>
     <t>Dans les temps?</t>
+  </si>
+  <si>
+    <t>Objectif :</t>
+  </si>
+  <si>
+    <t>Aujourd'hui :</t>
+  </si>
+  <si>
+    <t>Avancement :</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,10 +100,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -96,11 +113,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <condense val="0"/>
@@ -122,18 +144,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -427,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -439,34 +449,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="2"/>
+      <c r="O1" s="4"/>
       <c r="Q1" s="3">
         <f ca="1">TODAY()</f>
         <v>41991</v>
@@ -480,373 +490,488 @@
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="B2" s="1">
-        <f ca="1">B5/$S$1</f>
-        <v>4.5483870967741939</v>
-      </c>
-      <c r="C2" s="1">
-        <f t="shared" ref="C2:O2" ca="1" si="0">C5/$S$1</f>
-        <v>4532.2903225806449</v>
-      </c>
-      <c r="D2" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.838709677419355</v>
-      </c>
-      <c r="E2" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4838.7096774193551</v>
-      </c>
-      <c r="F2" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.354838709677419</v>
-      </c>
-      <c r="G2" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4300.4516129032254</v>
-      </c>
-      <c r="H2" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.387096774193548</v>
-      </c>
-      <c r="I2" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4548.3870967741932</v>
-      </c>
-      <c r="J2" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.838709677419355</v>
-      </c>
-      <c r="K2" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4838.7096774193551</v>
-      </c>
-      <c r="L2" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.838709677419355</v>
-      </c>
-      <c r="M2" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4824.8064516129034</v>
-      </c>
-      <c r="N2" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.709677419354839</v>
-      </c>
-      <c r="O2" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4536.8387096774195</v>
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5">
+        <f>(150-B6)/150</f>
+        <v>0.08</v>
+      </c>
+      <c r="C2" s="5">
+        <f>(150000-C6)/150000</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D2" s="5">
+        <f t="shared" ref="D2:O2" si="0">(150-D6)/150</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <f t="shared" ref="E2:O2" si="1">(150000-E6)/150000</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <f t="shared" ref="F2:O2" si="2">(150-F6)/150</f>
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="5">
+        <f t="shared" ref="G2:O2" si="3">(150000-G6)/150000</f>
+        <v>0.11124000000000001</v>
+      </c>
+      <c r="H2" s="5">
+        <f t="shared" ref="H2:O2" si="4">(150-H6)/150</f>
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="I2" s="5">
+        <f t="shared" ref="I2:O2" si="5">(150000-I6)/150000</f>
+        <v>6.2E-2</v>
+      </c>
+      <c r="J2" s="5">
+        <f t="shared" ref="J2:O2" si="6">(150-J6)/150</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <f t="shared" ref="K2:O2" si="7">(150000-K6)/150000</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <f t="shared" ref="L2:O2" si="8">(150-L6)/150</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="M2" s="5">
+        <f t="shared" ref="M2:O2" si="9">(150000-M6)/150000</f>
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="N2" s="5">
+        <f t="shared" ref="N2:O2" si="10">(150-N6)/150</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="O2" s="5">
+        <f t="shared" ref="O2" si="11">(150000-O6)/150000</f>
+        <v>7.4913333333333332E-2</v>
       </c>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <f ca="1">INT(B6/$S$1)</f>
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <f ca="1">INT(C6/$S$1)</f>
+        <v>4435</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:O3" ca="1" si="12">INT(D6/$S$1)</f>
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ca="1" si="12"/>
+        <v>4838</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ca="1" si="12"/>
+        <v>4300</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ca="1" si="12"/>
+        <v>4538</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ca="1" si="12"/>
+        <v>4838</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" ca="1" si="12"/>
+        <v>4803</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" ca="1" si="12"/>
+        <v>4476</v>
+      </c>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1">
-        <f ca="1">150-INT(150-150/34*$S$1)-B5</f>
-        <v>-4</v>
-      </c>
-      <c r="C4" s="1">
-        <f ca="1">150000-INT(150000-150000/34*$S$1)-C5</f>
-        <v>-3736</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4" ca="1" si="1">150-INT(150-150/34*$S$1)-D5</f>
-        <v>-13</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" ref="E4" ca="1" si="2">150000-INT(150000-150000/34*$S$1)-E5</f>
-        <v>-13235</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" ref="F4" ca="1" si="3">150-INT(150-150/34*$S$1)-F5</f>
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4" ca="1" si="4">150000-INT(150000-150000/34*$S$1)-G5</f>
-        <v>3451</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" ref="H4" ca="1" si="5">150-INT(150-150/34*$S$1)-H5</f>
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <f>B10-B11</f>
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:O4" si="13">C10-C11</f>
+        <v>4350</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="13"/>
+        <v>3092</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I4" s="1">
-        <f t="shared" ref="I4" ca="1" si="6">150000-INT(150000-150000/34*$S$1)-I5</f>
-        <v>-4235</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" ref="J4" ca="1" si="7">150-INT(150-150/34*$S$1)-J5</f>
-        <v>-13</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" ref="K4" ca="1" si="8">150000-INT(150000-150000/34*$S$1)-K5</f>
-        <v>-13235</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" ref="L4" ca="1" si="9">150-INT(150-150/34*$S$1)-L5</f>
-        <v>-13</v>
-      </c>
-      <c r="M4" s="1">
-        <f t="shared" ref="M4" ca="1" si="10">150000-INT(150000-150000/34*$S$1)-M5</f>
-        <v>-12804</v>
-      </c>
-      <c r="N4" s="1">
-        <f t="shared" ref="N4" ca="1" si="11">150-INT(150-150/34*$S$1)-N5</f>
-        <v>-9</v>
-      </c>
-      <c r="O4" s="1">
-        <f t="shared" ref="O4" ca="1" si="12">150000-INT(150000-150000/34*$S$1)-O5</f>
-        <v>-3877</v>
-      </c>
+      <c r="O4" s="2">
+        <f t="shared" si="13"/>
+        <v>1879</v>
+      </c>
+      <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
-        <f>150-B9</f>
-        <v>141</v>
+        <f ca="1">150-INT(150-150/34*$S$1)-B6</f>
+        <v>-1</v>
       </c>
       <c r="C5" s="1">
-        <f>150000-C9</f>
-        <v>140501</v>
+        <f ca="1">150000-INT(150000-150000/34*$S$1)-C6</f>
+        <v>-735</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:O5" si="13">150-D9</f>
-        <v>150</v>
+        <f t="shared" ref="D5" ca="1" si="14">150-INT(150-150/34*$S$1)-D6</f>
+        <v>-13</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:O5" si="14">150000-E9</f>
-        <v>150000</v>
+        <f t="shared" ref="E5" ca="1" si="15">150000-INT(150000-150000/34*$S$1)-E6</f>
+        <v>-13235</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5:O5" si="15">150-F9</f>
-        <v>135</v>
+        <f t="shared" ref="F5" ca="1" si="16">150-INT(150-150/34*$S$1)-F6</f>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:O5" si="16">150000-G9</f>
-        <v>133314</v>
+        <f t="shared" ref="G5" ca="1" si="17">150000-INT(150000-150000/34*$S$1)-G6</f>
+        <v>3451</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ref="H5:O5" si="17">150-H9</f>
-        <v>136</v>
+        <f t="shared" ref="H5" ca="1" si="18">150-INT(150-150/34*$S$1)-H6</f>
+        <v>1</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:O5" si="18">150000-I9</f>
-        <v>141000</v>
+        <f t="shared" ref="I5" ca="1" si="19">150000-INT(150000-150000/34*$S$1)-I6</f>
+        <v>-3935</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" ref="J5:O5" si="19">150-J9</f>
-        <v>150</v>
+        <f t="shared" ref="J5" ca="1" si="20">150-INT(150-150/34*$S$1)-J6</f>
+        <v>-13</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" ref="K5:O5" si="20">150000-K9</f>
-        <v>150000</v>
+        <f t="shared" ref="K5" ca="1" si="21">150000-INT(150000-150000/34*$S$1)-K6</f>
+        <v>-13235</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" ref="L5:O5" si="21">150-L9</f>
-        <v>150</v>
+        <f t="shared" ref="L5" ca="1" si="22">150-INT(150-150/34*$S$1)-L6</f>
+        <v>-11</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" ref="M5:O5" si="22">150000-M9</f>
-        <v>149569</v>
+        <f t="shared" ref="M5" ca="1" si="23">150000-INT(150000-150000/34*$S$1)-M6</f>
+        <v>-12155</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" ref="N5:O5" si="23">150-N9</f>
-        <v>146</v>
+        <f t="shared" ref="N5" ca="1" si="24">150-INT(150-150/34*$S$1)-N6</f>
+        <v>-8</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" ref="O5" si="24">150000-O9</f>
-        <v>140642</v>
+        <f t="shared" ref="O5" ca="1" si="25">150000-INT(150000-150000/34*$S$1)-O6</f>
+        <v>-1998</v>
+      </c>
+      <c r="P5">
+        <f ca="1">SUM(B5,D5,F5,H5,J5,L5,N5)</f>
+        <v>-43</v>
+      </c>
+      <c r="Q5">
+        <f ca="1">SUM(C5,E5,G5,I5,K5,M5,O5)</f>
+        <v>-41842</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <f>150-B10</f>
+        <v>138</v>
+      </c>
+      <c r="C6" s="1">
+        <f>150000-C10</f>
+        <v>137500</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6" si="26">150-D10</f>
+        <v>150</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6" si="27">150000-E10</f>
+        <v>150000</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ref="F6" si="28">150-F10</f>
+        <v>135</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6" si="29">150000-G10</f>
+        <v>133314</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6" si="30">150-H10</f>
+        <v>136</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ref="I6" si="31">150000-I10</f>
+        <v>140700</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" ref="J6" si="32">150-J10</f>
+        <v>150</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" ref="K6" si="33">150000-K10</f>
+        <v>150000</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" ref="L6" si="34">150-L10</f>
+        <v>148</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" ref="M6" si="35">150000-M10</f>
+        <v>148920</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" ref="N6" si="36">150-N10</f>
+        <v>145</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" ref="O6" si="37">150000-O10</f>
+        <v>138763</v>
+      </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7" t="s">
-        <v>8</v>
-      </c>
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="3">
-        <v>41992</v>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="3">
-        <v>41991</v>
-      </c>
-      <c r="B9">
-        <f>B10</f>
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>9499</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ref="C9:O9" si="25">D10</f>
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="25"/>
-        <v>15</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="25"/>
-        <v>16686</v>
-      </c>
-      <c r="H9">
-        <v>14</v>
-      </c>
-      <c r="I9">
-        <v>9000</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="25"/>
-        <v>431</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="25"/>
-        <v>4</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="25"/>
-        <v>9358</v>
+        <v>41992</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="3">
+        <v>41991</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>12500</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:M10" si="38">D11</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="38"/>
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="38"/>
+        <v>16686</v>
+      </c>
+      <c r="H10">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <v>9300</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="38"/>
+        <v>1080</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>11237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="3">
         <v>41990</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>8150</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>15</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>16686</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>9</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>6208</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>431</v>
-      </c>
-      <c r="N10">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>1080</v>
+      </c>
+      <c r="N11">
         <v>4</v>
       </c>
-      <c r="O10">
+      <c r="O11">
         <v>9358</v>
       </c>
     </row>
@@ -860,7 +985,7 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="F1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:O4">
+  <conditionalFormatting sqref="B5:O5">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/mission wz.xlsx
+++ b/mission wz.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>France</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Avancement :</t>
+  </si>
+  <si>
+    <t>Temps écoulé</t>
   </si>
 </sst>
 </file>
@@ -104,7 +107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -117,6 +120,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,7 +444,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -511,11 +515,11 @@
       </c>
       <c r="F2" s="5">
         <f t="shared" ref="F2:O2" si="2">(150-F6)/150</f>
-        <v>0.1</v>
+        <v>0.11333333333333333</v>
       </c>
       <c r="G2" s="5">
         <f t="shared" ref="G2:O2" si="3">(150000-G6)/150000</f>
-        <v>0.11124000000000001</v>
+        <v>0.11133333333333334</v>
       </c>
       <c r="H2" s="5">
         <f t="shared" ref="H2:O2" si="4">(150-H6)/150</f>
@@ -535,11 +539,11 @@
       </c>
       <c r="L2" s="5">
         <f t="shared" ref="L2:O2" si="8">(150-L6)/150</f>
-        <v>1.3333333333333334E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="M2" s="5">
         <f t="shared" ref="M2:O2" si="9">(150000-M6)/150000</f>
-        <v>7.1999999999999998E-3</v>
+        <v>2.324E-2</v>
       </c>
       <c r="N2" s="5">
         <f t="shared" ref="N2:O2" si="10">(150-N6)/150</f>
@@ -549,7 +553,16 @@
         <f t="shared" ref="O2" si="11">(150000-O6)/150000</f>
         <v>7.4913333333333332E-2</v>
       </c>
-      <c r="Q2" s="3"/>
+      <c r="Q2" s="3">
+        <v>41989</v>
+      </c>
+      <c r="R2" s="3">
+        <v>42023</v>
+      </c>
+      <c r="S2">
+        <f>R2-Q2-1</f>
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
@@ -601,7 +614,7 @@
       </c>
       <c r="M3" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>4803</v>
+        <v>4726</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -612,6 +625,13 @@
         <v>4476</v>
       </c>
       <c r="Q3" s="3"/>
+      <c r="R3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="5">
+        <f ca="1">(S2-S1)/S2</f>
+        <v>6.0606060606060608E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
@@ -635,11 +655,11 @@
       </c>
       <c r="F4" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="13"/>
@@ -659,11 +679,11 @@
       </c>
       <c r="L4" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2406</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="13"/>
@@ -697,11 +717,11 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" ref="F5" ca="1" si="16">150-INT(150-150/34*$S$1)-F6</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5" ca="1" si="17">150000-INT(150000-150000/34*$S$1)-G6</f>
-        <v>3451</v>
+        <v>3465</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" ref="H5" ca="1" si="18">150-INT(150-150/34*$S$1)-H6</f>
@@ -721,11 +741,11 @@
       </c>
       <c r="L5" s="1">
         <f t="shared" ref="L5" ca="1" si="22">150-INT(150-150/34*$S$1)-L6</f>
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" ref="M5" ca="1" si="23">150000-INT(150000-150000/34*$S$1)-M6</f>
-        <v>-12155</v>
+        <v>-9749</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" ref="N5" ca="1" si="24">150-INT(150-150/34*$S$1)-N6</f>
@@ -737,12 +757,14 @@
       </c>
       <c r="P5">
         <f ca="1">SUM(B5,D5,F5,H5,J5,L5,N5)</f>
-        <v>-43</v>
+        <v>-38</v>
       </c>
       <c r="Q5">
         <f ca="1">SUM(C5,E5,G5,I5,K5,M5,O5)</f>
-        <v>-41842</v>
-      </c>
+        <v>-39422</v>
+      </c>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
@@ -766,11 +788,11 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" ref="F6" si="28">150-F10</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ref="G6" si="29">150000-G10</f>
-        <v>133314</v>
+        <v>133300</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" ref="H6" si="30">150-H10</f>
@@ -790,11 +812,11 @@
       </c>
       <c r="L6" s="1">
         <f t="shared" ref="L6" si="34">150-L10</f>
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" ref="M6" si="35">150000-M10</f>
-        <v>148920</v>
+        <v>146514</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" ref="N6" si="36">150-N10</f>
@@ -803,6 +825,22 @@
       <c r="O6" s="1">
         <f t="shared" ref="O6" si="37">150000-O10</f>
         <v>138763</v>
+      </c>
+      <c r="P6">
+        <f>SUM(B6,D6,F6,H6,J6,L6,N6)</f>
+        <v>997</v>
+      </c>
+      <c r="Q6">
+        <f>SUM(C6,E6,G6,I6,K6,M6,O6)</f>
+        <v>996777</v>
+      </c>
+      <c r="R6" s="6">
+        <f>(7*150-P6)/(7*150)</f>
+        <v>5.0476190476190473E-2</v>
+      </c>
+      <c r="S6" s="6">
+        <f>(7*150000-Q6)/(7*150000)</f>
+        <v>5.068857142857143E-2</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -823,6 +861,8 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
     </row>
     <row r="8" spans="1:19">
       <c r="B8" t="s">
@@ -892,12 +932,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="38"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G10">
-        <f t="shared" si="38"/>
-        <v>16686</v>
+        <v>16700</v>
       </c>
       <c r="H10">
         <v>14</v>
@@ -914,12 +952,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <f t="shared" si="38"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M10">
-        <f t="shared" si="38"/>
-        <v>1080</v>
+        <v>3486</v>
       </c>
       <c r="N10">
         <v>5</v>

--- a/mission wz.xlsx
+++ b/mission wz.xlsx
@@ -444,7 +444,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -483,14 +483,14 @@
       <c r="O1" s="4"/>
       <c r="Q1" s="3">
         <f ca="1">TODAY()</f>
-        <v>41991</v>
+        <v>41992</v>
       </c>
       <c r="R1" s="3">
         <v>42023</v>
       </c>
       <c r="S1">
         <f ca="1">R1-Q1-1</f>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -499,11 +499,11 @@
       </c>
       <c r="B2" s="5">
         <f>(150-B6)/150</f>
-        <v>0.08</v>
+        <v>0.12666666666666668</v>
       </c>
       <c r="C2" s="5">
         <f>(150000-C6)/150000</f>
-        <v>8.3333333333333329E-2</v>
+        <v>9.2460000000000001E-2</v>
       </c>
       <c r="D2" s="5">
         <f t="shared" ref="D2:O2" si="0">(150-D6)/150</f>
@@ -511,7 +511,7 @@
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:O2" si="1">(150000-E6)/150000</f>
-        <v>0</v>
+        <v>3.1066666666666669E-3</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ref="F2:O2" si="2">(150-F6)/150</f>
@@ -519,15 +519,15 @@
       </c>
       <c r="G2" s="5">
         <f t="shared" ref="G2:O2" si="3">(150000-G6)/150000</f>
-        <v>0.11133333333333334</v>
+        <v>0.11896666666666667</v>
       </c>
       <c r="H2" s="5">
         <f t="shared" ref="H2:O2" si="4">(150-H6)/150</f>
-        <v>9.3333333333333338E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" ref="I2:O2" si="5">(150000-I6)/150000</f>
-        <v>6.2E-2</v>
+        <v>8.9380000000000001E-2</v>
       </c>
       <c r="J2" s="5">
         <f t="shared" ref="J2:O2" si="6">(150-J6)/150</f>
@@ -543,7 +543,7 @@
       </c>
       <c r="M2" s="5">
         <f t="shared" ref="M2:O2" si="9">(150000-M6)/150000</f>
-        <v>2.324E-2</v>
+        <v>3.108E-2</v>
       </c>
       <c r="N2" s="5">
         <f t="shared" ref="N2:O2" si="10">(150-N6)/150</f>
@@ -551,7 +551,7 @@
       </c>
       <c r="O2" s="5">
         <f t="shared" ref="O2" si="11">(150000-O6)/150000</f>
-        <v>7.4913333333333332E-2</v>
+        <v>7.9726666666666668E-2</v>
       </c>
       <c r="Q2" s="3">
         <v>41989</v>
@@ -574,15 +574,15 @@
       </c>
       <c r="C3" s="1">
         <f ca="1">INT(C6/$S$1)</f>
-        <v>4435</v>
+        <v>4537</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:O3" ca="1" si="12">INT(D6/$S$1)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>4838</v>
+        <v>4984</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -590,7 +590,7 @@
       </c>
       <c r="G3" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>4300</v>
+        <v>4405</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -598,15 +598,15 @@
       </c>
       <c r="I3" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>4538</v>
+        <v>4553</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>4838</v>
+        <v>5000</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -614,7 +614,7 @@
       </c>
       <c r="M3" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>4726</v>
+        <v>4844</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -622,7 +622,7 @@
       </c>
       <c r="O3" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>4476</v>
+        <v>4601</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" t="s">
@@ -630,7 +630,7 @@
       </c>
       <c r="S3" s="5">
         <f ca="1">(S2-S1)/S2</f>
-        <v>6.0606060606060608E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -638,12 +638,12 @@
         <v>13</v>
       </c>
       <c r="B4" s="2">
-        <f>B10-B11</f>
-        <v>3</v>
+        <f>B9-B10</f>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:O4" si="13">C10-C11</f>
-        <v>4350</v>
+        <f t="shared" ref="C4:O4" si="13">C9-C10</f>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="13"/>
@@ -655,19 +655,19 @@
       </c>
       <c r="F4" s="2">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="13"/>
-        <v>14</v>
+        <v>1145</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="13"/>
-        <v>3092</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="13"/>
@@ -679,19 +679,19 @@
       </c>
       <c r="L4" s="2">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="13"/>
-        <v>2406</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="13"/>
-        <v>1879</v>
+        <v>722</v>
       </c>
       <c r="Q4" s="3"/>
     </row>
@@ -701,146 +701,152 @@
       </c>
       <c r="B5" s="1">
         <f ca="1">150-INT(150-150/34*$S$1)-B6</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <f ca="1">150000-INT(150000-150000/34*$S$1)-C6</f>
-        <v>-735</v>
+        <v>-3778</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5" ca="1" si="14">150-INT(150-150/34*$S$1)-D6</f>
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5" ca="1" si="15">150000-INT(150000-150000/34*$S$1)-E6</f>
-        <v>-13235</v>
+        <v>-17181</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ref="F5" ca="1" si="16">150-INT(150-150/34*$S$1)-F6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5" ca="1" si="17">150000-INT(150000-150000/34*$S$1)-G6</f>
-        <v>3465</v>
+        <v>198</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" ref="H5" ca="1" si="18">150-INT(150-150/34*$S$1)-H6</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5" ca="1" si="19">150000-INT(150000-150000/34*$S$1)-I6</f>
-        <v>-3935</v>
+        <v>-4240</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ref="J5" ca="1" si="20">150-INT(150-150/34*$S$1)-J6</f>
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" ref="K5" ca="1" si="21">150000-INT(150000-150000/34*$S$1)-K6</f>
-        <v>-13235</v>
+        <v>-17647</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" ref="L5" ca="1" si="22">150-INT(150-150/34*$S$1)-L6</f>
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" ref="M5" ca="1" si="23">150000-INT(150000-150000/34*$S$1)-M6</f>
-        <v>-9749</v>
+        <v>-12985</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" ref="N5" ca="1" si="24">150-INT(150-150/34*$S$1)-N6</f>
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" ref="O5" ca="1" si="25">150000-INT(150000-150000/34*$S$1)-O6</f>
-        <v>-1998</v>
+        <v>-5688</v>
       </c>
       <c r="P5">
         <f ca="1">SUM(B5,D5,F5,H5,J5,L5,N5)</f>
-        <v>-38</v>
+        <v>-52</v>
       </c>
       <c r="Q5">
         <f ca="1">SUM(C5,E5,G5,I5,K5,M5,O5)</f>
-        <v>-39422</v>
-      </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
+        <v>-61321</v>
+      </c>
+      <c r="R5" s="6">
+        <f ca="1">-$S$3+R6</f>
+        <v>-2.7099567099567096E-2</v>
+      </c>
+      <c r="S5" s="6">
+        <f ca="1">-$S$3+S6</f>
+        <v>-3.1663376623376628E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <f>150-B10</f>
-        <v>138</v>
+        <f>150-B9</f>
+        <v>131</v>
       </c>
       <c r="C6" s="1">
-        <f>150000-C10</f>
-        <v>137500</v>
+        <f>150000-C9</f>
+        <v>136131</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6" si="26">150-D10</f>
+        <f t="shared" ref="D6" si="26">150-D9</f>
         <v>150</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6" si="27">150000-E10</f>
+        <f t="shared" ref="E6" si="27">150000-E9</f>
+        <v>149534</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ref="F6" si="28">150-F9</f>
+        <v>133</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6" si="29">150000-G9</f>
+        <v>132155</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6" si="30">150-H9</f>
+        <v>129</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ref="I6" si="31">150000-I9</f>
+        <v>136593</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" ref="J6" si="32">150-J9</f>
+        <v>150</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" ref="K6" si="33">150000-K9</f>
         <v>150000</v>
       </c>
-      <c r="F6" s="1">
-        <f t="shared" ref="F6" si="28">150-F10</f>
-        <v>133</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" ref="G6" si="29">150000-G10</f>
-        <v>133300</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" ref="H6" si="30">150-H10</f>
-        <v>136</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" ref="I6" si="31">150000-I10</f>
-        <v>140700</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" ref="J6" si="32">150-J10</f>
-        <v>150</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" ref="K6" si="33">150000-K10</f>
-        <v>150000</v>
-      </c>
       <c r="L6" s="1">
-        <f t="shared" ref="L6" si="34">150-L10</f>
+        <f t="shared" ref="L6" si="34">150-L9</f>
         <v>145</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" ref="M6" si="35">150000-M10</f>
-        <v>146514</v>
+        <f t="shared" ref="M6" si="35">150000-M9</f>
+        <v>145338</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" ref="N6" si="36">150-N10</f>
+        <f t="shared" ref="N6" si="36">150-N9</f>
         <v>145</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" ref="O6" si="37">150000-O10</f>
-        <v>138763</v>
+        <f t="shared" ref="O6" si="37">150000-O9</f>
+        <v>138041</v>
       </c>
       <c r="P6">
         <f>SUM(B6,D6,F6,H6,J6,L6,N6)</f>
-        <v>997</v>
+        <v>983</v>
       </c>
       <c r="Q6">
         <f>SUM(C6,E6,G6,I6,K6,M6,O6)</f>
-        <v>996777</v>
+        <v>987792</v>
       </c>
       <c r="R6" s="6">
         <f>(7*150-P6)/(7*150)</f>
-        <v>5.0476190476190473E-2</v>
+        <v>6.3809523809523816E-2</v>
       </c>
       <c r="S6" s="6">
         <f>(7*150000-Q6)/(7*150000)</f>
-        <v>5.068857142857143E-2</v>
+        <v>5.9245714285714283E-2</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -861,6 +867,14 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
+      <c r="P7">
+        <f>150*7-P6</f>
+        <v>67</v>
+      </c>
+      <c r="Q7">
+        <f>150000*7-Q6</f>
+        <v>62208</v>
+      </c>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
     </row>
@@ -912,24 +926,68 @@
       <c r="A9" s="3">
         <v>41992</v>
       </c>
+      <c r="B9">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>13869</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:K10" si="38">D10</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>466</v>
+      </c>
+      <c r="F9">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>17845</v>
+      </c>
+      <c r="H9">
+        <v>21</v>
+      </c>
+      <c r="I9">
+        <v>13407</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>4662</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>11959</v>
+      </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="3">
         <v>41991</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>12500</v>
+        <v>13869</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:M10" si="38">D11</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="F10">
         <v>17</v>
@@ -938,10 +996,10 @@
         <v>16700</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I10">
-        <v>9300</v>
+        <v>13407</v>
       </c>
       <c r="J10">
         <f t="shared" si="38"/>
@@ -955,7 +1013,7 @@
         <v>5</v>
       </c>
       <c r="M10">
-        <v>3486</v>
+        <v>4662</v>
       </c>
       <c r="N10">
         <v>5</v>

--- a/mission wz.xlsx
+++ b/mission wz.xlsx
@@ -116,11 +116,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,7 +444,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -453,34 +453,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4" t="s">
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="4"/>
+      <c r="O1" s="6"/>
       <c r="Q1" s="3">
         <f ca="1">TODAY()</f>
         <v>41992</v>
@@ -497,61 +497,61 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <f>(150-B6)/150</f>
         <v>0.12666666666666668</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <f>(150000-C6)/150000</f>
         <v>9.2460000000000001E-2</v>
       </c>
-      <c r="D2" s="5">
-        <f t="shared" ref="D2:O2" si="0">(150-D6)/150</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <f t="shared" ref="E2:O2" si="1">(150000-E6)/150000</f>
+      <c r="D2" s="4">
+        <f t="shared" ref="D2" si="0">(150-D6)/150</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <f t="shared" ref="E2" si="1">(150000-E6)/150000</f>
         <v>3.1066666666666669E-3</v>
       </c>
-      <c r="F2" s="5">
-        <f t="shared" ref="F2:O2" si="2">(150-F6)/150</f>
+      <c r="F2" s="4">
+        <f t="shared" ref="F2" si="2">(150-F6)/150</f>
         <v>0.11333333333333333</v>
       </c>
-      <c r="G2" s="5">
-        <f t="shared" ref="G2:O2" si="3">(150000-G6)/150000</f>
+      <c r="G2" s="4">
+        <f t="shared" ref="G2" si="3">(150000-G6)/150000</f>
         <v>0.11896666666666667</v>
       </c>
-      <c r="H2" s="5">
-        <f t="shared" ref="H2:O2" si="4">(150-H6)/150</f>
+      <c r="H2" s="4">
+        <f t="shared" ref="H2" si="4">(150-H6)/150</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="I2" s="5">
-        <f t="shared" ref="I2:O2" si="5">(150000-I6)/150000</f>
+      <c r="I2" s="4">
+        <f t="shared" ref="I2" si="5">(150000-I6)/150000</f>
         <v>8.9380000000000001E-2</v>
       </c>
-      <c r="J2" s="5">
-        <f t="shared" ref="J2:O2" si="6">(150-J6)/150</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
-        <f t="shared" ref="K2:O2" si="7">(150000-K6)/150000</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="5">
-        <f t="shared" ref="L2:O2" si="8">(150-L6)/150</f>
+      <c r="J2" s="4">
+        <f t="shared" ref="J2" si="6">(150-J6)/150</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" ref="K2" si="7">(150000-K6)/150000</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <f t="shared" ref="L2" si="8">(150-L6)/150</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="M2" s="5">
-        <f t="shared" ref="M2:O2" si="9">(150000-M6)/150000</f>
+      <c r="M2" s="4">
+        <f t="shared" ref="M2" si="9">(150000-M6)/150000</f>
         <v>3.108E-2</v>
       </c>
-      <c r="N2" s="5">
-        <f t="shared" ref="N2:O2" si="10">(150-N6)/150</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="O2" s="5">
+      <c r="N2" s="4">
+        <f t="shared" ref="N2" si="10">(150-N6)/150</f>
+        <v>0.04</v>
+      </c>
+      <c r="O2" s="4">
         <f t="shared" ref="O2" si="11">(150000-O6)/150000</f>
-        <v>7.9726666666666668E-2</v>
+        <v>9.9500000000000005E-2</v>
       </c>
       <c r="Q2" s="3">
         <v>41989</v>
@@ -622,13 +622,13 @@
       </c>
       <c r="O3" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>4601</v>
+        <v>4502</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="4">
         <f ca="1">(S2-S1)/S2</f>
         <v>9.0909090909090912E-2</v>
       </c>
@@ -687,11 +687,11 @@
       </c>
       <c r="N4" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="13"/>
-        <v>722</v>
+        <v>3688</v>
       </c>
       <c r="Q4" s="3"/>
     </row>
@@ -749,27 +749,27 @@
       </c>
       <c r="N5" s="1">
         <f t="shared" ref="N5" ca="1" si="24">150-INT(150-150/34*$S$1)-N6</f>
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" ref="O5" ca="1" si="25">150000-INT(150000-150000/34*$S$1)-O6</f>
-        <v>-5688</v>
+        <v>-2722</v>
       </c>
       <c r="P5">
         <f ca="1">SUM(B5,D5,F5,H5,J5,L5,N5)</f>
-        <v>-52</v>
+        <v>-51</v>
       </c>
       <c r="Q5">
         <f ca="1">SUM(C5,E5,G5,I5,K5,M5,O5)</f>
-        <v>-61321</v>
-      </c>
-      <c r="R5" s="6">
+        <v>-58355</v>
+      </c>
+      <c r="R5" s="5">
         <f ca="1">-$S$3+R6</f>
-        <v>-2.7099567099567096E-2</v>
-      </c>
-      <c r="S5" s="6">
+        <v>-2.6147186147186155E-2</v>
+      </c>
+      <c r="S5" s="5">
         <f ca="1">-$S$3+S6</f>
-        <v>-3.1663376623376628E-2</v>
+        <v>-2.8838614718614722E-2</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -826,27 +826,27 @@
       </c>
       <c r="N6" s="1">
         <f t="shared" ref="N6" si="36">150-N9</f>
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" ref="O6" si="37">150000-O9</f>
-        <v>138041</v>
+        <v>135075</v>
       </c>
       <c r="P6">
         <f>SUM(B6,D6,F6,H6,J6,L6,N6)</f>
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="Q6">
         <f>SUM(C6,E6,G6,I6,K6,M6,O6)</f>
-        <v>987792</v>
-      </c>
-      <c r="R6" s="6">
+        <v>984826</v>
+      </c>
+      <c r="R6" s="5">
         <f>(7*150-P6)/(7*150)</f>
-        <v>6.3809523809523816E-2</v>
-      </c>
-      <c r="S6" s="6">
+        <v>6.4761904761904757E-2</v>
+      </c>
+      <c r="S6" s="5">
         <f>(7*150000-Q6)/(7*150000)</f>
-        <v>5.9245714285714283E-2</v>
+        <v>6.207047619047619E-2</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -869,14 +869,14 @@
       <c r="O7" s="1"/>
       <c r="P7">
         <f>150*7-P6</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q7">
         <f>150000*7-Q6</f>
-        <v>62208</v>
-      </c>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
+        <v>65174</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19">
       <c r="B8" t="s">
@@ -966,10 +966,10 @@
         <v>4662</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O9">
-        <v>11959</v>
+        <v>14925</v>
       </c>
     </row>
     <row r="10" spans="1:19">

--- a/mission wz.xlsx
+++ b/mission wz.xlsx
@@ -444,7 +444,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -952,10 +952,6 @@
         <v>13407</v>
       </c>
       <c r="J9">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="K9">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>

--- a/mission wz.xlsx
+++ b/mission wz.xlsx
@@ -126,7 +126,283 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -441,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -483,14 +759,14 @@
       <c r="O1" s="6"/>
       <c r="Q1" s="3">
         <f ca="1">TODAY()</f>
-        <v>41992</v>
+        <v>41993</v>
       </c>
       <c r="R1" s="3">
         <v>42023</v>
       </c>
       <c r="S1">
         <f ca="1">R1-Q1-1</f>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -499,11 +775,11 @@
       </c>
       <c r="B2" s="4">
         <f>(150-B6)/150</f>
-        <v>0.12666666666666668</v>
+        <v>0.15333333333333332</v>
       </c>
       <c r="C2" s="4">
         <f>(150000-C6)/150000</f>
-        <v>9.2460000000000001E-2</v>
+        <v>0.11648</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2" si="0">(150-D6)/150</f>
@@ -511,7 +787,7 @@
       </c>
       <c r="E2" s="4">
         <f t="shared" ref="E2" si="1">(150000-E6)/150000</f>
-        <v>3.1066666666666669E-3</v>
+        <v>1.7246666666666667E-2</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" ref="F2" si="2">(150-F6)/150</f>
@@ -523,11 +799,11 @@
       </c>
       <c r="H2" s="4">
         <f t="shared" ref="H2" si="4">(150-H6)/150</f>
-        <v>0.14000000000000001</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" ref="I2" si="5">(150000-I6)/150000</f>
-        <v>8.9380000000000001E-2</v>
+        <v>0.11177333333333334</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" ref="J2" si="6">(150-J6)/150</f>
@@ -539,19 +815,19 @@
       </c>
       <c r="L2" s="4">
         <f t="shared" ref="L2" si="8">(150-L6)/150</f>
-        <v>3.3333333333333333E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" ref="M2" si="9">(150000-M6)/150000</f>
-        <v>3.108E-2</v>
+        <v>4.5333333333333337E-2</v>
       </c>
       <c r="N2" s="4">
         <f t="shared" ref="N2" si="10">(150-N6)/150</f>
-        <v>0.04</v>
+        <v>8.666666666666667E-2</v>
       </c>
       <c r="O2" s="4">
         <f t="shared" ref="O2" si="11">(150000-O6)/150000</f>
-        <v>9.9500000000000005E-2</v>
+        <v>0.13410666666666668</v>
       </c>
       <c r="Q2" s="3">
         <v>41989</v>
@@ -574,7 +850,7 @@
       </c>
       <c r="C3" s="1">
         <f ca="1">INT(C6/$S$1)</f>
-        <v>4537</v>
+        <v>4569</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:O3" ca="1" si="12">INT(D6/$S$1)</f>
@@ -582,7 +858,7 @@
       </c>
       <c r="E3" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>4984</v>
+        <v>5083</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -590,7 +866,7 @@
       </c>
       <c r="G3" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>4405</v>
+        <v>4557</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -598,7 +874,7 @@
       </c>
       <c r="I3" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>4553</v>
+        <v>4594</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -606,7 +882,7 @@
       </c>
       <c r="K3" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>5000</v>
+        <v>5172</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -614,7 +890,7 @@
       </c>
       <c r="M3" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>4844</v>
+        <v>4937</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -622,7 +898,7 @@
       </c>
       <c r="O3" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>4502</v>
+        <v>4478</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" t="s">
@@ -630,7 +906,7 @@
       </c>
       <c r="S3" s="4">
         <f ca="1">(S2-S1)/S2</f>
-        <v>9.0909090909090912E-2</v>
+        <v>0.12121212121212122</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -659,15 +935,15 @@
       </c>
       <c r="G4" s="2">
         <f t="shared" si="13"/>
-        <v>1145</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>849</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="13"/>
@@ -687,11 +963,11 @@
       </c>
       <c r="N4" s="2">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="13"/>
-        <v>3688</v>
+        <v>337</v>
       </c>
       <c r="Q4" s="3"/>
     </row>
@@ -701,43 +977,43 @@
       </c>
       <c r="B5" s="1">
         <f ca="1">150-INT(150-150/34*$S$1)-B6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <f ca="1">150000-INT(150000-150000/34*$S$1)-C6</f>
-        <v>-3778</v>
+        <v>-4586</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5" ca="1" si="14">150-INT(150-150/34*$S$1)-D6</f>
-        <v>-17</v>
+        <v>-22</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5" ca="1" si="15">150000-INT(150000-150000/34*$S$1)-E6</f>
-        <v>-17181</v>
+        <v>-19471</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ref="F5" ca="1" si="16">150-INT(150-150/34*$S$1)-F6</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5" ca="1" si="17">150000-INT(150000-150000/34*$S$1)-G6</f>
-        <v>198</v>
+        <v>-4213</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" ref="H5" ca="1" si="18">150-INT(150-150/34*$S$1)-H6</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5" ca="1" si="19">150000-INT(150000-150000/34*$S$1)-I6</f>
-        <v>-4240</v>
+        <v>-5292</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ref="J5" ca="1" si="20">150-INT(150-150/34*$S$1)-J6</f>
-        <v>-17</v>
+        <v>-22</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" ref="K5" ca="1" si="21">150000-INT(150000-150000/34*$S$1)-K6</f>
-        <v>-17647</v>
+        <v>-22058</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" ref="L5" ca="1" si="22">150-INT(150-150/34*$S$1)-L6</f>
@@ -745,31 +1021,31 @@
       </c>
       <c r="M5" s="1">
         <f t="shared" ref="M5" ca="1" si="23">150000-INT(150000-150000/34*$S$1)-M6</f>
-        <v>-12985</v>
+        <v>-15258</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" ref="N5" ca="1" si="24">150-INT(150-150/34*$S$1)-N6</f>
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" ref="O5" ca="1" si="25">150000-INT(150000-150000/34*$S$1)-O6</f>
-        <v>-2722</v>
+        <v>-1942</v>
       </c>
       <c r="P5">
         <f ca="1">SUM(B5,D5,F5,H5,J5,L5,N5)</f>
-        <v>-51</v>
+        <v>-66</v>
       </c>
       <c r="Q5">
         <f ca="1">SUM(C5,E5,G5,I5,K5,M5,O5)</f>
-        <v>-58355</v>
+        <v>-72820</v>
       </c>
       <c r="R5" s="5">
         <f ca="1">-$S$3+R6</f>
-        <v>-2.6147186147186155E-2</v>
+        <v>-3.740259740259741E-2</v>
       </c>
       <c r="S5" s="5">
         <f ca="1">-$S$3+S6</f>
-        <v>-2.8838614718614722E-2</v>
+        <v>-4.3511168831168831E-2</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -778,11 +1054,11 @@
       </c>
       <c r="B6" s="1">
         <f>150-B9</f>
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1">
         <f>150000-C9</f>
-        <v>136131</v>
+        <v>132528</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ref="D6" si="26">150-D9</f>
@@ -790,7 +1066,7 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" ref="E6" si="27">150000-E9</f>
-        <v>149534</v>
+        <v>147413</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ref="F6" si="28">150-F9</f>
@@ -802,11 +1078,11 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" ref="H6" si="30">150-H9</f>
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" ref="I6" si="31">150000-I9</f>
-        <v>136593</v>
+        <v>133234</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" ref="J6" si="32">150-J9</f>
@@ -818,35 +1094,35 @@
       </c>
       <c r="L6" s="1">
         <f t="shared" ref="L6" si="34">150-L9</f>
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" ref="M6" si="35">150000-M9</f>
-        <v>145338</v>
+        <v>143200</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" ref="N6" si="36">150-N9</f>
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" ref="O6" si="37">150000-O9</f>
-        <v>135075</v>
+        <v>129884</v>
       </c>
       <c r="P6">
         <f>SUM(B6,D6,F6,H6,J6,L6,N6)</f>
-        <v>982</v>
+        <v>962</v>
       </c>
       <c r="Q6">
         <f>SUM(C6,E6,G6,I6,K6,M6,O6)</f>
-        <v>984826</v>
+        <v>968414</v>
       </c>
       <c r="R6" s="5">
         <f>(7*150-P6)/(7*150)</f>
-        <v>6.4761904761904757E-2</v>
+        <v>8.3809523809523806E-2</v>
       </c>
       <c r="S6" s="5">
         <f>(7*150000-Q6)/(7*150000)</f>
-        <v>6.207047619047619E-2</v>
+        <v>7.7700952380952384E-2</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -869,11 +1145,11 @@
       <c r="O7" s="1"/>
       <c r="P7">
         <f>150*7-P6</f>
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="Q7">
         <f>150000*7-Q6</f>
-        <v>65174</v>
+        <v>81586</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -924,144 +1200,204 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="3">
-        <v>41992</v>
+        <v>41993</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <f>B10</f>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>13869</v>
+        <f t="shared" ref="C9:O9" si="38">C10</f>
+        <v>17472</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:K10" si="38">D10</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <v>466</v>
+        <f t="shared" si="38"/>
+        <v>2587</v>
       </c>
       <c r="F9">
+        <f t="shared" si="38"/>
         <v>17</v>
       </c>
       <c r="G9">
+        <f t="shared" si="38"/>
         <v>17845</v>
       </c>
       <c r="H9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I9">
-        <v>13407</v>
+        <v>16766</v>
       </c>
       <c r="J9">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
+      <c r="K9">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
       <c r="L9">
-        <v>5</v>
+        <f t="shared" si="38"/>
+        <v>10</v>
       </c>
       <c r="M9">
-        <v>4662</v>
+        <f t="shared" si="38"/>
+        <v>6800</v>
       </c>
       <c r="N9">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O9">
-        <v>14925</v>
+        <v>20116</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="3">
-        <v>41991</v>
+        <v>41992</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>13869</v>
+        <v>17472</v>
       </c>
       <c r="D10">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="D9:K11" si="39">D11</f>
         <v>0</v>
       </c>
       <c r="E10">
-        <v>466</v>
+        <v>2587</v>
       </c>
       <c r="F10">
         <v>17</v>
       </c>
       <c r="G10">
-        <v>16700</v>
+        <v>17845</v>
       </c>
       <c r="H10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I10">
-        <v>13407</v>
+        <v>15917</v>
       </c>
       <c r="J10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="K10">
-        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M10">
-        <v>4662</v>
+        <v>6800</v>
       </c>
       <c r="N10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O10">
-        <v>11237</v>
+        <v>19779</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="3">
+        <v>41991</v>
+      </c>
+      <c r="B11">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>13869</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>466</v>
+      </c>
+      <c r="F11">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>16700</v>
+      </c>
+      <c r="H11">
+        <v>21</v>
+      </c>
+      <c r="I11">
+        <v>13407</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>4662</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>11237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="3">
         <v>41990</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>8150</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>15</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>16686</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>9</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>6208</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>2</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>1080</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <v>4</v>
       </c>
-      <c r="O11">
+      <c r="O12">
         <v>9358</v>
       </c>
     </row>
@@ -1076,10 +1412,33 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:O5">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
+      <formula>$S$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:O2">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
+      <formula>$S$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:O2">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
+      <formula>$S$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5:S5">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/mission wz.xlsx
+++ b/mission wz.xlsx
@@ -126,19 +126,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <condense val="0"/>
@@ -160,210 +148,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -719,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -779,7 +563,7 @@
       </c>
       <c r="C2" s="4">
         <f>(150000-C6)/150000</f>
-        <v>0.11648</v>
+        <v>0.1168</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2" si="0">(150-D6)/150</f>
@@ -791,11 +575,11 @@
       </c>
       <c r="F2" s="4">
         <f t="shared" ref="F2" si="2">(150-F6)/150</f>
-        <v>0.11333333333333333</v>
+        <v>0.12666666666666668</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" ref="G2" si="3">(150000-G6)/150000</f>
-        <v>0.11896666666666667</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" ref="H2" si="4">(150-H6)/150</f>
@@ -803,7 +587,7 @@
       </c>
       <c r="I2" s="4">
         <f t="shared" ref="I2" si="5">(150000-I6)/150000</f>
-        <v>0.11177333333333334</v>
+        <v>0.11647333333333333</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" ref="J2" si="6">(150-J6)/150</f>
@@ -815,19 +599,19 @@
       </c>
       <c r="L2" s="4">
         <f t="shared" ref="L2" si="8">(150-L6)/150</f>
-        <v>6.6666666666666666E-2</v>
+        <v>7.3333333333333334E-2</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" ref="M2" si="9">(150000-M6)/150000</f>
-        <v>4.5333333333333337E-2</v>
+        <v>7.6293333333333338E-2</v>
       </c>
       <c r="N2" s="4">
         <f t="shared" ref="N2" si="10">(150-N6)/150</f>
-        <v>8.666666666666667E-2</v>
+        <v>9.3333333333333338E-2</v>
       </c>
       <c r="O2" s="4">
         <f t="shared" ref="O2" si="11">(150000-O6)/150000</f>
-        <v>0.13410666666666668</v>
+        <v>0.15672666666666665</v>
       </c>
       <c r="Q2" s="3">
         <v>41989</v>
@@ -850,7 +634,7 @@
       </c>
       <c r="C3" s="1">
         <f ca="1">INT(C6/$S$1)</f>
-        <v>4569</v>
+        <v>4568</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:O3" ca="1" si="12">INT(D6/$S$1)</f>
@@ -866,7 +650,7 @@
       </c>
       <c r="G3" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>4557</v>
+        <v>4468</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -874,7 +658,7 @@
       </c>
       <c r="I3" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>4594</v>
+        <v>4569</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -890,7 +674,7 @@
       </c>
       <c r="M3" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>4937</v>
+        <v>4777</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -898,7 +682,7 @@
       </c>
       <c r="O3" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>4478</v>
+        <v>4361</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" t="s">
@@ -919,7 +703,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:O4" si="13">C9-C10</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="13"/>
@@ -931,11 +715,11 @@
       </c>
       <c r="F4" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2555</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="13"/>
@@ -943,7 +727,7 @@
       </c>
       <c r="I4" s="2">
         <f t="shared" si="13"/>
-        <v>849</v>
+        <v>1554</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="13"/>
@@ -955,19 +739,19 @@
       </c>
       <c r="L4" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4644</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="13"/>
-        <v>337</v>
+        <v>3730</v>
       </c>
       <c r="Q4" s="3"/>
     </row>
@@ -981,7 +765,7 @@
       </c>
       <c r="C5" s="1">
         <f ca="1">150000-INT(150000-150000/34*$S$1)-C6</f>
-        <v>-4586</v>
+        <v>-4538</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5" ca="1" si="14">150-INT(150-150/34*$S$1)-D6</f>
@@ -993,11 +777,11 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" ref="F5" ca="1" si="16">150-INT(150-150/34*$S$1)-F6</f>
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5" ca="1" si="17">150000-INT(150000-150000/34*$S$1)-G6</f>
-        <v>-4213</v>
+        <v>-1658</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" ref="H5" ca="1" si="18">150-INT(150-150/34*$S$1)-H6</f>
@@ -1005,7 +789,7 @@
       </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5" ca="1" si="19">150000-INT(150000-150000/34*$S$1)-I6</f>
-        <v>-5292</v>
+        <v>-4587</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ref="J5" ca="1" si="20">150-INT(150-150/34*$S$1)-J6</f>
@@ -1017,35 +801,35 @@
       </c>
       <c r="L5" s="1">
         <f t="shared" ref="L5" ca="1" si="22">150-INT(150-150/34*$S$1)-L6</f>
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" ref="M5" ca="1" si="23">150000-INT(150000-150000/34*$S$1)-M6</f>
-        <v>-15258</v>
+        <v>-10614</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" ref="N5" ca="1" si="24">150-INT(150-150/34*$S$1)-N6</f>
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" ref="O5" ca="1" si="25">150000-INT(150000-150000/34*$S$1)-O6</f>
-        <v>-1942</v>
+        <v>1451</v>
       </c>
       <c r="P5">
         <f ca="1">SUM(B5,D5,F5,H5,J5,L5,N5)</f>
-        <v>-66</v>
+        <v>-62</v>
       </c>
       <c r="Q5">
         <f ca="1">SUM(C5,E5,G5,I5,K5,M5,O5)</f>
-        <v>-72820</v>
+        <v>-61475</v>
       </c>
       <c r="R5" s="5">
         <f ca="1">-$S$3+R6</f>
-        <v>-3.740259740259741E-2</v>
+        <v>-3.3593073593073591E-2</v>
       </c>
       <c r="S5" s="5">
         <f ca="1">-$S$3+S6</f>
-        <v>-4.3511168831168831E-2</v>
+        <v>-3.2706406926406931E-2</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1058,7 +842,7 @@
       </c>
       <c r="C6" s="1">
         <f>150000-C9</f>
-        <v>132528</v>
+        <v>132480</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ref="D6" si="26">150-D9</f>
@@ -1070,11 +854,11 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" ref="F6" si="28">150-F9</f>
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ref="G6" si="29">150000-G9</f>
-        <v>132155</v>
+        <v>129600</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" ref="H6" si="30">150-H9</f>
@@ -1082,7 +866,7 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" ref="I6" si="31">150000-I9</f>
-        <v>133234</v>
+        <v>132529</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" ref="J6" si="32">150-J9</f>
@@ -1094,35 +878,35 @@
       </c>
       <c r="L6" s="1">
         <f t="shared" ref="L6" si="34">150-L9</f>
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" ref="M6" si="35">150000-M9</f>
-        <v>143200</v>
+        <v>138556</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" ref="N6" si="36">150-N9</f>
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" ref="O6" si="37">150000-O9</f>
-        <v>129884</v>
+        <v>126491</v>
       </c>
       <c r="P6">
         <f>SUM(B6,D6,F6,H6,J6,L6,N6)</f>
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="Q6">
         <f>SUM(C6,E6,G6,I6,K6,M6,O6)</f>
-        <v>968414</v>
+        <v>957069</v>
       </c>
       <c r="R6" s="5">
         <f>(7*150-P6)/(7*150)</f>
-        <v>8.3809523809523806E-2</v>
+        <v>8.7619047619047624E-2</v>
       </c>
       <c r="S6" s="5">
         <f>(7*150000-Q6)/(7*150000)</f>
-        <v>7.7700952380952384E-2</v>
+        <v>8.8505714285714285E-2</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1145,11 +929,11 @@
       <c r="O7" s="1"/>
       <c r="P7">
         <f>150*7-P6</f>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q7">
         <f>150000*7-Q6</f>
-        <v>81586</v>
+        <v>92931</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -1207,11 +991,10 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:O9" si="38">C10</f>
-        <v>17472</v>
+        <v>17520</v>
       </c>
       <c r="D9">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="C9:M9" si="38">D10</f>
         <v>0</v>
       </c>
       <c r="E9">
@@ -1219,18 +1002,16 @@
         <v>2587</v>
       </c>
       <c r="F9">
-        <f t="shared" si="38"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G9">
-        <f t="shared" si="38"/>
-        <v>17845</v>
+        <v>20400</v>
       </c>
       <c r="H9">
         <v>25</v>
       </c>
       <c r="I9">
-        <v>16766</v>
+        <v>17471</v>
       </c>
       <c r="J9">
         <f t="shared" si="38"/>
@@ -1241,18 +1022,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <f t="shared" si="38"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M9">
-        <f t="shared" si="38"/>
-        <v>6800</v>
+        <v>11444</v>
       </c>
       <c r="N9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O9">
-        <v>20116</v>
+        <v>23509</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1266,7 +1045,7 @@
         <v>17472</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D9:K11" si="39">D11</f>
+        <f t="shared" ref="D10:K11" si="39">D11</f>
         <v>0</v>
       </c>
       <c r="E10">
@@ -1412,33 +1191,33 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:O5">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>$S$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:O2">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>$S$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:O2">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>$S$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5:S5">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/mission wz.xlsx
+++ b/mission wz.xlsx
@@ -107,7 +107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -119,6 +119,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -557,61 +560,61 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="7">
         <f>(150-B6)/150</f>
         <v>0.15333333333333332</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7">
         <f>(150000-C6)/150000</f>
-        <v>0.1168</v>
-      </c>
-      <c r="D2" s="4">
+        <v>0.11733333333333333</v>
+      </c>
+      <c r="D2" s="7">
         <f t="shared" ref="D2" si="0">(150-D6)/150</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="E2" s="7">
         <f t="shared" ref="E2" si="1">(150000-E6)/150000</f>
-        <v>1.7246666666666667E-2</v>
-      </c>
-      <c r="F2" s="4">
+        <v>3.914666666666667E-2</v>
+      </c>
+      <c r="F2" s="7">
         <f t="shared" ref="F2" si="2">(150-F6)/150</f>
         <v>0.12666666666666668</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="7">
         <f t="shared" ref="G2" si="3">(150000-G6)/150000</f>
         <v>0.13600000000000001</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="7">
         <f t="shared" ref="H2" si="4">(150-H6)/150</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I2" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I2" s="7">
         <f t="shared" ref="I2" si="5">(150000-I6)/150000</f>
-        <v>0.11647333333333333</v>
-      </c>
-      <c r="J2" s="4">
+        <v>0.13942666666666667</v>
+      </c>
+      <c r="J2" s="7">
         <f t="shared" ref="J2" si="6">(150-J6)/150</f>
         <v>0</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="7">
         <f t="shared" ref="K2" si="7">(150000-K6)/150000</f>
         <v>0</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="7">
         <f t="shared" ref="L2" si="8">(150-L6)/150</f>
         <v>7.3333333333333334E-2</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="7">
         <f t="shared" ref="M2" si="9">(150000-M6)/150000</f>
         <v>7.6293333333333338E-2</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="7">
         <f t="shared" ref="N2" si="10">(150-N6)/150</f>
-        <v>9.3333333333333338E-2</v>
-      </c>
-      <c r="O2" s="4">
+        <v>0.10666666666666667</v>
+      </c>
+      <c r="O2" s="7">
         <f t="shared" ref="O2" si="11">(150000-O6)/150000</f>
-        <v>0.15672666666666665</v>
+        <v>0.18071333333333334</v>
       </c>
       <c r="Q2" s="3">
         <v>41989</v>
@@ -634,7 +637,7 @@
       </c>
       <c r="C3" s="1">
         <f ca="1">INT(C6/$S$1)</f>
-        <v>4568</v>
+        <v>4565</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:O3" ca="1" si="12">INT(D6/$S$1)</f>
@@ -642,7 +645,7 @@
       </c>
       <c r="E3" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>5083</v>
+        <v>4969</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -658,7 +661,7 @@
       </c>
       <c r="I3" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>4569</v>
+        <v>4451</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -682,7 +685,7 @@
       </c>
       <c r="O3" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>4361</v>
+        <v>4237</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" t="s">
@@ -703,15 +706,15 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:O4" si="13">C9-C10</f>
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3285</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="13"/>
@@ -723,11 +726,11 @@
       </c>
       <c r="H4" s="2">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="13"/>
-        <v>1554</v>
+        <v>4997</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="13"/>
@@ -747,11 +750,11 @@
       </c>
       <c r="N4" s="2">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="13"/>
-        <v>3730</v>
+        <v>7328</v>
       </c>
       <c r="Q4" s="3"/>
     </row>
@@ -765,15 +768,15 @@
       </c>
       <c r="C5" s="1">
         <f ca="1">150000-INT(150000-150000/34*$S$1)-C6</f>
-        <v>-4538</v>
+        <v>-4458</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5" ca="1" si="14">150-INT(150-150/34*$S$1)-D6</f>
-        <v>-22</v>
+        <v>-20</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5" ca="1" si="15">150000-INT(150000-150000/34*$S$1)-E6</f>
-        <v>-19471</v>
+        <v>-16186</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ref="F5" ca="1" si="16">150-INT(150-150/34*$S$1)-F6</f>
@@ -785,11 +788,11 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" ref="H5" ca="1" si="18">150-INT(150-150/34*$S$1)-H6</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5" ca="1" si="19">150000-INT(150000-150000/34*$S$1)-I6</f>
-        <v>-4587</v>
+        <v>-1144</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ref="J5" ca="1" si="20">150-INT(150-150/34*$S$1)-J6</f>
@@ -809,27 +812,27 @@
       </c>
       <c r="N5" s="1">
         <f t="shared" ref="N5" ca="1" si="24">150-INT(150-150/34*$S$1)-N6</f>
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" ref="O5" ca="1" si="25">150000-INT(150000-150000/34*$S$1)-O6</f>
-        <v>1451</v>
+        <v>5049</v>
       </c>
       <c r="P5">
         <f ca="1">SUM(B5,D5,F5,H5,J5,L5,N5)</f>
-        <v>-62</v>
+        <v>-53</v>
       </c>
       <c r="Q5">
         <f ca="1">SUM(C5,E5,G5,I5,K5,M5,O5)</f>
-        <v>-61475</v>
+        <v>-51069</v>
       </c>
       <c r="R5" s="5">
         <f ca="1">-$S$3+R6</f>
-        <v>-3.3593073593073591E-2</v>
+        <v>-2.5021645021645028E-2</v>
       </c>
       <c r="S5" s="5">
         <f ca="1">-$S$3+S6</f>
-        <v>-3.2706406926406931E-2</v>
+        <v>-2.2795930735930739E-2</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -842,15 +845,15 @@
       </c>
       <c r="C6" s="1">
         <f>150000-C9</f>
-        <v>132480</v>
+        <v>132400</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ref="D6" si="26">150-D9</f>
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ref="E6" si="27">150000-E9</f>
-        <v>147413</v>
+        <v>144128</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ref="F6" si="28">150-F9</f>
@@ -862,11 +865,11 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" ref="H6" si="30">150-H9</f>
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" ref="I6" si="31">150000-I9</f>
-        <v>132529</v>
+        <v>129086</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" ref="J6" si="32">150-J9</f>
@@ -886,27 +889,27 @@
       </c>
       <c r="N6" s="1">
         <f t="shared" ref="N6" si="36">150-N9</f>
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" ref="O6" si="37">150000-O9</f>
-        <v>126491</v>
+        <v>122893</v>
       </c>
       <c r="P6">
         <f>SUM(B6,D6,F6,H6,J6,L6,N6)</f>
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="Q6">
         <f>SUM(C6,E6,G6,I6,K6,M6,O6)</f>
-        <v>957069</v>
+        <v>946663</v>
       </c>
       <c r="R6" s="5">
         <f>(7*150-P6)/(7*150)</f>
-        <v>8.7619047619047624E-2</v>
+        <v>9.6190476190476187E-2</v>
       </c>
       <c r="S6" s="5">
         <f>(7*150000-Q6)/(7*150000)</f>
-        <v>8.8505714285714285E-2</v>
+        <v>9.8416190476190477E-2</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -929,11 +932,11 @@
       <c r="O7" s="1"/>
       <c r="P7">
         <f>150*7-P6</f>
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="Q7">
         <f>150000*7-Q6</f>
-        <v>92931</v>
+        <v>103337</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -991,15 +994,13 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>17520</v>
+        <v>17600</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="C9:M9" si="38">D10</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <f t="shared" si="38"/>
-        <v>2587</v>
+        <v>5872</v>
       </c>
       <c r="F9">
         <v>19</v>
@@ -1008,13 +1009,13 @@
         <v>20400</v>
       </c>
       <c r="H9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I9">
-        <v>17471</v>
+        <v>20914</v>
       </c>
       <c r="J9">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="D9:K9" si="38">J10</f>
         <v>0</v>
       </c>
       <c r="K9">
@@ -1028,10 +1029,18 @@
         <v>11444</v>
       </c>
       <c r="N9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O9">
-        <v>23509</v>
+        <v>27107</v>
+      </c>
+      <c r="P9">
+        <f>SUM(B9,D9,F9,H9,J9,L9,N9)-SUM(B10,D10,F10,H10,J10,L10,N10)</f>
+        <v>17</v>
+      </c>
+      <c r="Q9">
+        <f>SUM(C9,E9,G9,I9,K9,M9,O9)-SUM(C10,E10,G10,I10,K10,M10,O10)</f>
+        <v>22937</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1082,6 +1091,14 @@
       <c r="O10">
         <v>19779</v>
       </c>
+      <c r="P10">
+        <f t="shared" ref="P10:P12" si="40">SUM(B10,D10,F10,H10,J10,L10,N10)-SUM(B11,D11,F11,H11,J11,L11,N11)</f>
+        <v>17</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ref="Q10:Q12" si="41">SUM(C10,E10,G10,I10,K10,M10,O10)-SUM(C11,E11,G11,I11,K11,M11,O11)</f>
+        <v>20059</v>
+      </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="3">
@@ -1132,6 +1149,14 @@
       <c r="O11">
         <v>11237</v>
       </c>
+      <c r="P11">
+        <f t="shared" si="40"/>
+        <v>28</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="41"/>
+        <v>18859</v>
+      </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="3">
@@ -1178,6 +1203,14 @@
       </c>
       <c r="O12">
         <v>9358</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="40"/>
+        <v>39</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="41"/>
+        <v>41482</v>
       </c>
     </row>
   </sheetData>

--- a/mission wz.xlsx
+++ b/mission wz.xlsx
@@ -507,7 +507,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -614,7 +614,7 @@
       </c>
       <c r="O2" s="7">
         <f t="shared" ref="O2" si="11">(150000-O6)/150000</f>
-        <v>0.18071333333333334</v>
+        <v>0.20466666666666666</v>
       </c>
       <c r="Q2" s="3">
         <v>41989</v>
@@ -685,7 +685,7 @@
       </c>
       <c r="O3" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>4237</v>
+        <v>4113</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" t="s">
@@ -754,7 +754,7 @@
       </c>
       <c r="O4" s="2">
         <f t="shared" si="13"/>
-        <v>7328</v>
+        <v>10921</v>
       </c>
       <c r="Q4" s="3"/>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="O5" s="1">
         <f t="shared" ref="O5" ca="1" si="25">150000-INT(150000-150000/34*$S$1)-O6</f>
-        <v>5049</v>
+        <v>8642</v>
       </c>
       <c r="P5">
         <f ca="1">SUM(B5,D5,F5,H5,J5,L5,N5)</f>
@@ -824,7 +824,7 @@
       </c>
       <c r="Q5">
         <f ca="1">SUM(C5,E5,G5,I5,K5,M5,O5)</f>
-        <v>-51069</v>
+        <v>-47476</v>
       </c>
       <c r="R5" s="5">
         <f ca="1">-$S$3+R6</f>
@@ -832,7 +832,7 @@
       </c>
       <c r="S5" s="5">
         <f ca="1">-$S$3+S6</f>
-        <v>-2.2795930735930739E-2</v>
+        <v>-1.9374025974025974E-2</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -893,7 +893,7 @@
       </c>
       <c r="O6" s="1">
         <f t="shared" ref="O6" si="37">150000-O9</f>
-        <v>122893</v>
+        <v>119300</v>
       </c>
       <c r="P6">
         <f>SUM(B6,D6,F6,H6,J6,L6,N6)</f>
@@ -901,7 +901,7 @@
       </c>
       <c r="Q6">
         <f>SUM(C6,E6,G6,I6,K6,M6,O6)</f>
-        <v>946663</v>
+        <v>943070</v>
       </c>
       <c r="R6" s="5">
         <f>(7*150-P6)/(7*150)</f>
@@ -909,7 +909,7 @@
       </c>
       <c r="S6" s="5">
         <f>(7*150000-Q6)/(7*150000)</f>
-        <v>9.8416190476190477E-2</v>
+        <v>0.10183809523809524</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -936,7 +936,7 @@
       </c>
       <c r="Q7">
         <f>150000*7-Q6</f>
-        <v>103337</v>
+        <v>106930</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -1032,7 +1032,7 @@
         <v>16</v>
       </c>
       <c r="O9">
-        <v>27107</v>
+        <v>30700</v>
       </c>
       <c r="P9">
         <f>SUM(B9,D9,F9,H9,J9,L9,N9)-SUM(B10,D10,F10,H10,J10,L10,N10)</f>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="Q9">
         <f>SUM(C9,E9,G9,I9,K9,M9,O9)-SUM(C10,E10,G10,I10,K10,M10,O10)</f>
-        <v>22937</v>
+        <v>26530</v>
       </c>
     </row>
     <row r="10" spans="1:19">

--- a/mission wz.xlsx
+++ b/mission wz.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>France</t>
   </si>
@@ -65,6 +65,12 @@
   <si>
     <t>Temps écoulé</t>
   </si>
+  <si>
+    <t>dk</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
 </sst>
 </file>
 
@@ -107,7 +113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -121,6 +127,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -129,7 +138,19 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -158,6 +179,18 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -175,6 +208,90 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -504,754 +621,1344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" customWidth="1"/>
+    <col min="19" max="19" width="7.28515625" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" customWidth="1"/>
+    <col min="22" max="22" width="4.28515625" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" customWidth="1"/>
+    <col min="24" max="24" width="4.28515625" customWidth="1"/>
+    <col min="25" max="25" width="7.28515625" customWidth="1"/>
+    <col min="26" max="26" width="4.28515625" customWidth="1"/>
+    <col min="27" max="27" width="7.28515625" customWidth="1"/>
+    <col min="28" max="28" width="4.28515625" customWidth="1"/>
+    <col min="29" max="29" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:36">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6" t="s">
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6" t="s">
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="Q1" s="3">
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AH1" s="3">
         <f ca="1">TODAY()</f>
         <v>41993</v>
       </c>
-      <c r="R1" s="3">
+      <c r="AI1" s="3">
         <v>42023</v>
       </c>
-      <c r="S1">
-        <f ca="1">R1-Q1-1</f>
+      <c r="AJ1">
+        <f ca="1">AI1-AH1-1</f>
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="8">
         <f>(150-B6)/150</f>
         <v>0.15333333333333332</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <f>(150000-C6)/150000</f>
-        <v>0.11733333333333333</v>
-      </c>
-      <c r="D2" s="7">
-        <f t="shared" ref="D2" si="0">(150-D6)/150</f>
+        <v>0.11867333333333334</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8">
+        <f t="shared" ref="F2" si="0">(150-F6)/150</f>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="E2" s="7">
-        <f t="shared" ref="E2" si="1">(150000-E6)/150000</f>
+      <c r="G2" s="8">
+        <f t="shared" ref="G2" si="1">(150000-G6)/150000</f>
         <v>3.914666666666667E-2</v>
       </c>
-      <c r="F2" s="7">
-        <f t="shared" ref="F2" si="2">(150-F6)/150</f>
-        <v>0.12666666666666668</v>
-      </c>
-      <c r="G2" s="7">
-        <f t="shared" ref="G2" si="3">(150000-G6)/150000</f>
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="H2" s="7">
-        <f t="shared" ref="H2" si="4">(150-H6)/150</f>
-        <v>0.2</v>
-      </c>
-      <c r="I2" s="7">
-        <f t="shared" ref="I2" si="5">(150000-I6)/150000</f>
-        <v>0.13942666666666667</v>
-      </c>
-      <c r="J2" s="7">
-        <f t="shared" ref="J2" si="6">(150-J6)/150</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
-        <f t="shared" ref="K2" si="7">(150000-K6)/150000</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <f t="shared" ref="L2" si="8">(150-L6)/150</f>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8">
+        <f t="shared" ref="J2" si="2">(150-J6)/150</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="K2" s="8">
+        <f t="shared" ref="K2" si="3">(150000-K6)/150000</f>
+        <v>0.13636666666666666</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8">
+        <f t="shared" ref="N2" si="4">(150-N6)/150</f>
+        <v>0.20666666666666667</v>
+      </c>
+      <c r="O2" s="8">
+        <f t="shared" ref="O2" si="5">(150000-O6)/150000</f>
+        <v>0.14609333333333333</v>
+      </c>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8">
+        <f t="shared" ref="R2" si="6">(150-R6)/150</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="8">
+        <f t="shared" ref="S2" si="7">(150000-S6)/150000</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8">
+        <f t="shared" ref="V2" si="8">(150-V6)/150</f>
         <v>7.3333333333333334E-2</v>
       </c>
-      <c r="M2" s="7">
-        <f t="shared" ref="M2" si="9">(150000-M6)/150000</f>
+      <c r="W2" s="8">
+        <f t="shared" ref="W2" si="9">(150000-W6)/150000</f>
         <v>7.6293333333333338E-2</v>
       </c>
-      <c r="N2" s="7">
-        <f t="shared" ref="N2" si="10">(150-N6)/150</f>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8">
+        <f t="shared" ref="Z2" si="10">(150-Z6)/150</f>
         <v>0.10666666666666667</v>
       </c>
-      <c r="O2" s="7">
-        <f t="shared" ref="O2" si="11">(150000-O6)/150000</f>
-        <v>0.20466666666666666</v>
-      </c>
-      <c r="Q2" s="3">
+      <c r="AA2" s="8">
+        <f t="shared" ref="AA2" si="11">(150000-AA6)/150000</f>
+        <v>0.20480000000000001</v>
+      </c>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AH2" s="3">
         <v>41989</v>
       </c>
-      <c r="R2" s="3">
+      <c r="AI2" s="3">
         <v>42023</v>
       </c>
-      <c r="S2">
-        <f>R2-Q2-1</f>
+      <c r="AJ2">
+        <f>AI2-AH2-1</f>
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:36">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1">
-        <f ca="1">INT(B6/$S$1)</f>
+        <f ca="1">INT(B6/$AJ$1)</f>
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <f ca="1">INT(C6/$S$1)</f>
-        <v>4565</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:O3" ca="1" si="12">INT(D6/$S$1)</f>
+        <f ca="1">INT(C6/$AJ$1)</f>
+        <v>4558</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6">
+        <f ca="1">INT(F6/$AJ$1)</f>
         <v>5</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" ca="1" si="12"/>
+      <c r="G3" s="6">
+        <f ca="1">INT(G6/$AJ$1)</f>
         <v>4969</v>
       </c>
-      <c r="F3" s="2">
-        <f t="shared" ca="1" si="12"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6">
+        <f ca="1">INT(J6/$AJ$1)</f>
         <v>4</v>
       </c>
-      <c r="G3" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>4468</v>
-      </c>
-      <c r="H3" s="2">
-        <f t="shared" ca="1" si="12"/>
+      <c r="K3" s="6">
+        <f ca="1">INT(K6/$AJ$1)</f>
+        <v>4467</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6">
+        <f ca="1">INT(N6/$AJ$1)</f>
         <v>4</v>
       </c>
-      <c r="I3" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>4451</v>
-      </c>
-      <c r="J3" s="2">
-        <f t="shared" ca="1" si="12"/>
+      <c r="O3" s="6">
+        <f ca="1">INT(O6/$AJ$1)</f>
+        <v>4416</v>
+      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6">
+        <f ca="1">INT(R6/$AJ$1)</f>
         <v>5</v>
       </c>
-      <c r="K3" s="2">
-        <f t="shared" ca="1" si="12"/>
+      <c r="S3" s="6">
+        <f ca="1">INT(S6/$AJ$1)</f>
         <v>5172</v>
       </c>
-      <c r="L3" s="2">
-        <f t="shared" ca="1" si="12"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6">
+        <f ca="1">INT(V6/$AJ$1)</f>
         <v>4</v>
       </c>
-      <c r="M3" s="2">
-        <f t="shared" ca="1" si="12"/>
+      <c r="W3" s="6">
+        <f ca="1">INT(W6/$AJ$1)</f>
         <v>4777</v>
       </c>
-      <c r="N3" s="2">
-        <f t="shared" ca="1" si="12"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6">
+        <f ca="1">INT(Z6/$AJ$1)</f>
         <v>4</v>
       </c>
-      <c r="O3" s="2">
-        <f t="shared" ca="1" si="12"/>
+      <c r="AA3" s="6">
+        <f ca="1">INT(AA6/$AJ$1)</f>
         <v>4113</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" t="s">
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD4" ca="1" si="12">SUM(B3,F3,J3,N3,R3,V3,Z3)</f>
+        <v>30</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE4" ca="1" si="13">SUM(C3,G3,K3,O3,S3,W3,AA3)</f>
+        <v>32472</v>
+      </c>
+      <c r="AH3" s="3"/>
+      <c r="AI3" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="4">
-        <f ca="1">(S2-S1)/S2</f>
+      <c r="AJ3" s="4">
+        <f ca="1">(AJ2-AJ1)/AJ2</f>
         <v>0.12121212121212122</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
-        <f>B9-B10</f>
+        <f>B11-B12</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:O4" si="13">C9-C10</f>
-        <v>128</v>
-      </c>
-      <c r="D4" s="2">
+        <f t="shared" ref="C4:AA4" si="14">C11-C12</f>
+        <v>329</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="14"/>
+        <v>3285</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="shared" si="14"/>
+        <v>2610</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="O4" s="6">
+        <f t="shared" si="14"/>
+        <v>5997</v>
+      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="W4" s="6">
+        <f t="shared" si="14"/>
+        <v>4644</v>
+      </c>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="AA4" s="6">
+        <f t="shared" si="14"/>
+        <v>10941</v>
+      </c>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="AE4">
         <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="13"/>
-        <v>3285</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="13"/>
-        <v>2555</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" si="13"/>
-        <v>4997</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="M4" s="2">
-        <f t="shared" si="13"/>
-        <v>4644</v>
-      </c>
-      <c r="N4" s="2">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="O4" s="2">
-        <f t="shared" si="13"/>
-        <v>10921</v>
-      </c>
-      <c r="Q4" s="3"/>
+        <v>27806</v>
+      </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:36">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <f ca="1">150-INT(150-150/34*$S$1)-B6</f>
+        <f ca="1">150-INT(150-150/34*$AJ$1)-B6</f>
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <f ca="1">150000-INT(150000-150000/34*$S$1)-C6</f>
-        <v>-4458</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5" ca="1" si="14">150-INT(150-150/34*$S$1)-D6</f>
+        <f ca="1">150000-INT(150000-150000/34*$AJ$1)-C6</f>
+        <v>-4257</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
+        <f ca="1">150-INT(150-150/34*$AJ$1)-F6</f>
         <v>-20</v>
       </c>
-      <c r="E5" s="1">
-        <f t="shared" ref="E5" ca="1" si="15">150000-INT(150000-150000/34*$S$1)-E6</f>
+      <c r="G5" s="6">
+        <f ca="1">150000-INT(150000-150000/34*$AJ$1)-G6</f>
         <v>-16186</v>
       </c>
-      <c r="F5" s="1">
-        <f t="shared" ref="F5" ca="1" si="16">150-INT(150-150/34*$S$1)-F6</f>
-        <v>-3</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" ref="G5" ca="1" si="17">150000-INT(150000-150000/34*$S$1)-G6</f>
-        <v>-1658</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" ref="H5" ca="1" si="18">150-INT(150-150/34*$S$1)-H6</f>
-        <v>8</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" ref="I5" ca="1" si="19">150000-INT(150000-150000/34*$S$1)-I6</f>
-        <v>-1144</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" ref="J5" ca="1" si="20">150-INT(150-150/34*$S$1)-J6</f>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6">
+        <f ca="1">150-INT(150-150/34*$AJ$1)-J6</f>
+        <v>-2</v>
+      </c>
+      <c r="K5" s="6">
+        <f ca="1">150000-INT(150000-150000/34*$AJ$1)-K6</f>
+        <v>-1603</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6">
+        <f ca="1">150-INT(150-150/34*$AJ$1)-N6</f>
+        <v>9</v>
+      </c>
+      <c r="O5" s="6">
+        <f ca="1">150000-INT(150000-150000/34*$AJ$1)-O6</f>
+        <v>-144</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6">
+        <f ca="1">150-INT(150-150/34*$AJ$1)-R6</f>
         <v>-22</v>
       </c>
-      <c r="K5" s="1">
-        <f t="shared" ref="K5" ca="1" si="21">150000-INT(150000-150000/34*$S$1)-K6</f>
+      <c r="S5" s="6">
+        <f ca="1">150000-INT(150000-150000/34*$AJ$1)-S6</f>
         <v>-22058</v>
       </c>
-      <c r="L5" s="1">
-        <f t="shared" ref="L5" ca="1" si="22">150-INT(150-150/34*$S$1)-L6</f>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6">
+        <f ca="1">150-INT(150-150/34*$AJ$1)-V6</f>
         <v>-11</v>
       </c>
-      <c r="M5" s="1">
-        <f t="shared" ref="M5" ca="1" si="23">150000-INT(150000-150000/34*$S$1)-M6</f>
+      <c r="W5" s="6">
+        <f ca="1">150000-INT(150000-150000/34*$AJ$1)-W6</f>
         <v>-10614</v>
       </c>
-      <c r="N5" s="1">
-        <f t="shared" ref="N5" ca="1" si="24">150-INT(150-150/34*$S$1)-N6</f>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6">
+        <f ca="1">150-INT(150-150/34*$AJ$1)-Z6</f>
         <v>-6</v>
       </c>
-      <c r="O5" s="1">
-        <f t="shared" ref="O5" ca="1" si="25">150000-INT(150000-150000/34*$S$1)-O6</f>
-        <v>8642</v>
-      </c>
-      <c r="P5">
-        <f ca="1">SUM(B5,D5,F5,H5,J5,L5,N5)</f>
-        <v>-53</v>
-      </c>
-      <c r="Q5">
-        <f ca="1">SUM(C5,E5,G5,I5,K5,M5,O5)</f>
-        <v>-47476</v>
-      </c>
-      <c r="R5" s="5">
-        <f ca="1">-$S$3+R6</f>
-        <v>-2.5021645021645028E-2</v>
-      </c>
-      <c r="S5" s="5">
-        <f ca="1">-$S$3+S6</f>
-        <v>-1.9374025974025974E-2</v>
+      <c r="AA5" s="6">
+        <f ca="1">150000-INT(150000-150000/34*$AJ$1)-AA6</f>
+        <v>8662</v>
+      </c>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5">
+        <f ca="1">SUM(B5,F5,J5,N5,R5,V5,Z5)</f>
+        <v>-51</v>
+      </c>
+      <c r="AE5">
+        <f ca="1">SUM(C5,G5,K5,O5,S5,W5,AA5)</f>
+        <v>-46200</v>
+      </c>
+      <c r="AF5" s="5">
+        <f ca="1">-$AJ$3+AF6</f>
+        <v>-2.3116883116883119E-2</v>
+      </c>
+      <c r="AG5" s="5">
+        <f ca="1">-$AJ$3+AG6</f>
+        <v>-1.8158787878787885E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:36">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <f>150-B9</f>
+        <f>150-B11</f>
         <v>127</v>
       </c>
       <c r="C6" s="1">
-        <f>150000-C9</f>
-        <v>132400</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" ref="D6" si="26">150-D9</f>
+        <f>150000-C11</f>
+        <v>132199</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
+        <f t="shared" ref="F6" si="15">150-F11</f>
         <v>148</v>
       </c>
-      <c r="E6" s="1">
-        <f t="shared" ref="E6" si="27">150000-E9</f>
+      <c r="G6" s="6">
+        <f t="shared" ref="G6" si="16">150000-G11</f>
         <v>144128</v>
       </c>
-      <c r="F6" s="1">
-        <f t="shared" ref="F6" si="28">150-F9</f>
-        <v>131</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" ref="G6" si="29">150000-G9</f>
-        <v>129600</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" ref="H6" si="30">150-H9</f>
-        <v>120</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" ref="I6" si="31">150000-I9</f>
-        <v>129086</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" ref="J6" si="32">150-J9</f>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6">
+        <f t="shared" ref="J6" si="17">150-J11</f>
+        <v>130</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" ref="K6" si="18">150000-K11</f>
+        <v>129545</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6">
+        <f t="shared" ref="N6" si="19">150-N11</f>
+        <v>119</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" ref="O6" si="20">150000-O11</f>
+        <v>128086</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6">
+        <f t="shared" ref="R6" si="21">150-R11</f>
         <v>150</v>
       </c>
-      <c r="K6" s="1">
-        <f t="shared" ref="K6" si="33">150000-K9</f>
+      <c r="S6" s="6">
+        <f t="shared" ref="S6" si="22">150000-S11</f>
         <v>150000</v>
       </c>
-      <c r="L6" s="1">
-        <f t="shared" ref="L6" si="34">150-L9</f>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6">
+        <f t="shared" ref="V6" si="23">150-V11</f>
         <v>139</v>
       </c>
-      <c r="M6" s="1">
-        <f t="shared" ref="M6" si="35">150000-M9</f>
+      <c r="W6" s="6">
+        <f t="shared" ref="W6" si="24">150000-W11</f>
         <v>138556</v>
       </c>
-      <c r="N6" s="1">
-        <f t="shared" ref="N6" si="36">150-N9</f>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6">
+        <f t="shared" ref="Z6" si="25">150-Z11</f>
         <v>134</v>
       </c>
-      <c r="O6" s="1">
-        <f t="shared" ref="O6" si="37">150000-O9</f>
-        <v>119300</v>
-      </c>
-      <c r="P6">
-        <f>SUM(B6,D6,F6,H6,J6,L6,N6)</f>
-        <v>949</v>
-      </c>
-      <c r="Q6">
-        <f>SUM(C6,E6,G6,I6,K6,M6,O6)</f>
-        <v>943070</v>
-      </c>
-      <c r="R6" s="5">
-        <f>(7*150-P6)/(7*150)</f>
-        <v>9.6190476190476187E-2</v>
-      </c>
-      <c r="S6" s="5">
-        <f>(7*150000-Q6)/(7*150000)</f>
-        <v>0.10183809523809524</v>
+      <c r="AA6" s="6">
+        <f t="shared" ref="AA6" si="26">150000-AA11</f>
+        <v>119280</v>
+      </c>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6">
+        <f>SUM(B6,F6,J6,N6,R6,V6,Z6)</f>
+        <v>947</v>
+      </c>
+      <c r="AE6">
+        <f>SUM(C6,G6,K6,O6,S6,W6,AA6)</f>
+        <v>941794</v>
+      </c>
+      <c r="AF6" s="5">
+        <f>(7*150-AD6)/(7*150)</f>
+        <v>9.8095238095238096E-2</v>
+      </c>
+      <c r="AG6" s="5">
+        <f>(7*150000-AE6)/(7*150000)</f>
+        <v>0.10305333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:36">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7">
-        <f>150*7-P6</f>
-        <v>101</v>
-      </c>
-      <c r="Q7">
-        <f>150000*7-Q6</f>
-        <v>106930</v>
-      </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7">
+        <f>150*7-AD6</f>
+        <v>103</v>
+      </c>
+      <c r="AE7">
+        <f>150000*7-AE6</f>
+        <v>108206</v>
+      </c>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
     </row>
-    <row r="8" spans="1:19">
-      <c r="B8" t="s">
+    <row r="8" spans="1:36">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+    </row>
+    <row r="9" spans="1:36">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G10" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
         <v>7</v>
       </c>
-      <c r="G8" t="s">
+      <c r="K10" t="s">
         <v>8</v>
       </c>
-      <c r="H8" t="s">
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" t="s">
         <v>7</v>
       </c>
-      <c r="I8" t="s">
+      <c r="O10" t="s">
         <v>8</v>
       </c>
-      <c r="J8" t="s">
+      <c r="P10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" t="s">
         <v>7</v>
       </c>
-      <c r="K8" t="s">
+      <c r="S10" t="s">
         <v>8</v>
       </c>
-      <c r="L8" t="s">
+      <c r="T10" t="s">
+        <v>16</v>
+      </c>
+      <c r="U10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V10" t="s">
         <v>7</v>
       </c>
-      <c r="M8" t="s">
+      <c r="W10" t="s">
         <v>8</v>
       </c>
-      <c r="N8" t="s">
+      <c r="X10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z10" t="s">
         <v>7</v>
       </c>
-      <c r="O8" t="s">
+      <c r="AA10" t="s">
         <v>8</v>
       </c>
+      <c r="AB10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="3">
+    <row r="11" spans="1:36">
+      <c r="A11" s="3">
         <v>41993</v>
       </c>
-      <c r="B9">
-        <f>B10</f>
+      <c r="B11">
+        <f>B12</f>
         <v>23</v>
       </c>
-      <c r="C9">
-        <v>17600</v>
-      </c>
-      <c r="D9">
+      <c r="C11">
+        <v>17801</v>
+      </c>
+      <c r="D11">
+        <f>B11-B12</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>C11-C12</f>
+        <v>329</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="G11">
         <v>5872</v>
       </c>
-      <c r="F9">
+      <c r="H11">
+        <f>F11-F12</f>
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <f>G11-G12</f>
+        <v>3285</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>20455</v>
+      </c>
+      <c r="L11">
+        <f>J11-J12</f>
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <f>K11-K12</f>
+        <v>2610</v>
+      </c>
+      <c r="N11">
+        <v>31</v>
+      </c>
+      <c r="O11">
+        <v>21914</v>
+      </c>
+      <c r="P11">
+        <f>N11-N12</f>
+        <v>8</v>
+      </c>
+      <c r="Q11">
+        <f>O11-O12</f>
+        <v>5997</v>
+      </c>
+      <c r="R11">
+        <f t="shared" ref="R11:S11" si="27">R12</f>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f>R11-R12</f>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f>S11-S12</f>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>11</v>
+      </c>
+      <c r="W11">
+        <v>11444</v>
+      </c>
+      <c r="X11">
+        <f>V11-V12</f>
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <f>W11-W12</f>
+        <v>4644</v>
+      </c>
+      <c r="Z11">
+        <v>16</v>
+      </c>
+      <c r="AA11">
+        <v>30720</v>
+      </c>
+      <c r="AB11">
+        <f>Z11-Z12</f>
+        <v>5</v>
+      </c>
+      <c r="AC11">
+        <f>AA11-AA12</f>
+        <v>10941</v>
+      </c>
+      <c r="AD11">
+        <f>SUM(B11,F11,J11,N11,R11,V11,Z11)-SUM(B12,F12,J12,N12,R12,V12,Z12)</f>
         <v>19</v>
       </c>
-      <c r="G9">
-        <v>20400</v>
-      </c>
-      <c r="H9">
-        <v>30</v>
-      </c>
-      <c r="I9">
-        <v>20914</v>
-      </c>
-      <c r="J9">
-        <f t="shared" ref="D9:K9" si="38">J10</f>
-        <v>0</v>
-      </c>
-      <c r="K9">
+      <c r="AE11">
+        <f>SUM(C11,G11,K11,O11,S11,W11,AA11)-SUM(C12,G12,K12,O12,S12,W12,AA12)</f>
+        <v>27806</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
+      <c r="A12" s="3">
+        <v>41992</v>
+      </c>
+      <c r="B12">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>17472</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:D15" si="28">B12-B13</f>
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E15" si="29">C12-C13</f>
+        <v>3603</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:S13" si="30">F13</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2587</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:H15" si="31">F12-F13</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:I15" si="32">G12-G13</f>
+        <v>2121</v>
+      </c>
+      <c r="J12">
+        <v>17</v>
+      </c>
+      <c r="K12">
+        <v>17845</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:L15" si="33">J12-J13</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12:M15" si="34">K12-K13</f>
+        <v>1145</v>
+      </c>
+      <c r="N12">
+        <v>23</v>
+      </c>
+      <c r="O12">
+        <v>15917</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ref="P12:P15" si="35">N12-N13</f>
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" ref="Q12:Q15" si="36">O12-O13</f>
+        <v>2510</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" ref="T12:T15" si="37">R12-R13</f>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" ref="U12:U15" si="38">S12-S13</f>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>10</v>
+      </c>
+      <c r="W12">
+        <v>6800</v>
+      </c>
+      <c r="X12">
+        <f t="shared" ref="X12:X15" si="39">V12-V13</f>
+        <v>5</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" ref="Y12:Y15" si="40">W12-W13</f>
+        <v>2138</v>
+      </c>
+      <c r="Z12">
+        <v>11</v>
+      </c>
+      <c r="AA12">
+        <v>19779</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" ref="AB12:AB15" si="41">Z12-Z13</f>
+        <v>6</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" ref="AC12:AC15" si="42">AA12-AA13</f>
+        <v>8542</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" ref="AD12:AD14" si="43">SUM(B12,F12,J12,N12,R12,V12,Z12)-SUM(B13,F13,J13,N13,R13,V13,Z13)</f>
+        <v>17</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" ref="AE12:AE14" si="44">SUM(C12,G12,K12,O12,S12,W12,AA12)-SUM(C13,G13,K13,O13,S13,W13,AA13)</f>
+        <v>20059</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
+      <c r="A13" s="3">
+        <v>41991</v>
+      </c>
+      <c r="B13">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>13869</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="28"/>
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="29"/>
+        <v>5719</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>466</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="32"/>
+        <v>466</v>
+      </c>
+      <c r="J13">
+        <v>17</v>
+      </c>
+      <c r="K13">
+        <v>16700</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="34"/>
+        <v>14</v>
+      </c>
+      <c r="N13">
+        <v>21</v>
+      </c>
+      <c r="O13">
+        <v>13407</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="35"/>
+        <v>12</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="36"/>
+        <v>7199</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="L9">
-        <v>11</v>
-      </c>
-      <c r="M9">
-        <v>11444</v>
-      </c>
-      <c r="N9">
-        <v>16</v>
-      </c>
-      <c r="O9">
-        <v>30700</v>
-      </c>
-      <c r="P9">
-        <f>SUM(B9,D9,F9,H9,J9,L9,N9)-SUM(B10,D10,F10,H10,J10,L10,N10)</f>
-        <v>17</v>
-      </c>
-      <c r="Q9">
-        <f>SUM(C9,E9,G9,I9,K9,M9,O9)-SUM(C10,E10,G10,I10,K10,M10,O10)</f>
-        <v>26530</v>
+      <c r="V13">
+        <v>5</v>
+      </c>
+      <c r="W13">
+        <v>4662</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="39"/>
+        <v>3</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="40"/>
+        <v>3582</v>
+      </c>
+      <c r="Z13">
+        <v>5</v>
+      </c>
+      <c r="AA13">
+        <v>11237</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="42"/>
+        <v>1879</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="43"/>
+        <v>28</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="44"/>
+        <v>18859</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="3">
-        <v>41992</v>
-      </c>
-      <c r="B10">
-        <v>23</v>
-      </c>
-      <c r="C10">
-        <v>17472</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ref="D10:K11" si="39">D11</f>
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>2587</v>
-      </c>
-      <c r="F10">
-        <v>17</v>
-      </c>
-      <c r="G10">
-        <v>17845</v>
-      </c>
-      <c r="H10">
-        <v>23</v>
-      </c>
-      <c r="I10">
-        <v>15917</v>
-      </c>
-      <c r="J10">
+    <row r="14" spans="1:36">
+      <c r="A14" s="3">
+        <v>41990</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>8150</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="29"/>
+        <v>4075</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>15</v>
+      </c>
+      <c r="K14">
+        <v>16686</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="33"/>
+        <v>8</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="34"/>
+        <v>8343</v>
+      </c>
+      <c r="N14">
+        <v>9</v>
+      </c>
+      <c r="O14">
+        <v>6208</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="36"/>
+        <v>3104</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <v>1080</v>
+      </c>
+      <c r="X14">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
-      <c r="M10">
-        <v>6800</v>
-      </c>
-      <c r="N10">
-        <v>11</v>
-      </c>
-      <c r="O10">
-        <v>19779</v>
-      </c>
-      <c r="P10">
-        <f t="shared" ref="P10:P12" si="40">SUM(B10,D10,F10,H10,J10,L10,N10)-SUM(B11,D11,F11,H11,J11,L11,N11)</f>
-        <v>17</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" ref="Q10:Q12" si="41">SUM(C10,E10,G10,I10,K10,M10,O10)-SUM(C11,E11,G11,I11,K11,M11,O11)</f>
-        <v>20059</v>
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="40"/>
+        <v>540</v>
+      </c>
+      <c r="Z14">
+        <v>4</v>
+      </c>
+      <c r="AA14">
+        <v>9358</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="41"/>
+        <v>2</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="42"/>
+        <v>4679</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="43"/>
+        <v>21</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="44"/>
+        <v>20741</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="3">
-        <v>41991</v>
-      </c>
-      <c r="B11">
-        <v>19</v>
-      </c>
-      <c r="C11">
-        <v>13869</v>
-      </c>
-      <c r="D11">
+    <row r="15" spans="1:36">
+      <c r="A15" s="3">
+        <v>41989</v>
+      </c>
+      <c r="B15">
+        <f>INT(B14/2)</f>
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:AA15" si="45">INT(C14/2)</f>
+        <v>4075</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="29"/>
+        <v>4075</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="45"/>
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="45"/>
+        <v>8343</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="33"/>
+        <v>7</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="34"/>
+        <v>8343</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="45"/>
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="45"/>
+        <v>3104</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="36"/>
+        <v>3104</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="45"/>
+        <v>540</v>
+      </c>
+      <c r="X15">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>466</v>
-      </c>
-      <c r="F11">
-        <v>17</v>
-      </c>
-      <c r="G11">
-        <v>16700</v>
-      </c>
-      <c r="H11">
-        <v>21</v>
-      </c>
-      <c r="I11">
-        <v>13407</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>5</v>
-      </c>
-      <c r="M11">
-        <v>4662</v>
-      </c>
-      <c r="N11">
-        <v>5</v>
-      </c>
-      <c r="O11">
-        <v>11237</v>
-      </c>
-      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Y15">
         <f t="shared" si="40"/>
-        <v>28</v>
-      </c>
-      <c r="Q11">
+        <v>540</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="45"/>
+        <v>2</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="45"/>
+        <v>4679</v>
+      </c>
+      <c r="AB15">
         <f t="shared" si="41"/>
-        <v>18859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="3">
-        <v>41990</v>
-      </c>
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>8150</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>15</v>
-      </c>
-      <c r="G12">
-        <v>16686</v>
-      </c>
-      <c r="H12">
-        <v>9</v>
-      </c>
-      <c r="I12">
-        <v>6208</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
         <v>2</v>
       </c>
-      <c r="M12">
-        <v>1080</v>
-      </c>
-      <c r="N12">
-        <v>4</v>
-      </c>
-      <c r="O12">
-        <v>9358</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="40"/>
-        <v>39</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="41"/>
-        <v>41482</v>
+      <c r="AC15">
+        <f t="shared" si="42"/>
+        <v>4679</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" ref="AD15" si="46">SUM(B15,F15,J15,N15,R15,V15,Z15)-SUM(B16,F16,J16,N16,R16,V16,Z16)</f>
+        <v>18</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" ref="AE15" si="47">SUM(C15,G15,K15,O15,S15,W15,AA15)-SUM(C16,G16,K16,O16,S16,W16,AA16)</f>
+        <v>20741</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="14">
+    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="N1:O1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="X1:Y1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B5:O5">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+  <conditionalFormatting sqref="AF5:AG5 B5:AC5">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
-      <formula>$S$3</formula>
+  <conditionalFormatting sqref="B2:AC2">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="greaterThan">
+      <formula>$AJ$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:O2">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
-      <formula>$S$3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:O2">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
-      <formula>$S$3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5:S5">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="B2:AC2">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="lessThan">
+      <formula>$AJ$3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mission wz.xlsx
+++ b/mission wz.xlsx
@@ -100,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -108,19 +108,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -133,12 +217,67 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -624,90 +763,91 @@
   <dimension ref="A1:AJ15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" customWidth="1"/>
-    <col min="18" max="18" width="4.28515625" customWidth="1"/>
-    <col min="19" max="19" width="7.28515625" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" customWidth="1"/>
-    <col min="21" max="21" width="7.28515625" customWidth="1"/>
-    <col min="22" max="22" width="4.28515625" customWidth="1"/>
-    <col min="23" max="23" width="7.28515625" customWidth="1"/>
-    <col min="24" max="24" width="4.28515625" customWidth="1"/>
-    <col min="25" max="25" width="7.28515625" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" customWidth="1"/>
-    <col min="27" max="27" width="7.28515625" customWidth="1"/>
-    <col min="28" max="28" width="4.28515625" customWidth="1"/>
-    <col min="29" max="29" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" style="13" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="7.28515625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" style="7" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" style="13" customWidth="1"/>
+    <col min="22" max="22" width="4.28515625" style="12" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" style="7" customWidth="1"/>
+    <col min="24" max="24" width="4.28515625" style="7" customWidth="1"/>
+    <col min="25" max="25" width="7.28515625" style="13" customWidth="1"/>
+    <col min="26" max="26" width="4.28515625" style="12" customWidth="1"/>
+    <col min="27" max="27" width="7.28515625" style="7" customWidth="1"/>
+    <col min="28" max="28" width="4.28515625" style="7" customWidth="1"/>
+    <col min="29" max="29" width="7.28515625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
-      <c r="B1" s="7" t="s">
+      <c r="A1"/>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7" t="s">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7" t="s">
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7" t="s">
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AH1" s="3">
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AH1" s="1">
         <f ca="1">TODAY()</f>
         <v>41993</v>
       </c>
-      <c r="AI1" s="3">
+      <c r="AI1" s="1">
         <v>42023</v>
       </c>
       <c r="AJ1">
@@ -719,80 +859,80 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <f>(150-B6)/150</f>
         <v>0.15333333333333332</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <f>(150000-C6)/150000</f>
         <v>0.11867333333333334</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6">
         <f t="shared" ref="F2" si="0">(150-F6)/150</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="G2" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G2" s="6">
         <f t="shared" ref="G2" si="1">(150000-G6)/150000</f>
-        <v>3.914666666666667E-2</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8">
+        <v>4.6086666666666665E-2</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6">
         <f t="shared" ref="J2" si="2">(150-J6)/150</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="K2" s="8">
+        <v>0.15333333333333332</v>
+      </c>
+      <c r="K2" s="6">
         <f t="shared" ref="K2" si="3">(150000-K6)/150000</f>
-        <v>0.13636666666666666</v>
-      </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8">
+        <v>0.16447333333333333</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6">
         <f t="shared" ref="N2" si="4">(150-N6)/150</f>
         <v>0.20666666666666667</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="6">
         <f t="shared" ref="O2" si="5">(150000-O6)/150000</f>
         <v>0.14609333333333333</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6">
         <f t="shared" ref="R2" si="6">(150-R6)/150</f>
         <v>0</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="6">
         <f t="shared" ref="S2" si="7">(150000-S6)/150000</f>
         <v>0</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8">
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6">
         <f t="shared" ref="V2" si="8">(150-V6)/150</f>
         <v>7.3333333333333334E-2</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="6">
         <f t="shared" ref="W2" si="9">(150000-W6)/150000</f>
         <v>7.6293333333333338E-2</v>
       </c>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8">
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6">
         <f t="shared" ref="Z2" si="10">(150-Z6)/150</f>
         <v>0.10666666666666667</v>
       </c>
-      <c r="AA2" s="8">
+      <c r="AA2" s="6">
         <f t="shared" ref="AA2" si="11">(150000-AA6)/150000</f>
         <v>0.20480000000000001</v>
       </c>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AH2" s="3">
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AH2" s="1">
         <v>41989</v>
       </c>
-      <c r="AI2" s="3">
+      <c r="AI2" s="1">
         <v>42023</v>
       </c>
       <c r="AJ2">
@@ -804,89 +944,89 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <f ca="1">INT(B6/$AJ$1)</f>
         <v>4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <f ca="1">INT(C6/$AJ$1)</f>
         <v>4558</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
         <f ca="1">INT(F6/$AJ$1)</f>
         <v>5</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <f ca="1">INT(G6/$AJ$1)</f>
-        <v>4969</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6">
+        <v>4934</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4">
         <f ca="1">INT(J6/$AJ$1)</f>
         <v>4</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="4">
         <f ca="1">INT(K6/$AJ$1)</f>
-        <v>4467</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6">
+        <v>4321</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4">
         <f ca="1">INT(N6/$AJ$1)</f>
         <v>4</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="4">
         <f ca="1">INT(O6/$AJ$1)</f>
         <v>4416</v>
       </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4">
         <f ca="1">INT(R6/$AJ$1)</f>
         <v>5</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="4">
         <f ca="1">INT(S6/$AJ$1)</f>
         <v>5172</v>
       </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6">
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4">
         <f ca="1">INT(V6/$AJ$1)</f>
         <v>4</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="4">
         <f ca="1">INT(W6/$AJ$1)</f>
         <v>4777</v>
       </c>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6">
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4">
         <f ca="1">INT(Z6/$AJ$1)</f>
         <v>4</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AA3" s="4">
         <f ca="1">INT(AA6/$AJ$1)</f>
         <v>4113</v>
       </c>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
       <c r="AD3">
         <f t="shared" ref="AD3:AD4" ca="1" si="12">SUM(B3,F3,J3,N3,R3,V3,Z3)</f>
         <v>30</v>
       </c>
       <c r="AE3">
         <f t="shared" ref="AE3:AE4" ca="1" si="13">SUM(C3,G3,K3,O3,S3,W3,AA3)</f>
-        <v>32472</v>
-      </c>
-      <c r="AH3" s="3"/>
+        <v>32291</v>
+      </c>
+      <c r="AH3" s="1"/>
       <c r="AI3" t="s">
         <v>15</v>
       </c>
-      <c r="AJ3" s="4">
+      <c r="AJ3" s="2">
         <f ca="1">(AJ2-AJ1)/AJ2</f>
         <v>0.12121212121212122</v>
       </c>
@@ -895,675 +1035,678 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <f>B11-B12</f>
         <v>0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <f t="shared" ref="C4:AA4" si="14">C11-C12</f>
         <v>329</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="G4" s="6">
-        <f t="shared" si="14"/>
-        <v>3285</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="K4" s="6">
+      <c r="G4" s="4">
         <f t="shared" si="14"/>
-        <v>2610</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6">
+        <v>4326</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="14"/>
+        <v>6826</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4">
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="4">
         <f t="shared" si="14"/>
         <v>5997</v>
       </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6">
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="4">
         <f t="shared" si="14"/>
         <v>4644</v>
       </c>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6">
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AA4" s="4">
         <f t="shared" si="14"/>
         <v>10941</v>
       </c>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
       <c r="AD4">
         <f t="shared" si="12"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE4">
         <f t="shared" si="13"/>
-        <v>27806</v>
+        <v>33063</v>
       </c>
     </row>
     <row r="5" spans="1:36">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <f ca="1">150-INT(150-150/34*$AJ$1)-B6</f>
         <v>1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <f ca="1">150000-INT(150000-150000/34*$AJ$1)-C6</f>
         <v>-4257</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
         <f ca="1">150-INT(150-150/34*$AJ$1)-F6</f>
-        <v>-20</v>
-      </c>
-      <c r="G5" s="6">
+        <v>-19</v>
+      </c>
+      <c r="G5" s="4">
         <f ca="1">150000-INT(150000-150000/34*$AJ$1)-G6</f>
-        <v>-16186</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6">
+        <v>-15145</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
         <f ca="1">150-INT(150-150/34*$AJ$1)-J6</f>
-        <v>-2</v>
-      </c>
-      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
         <f ca="1">150000-INT(150000-150000/34*$AJ$1)-K6</f>
-        <v>-1603</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6">
+        <v>2613</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4">
         <f ca="1">150-INT(150-150/34*$AJ$1)-N6</f>
         <v>9</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="4">
         <f ca="1">150000-INT(150000-150000/34*$AJ$1)-O6</f>
         <v>-144</v>
       </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4">
         <f ca="1">150-INT(150-150/34*$AJ$1)-R6</f>
         <v>-22</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="4">
         <f ca="1">150000-INT(150000-150000/34*$AJ$1)-S6</f>
         <v>-22058</v>
       </c>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6">
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4">
         <f ca="1">150-INT(150-150/34*$AJ$1)-V6</f>
         <v>-11</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="4">
         <f ca="1">150000-INT(150000-150000/34*$AJ$1)-W6</f>
         <v>-10614</v>
       </c>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6">
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4">
         <f ca="1">150-INT(150-150/34*$AJ$1)-Z6</f>
         <v>-6</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AA5" s="4">
         <f ca="1">150000-INT(150000-150000/34*$AJ$1)-AA6</f>
         <v>8662</v>
       </c>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
       <c r="AD5">
         <f ca="1">SUM(B5,F5,J5,N5,R5,V5,Z5)</f>
-        <v>-51</v>
+        <v>-47</v>
       </c>
       <c r="AE5">
         <f ca="1">SUM(C5,G5,K5,O5,S5,W5,AA5)</f>
-        <v>-46200</v>
-      </c>
-      <c r="AF5" s="5">
+        <v>-40943</v>
+      </c>
+      <c r="AF5" s="3">
         <f ca="1">-$AJ$3+AF6</f>
-        <v>-2.3116883116883119E-2</v>
-      </c>
-      <c r="AG5" s="5">
+        <v>-1.9307359307359315E-2</v>
+      </c>
+      <c r="AG5" s="3">
         <f ca="1">-$AJ$3+AG6</f>
-        <v>-1.8158787878787885E-2</v>
+        <v>-1.3152121212121212E-2</v>
       </c>
     </row>
     <row r="6" spans="1:36">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <f>150-B11</f>
         <v>127</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <f>150000-C11</f>
         <v>132199</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
         <f t="shared" ref="F6" si="15">150-F11</f>
-        <v>148</v>
-      </c>
-      <c r="G6" s="6">
+        <v>147</v>
+      </c>
+      <c r="G6" s="4">
         <f t="shared" ref="G6" si="16">150000-G11</f>
-        <v>144128</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6">
+        <v>143087</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4">
         <f t="shared" ref="J6" si="17">150-J11</f>
-        <v>130</v>
-      </c>
-      <c r="K6" s="6">
+        <v>127</v>
+      </c>
+      <c r="K6" s="4">
         <f t="shared" ref="K6" si="18">150000-K11</f>
-        <v>129545</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6">
+        <v>125329</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4">
         <f t="shared" ref="N6" si="19">150-N11</f>
         <v>119</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="4">
         <f t="shared" ref="O6" si="20">150000-O11</f>
         <v>128086</v>
       </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4">
         <f t="shared" ref="R6" si="21">150-R11</f>
         <v>150</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="4">
         <f t="shared" ref="S6" si="22">150000-S11</f>
         <v>150000</v>
       </c>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6">
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4">
         <f t="shared" ref="V6" si="23">150-V11</f>
         <v>139</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="4">
         <f t="shared" ref="W6" si="24">150000-W11</f>
         <v>138556</v>
       </c>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6">
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4">
         <f t="shared" ref="Z6" si="25">150-Z11</f>
         <v>134</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AA6" s="4">
         <f t="shared" ref="AA6" si="26">150000-AA11</f>
         <v>119280</v>
       </c>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
       <c r="AD6">
         <f>SUM(B6,F6,J6,N6,R6,V6,Z6)</f>
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="AE6">
         <f>SUM(C6,G6,K6,O6,S6,W6,AA6)</f>
-        <v>941794</v>
-      </c>
-      <c r="AF6" s="5">
+        <v>936537</v>
+      </c>
+      <c r="AF6" s="3">
         <f>(7*150-AD6)/(7*150)</f>
-        <v>9.8095238095238096E-2</v>
-      </c>
-      <c r="AG6" s="5">
+        <v>0.1019047619047619</v>
+      </c>
+      <c r="AG6" s="3">
         <f>(7*150000-AE6)/(7*150000)</f>
-        <v>0.10305333333333333</v>
+        <v>0.10806</v>
       </c>
     </row>
     <row r="7" spans="1:36">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
       <c r="AD7">
         <f>150*7-AD6</f>
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AE7">
         <f>150000*7-AE6</f>
-        <v>108206</v>
-      </c>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
+        <v>113463</v>
+      </c>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
     </row>
     <row r="8" spans="1:36">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
+      <c r="A8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
     </row>
-    <row r="9" spans="1:36">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
+    <row r="9" spans="1:36" ht="15.75" thickBot="1">
+      <c r="A9"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
     </row>
     <row r="10" spans="1:36">
-      <c r="B10" t="s">
+      <c r="A10"/>
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X10" t="s">
+      <c r="X10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Y10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Z10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AA10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AB10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AC10" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:36">
-      <c r="A11" s="3">
+      <c r="A11" s="8">
         <v>41993</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="12">
         <f>B12</f>
         <v>23</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>17801</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="7">
         <f>B11-B12</f>
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="13">
         <f>C11-C12</f>
         <v>329</v>
       </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>5872</v>
-      </c>
-      <c r="H11">
+      <c r="F11" s="12">
+        <v>3</v>
+      </c>
+      <c r="G11" s="7">
+        <v>6913</v>
+      </c>
+      <c r="H11" s="7">
         <f>F11-F12</f>
-        <v>2</v>
-      </c>
-      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="I11" s="13">
         <f>G11-G12</f>
-        <v>3285</v>
-      </c>
-      <c r="J11">
-        <v>20</v>
-      </c>
-      <c r="K11">
-        <v>20455</v>
-      </c>
-      <c r="L11">
+        <v>4326</v>
+      </c>
+      <c r="J11" s="12">
+        <v>23</v>
+      </c>
+      <c r="K11" s="7">
+        <v>24671</v>
+      </c>
+      <c r="L11" s="7">
         <f>J11-J12</f>
-        <v>3</v>
-      </c>
-      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="M11" s="13">
         <f>K11-K12</f>
-        <v>2610</v>
-      </c>
-      <c r="N11">
+        <v>6826</v>
+      </c>
+      <c r="N11" s="12">
         <v>31</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="7">
         <v>21914</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="7">
         <f>N11-N12</f>
         <v>8</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="13">
         <f>O11-O12</f>
         <v>5997</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="12">
         <f t="shared" ref="R11:S11" si="27">R12</f>
         <v>0</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="7">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="7">
         <f>R11-R12</f>
         <v>0</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="13">
         <f>S11-S12</f>
         <v>0</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="12">
         <v>11</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="7">
         <v>11444</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="7">
         <f>V11-V12</f>
         <v>1</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="13">
         <f>W11-W12</f>
         <v>4644</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="12">
         <v>16</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="7">
         <v>30720</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="7">
         <f>Z11-Z12</f>
         <v>5</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="13">
         <f>AA11-AA12</f>
         <v>10941</v>
       </c>
       <c r="AD11">
         <f>SUM(B11,F11,J11,N11,R11,V11,Z11)-SUM(B12,F12,J12,N12,R12,V12,Z12)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE11">
         <f>SUM(C11,G11,K11,O11,S11,W11,AA11)-SUM(C12,G12,K12,O12,S12,W12,AA12)</f>
-        <v>27806</v>
+        <v>33063</v>
       </c>
     </row>
     <row r="12" spans="1:36">
-      <c r="A12" s="3">
+      <c r="A12" s="8">
         <v>41992</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="12">
         <v>23</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>17472</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="7">
         <f t="shared" ref="D12:D15" si="28">B12-B13</f>
         <v>4</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="13">
         <f t="shared" ref="E12:E15" si="29">C12-C13</f>
         <v>3603</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="12">
         <f t="shared" ref="F12:S13" si="30">F13</f>
         <v>0</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="7">
         <v>2587</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="7">
         <f t="shared" ref="H12:H15" si="31">F12-F13</f>
         <v>0</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="13">
         <f t="shared" ref="I12:I15" si="32">G12-G13</f>
         <v>2121</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="12">
         <v>17</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="7">
         <v>17845</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="7">
         <f t="shared" ref="L12:L15" si="33">J12-J13</f>
         <v>0</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="13">
         <f t="shared" ref="M12:M15" si="34">K12-K13</f>
         <v>1145</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="12">
         <v>23</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="7">
         <v>15917</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="7">
         <f t="shared" ref="P12:P15" si="35">N12-N13</f>
         <v>2</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="13">
         <f t="shared" ref="Q12:Q15" si="36">O12-O13</f>
         <v>2510</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="12">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
+      <c r="S12" s="7">
+        <v>0</v>
+      </c>
+      <c r="T12" s="7">
         <f t="shared" ref="T12:T15" si="37">R12-R13</f>
         <v>0</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="13">
         <f t="shared" ref="U12:U15" si="38">S12-S13</f>
         <v>0</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="12">
         <v>10</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="7">
         <v>6800</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="7">
         <f t="shared" ref="X12:X15" si="39">V12-V13</f>
         <v>5</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="13">
         <f t="shared" ref="Y12:Y15" si="40">W12-W13</f>
         <v>2138</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="12">
         <v>11</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="7">
         <v>19779</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="7">
         <f t="shared" ref="AB12:AB15" si="41">Z12-Z13</f>
         <v>6</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="13">
         <f t="shared" ref="AC12:AC15" si="42">AA12-AA13</f>
         <v>8542</v>
       </c>
@@ -1577,107 +1720,107 @@
       </c>
     </row>
     <row r="13" spans="1:36">
-      <c r="A13" s="3">
+      <c r="A13" s="8">
         <v>41991</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="12">
         <v>19</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <v>13869</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <f t="shared" si="28"/>
         <v>10</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="13">
         <f t="shared" si="29"/>
         <v>5719</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="12">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="7">
         <v>466</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="7">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="13">
         <f t="shared" si="32"/>
         <v>466</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="12">
         <v>17</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="7">
         <v>16700</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="7">
         <f t="shared" si="33"/>
         <v>2</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="13">
         <f t="shared" si="34"/>
         <v>14</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="12">
         <v>21</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="7">
         <v>13407</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="7">
         <f t="shared" si="35"/>
         <v>12</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="13">
         <f t="shared" si="36"/>
         <v>7199</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="12">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="7">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="7">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="13">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="12">
         <v>5</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="7">
         <v>4662</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="7">
         <f t="shared" si="39"/>
         <v>3</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="13">
         <f t="shared" si="40"/>
         <v>3582</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="12">
         <v>5</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="7">
         <v>11237</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" s="7">
         <f t="shared" si="41"/>
         <v>1</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" s="13">
         <f t="shared" si="42"/>
         <v>1879</v>
       </c>
@@ -1691,104 +1834,104 @@
       </c>
     </row>
     <row r="14" spans="1:36">
-      <c r="A14" s="3">
+      <c r="A14" s="8">
         <v>41990</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="12">
         <v>9</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <v>8150</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
         <f t="shared" si="28"/>
         <v>5</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="13">
         <f t="shared" si="29"/>
         <v>4075</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="13">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="12">
         <v>15</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="7">
         <v>16686</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="7">
         <f t="shared" si="33"/>
         <v>8</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="13">
         <f t="shared" si="34"/>
         <v>8343</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="12">
         <v>9</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="7">
         <v>6208</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="7">
         <f t="shared" si="35"/>
         <v>5</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="13">
         <f t="shared" si="36"/>
         <v>3104</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
+      <c r="R14" s="12">
+        <v>0</v>
+      </c>
+      <c r="S14" s="7">
+        <v>0</v>
+      </c>
+      <c r="T14" s="7">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="13">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="12">
         <v>2</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="7">
         <v>1080</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="7">
         <f t="shared" si="39"/>
         <v>1</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="13">
         <f t="shared" si="40"/>
         <v>540</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="12">
         <v>4</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="7">
         <v>9358</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" s="7">
         <f t="shared" si="41"/>
         <v>2</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" s="13">
         <f t="shared" si="42"/>
         <v>4679</v>
       </c>
@@ -1802,118 +1945,118 @@
       </c>
     </row>
     <row r="15" spans="1:36">
-      <c r="A15" s="3">
+      <c r="A15" s="8">
         <v>41989</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="12">
         <f>INT(B14/2)</f>
         <v>4</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="7">
         <f t="shared" ref="C15:AA15" si="45">INT(C14/2)</f>
         <v>4075</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="7">
         <f t="shared" si="28"/>
         <v>4</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="13">
         <f t="shared" si="29"/>
         <v>4075</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="12">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="7">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="7">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="13">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="12">
         <f t="shared" si="45"/>
         <v>7</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="7">
         <f t="shared" si="45"/>
         <v>8343</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="7">
         <f t="shared" si="33"/>
         <v>7</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="13">
         <f t="shared" si="34"/>
         <v>8343</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="12">
         <f t="shared" si="45"/>
         <v>4</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="7">
         <f t="shared" si="45"/>
         <v>3104</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="7">
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="13">
         <f t="shared" si="36"/>
         <v>3104</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="12">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="7">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="7">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="13">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="12">
         <f t="shared" si="45"/>
         <v>1</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="7">
         <f t="shared" si="45"/>
         <v>540</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="7">
         <f t="shared" si="39"/>
         <v>1</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="13">
         <f t="shared" si="40"/>
         <v>540</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="12">
         <f t="shared" si="45"/>
         <v>2</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="7">
         <f t="shared" si="45"/>
         <v>4679</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" s="7">
         <f t="shared" si="41"/>
         <v>2</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" s="13">
         <f t="shared" si="42"/>
         <v>4679</v>
       </c>
@@ -1927,37 +2070,30 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="X1:Y1"/>
+  <mergeCells count="7">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
   </mergeCells>
   <conditionalFormatting sqref="AF5:AG5 B5:AC5">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:AC2">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
       <formula>$AJ$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:AC2">
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="lessThan">
       <formula>$AJ$3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/mission wz.xlsx
+++ b/mission wz.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>France</t>
   </si>
@@ -71,6 +71,12 @@
   <si>
     <t>dd</t>
   </si>
+  <si>
+    <t>dKill Total</t>
+  </si>
+  <si>
+    <t>ddég total</t>
+  </si>
 </sst>
 </file>
 
@@ -100,12 +106,57 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -130,9 +181,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -145,9 +194,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -160,9 +207,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -203,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -211,25 +256,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="15">
     <dxf>
       <font>
         <condense val="0"/>
@@ -239,6 +290,30 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -306,18 +381,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -342,18 +405,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -371,66 +422,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -760,89 +751,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ15"/>
+  <dimension ref="A1:AJ49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" style="13" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" style="13" customWidth="1"/>
-    <col min="18" max="18" width="4.28515625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="7.28515625" style="7" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" style="7" customWidth="1"/>
-    <col min="21" max="21" width="7.28515625" style="13" customWidth="1"/>
-    <col min="22" max="22" width="4.28515625" style="12" customWidth="1"/>
-    <col min="23" max="23" width="7.28515625" style="7" customWidth="1"/>
-    <col min="24" max="24" width="4.28515625" style="7" customWidth="1"/>
-    <col min="25" max="25" width="7.28515625" style="13" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" style="12" customWidth="1"/>
-    <col min="27" max="27" width="7.28515625" style="7" customWidth="1"/>
-    <col min="28" max="28" width="4.28515625" style="7" customWidth="1"/>
-    <col min="29" max="29" width="7.28515625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
-      <c r="A1"/>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5" t="s">
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5" t="s">
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
       <c r="AH1" s="1">
         <f ca="1">TODAY()</f>
         <v>41993</v>
@@ -859,76 +821,76 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <f>(150-B6)/150</f>
-        <v>0.15333333333333332</v>
-      </c>
-      <c r="C2" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="C2" s="5">
         <f>(150000-C6)/150000</f>
-        <v>0.11867333333333334</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6">
+        <v>0.12217333333333333</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5">
         <f t="shared" ref="F2" si="0">(150-F6)/150</f>
         <v>0.02</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <f t="shared" ref="G2" si="1">(150000-G6)/150000</f>
-        <v>4.6086666666666665E-2</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6">
+        <v>5.0880000000000002E-2</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5">
         <f t="shared" ref="J2" si="2">(150-J6)/150</f>
         <v>0.15333333333333332</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <f t="shared" ref="K2" si="3">(150000-K6)/150000</f>
         <v>0.16447333333333333</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5">
         <f t="shared" ref="N2" si="4">(150-N6)/150</f>
-        <v>0.20666666666666667</v>
-      </c>
-      <c r="O2" s="6">
+        <v>0.21333333333333335</v>
+      </c>
+      <c r="O2" s="5">
         <f t="shared" ref="O2" si="5">(150000-O6)/150000</f>
-        <v>0.14609333333333333</v>
-      </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6">
+        <v>0.14666666666666667</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5">
         <f t="shared" ref="R2" si="6">(150-R6)/150</f>
         <v>0</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="5">
         <f t="shared" ref="S2" si="7">(150000-S6)/150000</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5">
         <f t="shared" ref="V2" si="8">(150-V6)/150</f>
         <v>7.3333333333333334E-2</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="5">
         <f t="shared" ref="W2" si="9">(150000-W6)/150000</f>
         <v>7.6293333333333338E-2</v>
       </c>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6">
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5">
         <f t="shared" ref="Z2" si="10">(150-Z6)/150</f>
         <v>0.10666666666666667</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AA2" s="5">
         <f t="shared" ref="AA2" si="11">(150000-AA6)/150000</f>
         <v>0.20480000000000001</v>
       </c>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
       <c r="AH2" s="1">
         <v>41989</v>
       </c>
@@ -950,7 +912,7 @@
       </c>
       <c r="C3" s="4">
         <f ca="1">INT(C6/$AJ$1)</f>
-        <v>4558</v>
+        <v>4540</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -960,7 +922,7 @@
       </c>
       <c r="G3" s="4">
         <f ca="1">INT(G6/$AJ$1)</f>
-        <v>4934</v>
+        <v>4909</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -980,7 +942,7 @@
       </c>
       <c r="O3" s="4">
         <f ca="1">INT(O6/$AJ$1)</f>
-        <v>4416</v>
+        <v>4413</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -990,7 +952,7 @@
       </c>
       <c r="S3" s="4">
         <f ca="1">INT(S6/$AJ$1)</f>
-        <v>5172</v>
+        <v>5131</v>
       </c>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
@@ -1015,12 +977,12 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD4" ca="1" si="12">SUM(B3,F3,J3,N3,R3,V3,Z3)</f>
+        <f t="shared" ref="AD3:AE4" ca="1" si="12">SUM(B3,F3,J3,N3,R3,V3,Z3)</f>
         <v>30</v>
       </c>
       <c r="AE3">
-        <f t="shared" ref="AE3:AE4" ca="1" si="13">SUM(C3,G3,K3,O3,S3,W3,AA3)</f>
-        <v>32291</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>32204</v>
       </c>
       <c r="AH3" s="1"/>
       <c r="AI3" t="s">
@@ -1040,78 +1002,78 @@
         <v>0</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:AA4" si="14">C11-C12</f>
-        <v>329</v>
+        <f t="shared" ref="C4:AA4" si="13">C11-C12</f>
+        <v>0</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4">
-        <f t="shared" si="14"/>
-        <v>3</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" si="14"/>
-        <v>4326</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4">
-        <f t="shared" si="14"/>
-        <v>6</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" si="14"/>
-        <v>6826</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4">
-        <f t="shared" si="14"/>
-        <v>8</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="O4" s="4">
-        <f t="shared" si="14"/>
-        <v>5997</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S4" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="W4" s="4">
-        <f t="shared" si="14"/>
-        <v>4644</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4">
-        <f t="shared" si="14"/>
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="AA4" s="4">
-        <f t="shared" si="14"/>
-        <v>10941</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4">
         <f t="shared" si="12"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="13"/>
-        <v>33063</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1120,11 +1082,11 @@
       </c>
       <c r="B5" s="4">
         <f ca="1">150-INT(150-150/34*$AJ$1)-B6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4">
         <f ca="1">150000-INT(150000-150000/34*$AJ$1)-C6</f>
-        <v>-4257</v>
+        <v>-3732</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1134,7 +1096,7 @@
       </c>
       <c r="G5" s="4">
         <f ca="1">150000-INT(150000-150000/34*$AJ$1)-G6</f>
-        <v>-15145</v>
+        <v>-14426</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -1150,11 +1112,11 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4">
         <f ca="1">150-INT(150-150/34*$AJ$1)-N6</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O5" s="4">
         <f ca="1">150000-INT(150000-150000/34*$AJ$1)-O6</f>
-        <v>-144</v>
+        <v>-58</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -1164,7 +1126,7 @@
       </c>
       <c r="S5" s="4">
         <f ca="1">150000-INT(150000-150000/34*$AJ$1)-S6</f>
-        <v>-22058</v>
+        <v>-20873</v>
       </c>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
@@ -1190,19 +1152,19 @@
       <c r="AC5" s="4"/>
       <c r="AD5">
         <f ca="1">SUM(B5,F5,J5,N5,R5,V5,Z5)</f>
-        <v>-47</v>
+        <v>-45</v>
       </c>
       <c r="AE5">
         <f ca="1">SUM(C5,G5,K5,O5,S5,W5,AA5)</f>
-        <v>-40943</v>
+        <v>-38428</v>
       </c>
       <c r="AF5" s="3">
         <f ca="1">-$AJ$3+AF6</f>
-        <v>-1.9307359307359315E-2</v>
+        <v>-1.7402597402597406E-2</v>
       </c>
       <c r="AG5" s="3">
         <f ca="1">-$AJ$3+AG6</f>
-        <v>-1.3152121212121212E-2</v>
+        <v>-1.0756883116883123E-2</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1211,89 +1173,89 @@
       </c>
       <c r="B6" s="4">
         <f>150-B11</f>
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="4">
         <f>150000-C11</f>
-        <v>132199</v>
+        <v>131674</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4">
-        <f t="shared" ref="F6" si="15">150-F11</f>
+        <f t="shared" ref="F6" si="14">150-F11</f>
         <v>147</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" ref="G6" si="16">150000-G11</f>
-        <v>143087</v>
+        <f t="shared" ref="G6" si="15">150000-G11</f>
+        <v>142368</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4">
-        <f t="shared" ref="J6" si="17">150-J11</f>
+        <f t="shared" ref="J6" si="16">150-J11</f>
         <v>127</v>
       </c>
       <c r="K6" s="4">
-        <f t="shared" ref="K6" si="18">150000-K11</f>
+        <f t="shared" ref="K6" si="17">150000-K11</f>
         <v>125329</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4">
-        <f t="shared" ref="N6" si="19">150-N11</f>
-        <v>119</v>
+        <f t="shared" ref="N6" si="18">150-N11</f>
+        <v>118</v>
       </c>
       <c r="O6" s="4">
-        <f t="shared" ref="O6" si="20">150000-O11</f>
-        <v>128086</v>
+        <f t="shared" ref="O6" si="19">150000-O11</f>
+        <v>128000</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4">
-        <f t="shared" ref="R6" si="21">150-R11</f>
+        <f t="shared" ref="R6" si="20">150-R11</f>
         <v>150</v>
       </c>
       <c r="S6" s="4">
-        <f t="shared" ref="S6" si="22">150000-S11</f>
-        <v>150000</v>
+        <f t="shared" ref="S6" si="21">150000-S11</f>
+        <v>148815</v>
       </c>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4">
-        <f t="shared" ref="V6" si="23">150-V11</f>
+        <f t="shared" ref="V6" si="22">150-V11</f>
         <v>139</v>
       </c>
       <c r="W6" s="4">
-        <f t="shared" ref="W6" si="24">150000-W11</f>
+        <f t="shared" ref="W6" si="23">150000-W11</f>
         <v>138556</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4">
-        <f t="shared" ref="Z6" si="25">150-Z11</f>
+        <f t="shared" ref="Z6" si="24">150-Z11</f>
         <v>134</v>
       </c>
       <c r="AA6" s="4">
-        <f t="shared" ref="AA6" si="26">150000-AA11</f>
+        <f t="shared" ref="AA6" si="25">150000-AA11</f>
         <v>119280</v>
       </c>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
       <c r="AD6">
         <f>SUM(B6,F6,J6,N6,R6,V6,Z6)</f>
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="AE6">
         <f>SUM(C6,G6,K6,O6,S6,W6,AA6)</f>
-        <v>936537</v>
+        <v>934022</v>
       </c>
       <c r="AF6" s="3">
         <f>(7*150-AD6)/(7*150)</f>
-        <v>0.1019047619047619</v>
+        <v>0.10380952380952381</v>
       </c>
       <c r="AG6" s="3">
         <f>(7*150000-AE6)/(7*150000)</f>
-        <v>0.10806</v>
+        <v>0.11045523809523809</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -1330,17 +1292,16 @@
       <c r="AC7" s="4"/>
       <c r="AD7">
         <f>150*7-AD6</f>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AE7">
         <f>150000*7-AE6</f>
-        <v>113463</v>
+        <v>115978</v>
       </c>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
     </row>
     <row r="8" spans="1:36">
-      <c r="A8"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1373,7 +1334,6 @@
       <c r="AG8" s="3"/>
     </row>
     <row r="9" spans="1:36" ht="15.75" thickBot="1">
-      <c r="A9"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1405,695 +1365,4611 @@
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
     </row>
-    <row r="10" spans="1:36">
-      <c r="A10"/>
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="1:36" ht="15.75" thickBot="1">
+      <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="P10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="R10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="S10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="10" t="s">
+      <c r="T10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="U10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="V10" s="9" t="s">
+      <c r="V10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W10" s="10" t="s">
+      <c r="W10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="X10" s="10" t="s">
+      <c r="X10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Y10" s="11" t="s">
+      <c r="Y10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Z10" s="9" t="s">
+      <c r="Z10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AA10" s="10" t="s">
+      <c r="AA10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AB10" s="10" t="s">
+      <c r="AB10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AC10" s="11" t="s">
+      <c r="AC10" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="AD10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE10" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:36">
-      <c r="A11" s="8">
-        <v>41993</v>
+      <c r="A11" s="11">
+        <v>42023</v>
       </c>
       <c r="B11" s="12">
-        <f>B12</f>
+        <f t="shared" ref="B11:Q39" si="26">B12</f>
+        <v>24</v>
+      </c>
+      <c r="C11" s="13">
+        <f t="shared" si="26"/>
+        <v>18326</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="14">
+        <f t="shared" si="26"/>
+        <v>854</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="26"/>
+        <v>7632</v>
+      </c>
+      <c r="H11" s="13">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="26"/>
+        <v>5045</v>
+      </c>
+      <c r="J11" s="12">
+        <f t="shared" si="26"/>
         <v>23</v>
       </c>
-      <c r="C11" s="7">
-        <v>17801</v>
-      </c>
-      <c r="D11" s="7">
-        <f>B11-B12</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
-        <f>C11-C12</f>
-        <v>329</v>
-      </c>
-      <c r="F11" s="12">
-        <v>3</v>
-      </c>
-      <c r="G11" s="7">
-        <v>6913</v>
-      </c>
-      <c r="H11" s="7">
-        <f>F11-F12</f>
-        <v>3</v>
-      </c>
-      <c r="I11" s="13">
-        <f>G11-G12</f>
-        <v>4326</v>
-      </c>
-      <c r="J11" s="12">
-        <v>23</v>
-      </c>
-      <c r="K11" s="7">
+      <c r="K11" s="13">
+        <f t="shared" si="26"/>
         <v>24671</v>
       </c>
-      <c r="L11" s="7">
-        <f>J11-J12</f>
+      <c r="L11" s="13">
+        <f t="shared" si="26"/>
         <v>6</v>
       </c>
-      <c r="M11" s="13">
-        <f>K11-K12</f>
+      <c r="M11" s="14">
+        <f t="shared" si="26"/>
         <v>6826</v>
       </c>
       <c r="N11" s="12">
-        <v>31</v>
-      </c>
-      <c r="O11" s="7">
-        <v>21914</v>
-      </c>
-      <c r="P11" s="7">
-        <f>N11-N12</f>
-        <v>8</v>
-      </c>
-      <c r="Q11" s="13">
-        <f>O11-O12</f>
-        <v>5997</v>
+        <f t="shared" si="26"/>
+        <v>32</v>
+      </c>
+      <c r="O11" s="13">
+        <f t="shared" si="26"/>
+        <v>22000</v>
+      </c>
+      <c r="P11" s="13">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="Q11" s="14">
+        <f t="shared" si="26"/>
+        <v>6083</v>
       </c>
       <c r="R11" s="12">
-        <f t="shared" ref="R11:S11" si="27">R12</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="7">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="7">
-        <f>R11-R12</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="13">
-        <f>S11-S12</f>
-        <v>0</v>
+        <f t="shared" ref="R11:AC39" si="27">R12</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="13">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="T11" s="13">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="14">
+        <f t="shared" si="27"/>
+        <v>1185</v>
       </c>
       <c r="V11" s="12">
+        <f t="shared" si="27"/>
         <v>11</v>
       </c>
-      <c r="W11" s="7">
+      <c r="W11" s="13">
+        <f t="shared" si="27"/>
         <v>11444</v>
       </c>
-      <c r="X11" s="7">
-        <f>V11-V12</f>
-        <v>1</v>
-      </c>
-      <c r="Y11" s="13">
-        <f>W11-W12</f>
+      <c r="X11" s="13">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Y11" s="14">
+        <f t="shared" si="27"/>
         <v>4644</v>
       </c>
       <c r="Z11" s="12">
+        <f t="shared" si="27"/>
         <v>16</v>
       </c>
-      <c r="AA11" s="7">
+      <c r="AA11" s="13">
+        <f t="shared" si="27"/>
         <v>30720</v>
       </c>
-      <c r="AB11" s="7">
-        <f>Z11-Z12</f>
+      <c r="AB11" s="13">
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
-      <c r="AC11" s="13">
-        <f>AA11-AA12</f>
+      <c r="AC11" s="14">
+        <f t="shared" si="27"/>
         <v>10941</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="4">
         <f>SUM(B11,F11,J11,N11,R11,V11,Z11)-SUM(B12,F12,J12,N12,R12,V12,Z12)</f>
-        <v>23</v>
-      </c>
-      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="4">
         <f>SUM(C11,G11,K11,O11,S11,W11,AA11)-SUM(C12,G12,K12,O12,S12,W12,AA12)</f>
-        <v>33063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:36">
-      <c r="A12" s="8">
-        <v>41992</v>
-      </c>
-      <c r="B12" s="12">
+      <c r="A12" s="11">
+        <v>42022</v>
+      </c>
+      <c r="B12" s="15">
+        <f t="shared" si="26"/>
+        <v>24</v>
+      </c>
+      <c r="C12" s="16">
+        <f t="shared" si="26"/>
+        <v>18326</v>
+      </c>
+      <c r="D12" s="16">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="17">
+        <f t="shared" si="26"/>
+        <v>854</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="G12" s="16">
+        <f t="shared" si="26"/>
+        <v>7632</v>
+      </c>
+      <c r="H12" s="16">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="I12" s="17">
+        <f t="shared" si="26"/>
+        <v>5045</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="26"/>
         <v>23</v>
       </c>
-      <c r="C12" s="7">
-        <v>17472</v>
-      </c>
-      <c r="D12" s="7">
-        <f t="shared" ref="D12:D15" si="28">B12-B13</f>
-        <v>4</v>
-      </c>
-      <c r="E12" s="13">
-        <f t="shared" ref="E12:E15" si="29">C12-C13</f>
-        <v>3603</v>
-      </c>
-      <c r="F12" s="12">
-        <f t="shared" ref="F12:S13" si="30">F13</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <v>2587</v>
-      </c>
-      <c r="H12" s="7">
-        <f t="shared" ref="H12:H15" si="31">F12-F13</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="13">
-        <f t="shared" ref="I12:I15" si="32">G12-G13</f>
-        <v>2121</v>
-      </c>
-      <c r="J12" s="12">
-        <v>17</v>
-      </c>
-      <c r="K12" s="7">
-        <v>17845</v>
-      </c>
-      <c r="L12" s="7">
-        <f t="shared" ref="L12:L15" si="33">J12-J13</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="13">
-        <f t="shared" ref="M12:M15" si="34">K12-K13</f>
-        <v>1145</v>
-      </c>
-      <c r="N12" s="12">
-        <v>23</v>
-      </c>
-      <c r="O12" s="7">
-        <v>15917</v>
-      </c>
-      <c r="P12" s="7">
-        <f t="shared" ref="P12:P15" si="35">N12-N13</f>
-        <v>2</v>
-      </c>
-      <c r="Q12" s="13">
-        <f t="shared" ref="Q12:Q15" si="36">O12-O13</f>
-        <v>2510</v>
-      </c>
-      <c r="R12" s="12">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="7">
-        <v>0</v>
-      </c>
-      <c r="T12" s="7">
-        <f t="shared" ref="T12:T15" si="37">R12-R13</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="13">
-        <f t="shared" ref="U12:U15" si="38">S12-S13</f>
-        <v>0</v>
-      </c>
-      <c r="V12" s="12">
-        <v>10</v>
-      </c>
-      <c r="W12" s="7">
-        <v>6800</v>
-      </c>
-      <c r="X12" s="7">
-        <f t="shared" ref="X12:X15" si="39">V12-V13</f>
+      <c r="K12" s="16">
+        <f t="shared" si="26"/>
+        <v>24671</v>
+      </c>
+      <c r="L12" s="16">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="M12" s="17">
+        <f t="shared" si="26"/>
+        <v>6826</v>
+      </c>
+      <c r="N12" s="15">
+        <f t="shared" si="26"/>
+        <v>32</v>
+      </c>
+      <c r="O12" s="16">
+        <f t="shared" si="26"/>
+        <v>22000</v>
+      </c>
+      <c r="P12" s="16">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="Q12" s="17">
+        <f t="shared" si="26"/>
+        <v>6083</v>
+      </c>
+      <c r="R12" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="16">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="T12" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="17">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="V12" s="15">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="W12" s="16">
+        <f t="shared" si="27"/>
+        <v>11444</v>
+      </c>
+      <c r="X12" s="16">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Y12" s="17">
+        <f t="shared" si="27"/>
+        <v>4644</v>
+      </c>
+      <c r="Z12" s="15">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="AA12" s="16">
+        <f t="shared" si="27"/>
+        <v>30720</v>
+      </c>
+      <c r="AB12" s="16">
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
-      <c r="Y12" s="13">
-        <f t="shared" ref="Y12:Y15" si="40">W12-W13</f>
-        <v>2138</v>
-      </c>
-      <c r="Z12" s="12">
-        <v>11</v>
-      </c>
-      <c r="AA12" s="7">
-        <v>19779</v>
-      </c>
-      <c r="AB12" s="7">
-        <f t="shared" ref="AB12:AB15" si="41">Z12-Z13</f>
-        <v>6</v>
-      </c>
-      <c r="AC12" s="13">
-        <f t="shared" ref="AC12:AC15" si="42">AA12-AA13</f>
-        <v>8542</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" ref="AD12:AD14" si="43">SUM(B12,F12,J12,N12,R12,V12,Z12)-SUM(B13,F13,J13,N13,R13,V13,Z13)</f>
-        <v>17</v>
-      </c>
-      <c r="AE12">
-        <f t="shared" ref="AE12:AE14" si="44">SUM(C12,G12,K12,O12,S12,W12,AA12)-SUM(C13,G13,K13,O13,S13,W13,AA13)</f>
-        <v>20059</v>
+      <c r="AC12" s="17">
+        <f t="shared" si="27"/>
+        <v>10941</v>
+      </c>
+      <c r="AD12" s="4">
+        <f t="shared" ref="AD12:AE27" si="28">SUM(B12,F12,J12,N12,R12,V12,Z12)-SUM(B13,F13,J13,N13,R13,V13,Z13)</f>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:36">
-      <c r="A13" s="8">
-        <v>41991</v>
-      </c>
-      <c r="B13" s="12">
-        <v>19</v>
-      </c>
-      <c r="C13" s="7">
-        <v>13869</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="A13" s="11">
+        <v>42021</v>
+      </c>
+      <c r="B13" s="15">
+        <f t="shared" si="26"/>
+        <v>24</v>
+      </c>
+      <c r="C13" s="16">
+        <f t="shared" si="26"/>
+        <v>18326</v>
+      </c>
+      <c r="D13" s="16">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="17">
+        <f t="shared" si="26"/>
+        <v>854</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="G13" s="16">
+        <f t="shared" si="26"/>
+        <v>7632</v>
+      </c>
+      <c r="H13" s="16">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="I13" s="17">
+        <f t="shared" si="26"/>
+        <v>5045</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="26"/>
+        <v>23</v>
+      </c>
+      <c r="K13" s="16">
+        <f t="shared" si="26"/>
+        <v>24671</v>
+      </c>
+      <c r="L13" s="16">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="M13" s="17">
+        <f t="shared" si="26"/>
+        <v>6826</v>
+      </c>
+      <c r="N13" s="15">
+        <f t="shared" si="26"/>
+        <v>32</v>
+      </c>
+      <c r="O13" s="16">
+        <f t="shared" si="26"/>
+        <v>22000</v>
+      </c>
+      <c r="P13" s="16">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="Q13" s="17">
+        <f t="shared" si="26"/>
+        <v>6083</v>
+      </c>
+      <c r="R13" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="16">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="T13" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="17">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="V13" s="15">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="W13" s="16">
+        <f t="shared" si="27"/>
+        <v>11444</v>
+      </c>
+      <c r="X13" s="16">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="17">
+        <f t="shared" si="27"/>
+        <v>4644</v>
+      </c>
+      <c r="Z13" s="15">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="AA13" s="16">
+        <f t="shared" si="27"/>
+        <v>30720</v>
+      </c>
+      <c r="AB13" s="16">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="AC13" s="17">
+        <f t="shared" si="27"/>
+        <v>10941</v>
+      </c>
+      <c r="AD13" s="4">
         <f t="shared" si="28"/>
-        <v>10</v>
-      </c>
-      <c r="E13" s="13">
-        <f t="shared" si="29"/>
-        <v>5719</v>
-      </c>
-      <c r="F13" s="12">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <v>466</v>
-      </c>
-      <c r="H13" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="13">
-        <f t="shared" si="32"/>
-        <v>466</v>
-      </c>
-      <c r="J13" s="12">
-        <v>17</v>
-      </c>
-      <c r="K13" s="7">
-        <v>16700</v>
-      </c>
-      <c r="L13" s="7">
-        <f t="shared" si="33"/>
-        <v>2</v>
-      </c>
-      <c r="M13" s="13">
-        <f t="shared" si="34"/>
-        <v>14</v>
-      </c>
-      <c r="N13" s="12">
-        <v>21</v>
-      </c>
-      <c r="O13" s="7">
-        <v>13407</v>
-      </c>
-      <c r="P13" s="7">
-        <f t="shared" si="35"/>
-        <v>12</v>
-      </c>
-      <c r="Q13" s="13">
-        <f t="shared" si="36"/>
-        <v>7199</v>
-      </c>
-      <c r="R13" s="12">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="7">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="7">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="13">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="12">
-        <v>5</v>
-      </c>
-      <c r="W13" s="7">
-        <v>4662</v>
-      </c>
-      <c r="X13" s="7">
-        <f t="shared" si="39"/>
-        <v>3</v>
-      </c>
-      <c r="Y13" s="13">
-        <f t="shared" si="40"/>
-        <v>3582</v>
-      </c>
-      <c r="Z13" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA13" s="7">
-        <v>11237</v>
-      </c>
-      <c r="AB13" s="7">
-        <f t="shared" si="41"/>
-        <v>1</v>
-      </c>
-      <c r="AC13" s="13">
-        <f t="shared" si="42"/>
-        <v>1879</v>
-      </c>
-      <c r="AD13">
-        <f t="shared" si="43"/>
-        <v>28</v>
-      </c>
-      <c r="AE13">
-        <f t="shared" si="44"/>
-        <v>18859</v>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:36">
-      <c r="A14" s="8">
-        <v>41990</v>
-      </c>
-      <c r="B14" s="12">
+      <c r="A14" s="11">
+        <v>42020</v>
+      </c>
+      <c r="B14" s="15">
+        <f t="shared" si="26"/>
+        <v>24</v>
+      </c>
+      <c r="C14" s="16">
+        <f t="shared" si="26"/>
+        <v>18326</v>
+      </c>
+      <c r="D14" s="16">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="17">
+        <f t="shared" si="26"/>
+        <v>854</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="G14" s="16">
+        <f t="shared" si="26"/>
+        <v>7632</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="I14" s="17">
+        <f t="shared" si="26"/>
+        <v>5045</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="26"/>
+        <v>23</v>
+      </c>
+      <c r="K14" s="16">
+        <f t="shared" si="26"/>
+        <v>24671</v>
+      </c>
+      <c r="L14" s="16">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="M14" s="17">
+        <f t="shared" si="26"/>
+        <v>6826</v>
+      </c>
+      <c r="N14" s="15">
+        <f t="shared" si="26"/>
+        <v>32</v>
+      </c>
+      <c r="O14" s="16">
+        <f t="shared" si="26"/>
+        <v>22000</v>
+      </c>
+      <c r="P14" s="16">
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
-      <c r="C14" s="7">
-        <v>8150</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="Q14" s="17">
+        <f t="shared" si="26"/>
+        <v>6083</v>
+      </c>
+      <c r="R14" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="16">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="T14" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="17">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="V14" s="15">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="W14" s="16">
+        <f t="shared" si="27"/>
+        <v>11444</v>
+      </c>
+      <c r="X14" s="16">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Y14" s="17">
+        <f t="shared" si="27"/>
+        <v>4644</v>
+      </c>
+      <c r="Z14" s="15">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="AA14" s="16">
+        <f t="shared" si="27"/>
+        <v>30720</v>
+      </c>
+      <c r="AB14" s="16">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="AC14" s="17">
+        <f t="shared" si="27"/>
+        <v>10941</v>
+      </c>
+      <c r="AD14" s="4">
         <f t="shared" si="28"/>
-        <v>5</v>
-      </c>
-      <c r="E14" s="13">
-        <f t="shared" si="29"/>
-        <v>4075</v>
-      </c>
-      <c r="F14" s="12">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="13">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="12">
-        <v>15</v>
-      </c>
-      <c r="K14" s="7">
-        <v>16686</v>
-      </c>
-      <c r="L14" s="7">
-        <f t="shared" si="33"/>
-        <v>8</v>
-      </c>
-      <c r="M14" s="13">
-        <f t="shared" si="34"/>
-        <v>8343</v>
-      </c>
-      <c r="N14" s="12">
-        <v>9</v>
-      </c>
-      <c r="O14" s="7">
-        <v>6208</v>
-      </c>
-      <c r="P14" s="7">
-        <f t="shared" si="35"/>
-        <v>5</v>
-      </c>
-      <c r="Q14" s="13">
-        <f t="shared" si="36"/>
-        <v>3104</v>
-      </c>
-      <c r="R14" s="12">
-        <v>0</v>
-      </c>
-      <c r="S14" s="7">
-        <v>0</v>
-      </c>
-      <c r="T14" s="7">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="13">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="12">
-        <v>2</v>
-      </c>
-      <c r="W14" s="7">
-        <v>1080</v>
-      </c>
-      <c r="X14" s="7">
-        <f t="shared" si="39"/>
-        <v>1</v>
-      </c>
-      <c r="Y14" s="13">
-        <f t="shared" si="40"/>
-        <v>540</v>
-      </c>
-      <c r="Z14" s="12">
-        <v>4</v>
-      </c>
-      <c r="AA14" s="7">
-        <v>9358</v>
-      </c>
-      <c r="AB14" s="7">
-        <f t="shared" si="41"/>
-        <v>2</v>
-      </c>
-      <c r="AC14" s="13">
-        <f t="shared" si="42"/>
-        <v>4679</v>
-      </c>
-      <c r="AD14">
-        <f t="shared" si="43"/>
-        <v>21</v>
-      </c>
-      <c r="AE14">
-        <f t="shared" si="44"/>
-        <v>20741</v>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:36">
-      <c r="A15" s="8">
+      <c r="A15" s="11">
+        <v>42019</v>
+      </c>
+      <c r="B15" s="15">
+        <f t="shared" si="26"/>
+        <v>24</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" si="26"/>
+        <v>18326</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="17">
+        <f t="shared" si="26"/>
+        <v>854</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" si="26"/>
+        <v>7632</v>
+      </c>
+      <c r="H15" s="16">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="I15" s="17">
+        <f t="shared" si="26"/>
+        <v>5045</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="26"/>
+        <v>23</v>
+      </c>
+      <c r="K15" s="16">
+        <f t="shared" si="26"/>
+        <v>24671</v>
+      </c>
+      <c r="L15" s="16">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="M15" s="17">
+        <f t="shared" si="26"/>
+        <v>6826</v>
+      </c>
+      <c r="N15" s="15">
+        <f t="shared" si="26"/>
+        <v>32</v>
+      </c>
+      <c r="O15" s="16">
+        <f t="shared" si="26"/>
+        <v>22000</v>
+      </c>
+      <c r="P15" s="16">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="Q15" s="17">
+        <f t="shared" si="26"/>
+        <v>6083</v>
+      </c>
+      <c r="R15" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="16">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="T15" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="17">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="V15" s="15">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="W15" s="16">
+        <f t="shared" si="27"/>
+        <v>11444</v>
+      </c>
+      <c r="X15" s="16">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Y15" s="17">
+        <f t="shared" si="27"/>
+        <v>4644</v>
+      </c>
+      <c r="Z15" s="15">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="AA15" s="16">
+        <f t="shared" si="27"/>
+        <v>30720</v>
+      </c>
+      <c r="AB15" s="16">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="AC15" s="17">
+        <f t="shared" si="27"/>
+        <v>10941</v>
+      </c>
+      <c r="AD15" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36">
+      <c r="A16" s="11">
+        <v>42018</v>
+      </c>
+      <c r="B16" s="15">
+        <f t="shared" si="26"/>
+        <v>24</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" si="26"/>
+        <v>18326</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="17">
+        <f t="shared" si="26"/>
+        <v>854</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="G16" s="16">
+        <f t="shared" si="26"/>
+        <v>7632</v>
+      </c>
+      <c r="H16" s="16">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="I16" s="17">
+        <f t="shared" si="26"/>
+        <v>5045</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" si="26"/>
+        <v>23</v>
+      </c>
+      <c r="K16" s="16">
+        <f t="shared" si="26"/>
+        <v>24671</v>
+      </c>
+      <c r="L16" s="16">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="M16" s="17">
+        <f t="shared" si="26"/>
+        <v>6826</v>
+      </c>
+      <c r="N16" s="15">
+        <f t="shared" si="26"/>
+        <v>32</v>
+      </c>
+      <c r="O16" s="16">
+        <f t="shared" si="26"/>
+        <v>22000</v>
+      </c>
+      <c r="P16" s="16">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="Q16" s="17">
+        <f t="shared" si="26"/>
+        <v>6083</v>
+      </c>
+      <c r="R16" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="16">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="T16" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="17">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="V16" s="15">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="W16" s="16">
+        <f t="shared" si="27"/>
+        <v>11444</v>
+      </c>
+      <c r="X16" s="16">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Y16" s="17">
+        <f t="shared" si="27"/>
+        <v>4644</v>
+      </c>
+      <c r="Z16" s="15">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="AA16" s="16">
+        <f t="shared" si="27"/>
+        <v>30720</v>
+      </c>
+      <c r="AB16" s="16">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="AC16" s="17">
+        <f t="shared" si="27"/>
+        <v>10941</v>
+      </c>
+      <c r="AD16" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="11">
+        <v>42017</v>
+      </c>
+      <c r="B17" s="15">
+        <f t="shared" si="26"/>
+        <v>24</v>
+      </c>
+      <c r="C17" s="16">
+        <f t="shared" si="26"/>
+        <v>18326</v>
+      </c>
+      <c r="D17" s="16">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="17">
+        <f t="shared" si="26"/>
+        <v>854</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="G17" s="16">
+        <f t="shared" si="26"/>
+        <v>7632</v>
+      </c>
+      <c r="H17" s="16">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="I17" s="17">
+        <f t="shared" si="26"/>
+        <v>5045</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="26"/>
+        <v>23</v>
+      </c>
+      <c r="K17" s="16">
+        <f t="shared" si="26"/>
+        <v>24671</v>
+      </c>
+      <c r="L17" s="16">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="M17" s="17">
+        <f t="shared" si="26"/>
+        <v>6826</v>
+      </c>
+      <c r="N17" s="15">
+        <f t="shared" si="26"/>
+        <v>32</v>
+      </c>
+      <c r="O17" s="16">
+        <f t="shared" si="26"/>
+        <v>22000</v>
+      </c>
+      <c r="P17" s="16">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="Q17" s="17">
+        <f t="shared" si="26"/>
+        <v>6083</v>
+      </c>
+      <c r="R17" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="16">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="T17" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="17">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="V17" s="15">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="W17" s="16">
+        <f t="shared" si="27"/>
+        <v>11444</v>
+      </c>
+      <c r="X17" s="16">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Y17" s="17">
+        <f t="shared" si="27"/>
+        <v>4644</v>
+      </c>
+      <c r="Z17" s="15">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="AA17" s="16">
+        <f t="shared" si="27"/>
+        <v>30720</v>
+      </c>
+      <c r="AB17" s="16">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="AC17" s="17">
+        <f t="shared" si="27"/>
+        <v>10941</v>
+      </c>
+      <c r="AD17" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="11">
+        <v>42016</v>
+      </c>
+      <c r="B18" s="15">
+        <f t="shared" si="26"/>
+        <v>24</v>
+      </c>
+      <c r="C18" s="16">
+        <f t="shared" si="26"/>
+        <v>18326</v>
+      </c>
+      <c r="D18" s="16">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="17">
+        <f t="shared" si="26"/>
+        <v>854</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="G18" s="16">
+        <f t="shared" si="26"/>
+        <v>7632</v>
+      </c>
+      <c r="H18" s="16">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="I18" s="17">
+        <f t="shared" si="26"/>
+        <v>5045</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="26"/>
+        <v>23</v>
+      </c>
+      <c r="K18" s="16">
+        <f t="shared" si="26"/>
+        <v>24671</v>
+      </c>
+      <c r="L18" s="16">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="M18" s="17">
+        <f t="shared" si="26"/>
+        <v>6826</v>
+      </c>
+      <c r="N18" s="15">
+        <f t="shared" si="26"/>
+        <v>32</v>
+      </c>
+      <c r="O18" s="16">
+        <f t="shared" si="26"/>
+        <v>22000</v>
+      </c>
+      <c r="P18" s="16">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="Q18" s="17">
+        <f t="shared" si="26"/>
+        <v>6083</v>
+      </c>
+      <c r="R18" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="16">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="T18" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="17">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="V18" s="15">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="W18" s="16">
+        <f t="shared" si="27"/>
+        <v>11444</v>
+      </c>
+      <c r="X18" s="16">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Y18" s="17">
+        <f t="shared" si="27"/>
+        <v>4644</v>
+      </c>
+      <c r="Z18" s="15">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="AA18" s="16">
+        <f t="shared" si="27"/>
+        <v>30720</v>
+      </c>
+      <c r="AB18" s="16">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="AC18" s="17">
+        <f t="shared" si="27"/>
+        <v>10941</v>
+      </c>
+      <c r="AD18" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" s="11">
+        <v>42015</v>
+      </c>
+      <c r="B19" s="15">
+        <f t="shared" si="26"/>
+        <v>24</v>
+      </c>
+      <c r="C19" s="16">
+        <f t="shared" si="26"/>
+        <v>18326</v>
+      </c>
+      <c r="D19" s="16">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="17">
+        <f t="shared" si="26"/>
+        <v>854</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="G19" s="16">
+        <f t="shared" si="26"/>
+        <v>7632</v>
+      </c>
+      <c r="H19" s="16">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="I19" s="17">
+        <f t="shared" si="26"/>
+        <v>5045</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="26"/>
+        <v>23</v>
+      </c>
+      <c r="K19" s="16">
+        <f t="shared" si="26"/>
+        <v>24671</v>
+      </c>
+      <c r="L19" s="16">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="M19" s="17">
+        <f t="shared" si="26"/>
+        <v>6826</v>
+      </c>
+      <c r="N19" s="15">
+        <f t="shared" si="26"/>
+        <v>32</v>
+      </c>
+      <c r="O19" s="16">
+        <f t="shared" si="26"/>
+        <v>22000</v>
+      </c>
+      <c r="P19" s="16">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="Q19" s="17">
+        <f t="shared" si="26"/>
+        <v>6083</v>
+      </c>
+      <c r="R19" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="16">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="T19" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="17">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="V19" s="15">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="W19" s="16">
+        <f t="shared" si="27"/>
+        <v>11444</v>
+      </c>
+      <c r="X19" s="16">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Y19" s="17">
+        <f t="shared" si="27"/>
+        <v>4644</v>
+      </c>
+      <c r="Z19" s="15">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="AA19" s="16">
+        <f t="shared" si="27"/>
+        <v>30720</v>
+      </c>
+      <c r="AB19" s="16">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="AC19" s="17">
+        <f t="shared" si="27"/>
+        <v>10941</v>
+      </c>
+      <c r="AD19" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="11">
+        <v>42014</v>
+      </c>
+      <c r="B20" s="15">
+        <f t="shared" si="26"/>
+        <v>24</v>
+      </c>
+      <c r="C20" s="16">
+        <f t="shared" si="26"/>
+        <v>18326</v>
+      </c>
+      <c r="D20" s="16">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="17">
+        <f t="shared" si="26"/>
+        <v>854</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="G20" s="16">
+        <f t="shared" si="26"/>
+        <v>7632</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="I20" s="17">
+        <f t="shared" si="26"/>
+        <v>5045</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="26"/>
+        <v>23</v>
+      </c>
+      <c r="K20" s="16">
+        <f t="shared" si="26"/>
+        <v>24671</v>
+      </c>
+      <c r="L20" s="16">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="M20" s="17">
+        <f t="shared" si="26"/>
+        <v>6826</v>
+      </c>
+      <c r="N20" s="15">
+        <f t="shared" si="26"/>
+        <v>32</v>
+      </c>
+      <c r="O20" s="16">
+        <f t="shared" si="26"/>
+        <v>22000</v>
+      </c>
+      <c r="P20" s="16">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="Q20" s="17">
+        <f t="shared" si="26"/>
+        <v>6083</v>
+      </c>
+      <c r="R20" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="16">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="T20" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="17">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="V20" s="15">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="W20" s="16">
+        <f t="shared" si="27"/>
+        <v>11444</v>
+      </c>
+      <c r="X20" s="16">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Y20" s="17">
+        <f t="shared" si="27"/>
+        <v>4644</v>
+      </c>
+      <c r="Z20" s="15">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="AA20" s="16">
+        <f t="shared" si="27"/>
+        <v>30720</v>
+      </c>
+      <c r="AB20" s="16">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="AC20" s="17">
+        <f t="shared" si="27"/>
+        <v>10941</v>
+      </c>
+      <c r="AD20" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="11">
+        <v>42013</v>
+      </c>
+      <c r="B21" s="15">
+        <f t="shared" si="26"/>
+        <v>24</v>
+      </c>
+      <c r="C21" s="16">
+        <f t="shared" si="26"/>
+        <v>18326</v>
+      </c>
+      <c r="D21" s="16">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="17">
+        <f t="shared" si="26"/>
+        <v>854</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="G21" s="16">
+        <f t="shared" si="26"/>
+        <v>7632</v>
+      </c>
+      <c r="H21" s="16">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="I21" s="17">
+        <f t="shared" si="26"/>
+        <v>5045</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="26"/>
+        <v>23</v>
+      </c>
+      <c r="K21" s="16">
+        <f t="shared" si="26"/>
+        <v>24671</v>
+      </c>
+      <c r="L21" s="16">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="M21" s="17">
+        <f t="shared" si="26"/>
+        <v>6826</v>
+      </c>
+      <c r="N21" s="15">
+        <f t="shared" si="26"/>
+        <v>32</v>
+      </c>
+      <c r="O21" s="16">
+        <f t="shared" si="26"/>
+        <v>22000</v>
+      </c>
+      <c r="P21" s="16">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="Q21" s="17">
+        <f t="shared" si="26"/>
+        <v>6083</v>
+      </c>
+      <c r="R21" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="16">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="T21" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="17">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="V21" s="15">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="W21" s="16">
+        <f t="shared" si="27"/>
+        <v>11444</v>
+      </c>
+      <c r="X21" s="16">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Y21" s="17">
+        <f t="shared" si="27"/>
+        <v>4644</v>
+      </c>
+      <c r="Z21" s="15">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="AA21" s="16">
+        <f t="shared" si="27"/>
+        <v>30720</v>
+      </c>
+      <c r="AB21" s="16">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="AC21" s="17">
+        <f t="shared" si="27"/>
+        <v>10941</v>
+      </c>
+      <c r="AD21" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="11">
+        <v>42012</v>
+      </c>
+      <c r="B22" s="15">
+        <f t="shared" si="26"/>
+        <v>24</v>
+      </c>
+      <c r="C22" s="16">
+        <f t="shared" si="26"/>
+        <v>18326</v>
+      </c>
+      <c r="D22" s="16">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="17">
+        <f t="shared" si="26"/>
+        <v>854</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="G22" s="16">
+        <f t="shared" si="26"/>
+        <v>7632</v>
+      </c>
+      <c r="H22" s="16">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="I22" s="17">
+        <f t="shared" si="26"/>
+        <v>5045</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="26"/>
+        <v>23</v>
+      </c>
+      <c r="K22" s="16">
+        <f t="shared" si="26"/>
+        <v>24671</v>
+      </c>
+      <c r="L22" s="16">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="M22" s="17">
+        <f t="shared" si="26"/>
+        <v>6826</v>
+      </c>
+      <c r="N22" s="15">
+        <f t="shared" si="26"/>
+        <v>32</v>
+      </c>
+      <c r="O22" s="16">
+        <f t="shared" si="26"/>
+        <v>22000</v>
+      </c>
+      <c r="P22" s="16">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="Q22" s="17">
+        <f t="shared" si="26"/>
+        <v>6083</v>
+      </c>
+      <c r="R22" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="16">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="T22" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="17">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="V22" s="15">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="W22" s="16">
+        <f t="shared" si="27"/>
+        <v>11444</v>
+      </c>
+      <c r="X22" s="16">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Y22" s="17">
+        <f t="shared" si="27"/>
+        <v>4644</v>
+      </c>
+      <c r="Z22" s="15">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="AA22" s="16">
+        <f t="shared" si="27"/>
+        <v>30720</v>
+      </c>
+      <c r="AB22" s="16">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="AC22" s="17">
+        <f t="shared" si="27"/>
+        <v>10941</v>
+      </c>
+      <c r="AD22" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="11">
+        <v>42011</v>
+      </c>
+      <c r="B23" s="15">
+        <f t="shared" si="26"/>
+        <v>24</v>
+      </c>
+      <c r="C23" s="16">
+        <f t="shared" si="26"/>
+        <v>18326</v>
+      </c>
+      <c r="D23" s="16">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" si="26"/>
+        <v>854</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="G23" s="16">
+        <f t="shared" si="26"/>
+        <v>7632</v>
+      </c>
+      <c r="H23" s="16">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="I23" s="17">
+        <f t="shared" si="26"/>
+        <v>5045</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="26"/>
+        <v>23</v>
+      </c>
+      <c r="K23" s="16">
+        <f t="shared" si="26"/>
+        <v>24671</v>
+      </c>
+      <c r="L23" s="16">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="M23" s="17">
+        <f t="shared" si="26"/>
+        <v>6826</v>
+      </c>
+      <c r="N23" s="15">
+        <f t="shared" si="26"/>
+        <v>32</v>
+      </c>
+      <c r="O23" s="16">
+        <f t="shared" si="26"/>
+        <v>22000</v>
+      </c>
+      <c r="P23" s="16">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="Q23" s="17">
+        <f t="shared" si="26"/>
+        <v>6083</v>
+      </c>
+      <c r="R23" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="16">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="T23" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="17">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="V23" s="15">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="W23" s="16">
+        <f t="shared" si="27"/>
+        <v>11444</v>
+      </c>
+      <c r="X23" s="16">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Y23" s="17">
+        <f t="shared" si="27"/>
+        <v>4644</v>
+      </c>
+      <c r="Z23" s="15">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="AA23" s="16">
+        <f t="shared" si="27"/>
+        <v>30720</v>
+      </c>
+      <c r="AB23" s="16">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="AC23" s="17">
+        <f t="shared" si="27"/>
+        <v>10941</v>
+      </c>
+      <c r="AD23" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" s="11">
+        <v>42010</v>
+      </c>
+      <c r="B24" s="15">
+        <f t="shared" si="26"/>
+        <v>24</v>
+      </c>
+      <c r="C24" s="16">
+        <f t="shared" si="26"/>
+        <v>18326</v>
+      </c>
+      <c r="D24" s="16">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="E24" s="17">
+        <f t="shared" si="26"/>
+        <v>854</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="G24" s="16">
+        <f t="shared" si="26"/>
+        <v>7632</v>
+      </c>
+      <c r="H24" s="16">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="I24" s="17">
+        <f t="shared" si="26"/>
+        <v>5045</v>
+      </c>
+      <c r="J24" s="15">
+        <f t="shared" si="26"/>
+        <v>23</v>
+      </c>
+      <c r="K24" s="16">
+        <f t="shared" si="26"/>
+        <v>24671</v>
+      </c>
+      <c r="L24" s="16">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="M24" s="17">
+        <f t="shared" si="26"/>
+        <v>6826</v>
+      </c>
+      <c r="N24" s="15">
+        <f t="shared" si="26"/>
+        <v>32</v>
+      </c>
+      <c r="O24" s="16">
+        <f t="shared" si="26"/>
+        <v>22000</v>
+      </c>
+      <c r="P24" s="16">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="Q24" s="17">
+        <f t="shared" si="26"/>
+        <v>6083</v>
+      </c>
+      <c r="R24" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="16">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="T24" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="17">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="V24" s="15">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="W24" s="16">
+        <f t="shared" si="27"/>
+        <v>11444</v>
+      </c>
+      <c r="X24" s="16">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Y24" s="17">
+        <f t="shared" si="27"/>
+        <v>4644</v>
+      </c>
+      <c r="Z24" s="15">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="AA24" s="16">
+        <f t="shared" si="27"/>
+        <v>30720</v>
+      </c>
+      <c r="AB24" s="16">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="AC24" s="17">
+        <f t="shared" si="27"/>
+        <v>10941</v>
+      </c>
+      <c r="AD24" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25" s="11">
+        <v>42009</v>
+      </c>
+      <c r="B25" s="15">
+        <f t="shared" si="26"/>
+        <v>24</v>
+      </c>
+      <c r="C25" s="16">
+        <f t="shared" si="26"/>
+        <v>18326</v>
+      </c>
+      <c r="D25" s="16">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="17">
+        <f t="shared" si="26"/>
+        <v>854</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="G25" s="16">
+        <f t="shared" si="26"/>
+        <v>7632</v>
+      </c>
+      <c r="H25" s="16">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="I25" s="17">
+        <f t="shared" si="26"/>
+        <v>5045</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="26"/>
+        <v>23</v>
+      </c>
+      <c r="K25" s="16">
+        <f t="shared" si="26"/>
+        <v>24671</v>
+      </c>
+      <c r="L25" s="16">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="M25" s="17">
+        <f t="shared" si="26"/>
+        <v>6826</v>
+      </c>
+      <c r="N25" s="15">
+        <f t="shared" si="26"/>
+        <v>32</v>
+      </c>
+      <c r="O25" s="16">
+        <f t="shared" si="26"/>
+        <v>22000</v>
+      </c>
+      <c r="P25" s="16">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="Q25" s="17">
+        <f t="shared" si="26"/>
+        <v>6083</v>
+      </c>
+      <c r="R25" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="16">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="T25" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="17">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="V25" s="15">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="W25" s="16">
+        <f t="shared" si="27"/>
+        <v>11444</v>
+      </c>
+      <c r="X25" s="16">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Y25" s="17">
+        <f t="shared" si="27"/>
+        <v>4644</v>
+      </c>
+      <c r="Z25" s="15">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="AA25" s="16">
+        <f t="shared" si="27"/>
+        <v>30720</v>
+      </c>
+      <c r="AB25" s="16">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="AC25" s="17">
+        <f t="shared" si="27"/>
+        <v>10941</v>
+      </c>
+      <c r="AD25" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26" s="11">
+        <v>42008</v>
+      </c>
+      <c r="B26" s="15">
+        <f t="shared" si="26"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="16">
+        <f t="shared" si="26"/>
+        <v>18326</v>
+      </c>
+      <c r="D26" s="16">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="E26" s="17">
+        <f t="shared" si="26"/>
+        <v>854</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="G26" s="16">
+        <f t="shared" si="26"/>
+        <v>7632</v>
+      </c>
+      <c r="H26" s="16">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="I26" s="17">
+        <f t="shared" si="26"/>
+        <v>5045</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" si="26"/>
+        <v>23</v>
+      </c>
+      <c r="K26" s="16">
+        <f t="shared" si="26"/>
+        <v>24671</v>
+      </c>
+      <c r="L26" s="16">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="M26" s="17">
+        <f t="shared" si="26"/>
+        <v>6826</v>
+      </c>
+      <c r="N26" s="15">
+        <f t="shared" si="26"/>
+        <v>32</v>
+      </c>
+      <c r="O26" s="16">
+        <f t="shared" si="26"/>
+        <v>22000</v>
+      </c>
+      <c r="P26" s="16">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="Q26" s="17">
+        <f t="shared" ref="Q26:AC49" si="29">Q27</f>
+        <v>6083</v>
+      </c>
+      <c r="R26" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="16">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="T26" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="17">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="V26" s="15">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="W26" s="16">
+        <f t="shared" si="27"/>
+        <v>11444</v>
+      </c>
+      <c r="X26" s="16">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Y26" s="17">
+        <f t="shared" si="27"/>
+        <v>4644</v>
+      </c>
+      <c r="Z26" s="15">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="AA26" s="16">
+        <f t="shared" si="27"/>
+        <v>30720</v>
+      </c>
+      <c r="AB26" s="16">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="AC26" s="17">
+        <f t="shared" si="27"/>
+        <v>10941</v>
+      </c>
+      <c r="AD26" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27" s="11">
+        <v>42007</v>
+      </c>
+      <c r="B27" s="15">
+        <f t="shared" ref="B27:Q49" si="30">B28</f>
+        <v>24</v>
+      </c>
+      <c r="C27" s="16">
+        <f t="shared" si="30"/>
+        <v>18326</v>
+      </c>
+      <c r="D27" s="16">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="E27" s="17">
+        <f t="shared" si="30"/>
+        <v>854</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="G27" s="16">
+        <f t="shared" si="30"/>
+        <v>7632</v>
+      </c>
+      <c r="H27" s="16">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="I27" s="17">
+        <f t="shared" si="30"/>
+        <v>5045</v>
+      </c>
+      <c r="J27" s="15">
+        <f t="shared" si="30"/>
+        <v>23</v>
+      </c>
+      <c r="K27" s="16">
+        <f t="shared" si="30"/>
+        <v>24671</v>
+      </c>
+      <c r="L27" s="16">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="M27" s="17">
+        <f t="shared" si="30"/>
+        <v>6826</v>
+      </c>
+      <c r="N27" s="15">
+        <f t="shared" si="30"/>
+        <v>32</v>
+      </c>
+      <c r="O27" s="16">
+        <f t="shared" si="30"/>
+        <v>22000</v>
+      </c>
+      <c r="P27" s="16">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="Q27" s="17">
+        <f t="shared" si="29"/>
+        <v>6083</v>
+      </c>
+      <c r="R27" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="16">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="T27" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="17">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="V27" s="15">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="W27" s="16">
+        <f t="shared" si="27"/>
+        <v>11444</v>
+      </c>
+      <c r="X27" s="16">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Y27" s="17">
+        <f t="shared" si="27"/>
+        <v>4644</v>
+      </c>
+      <c r="Z27" s="15">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="AA27" s="16">
+        <f t="shared" si="27"/>
+        <v>30720</v>
+      </c>
+      <c r="AB27" s="16">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="AC27" s="17">
+        <f t="shared" si="27"/>
+        <v>10941</v>
+      </c>
+      <c r="AD27" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28" s="11">
+        <v>42006</v>
+      </c>
+      <c r="B28" s="15">
+        <f t="shared" si="30"/>
+        <v>24</v>
+      </c>
+      <c r="C28" s="16">
+        <f t="shared" si="30"/>
+        <v>18326</v>
+      </c>
+      <c r="D28" s="16">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="E28" s="17">
+        <f t="shared" si="30"/>
+        <v>854</v>
+      </c>
+      <c r="F28" s="15">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="G28" s="16">
+        <f t="shared" si="30"/>
+        <v>7632</v>
+      </c>
+      <c r="H28" s="16">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="I28" s="17">
+        <f t="shared" si="30"/>
+        <v>5045</v>
+      </c>
+      <c r="J28" s="15">
+        <f t="shared" si="30"/>
+        <v>23</v>
+      </c>
+      <c r="K28" s="16">
+        <f t="shared" si="30"/>
+        <v>24671</v>
+      </c>
+      <c r="L28" s="16">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="M28" s="17">
+        <f t="shared" si="30"/>
+        <v>6826</v>
+      </c>
+      <c r="N28" s="15">
+        <f t="shared" si="30"/>
+        <v>32</v>
+      </c>
+      <c r="O28" s="16">
+        <f t="shared" si="30"/>
+        <v>22000</v>
+      </c>
+      <c r="P28" s="16">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="Q28" s="17">
+        <f t="shared" si="29"/>
+        <v>6083</v>
+      </c>
+      <c r="R28" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="16">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="T28" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="17">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="V28" s="15">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="W28" s="16">
+        <f t="shared" si="27"/>
+        <v>11444</v>
+      </c>
+      <c r="X28" s="16">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Y28" s="17">
+        <f t="shared" si="27"/>
+        <v>4644</v>
+      </c>
+      <c r="Z28" s="15">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="AA28" s="16">
+        <f t="shared" si="27"/>
+        <v>30720</v>
+      </c>
+      <c r="AB28" s="16">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="AC28" s="17">
+        <f t="shared" si="27"/>
+        <v>10941</v>
+      </c>
+      <c r="AD28" s="4">
+        <f t="shared" ref="AD28:AE46" si="31">SUM(B28,F28,J28,N28,R28,V28,Z28)-SUM(B29,F29,J29,N29,R29,V29,Z29)</f>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29" s="11">
+        <v>42005</v>
+      </c>
+      <c r="B29" s="15">
+        <f t="shared" si="30"/>
+        <v>24</v>
+      </c>
+      <c r="C29" s="16">
+        <f t="shared" si="30"/>
+        <v>18326</v>
+      </c>
+      <c r="D29" s="16">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="17">
+        <f t="shared" si="30"/>
+        <v>854</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="G29" s="16">
+        <f t="shared" si="30"/>
+        <v>7632</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="I29" s="17">
+        <f t="shared" si="30"/>
+        <v>5045</v>
+      </c>
+      <c r="J29" s="15">
+        <f t="shared" si="30"/>
+        <v>23</v>
+      </c>
+      <c r="K29" s="16">
+        <f t="shared" si="30"/>
+        <v>24671</v>
+      </c>
+      <c r="L29" s="16">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="M29" s="17">
+        <f t="shared" si="30"/>
+        <v>6826</v>
+      </c>
+      <c r="N29" s="15">
+        <f t="shared" si="30"/>
+        <v>32</v>
+      </c>
+      <c r="O29" s="16">
+        <f t="shared" si="30"/>
+        <v>22000</v>
+      </c>
+      <c r="P29" s="16">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="Q29" s="17">
+        <f t="shared" si="29"/>
+        <v>6083</v>
+      </c>
+      <c r="R29" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="16">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="T29" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="17">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="V29" s="15">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="W29" s="16">
+        <f t="shared" si="27"/>
+        <v>11444</v>
+      </c>
+      <c r="X29" s="16">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Y29" s="17">
+        <f t="shared" si="27"/>
+        <v>4644</v>
+      </c>
+      <c r="Z29" s="15">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="AA29" s="16">
+        <f t="shared" si="27"/>
+        <v>30720</v>
+      </c>
+      <c r="AB29" s="16">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="AC29" s="17">
+        <f t="shared" si="27"/>
+        <v>10941</v>
+      </c>
+      <c r="AD29" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="A30" s="11">
+        <v>42004</v>
+      </c>
+      <c r="B30" s="15">
+        <f t="shared" si="30"/>
+        <v>24</v>
+      </c>
+      <c r="C30" s="16">
+        <f t="shared" si="30"/>
+        <v>18326</v>
+      </c>
+      <c r="D30" s="16">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="17">
+        <f t="shared" si="30"/>
+        <v>854</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="G30" s="16">
+        <f t="shared" si="30"/>
+        <v>7632</v>
+      </c>
+      <c r="H30" s="16">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="I30" s="17">
+        <f t="shared" si="30"/>
+        <v>5045</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" si="30"/>
+        <v>23</v>
+      </c>
+      <c r="K30" s="16">
+        <f t="shared" si="30"/>
+        <v>24671</v>
+      </c>
+      <c r="L30" s="16">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="M30" s="17">
+        <f t="shared" si="30"/>
+        <v>6826</v>
+      </c>
+      <c r="N30" s="15">
+        <f t="shared" si="30"/>
+        <v>32</v>
+      </c>
+      <c r="O30" s="16">
+        <f t="shared" si="30"/>
+        <v>22000</v>
+      </c>
+      <c r="P30" s="16">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="Q30" s="17">
+        <f t="shared" si="29"/>
+        <v>6083</v>
+      </c>
+      <c r="R30" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="16">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="T30" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="17">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="V30" s="15">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="W30" s="16">
+        <f t="shared" si="27"/>
+        <v>11444</v>
+      </c>
+      <c r="X30" s="16">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Y30" s="17">
+        <f t="shared" si="27"/>
+        <v>4644</v>
+      </c>
+      <c r="Z30" s="15">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="AA30" s="16">
+        <f t="shared" si="27"/>
+        <v>30720</v>
+      </c>
+      <c r="AB30" s="16">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="AC30" s="17">
+        <f t="shared" si="27"/>
+        <v>10941</v>
+      </c>
+      <c r="AD30" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31" s="11">
+        <v>42003</v>
+      </c>
+      <c r="B31" s="15">
+        <f t="shared" si="30"/>
+        <v>24</v>
+      </c>
+      <c r="C31" s="16">
+        <f t="shared" si="30"/>
+        <v>18326</v>
+      </c>
+      <c r="D31" s="16">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="E31" s="17">
+        <f t="shared" si="30"/>
+        <v>854</v>
+      </c>
+      <c r="F31" s="15">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="G31" s="16">
+        <f t="shared" si="30"/>
+        <v>7632</v>
+      </c>
+      <c r="H31" s="16">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="I31" s="17">
+        <f t="shared" si="30"/>
+        <v>5045</v>
+      </c>
+      <c r="J31" s="15">
+        <f t="shared" si="30"/>
+        <v>23</v>
+      </c>
+      <c r="K31" s="16">
+        <f t="shared" si="30"/>
+        <v>24671</v>
+      </c>
+      <c r="L31" s="16">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="M31" s="17">
+        <f t="shared" si="30"/>
+        <v>6826</v>
+      </c>
+      <c r="N31" s="15">
+        <f t="shared" si="30"/>
+        <v>32</v>
+      </c>
+      <c r="O31" s="16">
+        <f t="shared" si="30"/>
+        <v>22000</v>
+      </c>
+      <c r="P31" s="16">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="Q31" s="17">
+        <f t="shared" si="29"/>
+        <v>6083</v>
+      </c>
+      <c r="R31" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="16">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="T31" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="17">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="V31" s="15">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="W31" s="16">
+        <f t="shared" si="27"/>
+        <v>11444</v>
+      </c>
+      <c r="X31" s="16">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Y31" s="17">
+        <f t="shared" si="27"/>
+        <v>4644</v>
+      </c>
+      <c r="Z31" s="15">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="AA31" s="16">
+        <f t="shared" si="27"/>
+        <v>30720</v>
+      </c>
+      <c r="AB31" s="16">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="AC31" s="17">
+        <f t="shared" si="27"/>
+        <v>10941</v>
+      </c>
+      <c r="AD31" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="A32" s="11">
+        <v>42002</v>
+      </c>
+      <c r="B32" s="15">
+        <f t="shared" si="30"/>
+        <v>24</v>
+      </c>
+      <c r="C32" s="16">
+        <f t="shared" si="30"/>
+        <v>18326</v>
+      </c>
+      <c r="D32" s="16">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="E32" s="17">
+        <f t="shared" si="30"/>
+        <v>854</v>
+      </c>
+      <c r="F32" s="15">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="G32" s="16">
+        <f t="shared" si="30"/>
+        <v>7632</v>
+      </c>
+      <c r="H32" s="16">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="I32" s="17">
+        <f t="shared" si="30"/>
+        <v>5045</v>
+      </c>
+      <c r="J32" s="15">
+        <f t="shared" si="30"/>
+        <v>23</v>
+      </c>
+      <c r="K32" s="16">
+        <f t="shared" si="30"/>
+        <v>24671</v>
+      </c>
+      <c r="L32" s="16">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="M32" s="17">
+        <f t="shared" si="30"/>
+        <v>6826</v>
+      </c>
+      <c r="N32" s="15">
+        <f t="shared" si="30"/>
+        <v>32</v>
+      </c>
+      <c r="O32" s="16">
+        <f t="shared" si="30"/>
+        <v>22000</v>
+      </c>
+      <c r="P32" s="16">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="Q32" s="17">
+        <f t="shared" si="29"/>
+        <v>6083</v>
+      </c>
+      <c r="R32" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="16">
+        <f t="shared" si="27"/>
+        <v>1185</v>
+      </c>
+      <c r="T32" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="17">
+        <f t="shared" ref="U32:AC49" si="32">U33</f>
+        <v>1185</v>
+      </c>
+      <c r="V32" s="15">
+        <f t="shared" si="32"/>
+        <v>11</v>
+      </c>
+      <c r="W32" s="16">
+        <f t="shared" si="32"/>
+        <v>11444</v>
+      </c>
+      <c r="X32" s="16">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="Y32" s="17">
+        <f t="shared" si="32"/>
+        <v>4644</v>
+      </c>
+      <c r="Z32" s="15">
+        <f t="shared" si="32"/>
+        <v>16</v>
+      </c>
+      <c r="AA32" s="16">
+        <f t="shared" si="32"/>
+        <v>30720</v>
+      </c>
+      <c r="AB32" s="16">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="AC32" s="17">
+        <f t="shared" si="32"/>
+        <v>10941</v>
+      </c>
+      <c r="AD32" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
+      <c r="A33" s="11">
+        <v>42001</v>
+      </c>
+      <c r="B33" s="15">
+        <f t="shared" si="30"/>
+        <v>24</v>
+      </c>
+      <c r="C33" s="16">
+        <f t="shared" si="30"/>
+        <v>18326</v>
+      </c>
+      <c r="D33" s="16">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="E33" s="17">
+        <f t="shared" si="30"/>
+        <v>854</v>
+      </c>
+      <c r="F33" s="15">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="G33" s="16">
+        <f t="shared" si="30"/>
+        <v>7632</v>
+      </c>
+      <c r="H33" s="16">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="I33" s="17">
+        <f t="shared" si="30"/>
+        <v>5045</v>
+      </c>
+      <c r="J33" s="15">
+        <f t="shared" si="30"/>
+        <v>23</v>
+      </c>
+      <c r="K33" s="16">
+        <f t="shared" si="30"/>
+        <v>24671</v>
+      </c>
+      <c r="L33" s="16">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="M33" s="17">
+        <f t="shared" si="30"/>
+        <v>6826</v>
+      </c>
+      <c r="N33" s="15">
+        <f t="shared" si="30"/>
+        <v>32</v>
+      </c>
+      <c r="O33" s="16">
+        <f t="shared" si="30"/>
+        <v>22000</v>
+      </c>
+      <c r="P33" s="16">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="Q33" s="17">
+        <f t="shared" si="29"/>
+        <v>6083</v>
+      </c>
+      <c r="R33" s="15">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="16">
+        <f t="shared" si="29"/>
+        <v>1185</v>
+      </c>
+      <c r="T33" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="17">
+        <f t="shared" si="32"/>
+        <v>1185</v>
+      </c>
+      <c r="V33" s="15">
+        <f t="shared" si="32"/>
+        <v>11</v>
+      </c>
+      <c r="W33" s="16">
+        <f t="shared" si="32"/>
+        <v>11444</v>
+      </c>
+      <c r="X33" s="16">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="Y33" s="17">
+        <f t="shared" si="32"/>
+        <v>4644</v>
+      </c>
+      <c r="Z33" s="15">
+        <f t="shared" si="32"/>
+        <v>16</v>
+      </c>
+      <c r="AA33" s="16">
+        <f t="shared" si="32"/>
+        <v>30720</v>
+      </c>
+      <c r="AB33" s="16">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="AC33" s="17">
+        <f t="shared" si="32"/>
+        <v>10941</v>
+      </c>
+      <c r="AD33" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31">
+      <c r="A34" s="11">
+        <v>42000</v>
+      </c>
+      <c r="B34" s="15">
+        <f t="shared" si="30"/>
+        <v>24</v>
+      </c>
+      <c r="C34" s="16">
+        <f t="shared" si="30"/>
+        <v>18326</v>
+      </c>
+      <c r="D34" s="16">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="E34" s="17">
+        <f t="shared" si="30"/>
+        <v>854</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="G34" s="16">
+        <f t="shared" si="30"/>
+        <v>7632</v>
+      </c>
+      <c r="H34" s="16">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="I34" s="17">
+        <f t="shared" si="30"/>
+        <v>5045</v>
+      </c>
+      <c r="J34" s="15">
+        <f t="shared" si="30"/>
+        <v>23</v>
+      </c>
+      <c r="K34" s="16">
+        <f t="shared" si="30"/>
+        <v>24671</v>
+      </c>
+      <c r="L34" s="16">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="M34" s="17">
+        <f t="shared" si="30"/>
+        <v>6826</v>
+      </c>
+      <c r="N34" s="15">
+        <f t="shared" si="30"/>
+        <v>32</v>
+      </c>
+      <c r="O34" s="16">
+        <f t="shared" si="30"/>
+        <v>22000</v>
+      </c>
+      <c r="P34" s="16">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="Q34" s="17">
+        <f t="shared" si="29"/>
+        <v>6083</v>
+      </c>
+      <c r="R34" s="15">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="16">
+        <f t="shared" si="29"/>
+        <v>1185</v>
+      </c>
+      <c r="T34" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="17">
+        <f t="shared" si="32"/>
+        <v>1185</v>
+      </c>
+      <c r="V34" s="15">
+        <f t="shared" si="32"/>
+        <v>11</v>
+      </c>
+      <c r="W34" s="16">
+        <f t="shared" si="32"/>
+        <v>11444</v>
+      </c>
+      <c r="X34" s="16">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="Y34" s="17">
+        <f t="shared" si="32"/>
+        <v>4644</v>
+      </c>
+      <c r="Z34" s="15">
+        <f t="shared" si="32"/>
+        <v>16</v>
+      </c>
+      <c r="AA34" s="16">
+        <f t="shared" si="32"/>
+        <v>30720</v>
+      </c>
+      <c r="AB34" s="16">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="AC34" s="17">
+        <f t="shared" si="32"/>
+        <v>10941</v>
+      </c>
+      <c r="AD34" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
+      <c r="A35" s="11">
+        <v>41999</v>
+      </c>
+      <c r="B35" s="15">
+        <f t="shared" si="30"/>
+        <v>24</v>
+      </c>
+      <c r="C35" s="16">
+        <f t="shared" si="30"/>
+        <v>18326</v>
+      </c>
+      <c r="D35" s="16">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="E35" s="17">
+        <f t="shared" si="30"/>
+        <v>854</v>
+      </c>
+      <c r="F35" s="15">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="G35" s="16">
+        <f t="shared" si="30"/>
+        <v>7632</v>
+      </c>
+      <c r="H35" s="16">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="I35" s="17">
+        <f t="shared" si="30"/>
+        <v>5045</v>
+      </c>
+      <c r="J35" s="15">
+        <f t="shared" si="30"/>
+        <v>23</v>
+      </c>
+      <c r="K35" s="16">
+        <f t="shared" si="30"/>
+        <v>24671</v>
+      </c>
+      <c r="L35" s="16">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="M35" s="17">
+        <f t="shared" si="30"/>
+        <v>6826</v>
+      </c>
+      <c r="N35" s="15">
+        <f t="shared" si="30"/>
+        <v>32</v>
+      </c>
+      <c r="O35" s="16">
+        <f t="shared" si="30"/>
+        <v>22000</v>
+      </c>
+      <c r="P35" s="16">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="Q35" s="17">
+        <f t="shared" si="29"/>
+        <v>6083</v>
+      </c>
+      <c r="R35" s="15">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="16">
+        <f t="shared" si="29"/>
+        <v>1185</v>
+      </c>
+      <c r="T35" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="17">
+        <f t="shared" si="32"/>
+        <v>1185</v>
+      </c>
+      <c r="V35" s="15">
+        <f t="shared" si="32"/>
+        <v>11</v>
+      </c>
+      <c r="W35" s="16">
+        <f t="shared" si="32"/>
+        <v>11444</v>
+      </c>
+      <c r="X35" s="16">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="Y35" s="17">
+        <f t="shared" si="32"/>
+        <v>4644</v>
+      </c>
+      <c r="Z35" s="15">
+        <f t="shared" si="32"/>
+        <v>16</v>
+      </c>
+      <c r="AA35" s="16">
+        <f t="shared" si="32"/>
+        <v>30720</v>
+      </c>
+      <c r="AB35" s="16">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="AC35" s="17">
+        <f t="shared" si="32"/>
+        <v>10941</v>
+      </c>
+      <c r="AD35" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
+      <c r="A36" s="11">
+        <v>41998</v>
+      </c>
+      <c r="B36" s="15">
+        <f t="shared" si="30"/>
+        <v>24</v>
+      </c>
+      <c r="C36" s="16">
+        <f t="shared" si="30"/>
+        <v>18326</v>
+      </c>
+      <c r="D36" s="16">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="E36" s="17">
+        <f t="shared" si="30"/>
+        <v>854</v>
+      </c>
+      <c r="F36" s="15">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="G36" s="16">
+        <f t="shared" si="30"/>
+        <v>7632</v>
+      </c>
+      <c r="H36" s="16">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="I36" s="17">
+        <f t="shared" si="30"/>
+        <v>5045</v>
+      </c>
+      <c r="J36" s="15">
+        <f t="shared" si="30"/>
+        <v>23</v>
+      </c>
+      <c r="K36" s="16">
+        <f t="shared" si="30"/>
+        <v>24671</v>
+      </c>
+      <c r="L36" s="16">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="M36" s="17">
+        <f t="shared" si="30"/>
+        <v>6826</v>
+      </c>
+      <c r="N36" s="15">
+        <f t="shared" si="30"/>
+        <v>32</v>
+      </c>
+      <c r="O36" s="16">
+        <f t="shared" si="30"/>
+        <v>22000</v>
+      </c>
+      <c r="P36" s="16">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="Q36" s="17">
+        <f t="shared" si="29"/>
+        <v>6083</v>
+      </c>
+      <c r="R36" s="15">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="16">
+        <f t="shared" si="29"/>
+        <v>1185</v>
+      </c>
+      <c r="T36" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="17">
+        <f t="shared" si="32"/>
+        <v>1185</v>
+      </c>
+      <c r="V36" s="15">
+        <f t="shared" si="32"/>
+        <v>11</v>
+      </c>
+      <c r="W36" s="16">
+        <f t="shared" si="32"/>
+        <v>11444</v>
+      </c>
+      <c r="X36" s="16">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="Y36" s="17">
+        <f t="shared" si="32"/>
+        <v>4644</v>
+      </c>
+      <c r="Z36" s="15">
+        <f t="shared" si="32"/>
+        <v>16</v>
+      </c>
+      <c r="AA36" s="16">
+        <f t="shared" si="32"/>
+        <v>30720</v>
+      </c>
+      <c r="AB36" s="16">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="AC36" s="17">
+        <f t="shared" si="32"/>
+        <v>10941</v>
+      </c>
+      <c r="AD36" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
+      <c r="A37" s="11">
+        <v>41997</v>
+      </c>
+      <c r="B37" s="15">
+        <f t="shared" si="30"/>
+        <v>24</v>
+      </c>
+      <c r="C37" s="16">
+        <f t="shared" si="30"/>
+        <v>18326</v>
+      </c>
+      <c r="D37" s="16">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="E37" s="17">
+        <f t="shared" si="30"/>
+        <v>854</v>
+      </c>
+      <c r="F37" s="15">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="G37" s="16">
+        <f t="shared" si="30"/>
+        <v>7632</v>
+      </c>
+      <c r="H37" s="16">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="I37" s="17">
+        <f t="shared" si="30"/>
+        <v>5045</v>
+      </c>
+      <c r="J37" s="15">
+        <f t="shared" si="30"/>
+        <v>23</v>
+      </c>
+      <c r="K37" s="16">
+        <f t="shared" si="30"/>
+        <v>24671</v>
+      </c>
+      <c r="L37" s="16">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="M37" s="17">
+        <f t="shared" si="30"/>
+        <v>6826</v>
+      </c>
+      <c r="N37" s="15">
+        <f t="shared" si="30"/>
+        <v>32</v>
+      </c>
+      <c r="O37" s="16">
+        <f t="shared" si="30"/>
+        <v>22000</v>
+      </c>
+      <c r="P37" s="16">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="Q37" s="17">
+        <f t="shared" si="29"/>
+        <v>6083</v>
+      </c>
+      <c r="R37" s="15">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="16">
+        <f t="shared" si="29"/>
+        <v>1185</v>
+      </c>
+      <c r="T37" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="17">
+        <f t="shared" si="32"/>
+        <v>1185</v>
+      </c>
+      <c r="V37" s="15">
+        <f t="shared" si="32"/>
+        <v>11</v>
+      </c>
+      <c r="W37" s="16">
+        <f t="shared" si="32"/>
+        <v>11444</v>
+      </c>
+      <c r="X37" s="16">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="Y37" s="17">
+        <f t="shared" si="32"/>
+        <v>4644</v>
+      </c>
+      <c r="Z37" s="15">
+        <f t="shared" si="32"/>
+        <v>16</v>
+      </c>
+      <c r="AA37" s="16">
+        <f t="shared" si="32"/>
+        <v>30720</v>
+      </c>
+      <c r="AB37" s="16">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="AC37" s="17">
+        <f t="shared" si="32"/>
+        <v>10941</v>
+      </c>
+      <c r="AD37" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
+      <c r="A38" s="11">
+        <v>41996</v>
+      </c>
+      <c r="B38" s="15">
+        <f t="shared" si="30"/>
+        <v>24</v>
+      </c>
+      <c r="C38" s="16">
+        <f t="shared" si="30"/>
+        <v>18326</v>
+      </c>
+      <c r="D38" s="16">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="E38" s="17">
+        <f t="shared" si="30"/>
+        <v>854</v>
+      </c>
+      <c r="F38" s="15">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="G38" s="16">
+        <f t="shared" si="30"/>
+        <v>7632</v>
+      </c>
+      <c r="H38" s="16">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="I38" s="17">
+        <f t="shared" si="30"/>
+        <v>5045</v>
+      </c>
+      <c r="J38" s="15">
+        <f t="shared" si="30"/>
+        <v>23</v>
+      </c>
+      <c r="K38" s="16">
+        <f t="shared" si="30"/>
+        <v>24671</v>
+      </c>
+      <c r="L38" s="16">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="M38" s="17">
+        <f t="shared" si="30"/>
+        <v>6826</v>
+      </c>
+      <c r="N38" s="15">
+        <f t="shared" si="30"/>
+        <v>32</v>
+      </c>
+      <c r="O38" s="16">
+        <f t="shared" si="30"/>
+        <v>22000</v>
+      </c>
+      <c r="P38" s="16">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="Q38" s="17">
+        <f t="shared" si="29"/>
+        <v>6083</v>
+      </c>
+      <c r="R38" s="15">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="16">
+        <f t="shared" si="29"/>
+        <v>1185</v>
+      </c>
+      <c r="T38" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="17">
+        <f t="shared" si="32"/>
+        <v>1185</v>
+      </c>
+      <c r="V38" s="15">
+        <f t="shared" si="32"/>
+        <v>11</v>
+      </c>
+      <c r="W38" s="16">
+        <f t="shared" si="32"/>
+        <v>11444</v>
+      </c>
+      <c r="X38" s="16">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="Y38" s="17">
+        <f t="shared" si="32"/>
+        <v>4644</v>
+      </c>
+      <c r="Z38" s="15">
+        <f t="shared" si="32"/>
+        <v>16</v>
+      </c>
+      <c r="AA38" s="16">
+        <f t="shared" si="32"/>
+        <v>30720</v>
+      </c>
+      <c r="AB38" s="16">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="AC38" s="17">
+        <f t="shared" si="32"/>
+        <v>10941</v>
+      </c>
+      <c r="AD38" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
+      <c r="A39" s="11">
+        <v>41995</v>
+      </c>
+      <c r="B39" s="15">
+        <f t="shared" si="30"/>
+        <v>24</v>
+      </c>
+      <c r="C39" s="16">
+        <f t="shared" si="30"/>
+        <v>18326</v>
+      </c>
+      <c r="D39" s="16">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="E39" s="17">
+        <f t="shared" si="30"/>
+        <v>854</v>
+      </c>
+      <c r="F39" s="15">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="G39" s="16">
+        <f t="shared" si="30"/>
+        <v>7632</v>
+      </c>
+      <c r="H39" s="16">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="I39" s="17">
+        <f t="shared" si="30"/>
+        <v>5045</v>
+      </c>
+      <c r="J39" s="15">
+        <f t="shared" si="30"/>
+        <v>23</v>
+      </c>
+      <c r="K39" s="16">
+        <f t="shared" si="30"/>
+        <v>24671</v>
+      </c>
+      <c r="L39" s="16">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="M39" s="17">
+        <f t="shared" si="30"/>
+        <v>6826</v>
+      </c>
+      <c r="N39" s="15">
+        <f t="shared" si="30"/>
+        <v>32</v>
+      </c>
+      <c r="O39" s="16">
+        <f t="shared" si="30"/>
+        <v>22000</v>
+      </c>
+      <c r="P39" s="16">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="Q39" s="17">
+        <f t="shared" si="29"/>
+        <v>6083</v>
+      </c>
+      <c r="R39" s="15">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="16">
+        <f t="shared" si="29"/>
+        <v>1185</v>
+      </c>
+      <c r="T39" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="17">
+        <f t="shared" si="32"/>
+        <v>1185</v>
+      </c>
+      <c r="V39" s="15">
+        <f t="shared" si="32"/>
+        <v>11</v>
+      </c>
+      <c r="W39" s="16">
+        <f t="shared" si="32"/>
+        <v>11444</v>
+      </c>
+      <c r="X39" s="16">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="Y39" s="17">
+        <f t="shared" si="32"/>
+        <v>4644</v>
+      </c>
+      <c r="Z39" s="15">
+        <f t="shared" si="32"/>
+        <v>16</v>
+      </c>
+      <c r="AA39" s="16">
+        <f t="shared" si="32"/>
+        <v>30720</v>
+      </c>
+      <c r="AB39" s="16">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="AC39" s="17">
+        <f t="shared" si="32"/>
+        <v>10941</v>
+      </c>
+      <c r="AD39" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AE39" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
+      <c r="A40" s="11">
+        <v>41994</v>
+      </c>
+      <c r="B40" s="15">
+        <f>B41</f>
+        <v>24</v>
+      </c>
+      <c r="C40" s="16">
+        <f t="shared" si="30"/>
+        <v>18326</v>
+      </c>
+      <c r="D40" s="16">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="E40" s="17">
+        <f t="shared" si="30"/>
+        <v>854</v>
+      </c>
+      <c r="F40" s="15">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="G40" s="16">
+        <f t="shared" si="30"/>
+        <v>7632</v>
+      </c>
+      <c r="H40" s="16">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="I40" s="17">
+        <f t="shared" si="30"/>
+        <v>5045</v>
+      </c>
+      <c r="J40" s="15">
+        <f t="shared" si="30"/>
+        <v>23</v>
+      </c>
+      <c r="K40" s="16">
+        <f t="shared" si="30"/>
+        <v>24671</v>
+      </c>
+      <c r="L40" s="16">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="M40" s="17">
+        <f t="shared" si="30"/>
+        <v>6826</v>
+      </c>
+      <c r="N40" s="15">
+        <f t="shared" si="30"/>
+        <v>32</v>
+      </c>
+      <c r="O40" s="16">
+        <f t="shared" si="30"/>
+        <v>22000</v>
+      </c>
+      <c r="P40" s="16">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="Q40" s="17">
+        <f t="shared" si="30"/>
+        <v>6083</v>
+      </c>
+      <c r="R40" s="15">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="16">
+        <f t="shared" si="29"/>
+        <v>1185</v>
+      </c>
+      <c r="T40" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="17">
+        <f t="shared" si="29"/>
+        <v>1185</v>
+      </c>
+      <c r="V40" s="15">
+        <f t="shared" si="29"/>
+        <v>11</v>
+      </c>
+      <c r="W40" s="16">
+        <f t="shared" si="29"/>
+        <v>11444</v>
+      </c>
+      <c r="X40" s="16">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="Y40" s="17">
+        <f t="shared" si="29"/>
+        <v>4644</v>
+      </c>
+      <c r="Z40" s="15">
+        <f t="shared" si="29"/>
+        <v>16</v>
+      </c>
+      <c r="AA40" s="16">
+        <f t="shared" si="29"/>
+        <v>30720</v>
+      </c>
+      <c r="AB40" s="16">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="AC40" s="17">
+        <f t="shared" si="29"/>
+        <v>10941</v>
+      </c>
+      <c r="AD40" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AE40" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
+      <c r="A41" s="11">
+        <v>41993</v>
+      </c>
+      <c r="B41" s="15">
+        <v>24</v>
+      </c>
+      <c r="C41" s="16">
+        <v>18326</v>
+      </c>
+      <c r="D41" s="16">
+        <f>B41-B42</f>
+        <v>1</v>
+      </c>
+      <c r="E41" s="17">
+        <f>C41-C42</f>
+        <v>854</v>
+      </c>
+      <c r="F41" s="15">
+        <v>3</v>
+      </c>
+      <c r="G41" s="16">
+        <v>7632</v>
+      </c>
+      <c r="H41" s="16">
+        <f>F41-F42</f>
+        <v>3</v>
+      </c>
+      <c r="I41" s="17">
+        <f>G41-G42</f>
+        <v>5045</v>
+      </c>
+      <c r="J41" s="15">
+        <v>23</v>
+      </c>
+      <c r="K41" s="16">
+        <v>24671</v>
+      </c>
+      <c r="L41" s="16">
+        <f>J41-J42</f>
+        <v>6</v>
+      </c>
+      <c r="M41" s="17">
+        <f>K41-K42</f>
+        <v>6826</v>
+      </c>
+      <c r="N41" s="15">
+        <v>32</v>
+      </c>
+      <c r="O41" s="16">
+        <v>22000</v>
+      </c>
+      <c r="P41" s="16">
+        <f>N41-N42</f>
+        <v>9</v>
+      </c>
+      <c r="Q41" s="17">
+        <f>O41-O42</f>
+        <v>6083</v>
+      </c>
+      <c r="R41" s="15">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="16">
+        <v>1185</v>
+      </c>
+      <c r="T41" s="16">
+        <f>R41-R42</f>
+        <v>0</v>
+      </c>
+      <c r="U41" s="17">
+        <f>S41-S42</f>
+        <v>1185</v>
+      </c>
+      <c r="V41" s="15">
+        <v>11</v>
+      </c>
+      <c r="W41" s="16">
+        <v>11444</v>
+      </c>
+      <c r="X41" s="16">
+        <f>V41-V42</f>
+        <v>1</v>
+      </c>
+      <c r="Y41" s="17">
+        <f>W41-W42</f>
+        <v>4644</v>
+      </c>
+      <c r="Z41" s="15">
+        <v>16</v>
+      </c>
+      <c r="AA41" s="16">
+        <v>30720</v>
+      </c>
+      <c r="AB41" s="16">
+        <f>Z41-Z42</f>
+        <v>5</v>
+      </c>
+      <c r="AC41" s="17">
+        <f>AA41-AA42</f>
+        <v>10941</v>
+      </c>
+      <c r="AD41" s="4">
+        <f t="shared" si="31"/>
+        <v>25</v>
+      </c>
+      <c r="AE41" s="4">
+        <f t="shared" si="31"/>
+        <v>35578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
+      <c r="A42" s="11">
+        <v>41992</v>
+      </c>
+      <c r="B42" s="15">
+        <v>23</v>
+      </c>
+      <c r="C42" s="16">
+        <v>17472</v>
+      </c>
+      <c r="D42" s="16">
+        <f t="shared" ref="D42:E44" si="33">B42-B43</f>
+        <v>4</v>
+      </c>
+      <c r="E42" s="17">
+        <f t="shared" si="33"/>
+        <v>3603</v>
+      </c>
+      <c r="F42" s="15">
+        <f t="shared" ref="F42:S44" si="34">F43</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="16">
+        <v>2587</v>
+      </c>
+      <c r="H42" s="16">
+        <f t="shared" ref="H42:I44" si="35">F42-F43</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="17">
+        <f t="shared" si="35"/>
+        <v>2121</v>
+      </c>
+      <c r="J42" s="15">
+        <v>17</v>
+      </c>
+      <c r="K42" s="16">
+        <v>17845</v>
+      </c>
+      <c r="L42" s="16">
+        <f t="shared" ref="L42:M44" si="36">J42-J43</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="17">
+        <f t="shared" si="36"/>
+        <v>1145</v>
+      </c>
+      <c r="N42" s="15">
+        <v>23</v>
+      </c>
+      <c r="O42" s="16">
+        <v>15917</v>
+      </c>
+      <c r="P42" s="16">
+        <f t="shared" ref="P42:Q44" si="37">N42-N43</f>
+        <v>2</v>
+      </c>
+      <c r="Q42" s="17">
+        <f t="shared" si="37"/>
+        <v>2510</v>
+      </c>
+      <c r="R42" s="15">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="16">
+        <v>0</v>
+      </c>
+      <c r="T42" s="16">
+        <f t="shared" ref="T42:U44" si="38">R42-R43</f>
+        <v>0</v>
+      </c>
+      <c r="U42" s="17">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="15">
+        <v>10</v>
+      </c>
+      <c r="W42" s="16">
+        <v>6800</v>
+      </c>
+      <c r="X42" s="16">
+        <f t="shared" ref="X42:Y44" si="39">V42-V43</f>
+        <v>5</v>
+      </c>
+      <c r="Y42" s="17">
+        <f t="shared" si="39"/>
+        <v>2138</v>
+      </c>
+      <c r="Z42" s="15">
+        <v>11</v>
+      </c>
+      <c r="AA42" s="16">
+        <v>19779</v>
+      </c>
+      <c r="AB42" s="16">
+        <f t="shared" ref="AB42:AC44" si="40">Z42-Z43</f>
+        <v>6</v>
+      </c>
+      <c r="AC42" s="17">
+        <f t="shared" si="40"/>
+        <v>8542</v>
+      </c>
+      <c r="AD42" s="4">
+        <f t="shared" si="31"/>
+        <v>17</v>
+      </c>
+      <c r="AE42" s="4">
+        <f t="shared" si="31"/>
+        <v>20059</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
+      <c r="A43" s="11">
+        <v>41991</v>
+      </c>
+      <c r="B43" s="15">
+        <v>19</v>
+      </c>
+      <c r="C43" s="16">
+        <v>13869</v>
+      </c>
+      <c r="D43" s="16">
+        <f t="shared" si="33"/>
+        <v>10</v>
+      </c>
+      <c r="E43" s="17">
+        <f t="shared" si="33"/>
+        <v>5719</v>
+      </c>
+      <c r="F43" s="15">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="16">
+        <v>466</v>
+      </c>
+      <c r="H43" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="17">
+        <f t="shared" si="35"/>
+        <v>466</v>
+      </c>
+      <c r="J43" s="15">
+        <v>17</v>
+      </c>
+      <c r="K43" s="16">
+        <v>16700</v>
+      </c>
+      <c r="L43" s="16">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="M43" s="17">
+        <f t="shared" si="36"/>
+        <v>14</v>
+      </c>
+      <c r="N43" s="15">
+        <v>21</v>
+      </c>
+      <c r="O43" s="16">
+        <v>13407</v>
+      </c>
+      <c r="P43" s="16">
+        <f t="shared" si="37"/>
+        <v>12</v>
+      </c>
+      <c r="Q43" s="17">
+        <f t="shared" si="37"/>
+        <v>7199</v>
+      </c>
+      <c r="R43" s="15">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="17">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="15">
+        <v>5</v>
+      </c>
+      <c r="W43" s="16">
+        <v>4662</v>
+      </c>
+      <c r="X43" s="16">
+        <f t="shared" si="39"/>
+        <v>3</v>
+      </c>
+      <c r="Y43" s="17">
+        <f t="shared" si="39"/>
+        <v>3582</v>
+      </c>
+      <c r="Z43" s="15">
+        <v>5</v>
+      </c>
+      <c r="AA43" s="16">
+        <v>11237</v>
+      </c>
+      <c r="AB43" s="16">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="AC43" s="17">
+        <f t="shared" si="40"/>
+        <v>1879</v>
+      </c>
+      <c r="AD43" s="4">
+        <f t="shared" si="31"/>
+        <v>28</v>
+      </c>
+      <c r="AE43" s="4">
+        <f t="shared" si="31"/>
+        <v>18859</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
+      <c r="A44" s="11">
+        <v>41990</v>
+      </c>
+      <c r="B44" s="15">
+        <v>9</v>
+      </c>
+      <c r="C44" s="16">
+        <v>8150</v>
+      </c>
+      <c r="D44" s="16">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="E44" s="17">
+        <f t="shared" si="33"/>
+        <v>4075</v>
+      </c>
+      <c r="F44" s="15">
+        <v>0</v>
+      </c>
+      <c r="G44" s="16">
+        <v>0</v>
+      </c>
+      <c r="H44" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="17">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="15">
+        <v>15</v>
+      </c>
+      <c r="K44" s="16">
+        <v>16686</v>
+      </c>
+      <c r="L44" s="16">
+        <f t="shared" si="36"/>
+        <v>8</v>
+      </c>
+      <c r="M44" s="17">
+        <f t="shared" si="36"/>
+        <v>8343</v>
+      </c>
+      <c r="N44" s="15">
+        <v>9</v>
+      </c>
+      <c r="O44" s="16">
+        <v>6208</v>
+      </c>
+      <c r="P44" s="16">
+        <f t="shared" si="37"/>
+        <v>5</v>
+      </c>
+      <c r="Q44" s="17">
+        <f t="shared" si="37"/>
+        <v>3104</v>
+      </c>
+      <c r="R44" s="15">
+        <v>0</v>
+      </c>
+      <c r="S44" s="16">
+        <v>0</v>
+      </c>
+      <c r="T44" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="17">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="V44" s="15">
+        <v>2</v>
+      </c>
+      <c r="W44" s="16">
+        <v>1080</v>
+      </c>
+      <c r="X44" s="16">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="Y44" s="17">
+        <f t="shared" si="39"/>
+        <v>540</v>
+      </c>
+      <c r="Z44" s="15">
+        <v>4</v>
+      </c>
+      <c r="AA44" s="16">
+        <v>9358</v>
+      </c>
+      <c r="AB44" s="16">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="AC44" s="17">
+        <f t="shared" si="40"/>
+        <v>4679</v>
+      </c>
+      <c r="AD44" s="4">
+        <f t="shared" si="31"/>
+        <v>21</v>
+      </c>
+      <c r="AE44" s="4">
+        <f t="shared" si="31"/>
+        <v>20741</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
+      <c r="A45" s="11">
         <v>41989</v>
       </c>
-      <c r="B15" s="12">
-        <f>INT(B14/2)</f>
+      <c r="B45" s="15">
+        <f>INT(B44/2)</f>
         <v>4</v>
       </c>
-      <c r="C15" s="7">
-        <f t="shared" ref="C15:AA15" si="45">INT(C14/2)</f>
+      <c r="C45" s="16">
+        <f>INT(C44/2)</f>
         <v>4075</v>
       </c>
-      <c r="D15" s="7">
-        <f t="shared" si="28"/>
+      <c r="D45" s="16">
+        <f>B45-B46</f>
         <v>4</v>
       </c>
-      <c r="E15" s="13">
-        <f t="shared" si="29"/>
+      <c r="E45" s="17">
+        <f>C45-C46</f>
         <v>4075</v>
       </c>
-      <c r="F15" s="12">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="13">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="12">
-        <f t="shared" si="45"/>
+      <c r="F45" s="15">
+        <f t="shared" ref="F45:G45" si="41">INT(F44/2)</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="16">
+        <f>F45-F46</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="17">
+        <f>G45-G46</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="15">
+        <f t="shared" ref="J45:K45" si="42">INT(J44/2)</f>
         <v>7</v>
       </c>
-      <c r="K15" s="7">
-        <f t="shared" si="45"/>
+      <c r="K45" s="16">
+        <f t="shared" si="42"/>
         <v>8343</v>
       </c>
-      <c r="L15" s="7">
-        <f t="shared" si="33"/>
+      <c r="L45" s="16">
+        <f>J45-J46</f>
         <v>7</v>
       </c>
-      <c r="M15" s="13">
-        <f t="shared" si="34"/>
+      <c r="M45" s="17">
+        <f>K45-K46</f>
         <v>8343</v>
       </c>
-      <c r="N15" s="12">
-        <f t="shared" si="45"/>
+      <c r="N45" s="15">
+        <f t="shared" ref="N45:O45" si="43">INT(N44/2)</f>
         <v>4</v>
       </c>
-      <c r="O15" s="7">
-        <f t="shared" si="45"/>
+      <c r="O45" s="16">
+        <f t="shared" si="43"/>
         <v>3104</v>
       </c>
-      <c r="P15" s="7">
-        <f t="shared" si="35"/>
+      <c r="P45" s="16">
+        <f>N45-N46</f>
         <v>4</v>
       </c>
-      <c r="Q15" s="13">
-        <f t="shared" si="36"/>
+      <c r="Q45" s="17">
+        <f>O45-O46</f>
         <v>3104</v>
       </c>
-      <c r="R15" s="12">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="7">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="7">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="13">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="12">
-        <f t="shared" si="45"/>
-        <v>1</v>
-      </c>
-      <c r="W15" s="7">
+      <c r="R45" s="15">
+        <f t="shared" ref="R45:S45" si="44">INT(R44/2)</f>
+        <v>0</v>
+      </c>
+      <c r="S45" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="16">
+        <f>R45-R46</f>
+        <v>0</v>
+      </c>
+      <c r="U45" s="17">
+        <f>S45-S46</f>
+        <v>0</v>
+      </c>
+      <c r="V45" s="15">
+        <f t="shared" ref="V45:W45" si="45">INT(V44/2)</f>
+        <v>1</v>
+      </c>
+      <c r="W45" s="16">
         <f t="shared" si="45"/>
         <v>540</v>
       </c>
-      <c r="X15" s="7">
-        <f t="shared" si="39"/>
-        <v>1</v>
-      </c>
-      <c r="Y15" s="13">
-        <f t="shared" si="40"/>
+      <c r="X45" s="16">
+        <f>V45-V46</f>
+        <v>1</v>
+      </c>
+      <c r="Y45" s="17">
+        <f>W45-W46</f>
         <v>540</v>
       </c>
-      <c r="Z15" s="12">
-        <f t="shared" si="45"/>
+      <c r="Z45" s="15">
+        <f t="shared" ref="Z45:AA45" si="46">INT(Z44/2)</f>
         <v>2</v>
       </c>
-      <c r="AA15" s="7">
-        <f t="shared" si="45"/>
+      <c r="AA45" s="16">
+        <f t="shared" si="46"/>
         <v>4679</v>
       </c>
-      <c r="AB15" s="7">
-        <f t="shared" si="41"/>
+      <c r="AB45" s="16">
+        <f>Z45-Z46</f>
         <v>2</v>
       </c>
-      <c r="AC15" s="13">
-        <f t="shared" si="42"/>
+      <c r="AC45" s="17">
+        <f>AA45-AA46</f>
         <v>4679</v>
       </c>
-      <c r="AD15">
-        <f t="shared" ref="AD15" si="46">SUM(B15,F15,J15,N15,R15,V15,Z15)-SUM(B16,F16,J16,N16,R16,V16,Z16)</f>
+      <c r="AD45" s="4">
+        <f>SUM(B45,F45,J45,N45,R45,V45,Z45)-SUM(B46,F46,J46,N46,R46,V46,Z46)</f>
         <v>18</v>
       </c>
-      <c r="AE15">
-        <f t="shared" ref="AE15" si="47">SUM(C15,G15,K15,O15,S15,W15,AA15)-SUM(C16,G16,K16,O16,S16,W16,AA16)</f>
+      <c r="AE45" s="4">
+        <f>SUM(C45,G45,K45,O45,S45,W45,AA45)-SUM(C46,G46,K46,O46,S46,W46,AA46)</f>
         <v>20741</v>
       </c>
+    </row>
+    <row r="46" spans="1:31">
+      <c r="A46" s="16"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16"/>
+      <c r="AC46" s="17"/>
+      <c r="AD46" s="4" t="e">
+        <f>SUM(B46,F46,J46,N46,R46,V46,Z46)-SUM(#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE46" s="4" t="e">
+        <f>SUM(C46,G46,K46,O46,S46,W46,AA46)-SUM(#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
+      <c r="A47" s="16"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="15"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="16"/>
+      <c r="AC47" s="17"/>
+    </row>
+    <row r="48" spans="1:31">
+      <c r="A48" s="16"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="16"/>
+      <c r="AC48" s="17"/>
+    </row>
+    <row r="49" spans="1:29">
+      <c r="A49" s="16"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="17"/>
+      <c r="Z49" s="15"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16"/>
+      <c r="AC49" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
   </mergeCells>
-  <conditionalFormatting sqref="AF5:AG5 B5:AC5">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
+  <conditionalFormatting sqref="B5:O5">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="greaterThan">
+      <formula>$S$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:O2">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="greaterThan">
+      <formula>$S$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:O2">
     <cfRule type="cellIs" dxfId="10" priority="7" operator="lessThan">
+      <formula>$S$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5:S5">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF5:AG5 B5:AC5">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:AC2">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>$AJ$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:AC2">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>$AJ$3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/mission wz.xlsx
+++ b/mission wz.xlsx
@@ -306,55 +306,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <condense val="0"/>
@@ -720,7 +672,7 @@
   <dimension ref="A1:AK45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG40" sqref="AG40"/>
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -836,7 +788,7 @@
       </c>
       <c r="H2" s="8">
         <f t="shared" ref="H2" si="1">(150000-H6)/150000</f>
-        <v>7.5413333333333332E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -862,7 +814,7 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8">
         <f t="shared" ref="S2" si="6">(150-S6)/150</f>
-        <v>0.02</v>
+        <v>4.6666666666666669E-2</v>
       </c>
       <c r="T2" s="8">
         <f t="shared" ref="T2" si="7">(150000-T6)/150000</f>
@@ -872,21 +824,21 @@
       <c r="V2" s="8"/>
       <c r="W2" s="8">
         <f t="shared" ref="W2" si="8">(150-W6)/150</f>
-        <v>0.15333333333333332</v>
+        <v>0.18</v>
       </c>
       <c r="X2" s="8">
         <f t="shared" ref="X2" si="9">(150000-X6)/150000</f>
-        <v>0.15594</v>
+        <v>0.18218000000000001</v>
       </c>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8">
         <f t="shared" ref="AA2" si="10">(150-AA6)/150</f>
-        <v>0.15333333333333332</v>
+        <v>0.18</v>
       </c>
       <c r="AB2" s="8">
         <f t="shared" ref="AB2" si="11">(150000-AB6)/150000</f>
-        <v>0.26956000000000002</v>
+        <v>0.28491333333333335</v>
       </c>
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
@@ -919,7 +871,7 @@
       </c>
       <c r="H3" s="9">
         <f ca="1">INT(H6/$AK$1)</f>
-        <v>4953</v>
+        <v>4939</v>
       </c>
       <c r="K3" s="9">
         <f ca="1">INT(K6/$AK$1)</f>
@@ -951,7 +903,7 @@
       </c>
       <c r="X3" s="9">
         <f ca="1">INT(X6/$AK$1)</f>
-        <v>4521</v>
+        <v>4381</v>
       </c>
       <c r="AA3" s="9">
         <f ca="1">INT(AA6/$AK$1)</f>
@@ -959,7 +911,7 @@
       </c>
       <c r="AB3" s="9">
         <f ca="1">INT(AB6/$AK$1)</f>
-        <v>3913</v>
+        <v>3830</v>
       </c>
       <c r="AE3" s="5">
         <f t="shared" ref="AE3:AE4" ca="1" si="12">SUM(C3,G3,K3,O3,S3,W3,AA3)</f>
@@ -967,7 +919,7 @@
       </c>
       <c r="AF3" s="5">
         <f ca="1">SUM(D3,H3,L3,P3,T3,X3,AB3)</f>
-        <v>31646</v>
+        <v>31409</v>
       </c>
       <c r="AI3" s="1">
         <v>41996</v>
@@ -1067,7 +1019,7 @@
       </c>
       <c r="H5" s="9">
         <f ca="1">150000-INT(150000-150000/34*$AK$1)-H6</f>
-        <v>-15158</v>
+        <v>-14770</v>
       </c>
       <c r="K5" s="9">
         <f ca="1">150-INT(150-150/34*$AK$1)-K6</f>
@@ -1087,7 +1039,7 @@
       </c>
       <c r="S5" s="9">
         <f ca="1">150-INT(150-150/34*$AK$1)-S6</f>
-        <v>-23</v>
+        <v>-19</v>
       </c>
       <c r="T5" s="9">
         <f ca="1">150000-INT(150000-150000/34*$AK$1)-T6</f>
@@ -1095,35 +1047,35 @@
       </c>
       <c r="W5" s="9">
         <f ca="1">150-INT(150-150/34*$AK$1)-W6</f>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="X5" s="9">
         <f ca="1">150000-INT(150000-150000/34*$AK$1)-X6</f>
-        <v>-3079</v>
+        <v>857</v>
       </c>
       <c r="AA5" s="9">
         <f ca="1">150-INT(150-150/34*$AK$1)-AA6</f>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="9">
         <f ca="1">150000-INT(150000-150000/34*$AK$1)-AB6</f>
-        <v>13964</v>
+        <v>16267</v>
       </c>
       <c r="AE5" s="5">
         <f ca="1">SUM(C5,G5,K5,O5,S5,W5,AA5)</f>
-        <v>-19</v>
+        <v>-7</v>
       </c>
       <c r="AF5" s="5">
         <f ca="1">SUM(D5,H5,L5,P5,T5,X5,AB5)</f>
-        <v>-21450</v>
+        <v>-14823</v>
       </c>
       <c r="AG5" s="3">
         <f ca="1">-$AK$3+AG6</f>
-        <v>3.7229437229437112E-3</v>
+        <v>1.5151515151515138E-2</v>
       </c>
       <c r="AH5" s="3">
         <f ca="1">AH6-$AK$3</f>
-        <v>4.5229437229437064E-3</v>
+        <v>1.0834372294372285E-2</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1144,7 +1096,7 @@
       </c>
       <c r="H6" s="9">
         <f>150000-H11</f>
-        <v>138688</v>
+        <v>138300</v>
       </c>
       <c r="K6" s="9">
         <f t="shared" ref="K6" si="15">150-K11</f>
@@ -1164,7 +1116,7 @@
       </c>
       <c r="S6" s="9">
         <f t="shared" ref="S6" si="17">150-S11</f>
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="T6" s="9">
         <f>150000-T11</f>
@@ -1172,35 +1124,35 @@
       </c>
       <c r="W6" s="9">
         <f t="shared" ref="W6" si="18">150-W11</f>
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="X6" s="9">
         <f>150000-X11</f>
-        <v>126609</v>
+        <v>122673</v>
       </c>
       <c r="AA6" s="9">
         <f t="shared" ref="AA6" si="19">150-AA11</f>
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AB6" s="9">
         <f>150000-AB11</f>
-        <v>109566</v>
+        <v>107263</v>
       </c>
       <c r="AE6" s="5">
         <f>SUM(C6,G6,K6,O6,S6,W6,AA6)</f>
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="AF6" s="5">
         <f>SUM(D6,H6,L6,P6,T6,X6,AB6)</f>
-        <v>886160</v>
+        <v>879533</v>
       </c>
       <c r="AG6" s="3">
         <f>(7*150-AE6)/(7*150)</f>
-        <v>0.15523809523809523</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AH6" s="3">
         <f>(7*150000-AF6)/(7*150000)</f>
-        <v>0.15603809523809523</v>
+        <v>0.1623495238095238</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -1209,11 +1161,11 @@
       </c>
       <c r="AE7" s="5">
         <f>150*7-AE6</f>
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="AF7" s="5">
         <f>150000*7-AF6</f>
-        <v>163840</v>
+        <v>170467</v>
       </c>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
@@ -1347,7 +1299,7 @@
       </c>
       <c r="H11" s="14">
         <f t="shared" si="20"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I11" s="14">
         <f t="shared" si="20"/>
@@ -1355,7 +1307,7 @@
       </c>
       <c r="J11" s="15">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K11" s="13">
         <f t="shared" si="20"/>
@@ -1391,7 +1343,7 @@
       </c>
       <c r="S11" s="13">
         <f t="shared" ref="S11:AD32" si="21">S12</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T11" s="14">
         <f t="shared" si="21"/>
@@ -1399,7 +1351,7 @@
       </c>
       <c r="U11" s="14">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V11" s="15">
         <f t="shared" si="21"/>
@@ -1407,35 +1359,35 @@
       </c>
       <c r="W11" s="13">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X11" s="14">
         <f t="shared" si="21"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y11" s="14">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z11" s="15">
         <f t="shared" si="21"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA11" s="13">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB11" s="14">
         <f t="shared" si="21"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC11" s="14">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD11" s="15">
         <f t="shared" si="21"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE11" s="4">
         <f>SUM(C11,G11,K11,O11,S11,W11,AA11)-SUM(C12,G12,K12,O12,S12,W12,AA12)</f>
@@ -1475,7 +1427,7 @@
       </c>
       <c r="H12" s="17">
         <f t="shared" si="20"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I12" s="17">
         <f t="shared" si="20"/>
@@ -1483,7 +1435,7 @@
       </c>
       <c r="J12" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K12" s="16">
         <f t="shared" si="20"/>
@@ -1519,7 +1471,7 @@
       </c>
       <c r="S12" s="16">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T12" s="17">
         <f t="shared" si="21"/>
@@ -1527,7 +1479,7 @@
       </c>
       <c r="U12" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V12" s="18">
         <f t="shared" si="21"/>
@@ -1535,35 +1487,35 @@
       </c>
       <c r="W12" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X12" s="17">
         <f t="shared" si="21"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y12" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z12" s="18">
         <f t="shared" si="21"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA12" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB12" s="17">
         <f t="shared" si="21"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC12" s="17">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD12" s="18">
         <f t="shared" si="21"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE12" s="4">
         <f t="shared" ref="AE12:AF27" si="22">SUM(C12,G12,K12,O12,S12,W12,AA12)-SUM(C13,G13,K13,O13,S13,W13,AA13)</f>
@@ -1603,7 +1555,7 @@
       </c>
       <c r="H13" s="17">
         <f t="shared" si="20"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I13" s="17">
         <f t="shared" si="20"/>
@@ -1611,7 +1563,7 @@
       </c>
       <c r="J13" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K13" s="16">
         <f t="shared" si="20"/>
@@ -1647,7 +1599,7 @@
       </c>
       <c r="S13" s="16">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T13" s="17">
         <f t="shared" si="21"/>
@@ -1655,7 +1607,7 @@
       </c>
       <c r="U13" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V13" s="18">
         <f t="shared" si="21"/>
@@ -1663,35 +1615,35 @@
       </c>
       <c r="W13" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X13" s="17">
         <f t="shared" si="21"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y13" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z13" s="18">
         <f t="shared" si="21"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA13" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB13" s="17">
         <f t="shared" si="21"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC13" s="17">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD13" s="18">
         <f t="shared" si="21"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE13" s="4">
         <f t="shared" si="22"/>
@@ -1731,7 +1683,7 @@
       </c>
       <c r="H14" s="17">
         <f t="shared" si="20"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I14" s="17">
         <f t="shared" si="20"/>
@@ -1739,7 +1691,7 @@
       </c>
       <c r="J14" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K14" s="16">
         <f t="shared" si="20"/>
@@ -1775,7 +1727,7 @@
       </c>
       <c r="S14" s="16">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T14" s="17">
         <f t="shared" si="21"/>
@@ -1783,7 +1735,7 @@
       </c>
       <c r="U14" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V14" s="18">
         <f t="shared" si="21"/>
@@ -1791,35 +1743,35 @@
       </c>
       <c r="W14" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X14" s="17">
         <f t="shared" si="21"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y14" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z14" s="18">
         <f t="shared" si="21"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA14" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB14" s="17">
         <f t="shared" si="21"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC14" s="17">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD14" s="18">
         <f t="shared" si="21"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE14" s="4">
         <f t="shared" si="22"/>
@@ -1859,7 +1811,7 @@
       </c>
       <c r="H15" s="17">
         <f t="shared" si="20"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I15" s="17">
         <f t="shared" si="20"/>
@@ -1867,7 +1819,7 @@
       </c>
       <c r="J15" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K15" s="16">
         <f t="shared" si="20"/>
@@ -1903,7 +1855,7 @@
       </c>
       <c r="S15" s="16">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T15" s="17">
         <f t="shared" si="21"/>
@@ -1911,7 +1863,7 @@
       </c>
       <c r="U15" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V15" s="18">
         <f t="shared" si="21"/>
@@ -1919,35 +1871,35 @@
       </c>
       <c r="W15" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X15" s="17">
         <f t="shared" si="21"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y15" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z15" s="18">
         <f t="shared" si="21"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA15" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB15" s="17">
         <f t="shared" si="21"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC15" s="17">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD15" s="18">
         <f t="shared" si="21"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE15" s="4">
         <f t="shared" si="22"/>
@@ -1987,7 +1939,7 @@
       </c>
       <c r="H16" s="17">
         <f t="shared" si="20"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I16" s="17">
         <f t="shared" si="20"/>
@@ -1995,7 +1947,7 @@
       </c>
       <c r="J16" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K16" s="16">
         <f t="shared" si="20"/>
@@ -2031,7 +1983,7 @@
       </c>
       <c r="S16" s="16">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T16" s="17">
         <f t="shared" si="21"/>
@@ -2039,7 +1991,7 @@
       </c>
       <c r="U16" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V16" s="18">
         <f t="shared" si="21"/>
@@ -2047,35 +1999,35 @@
       </c>
       <c r="W16" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X16" s="17">
         <f t="shared" si="21"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y16" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z16" s="18">
         <f t="shared" si="21"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA16" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB16" s="17">
         <f t="shared" si="21"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC16" s="17">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD16" s="18">
         <f t="shared" si="21"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE16" s="4">
         <f t="shared" si="22"/>
@@ -2115,7 +2067,7 @@
       </c>
       <c r="H17" s="17">
         <f t="shared" si="20"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I17" s="17">
         <f t="shared" si="20"/>
@@ -2123,7 +2075,7 @@
       </c>
       <c r="J17" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K17" s="16">
         <f t="shared" si="20"/>
@@ -2159,7 +2111,7 @@
       </c>
       <c r="S17" s="16">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T17" s="17">
         <f t="shared" si="21"/>
@@ -2167,7 +2119,7 @@
       </c>
       <c r="U17" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V17" s="18">
         <f t="shared" si="21"/>
@@ -2175,35 +2127,35 @@
       </c>
       <c r="W17" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X17" s="17">
         <f t="shared" si="21"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y17" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z17" s="18">
         <f t="shared" si="21"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA17" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB17" s="17">
         <f t="shared" si="21"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC17" s="17">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD17" s="18">
         <f t="shared" si="21"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE17" s="4">
         <f t="shared" si="22"/>
@@ -2243,7 +2195,7 @@
       </c>
       <c r="H18" s="17">
         <f t="shared" si="20"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I18" s="17">
         <f t="shared" si="20"/>
@@ -2251,7 +2203,7 @@
       </c>
       <c r="J18" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K18" s="16">
         <f t="shared" si="20"/>
@@ -2287,7 +2239,7 @@
       </c>
       <c r="S18" s="16">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T18" s="17">
         <f t="shared" si="21"/>
@@ -2295,7 +2247,7 @@
       </c>
       <c r="U18" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V18" s="18">
         <f t="shared" si="21"/>
@@ -2303,35 +2255,35 @@
       </c>
       <c r="W18" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X18" s="17">
         <f t="shared" si="21"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y18" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z18" s="18">
         <f t="shared" si="21"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA18" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB18" s="17">
         <f t="shared" si="21"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC18" s="17">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD18" s="18">
         <f t="shared" si="21"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE18" s="4">
         <f t="shared" si="22"/>
@@ -2371,7 +2323,7 @@
       </c>
       <c r="H19" s="17">
         <f t="shared" si="20"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I19" s="17">
         <f t="shared" si="20"/>
@@ -2379,7 +2331,7 @@
       </c>
       <c r="J19" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K19" s="16">
         <f t="shared" si="20"/>
@@ -2415,7 +2367,7 @@
       </c>
       <c r="S19" s="16">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T19" s="17">
         <f t="shared" si="21"/>
@@ -2423,7 +2375,7 @@
       </c>
       <c r="U19" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V19" s="18">
         <f t="shared" si="21"/>
@@ -2431,35 +2383,35 @@
       </c>
       <c r="W19" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X19" s="17">
         <f t="shared" si="21"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y19" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z19" s="18">
         <f t="shared" si="21"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA19" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB19" s="17">
         <f t="shared" si="21"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC19" s="17">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD19" s="18">
         <f t="shared" si="21"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE19" s="4">
         <f t="shared" si="22"/>
@@ -2499,7 +2451,7 @@
       </c>
       <c r="H20" s="17">
         <f t="shared" si="20"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I20" s="17">
         <f t="shared" si="20"/>
@@ -2507,7 +2459,7 @@
       </c>
       <c r="J20" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K20" s="16">
         <f t="shared" si="20"/>
@@ -2543,7 +2495,7 @@
       </c>
       <c r="S20" s="16">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T20" s="17">
         <f t="shared" si="21"/>
@@ -2551,7 +2503,7 @@
       </c>
       <c r="U20" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V20" s="18">
         <f t="shared" si="21"/>
@@ -2559,35 +2511,35 @@
       </c>
       <c r="W20" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X20" s="17">
         <f t="shared" si="21"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y20" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z20" s="18">
         <f t="shared" si="21"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA20" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB20" s="17">
         <f t="shared" si="21"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC20" s="17">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD20" s="18">
         <f t="shared" si="21"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE20" s="4">
         <f t="shared" si="22"/>
@@ -2627,7 +2579,7 @@
       </c>
       <c r="H21" s="17">
         <f t="shared" si="20"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I21" s="17">
         <f t="shared" si="20"/>
@@ -2635,7 +2587,7 @@
       </c>
       <c r="J21" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K21" s="16">
         <f t="shared" si="20"/>
@@ -2671,7 +2623,7 @@
       </c>
       <c r="S21" s="16">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T21" s="17">
         <f t="shared" si="21"/>
@@ -2679,7 +2631,7 @@
       </c>
       <c r="U21" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V21" s="18">
         <f t="shared" si="21"/>
@@ -2687,35 +2639,35 @@
       </c>
       <c r="W21" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X21" s="17">
         <f t="shared" si="21"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y21" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z21" s="18">
         <f t="shared" si="21"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA21" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB21" s="17">
         <f t="shared" si="21"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC21" s="17">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD21" s="18">
         <f t="shared" si="21"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE21" s="4">
         <f t="shared" si="22"/>
@@ -2755,7 +2707,7 @@
       </c>
       <c r="H22" s="17">
         <f t="shared" si="20"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I22" s="17">
         <f t="shared" si="20"/>
@@ -2763,7 +2715,7 @@
       </c>
       <c r="J22" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K22" s="16">
         <f t="shared" si="20"/>
@@ -2799,7 +2751,7 @@
       </c>
       <c r="S22" s="16">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T22" s="17">
         <f t="shared" si="21"/>
@@ -2807,7 +2759,7 @@
       </c>
       <c r="U22" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V22" s="18">
         <f t="shared" si="21"/>
@@ -2815,35 +2767,35 @@
       </c>
       <c r="W22" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X22" s="17">
         <f t="shared" si="21"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y22" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z22" s="18">
         <f t="shared" si="21"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA22" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB22" s="17">
         <f t="shared" si="21"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC22" s="17">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD22" s="18">
         <f t="shared" si="21"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE22" s="4">
         <f t="shared" si="22"/>
@@ -2883,7 +2835,7 @@
       </c>
       <c r="H23" s="17">
         <f t="shared" si="20"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I23" s="17">
         <f t="shared" si="20"/>
@@ -2891,7 +2843,7 @@
       </c>
       <c r="J23" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K23" s="16">
         <f t="shared" si="20"/>
@@ -2927,7 +2879,7 @@
       </c>
       <c r="S23" s="16">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T23" s="17">
         <f t="shared" si="21"/>
@@ -2935,7 +2887,7 @@
       </c>
       <c r="U23" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V23" s="18">
         <f t="shared" si="21"/>
@@ -2943,35 +2895,35 @@
       </c>
       <c r="W23" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X23" s="17">
         <f t="shared" si="21"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y23" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z23" s="18">
         <f t="shared" si="21"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA23" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB23" s="17">
         <f t="shared" si="21"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC23" s="17">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD23" s="18">
         <f t="shared" si="21"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE23" s="4">
         <f t="shared" si="22"/>
@@ -3011,7 +2963,7 @@
       </c>
       <c r="H24" s="17">
         <f t="shared" si="20"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I24" s="17">
         <f t="shared" si="20"/>
@@ -3019,7 +2971,7 @@
       </c>
       <c r="J24" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K24" s="16">
         <f t="shared" si="20"/>
@@ -3055,7 +3007,7 @@
       </c>
       <c r="S24" s="16">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T24" s="17">
         <f t="shared" si="21"/>
@@ -3063,7 +3015,7 @@
       </c>
       <c r="U24" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V24" s="18">
         <f t="shared" si="21"/>
@@ -3071,35 +3023,35 @@
       </c>
       <c r="W24" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X24" s="17">
         <f t="shared" si="21"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y24" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z24" s="18">
         <f t="shared" si="21"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA24" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB24" s="17">
         <f t="shared" si="21"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC24" s="17">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD24" s="18">
         <f t="shared" si="21"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE24" s="4">
         <f t="shared" si="22"/>
@@ -3139,7 +3091,7 @@
       </c>
       <c r="H25" s="17">
         <f t="shared" si="20"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I25" s="17">
         <f t="shared" si="20"/>
@@ -3147,7 +3099,7 @@
       </c>
       <c r="J25" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K25" s="16">
         <f t="shared" si="20"/>
@@ -3183,7 +3135,7 @@
       </c>
       <c r="S25" s="16">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T25" s="17">
         <f t="shared" si="21"/>
@@ -3191,7 +3143,7 @@
       </c>
       <c r="U25" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V25" s="18">
         <f t="shared" si="21"/>
@@ -3199,35 +3151,35 @@
       </c>
       <c r="W25" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X25" s="17">
         <f t="shared" si="21"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y25" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z25" s="18">
         <f t="shared" si="21"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA25" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB25" s="17">
         <f t="shared" si="21"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC25" s="17">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD25" s="18">
         <f t="shared" si="21"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE25" s="4">
         <f t="shared" si="22"/>
@@ -3267,7 +3219,7 @@
       </c>
       <c r="H26" s="17">
         <f t="shared" si="20"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I26" s="17">
         <f t="shared" si="20"/>
@@ -3275,7 +3227,7 @@
       </c>
       <c r="J26" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K26" s="16">
         <f t="shared" si="20"/>
@@ -3306,12 +3258,12 @@
         <v>8</v>
       </c>
       <c r="R26" s="18">
-        <f t="shared" ref="R26:AD40" si="23">R27</f>
+        <f t="shared" ref="R26:W40" si="23">R27</f>
         <v>4488</v>
       </c>
       <c r="S26" s="16">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T26" s="17">
         <f t="shared" si="21"/>
@@ -3319,7 +3271,7 @@
       </c>
       <c r="U26" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V26" s="18">
         <f t="shared" si="21"/>
@@ -3327,35 +3279,35 @@
       </c>
       <c r="W26" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X26" s="17">
         <f t="shared" si="21"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y26" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z26" s="18">
         <f t="shared" si="21"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA26" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB26" s="17">
         <f t="shared" si="21"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC26" s="17">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD26" s="18">
         <f t="shared" si="21"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE26" s="4">
         <f t="shared" si="22"/>
@@ -3374,7 +3326,7 @@
         <v>42007</v>
       </c>
       <c r="C27" s="16">
-        <f t="shared" ref="C27:R40" si="24">C28</f>
+        <f t="shared" ref="C27:Q40" si="24">C28</f>
         <v>40</v>
       </c>
       <c r="D27" s="17">
@@ -3395,7 +3347,7 @@
       </c>
       <c r="H27" s="17">
         <f t="shared" si="24"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I27" s="17">
         <f t="shared" si="24"/>
@@ -3403,7 +3355,7 @@
       </c>
       <c r="J27" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K27" s="16">
         <f t="shared" si="24"/>
@@ -3439,7 +3391,7 @@
       </c>
       <c r="S27" s="16">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T27" s="17">
         <f t="shared" si="21"/>
@@ -3447,7 +3399,7 @@
       </c>
       <c r="U27" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V27" s="18">
         <f t="shared" si="21"/>
@@ -3455,35 +3407,35 @@
       </c>
       <c r="W27" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X27" s="17">
         <f t="shared" si="21"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y27" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z27" s="18">
         <f t="shared" si="21"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA27" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB27" s="17">
         <f t="shared" si="21"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC27" s="17">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD27" s="18">
         <f t="shared" si="21"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE27" s="4">
         <f t="shared" si="22"/>
@@ -3523,7 +3475,7 @@
       </c>
       <c r="H28" s="17">
         <f t="shared" si="24"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I28" s="17">
         <f t="shared" si="24"/>
@@ -3531,7 +3483,7 @@
       </c>
       <c r="J28" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K28" s="16">
         <f t="shared" si="24"/>
@@ -3567,7 +3519,7 @@
       </c>
       <c r="S28" s="16">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T28" s="17">
         <f t="shared" si="21"/>
@@ -3575,7 +3527,7 @@
       </c>
       <c r="U28" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V28" s="18">
         <f t="shared" si="21"/>
@@ -3583,35 +3535,35 @@
       </c>
       <c r="W28" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X28" s="17">
         <f t="shared" si="21"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y28" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z28" s="18">
         <f t="shared" si="21"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA28" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB28" s="17">
         <f t="shared" si="21"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC28" s="17">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD28" s="18">
         <f t="shared" si="21"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE28" s="4">
         <f t="shared" ref="AE28:AF44" si="25">SUM(C28,G28,K28,O28,S28,W28,AA28)-SUM(C29,G29,K29,O29,S29,W29,AA29)</f>
@@ -3651,7 +3603,7 @@
       </c>
       <c r="H29" s="17">
         <f t="shared" si="24"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I29" s="17">
         <f t="shared" si="24"/>
@@ -3659,7 +3611,7 @@
       </c>
       <c r="J29" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="16">
         <f t="shared" si="24"/>
@@ -3695,7 +3647,7 @@
       </c>
       <c r="S29" s="16">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T29" s="17">
         <f t="shared" si="21"/>
@@ -3703,7 +3655,7 @@
       </c>
       <c r="U29" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V29" s="18">
         <f t="shared" si="21"/>
@@ -3711,35 +3663,35 @@
       </c>
       <c r="W29" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X29" s="17">
         <f t="shared" si="21"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y29" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z29" s="18">
         <f t="shared" si="21"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA29" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB29" s="17">
         <f t="shared" si="21"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC29" s="17">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD29" s="18">
         <f t="shared" si="21"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE29" s="4">
         <f t="shared" si="25"/>
@@ -3779,7 +3731,7 @@
       </c>
       <c r="H30" s="17">
         <f t="shared" si="24"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I30" s="17">
         <f t="shared" si="24"/>
@@ -3787,7 +3739,7 @@
       </c>
       <c r="J30" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K30" s="16">
         <f t="shared" si="24"/>
@@ -3823,7 +3775,7 @@
       </c>
       <c r="S30" s="16">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T30" s="17">
         <f t="shared" si="21"/>
@@ -3831,7 +3783,7 @@
       </c>
       <c r="U30" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V30" s="18">
         <f t="shared" si="21"/>
@@ -3839,35 +3791,35 @@
       </c>
       <c r="W30" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X30" s="17">
         <f t="shared" si="21"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y30" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z30" s="18">
         <f t="shared" si="21"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA30" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB30" s="17">
         <f t="shared" si="21"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC30" s="17">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD30" s="18">
         <f t="shared" si="21"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE30" s="4">
         <f t="shared" si="25"/>
@@ -3907,7 +3859,7 @@
       </c>
       <c r="H31" s="17">
         <f t="shared" si="24"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I31" s="17">
         <f t="shared" si="24"/>
@@ -3915,7 +3867,7 @@
       </c>
       <c r="J31" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K31" s="16">
         <f t="shared" si="24"/>
@@ -3951,7 +3903,7 @@
       </c>
       <c r="S31" s="16">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T31" s="17">
         <f t="shared" si="21"/>
@@ -3959,7 +3911,7 @@
       </c>
       <c r="U31" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V31" s="18">
         <f t="shared" si="21"/>
@@ -3967,35 +3919,35 @@
       </c>
       <c r="W31" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X31" s="17">
         <f t="shared" si="21"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y31" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z31" s="18">
         <f t="shared" si="21"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA31" s="16">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB31" s="17">
         <f t="shared" si="21"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC31" s="17">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD31" s="18">
         <f t="shared" si="21"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE31" s="4">
         <f t="shared" si="25"/>
@@ -4035,7 +3987,7 @@
       </c>
       <c r="H32" s="17">
         <f t="shared" si="24"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I32" s="17">
         <f t="shared" si="24"/>
@@ -4043,7 +3995,7 @@
       </c>
       <c r="J32" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K32" s="16">
         <f t="shared" si="24"/>
@@ -4079,7 +4031,7 @@
       </c>
       <c r="S32" s="16">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T32" s="17">
         <f t="shared" si="21"/>
@@ -4087,7 +4039,7 @@
       </c>
       <c r="U32" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V32" s="18">
         <f t="shared" ref="V32:AD39" si="26">V33</f>
@@ -4095,35 +4047,35 @@
       </c>
       <c r="W32" s="16">
         <f t="shared" si="26"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X32" s="17">
         <f t="shared" si="26"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y32" s="17">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z32" s="18">
         <f t="shared" si="26"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA32" s="16">
         <f t="shared" si="26"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB32" s="17">
         <f t="shared" si="26"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC32" s="17">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD32" s="18">
         <f t="shared" si="26"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE32" s="4">
         <f t="shared" si="25"/>
@@ -4163,7 +4115,7 @@
       </c>
       <c r="H33" s="17">
         <f t="shared" si="24"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I33" s="17">
         <f t="shared" si="24"/>
@@ -4171,7 +4123,7 @@
       </c>
       <c r="J33" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K33" s="16">
         <f t="shared" si="24"/>
@@ -4207,7 +4159,7 @@
       </c>
       <c r="S33" s="16">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T33" s="17">
         <f t="shared" si="23"/>
@@ -4215,7 +4167,7 @@
       </c>
       <c r="U33" s="17">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V33" s="18">
         <f t="shared" si="26"/>
@@ -4223,35 +4175,35 @@
       </c>
       <c r="W33" s="16">
         <f t="shared" si="26"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X33" s="17">
         <f t="shared" si="26"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y33" s="17">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z33" s="18">
         <f t="shared" si="26"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA33" s="16">
         <f t="shared" si="26"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB33" s="17">
         <f t="shared" si="26"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC33" s="17">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD33" s="18">
         <f t="shared" si="26"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE33" s="4">
         <f t="shared" si="25"/>
@@ -4291,7 +4243,7 @@
       </c>
       <c r="H34" s="17">
         <f t="shared" si="24"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I34" s="17">
         <f t="shared" si="24"/>
@@ -4299,7 +4251,7 @@
       </c>
       <c r="J34" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K34" s="16">
         <f t="shared" si="24"/>
@@ -4335,7 +4287,7 @@
       </c>
       <c r="S34" s="16">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T34" s="17">
         <f t="shared" si="23"/>
@@ -4343,7 +4295,7 @@
       </c>
       <c r="U34" s="17">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V34" s="18">
         <f t="shared" si="26"/>
@@ -4351,35 +4303,35 @@
       </c>
       <c r="W34" s="16">
         <f t="shared" si="26"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X34" s="17">
         <f t="shared" si="26"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y34" s="17">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z34" s="18">
         <f t="shared" si="26"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA34" s="16">
         <f t="shared" si="26"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB34" s="17">
         <f t="shared" si="26"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC34" s="17">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD34" s="18">
         <f t="shared" si="26"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE34" s="4">
         <f t="shared" si="25"/>
@@ -4419,7 +4371,7 @@
       </c>
       <c r="H35" s="17">
         <f t="shared" si="24"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I35" s="17">
         <f t="shared" si="24"/>
@@ -4427,7 +4379,7 @@
       </c>
       <c r="J35" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K35" s="16">
         <f t="shared" si="24"/>
@@ -4463,7 +4415,7 @@
       </c>
       <c r="S35" s="16">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T35" s="17">
         <f t="shared" si="23"/>
@@ -4471,7 +4423,7 @@
       </c>
       <c r="U35" s="17">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V35" s="18">
         <f t="shared" si="26"/>
@@ -4479,35 +4431,35 @@
       </c>
       <c r="W35" s="16">
         <f t="shared" si="26"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X35" s="17">
         <f t="shared" si="26"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y35" s="17">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z35" s="18">
         <f t="shared" si="26"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA35" s="16">
         <f t="shared" si="26"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB35" s="17">
         <f t="shared" si="26"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC35" s="17">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD35" s="18">
         <f t="shared" si="26"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE35" s="4">
         <f t="shared" si="25"/>
@@ -4547,7 +4499,7 @@
       </c>
       <c r="H36" s="17">
         <f t="shared" si="24"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I36" s="17">
         <f t="shared" si="24"/>
@@ -4555,7 +4507,7 @@
       </c>
       <c r="J36" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K36" s="16">
         <f t="shared" si="24"/>
@@ -4591,7 +4543,7 @@
       </c>
       <c r="S36" s="16">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T36" s="17">
         <f t="shared" si="23"/>
@@ -4599,7 +4551,7 @@
       </c>
       <c r="U36" s="17">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V36" s="18">
         <f t="shared" si="26"/>
@@ -4607,35 +4559,35 @@
       </c>
       <c r="W36" s="16">
         <f t="shared" si="26"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X36" s="17">
         <f t="shared" si="26"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y36" s="17">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z36" s="18">
         <f t="shared" si="26"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA36" s="16">
         <f t="shared" si="26"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB36" s="17">
         <f t="shared" si="26"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC36" s="17">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD36" s="18">
         <f t="shared" si="26"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE36" s="4">
         <f t="shared" si="25"/>
@@ -4675,7 +4627,7 @@
       </c>
       <c r="H37" s="17">
         <f t="shared" si="24"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I37" s="17">
         <f t="shared" si="24"/>
@@ -4683,7 +4635,7 @@
       </c>
       <c r="J37" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K37" s="16">
         <f t="shared" si="24"/>
@@ -4719,7 +4671,7 @@
       </c>
       <c r="S37" s="16">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T37" s="17">
         <f t="shared" si="23"/>
@@ -4727,7 +4679,7 @@
       </c>
       <c r="U37" s="17">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V37" s="18">
         <f t="shared" si="26"/>
@@ -4735,35 +4687,35 @@
       </c>
       <c r="W37" s="16">
         <f t="shared" si="26"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X37" s="17">
         <f t="shared" si="26"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y37" s="17">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z37" s="18">
         <f t="shared" si="26"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA37" s="16">
         <f t="shared" si="26"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB37" s="17">
         <f t="shared" si="26"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC37" s="17">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD37" s="18">
         <f t="shared" si="26"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE37" s="4">
         <f t="shared" si="25"/>
@@ -4803,7 +4755,7 @@
       </c>
       <c r="H38" s="17">
         <f t="shared" si="24"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I38" s="17">
         <f t="shared" si="24"/>
@@ -4811,7 +4763,7 @@
       </c>
       <c r="J38" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K38" s="16">
         <f t="shared" si="24"/>
@@ -4847,7 +4799,7 @@
       </c>
       <c r="S38" s="16">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T38" s="17">
         <f t="shared" si="23"/>
@@ -4855,7 +4807,7 @@
       </c>
       <c r="U38" s="17">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V38" s="18">
         <f t="shared" si="26"/>
@@ -4863,35 +4815,35 @@
       </c>
       <c r="W38" s="16">
         <f t="shared" si="26"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X38" s="17">
         <f t="shared" si="26"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y38" s="17">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z38" s="18">
         <f t="shared" si="26"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA38" s="16">
         <f t="shared" si="26"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB38" s="17">
         <f t="shared" si="26"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC38" s="17">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD38" s="18">
         <f t="shared" si="26"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE38" s="4">
         <f t="shared" si="25"/>
@@ -4931,7 +4883,7 @@
       </c>
       <c r="H39" s="17">
         <f t="shared" si="24"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I39" s="17">
         <f t="shared" si="24"/>
@@ -4939,7 +4891,7 @@
       </c>
       <c r="J39" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="24"/>
@@ -4975,7 +4927,7 @@
       </c>
       <c r="S39" s="16">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T39" s="17">
         <f t="shared" si="23"/>
@@ -4983,7 +4935,7 @@
       </c>
       <c r="U39" s="17">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V39" s="18">
         <f t="shared" si="26"/>
@@ -4991,35 +4943,35 @@
       </c>
       <c r="W39" s="16">
         <f t="shared" si="26"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X39" s="17">
         <f t="shared" si="26"/>
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y39" s="17">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z39" s="18">
         <f t="shared" si="26"/>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA39" s="16">
         <f t="shared" si="26"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB39" s="17">
         <f t="shared" si="26"/>
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC39" s="17">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD39" s="18">
         <f t="shared" si="26"/>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE39" s="4">
         <f t="shared" si="25"/>
@@ -5056,8 +5008,7 @@
         <v>4</v>
       </c>
       <c r="H40" s="17">
-        <f t="shared" si="24"/>
-        <v>11312</v>
+        <v>11700</v>
       </c>
       <c r="I40" s="17">
         <f>G40-G41</f>
@@ -5065,7 +5016,7 @@
       </c>
       <c r="J40" s="18">
         <f>H40-H41</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K40" s="16">
         <f t="shared" si="24"/>
@@ -5098,56 +5049,54 @@
         <v>4488</v>
       </c>
       <c r="S40" s="16">
-        <f t="shared" si="23"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T40" s="17">
         <v>2144</v>
       </c>
       <c r="U40" s="17">
         <f>S40-S41</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V40" s="18">
         <f>T40-T41</f>
         <v>411</v>
       </c>
       <c r="W40" s="16">
-        <f t="shared" si="23"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X40" s="17">
-        <v>23391</v>
+        <v>27327</v>
       </c>
       <c r="Y40" s="17">
         <f>W40-W41</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z40" s="18">
         <f>X40-X41</f>
-        <v>159</v>
+        <v>4095</v>
       </c>
       <c r="AA40" s="16">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB40" s="17">
-        <v>40434</v>
+        <v>42737</v>
       </c>
       <c r="AC40" s="17">
         <f>AA40-AA41</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD40" s="18">
         <f>AB40-AB41</f>
-        <v>614</v>
+        <v>2917</v>
       </c>
       <c r="AE40" s="4">
         <f t="shared" si="25"/>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AF40" s="4">
         <f t="shared" si="25"/>
-        <v>10234</v>
+        <v>16861</v>
       </c>
     </row>
     <row r="41" spans="1:32">

--- a/mission wz.xlsx
+++ b/mission wz.xlsx
@@ -672,7 +672,7 @@
   <dimension ref="A1:AK45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+      <selection activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -818,7 +818,7 @@
       </c>
       <c r="T2" s="8">
         <f t="shared" ref="T2" si="7">(150000-T6)/150000</f>
-        <v>1.4293333333333333E-2</v>
+        <v>2.2006666666666667E-2</v>
       </c>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
@@ -895,7 +895,7 @@
       </c>
       <c r="T3" s="9">
         <f ca="1">INT(T6/$AK$1)</f>
-        <v>5280</v>
+        <v>5239</v>
       </c>
       <c r="W3" s="9">
         <f ca="1">INT(W6/$AK$1)</f>
@@ -919,7 +919,7 @@
       </c>
       <c r="AF3" s="5">
         <f ca="1">SUM(D3,H3,L3,P3,T3,X3,AB3)</f>
-        <v>31409</v>
+        <v>31368</v>
       </c>
       <c r="AI3" s="1">
         <v>41996</v>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="T5" s="9">
         <f ca="1">150000-INT(150000-150000/34*$AK$1)-T6</f>
-        <v>-24326</v>
+        <v>-23169</v>
       </c>
       <c r="W5" s="9">
         <f ca="1">150-INT(150-150/34*$AK$1)-W6</f>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="AF5" s="5">
         <f ca="1">SUM(D5,H5,L5,P5,T5,X5,AB5)</f>
-        <v>-14823</v>
+        <v>-13666</v>
       </c>
       <c r="AG5" s="3">
         <f ca="1">-$AK$3+AG6</f>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="AH5" s="3">
         <f ca="1">AH6-$AK$3</f>
-        <v>1.0834372294372285E-2</v>
+        <v>1.1936277056277061E-2</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="T6" s="9">
         <f>150000-T11</f>
-        <v>147856</v>
+        <v>146699</v>
       </c>
       <c r="W6" s="9">
         <f t="shared" ref="W6" si="18">150-W11</f>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="AF6" s="5">
         <f>SUM(D6,H6,L6,P6,T6,X6,AB6)</f>
-        <v>879533</v>
+        <v>878376</v>
       </c>
       <c r="AG6" s="3">
         <f>(7*150-AE6)/(7*150)</f>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="AH6" s="3">
         <f>(7*150000-AF6)/(7*150000)</f>
-        <v>0.1623495238095238</v>
+        <v>0.16345142857142858</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="AF7" s="5">
         <f>150000*7-AF6</f>
-        <v>170467</v>
+        <v>171624</v>
       </c>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="T11" s="14">
         <f t="shared" si="21"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U11" s="14">
         <f t="shared" si="21"/>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="V11" s="15">
         <f t="shared" si="21"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W11" s="13">
         <f t="shared" si="21"/>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="T12" s="17">
         <f t="shared" si="21"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U12" s="17">
         <f t="shared" si="21"/>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="V12" s="18">
         <f t="shared" si="21"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W12" s="16">
         <f t="shared" si="21"/>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="T13" s="17">
         <f t="shared" si="21"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U13" s="17">
         <f t="shared" si="21"/>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="V13" s="18">
         <f t="shared" si="21"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W13" s="16">
         <f t="shared" si="21"/>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="T14" s="17">
         <f t="shared" si="21"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U14" s="17">
         <f t="shared" si="21"/>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="V14" s="18">
         <f t="shared" si="21"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W14" s="16">
         <f t="shared" si="21"/>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="T15" s="17">
         <f t="shared" si="21"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U15" s="17">
         <f t="shared" si="21"/>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="V15" s="18">
         <f t="shared" si="21"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W15" s="16">
         <f t="shared" si="21"/>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="T16" s="17">
         <f t="shared" si="21"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U16" s="17">
         <f t="shared" si="21"/>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="V16" s="18">
         <f t="shared" si="21"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W16" s="16">
         <f t="shared" si="21"/>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="T17" s="17">
         <f t="shared" si="21"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U17" s="17">
         <f t="shared" si="21"/>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="V17" s="18">
         <f t="shared" si="21"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W17" s="16">
         <f t="shared" si="21"/>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="T18" s="17">
         <f t="shared" si="21"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U18" s="17">
         <f t="shared" si="21"/>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="V18" s="18">
         <f t="shared" si="21"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W18" s="16">
         <f t="shared" si="21"/>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="T19" s="17">
         <f t="shared" si="21"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U19" s="17">
         <f t="shared" si="21"/>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="V19" s="18">
         <f t="shared" si="21"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W19" s="16">
         <f t="shared" si="21"/>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="T20" s="17">
         <f t="shared" si="21"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U20" s="17">
         <f t="shared" si="21"/>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="V20" s="18">
         <f t="shared" si="21"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W20" s="16">
         <f t="shared" si="21"/>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="T21" s="17">
         <f t="shared" si="21"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U21" s="17">
         <f t="shared" si="21"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="V21" s="18">
         <f t="shared" si="21"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W21" s="16">
         <f t="shared" si="21"/>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="T22" s="17">
         <f t="shared" si="21"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U22" s="17">
         <f t="shared" si="21"/>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="V22" s="18">
         <f t="shared" si="21"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W22" s="16">
         <f t="shared" si="21"/>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="T23" s="17">
         <f t="shared" si="21"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U23" s="17">
         <f t="shared" si="21"/>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="V23" s="18">
         <f t="shared" si="21"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W23" s="16">
         <f t="shared" si="21"/>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="T24" s="17">
         <f t="shared" si="21"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U24" s="17">
         <f t="shared" si="21"/>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="V24" s="18">
         <f t="shared" si="21"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W24" s="16">
         <f t="shared" si="21"/>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="T25" s="17">
         <f t="shared" si="21"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U25" s="17">
         <f t="shared" si="21"/>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="V25" s="18">
         <f t="shared" si="21"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W25" s="16">
         <f t="shared" si="21"/>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="T26" s="17">
         <f t="shared" si="21"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U26" s="17">
         <f t="shared" si="21"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="V26" s="18">
         <f t="shared" si="21"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W26" s="16">
         <f t="shared" si="21"/>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="T27" s="17">
         <f t="shared" si="21"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U27" s="17">
         <f t="shared" si="21"/>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="V27" s="18">
         <f t="shared" si="21"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W27" s="16">
         <f t="shared" si="21"/>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="T28" s="17">
         <f t="shared" si="21"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U28" s="17">
         <f t="shared" si="21"/>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="V28" s="18">
         <f t="shared" si="21"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W28" s="16">
         <f t="shared" si="21"/>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="T29" s="17">
         <f t="shared" si="21"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U29" s="17">
         <f t="shared" si="21"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="V29" s="18">
         <f t="shared" si="21"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W29" s="16">
         <f t="shared" si="21"/>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="T30" s="17">
         <f t="shared" si="21"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U30" s="17">
         <f t="shared" si="21"/>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="V30" s="18">
         <f t="shared" si="21"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W30" s="16">
         <f t="shared" si="21"/>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="T31" s="17">
         <f t="shared" si="21"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U31" s="17">
         <f t="shared" si="21"/>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="V31" s="18">
         <f t="shared" si="21"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W31" s="16">
         <f t="shared" si="21"/>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="T32" s="17">
         <f t="shared" si="21"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U32" s="17">
         <f t="shared" si="21"/>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="V32" s="18">
         <f t="shared" ref="V32:AD39" si="26">V33</f>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W32" s="16">
         <f t="shared" si="26"/>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="T33" s="17">
         <f t="shared" si="23"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U33" s="17">
         <f t="shared" si="23"/>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="V33" s="18">
         <f t="shared" si="26"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W33" s="16">
         <f t="shared" si="26"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="T34" s="17">
         <f t="shared" si="23"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U34" s="17">
         <f t="shared" si="23"/>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="V34" s="18">
         <f t="shared" si="26"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W34" s="16">
         <f t="shared" si="26"/>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="T35" s="17">
         <f t="shared" si="23"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U35" s="17">
         <f t="shared" si="23"/>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="V35" s="18">
         <f t="shared" si="26"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W35" s="16">
         <f t="shared" si="26"/>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="T36" s="17">
         <f t="shared" si="23"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U36" s="17">
         <f t="shared" si="23"/>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="V36" s="18">
         <f t="shared" si="26"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W36" s="16">
         <f t="shared" si="26"/>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="T37" s="17">
         <f t="shared" si="23"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U37" s="17">
         <f t="shared" si="23"/>
@@ -4683,7 +4683,7 @@
       </c>
       <c r="V37" s="18">
         <f t="shared" si="26"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W37" s="16">
         <f t="shared" si="26"/>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="T38" s="17">
         <f t="shared" si="23"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U38" s="17">
         <f t="shared" si="23"/>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="V38" s="18">
         <f t="shared" si="26"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W38" s="16">
         <f t="shared" si="26"/>
@@ -4931,7 +4931,7 @@
       </c>
       <c r="T39" s="17">
         <f t="shared" si="23"/>
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U39" s="17">
         <f t="shared" si="23"/>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="V39" s="18">
         <f t="shared" si="26"/>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W39" s="16">
         <f t="shared" si="26"/>
@@ -5052,7 +5052,7 @@
         <v>7</v>
       </c>
       <c r="T40" s="17">
-        <v>2144</v>
+        <v>3301</v>
       </c>
       <c r="U40" s="17">
         <f>S40-S41</f>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="V40" s="18">
         <f>T40-T41</f>
-        <v>411</v>
+        <v>1568</v>
       </c>
       <c r="W40" s="16">
         <v>27</v>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="AF40" s="4">
         <f t="shared" si="25"/>
-        <v>16861</v>
+        <v>18018</v>
       </c>
     </row>
     <row r="41" spans="1:32">

--- a/mission wz.xlsx
+++ b/mission wz.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
   <si>
     <t>France</t>
   </si>
@@ -75,9 +75,6 @@
     <t>dKill Total</t>
   </si>
   <si>
-    <t>ddég total</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -100,6 +97,15 @@
   </si>
   <si>
     <t>Vendredi</t>
+  </si>
+  <si>
+    <t>Partie fin de journée</t>
+  </si>
+  <si>
+    <t>dDég total</t>
+  </si>
+  <si>
+    <t>tot partie</t>
   </si>
 </sst>
 </file>
@@ -272,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -301,6 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,7 +679,7 @@
   <dimension ref="A1:AK45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T41" sqref="T41"/>
+      <selection activeCell="AG42" sqref="AG42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -754,7 +761,7 @@
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
       <c r="AE1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI1" s="1">
         <f ca="1">TODAY()</f>
@@ -788,37 +795,37 @@
       </c>
       <c r="H2" s="8">
         <f t="shared" ref="H2" si="1">(150000-H6)/150000</f>
-        <v>7.8E-2</v>
+        <v>7.8573333333333328E-2</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8">
         <f t="shared" ref="K2" si="2">(150-K6)/150</f>
-        <v>0.2</v>
+        <v>0.25333333333333335</v>
       </c>
       <c r="L2" s="8">
         <f t="shared" ref="L2" si="3">(150000-L6)/150000</f>
-        <v>0.21236666666666668</v>
+        <v>0.25908666666666669</v>
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8">
         <f t="shared" ref="O2" si="4">(150-O6)/150</f>
-        <v>0.26666666666666666</v>
+        <v>0.29333333333333333</v>
       </c>
       <c r="P2" s="8">
         <f t="shared" ref="P2" si="5">(150000-P6)/150000</f>
-        <v>0.18141333333333334</v>
+        <v>0.20826666666666666</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8">
         <f t="shared" ref="S2" si="6">(150-S6)/150</f>
-        <v>4.6666666666666669E-2</v>
+        <v>0.08</v>
       </c>
       <c r="T2" s="8">
         <f t="shared" ref="T2" si="7">(150000-T6)/150000</f>
-        <v>2.2006666666666667E-2</v>
+        <v>5.3273333333333332E-2</v>
       </c>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
@@ -828,17 +835,17 @@
       </c>
       <c r="X2" s="8">
         <f t="shared" ref="X2" si="9">(150000-X6)/150000</f>
-        <v>0.18218000000000001</v>
+        <v>0.19066</v>
       </c>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8">
         <f t="shared" ref="AA2" si="10">(150-AA6)/150</f>
-        <v>0.18</v>
+        <v>0.19333333333333333</v>
       </c>
       <c r="AB2" s="8">
         <f t="shared" ref="AB2" si="11">(150000-AB6)/150000</f>
-        <v>0.28491333333333335</v>
+        <v>0.32140000000000002</v>
       </c>
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
@@ -871,7 +878,7 @@
       </c>
       <c r="H3" s="9">
         <f ca="1">INT(H6/$AK$1)</f>
-        <v>4939</v>
+        <v>4936</v>
       </c>
       <c r="K3" s="9">
         <f ca="1">INT(K6/$AK$1)</f>
@@ -879,7 +886,7 @@
       </c>
       <c r="L3" s="9">
         <f ca="1">INT(L6/$AK$1)</f>
-        <v>4219</v>
+        <v>3969</v>
       </c>
       <c r="O3" s="9">
         <f ca="1">INT(O6/$AK$1)</f>
@@ -887,15 +894,15 @@
       </c>
       <c r="P3" s="9">
         <f ca="1">INT(P6/$AK$1)</f>
-        <v>4385</v>
+        <v>4241</v>
       </c>
       <c r="S3" s="9">
         <f ca="1">INT(S6/$AK$1)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T3" s="9">
         <f ca="1">INT(T6/$AK$1)</f>
-        <v>5239</v>
+        <v>5071</v>
       </c>
       <c r="W3" s="9">
         <f ca="1">INT(W6/$AK$1)</f>
@@ -903,7 +910,7 @@
       </c>
       <c r="X3" s="9">
         <f ca="1">INT(X6/$AK$1)</f>
-        <v>4381</v>
+        <v>4335</v>
       </c>
       <c r="AA3" s="9">
         <f ca="1">INT(AA6/$AK$1)</f>
@@ -911,15 +918,15 @@
       </c>
       <c r="AB3" s="9">
         <f ca="1">INT(AB6/$AK$1)</f>
-        <v>3830</v>
+        <v>3635</v>
       </c>
       <c r="AE3" s="5">
         <f t="shared" ref="AE3:AE4" ca="1" si="12">SUM(C3,G3,K3,O3,S3,W3,AA3)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF3" s="5">
         <f ca="1">SUM(D3,H3,L3,P3,T3,X3,AB3)</f>
-        <v>31368</v>
+        <v>30562</v>
       </c>
       <c r="AI3" s="1">
         <v>41996</v>
@@ -1019,31 +1026,31 @@
       </c>
       <c r="H5" s="9">
         <f ca="1">150000-INT(150000-150000/34*$AK$1)-H6</f>
-        <v>-14770</v>
+        <v>-14684</v>
       </c>
       <c r="K5" s="9">
         <f ca="1">150-INT(150-150/34*$AK$1)-K6</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L5" s="9">
         <f ca="1">150000-INT(150000-150000/34*$AK$1)-L6</f>
-        <v>5385</v>
+        <v>12393</v>
       </c>
       <c r="O5" s="9">
         <f ca="1">150-INT(150-150/34*$AK$1)-O6</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="P5" s="9">
         <f ca="1">150000-INT(150000-150000/34*$AK$1)-P6</f>
-        <v>742</v>
+        <v>4770</v>
       </c>
       <c r="S5" s="9">
         <f ca="1">150-INT(150-150/34*$AK$1)-S6</f>
-        <v>-19</v>
+        <v>-14</v>
       </c>
       <c r="T5" s="9">
         <f ca="1">150000-INT(150000-150000/34*$AK$1)-T6</f>
-        <v>-23169</v>
+        <v>-18479</v>
       </c>
       <c r="W5" s="9">
         <f ca="1">150-INT(150-150/34*$AK$1)-W6</f>
@@ -1051,31 +1058,31 @@
       </c>
       <c r="X5" s="9">
         <f ca="1">150000-INT(150000-150000/34*$AK$1)-X6</f>
-        <v>857</v>
+        <v>2129</v>
       </c>
       <c r="AA5" s="9">
         <f ca="1">150-INT(150-150/34*$AK$1)-AA6</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB5" s="9">
         <f ca="1">150000-INT(150000-150000/34*$AK$1)-AB6</f>
-        <v>16267</v>
+        <v>21740</v>
       </c>
       <c r="AE5" s="5">
         <f ca="1">SUM(C5,G5,K5,O5,S5,W5,AA5)</f>
-        <v>-7</v>
+        <v>12</v>
       </c>
       <c r="AF5" s="5">
         <f ca="1">SUM(D5,H5,L5,P5,T5,X5,AB5)</f>
-        <v>-13666</v>
+        <v>8891</v>
       </c>
       <c r="AG5" s="3">
         <f ca="1">-$AK$3+AG6</f>
-        <v>1.5151515151515138E-2</v>
+        <v>3.3246753246753247E-2</v>
       </c>
       <c r="AH5" s="3">
         <f ca="1">AH6-$AK$3</f>
-        <v>1.1936277056277061E-2</v>
+        <v>3.3419134199134198E-2</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1096,31 +1103,31 @@
       </c>
       <c r="H6" s="9">
         <f>150000-H11</f>
-        <v>138300</v>
+        <v>138214</v>
       </c>
       <c r="K6" s="9">
         <f t="shared" ref="K6" si="15">150-K11</f>
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="L6" s="9">
         <f>150000-L11</f>
-        <v>118145</v>
+        <v>111137</v>
       </c>
       <c r="O6" s="9">
         <f t="shared" ref="O6" si="16">150-O11</f>
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P6" s="9">
         <f>150000-P11</f>
-        <v>122788</v>
+        <v>118760</v>
       </c>
       <c r="S6" s="9">
         <f t="shared" ref="S6" si="17">150-S11</f>
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="T6" s="9">
         <f>150000-T11</f>
-        <v>146699</v>
+        <v>142009</v>
       </c>
       <c r="W6" s="9">
         <f t="shared" ref="W6" si="18">150-W11</f>
@@ -1128,31 +1135,31 @@
       </c>
       <c r="X6" s="9">
         <f>150000-X11</f>
-        <v>122673</v>
+        <v>121401</v>
       </c>
       <c r="AA6" s="9">
         <f t="shared" ref="AA6" si="19">150-AA11</f>
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AB6" s="9">
         <f>150000-AB11</f>
-        <v>107263</v>
+        <v>101790</v>
       </c>
       <c r="AE6" s="5">
         <f>SUM(C6,G6,K6,O6,S6,W6,AA6)</f>
-        <v>875</v>
+        <v>856</v>
       </c>
       <c r="AF6" s="5">
         <f>SUM(D6,H6,L6,P6,T6,X6,AB6)</f>
-        <v>878376</v>
+        <v>855819</v>
       </c>
       <c r="AG6" s="3">
         <f>(7*150-AE6)/(7*150)</f>
-        <v>0.16666666666666666</v>
+        <v>0.18476190476190477</v>
       </c>
       <c r="AH6" s="3">
         <f>(7*150000-AF6)/(7*150000)</f>
-        <v>0.16345142857142858</v>
+        <v>0.18493428571428572</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -1161,11 +1168,11 @@
       </c>
       <c r="AE7" s="5">
         <f>150*7-AE6</f>
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="AF7" s="5">
         <f>150000*7-AF6</f>
-        <v>171624</v>
+        <v>194181</v>
       </c>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
@@ -1267,12 +1274,18 @@
         <v>18</v>
       </c>
       <c r="AF10" s="6" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="AG10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH10" s="20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:37" hidden="1">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="7">
         <v>42023</v>
@@ -1299,7 +1312,7 @@
       </c>
       <c r="H11" s="14">
         <f t="shared" si="20"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I11" s="14">
         <f t="shared" si="20"/>
@@ -1307,87 +1320,87 @@
       </c>
       <c r="J11" s="15">
         <f t="shared" si="20"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K11" s="13">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L11" s="14">
         <f t="shared" si="20"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M11" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N11" s="15">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O11" s="13">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P11" s="14">
         <f t="shared" si="20"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q11" s="14">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R11" s="15">
         <f t="shared" si="20"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S11" s="13">
         <f t="shared" ref="S11:AD32" si="21">S12</f>
+        <v>12</v>
+      </c>
+      <c r="T11" s="14">
+        <f t="shared" si="21"/>
+        <v>7991</v>
+      </c>
+      <c r="U11" s="14">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="V11" s="15">
+        <f t="shared" si="21"/>
+        <v>6258</v>
+      </c>
+      <c r="W11" s="13">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="X11" s="14">
+        <f t="shared" si="21"/>
+        <v>28599</v>
+      </c>
+      <c r="Y11" s="14">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Z11" s="15">
+        <f t="shared" si="21"/>
+        <v>5367</v>
+      </c>
+      <c r="AA11" s="13">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="AB11" s="14">
+        <f t="shared" si="21"/>
+        <v>48210</v>
+      </c>
+      <c r="AC11" s="14">
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="T11" s="14">
-        <f t="shared" si="21"/>
-        <v>3301</v>
-      </c>
-      <c r="U11" s="14">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="V11" s="15">
-        <f t="shared" si="21"/>
-        <v>1568</v>
-      </c>
-      <c r="W11" s="13">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="X11" s="14">
-        <f t="shared" si="21"/>
-        <v>27327</v>
-      </c>
-      <c r="Y11" s="14">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="Z11" s="15">
-        <f t="shared" si="21"/>
-        <v>4095</v>
-      </c>
-      <c r="AA11" s="13">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="AB11" s="14">
-        <f t="shared" si="21"/>
-        <v>42737</v>
-      </c>
-      <c r="AC11" s="14">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
       <c r="AD11" s="15">
         <f t="shared" si="21"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE11" s="4">
         <f>SUM(C11,G11,K11,O11,S11,W11,AA11)-SUM(C12,G12,K12,O12,S12,W12,AA12)</f>
@@ -1400,7 +1413,7 @@
     </row>
     <row r="12" spans="1:37" hidden="1">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7">
         <v>42022</v>
@@ -1427,7 +1440,7 @@
       </c>
       <c r="H12" s="17">
         <f t="shared" si="20"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I12" s="17">
         <f t="shared" si="20"/>
@@ -1435,87 +1448,87 @@
       </c>
       <c r="J12" s="18">
         <f t="shared" si="20"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K12" s="16">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L12" s="17">
         <f t="shared" si="20"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M12" s="17">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N12" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O12" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P12" s="17">
         <f t="shared" si="20"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q12" s="17">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R12" s="18">
         <f t="shared" si="20"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S12" s="16">
         <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="T12" s="17">
+        <f t="shared" si="21"/>
+        <v>7991</v>
+      </c>
+      <c r="U12" s="17">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="V12" s="18">
+        <f t="shared" si="21"/>
+        <v>6258</v>
+      </c>
+      <c r="W12" s="16">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="X12" s="17">
+        <f t="shared" si="21"/>
+        <v>28599</v>
+      </c>
+      <c r="Y12" s="17">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Z12" s="18">
+        <f t="shared" si="21"/>
+        <v>5367</v>
+      </c>
+      <c r="AA12" s="16">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="AB12" s="17">
+        <f t="shared" si="21"/>
+        <v>48210</v>
+      </c>
+      <c r="AC12" s="17">
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="T12" s="17">
-        <f t="shared" si="21"/>
-        <v>3301</v>
-      </c>
-      <c r="U12" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="V12" s="18">
-        <f t="shared" si="21"/>
-        <v>1568</v>
-      </c>
-      <c r="W12" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="X12" s="17">
-        <f t="shared" si="21"/>
-        <v>27327</v>
-      </c>
-      <c r="Y12" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="Z12" s="18">
-        <f t="shared" si="21"/>
-        <v>4095</v>
-      </c>
-      <c r="AA12" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="AB12" s="17">
-        <f t="shared" si="21"/>
-        <v>42737</v>
-      </c>
-      <c r="AC12" s="17">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
       <c r="AD12" s="18">
         <f t="shared" si="21"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE12" s="4">
         <f t="shared" ref="AE12:AF27" si="22">SUM(C12,G12,K12,O12,S12,W12,AA12)-SUM(C13,G13,K13,O13,S13,W13,AA13)</f>
@@ -1528,7 +1541,7 @@
     </row>
     <row r="13" spans="1:37" hidden="1">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="7">
         <v>42021</v>
@@ -1555,7 +1568,7 @@
       </c>
       <c r="H13" s="17">
         <f t="shared" si="20"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I13" s="17">
         <f t="shared" si="20"/>
@@ -1563,87 +1576,87 @@
       </c>
       <c r="J13" s="18">
         <f t="shared" si="20"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K13" s="16">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L13" s="17">
         <f t="shared" si="20"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M13" s="17">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N13" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O13" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P13" s="17">
         <f t="shared" si="20"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q13" s="17">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R13" s="18">
         <f t="shared" si="20"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S13" s="16">
         <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="T13" s="17">
+        <f t="shared" si="21"/>
+        <v>7991</v>
+      </c>
+      <c r="U13" s="17">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="V13" s="18">
+        <f t="shared" si="21"/>
+        <v>6258</v>
+      </c>
+      <c r="W13" s="16">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="X13" s="17">
+        <f t="shared" si="21"/>
+        <v>28599</v>
+      </c>
+      <c r="Y13" s="17">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Z13" s="18">
+        <f t="shared" si="21"/>
+        <v>5367</v>
+      </c>
+      <c r="AA13" s="16">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="AB13" s="17">
+        <f t="shared" si="21"/>
+        <v>48210</v>
+      </c>
+      <c r="AC13" s="17">
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="T13" s="17">
-        <f t="shared" si="21"/>
-        <v>3301</v>
-      </c>
-      <c r="U13" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="V13" s="18">
-        <f t="shared" si="21"/>
-        <v>1568</v>
-      </c>
-      <c r="W13" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="X13" s="17">
-        <f t="shared" si="21"/>
-        <v>27327</v>
-      </c>
-      <c r="Y13" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="Z13" s="18">
-        <f t="shared" si="21"/>
-        <v>4095</v>
-      </c>
-      <c r="AA13" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="AB13" s="17">
-        <f t="shared" si="21"/>
-        <v>42737</v>
-      </c>
-      <c r="AC13" s="17">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
       <c r="AD13" s="18">
         <f t="shared" si="21"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE13" s="4">
         <f t="shared" si="22"/>
@@ -1656,7 +1669,7 @@
     </row>
     <row r="14" spans="1:37" hidden="1">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="7">
         <v>42020</v>
@@ -1683,7 +1696,7 @@
       </c>
       <c r="H14" s="17">
         <f t="shared" si="20"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I14" s="17">
         <f t="shared" si="20"/>
@@ -1691,87 +1704,87 @@
       </c>
       <c r="J14" s="18">
         <f t="shared" si="20"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K14" s="16">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L14" s="17">
         <f t="shared" si="20"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M14" s="17">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N14" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O14" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P14" s="17">
         <f t="shared" si="20"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q14" s="17">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R14" s="18">
         <f t="shared" si="20"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S14" s="16">
         <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="T14" s="17">
+        <f t="shared" si="21"/>
+        <v>7991</v>
+      </c>
+      <c r="U14" s="17">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="V14" s="18">
+        <f t="shared" si="21"/>
+        <v>6258</v>
+      </c>
+      <c r="W14" s="16">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="X14" s="17">
+        <f t="shared" si="21"/>
+        <v>28599</v>
+      </c>
+      <c r="Y14" s="17">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Z14" s="18">
+        <f t="shared" si="21"/>
+        <v>5367</v>
+      </c>
+      <c r="AA14" s="16">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="AB14" s="17">
+        <f t="shared" si="21"/>
+        <v>48210</v>
+      </c>
+      <c r="AC14" s="17">
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="T14" s="17">
-        <f t="shared" si="21"/>
-        <v>3301</v>
-      </c>
-      <c r="U14" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="V14" s="18">
-        <f t="shared" si="21"/>
-        <v>1568</v>
-      </c>
-      <c r="W14" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="X14" s="17">
-        <f t="shared" si="21"/>
-        <v>27327</v>
-      </c>
-      <c r="Y14" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="Z14" s="18">
-        <f t="shared" si="21"/>
-        <v>4095</v>
-      </c>
-      <c r="AA14" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="AB14" s="17">
-        <f t="shared" si="21"/>
-        <v>42737</v>
-      </c>
-      <c r="AC14" s="17">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
       <c r="AD14" s="18">
         <f t="shared" si="21"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE14" s="4">
         <f t="shared" si="22"/>
@@ -1784,7 +1797,7 @@
     </row>
     <row r="15" spans="1:37" hidden="1">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="7">
         <v>42019</v>
@@ -1811,7 +1824,7 @@
       </c>
       <c r="H15" s="17">
         <f t="shared" si="20"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I15" s="17">
         <f t="shared" si="20"/>
@@ -1819,87 +1832,87 @@
       </c>
       <c r="J15" s="18">
         <f t="shared" si="20"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K15" s="16">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L15" s="17">
         <f t="shared" si="20"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M15" s="17">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N15" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O15" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P15" s="17">
         <f t="shared" si="20"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q15" s="17">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R15" s="18">
         <f t="shared" si="20"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S15" s="16">
         <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="T15" s="17">
+        <f t="shared" si="21"/>
+        <v>7991</v>
+      </c>
+      <c r="U15" s="17">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="V15" s="18">
+        <f t="shared" si="21"/>
+        <v>6258</v>
+      </c>
+      <c r="W15" s="16">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="X15" s="17">
+        <f t="shared" si="21"/>
+        <v>28599</v>
+      </c>
+      <c r="Y15" s="17">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Z15" s="18">
+        <f t="shared" si="21"/>
+        <v>5367</v>
+      </c>
+      <c r="AA15" s="16">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="AB15" s="17">
+        <f t="shared" si="21"/>
+        <v>48210</v>
+      </c>
+      <c r="AC15" s="17">
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="T15" s="17">
-        <f t="shared" si="21"/>
-        <v>3301</v>
-      </c>
-      <c r="U15" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="V15" s="18">
-        <f t="shared" si="21"/>
-        <v>1568</v>
-      </c>
-      <c r="W15" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="X15" s="17">
-        <f t="shared" si="21"/>
-        <v>27327</v>
-      </c>
-      <c r="Y15" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="Z15" s="18">
-        <f t="shared" si="21"/>
-        <v>4095</v>
-      </c>
-      <c r="AA15" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="AB15" s="17">
-        <f t="shared" si="21"/>
-        <v>42737</v>
-      </c>
-      <c r="AC15" s="17">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
       <c r="AD15" s="18">
         <f t="shared" si="21"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE15" s="4">
         <f t="shared" si="22"/>
@@ -1912,7 +1925,7 @@
     </row>
     <row r="16" spans="1:37" hidden="1">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="7">
         <v>42018</v>
@@ -1939,7 +1952,7 @@
       </c>
       <c r="H16" s="17">
         <f t="shared" si="20"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I16" s="17">
         <f t="shared" si="20"/>
@@ -1947,87 +1960,87 @@
       </c>
       <c r="J16" s="18">
         <f t="shared" si="20"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K16" s="16">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L16" s="17">
         <f t="shared" si="20"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M16" s="17">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N16" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O16" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P16" s="17">
         <f t="shared" si="20"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q16" s="17">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R16" s="18">
         <f t="shared" si="20"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S16" s="16">
         <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="T16" s="17">
+        <f t="shared" si="21"/>
+        <v>7991</v>
+      </c>
+      <c r="U16" s="17">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="V16" s="18">
+        <f t="shared" si="21"/>
+        <v>6258</v>
+      </c>
+      <c r="W16" s="16">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="X16" s="17">
+        <f t="shared" si="21"/>
+        <v>28599</v>
+      </c>
+      <c r="Y16" s="17">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Z16" s="18">
+        <f t="shared" si="21"/>
+        <v>5367</v>
+      </c>
+      <c r="AA16" s="16">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="AB16" s="17">
+        <f t="shared" si="21"/>
+        <v>48210</v>
+      </c>
+      <c r="AC16" s="17">
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="T16" s="17">
-        <f t="shared" si="21"/>
-        <v>3301</v>
-      </c>
-      <c r="U16" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="V16" s="18">
-        <f t="shared" si="21"/>
-        <v>1568</v>
-      </c>
-      <c r="W16" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="X16" s="17">
-        <f t="shared" si="21"/>
-        <v>27327</v>
-      </c>
-      <c r="Y16" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="Z16" s="18">
-        <f t="shared" si="21"/>
-        <v>4095</v>
-      </c>
-      <c r="AA16" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="AB16" s="17">
-        <f t="shared" si="21"/>
-        <v>42737</v>
-      </c>
-      <c r="AC16" s="17">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
       <c r="AD16" s="18">
         <f t="shared" si="21"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE16" s="4">
         <f t="shared" si="22"/>
@@ -2040,7 +2053,7 @@
     </row>
     <row r="17" spans="1:32" hidden="1">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="7">
         <v>42017</v>
@@ -2067,7 +2080,7 @@
       </c>
       <c r="H17" s="17">
         <f t="shared" si="20"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I17" s="17">
         <f t="shared" si="20"/>
@@ -2075,87 +2088,87 @@
       </c>
       <c r="J17" s="18">
         <f t="shared" si="20"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K17" s="16">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L17" s="17">
         <f t="shared" si="20"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M17" s="17">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N17" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O17" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P17" s="17">
         <f t="shared" si="20"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q17" s="17">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R17" s="18">
         <f t="shared" si="20"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S17" s="16">
         <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="T17" s="17">
+        <f t="shared" si="21"/>
+        <v>7991</v>
+      </c>
+      <c r="U17" s="17">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="V17" s="18">
+        <f t="shared" si="21"/>
+        <v>6258</v>
+      </c>
+      <c r="W17" s="16">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="X17" s="17">
+        <f t="shared" si="21"/>
+        <v>28599</v>
+      </c>
+      <c r="Y17" s="17">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Z17" s="18">
+        <f t="shared" si="21"/>
+        <v>5367</v>
+      </c>
+      <c r="AA17" s="16">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="AB17" s="17">
+        <f t="shared" si="21"/>
+        <v>48210</v>
+      </c>
+      <c r="AC17" s="17">
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="T17" s="17">
-        <f t="shared" si="21"/>
-        <v>3301</v>
-      </c>
-      <c r="U17" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="V17" s="18">
-        <f t="shared" si="21"/>
-        <v>1568</v>
-      </c>
-      <c r="W17" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="X17" s="17">
-        <f t="shared" si="21"/>
-        <v>27327</v>
-      </c>
-      <c r="Y17" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="Z17" s="18">
-        <f t="shared" si="21"/>
-        <v>4095</v>
-      </c>
-      <c r="AA17" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="AB17" s="17">
-        <f t="shared" si="21"/>
-        <v>42737</v>
-      </c>
-      <c r="AC17" s="17">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
       <c r="AD17" s="18">
         <f t="shared" si="21"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE17" s="4">
         <f t="shared" si="22"/>
@@ -2168,7 +2181,7 @@
     </row>
     <row r="18" spans="1:32" hidden="1">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="7">
         <v>42016</v>
@@ -2195,7 +2208,7 @@
       </c>
       <c r="H18" s="17">
         <f t="shared" si="20"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I18" s="17">
         <f t="shared" si="20"/>
@@ -2203,87 +2216,87 @@
       </c>
       <c r="J18" s="18">
         <f t="shared" si="20"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K18" s="16">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L18" s="17">
         <f t="shared" si="20"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M18" s="17">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N18" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O18" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P18" s="17">
         <f t="shared" si="20"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q18" s="17">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R18" s="18">
         <f t="shared" si="20"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S18" s="16">
         <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="T18" s="17">
+        <f t="shared" si="21"/>
+        <v>7991</v>
+      </c>
+      <c r="U18" s="17">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="V18" s="18">
+        <f t="shared" si="21"/>
+        <v>6258</v>
+      </c>
+      <c r="W18" s="16">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="X18" s="17">
+        <f t="shared" si="21"/>
+        <v>28599</v>
+      </c>
+      <c r="Y18" s="17">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Z18" s="18">
+        <f t="shared" si="21"/>
+        <v>5367</v>
+      </c>
+      <c r="AA18" s="16">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="AB18" s="17">
+        <f t="shared" si="21"/>
+        <v>48210</v>
+      </c>
+      <c r="AC18" s="17">
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="T18" s="17">
-        <f t="shared" si="21"/>
-        <v>3301</v>
-      </c>
-      <c r="U18" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="V18" s="18">
-        <f t="shared" si="21"/>
-        <v>1568</v>
-      </c>
-      <c r="W18" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="X18" s="17">
-        <f t="shared" si="21"/>
-        <v>27327</v>
-      </c>
-      <c r="Y18" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="Z18" s="18">
-        <f t="shared" si="21"/>
-        <v>4095</v>
-      </c>
-      <c r="AA18" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="AB18" s="17">
-        <f t="shared" si="21"/>
-        <v>42737</v>
-      </c>
-      <c r="AC18" s="17">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
       <c r="AD18" s="18">
         <f t="shared" si="21"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE18" s="4">
         <f t="shared" si="22"/>
@@ -2296,7 +2309,7 @@
     </row>
     <row r="19" spans="1:32" hidden="1">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="7">
         <v>42015</v>
@@ -2323,7 +2336,7 @@
       </c>
       <c r="H19" s="17">
         <f t="shared" si="20"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I19" s="17">
         <f t="shared" si="20"/>
@@ -2331,87 +2344,87 @@
       </c>
       <c r="J19" s="18">
         <f t="shared" si="20"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K19" s="16">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L19" s="17">
         <f t="shared" si="20"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M19" s="17">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N19" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O19" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P19" s="17">
         <f t="shared" si="20"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q19" s="17">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R19" s="18">
         <f t="shared" si="20"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S19" s="16">
         <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="T19" s="17">
+        <f t="shared" si="21"/>
+        <v>7991</v>
+      </c>
+      <c r="U19" s="17">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="V19" s="18">
+        <f t="shared" si="21"/>
+        <v>6258</v>
+      </c>
+      <c r="W19" s="16">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="X19" s="17">
+        <f t="shared" si="21"/>
+        <v>28599</v>
+      </c>
+      <c r="Y19" s="17">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Z19" s="18">
+        <f t="shared" si="21"/>
+        <v>5367</v>
+      </c>
+      <c r="AA19" s="16">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="AB19" s="17">
+        <f t="shared" si="21"/>
+        <v>48210</v>
+      </c>
+      <c r="AC19" s="17">
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="T19" s="17">
-        <f t="shared" si="21"/>
-        <v>3301</v>
-      </c>
-      <c r="U19" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="V19" s="18">
-        <f t="shared" si="21"/>
-        <v>1568</v>
-      </c>
-      <c r="W19" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="X19" s="17">
-        <f t="shared" si="21"/>
-        <v>27327</v>
-      </c>
-      <c r="Y19" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="Z19" s="18">
-        <f t="shared" si="21"/>
-        <v>4095</v>
-      </c>
-      <c r="AA19" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="AB19" s="17">
-        <f t="shared" si="21"/>
-        <v>42737</v>
-      </c>
-      <c r="AC19" s="17">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
       <c r="AD19" s="18">
         <f t="shared" si="21"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE19" s="4">
         <f t="shared" si="22"/>
@@ -2424,7 +2437,7 @@
     </row>
     <row r="20" spans="1:32" hidden="1">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="7">
         <v>42014</v>
@@ -2451,7 +2464,7 @@
       </c>
       <c r="H20" s="17">
         <f t="shared" si="20"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I20" s="17">
         <f t="shared" si="20"/>
@@ -2459,87 +2472,87 @@
       </c>
       <c r="J20" s="18">
         <f t="shared" si="20"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K20" s="16">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L20" s="17">
         <f t="shared" si="20"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M20" s="17">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N20" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O20" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P20" s="17">
         <f t="shared" si="20"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q20" s="17">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R20" s="18">
         <f t="shared" si="20"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S20" s="16">
         <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="T20" s="17">
+        <f t="shared" si="21"/>
+        <v>7991</v>
+      </c>
+      <c r="U20" s="17">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="V20" s="18">
+        <f t="shared" si="21"/>
+        <v>6258</v>
+      </c>
+      <c r="W20" s="16">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="X20" s="17">
+        <f t="shared" si="21"/>
+        <v>28599</v>
+      </c>
+      <c r="Y20" s="17">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Z20" s="18">
+        <f t="shared" si="21"/>
+        <v>5367</v>
+      </c>
+      <c r="AA20" s="16">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="AB20" s="17">
+        <f t="shared" si="21"/>
+        <v>48210</v>
+      </c>
+      <c r="AC20" s="17">
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="T20" s="17">
-        <f t="shared" si="21"/>
-        <v>3301</v>
-      </c>
-      <c r="U20" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="V20" s="18">
-        <f t="shared" si="21"/>
-        <v>1568</v>
-      </c>
-      <c r="W20" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="X20" s="17">
-        <f t="shared" si="21"/>
-        <v>27327</v>
-      </c>
-      <c r="Y20" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="Z20" s="18">
-        <f t="shared" si="21"/>
-        <v>4095</v>
-      </c>
-      <c r="AA20" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="AB20" s="17">
-        <f t="shared" si="21"/>
-        <v>42737</v>
-      </c>
-      <c r="AC20" s="17">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
       <c r="AD20" s="18">
         <f t="shared" si="21"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE20" s="4">
         <f t="shared" si="22"/>
@@ -2552,7 +2565,7 @@
     </row>
     <row r="21" spans="1:32" hidden="1">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="7">
         <v>42013</v>
@@ -2579,7 +2592,7 @@
       </c>
       <c r="H21" s="17">
         <f t="shared" si="20"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I21" s="17">
         <f t="shared" si="20"/>
@@ -2587,87 +2600,87 @@
       </c>
       <c r="J21" s="18">
         <f t="shared" si="20"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K21" s="16">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L21" s="17">
         <f t="shared" si="20"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M21" s="17">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N21" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O21" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P21" s="17">
         <f t="shared" si="20"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q21" s="17">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R21" s="18">
         <f t="shared" si="20"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S21" s="16">
         <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="T21" s="17">
+        <f t="shared" si="21"/>
+        <v>7991</v>
+      </c>
+      <c r="U21" s="17">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="V21" s="18">
+        <f t="shared" si="21"/>
+        <v>6258</v>
+      </c>
+      <c r="W21" s="16">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="X21" s="17">
+        <f t="shared" si="21"/>
+        <v>28599</v>
+      </c>
+      <c r="Y21" s="17">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Z21" s="18">
+        <f t="shared" si="21"/>
+        <v>5367</v>
+      </c>
+      <c r="AA21" s="16">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="AB21" s="17">
+        <f t="shared" si="21"/>
+        <v>48210</v>
+      </c>
+      <c r="AC21" s="17">
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="T21" s="17">
-        <f t="shared" si="21"/>
-        <v>3301</v>
-      </c>
-      <c r="U21" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="V21" s="18">
-        <f t="shared" si="21"/>
-        <v>1568</v>
-      </c>
-      <c r="W21" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="X21" s="17">
-        <f t="shared" si="21"/>
-        <v>27327</v>
-      </c>
-      <c r="Y21" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="Z21" s="18">
-        <f t="shared" si="21"/>
-        <v>4095</v>
-      </c>
-      <c r="AA21" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="AB21" s="17">
-        <f t="shared" si="21"/>
-        <v>42737</v>
-      </c>
-      <c r="AC21" s="17">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
       <c r="AD21" s="18">
         <f t="shared" si="21"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE21" s="4">
         <f t="shared" si="22"/>
@@ -2680,7 +2693,7 @@
     </row>
     <row r="22" spans="1:32" hidden="1">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="7">
         <v>42012</v>
@@ -2707,7 +2720,7 @@
       </c>
       <c r="H22" s="17">
         <f t="shared" si="20"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I22" s="17">
         <f t="shared" si="20"/>
@@ -2715,87 +2728,87 @@
       </c>
       <c r="J22" s="18">
         <f t="shared" si="20"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K22" s="16">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L22" s="17">
         <f t="shared" si="20"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M22" s="17">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N22" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O22" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P22" s="17">
         <f t="shared" si="20"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q22" s="17">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R22" s="18">
         <f t="shared" si="20"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S22" s="16">
         <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="T22" s="17">
+        <f t="shared" si="21"/>
+        <v>7991</v>
+      </c>
+      <c r="U22" s="17">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="V22" s="18">
+        <f t="shared" si="21"/>
+        <v>6258</v>
+      </c>
+      <c r="W22" s="16">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="X22" s="17">
+        <f t="shared" si="21"/>
+        <v>28599</v>
+      </c>
+      <c r="Y22" s="17">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Z22" s="18">
+        <f t="shared" si="21"/>
+        <v>5367</v>
+      </c>
+      <c r="AA22" s="16">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="AB22" s="17">
+        <f t="shared" si="21"/>
+        <v>48210</v>
+      </c>
+      <c r="AC22" s="17">
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="T22" s="17">
-        <f t="shared" si="21"/>
-        <v>3301</v>
-      </c>
-      <c r="U22" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="V22" s="18">
-        <f t="shared" si="21"/>
-        <v>1568</v>
-      </c>
-      <c r="W22" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="X22" s="17">
-        <f t="shared" si="21"/>
-        <v>27327</v>
-      </c>
-      <c r="Y22" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="Z22" s="18">
-        <f t="shared" si="21"/>
-        <v>4095</v>
-      </c>
-      <c r="AA22" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="AB22" s="17">
-        <f t="shared" si="21"/>
-        <v>42737</v>
-      </c>
-      <c r="AC22" s="17">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
       <c r="AD22" s="18">
         <f t="shared" si="21"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE22" s="4">
         <f t="shared" si="22"/>
@@ -2808,7 +2821,7 @@
     </row>
     <row r="23" spans="1:32" hidden="1">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="7">
         <v>42011</v>
@@ -2835,7 +2848,7 @@
       </c>
       <c r="H23" s="17">
         <f t="shared" si="20"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I23" s="17">
         <f t="shared" si="20"/>
@@ -2843,87 +2856,87 @@
       </c>
       <c r="J23" s="18">
         <f t="shared" si="20"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K23" s="16">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L23" s="17">
         <f t="shared" si="20"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M23" s="17">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N23" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O23" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P23" s="17">
         <f t="shared" si="20"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q23" s="17">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R23" s="18">
         <f t="shared" si="20"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S23" s="16">
         <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="T23" s="17">
+        <f t="shared" si="21"/>
+        <v>7991</v>
+      </c>
+      <c r="U23" s="17">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="V23" s="18">
+        <f t="shared" si="21"/>
+        <v>6258</v>
+      </c>
+      <c r="W23" s="16">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="X23" s="17">
+        <f t="shared" si="21"/>
+        <v>28599</v>
+      </c>
+      <c r="Y23" s="17">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Z23" s="18">
+        <f t="shared" si="21"/>
+        <v>5367</v>
+      </c>
+      <c r="AA23" s="16">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="AB23" s="17">
+        <f t="shared" si="21"/>
+        <v>48210</v>
+      </c>
+      <c r="AC23" s="17">
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="T23" s="17">
-        <f t="shared" si="21"/>
-        <v>3301</v>
-      </c>
-      <c r="U23" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="V23" s="18">
-        <f t="shared" si="21"/>
-        <v>1568</v>
-      </c>
-      <c r="W23" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="X23" s="17">
-        <f t="shared" si="21"/>
-        <v>27327</v>
-      </c>
-      <c r="Y23" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="Z23" s="18">
-        <f t="shared" si="21"/>
-        <v>4095</v>
-      </c>
-      <c r="AA23" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="AB23" s="17">
-        <f t="shared" si="21"/>
-        <v>42737</v>
-      </c>
-      <c r="AC23" s="17">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
       <c r="AD23" s="18">
         <f t="shared" si="21"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE23" s="4">
         <f t="shared" si="22"/>
@@ -2936,7 +2949,7 @@
     </row>
     <row r="24" spans="1:32" hidden="1">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="7">
         <v>42010</v>
@@ -2963,7 +2976,7 @@
       </c>
       <c r="H24" s="17">
         <f t="shared" si="20"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I24" s="17">
         <f t="shared" si="20"/>
@@ -2971,87 +2984,87 @@
       </c>
       <c r="J24" s="18">
         <f t="shared" si="20"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K24" s="16">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L24" s="17">
         <f t="shared" si="20"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M24" s="17">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N24" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O24" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P24" s="17">
         <f t="shared" si="20"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q24" s="17">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R24" s="18">
         <f t="shared" si="20"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S24" s="16">
         <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="T24" s="17">
+        <f t="shared" si="21"/>
+        <v>7991</v>
+      </c>
+      <c r="U24" s="17">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="V24" s="18">
+        <f t="shared" si="21"/>
+        <v>6258</v>
+      </c>
+      <c r="W24" s="16">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="X24" s="17">
+        <f t="shared" si="21"/>
+        <v>28599</v>
+      </c>
+      <c r="Y24" s="17">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Z24" s="18">
+        <f t="shared" si="21"/>
+        <v>5367</v>
+      </c>
+      <c r="AA24" s="16">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="AB24" s="17">
+        <f t="shared" si="21"/>
+        <v>48210</v>
+      </c>
+      <c r="AC24" s="17">
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="T24" s="17">
-        <f t="shared" si="21"/>
-        <v>3301</v>
-      </c>
-      <c r="U24" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="V24" s="18">
-        <f t="shared" si="21"/>
-        <v>1568</v>
-      </c>
-      <c r="W24" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="X24" s="17">
-        <f t="shared" si="21"/>
-        <v>27327</v>
-      </c>
-      <c r="Y24" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="Z24" s="18">
-        <f t="shared" si="21"/>
-        <v>4095</v>
-      </c>
-      <c r="AA24" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="AB24" s="17">
-        <f t="shared" si="21"/>
-        <v>42737</v>
-      </c>
-      <c r="AC24" s="17">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
       <c r="AD24" s="18">
         <f t="shared" si="21"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE24" s="4">
         <f t="shared" si="22"/>
@@ -3064,7 +3077,7 @@
     </row>
     <row r="25" spans="1:32" hidden="1">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="7">
         <v>42009</v>
@@ -3091,7 +3104,7 @@
       </c>
       <c r="H25" s="17">
         <f t="shared" si="20"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I25" s="17">
         <f t="shared" si="20"/>
@@ -3099,87 +3112,87 @@
       </c>
       <c r="J25" s="18">
         <f t="shared" si="20"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K25" s="16">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L25" s="17">
         <f t="shared" si="20"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M25" s="17">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N25" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O25" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P25" s="17">
         <f t="shared" si="20"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q25" s="17">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R25" s="18">
         <f t="shared" si="20"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S25" s="16">
         <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="T25" s="17">
+        <f t="shared" si="21"/>
+        <v>7991</v>
+      </c>
+      <c r="U25" s="17">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="V25" s="18">
+        <f t="shared" si="21"/>
+        <v>6258</v>
+      </c>
+      <c r="W25" s="16">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="X25" s="17">
+        <f t="shared" si="21"/>
+        <v>28599</v>
+      </c>
+      <c r="Y25" s="17">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Z25" s="18">
+        <f t="shared" si="21"/>
+        <v>5367</v>
+      </c>
+      <c r="AA25" s="16">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="AB25" s="17">
+        <f t="shared" si="21"/>
+        <v>48210</v>
+      </c>
+      <c r="AC25" s="17">
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="T25" s="17">
-        <f t="shared" si="21"/>
-        <v>3301</v>
-      </c>
-      <c r="U25" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="V25" s="18">
-        <f t="shared" si="21"/>
-        <v>1568</v>
-      </c>
-      <c r="W25" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="X25" s="17">
-        <f t="shared" si="21"/>
-        <v>27327</v>
-      </c>
-      <c r="Y25" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="Z25" s="18">
-        <f t="shared" si="21"/>
-        <v>4095</v>
-      </c>
-      <c r="AA25" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="AB25" s="17">
-        <f t="shared" si="21"/>
-        <v>42737</v>
-      </c>
-      <c r="AC25" s="17">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
       <c r="AD25" s="18">
         <f t="shared" si="21"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE25" s="4">
         <f t="shared" si="22"/>
@@ -3192,7 +3205,7 @@
     </row>
     <row r="26" spans="1:32" hidden="1">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="7">
         <v>42008</v>
@@ -3219,7 +3232,7 @@
       </c>
       <c r="H26" s="17">
         <f t="shared" si="20"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I26" s="17">
         <f t="shared" si="20"/>
@@ -3227,87 +3240,87 @@
       </c>
       <c r="J26" s="18">
         <f t="shared" si="20"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K26" s="16">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L26" s="17">
         <f t="shared" si="20"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M26" s="17">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N26" s="18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O26" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P26" s="17">
         <f t="shared" si="20"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q26" s="17">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R26" s="18">
-        <f t="shared" ref="R26:W40" si="23">R27</f>
-        <v>4488</v>
+        <f t="shared" ref="R26:U39" si="23">R27</f>
+        <v>8516</v>
       </c>
       <c r="S26" s="16">
         <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="T26" s="17">
+        <f t="shared" si="21"/>
+        <v>7991</v>
+      </c>
+      <c r="U26" s="17">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="V26" s="18">
+        <f t="shared" si="21"/>
+        <v>6258</v>
+      </c>
+      <c r="W26" s="16">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="X26" s="17">
+        <f t="shared" si="21"/>
+        <v>28599</v>
+      </c>
+      <c r="Y26" s="17">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Z26" s="18">
+        <f t="shared" si="21"/>
+        <v>5367</v>
+      </c>
+      <c r="AA26" s="16">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="AB26" s="17">
+        <f t="shared" si="21"/>
+        <v>48210</v>
+      </c>
+      <c r="AC26" s="17">
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="T26" s="17">
-        <f t="shared" si="21"/>
-        <v>3301</v>
-      </c>
-      <c r="U26" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="V26" s="18">
-        <f t="shared" si="21"/>
-        <v>1568</v>
-      </c>
-      <c r="W26" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="X26" s="17">
-        <f t="shared" si="21"/>
-        <v>27327</v>
-      </c>
-      <c r="Y26" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="Z26" s="18">
-        <f t="shared" si="21"/>
-        <v>4095</v>
-      </c>
-      <c r="AA26" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="AB26" s="17">
-        <f t="shared" si="21"/>
-        <v>42737</v>
-      </c>
-      <c r="AC26" s="17">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
       <c r="AD26" s="18">
         <f t="shared" si="21"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE26" s="4">
         <f t="shared" si="22"/>
@@ -3320,7 +3333,7 @@
     </row>
     <row r="27" spans="1:32" hidden="1">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="7">
         <v>42007</v>
@@ -3347,7 +3360,7 @@
       </c>
       <c r="H27" s="17">
         <f t="shared" si="24"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I27" s="17">
         <f t="shared" si="24"/>
@@ -3355,87 +3368,87 @@
       </c>
       <c r="J27" s="18">
         <f t="shared" si="24"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K27" s="16">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L27" s="17">
         <f t="shared" si="24"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M27" s="17">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N27" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O27" s="16">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P27" s="17">
         <f t="shared" si="24"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q27" s="17">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R27" s="18">
         <f t="shared" si="23"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S27" s="16">
         <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="T27" s="17">
+        <f t="shared" si="21"/>
+        <v>7991</v>
+      </c>
+      <c r="U27" s="17">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="V27" s="18">
+        <f t="shared" si="21"/>
+        <v>6258</v>
+      </c>
+      <c r="W27" s="16">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="X27" s="17">
+        <f t="shared" si="21"/>
+        <v>28599</v>
+      </c>
+      <c r="Y27" s="17">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Z27" s="18">
+        <f t="shared" si="21"/>
+        <v>5367</v>
+      </c>
+      <c r="AA27" s="16">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="AB27" s="17">
+        <f t="shared" si="21"/>
+        <v>48210</v>
+      </c>
+      <c r="AC27" s="17">
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="T27" s="17">
-        <f t="shared" si="21"/>
-        <v>3301</v>
-      </c>
-      <c r="U27" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="V27" s="18">
-        <f t="shared" si="21"/>
-        <v>1568</v>
-      </c>
-      <c r="W27" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="X27" s="17">
-        <f t="shared" si="21"/>
-        <v>27327</v>
-      </c>
-      <c r="Y27" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="Z27" s="18">
-        <f t="shared" si="21"/>
-        <v>4095</v>
-      </c>
-      <c r="AA27" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="AB27" s="17">
-        <f t="shared" si="21"/>
-        <v>42737</v>
-      </c>
-      <c r="AC27" s="17">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
       <c r="AD27" s="18">
         <f t="shared" si="21"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE27" s="4">
         <f t="shared" si="22"/>
@@ -3448,7 +3461,7 @@
     </row>
     <row r="28" spans="1:32" hidden="1">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="7">
         <v>42006</v>
@@ -3475,7 +3488,7 @@
       </c>
       <c r="H28" s="17">
         <f t="shared" si="24"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I28" s="17">
         <f t="shared" si="24"/>
@@ -3483,87 +3496,87 @@
       </c>
       <c r="J28" s="18">
         <f t="shared" si="24"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K28" s="16">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L28" s="17">
         <f t="shared" si="24"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M28" s="17">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N28" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O28" s="16">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P28" s="17">
         <f t="shared" si="24"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q28" s="17">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R28" s="18">
         <f t="shared" si="23"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S28" s="16">
         <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="T28" s="17">
+        <f t="shared" si="21"/>
+        <v>7991</v>
+      </c>
+      <c r="U28" s="17">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="V28" s="18">
+        <f t="shared" si="21"/>
+        <v>6258</v>
+      </c>
+      <c r="W28" s="16">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="X28" s="17">
+        <f t="shared" si="21"/>
+        <v>28599</v>
+      </c>
+      <c r="Y28" s="17">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Z28" s="18">
+        <f t="shared" si="21"/>
+        <v>5367</v>
+      </c>
+      <c r="AA28" s="16">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="AB28" s="17">
+        <f t="shared" si="21"/>
+        <v>48210</v>
+      </c>
+      <c r="AC28" s="17">
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="T28" s="17">
-        <f t="shared" si="21"/>
-        <v>3301</v>
-      </c>
-      <c r="U28" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="V28" s="18">
-        <f t="shared" si="21"/>
-        <v>1568</v>
-      </c>
-      <c r="W28" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="X28" s="17">
-        <f t="shared" si="21"/>
-        <v>27327</v>
-      </c>
-      <c r="Y28" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="Z28" s="18">
-        <f t="shared" si="21"/>
-        <v>4095</v>
-      </c>
-      <c r="AA28" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="AB28" s="17">
-        <f t="shared" si="21"/>
-        <v>42737</v>
-      </c>
-      <c r="AC28" s="17">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
       <c r="AD28" s="18">
         <f t="shared" si="21"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE28" s="4">
         <f t="shared" ref="AE28:AF44" si="25">SUM(C28,G28,K28,O28,S28,W28,AA28)-SUM(C29,G29,K29,O29,S29,W29,AA29)</f>
@@ -3576,7 +3589,7 @@
     </row>
     <row r="29" spans="1:32" hidden="1">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="7">
         <v>42005</v>
@@ -3603,7 +3616,7 @@
       </c>
       <c r="H29" s="17">
         <f t="shared" si="24"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I29" s="17">
         <f t="shared" si="24"/>
@@ -3611,87 +3624,87 @@
       </c>
       <c r="J29" s="18">
         <f t="shared" si="24"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K29" s="16">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L29" s="17">
         <f t="shared" si="24"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M29" s="17">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N29" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O29" s="16">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P29" s="17">
         <f t="shared" si="24"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q29" s="17">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R29" s="18">
         <f t="shared" si="23"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S29" s="16">
         <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="T29" s="17">
+        <f t="shared" si="21"/>
+        <v>7991</v>
+      </c>
+      <c r="U29" s="17">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="V29" s="18">
+        <f t="shared" si="21"/>
+        <v>6258</v>
+      </c>
+      <c r="W29" s="16">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="X29" s="17">
+        <f t="shared" si="21"/>
+        <v>28599</v>
+      </c>
+      <c r="Y29" s="17">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Z29" s="18">
+        <f t="shared" si="21"/>
+        <v>5367</v>
+      </c>
+      <c r="AA29" s="16">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="AB29" s="17">
+        <f t="shared" si="21"/>
+        <v>48210</v>
+      </c>
+      <c r="AC29" s="17">
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="T29" s="17">
-        <f t="shared" si="21"/>
-        <v>3301</v>
-      </c>
-      <c r="U29" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="V29" s="18">
-        <f t="shared" si="21"/>
-        <v>1568</v>
-      </c>
-      <c r="W29" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="X29" s="17">
-        <f t="shared" si="21"/>
-        <v>27327</v>
-      </c>
-      <c r="Y29" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="Z29" s="18">
-        <f t="shared" si="21"/>
-        <v>4095</v>
-      </c>
-      <c r="AA29" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="AB29" s="17">
-        <f t="shared" si="21"/>
-        <v>42737</v>
-      </c>
-      <c r="AC29" s="17">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
       <c r="AD29" s="18">
         <f t="shared" si="21"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE29" s="4">
         <f t="shared" si="25"/>
@@ -3704,7 +3717,7 @@
     </row>
     <row r="30" spans="1:32" hidden="1">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="7">
         <v>42004</v>
@@ -3731,7 +3744,7 @@
       </c>
       <c r="H30" s="17">
         <f t="shared" si="24"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I30" s="17">
         <f t="shared" si="24"/>
@@ -3739,87 +3752,87 @@
       </c>
       <c r="J30" s="18">
         <f t="shared" si="24"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K30" s="16">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L30" s="17">
         <f t="shared" si="24"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M30" s="17">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N30" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O30" s="16">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P30" s="17">
         <f t="shared" si="24"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q30" s="17">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R30" s="18">
         <f t="shared" si="23"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S30" s="16">
         <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="T30" s="17">
+        <f t="shared" si="21"/>
+        <v>7991</v>
+      </c>
+      <c r="U30" s="17">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="V30" s="18">
+        <f t="shared" si="21"/>
+        <v>6258</v>
+      </c>
+      <c r="W30" s="16">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="X30" s="17">
+        <f t="shared" si="21"/>
+        <v>28599</v>
+      </c>
+      <c r="Y30" s="17">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Z30" s="18">
+        <f t="shared" si="21"/>
+        <v>5367</v>
+      </c>
+      <c r="AA30" s="16">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="AB30" s="17">
+        <f t="shared" si="21"/>
+        <v>48210</v>
+      </c>
+      <c r="AC30" s="17">
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="T30" s="17">
-        <f t="shared" si="21"/>
-        <v>3301</v>
-      </c>
-      <c r="U30" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="V30" s="18">
-        <f t="shared" si="21"/>
-        <v>1568</v>
-      </c>
-      <c r="W30" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="X30" s="17">
-        <f t="shared" si="21"/>
-        <v>27327</v>
-      </c>
-      <c r="Y30" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="Z30" s="18">
-        <f t="shared" si="21"/>
-        <v>4095</v>
-      </c>
-      <c r="AA30" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="AB30" s="17">
-        <f t="shared" si="21"/>
-        <v>42737</v>
-      </c>
-      <c r="AC30" s="17">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
       <c r="AD30" s="18">
         <f t="shared" si="21"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE30" s="4">
         <f t="shared" si="25"/>
@@ -3832,7 +3845,7 @@
     </row>
     <row r="31" spans="1:32" hidden="1">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="7">
         <v>42003</v>
@@ -3859,7 +3872,7 @@
       </c>
       <c r="H31" s="17">
         <f t="shared" si="24"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I31" s="17">
         <f t="shared" si="24"/>
@@ -3867,87 +3880,87 @@
       </c>
       <c r="J31" s="18">
         <f t="shared" si="24"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K31" s="16">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L31" s="17">
         <f t="shared" si="24"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M31" s="17">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N31" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O31" s="16">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P31" s="17">
         <f t="shared" si="24"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q31" s="17">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R31" s="18">
         <f t="shared" si="23"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S31" s="16">
         <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="T31" s="17">
+        <f t="shared" si="21"/>
+        <v>7991</v>
+      </c>
+      <c r="U31" s="17">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="V31" s="18">
+        <f t="shared" si="21"/>
+        <v>6258</v>
+      </c>
+      <c r="W31" s="16">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="X31" s="17">
+        <f t="shared" si="21"/>
+        <v>28599</v>
+      </c>
+      <c r="Y31" s="17">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Z31" s="18">
+        <f t="shared" si="21"/>
+        <v>5367</v>
+      </c>
+      <c r="AA31" s="16">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="AB31" s="17">
+        <f t="shared" si="21"/>
+        <v>48210</v>
+      </c>
+      <c r="AC31" s="17">
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="T31" s="17">
-        <f t="shared" si="21"/>
-        <v>3301</v>
-      </c>
-      <c r="U31" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="V31" s="18">
-        <f t="shared" si="21"/>
-        <v>1568</v>
-      </c>
-      <c r="W31" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="X31" s="17">
-        <f t="shared" si="21"/>
-        <v>27327</v>
-      </c>
-      <c r="Y31" s="17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="Z31" s="18">
-        <f t="shared" si="21"/>
-        <v>4095</v>
-      </c>
-      <c r="AA31" s="16">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="AB31" s="17">
-        <f t="shared" si="21"/>
-        <v>42737</v>
-      </c>
-      <c r="AC31" s="17">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
       <c r="AD31" s="18">
         <f t="shared" si="21"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE31" s="4">
         <f t="shared" si="25"/>
@@ -3960,7 +3973,7 @@
     </row>
     <row r="32" spans="1:32" hidden="1">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="7">
         <v>42002</v>
@@ -3987,7 +4000,7 @@
       </c>
       <c r="H32" s="17">
         <f t="shared" si="24"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I32" s="17">
         <f t="shared" si="24"/>
@@ -3995,55 +4008,55 @@
       </c>
       <c r="J32" s="18">
         <f t="shared" si="24"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K32" s="16">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L32" s="17">
         <f t="shared" si="24"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M32" s="17">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N32" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O32" s="16">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P32" s="17">
         <f t="shared" si="24"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q32" s="17">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R32" s="18">
         <f t="shared" si="23"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S32" s="16">
         <f t="shared" si="21"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T32" s="17">
         <f t="shared" si="21"/>
-        <v>3301</v>
+        <v>7991</v>
       </c>
       <c r="U32" s="17">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V32" s="18">
         <f t="shared" ref="V32:AD39" si="26">V33</f>
-        <v>1568</v>
+        <v>6258</v>
       </c>
       <c r="W32" s="16">
         <f t="shared" si="26"/>
@@ -4051,7 +4064,7 @@
       </c>
       <c r="X32" s="17">
         <f t="shared" si="26"/>
-        <v>27327</v>
+        <v>28599</v>
       </c>
       <c r="Y32" s="17">
         <f t="shared" si="26"/>
@@ -4059,23 +4072,23 @@
       </c>
       <c r="Z32" s="18">
         <f t="shared" si="26"/>
-        <v>4095</v>
+        <v>5367</v>
       </c>
       <c r="AA32" s="16">
         <f t="shared" si="26"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AB32" s="17">
         <f t="shared" si="26"/>
-        <v>42737</v>
+        <v>48210</v>
       </c>
       <c r="AC32" s="17">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD32" s="18">
         <f t="shared" si="26"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE32" s="4">
         <f t="shared" si="25"/>
@@ -4086,9 +4099,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:32" hidden="1">
+    <row r="33" spans="1:34" hidden="1">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="7">
         <v>42001</v>
@@ -4115,7 +4128,7 @@
       </c>
       <c r="H33" s="17">
         <f t="shared" si="24"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I33" s="17">
         <f t="shared" si="24"/>
@@ -4123,55 +4136,55 @@
       </c>
       <c r="J33" s="18">
         <f t="shared" si="24"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K33" s="16">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L33" s="17">
         <f t="shared" si="24"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M33" s="17">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N33" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O33" s="16">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P33" s="17">
         <f t="shared" si="24"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q33" s="17">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R33" s="18">
         <f t="shared" si="23"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S33" s="16">
         <f t="shared" si="23"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T33" s="17">
         <f t="shared" si="23"/>
-        <v>3301</v>
+        <v>7991</v>
       </c>
       <c r="U33" s="17">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V33" s="18">
         <f t="shared" si="26"/>
-        <v>1568</v>
+        <v>6258</v>
       </c>
       <c r="W33" s="16">
         <f t="shared" si="26"/>
@@ -4179,7 +4192,7 @@
       </c>
       <c r="X33" s="17">
         <f t="shared" si="26"/>
-        <v>27327</v>
+        <v>28599</v>
       </c>
       <c r="Y33" s="17">
         <f t="shared" si="26"/>
@@ -4187,23 +4200,23 @@
       </c>
       <c r="Z33" s="18">
         <f t="shared" si="26"/>
-        <v>4095</v>
+        <v>5367</v>
       </c>
       <c r="AA33" s="16">
         <f t="shared" si="26"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AB33" s="17">
         <f t="shared" si="26"/>
-        <v>42737</v>
+        <v>48210</v>
       </c>
       <c r="AC33" s="17">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD33" s="18">
         <f t="shared" si="26"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE33" s="4">
         <f t="shared" si="25"/>
@@ -4214,9 +4227,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:32" hidden="1">
+    <row r="34" spans="1:34" hidden="1">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34" s="7">
         <v>42000</v>
@@ -4243,7 +4256,7 @@
       </c>
       <c r="H34" s="17">
         <f t="shared" si="24"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I34" s="17">
         <f t="shared" si="24"/>
@@ -4251,55 +4264,55 @@
       </c>
       <c r="J34" s="18">
         <f t="shared" si="24"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K34" s="16">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L34" s="17">
         <f t="shared" si="24"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M34" s="17">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N34" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O34" s="16">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P34" s="17">
         <f t="shared" si="24"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q34" s="17">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R34" s="18">
         <f t="shared" si="23"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S34" s="16">
         <f t="shared" si="23"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T34" s="17">
         <f t="shared" si="23"/>
-        <v>3301</v>
+        <v>7991</v>
       </c>
       <c r="U34" s="17">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V34" s="18">
         <f t="shared" si="26"/>
-        <v>1568</v>
+        <v>6258</v>
       </c>
       <c r="W34" s="16">
         <f t="shared" si="26"/>
@@ -4307,7 +4320,7 @@
       </c>
       <c r="X34" s="17">
         <f t="shared" si="26"/>
-        <v>27327</v>
+        <v>28599</v>
       </c>
       <c r="Y34" s="17">
         <f t="shared" si="26"/>
@@ -4315,23 +4328,23 @@
       </c>
       <c r="Z34" s="18">
         <f t="shared" si="26"/>
-        <v>4095</v>
+        <v>5367</v>
       </c>
       <c r="AA34" s="16">
         <f t="shared" si="26"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AB34" s="17">
         <f t="shared" si="26"/>
-        <v>42737</v>
+        <v>48210</v>
       </c>
       <c r="AC34" s="17">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD34" s="18">
         <f t="shared" si="26"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE34" s="4">
         <f t="shared" si="25"/>
@@ -4342,9 +4355,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:32" hidden="1">
+    <row r="35" spans="1:34" hidden="1">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="7">
         <v>41999</v>
@@ -4371,7 +4384,7 @@
       </c>
       <c r="H35" s="17">
         <f t="shared" si="24"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I35" s="17">
         <f t="shared" si="24"/>
@@ -4379,55 +4392,55 @@
       </c>
       <c r="J35" s="18">
         <f t="shared" si="24"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K35" s="16">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L35" s="17">
         <f t="shared" si="24"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M35" s="17">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N35" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O35" s="16">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P35" s="17">
         <f t="shared" si="24"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q35" s="17">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R35" s="18">
         <f t="shared" si="23"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S35" s="16">
         <f t="shared" si="23"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T35" s="17">
         <f t="shared" si="23"/>
-        <v>3301</v>
+        <v>7991</v>
       </c>
       <c r="U35" s="17">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V35" s="18">
         <f t="shared" si="26"/>
-        <v>1568</v>
+        <v>6258</v>
       </c>
       <c r="W35" s="16">
         <f t="shared" si="26"/>
@@ -4435,7 +4448,7 @@
       </c>
       <c r="X35" s="17">
         <f t="shared" si="26"/>
-        <v>27327</v>
+        <v>28599</v>
       </c>
       <c r="Y35" s="17">
         <f t="shared" si="26"/>
@@ -4443,23 +4456,23 @@
       </c>
       <c r="Z35" s="18">
         <f t="shared" si="26"/>
-        <v>4095</v>
+        <v>5367</v>
       </c>
       <c r="AA35" s="16">
         <f t="shared" si="26"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AB35" s="17">
         <f t="shared" si="26"/>
-        <v>42737</v>
+        <v>48210</v>
       </c>
       <c r="AC35" s="17">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD35" s="18">
         <f t="shared" si="26"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE35" s="4">
         <f t="shared" si="25"/>
@@ -4470,9 +4483,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:32" hidden="1">
+    <row r="36" spans="1:34" hidden="1">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="7">
         <v>41998</v>
@@ -4499,7 +4512,7 @@
       </c>
       <c r="H36" s="17">
         <f t="shared" si="24"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I36" s="17">
         <f t="shared" si="24"/>
@@ -4507,55 +4520,55 @@
       </c>
       <c r="J36" s="18">
         <f t="shared" si="24"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K36" s="16">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L36" s="17">
         <f t="shared" si="24"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M36" s="17">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N36" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O36" s="16">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P36" s="17">
         <f t="shared" si="24"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q36" s="17">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R36" s="18">
         <f t="shared" si="23"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S36" s="16">
         <f t="shared" si="23"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T36" s="17">
         <f t="shared" si="23"/>
-        <v>3301</v>
+        <v>7991</v>
       </c>
       <c r="U36" s="17">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V36" s="18">
         <f t="shared" si="26"/>
-        <v>1568</v>
+        <v>6258</v>
       </c>
       <c r="W36" s="16">
         <f t="shared" si="26"/>
@@ -4563,7 +4576,7 @@
       </c>
       <c r="X36" s="17">
         <f t="shared" si="26"/>
-        <v>27327</v>
+        <v>28599</v>
       </c>
       <c r="Y36" s="17">
         <f t="shared" si="26"/>
@@ -4571,23 +4584,23 @@
       </c>
       <c r="Z36" s="18">
         <f t="shared" si="26"/>
-        <v>4095</v>
+        <v>5367</v>
       </c>
       <c r="AA36" s="16">
         <f t="shared" si="26"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AB36" s="17">
         <f t="shared" si="26"/>
-        <v>42737</v>
+        <v>48210</v>
       </c>
       <c r="AC36" s="17">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD36" s="18">
         <f t="shared" si="26"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE36" s="4">
         <f t="shared" si="25"/>
@@ -4598,9 +4611,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:32" hidden="1">
+    <row r="37" spans="1:34" hidden="1">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="7">
         <v>41997</v>
@@ -4627,7 +4640,7 @@
       </c>
       <c r="H37" s="17">
         <f t="shared" si="24"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I37" s="17">
         <f t="shared" si="24"/>
@@ -4635,55 +4648,55 @@
       </c>
       <c r="J37" s="18">
         <f t="shared" si="24"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K37" s="16">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L37" s="17">
         <f t="shared" si="24"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M37" s="17">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N37" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O37" s="16">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P37" s="17">
         <f t="shared" si="24"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q37" s="17">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R37" s="18">
         <f t="shared" si="23"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S37" s="16">
         <f t="shared" si="23"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T37" s="17">
         <f t="shared" si="23"/>
-        <v>3301</v>
+        <v>7991</v>
       </c>
       <c r="U37" s="17">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V37" s="18">
         <f t="shared" si="26"/>
-        <v>1568</v>
+        <v>6258</v>
       </c>
       <c r="W37" s="16">
         <f t="shared" si="26"/>
@@ -4691,7 +4704,7 @@
       </c>
       <c r="X37" s="17">
         <f t="shared" si="26"/>
-        <v>27327</v>
+        <v>28599</v>
       </c>
       <c r="Y37" s="17">
         <f t="shared" si="26"/>
@@ -4699,23 +4712,23 @@
       </c>
       <c r="Z37" s="18">
         <f t="shared" si="26"/>
-        <v>4095</v>
+        <v>5367</v>
       </c>
       <c r="AA37" s="16">
         <f t="shared" si="26"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AB37" s="17">
         <f t="shared" si="26"/>
-        <v>42737</v>
+        <v>48210</v>
       </c>
       <c r="AC37" s="17">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD37" s="18">
         <f t="shared" si="26"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE37" s="4">
         <f t="shared" si="25"/>
@@ -4726,9 +4739,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:32" hidden="1">
+    <row r="38" spans="1:34" hidden="1">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="7">
         <v>41996</v>
@@ -4755,7 +4768,7 @@
       </c>
       <c r="H38" s="17">
         <f t="shared" si="24"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I38" s="17">
         <f t="shared" si="24"/>
@@ -4763,55 +4776,55 @@
       </c>
       <c r="J38" s="18">
         <f t="shared" si="24"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K38" s="16">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L38" s="17">
         <f t="shared" si="24"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M38" s="17">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N38" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O38" s="16">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P38" s="17">
         <f t="shared" si="24"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q38" s="17">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R38" s="18">
         <f t="shared" si="23"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S38" s="16">
         <f t="shared" si="23"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T38" s="17">
         <f t="shared" si="23"/>
-        <v>3301</v>
+        <v>7991</v>
       </c>
       <c r="U38" s="17">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V38" s="18">
         <f t="shared" si="26"/>
-        <v>1568</v>
+        <v>6258</v>
       </c>
       <c r="W38" s="16">
         <f t="shared" si="26"/>
@@ -4819,7 +4832,7 @@
       </c>
       <c r="X38" s="17">
         <f t="shared" si="26"/>
-        <v>27327</v>
+        <v>28599</v>
       </c>
       <c r="Y38" s="17">
         <f t="shared" si="26"/>
@@ -4827,23 +4840,23 @@
       </c>
       <c r="Z38" s="18">
         <f t="shared" si="26"/>
-        <v>4095</v>
+        <v>5367</v>
       </c>
       <c r="AA38" s="16">
         <f t="shared" si="26"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AB38" s="17">
         <f t="shared" si="26"/>
-        <v>42737</v>
+        <v>48210</v>
       </c>
       <c r="AC38" s="17">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD38" s="18">
         <f t="shared" si="26"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE38" s="4">
         <f t="shared" si="25"/>
@@ -4854,9 +4867,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:32" hidden="1">
+    <row r="39" spans="1:34" hidden="1">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="7">
         <v>41995</v>
@@ -4883,7 +4896,7 @@
       </c>
       <c r="H39" s="17">
         <f t="shared" si="24"/>
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I39" s="17">
         <f t="shared" si="24"/>
@@ -4891,55 +4904,55 @@
       </c>
       <c r="J39" s="18">
         <f t="shared" si="24"/>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L39" s="17">
         <f t="shared" si="24"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M39" s="17">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N39" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O39" s="16">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P39" s="17">
         <f t="shared" si="24"/>
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q39" s="17">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R39" s="18">
         <f t="shared" si="23"/>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S39" s="16">
         <f t="shared" si="23"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T39" s="17">
         <f t="shared" si="23"/>
-        <v>3301</v>
+        <v>7991</v>
       </c>
       <c r="U39" s="17">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V39" s="18">
         <f t="shared" si="26"/>
-        <v>1568</v>
+        <v>6258</v>
       </c>
       <c r="W39" s="16">
         <f t="shared" si="26"/>
@@ -4947,7 +4960,7 @@
       </c>
       <c r="X39" s="17">
         <f t="shared" si="26"/>
-        <v>27327</v>
+        <v>28599</v>
       </c>
       <c r="Y39" s="17">
         <f t="shared" si="26"/>
@@ -4955,23 +4968,23 @@
       </c>
       <c r="Z39" s="18">
         <f t="shared" si="26"/>
-        <v>4095</v>
+        <v>5367</v>
       </c>
       <c r="AA39" s="16">
         <f t="shared" si="26"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AB39" s="17">
         <f t="shared" si="26"/>
-        <v>42737</v>
+        <v>48210</v>
       </c>
       <c r="AC39" s="17">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD39" s="18">
         <f t="shared" si="26"/>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE39" s="4">
         <f t="shared" si="25"/>
@@ -4982,9 +4995,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:32">
+    <row r="40" spans="1:34">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" s="7">
         <v>41994</v>
@@ -5008,7 +5021,7 @@
         <v>4</v>
       </c>
       <c r="H40" s="17">
-        <v>11700</v>
+        <v>11786</v>
       </c>
       <c r="I40" s="17">
         <f>G40-G41</f>
@@ -5016,57 +5029,55 @@
       </c>
       <c r="J40" s="18">
         <f>H40-H41</f>
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="K40" s="16">
-        <f t="shared" si="24"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L40" s="17">
-        <f t="shared" si="24"/>
-        <v>31855</v>
+        <v>38863</v>
       </c>
       <c r="M40" s="17">
         <f>K40-K41</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N40" s="18">
         <f>L40-L41</f>
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="O40" s="16">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P40" s="17">
-        <v>27212</v>
+        <v>31240</v>
       </c>
       <c r="Q40" s="17">
         <f>O40-O41</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R40" s="18">
         <f>P40-P41</f>
-        <v>4488</v>
+        <v>8516</v>
       </c>
       <c r="S40" s="16">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T40" s="17">
-        <v>3301</v>
+        <v>7991</v>
       </c>
       <c r="U40" s="17">
         <f>S40-S41</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V40" s="18">
         <f>T40-T41</f>
-        <v>1568</v>
+        <v>6258</v>
       </c>
       <c r="W40" s="16">
         <v>27</v>
       </c>
       <c r="X40" s="17">
-        <v>27327</v>
+        <v>28599</v>
       </c>
       <c r="Y40" s="17">
         <f>W40-W41</f>
@@ -5074,34 +5085,41 @@
       </c>
       <c r="Z40" s="18">
         <f>X40-X41</f>
-        <v>4095</v>
+        <v>5367</v>
       </c>
       <c r="AA40" s="16">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AB40" s="17">
-        <v>42737</v>
+        <v>48210</v>
       </c>
       <c r="AC40" s="17">
         <f>AA40-AA41</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD40" s="18">
         <f>AB40-AB41</f>
-        <v>2917</v>
+        <v>8390</v>
       </c>
       <c r="AE40" s="4">
         <f t="shared" si="25"/>
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="AF40" s="4">
         <f t="shared" si="25"/>
-        <v>18018</v>
+        <v>40575</v>
+      </c>
+      <c r="AG40">
+        <v>16477</v>
+      </c>
+      <c r="AH40">
+        <f>AG40-AG41</f>
+        <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:32">
+    <row r="41" spans="1:34">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" s="7">
         <v>41993</v>
@@ -5212,10 +5230,13 @@
         <f t="shared" si="25"/>
         <v>73206</v>
       </c>
+      <c r="AG41">
+        <v>16449</v>
+      </c>
     </row>
-    <row r="42" spans="1:32">
+    <row r="42" spans="1:34">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42" s="7">
         <v>41992</v>
@@ -5329,9 +5350,9 @@
         <v>20059</v>
       </c>
     </row>
-    <row r="43" spans="1:32">
+    <row r="43" spans="1:34">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43" s="7">
         <v>41991</v>
@@ -5446,9 +5467,9 @@
         <v>18859</v>
       </c>
     </row>
-    <row r="44" spans="1:32">
+    <row r="44" spans="1:34">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B44" s="7">
         <v>41990</v>
@@ -5560,9 +5581,9 @@
         <v>20741</v>
       </c>
     </row>
-    <row r="45" spans="1:32">
+    <row r="45" spans="1:34">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B45" s="7">
         <v>41989</v>

--- a/mission wz.xlsx
+++ b/mission wz.xlsx
@@ -304,10 +304,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG42" sqref="AG42"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -718,61 +718,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19" t="s">
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19" t="s">
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
       <c r="AE1" t="s">
         <v>19</v>
       </c>
       <c r="AI1" s="1">
         <f ca="1">TODAY()</f>
-        <v>41994</v>
+        <v>41995</v>
       </c>
       <c r="AJ1" s="1">
         <v>42023</v>
       </c>
       <c r="AK1">
         <f ca="1">AJ1-AI1-1</f>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:37">
@@ -781,11 +781,11 @@
       </c>
       <c r="C2" s="8">
         <f>(150-C6)/150</f>
-        <v>0.26666666666666666</v>
+        <v>0.31333333333333335</v>
       </c>
       <c r="D2" s="8">
         <f>(150000-D6)/150000</f>
-        <v>0.18328</v>
+        <v>0.20276666666666668</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -811,11 +811,11 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8">
         <f t="shared" ref="O2" si="4">(150-O6)/150</f>
-        <v>0.29333333333333333</v>
+        <v>0.31333333333333335</v>
       </c>
       <c r="P2" s="8">
         <f t="shared" ref="P2" si="5">(150000-P6)/150000</f>
-        <v>0.20826666666666666</v>
+        <v>0.21629333333333334</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
@@ -831,21 +831,21 @@
       <c r="V2" s="8"/>
       <c r="W2" s="8">
         <f t="shared" ref="W2" si="8">(150-W6)/150</f>
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="X2" s="8">
         <f t="shared" ref="X2" si="9">(150000-X6)/150000</f>
-        <v>0.19066</v>
+        <v>0.20891999999999999</v>
       </c>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8">
         <f t="shared" ref="AA2" si="10">(150-AA6)/150</f>
-        <v>0.19333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="AB2" s="8">
         <f t="shared" ref="AB2" si="11">(150000-AB6)/150000</f>
-        <v>0.32140000000000002</v>
+        <v>0.32849333333333336</v>
       </c>
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
@@ -870,7 +870,7 @@
       </c>
       <c r="D3" s="9">
         <f ca="1">INT(D6/$AK$1)</f>
-        <v>4375</v>
+        <v>4429</v>
       </c>
       <c r="G3" s="9">
         <f ca="1">INT(G6/$AK$1)</f>
@@ -878,7 +878,7 @@
       </c>
       <c r="H3" s="9">
         <f ca="1">INT(H6/$AK$1)</f>
-        <v>4936</v>
+        <v>5119</v>
       </c>
       <c r="K3" s="9">
         <f ca="1">INT(K6/$AK$1)</f>
@@ -886,7 +886,7 @@
       </c>
       <c r="L3" s="9">
         <f ca="1">INT(L6/$AK$1)</f>
-        <v>3969</v>
+        <v>4116</v>
       </c>
       <c r="O3" s="9">
         <f ca="1">INT(O6/$AK$1)</f>
@@ -894,15 +894,15 @@
       </c>
       <c r="P3" s="9">
         <f ca="1">INT(P6/$AK$1)</f>
-        <v>4241</v>
+        <v>4353</v>
       </c>
       <c r="S3" s="9">
         <f ca="1">INT(S6/$AK$1)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T3" s="9">
         <f ca="1">INT(T6/$AK$1)</f>
-        <v>5071</v>
+        <v>5259</v>
       </c>
       <c r="W3" s="9">
         <f ca="1">INT(W6/$AK$1)</f>
@@ -910,7 +910,7 @@
       </c>
       <c r="X3" s="9">
         <f ca="1">INT(X6/$AK$1)</f>
-        <v>4335</v>
+        <v>4394</v>
       </c>
       <c r="AA3" s="9">
         <f ca="1">INT(AA6/$AK$1)</f>
@@ -918,15 +918,15 @@
       </c>
       <c r="AB3" s="9">
         <f ca="1">INT(AB6/$AK$1)</f>
-        <v>3635</v>
+        <v>3730</v>
       </c>
       <c r="AE3" s="5">
         <f t="shared" ref="AE3:AE4" ca="1" si="12">SUM(C3,G3,K3,O3,S3,W3,AA3)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF3" s="5">
         <f ca="1">SUM(D3,H3,L3,P3,T3,X3,AB3)</f>
-        <v>30562</v>
+        <v>31400</v>
       </c>
       <c r="AI3" s="1">
         <v>41996</v>
@@ -936,7 +936,7 @@
       </c>
       <c r="AK3" s="2">
         <f ca="1">(AK2-AK1)/AK2</f>
-        <v>0.15151515151515152</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -1014,75 +1014,75 @@
       </c>
       <c r="C5" s="9">
         <f ca="1">150-INT(150-150/34*$AK$1)-C6</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="9">
         <f ca="1">150000-INT(150000-150000/34*$AK$1)-D6</f>
-        <v>1022</v>
+        <v>-467</v>
       </c>
       <c r="G5" s="9">
         <f ca="1">150-INT(150-150/34*$AK$1)-G6</f>
-        <v>-22</v>
+        <v>-26</v>
       </c>
       <c r="H5" s="9">
         <f ca="1">150000-INT(150000-150000/34*$AK$1)-H6</f>
-        <v>-14684</v>
+        <v>-19096</v>
       </c>
       <c r="K5" s="9">
         <f ca="1">150-INT(150-150/34*$AK$1)-K6</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L5" s="9">
         <f ca="1">150000-INT(150000-150000/34*$AK$1)-L6</f>
-        <v>12393</v>
+        <v>7981</v>
       </c>
       <c r="O5" s="9">
         <f ca="1">150-INT(150-150/34*$AK$1)-O6</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="9">
         <f ca="1">150000-INT(150000-150000/34*$AK$1)-P6</f>
-        <v>4770</v>
+        <v>1562</v>
       </c>
       <c r="S5" s="9">
         <f ca="1">150-INT(150-150/34*$AK$1)-S6</f>
-        <v>-14</v>
+        <v>-18</v>
       </c>
       <c r="T5" s="9">
         <f ca="1">150000-INT(150000-150000/34*$AK$1)-T6</f>
-        <v>-18479</v>
+        <v>-22891</v>
       </c>
       <c r="W5" s="9">
         <f ca="1">150-INT(150-150/34*$AK$1)-W6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="9">
         <f ca="1">150000-INT(150000-150000/34*$AK$1)-X6</f>
-        <v>2129</v>
+        <v>456</v>
       </c>
       <c r="AA5" s="9">
         <f ca="1">150-INT(150-150/34*$AK$1)-AA6</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="9">
         <f ca="1">150000-INT(150000-150000/34*$AK$1)-AB6</f>
-        <v>21740</v>
+        <v>18392</v>
       </c>
       <c r="AE5" s="5">
         <f ca="1">SUM(C5,G5,K5,O5,S5,W5,AA5)</f>
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="AF5" s="5">
         <f ca="1">SUM(D5,H5,L5,P5,T5,X5,AB5)</f>
-        <v>8891</v>
+        <v>-14063</v>
       </c>
       <c r="AG5" s="3">
         <f ca="1">-$AK$3+AG6</f>
-        <v>3.3246753246753247E-2</v>
+        <v>1.6277056277056279E-2</v>
       </c>
       <c r="AH5" s="3">
         <f ca="1">AH6-$AK$3</f>
-        <v>3.3419134199134198E-2</v>
+        <v>1.0668484848484844E-2</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1091,11 +1091,11 @@
       </c>
       <c r="C6" s="9">
         <f>150-C11</f>
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D6" s="9">
         <f>150000-D11</f>
-        <v>122508</v>
+        <v>119585</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" ref="G6" si="14">150-G11</f>
@@ -1115,11 +1115,11 @@
       </c>
       <c r="O6" s="9">
         <f t="shared" ref="O6" si="16">150-O11</f>
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P6" s="9">
         <f>150000-P11</f>
-        <v>118760</v>
+        <v>117556</v>
       </c>
       <c r="S6" s="9">
         <f t="shared" ref="S6" si="17">150-S11</f>
@@ -1131,35 +1131,35 @@
       </c>
       <c r="W6" s="9">
         <f t="shared" ref="W6" si="18">150-W11</f>
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="X6" s="9">
         <f>150000-X11</f>
-        <v>121401</v>
+        <v>118662</v>
       </c>
       <c r="AA6" s="9">
         <f t="shared" ref="AA6" si="19">150-AA11</f>
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB6" s="9">
         <f>150000-AB11</f>
-        <v>101790</v>
+        <v>100726</v>
       </c>
       <c r="AE6" s="5">
         <f>SUM(C6,G6,K6,O6,S6,W6,AA6)</f>
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="AF6" s="5">
         <f>SUM(D6,H6,L6,P6,T6,X6,AB6)</f>
-        <v>855819</v>
+        <v>847889</v>
       </c>
       <c r="AG6" s="3">
         <f>(7*150-AE6)/(7*150)</f>
-        <v>0.18476190476190477</v>
+        <v>0.1980952380952381</v>
       </c>
       <c r="AH6" s="3">
         <f>(7*150000-AF6)/(7*150000)</f>
-        <v>0.18493428571428572</v>
+        <v>0.19248666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -1168,11 +1168,11 @@
       </c>
       <c r="AE7" s="5">
         <f>150*7-AE6</f>
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="AF7" s="5">
         <f>150000*7-AF6</f>
-        <v>194181</v>
+        <v>202111</v>
       </c>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
@@ -1276,10 +1276,10 @@
       <c r="AF10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AG10" s="20" t="s">
+      <c r="AG10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AH10" s="20" t="s">
+      <c r="AH10" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1292,11 +1292,11 @@
       </c>
       <c r="C11" s="13">
         <f t="shared" ref="C11:R26" si="20">C12</f>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D11" s="14">
         <f t="shared" si="20"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E11" s="14">
         <f t="shared" si="20"/>
@@ -1340,11 +1340,11 @@
       </c>
       <c r="O11" s="13">
         <f t="shared" si="20"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P11" s="14">
         <f t="shared" si="20"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q11" s="14">
         <f t="shared" si="20"/>
@@ -1372,11 +1372,11 @@
       </c>
       <c r="W11" s="13">
         <f t="shared" si="21"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X11" s="14">
         <f t="shared" si="21"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y11" s="14">
         <f t="shared" si="21"/>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="AA11" s="13">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB11" s="14">
         <f t="shared" si="21"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC11" s="14">
         <f t="shared" si="21"/>
@@ -1420,11 +1420,11 @@
       </c>
       <c r="C12" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D12" s="17">
         <f t="shared" si="20"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E12" s="17">
         <f t="shared" si="20"/>
@@ -1468,11 +1468,11 @@
       </c>
       <c r="O12" s="16">
         <f t="shared" si="20"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P12" s="17">
         <f t="shared" si="20"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q12" s="17">
         <f t="shared" si="20"/>
@@ -1500,11 +1500,11 @@
       </c>
       <c r="W12" s="16">
         <f t="shared" si="21"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X12" s="17">
         <f t="shared" si="21"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y12" s="17">
         <f t="shared" si="21"/>
@@ -1516,11 +1516,11 @@
       </c>
       <c r="AA12" s="16">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB12" s="17">
         <f t="shared" si="21"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC12" s="17">
         <f t="shared" si="21"/>
@@ -1548,11 +1548,11 @@
       </c>
       <c r="C13" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="20"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E13" s="17">
         <f t="shared" si="20"/>
@@ -1596,11 +1596,11 @@
       </c>
       <c r="O13" s="16">
         <f t="shared" si="20"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P13" s="17">
         <f t="shared" si="20"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q13" s="17">
         <f t="shared" si="20"/>
@@ -1628,11 +1628,11 @@
       </c>
       <c r="W13" s="16">
         <f t="shared" si="21"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X13" s="17">
         <f t="shared" si="21"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y13" s="17">
         <f t="shared" si="21"/>
@@ -1644,11 +1644,11 @@
       </c>
       <c r="AA13" s="16">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB13" s="17">
         <f t="shared" si="21"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC13" s="17">
         <f t="shared" si="21"/>
@@ -1676,11 +1676,11 @@
       </c>
       <c r="C14" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D14" s="17">
         <f t="shared" si="20"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E14" s="17">
         <f t="shared" si="20"/>
@@ -1724,11 +1724,11 @@
       </c>
       <c r="O14" s="16">
         <f t="shared" si="20"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P14" s="17">
         <f t="shared" si="20"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q14" s="17">
         <f t="shared" si="20"/>
@@ -1756,11 +1756,11 @@
       </c>
       <c r="W14" s="16">
         <f t="shared" si="21"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X14" s="17">
         <f t="shared" si="21"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y14" s="17">
         <f t="shared" si="21"/>
@@ -1772,11 +1772,11 @@
       </c>
       <c r="AA14" s="16">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB14" s="17">
         <f t="shared" si="21"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC14" s="17">
         <f t="shared" si="21"/>
@@ -1804,11 +1804,11 @@
       </c>
       <c r="C15" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D15" s="17">
         <f t="shared" si="20"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E15" s="17">
         <f t="shared" si="20"/>
@@ -1852,11 +1852,11 @@
       </c>
       <c r="O15" s="16">
         <f t="shared" si="20"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P15" s="17">
         <f t="shared" si="20"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q15" s="17">
         <f t="shared" si="20"/>
@@ -1884,11 +1884,11 @@
       </c>
       <c r="W15" s="16">
         <f t="shared" si="21"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X15" s="17">
         <f t="shared" si="21"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y15" s="17">
         <f t="shared" si="21"/>
@@ -1900,11 +1900,11 @@
       </c>
       <c r="AA15" s="16">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB15" s="17">
         <f t="shared" si="21"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC15" s="17">
         <f t="shared" si="21"/>
@@ -1932,11 +1932,11 @@
       </c>
       <c r="C16" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D16" s="17">
         <f t="shared" si="20"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E16" s="17">
         <f t="shared" si="20"/>
@@ -1980,11 +1980,11 @@
       </c>
       <c r="O16" s="16">
         <f t="shared" si="20"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P16" s="17">
         <f t="shared" si="20"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q16" s="17">
         <f t="shared" si="20"/>
@@ -2012,11 +2012,11 @@
       </c>
       <c r="W16" s="16">
         <f t="shared" si="21"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X16" s="17">
         <f t="shared" si="21"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y16" s="17">
         <f t="shared" si="21"/>
@@ -2028,11 +2028,11 @@
       </c>
       <c r="AA16" s="16">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB16" s="17">
         <f t="shared" si="21"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC16" s="17">
         <f t="shared" si="21"/>
@@ -2060,11 +2060,11 @@
       </c>
       <c r="C17" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D17" s="17">
         <f t="shared" si="20"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E17" s="17">
         <f t="shared" si="20"/>
@@ -2108,11 +2108,11 @@
       </c>
       <c r="O17" s="16">
         <f t="shared" si="20"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P17" s="17">
         <f t="shared" si="20"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q17" s="17">
         <f t="shared" si="20"/>
@@ -2140,11 +2140,11 @@
       </c>
       <c r="W17" s="16">
         <f t="shared" si="21"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X17" s="17">
         <f t="shared" si="21"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y17" s="17">
         <f t="shared" si="21"/>
@@ -2156,11 +2156,11 @@
       </c>
       <c r="AA17" s="16">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB17" s="17">
         <f t="shared" si="21"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC17" s="17">
         <f t="shared" si="21"/>
@@ -2188,11 +2188,11 @@
       </c>
       <c r="C18" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D18" s="17">
         <f t="shared" si="20"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E18" s="17">
         <f t="shared" si="20"/>
@@ -2236,11 +2236,11 @@
       </c>
       <c r="O18" s="16">
         <f t="shared" si="20"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P18" s="17">
         <f t="shared" si="20"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q18" s="17">
         <f t="shared" si="20"/>
@@ -2268,11 +2268,11 @@
       </c>
       <c r="W18" s="16">
         <f t="shared" si="21"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X18" s="17">
         <f t="shared" si="21"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y18" s="17">
         <f t="shared" si="21"/>
@@ -2284,11 +2284,11 @@
       </c>
       <c r="AA18" s="16">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB18" s="17">
         <f t="shared" si="21"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC18" s="17">
         <f t="shared" si="21"/>
@@ -2316,11 +2316,11 @@
       </c>
       <c r="C19" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D19" s="17">
         <f t="shared" si="20"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E19" s="17">
         <f t="shared" si="20"/>
@@ -2364,11 +2364,11 @@
       </c>
       <c r="O19" s="16">
         <f t="shared" si="20"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P19" s="17">
         <f t="shared" si="20"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q19" s="17">
         <f t="shared" si="20"/>
@@ -2396,11 +2396,11 @@
       </c>
       <c r="W19" s="16">
         <f t="shared" si="21"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X19" s="17">
         <f t="shared" si="21"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y19" s="17">
         <f t="shared" si="21"/>
@@ -2412,11 +2412,11 @@
       </c>
       <c r="AA19" s="16">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB19" s="17">
         <f t="shared" si="21"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC19" s="17">
         <f t="shared" si="21"/>
@@ -2444,11 +2444,11 @@
       </c>
       <c r="C20" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D20" s="17">
         <f t="shared" si="20"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E20" s="17">
         <f t="shared" si="20"/>
@@ -2492,11 +2492,11 @@
       </c>
       <c r="O20" s="16">
         <f t="shared" si="20"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P20" s="17">
         <f t="shared" si="20"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q20" s="17">
         <f t="shared" si="20"/>
@@ -2524,11 +2524,11 @@
       </c>
       <c r="W20" s="16">
         <f t="shared" si="21"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X20" s="17">
         <f t="shared" si="21"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y20" s="17">
         <f t="shared" si="21"/>
@@ -2540,11 +2540,11 @@
       </c>
       <c r="AA20" s="16">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB20" s="17">
         <f t="shared" si="21"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC20" s="17">
         <f t="shared" si="21"/>
@@ -2572,11 +2572,11 @@
       </c>
       <c r="C21" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D21" s="17">
         <f t="shared" si="20"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E21" s="17">
         <f t="shared" si="20"/>
@@ -2620,11 +2620,11 @@
       </c>
       <c r="O21" s="16">
         <f t="shared" si="20"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P21" s="17">
         <f t="shared" si="20"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q21" s="17">
         <f t="shared" si="20"/>
@@ -2652,11 +2652,11 @@
       </c>
       <c r="W21" s="16">
         <f t="shared" si="21"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X21" s="17">
         <f t="shared" si="21"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y21" s="17">
         <f t="shared" si="21"/>
@@ -2668,11 +2668,11 @@
       </c>
       <c r="AA21" s="16">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB21" s="17">
         <f t="shared" si="21"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC21" s="17">
         <f t="shared" si="21"/>
@@ -2700,11 +2700,11 @@
       </c>
       <c r="C22" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D22" s="17">
         <f t="shared" si="20"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E22" s="17">
         <f t="shared" si="20"/>
@@ -2748,11 +2748,11 @@
       </c>
       <c r="O22" s="16">
         <f t="shared" si="20"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P22" s="17">
         <f t="shared" si="20"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q22" s="17">
         <f t="shared" si="20"/>
@@ -2780,11 +2780,11 @@
       </c>
       <c r="W22" s="16">
         <f t="shared" si="21"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X22" s="17">
         <f t="shared" si="21"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y22" s="17">
         <f t="shared" si="21"/>
@@ -2796,11 +2796,11 @@
       </c>
       <c r="AA22" s="16">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB22" s="17">
         <f t="shared" si="21"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC22" s="17">
         <f t="shared" si="21"/>
@@ -2828,11 +2828,11 @@
       </c>
       <c r="C23" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D23" s="17">
         <f t="shared" si="20"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E23" s="17">
         <f t="shared" si="20"/>
@@ -2876,11 +2876,11 @@
       </c>
       <c r="O23" s="16">
         <f t="shared" si="20"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P23" s="17">
         <f t="shared" si="20"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q23" s="17">
         <f t="shared" si="20"/>
@@ -2908,11 +2908,11 @@
       </c>
       <c r="W23" s="16">
         <f t="shared" si="21"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X23" s="17">
         <f t="shared" si="21"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y23" s="17">
         <f t="shared" si="21"/>
@@ -2924,11 +2924,11 @@
       </c>
       <c r="AA23" s="16">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB23" s="17">
         <f t="shared" si="21"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC23" s="17">
         <f t="shared" si="21"/>
@@ -2956,11 +2956,11 @@
       </c>
       <c r="C24" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D24" s="17">
         <f t="shared" si="20"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E24" s="17">
         <f t="shared" si="20"/>
@@ -3004,11 +3004,11 @@
       </c>
       <c r="O24" s="16">
         <f t="shared" si="20"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P24" s="17">
         <f t="shared" si="20"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q24" s="17">
         <f t="shared" si="20"/>
@@ -3036,11 +3036,11 @@
       </c>
       <c r="W24" s="16">
         <f t="shared" si="21"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X24" s="17">
         <f t="shared" si="21"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y24" s="17">
         <f t="shared" si="21"/>
@@ -3052,11 +3052,11 @@
       </c>
       <c r="AA24" s="16">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB24" s="17">
         <f t="shared" si="21"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC24" s="17">
         <f t="shared" si="21"/>
@@ -3084,11 +3084,11 @@
       </c>
       <c r="C25" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D25" s="17">
         <f t="shared" si="20"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E25" s="17">
         <f t="shared" si="20"/>
@@ -3132,11 +3132,11 @@
       </c>
       <c r="O25" s="16">
         <f t="shared" si="20"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P25" s="17">
         <f t="shared" si="20"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q25" s="17">
         <f t="shared" si="20"/>
@@ -3164,11 +3164,11 @@
       </c>
       <c r="W25" s="16">
         <f t="shared" si="21"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X25" s="17">
         <f t="shared" si="21"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y25" s="17">
         <f t="shared" si="21"/>
@@ -3180,11 +3180,11 @@
       </c>
       <c r="AA25" s="16">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB25" s="17">
         <f t="shared" si="21"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC25" s="17">
         <f t="shared" si="21"/>
@@ -3212,11 +3212,11 @@
       </c>
       <c r="C26" s="16">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D26" s="17">
         <f t="shared" si="20"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E26" s="17">
         <f t="shared" si="20"/>
@@ -3260,11 +3260,11 @@
       </c>
       <c r="O26" s="16">
         <f t="shared" si="20"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P26" s="17">
         <f t="shared" si="20"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q26" s="17">
         <f t="shared" si="20"/>
@@ -3292,11 +3292,11 @@
       </c>
       <c r="W26" s="16">
         <f t="shared" si="21"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X26" s="17">
         <f t="shared" si="21"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y26" s="17">
         <f t="shared" si="21"/>
@@ -3308,11 +3308,11 @@
       </c>
       <c r="AA26" s="16">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB26" s="17">
         <f t="shared" si="21"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC26" s="17">
         <f t="shared" si="21"/>
@@ -3340,11 +3340,11 @@
       </c>
       <c r="C27" s="16">
         <f t="shared" ref="C27:Q40" si="24">C28</f>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D27" s="17">
         <f t="shared" si="24"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E27" s="17">
         <f t="shared" si="24"/>
@@ -3388,11 +3388,11 @@
       </c>
       <c r="O27" s="16">
         <f t="shared" si="24"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P27" s="17">
         <f t="shared" si="24"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q27" s="17">
         <f t="shared" si="24"/>
@@ -3420,11 +3420,11 @@
       </c>
       <c r="W27" s="16">
         <f t="shared" si="21"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X27" s="17">
         <f t="shared" si="21"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y27" s="17">
         <f t="shared" si="21"/>
@@ -3436,11 +3436,11 @@
       </c>
       <c r="AA27" s="16">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB27" s="17">
         <f t="shared" si="21"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC27" s="17">
         <f t="shared" si="21"/>
@@ -3468,11 +3468,11 @@
       </c>
       <c r="C28" s="16">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D28" s="17">
         <f t="shared" si="24"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E28" s="17">
         <f t="shared" si="24"/>
@@ -3516,11 +3516,11 @@
       </c>
       <c r="O28" s="16">
         <f t="shared" si="24"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P28" s="17">
         <f t="shared" si="24"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q28" s="17">
         <f t="shared" si="24"/>
@@ -3548,11 +3548,11 @@
       </c>
       <c r="W28" s="16">
         <f t="shared" si="21"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X28" s="17">
         <f t="shared" si="21"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y28" s="17">
         <f t="shared" si="21"/>
@@ -3564,11 +3564,11 @@
       </c>
       <c r="AA28" s="16">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB28" s="17">
         <f t="shared" si="21"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC28" s="17">
         <f t="shared" si="21"/>
@@ -3596,11 +3596,11 @@
       </c>
       <c r="C29" s="16">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D29" s="17">
         <f t="shared" si="24"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E29" s="17">
         <f t="shared" si="24"/>
@@ -3644,11 +3644,11 @@
       </c>
       <c r="O29" s="16">
         <f t="shared" si="24"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P29" s="17">
         <f t="shared" si="24"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q29" s="17">
         <f t="shared" si="24"/>
@@ -3676,11 +3676,11 @@
       </c>
       <c r="W29" s="16">
         <f t="shared" si="21"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X29" s="17">
         <f t="shared" si="21"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y29" s="17">
         <f t="shared" si="21"/>
@@ -3692,11 +3692,11 @@
       </c>
       <c r="AA29" s="16">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB29" s="17">
         <f t="shared" si="21"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC29" s="17">
         <f t="shared" si="21"/>
@@ -3724,11 +3724,11 @@
       </c>
       <c r="C30" s="16">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D30" s="17">
         <f t="shared" si="24"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E30" s="17">
         <f t="shared" si="24"/>
@@ -3772,11 +3772,11 @@
       </c>
       <c r="O30" s="16">
         <f t="shared" si="24"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P30" s="17">
         <f t="shared" si="24"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q30" s="17">
         <f t="shared" si="24"/>
@@ -3804,11 +3804,11 @@
       </c>
       <c r="W30" s="16">
         <f t="shared" si="21"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X30" s="17">
         <f t="shared" si="21"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y30" s="17">
         <f t="shared" si="21"/>
@@ -3820,11 +3820,11 @@
       </c>
       <c r="AA30" s="16">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB30" s="17">
         <f t="shared" si="21"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC30" s="17">
         <f t="shared" si="21"/>
@@ -3852,11 +3852,11 @@
       </c>
       <c r="C31" s="16">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D31" s="17">
         <f t="shared" si="24"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E31" s="17">
         <f t="shared" si="24"/>
@@ -3900,11 +3900,11 @@
       </c>
       <c r="O31" s="16">
         <f t="shared" si="24"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P31" s="17">
         <f t="shared" si="24"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q31" s="17">
         <f t="shared" si="24"/>
@@ -3932,11 +3932,11 @@
       </c>
       <c r="W31" s="16">
         <f t="shared" si="21"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X31" s="17">
         <f t="shared" si="21"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y31" s="17">
         <f t="shared" si="21"/>
@@ -3948,11 +3948,11 @@
       </c>
       <c r="AA31" s="16">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB31" s="17">
         <f t="shared" si="21"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC31" s="17">
         <f t="shared" si="21"/>
@@ -3980,11 +3980,11 @@
       </c>
       <c r="C32" s="16">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D32" s="17">
         <f t="shared" si="24"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E32" s="17">
         <f t="shared" si="24"/>
@@ -4028,11 +4028,11 @@
       </c>
       <c r="O32" s="16">
         <f t="shared" si="24"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P32" s="17">
         <f t="shared" si="24"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q32" s="17">
         <f t="shared" si="24"/>
@@ -4060,11 +4060,11 @@
       </c>
       <c r="W32" s="16">
         <f t="shared" si="26"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X32" s="17">
         <f t="shared" si="26"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y32" s="17">
         <f t="shared" si="26"/>
@@ -4076,11 +4076,11 @@
       </c>
       <c r="AA32" s="16">
         <f t="shared" si="26"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB32" s="17">
         <f t="shared" si="26"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC32" s="17">
         <f t="shared" si="26"/>
@@ -4108,11 +4108,11 @@
       </c>
       <c r="C33" s="16">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D33" s="17">
         <f t="shared" si="24"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E33" s="17">
         <f t="shared" si="24"/>
@@ -4156,11 +4156,11 @@
       </c>
       <c r="O33" s="16">
         <f t="shared" si="24"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P33" s="17">
         <f t="shared" si="24"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q33" s="17">
         <f t="shared" si="24"/>
@@ -4188,11 +4188,11 @@
       </c>
       <c r="W33" s="16">
         <f t="shared" si="26"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X33" s="17">
         <f t="shared" si="26"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y33" s="17">
         <f t="shared" si="26"/>
@@ -4204,11 +4204,11 @@
       </c>
       <c r="AA33" s="16">
         <f t="shared" si="26"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB33" s="17">
         <f t="shared" si="26"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC33" s="17">
         <f t="shared" si="26"/>
@@ -4236,11 +4236,11 @@
       </c>
       <c r="C34" s="16">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D34" s="17">
         <f t="shared" si="24"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E34" s="17">
         <f t="shared" si="24"/>
@@ -4284,11 +4284,11 @@
       </c>
       <c r="O34" s="16">
         <f t="shared" si="24"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P34" s="17">
         <f t="shared" si="24"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q34" s="17">
         <f t="shared" si="24"/>
@@ -4316,11 +4316,11 @@
       </c>
       <c r="W34" s="16">
         <f t="shared" si="26"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X34" s="17">
         <f t="shared" si="26"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y34" s="17">
         <f t="shared" si="26"/>
@@ -4332,11 +4332,11 @@
       </c>
       <c r="AA34" s="16">
         <f t="shared" si="26"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB34" s="17">
         <f t="shared" si="26"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC34" s="17">
         <f t="shared" si="26"/>
@@ -4364,11 +4364,11 @@
       </c>
       <c r="C35" s="16">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D35" s="17">
         <f t="shared" si="24"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E35" s="17">
         <f t="shared" si="24"/>
@@ -4412,11 +4412,11 @@
       </c>
       <c r="O35" s="16">
         <f t="shared" si="24"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P35" s="17">
         <f t="shared" si="24"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q35" s="17">
         <f t="shared" si="24"/>
@@ -4444,11 +4444,11 @@
       </c>
       <c r="W35" s="16">
         <f t="shared" si="26"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X35" s="17">
         <f t="shared" si="26"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y35" s="17">
         <f t="shared" si="26"/>
@@ -4460,11 +4460,11 @@
       </c>
       <c r="AA35" s="16">
         <f t="shared" si="26"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB35" s="17">
         <f t="shared" si="26"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC35" s="17">
         <f t="shared" si="26"/>
@@ -4492,11 +4492,11 @@
       </c>
       <c r="C36" s="16">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D36" s="17">
         <f t="shared" si="24"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E36" s="17">
         <f t="shared" si="24"/>
@@ -4540,11 +4540,11 @@
       </c>
       <c r="O36" s="16">
         <f t="shared" si="24"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P36" s="17">
         <f t="shared" si="24"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q36" s="17">
         <f t="shared" si="24"/>
@@ -4572,11 +4572,11 @@
       </c>
       <c r="W36" s="16">
         <f t="shared" si="26"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X36" s="17">
         <f t="shared" si="26"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y36" s="17">
         <f t="shared" si="26"/>
@@ -4588,11 +4588,11 @@
       </c>
       <c r="AA36" s="16">
         <f t="shared" si="26"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB36" s="17">
         <f t="shared" si="26"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC36" s="17">
         <f t="shared" si="26"/>
@@ -4620,11 +4620,11 @@
       </c>
       <c r="C37" s="16">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D37" s="17">
         <f t="shared" si="24"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E37" s="17">
         <f t="shared" si="24"/>
@@ -4668,11 +4668,11 @@
       </c>
       <c r="O37" s="16">
         <f t="shared" si="24"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P37" s="17">
         <f t="shared" si="24"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q37" s="17">
         <f t="shared" si="24"/>
@@ -4700,11 +4700,11 @@
       </c>
       <c r="W37" s="16">
         <f t="shared" si="26"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X37" s="17">
         <f t="shared" si="26"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y37" s="17">
         <f t="shared" si="26"/>
@@ -4716,11 +4716,11 @@
       </c>
       <c r="AA37" s="16">
         <f t="shared" si="26"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB37" s="17">
         <f t="shared" si="26"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC37" s="17">
         <f t="shared" si="26"/>
@@ -4748,11 +4748,11 @@
       </c>
       <c r="C38" s="16">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D38" s="17">
         <f t="shared" si="24"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E38" s="17">
         <f t="shared" si="24"/>
@@ -4796,11 +4796,11 @@
       </c>
       <c r="O38" s="16">
         <f t="shared" si="24"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P38" s="17">
         <f t="shared" si="24"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q38" s="17">
         <f t="shared" si="24"/>
@@ -4828,11 +4828,11 @@
       </c>
       <c r="W38" s="16">
         <f t="shared" si="26"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X38" s="17">
         <f t="shared" si="26"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y38" s="17">
         <f t="shared" si="26"/>
@@ -4844,11 +4844,11 @@
       </c>
       <c r="AA38" s="16">
         <f t="shared" si="26"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB38" s="17">
         <f t="shared" si="26"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC38" s="17">
         <f t="shared" si="26"/>
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34" hidden="1">
+    <row r="39" spans="1:34">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -4875,12 +4875,10 @@
         <v>41995</v>
       </c>
       <c r="C39" s="16">
-        <f t="shared" si="24"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D39" s="17">
-        <f t="shared" si="24"/>
-        <v>27492</v>
+        <v>30415</v>
       </c>
       <c r="E39" s="17">
         <f t="shared" si="24"/>
@@ -4923,12 +4921,10 @@
         <v>7008</v>
       </c>
       <c r="O39" s="16">
-        <f t="shared" si="24"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P39" s="17">
-        <f t="shared" si="24"/>
-        <v>31240</v>
+        <v>32444</v>
       </c>
       <c r="Q39" s="17">
         <f t="shared" si="24"/>
@@ -4955,12 +4951,10 @@
         <v>6258</v>
       </c>
       <c r="W39" s="16">
-        <f t="shared" si="26"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X39" s="17">
-        <f t="shared" si="26"/>
-        <v>28599</v>
+        <v>31338</v>
       </c>
       <c r="Y39" s="17">
         <f t="shared" si="26"/>
@@ -4971,12 +4965,10 @@
         <v>5367</v>
       </c>
       <c r="AA39" s="16">
-        <f t="shared" si="26"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB39" s="17">
-        <f t="shared" si="26"/>
-        <v>48210</v>
+        <v>49274</v>
       </c>
       <c r="AC39" s="17">
         <f t="shared" si="26"/>
@@ -4988,11 +4980,18 @@
       </c>
       <c r="AE39" s="4">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AF39" s="4">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>7930</v>
+      </c>
+      <c r="AG39">
+        <v>16487</v>
+      </c>
+      <c r="AH39">
+        <f>AG39-AG40</f>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:34">

--- a/mission wz.xlsx
+++ b/mission wz.xlsx
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -765,14 +765,14 @@
       </c>
       <c r="AI1" s="1">
         <f ca="1">TODAY()</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="AJ1" s="1">
         <v>42023</v>
       </c>
       <c r="AK1">
         <f ca="1">AJ1-AI1-1</f>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:37">
@@ -791,7 +791,7 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8">
         <f t="shared" ref="G2" si="0">(150-G6)/150</f>
-        <v>2.6666666666666668E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="H2" s="8">
         <f t="shared" ref="H2" si="1">(150000-H6)/150000</f>
@@ -870,7 +870,7 @@
       </c>
       <c r="D3" s="9">
         <f ca="1">INT(D6/$AK$1)</f>
-        <v>4429</v>
+        <v>4599</v>
       </c>
       <c r="G3" s="9">
         <f ca="1">INT(G6/$AK$1)</f>
@@ -878,7 +878,7 @@
       </c>
       <c r="H3" s="9">
         <f ca="1">INT(H6/$AK$1)</f>
-        <v>5119</v>
+        <v>5315</v>
       </c>
       <c r="K3" s="9">
         <f ca="1">INT(K6/$AK$1)</f>
@@ -886,7 +886,7 @@
       </c>
       <c r="L3" s="9">
         <f ca="1">INT(L6/$AK$1)</f>
-        <v>4116</v>
+        <v>4274</v>
       </c>
       <c r="O3" s="9">
         <f ca="1">INT(O6/$AK$1)</f>
@@ -894,7 +894,7 @@
       </c>
       <c r="P3" s="9">
         <f ca="1">INT(P6/$AK$1)</f>
-        <v>4353</v>
+        <v>4521</v>
       </c>
       <c r="S3" s="9">
         <f ca="1">INT(S6/$AK$1)</f>
@@ -902,7 +902,7 @@
       </c>
       <c r="T3" s="9">
         <f ca="1">INT(T6/$AK$1)</f>
-        <v>5259</v>
+        <v>5461</v>
       </c>
       <c r="W3" s="9">
         <f ca="1">INT(W6/$AK$1)</f>
@@ -910,7 +910,7 @@
       </c>
       <c r="X3" s="9">
         <f ca="1">INT(X6/$AK$1)</f>
-        <v>4394</v>
+        <v>4563</v>
       </c>
       <c r="AA3" s="9">
         <f ca="1">INT(AA6/$AK$1)</f>
@@ -918,7 +918,7 @@
       </c>
       <c r="AB3" s="9">
         <f ca="1">INT(AB6/$AK$1)</f>
-        <v>3730</v>
+        <v>3874</v>
       </c>
       <c r="AE3" s="5">
         <f t="shared" ref="AE3:AE4" ca="1" si="12">SUM(C3,G3,K3,O3,S3,W3,AA3)</f>
@@ -926,7 +926,7 @@
       </c>
       <c r="AF3" s="5">
         <f ca="1">SUM(D3,H3,L3,P3,T3,X3,AB3)</f>
-        <v>31400</v>
+        <v>32607</v>
       </c>
       <c r="AI3" s="1">
         <v>41996</v>
@@ -936,7 +936,7 @@
       </c>
       <c r="AK3" s="2">
         <f ca="1">(AK2-AK1)/AK2</f>
-        <v>0.18181818181818182</v>
+        <v>0.21212121212121213</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -1014,75 +1014,75 @@
       </c>
       <c r="C5" s="9">
         <f ca="1">150-INT(150-150/34*$AK$1)-C6</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5" s="9">
         <f ca="1">150000-INT(150000-150000/34*$AK$1)-D6</f>
-        <v>-467</v>
+        <v>-4879</v>
       </c>
       <c r="G5" s="9">
         <f ca="1">150-INT(150-150/34*$AK$1)-G6</f>
-        <v>-26</v>
+        <v>-30</v>
       </c>
       <c r="H5" s="9">
         <f ca="1">150000-INT(150000-150000/34*$AK$1)-H6</f>
-        <v>-19096</v>
+        <v>-23508</v>
       </c>
       <c r="K5" s="9">
         <f ca="1">150-INT(150-150/34*$AK$1)-K6</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L5" s="9">
         <f ca="1">150000-INT(150000-150000/34*$AK$1)-L6</f>
-        <v>7981</v>
+        <v>3569</v>
       </c>
       <c r="O5" s="9">
         <f ca="1">150-INT(150-150/34*$AK$1)-O6</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="P5" s="9">
         <f ca="1">150000-INT(150000-150000/34*$AK$1)-P6</f>
-        <v>1562</v>
+        <v>-2850</v>
       </c>
       <c r="S5" s="9">
         <f ca="1">150-INT(150-150/34*$AK$1)-S6</f>
-        <v>-18</v>
+        <v>-23</v>
       </c>
       <c r="T5" s="9">
         <f ca="1">150000-INT(150000-150000/34*$AK$1)-T6</f>
-        <v>-22891</v>
+        <v>-27303</v>
       </c>
       <c r="W5" s="9">
         <f ca="1">150-INT(150-150/34*$AK$1)-W6</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="X5" s="9">
         <f ca="1">150000-INT(150000-150000/34*$AK$1)-X6</f>
-        <v>456</v>
+        <v>-3956</v>
       </c>
       <c r="AA5" s="9">
         <f ca="1">150-INT(150-150/34*$AK$1)-AA6</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AB5" s="9">
         <f ca="1">150000-INT(150000-150000/34*$AK$1)-AB6</f>
-        <v>18392</v>
+        <v>13980</v>
       </c>
       <c r="AE5" s="5">
         <f ca="1">SUM(C5,G5,K5,O5,S5,W5,AA5)</f>
-        <v>-2</v>
+        <v>-36</v>
       </c>
       <c r="AF5" s="5">
         <f ca="1">SUM(D5,H5,L5,P5,T5,X5,AB5)</f>
-        <v>-14063</v>
+        <v>-44947</v>
       </c>
       <c r="AG5" s="3">
         <f ca="1">-$AK$3+AG6</f>
-        <v>1.6277056277056279E-2</v>
+        <v>-1.3073593073593071E-2</v>
       </c>
       <c r="AH5" s="3">
         <f ca="1">AH6-$AK$3</f>
-        <v>1.0668484848484844E-2</v>
+        <v>-1.963454545454546E-2</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="G6" s="9">
         <f t="shared" ref="G6" si="14">150-G11</f>
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H6" s="9">
         <f>150000-H11</f>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="AE6" s="5">
         <f>SUM(C6,G6,K6,O6,S6,W6,AA6)</f>
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AF6" s="5">
         <f>SUM(D6,H6,L6,P6,T6,X6,AB6)</f>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="AG6" s="3">
         <f>(7*150-AE6)/(7*150)</f>
-        <v>0.1980952380952381</v>
+        <v>0.19904761904761906</v>
       </c>
       <c r="AH6" s="3">
         <f>(7*150000-AF6)/(7*150000)</f>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="AE7" s="5">
         <f>150*7-AE6</f>
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF7" s="5">
         <f>150000*7-AF6</f>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="G11" s="13">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11" s="14">
         <f t="shared" si="20"/>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="G12" s="16">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="20"/>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="G13" s="16">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" si="20"/>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="G14" s="16">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" si="20"/>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="G15" s="16">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="20"/>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="G16" s="16">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16" s="17">
         <f t="shared" si="20"/>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="G17" s="16">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" s="17">
         <f t="shared" si="20"/>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="G18" s="16">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H18" s="17">
         <f t="shared" si="20"/>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="G19" s="16">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H19" s="17">
         <f t="shared" si="20"/>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="G20" s="16">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H20" s="17">
         <f t="shared" si="20"/>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="G21" s="16">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21" s="17">
         <f t="shared" si="20"/>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="G22" s="16">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H22" s="17">
         <f t="shared" si="20"/>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="G23" s="16">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H23" s="17">
         <f t="shared" si="20"/>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="G24" s="16">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H24" s="17">
         <f t="shared" si="20"/>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="G25" s="16">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H25" s="17">
         <f t="shared" si="20"/>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="G26" s="16">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H26" s="17">
         <f t="shared" si="20"/>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="G27" s="16">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H27" s="17">
         <f t="shared" si="24"/>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="G28" s="16">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H28" s="17">
         <f t="shared" si="24"/>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="G29" s="16">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H29" s="17">
         <f t="shared" si="24"/>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="G30" s="16">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H30" s="17">
         <f t="shared" si="24"/>
@@ -3868,7 +3868,7 @@
       </c>
       <c r="G31" s="16">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H31" s="17">
         <f t="shared" si="24"/>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="G32" s="16">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H32" s="17">
         <f t="shared" si="24"/>
@@ -4124,7 +4124,7 @@
       </c>
       <c r="G33" s="16">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H33" s="17">
         <f t="shared" si="24"/>
@@ -4252,7 +4252,7 @@
       </c>
       <c r="G34" s="16">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H34" s="17">
         <f t="shared" si="24"/>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="G35" s="16">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H35" s="17">
         <f t="shared" si="24"/>
@@ -4508,7 +4508,7 @@
       </c>
       <c r="G36" s="16">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H36" s="17">
         <f t="shared" si="24"/>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="G37" s="16">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H37" s="17">
         <f t="shared" si="24"/>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="G38" s="16">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H38" s="17">
         <f t="shared" si="24"/>
@@ -4889,8 +4889,7 @@
         <v>4562</v>
       </c>
       <c r="G39" s="16">
-        <f t="shared" si="24"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H39" s="17">
         <f t="shared" si="24"/>
@@ -4980,7 +4979,7 @@
       </c>
       <c r="AE39" s="4">
         <f t="shared" si="25"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF39" s="4">
         <f t="shared" si="25"/>

--- a/mission wz.xlsx
+++ b/mission wz.xlsx
@@ -299,7 +299,295 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -665,7 +953,7 @@
   <dimension ref="A1:AK45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="AA6" sqref="AA6:AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -686,8 +974,8 @@
     <col min="15" max="15" width="4.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" style="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5" style="9" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7" style="9" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="3.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5" style="9" bestFit="1" customWidth="1"/>
@@ -751,14 +1039,14 @@
       </c>
       <c r="AI1" s="1">
         <f ca="1">TODAY()</f>
-        <v>41997</v>
+        <v>41998</v>
       </c>
       <c r="AJ1" s="1">
         <v>42023</v>
       </c>
       <c r="AK1">
         <f ca="1">AJ1-AI1-1</f>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:37">
@@ -771,7 +1059,7 @@
       </c>
       <c r="D2" s="8">
         <f>(150000-D6)/150000</f>
-        <v>0.21885333333333334</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -781,27 +1069,27 @@
       </c>
       <c r="H2" s="8">
         <f t="shared" ref="H2" si="1">(150000-H6)/150000</f>
-        <v>9.0413333333333332E-2</v>
+        <v>9.5993333333333333E-2</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8">
         <f t="shared" ref="K2" si="2">(150-K6)/150</f>
-        <v>0.26</v>
+        <v>0.29333333333333333</v>
       </c>
       <c r="L2" s="8">
         <f t="shared" ref="L2" si="3">(150000-L6)/150000</f>
-        <v>0.28837333333333331</v>
+        <v>0.32658666666666669</v>
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8">
         <f t="shared" ref="O2" si="4">(150-O6)/150</f>
-        <v>0.32</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="P2" s="8">
         <f t="shared" ref="P2" si="5">(150000-P6)/150000</f>
-        <v>0.22276666666666667</v>
+        <v>0.30173333333333335</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
@@ -817,11 +1105,11 @@
       <c r="V2" s="8"/>
       <c r="W2" s="8">
         <f t="shared" ref="W2" si="8">(150-W6)/150</f>
-        <v>0.22666666666666666</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="X2" s="8">
         <f t="shared" ref="X2" si="9">(150000-X6)/150000</f>
-        <v>0.24861333333333333</v>
+        <v>0.25781999999999999</v>
       </c>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
@@ -831,7 +1119,7 @@
       </c>
       <c r="AB2" s="8">
         <f t="shared" ref="AB2" si="11">(150000-AB6)/150000</f>
-        <v>0.36727333333333334</v>
+        <v>0.37193999999999999</v>
       </c>
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
@@ -851,60 +1139,60 @@
         <v>12</v>
       </c>
       <c r="C3" s="9">
-        <f ca="1">INT(C6/$AK$1)</f>
+        <f ca="1">IF(C6&lt;0,0,INT(C6/$AK$1))</f>
         <v>4</v>
       </c>
       <c r="D3" s="9">
-        <f ca="1">INT(D6/$AK$1)</f>
-        <v>4686</v>
+        <f ca="1">IF(D6&lt;0,0,INT(D6/$AK$1))</f>
+        <v>4837</v>
       </c>
       <c r="G3" s="9">
-        <f ca="1">INT(G6/$AK$1)</f>
+        <f ca="1">IF(G6&lt;0,0,INT(G6/$AK$1))</f>
+        <v>6</v>
+      </c>
+      <c r="H3" s="9">
+        <f ca="1">IF(H6&lt;0,0,INT(H6/$AK$1))</f>
+        <v>5650</v>
+      </c>
+      <c r="K3" s="9">
+        <f ca="1">IF(K6&lt;0,0,INT(K6/$AK$1))</f>
+        <v>4</v>
+      </c>
+      <c r="L3" s="9">
+        <f ca="1">IF(L6&lt;0,0,INT(L6/$AK$1))</f>
+        <v>4208</v>
+      </c>
+      <c r="O3" s="9">
+        <f ca="1">IF(O6&lt;0,0,INT(O6/$AK$1))</f>
+        <v>3</v>
+      </c>
+      <c r="P3" s="9">
+        <f ca="1">IF(P6&lt;0,0,INT(P6/$AK$1))</f>
+        <v>4364</v>
+      </c>
+      <c r="S3" s="9">
+        <f ca="1">IF(S6&lt;0,0,INT(S6/$AK$1))</f>
         <v>5</v>
       </c>
-      <c r="H3" s="9">
-        <f ca="1">INT(H6/$AK$1)</f>
-        <v>5457</v>
-      </c>
-      <c r="K3" s="9">
-        <f ca="1">INT(K6/$AK$1)</f>
+      <c r="T3" s="9">
+        <f ca="1">IF(T6&lt;0,0,INT(T6/$AK$1))</f>
+        <v>5917</v>
+      </c>
+      <c r="W3" s="9">
+        <f ca="1">IF(W6&lt;0,0,INT(W6/$AK$1))</f>
         <v>4</v>
       </c>
-      <c r="L3" s="9">
-        <f ca="1">INT(L6/$AK$1)</f>
-        <v>4269</v>
-      </c>
-      <c r="O3" s="9">
-        <f ca="1">INT(O6/$AK$1)</f>
+      <c r="X3" s="9">
+        <f ca="1">IF(X6&lt;0,0,INT(X6/$AK$1))</f>
+        <v>4638</v>
+      </c>
+      <c r="AA3" s="9">
+        <f ca="1">IF(AA6&lt;0,0,INT(AA6/$AK$1))</f>
         <v>4</v>
       </c>
-      <c r="P3" s="9">
-        <f ca="1">INT(P6/$AK$1)</f>
-        <v>4663</v>
-      </c>
-      <c r="S3" s="9">
-        <f ca="1">INT(S6/$AK$1)</f>
-        <v>5</v>
-      </c>
-      <c r="T3" s="9">
-        <f ca="1">INT(T6/$AK$1)</f>
-        <v>5680</v>
-      </c>
-      <c r="W3" s="9">
-        <f ca="1">INT(W6/$AK$1)</f>
-        <v>4</v>
-      </c>
-      <c r="X3" s="9">
-        <f ca="1">INT(X6/$AK$1)</f>
-        <v>4508</v>
-      </c>
-      <c r="AA3" s="9">
-        <f ca="1">INT(AA6/$AK$1)</f>
-        <v>4</v>
-      </c>
       <c r="AB3" s="9">
-        <f ca="1">INT(AB6/$AK$1)</f>
-        <v>3796</v>
+        <f ca="1">IF(AB6&lt;0,0,INT(AB6/$AK$1))</f>
+        <v>3925</v>
       </c>
       <c r="AE3" s="5">
         <f t="shared" ref="AE3:AE4" ca="1" si="12">SUM(C3,G3,K3,O3,S3,W3,AA3)</f>
@@ -912,7 +1200,7 @@
       </c>
       <c r="AF3" s="5">
         <f ca="1">SUM(D3,H3,L3,P3,T3,X3,AB3)</f>
-        <v>33059</v>
+        <v>33539</v>
       </c>
       <c r="AI3" s="1">
         <v>41996</v>
@@ -922,7 +1210,7 @@
       </c>
       <c r="AK3" s="2">
         <f ca="1">(AK2-AK1)/AK2</f>
-        <v>0.24242424242424243</v>
+        <v>0.27272727272727271</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -999,76 +1287,76 @@
         <v>11</v>
       </c>
       <c r="C5" s="9">
-        <f ca="1">150-INT(150-150/34*$AK$1)-C6</f>
-        <v>11</v>
+        <f ca="1">IF(150-INT(150-150/34*$AK$1)&lt;0,0,150-INT(150-150/34*$AK$1)-C6)</f>
+        <v>6</v>
       </c>
       <c r="D5" s="9">
-        <f ca="1">150000-INT(150000-150000/34*$AK$1)-D6</f>
-        <v>-6877</v>
+        <f ca="1">IF(150000-INT(150000-150000/34*$AK$1)&lt;0,0,150000-INT(150000-150000/34*$AK$1)-D6)</f>
+        <v>-10217</v>
       </c>
       <c r="G5" s="9">
-        <f ca="1">150-INT(150-150/34*$AK$1)-G6</f>
-        <v>-33</v>
+        <f ca="1">IF(150-INT(150-150/34*$AK$1)&lt;0,0,150-INT(150-150/34*$AK$1)-G6)</f>
+        <v>-38</v>
       </c>
       <c r="H5" s="9">
-        <f ca="1">150000-INT(150000-150000/34*$AK$1)-H6</f>
-        <v>-26143</v>
+        <f ca="1">IF(150000-INT(150000-150000/34*$AK$1)&lt;0,0,150000-INT(150000-150000/34*$AK$1)-H6)</f>
+        <v>-29718</v>
       </c>
       <c r="K5" s="9">
-        <f ca="1">150-INT(150-150/34*$AK$1)-K6</f>
+        <f ca="1">IF(150-INT(150-150/34*$AK$1)&lt;0,0,150-INT(150-150/34*$AK$1)-K6)</f>
         <v>0</v>
       </c>
       <c r="L5" s="9">
-        <f ca="1">150000-INT(150000-150000/34*$AK$1)-L6</f>
-        <v>3551</v>
+        <f ca="1">IF(150000-INT(150000-150000/34*$AK$1)&lt;0,0,150000-INT(150000-150000/34*$AK$1)-L6)</f>
+        <v>4871</v>
       </c>
       <c r="O5" s="9">
-        <f ca="1">150-INT(150-150/34*$AK$1)-O6</f>
-        <v>9</v>
+        <f ca="1">IF(150-INT(150-150/34*$AK$1)&lt;0,0,150-INT(150-150/34*$AK$1)-O6)</f>
+        <v>21</v>
       </c>
       <c r="P5" s="9">
-        <f ca="1">150000-INT(150000-150000/34*$AK$1)-P6</f>
-        <v>-6290</v>
+        <f ca="1">IF(150000-INT(150000-150000/34*$AK$1)&lt;0,0,150000-INT(150000-150000/34*$AK$1)-P6)</f>
+        <v>1143</v>
       </c>
       <c r="S5" s="9">
-        <f ca="1">150-INT(150-150/34*$AK$1)-S6</f>
-        <v>-27</v>
+        <f ca="1">IF(150-INT(150-150/34*$AK$1)&lt;0,0,150-INT(150-150/34*$AK$1)-S6)</f>
+        <v>-32</v>
       </c>
       <c r="T5" s="9">
-        <f ca="1">150000-INT(150000-150000/34*$AK$1)-T6</f>
-        <v>-31714</v>
+        <f ca="1">IF(150000-INT(150000-150000/34*$AK$1)&lt;0,0,150000-INT(150000-150000/34*$AK$1)-T6)</f>
+        <v>-36126</v>
       </c>
       <c r="W5" s="9">
-        <f ca="1">150-INT(150-150/34*$AK$1)-W6</f>
-        <v>-5</v>
+        <f ca="1">IF(150-INT(150-150/34*$AK$1)&lt;0,0,150-INT(150-150/34*$AK$1)-W6)</f>
+        <v>-9</v>
       </c>
       <c r="X5" s="9">
-        <f ca="1">150000-INT(150000-150000/34*$AK$1)-X6</f>
-        <v>-2413</v>
+        <f ca="1">IF(150000-INT(150000-150000/34*$AK$1)&lt;0,0,150000-INT(150000-150000/34*$AK$1)-X6)</f>
+        <v>-5444</v>
       </c>
       <c r="AA5" s="9">
-        <f ca="1">150-INT(150-150/34*$AK$1)-AA6</f>
-        <v>3</v>
+        <f ca="1">IF(150-INT(150-150/34*$AK$1)&lt;0,0,150-INT(150-150/34*$AK$1)-AA6)</f>
+        <v>-2</v>
       </c>
       <c r="AB5" s="9">
-        <f ca="1">150000-INT(150000-150000/34*$AK$1)-AB6</f>
-        <v>15386</v>
+        <f ca="1">IF(150000-INT(150000-150000/34*$AK$1)&lt;0,0,150000-INT(150000-150000/34*$AK$1)-AB6)</f>
+        <v>11674</v>
       </c>
       <c r="AE5" s="5">
         <f ca="1">SUM(C5,G5,K5,O5,S5,W5,AA5)</f>
-        <v>-42</v>
+        <v>-54</v>
       </c>
       <c r="AF5" s="5">
         <f ca="1">SUM(D5,H5,L5,P5,T5,X5,AB5)</f>
-        <v>-54500</v>
+        <v>-63817</v>
       </c>
       <c r="AG5" s="3">
         <f ca="1">-$AK$3+AG6</f>
-        <v>-2.242424242424243E-2</v>
+        <v>-3.0822510822510807E-2</v>
       </c>
       <c r="AH5" s="3">
         <f ca="1">AH6-$AK$3</f>
-        <v>-2.9629004329004338E-2</v>
+        <v>-3.9392034632034612E-2</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1076,76 +1364,76 @@
         <v>9</v>
       </c>
       <c r="C6" s="9">
-        <f>150-C11</f>
+        <f>IF(150-C11&lt;0,0,150-C11)</f>
         <v>100</v>
       </c>
       <c r="D6" s="9">
-        <f>150000-D11</f>
-        <v>117172</v>
+        <f>IF(150000-D11&lt;0,0,150000-D11)</f>
+        <v>116100</v>
       </c>
       <c r="G6" s="9">
-        <f t="shared" ref="G6" si="14">150-G11</f>
+        <f>IF(150-G11&lt;0,0,150-G11)</f>
         <v>144</v>
       </c>
       <c r="H6" s="9">
-        <f>150000-H11</f>
-        <v>136438</v>
+        <f>IF(150000-H11&lt;0,0,150000-H11)</f>
+        <v>135601</v>
       </c>
       <c r="K6" s="9">
-        <f t="shared" ref="K6" si="15">150-K11</f>
-        <v>111</v>
+        <f>IF(150-K11&lt;0,0,150-K11)</f>
+        <v>106</v>
       </c>
       <c r="L6" s="9">
-        <f>150000-L11</f>
-        <v>106744</v>
+        <f>IF(150000-L11&lt;0,0,150000-L11)</f>
+        <v>101012</v>
       </c>
       <c r="O6" s="9">
-        <f t="shared" ref="O6" si="16">150-O11</f>
-        <v>102</v>
+        <f>IF(150-O11&lt;0,0,150-O11)</f>
+        <v>85</v>
       </c>
       <c r="P6" s="9">
-        <f>150000-P11</f>
-        <v>116585</v>
+        <f>IF(150000-P11&lt;0,0,150000-P11)</f>
+        <v>104740</v>
       </c>
       <c r="S6" s="9">
-        <f t="shared" ref="S6" si="17">150-S11</f>
+        <f>IF(150-S11&lt;0,0,150-S11)</f>
         <v>138</v>
       </c>
       <c r="T6" s="9">
-        <f>150000-T11</f>
+        <f>IF(150000-T11&lt;0,0,150000-T11)</f>
         <v>142009</v>
       </c>
       <c r="W6" s="9">
-        <f t="shared" ref="W6" si="18">150-W11</f>
-        <v>116</v>
+        <f>IF(150-W11&lt;0,0,150-W11)</f>
+        <v>115</v>
       </c>
       <c r="X6" s="9">
-        <f>150000-X11</f>
-        <v>112708</v>
+        <f>IF(150000-X11&lt;0,0,150000-X11)</f>
+        <v>111327</v>
       </c>
       <c r="AA6" s="9">
-        <f t="shared" ref="AA6" si="19">150-AA11</f>
+        <f>IF(150-AA11&lt;0,0,150-AA11)</f>
         <v>108</v>
       </c>
       <c r="AB6" s="9">
-        <f>150000-AB11</f>
-        <v>94909</v>
+        <f>IF(150000-AB11&lt;0,0,150000-AB11)</f>
+        <v>94209</v>
       </c>
       <c r="AE6" s="5">
         <f>SUM(C6,G6,K6,O6,S6,W6,AA6)</f>
-        <v>819</v>
+        <v>796</v>
       </c>
       <c r="AF6" s="5">
         <f>SUM(D6,H6,L6,P6,T6,X6,AB6)</f>
-        <v>826565</v>
+        <v>804998</v>
       </c>
       <c r="AG6" s="3">
         <f>(7*150-AE6)/(7*150)</f>
-        <v>0.22</v>
+        <v>0.2419047619047619</v>
       </c>
       <c r="AH6" s="3">
         <f>(7*150000-AF6)/(7*150000)</f>
-        <v>0.21279523809523809</v>
+        <v>0.2333352380952381</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -1154,11 +1442,11 @@
       </c>
       <c r="AE7" s="5">
         <f>150*7-AE6</f>
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="AF7" s="5">
         <f>150000*7-AF6</f>
-        <v>223435</v>
+        <v>245002</v>
       </c>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
@@ -1277,115 +1565,115 @@
         <v>42023</v>
       </c>
       <c r="C11" s="13">
-        <f t="shared" ref="C11:R26" si="20">C12</f>
+        <f t="shared" ref="C11:P26" si="14">C12</f>
         <v>50</v>
       </c>
       <c r="D11" s="14">
-        <f t="shared" si="20"/>
-        <v>32828</v>
+        <f t="shared" si="14"/>
+        <v>33900</v>
       </c>
       <c r="E11" s="16">
-        <f t="shared" ref="E11:E39" si="21">C11-C12</f>
+        <f t="shared" ref="E11:E39" si="15">C11-C12</f>
         <v>0</v>
       </c>
       <c r="F11" s="17">
-        <f t="shared" ref="F11:F39" si="22">D11-D12</f>
+        <f t="shared" ref="F11:F39" si="16">D11-D12</f>
         <v>0</v>
       </c>
       <c r="G11" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="H11" s="14">
-        <f t="shared" si="20"/>
-        <v>13562</v>
+        <f t="shared" si="14"/>
+        <v>14399</v>
       </c>
       <c r="I11" s="16">
-        <f t="shared" ref="I11:I39" si="23">G11-G12</f>
+        <f t="shared" ref="I11:I39" si="17">G11-G12</f>
         <v>0</v>
       </c>
       <c r="J11" s="17">
-        <f t="shared" ref="J11:J39" si="24">H11-H12</f>
+        <f t="shared" ref="J11:J39" si="18">H11-H12</f>
         <v>0</v>
       </c>
       <c r="K11" s="13">
-        <f t="shared" si="20"/>
-        <v>39</v>
+        <f t="shared" si="14"/>
+        <v>44</v>
       </c>
       <c r="L11" s="14">
-        <f t="shared" si="20"/>
-        <v>43256</v>
+        <f t="shared" si="14"/>
+        <v>48988</v>
       </c>
       <c r="M11" s="16">
-        <f t="shared" ref="M11:M39" si="25">K11-K12</f>
+        <f t="shared" ref="M11:M39" si="19">K11-K12</f>
         <v>0</v>
       </c>
       <c r="N11" s="17">
-        <f t="shared" ref="N11:N39" si="26">L11-L12</f>
+        <f t="shared" ref="N11:N39" si="20">L11-L12</f>
         <v>0</v>
       </c>
       <c r="O11" s="13">
-        <f t="shared" si="20"/>
-        <v>48</v>
+        <f t="shared" si="14"/>
+        <v>65</v>
       </c>
       <c r="P11" s="14">
-        <f t="shared" si="20"/>
-        <v>33415</v>
+        <f t="shared" si="14"/>
+        <v>45260</v>
       </c>
       <c r="Q11" s="16">
-        <f t="shared" ref="Q11:Q39" si="27">O11-O12</f>
+        <f t="shared" ref="Q11:Q39" si="21">O11-O12</f>
         <v>0</v>
       </c>
       <c r="R11" s="17">
-        <f t="shared" ref="R11:R39" si="28">P11-P12</f>
+        <f t="shared" ref="R11:R39" si="22">P11-P12</f>
         <v>0</v>
       </c>
       <c r="S11" s="13">
-        <f t="shared" ref="S11:AD32" si="29">S12</f>
+        <f t="shared" ref="S11:AB32" si="23">S12</f>
         <v>12</v>
       </c>
       <c r="T11" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>7991</v>
       </c>
       <c r="U11" s="16">
-        <f t="shared" ref="U11:U39" si="30">S11-S12</f>
+        <f t="shared" ref="U11:U39" si="24">S11-S12</f>
         <v>0</v>
       </c>
       <c r="V11" s="17">
-        <f t="shared" ref="V11:V39" si="31">T11-T12</f>
+        <f t="shared" ref="V11:V39" si="25">T11-T12</f>
         <v>0</v>
       </c>
       <c r="W11" s="13">
-        <f t="shared" si="29"/>
-        <v>34</v>
+        <f t="shared" si="23"/>
+        <v>35</v>
       </c>
       <c r="X11" s="14">
-        <f t="shared" si="29"/>
-        <v>37292</v>
+        <f t="shared" si="23"/>
+        <v>38673</v>
       </c>
       <c r="Y11" s="16">
-        <f t="shared" ref="Y11:Y39" si="32">W11-W12</f>
+        <f t="shared" ref="Y11:Y39" si="26">W11-W12</f>
         <v>0</v>
       </c>
       <c r="Z11" s="17">
-        <f t="shared" ref="Z11:Z39" si="33">X11-X12</f>
+        <f t="shared" ref="Z11:Z39" si="27">X11-X12</f>
         <v>0</v>
       </c>
       <c r="AA11" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>42</v>
       </c>
       <c r="AB11" s="14">
-        <f t="shared" si="29"/>
-        <v>55091</v>
+        <f t="shared" si="23"/>
+        <v>55791</v>
       </c>
       <c r="AC11" s="16">
-        <f t="shared" ref="AC11:AC39" si="34">AA11-AA12</f>
+        <f t="shared" ref="AC11:AC39" si="28">AA11-AA12</f>
         <v>0</v>
       </c>
       <c r="AD11" s="17">
-        <f t="shared" ref="AD11:AD39" si="35">AB11-AB12</f>
+        <f t="shared" ref="AD11:AD39" si="29">AB11-AB12</f>
         <v>0</v>
       </c>
       <c r="AE11" s="4">
@@ -1405,123 +1693,123 @@
         <v>42022</v>
       </c>
       <c r="C12" s="15">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="D12" s="16">
+        <f t="shared" si="14"/>
+        <v>33900</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="H12" s="16">
+        <f t="shared" si="14"/>
+        <v>14399</v>
+      </c>
+      <c r="I12" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="L12" s="16">
+        <f t="shared" si="14"/>
+        <v>48988</v>
+      </c>
+      <c r="M12" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="17">
         <f t="shared" si="20"/>
-        <v>50</v>
-      </c>
-      <c r="D12" s="16">
-        <f t="shared" si="20"/>
-        <v>32828</v>
-      </c>
-      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+      <c r="O12" s="15">
+        <f t="shared" si="14"/>
+        <v>65</v>
+      </c>
+      <c r="P12" s="16">
+        <f t="shared" si="14"/>
+        <v>45260</v>
+      </c>
+      <c r="Q12" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F12" s="17">
+      <c r="R12" s="17">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G12" s="15">
-        <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="H12" s="16">
-        <f t="shared" si="20"/>
-        <v>13562</v>
-      </c>
-      <c r="I12" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="17">
+      <c r="S12" s="15">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="T12" s="16">
+        <f t="shared" si="23"/>
+        <v>7991</v>
+      </c>
+      <c r="U12" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K12" s="15">
-        <f t="shared" si="20"/>
-        <v>39</v>
-      </c>
-      <c r="L12" s="16">
-        <f t="shared" si="20"/>
-        <v>43256</v>
-      </c>
-      <c r="M12" s="16">
+      <c r="V12" s="17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N12" s="17">
+      <c r="W12" s="15">
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="X12" s="16">
+        <f t="shared" si="23"/>
+        <v>38673</v>
+      </c>
+      <c r="Y12" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O12" s="15">
-        <f t="shared" si="20"/>
-        <v>48</v>
-      </c>
-      <c r="P12" s="16">
-        <f t="shared" si="20"/>
-        <v>33415</v>
-      </c>
-      <c r="Q12" s="16">
+      <c r="Z12" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R12" s="17">
+      <c r="AA12" s="15">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+      <c r="AB12" s="16">
+        <f t="shared" si="23"/>
+        <v>55791</v>
+      </c>
+      <c r="AC12" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S12" s="15">
+      <c r="AD12" s="17">
         <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="T12" s="16">
-        <f t="shared" si="29"/>
-        <v>7991</v>
-      </c>
-      <c r="U12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="4">
+        <f t="shared" ref="AE12:AF27" si="30">SUM(C12,G12,K12,O12,S12,W12,AA12)-SUM(C13,G13,K13,O13,S13,W13,AA13)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="4">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="17">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="15">
-        <f t="shared" si="29"/>
-        <v>34</v>
-      </c>
-      <c r="X12" s="16">
-        <f t="shared" si="29"/>
-        <v>37292</v>
-      </c>
-      <c r="Y12" s="16">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="17">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="15">
-        <f t="shared" si="29"/>
-        <v>42</v>
-      </c>
-      <c r="AB12" s="16">
-        <f t="shared" si="29"/>
-        <v>55091</v>
-      </c>
-      <c r="AC12" s="16">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="4">
-        <f t="shared" ref="AE12:AF27" si="36">SUM(C12,G12,K12,O12,S12,W12,AA12)-SUM(C13,G13,K13,O13,S13,W13,AA13)</f>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="4">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -1533,123 +1821,123 @@
         <v>42021</v>
       </c>
       <c r="C13" s="15">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="D13" s="16">
+        <f t="shared" si="14"/>
+        <v>33900</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="15">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="H13" s="16">
+        <f t="shared" si="14"/>
+        <v>14399</v>
+      </c>
+      <c r="I13" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="15">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="L13" s="16">
+        <f t="shared" si="14"/>
+        <v>48988</v>
+      </c>
+      <c r="M13" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="17">
         <f t="shared" si="20"/>
-        <v>50</v>
-      </c>
-      <c r="D13" s="16">
-        <f t="shared" si="20"/>
-        <v>32828</v>
-      </c>
-      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+      <c r="O13" s="15">
+        <f t="shared" si="14"/>
+        <v>65</v>
+      </c>
+      <c r="P13" s="16">
+        <f t="shared" si="14"/>
+        <v>45260</v>
+      </c>
+      <c r="Q13" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F13" s="17">
+      <c r="R13" s="17">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G13" s="15">
-        <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="H13" s="16">
-        <f t="shared" si="20"/>
-        <v>13562</v>
-      </c>
-      <c r="I13" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="17">
+      <c r="S13" s="15">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="T13" s="16">
+        <f t="shared" si="23"/>
+        <v>7991</v>
+      </c>
+      <c r="U13" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K13" s="15">
-        <f t="shared" si="20"/>
-        <v>39</v>
-      </c>
-      <c r="L13" s="16">
-        <f t="shared" si="20"/>
-        <v>43256</v>
-      </c>
-      <c r="M13" s="16">
+      <c r="V13" s="17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N13" s="17">
+      <c r="W13" s="15">
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="X13" s="16">
+        <f t="shared" si="23"/>
+        <v>38673</v>
+      </c>
+      <c r="Y13" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O13" s="15">
-        <f t="shared" si="20"/>
-        <v>48</v>
-      </c>
-      <c r="P13" s="16">
-        <f t="shared" si="20"/>
-        <v>33415</v>
-      </c>
-      <c r="Q13" s="16">
+      <c r="Z13" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R13" s="17">
+      <c r="AA13" s="15">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+      <c r="AB13" s="16">
+        <f t="shared" si="23"/>
+        <v>55791</v>
+      </c>
+      <c r="AC13" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S13" s="15">
+      <c r="AD13" s="17">
         <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="T13" s="16">
-        <f t="shared" si="29"/>
-        <v>7991</v>
-      </c>
-      <c r="U13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V13" s="17">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="15">
-        <f t="shared" si="29"/>
-        <v>34</v>
-      </c>
-      <c r="X13" s="16">
-        <f t="shared" si="29"/>
-        <v>37292</v>
-      </c>
-      <c r="Y13" s="16">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="17">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="15">
-        <f t="shared" si="29"/>
-        <v>42</v>
-      </c>
-      <c r="AB13" s="16">
-        <f t="shared" si="29"/>
-        <v>55091</v>
-      </c>
-      <c r="AC13" s="16">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="4">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
       <c r="AF13" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -1661,123 +1949,123 @@
         <v>42020</v>
       </c>
       <c r="C14" s="15">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="D14" s="16">
+        <f t="shared" si="14"/>
+        <v>33900</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" si="14"/>
+        <v>14399</v>
+      </c>
+      <c r="I14" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="15">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="L14" s="16">
+        <f t="shared" si="14"/>
+        <v>48988</v>
+      </c>
+      <c r="M14" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="17">
         <f t="shared" si="20"/>
-        <v>50</v>
-      </c>
-      <c r="D14" s="16">
-        <f t="shared" si="20"/>
-        <v>32828</v>
-      </c>
-      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="O14" s="15">
+        <f t="shared" si="14"/>
+        <v>65</v>
+      </c>
+      <c r="P14" s="16">
+        <f t="shared" si="14"/>
+        <v>45260</v>
+      </c>
+      <c r="Q14" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F14" s="17">
+      <c r="R14" s="17">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G14" s="15">
-        <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="H14" s="16">
-        <f t="shared" si="20"/>
-        <v>13562</v>
-      </c>
-      <c r="I14" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="17">
+      <c r="S14" s="15">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="T14" s="16">
+        <f t="shared" si="23"/>
+        <v>7991</v>
+      </c>
+      <c r="U14" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K14" s="15">
-        <f t="shared" si="20"/>
-        <v>39</v>
-      </c>
-      <c r="L14" s="16">
-        <f t="shared" si="20"/>
-        <v>43256</v>
-      </c>
-      <c r="M14" s="16">
+      <c r="V14" s="17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N14" s="17">
+      <c r="W14" s="15">
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="X14" s="16">
+        <f t="shared" si="23"/>
+        <v>38673</v>
+      </c>
+      <c r="Y14" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O14" s="15">
-        <f t="shared" si="20"/>
-        <v>48</v>
-      </c>
-      <c r="P14" s="16">
-        <f t="shared" si="20"/>
-        <v>33415</v>
-      </c>
-      <c r="Q14" s="16">
+      <c r="Z14" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R14" s="17">
+      <c r="AA14" s="15">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+      <c r="AB14" s="16">
+        <f t="shared" si="23"/>
+        <v>55791</v>
+      </c>
+      <c r="AC14" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S14" s="15">
+      <c r="AD14" s="17">
         <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="T14" s="16">
-        <f t="shared" si="29"/>
-        <v>7991</v>
-      </c>
-      <c r="U14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V14" s="17">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="15">
-        <f t="shared" si="29"/>
-        <v>34</v>
-      </c>
-      <c r="X14" s="16">
-        <f t="shared" si="29"/>
-        <v>37292</v>
-      </c>
-      <c r="Y14" s="16">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="17">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="15">
-        <f t="shared" si="29"/>
-        <v>42</v>
-      </c>
-      <c r="AB14" s="16">
-        <f t="shared" si="29"/>
-        <v>55091</v>
-      </c>
-      <c r="AC14" s="16">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="4">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
       <c r="AF14" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -1789,123 +2077,123 @@
         <v>42019</v>
       </c>
       <c r="C15" s="15">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" si="14"/>
+        <v>33900</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="H15" s="16">
+        <f t="shared" si="14"/>
+        <v>14399</v>
+      </c>
+      <c r="I15" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="L15" s="16">
+        <f t="shared" si="14"/>
+        <v>48988</v>
+      </c>
+      <c r="M15" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="17">
         <f t="shared" si="20"/>
-        <v>50</v>
-      </c>
-      <c r="D15" s="16">
-        <f t="shared" si="20"/>
-        <v>32828</v>
-      </c>
-      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="O15" s="15">
+        <f t="shared" si="14"/>
+        <v>65</v>
+      </c>
+      <c r="P15" s="16">
+        <f t="shared" si="14"/>
+        <v>45260</v>
+      </c>
+      <c r="Q15" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F15" s="17">
+      <c r="R15" s="17">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G15" s="15">
-        <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="H15" s="16">
-        <f t="shared" si="20"/>
-        <v>13562</v>
-      </c>
-      <c r="I15" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="17">
+      <c r="S15" s="15">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="T15" s="16">
+        <f t="shared" si="23"/>
+        <v>7991</v>
+      </c>
+      <c r="U15" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K15" s="15">
-        <f t="shared" si="20"/>
-        <v>39</v>
-      </c>
-      <c r="L15" s="16">
-        <f t="shared" si="20"/>
-        <v>43256</v>
-      </c>
-      <c r="M15" s="16">
+      <c r="V15" s="17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N15" s="17">
+      <c r="W15" s="15">
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="X15" s="16">
+        <f t="shared" si="23"/>
+        <v>38673</v>
+      </c>
+      <c r="Y15" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O15" s="15">
-        <f t="shared" si="20"/>
-        <v>48</v>
-      </c>
-      <c r="P15" s="16">
-        <f t="shared" si="20"/>
-        <v>33415</v>
-      </c>
-      <c r="Q15" s="16">
+      <c r="Z15" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R15" s="17">
+      <c r="AA15" s="15">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+      <c r="AB15" s="16">
+        <f t="shared" si="23"/>
+        <v>55791</v>
+      </c>
+      <c r="AC15" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S15" s="15">
+      <c r="AD15" s="17">
         <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="T15" s="16">
-        <f t="shared" si="29"/>
-        <v>7991</v>
-      </c>
-      <c r="U15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V15" s="17">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="15">
-        <f t="shared" si="29"/>
-        <v>34</v>
-      </c>
-      <c r="X15" s="16">
-        <f t="shared" si="29"/>
-        <v>37292</v>
-      </c>
-      <c r="Y15" s="16">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="17">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="15">
-        <f t="shared" si="29"/>
-        <v>42</v>
-      </c>
-      <c r="AB15" s="16">
-        <f t="shared" si="29"/>
-        <v>55091</v>
-      </c>
-      <c r="AC15" s="16">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AE15" s="4">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
       <c r="AF15" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -1917,123 +2205,123 @@
         <v>42018</v>
       </c>
       <c r="C16" s="15">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" si="14"/>
+        <v>33900</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="H16" s="16">
+        <f t="shared" si="14"/>
+        <v>14399</v>
+      </c>
+      <c r="I16" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="L16" s="16">
+        <f t="shared" si="14"/>
+        <v>48988</v>
+      </c>
+      <c r="M16" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="17">
         <f t="shared" si="20"/>
-        <v>50</v>
-      </c>
-      <c r="D16" s="16">
-        <f t="shared" si="20"/>
-        <v>32828</v>
-      </c>
-      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="15">
+        <f t="shared" si="14"/>
+        <v>65</v>
+      </c>
+      <c r="P16" s="16">
+        <f t="shared" si="14"/>
+        <v>45260</v>
+      </c>
+      <c r="Q16" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F16" s="17">
+      <c r="R16" s="17">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G16" s="15">
-        <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="H16" s="16">
-        <f t="shared" si="20"/>
-        <v>13562</v>
-      </c>
-      <c r="I16" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="17">
+      <c r="S16" s="15">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="T16" s="16">
+        <f t="shared" si="23"/>
+        <v>7991</v>
+      </c>
+      <c r="U16" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K16" s="15">
-        <f t="shared" si="20"/>
-        <v>39</v>
-      </c>
-      <c r="L16" s="16">
-        <f t="shared" si="20"/>
-        <v>43256</v>
-      </c>
-      <c r="M16" s="16">
+      <c r="V16" s="17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N16" s="17">
+      <c r="W16" s="15">
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="X16" s="16">
+        <f t="shared" si="23"/>
+        <v>38673</v>
+      </c>
+      <c r="Y16" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O16" s="15">
-        <f t="shared" si="20"/>
-        <v>48</v>
-      </c>
-      <c r="P16" s="16">
-        <f t="shared" si="20"/>
-        <v>33415</v>
-      </c>
-      <c r="Q16" s="16">
+      <c r="Z16" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R16" s="17">
+      <c r="AA16" s="15">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+      <c r="AB16" s="16">
+        <f t="shared" si="23"/>
+        <v>55791</v>
+      </c>
+      <c r="AC16" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S16" s="15">
+      <c r="AD16" s="17">
         <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="T16" s="16">
-        <f t="shared" si="29"/>
-        <v>7991</v>
-      </c>
-      <c r="U16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V16" s="17">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="15">
-        <f t="shared" si="29"/>
-        <v>34</v>
-      </c>
-      <c r="X16" s="16">
-        <f t="shared" si="29"/>
-        <v>37292</v>
-      </c>
-      <c r="Y16" s="16">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="17">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="15">
-        <f t="shared" si="29"/>
-        <v>42</v>
-      </c>
-      <c r="AB16" s="16">
-        <f t="shared" si="29"/>
-        <v>55091</v>
-      </c>
-      <c r="AC16" s="16">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AE16" s="4">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
       <c r="AF16" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -2045,123 +2333,123 @@
         <v>42017</v>
       </c>
       <c r="C17" s="15">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="D17" s="16">
+        <f t="shared" si="14"/>
+        <v>33900</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="15">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="H17" s="16">
+        <f t="shared" si="14"/>
+        <v>14399</v>
+      </c>
+      <c r="I17" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="15">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="L17" s="16">
+        <f t="shared" si="14"/>
+        <v>48988</v>
+      </c>
+      <c r="M17" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="17">
         <f t="shared" si="20"/>
-        <v>50</v>
-      </c>
-      <c r="D17" s="16">
-        <f t="shared" si="20"/>
-        <v>32828</v>
-      </c>
-      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="O17" s="15">
+        <f t="shared" si="14"/>
+        <v>65</v>
+      </c>
+      <c r="P17" s="16">
+        <f t="shared" si="14"/>
+        <v>45260</v>
+      </c>
+      <c r="Q17" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F17" s="17">
+      <c r="R17" s="17">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G17" s="15">
-        <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="H17" s="16">
-        <f t="shared" si="20"/>
-        <v>13562</v>
-      </c>
-      <c r="I17" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="17">
+      <c r="S17" s="15">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="T17" s="16">
+        <f t="shared" si="23"/>
+        <v>7991</v>
+      </c>
+      <c r="U17" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K17" s="15">
-        <f t="shared" si="20"/>
-        <v>39</v>
-      </c>
-      <c r="L17" s="16">
-        <f t="shared" si="20"/>
-        <v>43256</v>
-      </c>
-      <c r="M17" s="16">
+      <c r="V17" s="17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N17" s="17">
+      <c r="W17" s="15">
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="X17" s="16">
+        <f t="shared" si="23"/>
+        <v>38673</v>
+      </c>
+      <c r="Y17" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O17" s="15">
-        <f t="shared" si="20"/>
-        <v>48</v>
-      </c>
-      <c r="P17" s="16">
-        <f t="shared" si="20"/>
-        <v>33415</v>
-      </c>
-      <c r="Q17" s="16">
+      <c r="Z17" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R17" s="17">
+      <c r="AA17" s="15">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+      <c r="AB17" s="16">
+        <f t="shared" si="23"/>
+        <v>55791</v>
+      </c>
+      <c r="AC17" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S17" s="15">
+      <c r="AD17" s="17">
         <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="T17" s="16">
-        <f t="shared" si="29"/>
-        <v>7991</v>
-      </c>
-      <c r="U17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V17" s="17">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W17" s="15">
-        <f t="shared" si="29"/>
-        <v>34</v>
-      </c>
-      <c r="X17" s="16">
-        <f t="shared" si="29"/>
-        <v>37292</v>
-      </c>
-      <c r="Y17" s="16">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="17">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="15">
-        <f t="shared" si="29"/>
-        <v>42</v>
-      </c>
-      <c r="AB17" s="16">
-        <f t="shared" si="29"/>
-        <v>55091</v>
-      </c>
-      <c r="AC17" s="16">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AD17" s="17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AE17" s="4">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
       <c r="AF17" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -2173,123 +2461,123 @@
         <v>42016</v>
       </c>
       <c r="C18" s="15">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="D18" s="16">
+        <f t="shared" si="14"/>
+        <v>33900</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="H18" s="16">
+        <f t="shared" si="14"/>
+        <v>14399</v>
+      </c>
+      <c r="I18" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="L18" s="16">
+        <f t="shared" si="14"/>
+        <v>48988</v>
+      </c>
+      <c r="M18" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="17">
         <f t="shared" si="20"/>
-        <v>50</v>
-      </c>
-      <c r="D18" s="16">
-        <f t="shared" si="20"/>
-        <v>32828</v>
-      </c>
-      <c r="E18" s="16">
+        <v>0</v>
+      </c>
+      <c r="O18" s="15">
+        <f t="shared" si="14"/>
+        <v>65</v>
+      </c>
+      <c r="P18" s="16">
+        <f t="shared" si="14"/>
+        <v>45260</v>
+      </c>
+      <c r="Q18" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F18" s="17">
+      <c r="R18" s="17">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G18" s="15">
-        <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="H18" s="16">
-        <f t="shared" si="20"/>
-        <v>13562</v>
-      </c>
-      <c r="I18" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="17">
+      <c r="S18" s="15">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="T18" s="16">
+        <f t="shared" si="23"/>
+        <v>7991</v>
+      </c>
+      <c r="U18" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K18" s="15">
-        <f t="shared" si="20"/>
-        <v>39</v>
-      </c>
-      <c r="L18" s="16">
-        <f t="shared" si="20"/>
-        <v>43256</v>
-      </c>
-      <c r="M18" s="16">
+      <c r="V18" s="17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N18" s="17">
+      <c r="W18" s="15">
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="X18" s="16">
+        <f t="shared" si="23"/>
+        <v>38673</v>
+      </c>
+      <c r="Y18" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O18" s="15">
-        <f t="shared" si="20"/>
-        <v>48</v>
-      </c>
-      <c r="P18" s="16">
-        <f t="shared" si="20"/>
-        <v>33415</v>
-      </c>
-      <c r="Q18" s="16">
+      <c r="Z18" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R18" s="17">
+      <c r="AA18" s="15">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+      <c r="AB18" s="16">
+        <f t="shared" si="23"/>
+        <v>55791</v>
+      </c>
+      <c r="AC18" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S18" s="15">
+      <c r="AD18" s="17">
         <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="T18" s="16">
-        <f t="shared" si="29"/>
-        <v>7991</v>
-      </c>
-      <c r="U18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V18" s="17">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="15">
-        <f t="shared" si="29"/>
-        <v>34</v>
-      </c>
-      <c r="X18" s="16">
-        <f t="shared" si="29"/>
-        <v>37292</v>
-      </c>
-      <c r="Y18" s="16">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="17">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="15">
-        <f t="shared" si="29"/>
-        <v>42</v>
-      </c>
-      <c r="AB18" s="16">
-        <f t="shared" si="29"/>
-        <v>55091</v>
-      </c>
-      <c r="AC18" s="16">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AE18" s="4">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
       <c r="AF18" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -2301,123 +2589,123 @@
         <v>42015</v>
       </c>
       <c r="C19" s="15">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="D19" s="16">
+        <f t="shared" si="14"/>
+        <v>33900</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="15">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="H19" s="16">
+        <f t="shared" si="14"/>
+        <v>14399</v>
+      </c>
+      <c r="I19" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="15">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="L19" s="16">
+        <f t="shared" si="14"/>
+        <v>48988</v>
+      </c>
+      <c r="M19" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="17">
         <f t="shared" si="20"/>
-        <v>50</v>
-      </c>
-      <c r="D19" s="16">
-        <f t="shared" si="20"/>
-        <v>32828</v>
-      </c>
-      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+      <c r="O19" s="15">
+        <f t="shared" si="14"/>
+        <v>65</v>
+      </c>
+      <c r="P19" s="16">
+        <f t="shared" si="14"/>
+        <v>45260</v>
+      </c>
+      <c r="Q19" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F19" s="17">
+      <c r="R19" s="17">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G19" s="15">
-        <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="H19" s="16">
-        <f t="shared" si="20"/>
-        <v>13562</v>
-      </c>
-      <c r="I19" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="17">
+      <c r="S19" s="15">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="T19" s="16">
+        <f t="shared" si="23"/>
+        <v>7991</v>
+      </c>
+      <c r="U19" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K19" s="15">
-        <f t="shared" si="20"/>
-        <v>39</v>
-      </c>
-      <c r="L19" s="16">
-        <f t="shared" si="20"/>
-        <v>43256</v>
-      </c>
-      <c r="M19" s="16">
+      <c r="V19" s="17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N19" s="17">
+      <c r="W19" s="15">
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="X19" s="16">
+        <f t="shared" si="23"/>
+        <v>38673</v>
+      </c>
+      <c r="Y19" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O19" s="15">
-        <f t="shared" si="20"/>
-        <v>48</v>
-      </c>
-      <c r="P19" s="16">
-        <f t="shared" si="20"/>
-        <v>33415</v>
-      </c>
-      <c r="Q19" s="16">
+      <c r="Z19" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R19" s="17">
+      <c r="AA19" s="15">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+      <c r="AB19" s="16">
+        <f t="shared" si="23"/>
+        <v>55791</v>
+      </c>
+      <c r="AC19" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S19" s="15">
+      <c r="AD19" s="17">
         <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="T19" s="16">
-        <f t="shared" si="29"/>
-        <v>7991</v>
-      </c>
-      <c r="U19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V19" s="17">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W19" s="15">
-        <f t="shared" si="29"/>
-        <v>34</v>
-      </c>
-      <c r="X19" s="16">
-        <f t="shared" si="29"/>
-        <v>37292</v>
-      </c>
-      <c r="Y19" s="16">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="17">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="15">
-        <f t="shared" si="29"/>
-        <v>42</v>
-      </c>
-      <c r="AB19" s="16">
-        <f t="shared" si="29"/>
-        <v>55091</v>
-      </c>
-      <c r="AC19" s="16">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AE19" s="4">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
       <c r="AF19" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -2429,123 +2717,123 @@
         <v>42014</v>
       </c>
       <c r="C20" s="15">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="D20" s="16">
+        <f t="shared" si="14"/>
+        <v>33900</v>
+      </c>
+      <c r="E20" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" si="14"/>
+        <v>14399</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="L20" s="16">
+        <f t="shared" si="14"/>
+        <v>48988</v>
+      </c>
+      <c r="M20" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="17">
         <f t="shared" si="20"/>
-        <v>50</v>
-      </c>
-      <c r="D20" s="16">
-        <f t="shared" si="20"/>
-        <v>32828</v>
-      </c>
-      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="O20" s="15">
+        <f t="shared" si="14"/>
+        <v>65</v>
+      </c>
+      <c r="P20" s="16">
+        <f t="shared" si="14"/>
+        <v>45260</v>
+      </c>
+      <c r="Q20" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F20" s="17">
+      <c r="R20" s="17">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G20" s="15">
-        <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="H20" s="16">
-        <f t="shared" si="20"/>
-        <v>13562</v>
-      </c>
-      <c r="I20" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="17">
+      <c r="S20" s="15">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="T20" s="16">
+        <f t="shared" si="23"/>
+        <v>7991</v>
+      </c>
+      <c r="U20" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K20" s="15">
-        <f t="shared" si="20"/>
-        <v>39</v>
-      </c>
-      <c r="L20" s="16">
-        <f t="shared" si="20"/>
-        <v>43256</v>
-      </c>
-      <c r="M20" s="16">
+      <c r="V20" s="17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N20" s="17">
+      <c r="W20" s="15">
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="X20" s="16">
+        <f t="shared" si="23"/>
+        <v>38673</v>
+      </c>
+      <c r="Y20" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O20" s="15">
-        <f t="shared" si="20"/>
-        <v>48</v>
-      </c>
-      <c r="P20" s="16">
-        <f t="shared" si="20"/>
-        <v>33415</v>
-      </c>
-      <c r="Q20" s="16">
+      <c r="Z20" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R20" s="17">
+      <c r="AA20" s="15">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+      <c r="AB20" s="16">
+        <f t="shared" si="23"/>
+        <v>55791</v>
+      </c>
+      <c r="AC20" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S20" s="15">
+      <c r="AD20" s="17">
         <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="T20" s="16">
-        <f t="shared" si="29"/>
-        <v>7991</v>
-      </c>
-      <c r="U20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V20" s="17">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="15">
-        <f t="shared" si="29"/>
-        <v>34</v>
-      </c>
-      <c r="X20" s="16">
-        <f t="shared" si="29"/>
-        <v>37292</v>
-      </c>
-      <c r="Y20" s="16">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="17">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="15">
-        <f t="shared" si="29"/>
-        <v>42</v>
-      </c>
-      <c r="AB20" s="16">
-        <f t="shared" si="29"/>
-        <v>55091</v>
-      </c>
-      <c r="AC20" s="16">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AE20" s="4">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
       <c r="AF20" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -2557,123 +2845,123 @@
         <v>42013</v>
       </c>
       <c r="C21" s="15">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="D21" s="16">
+        <f t="shared" si="14"/>
+        <v>33900</v>
+      </c>
+      <c r="E21" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="H21" s="16">
+        <f t="shared" si="14"/>
+        <v>14399</v>
+      </c>
+      <c r="I21" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="15">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="L21" s="16">
+        <f t="shared" si="14"/>
+        <v>48988</v>
+      </c>
+      <c r="M21" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="17">
         <f t="shared" si="20"/>
-        <v>50</v>
-      </c>
-      <c r="D21" s="16">
-        <f t="shared" si="20"/>
-        <v>32828</v>
-      </c>
-      <c r="E21" s="16">
+        <v>0</v>
+      </c>
+      <c r="O21" s="15">
+        <f t="shared" si="14"/>
+        <v>65</v>
+      </c>
+      <c r="P21" s="16">
+        <f t="shared" si="14"/>
+        <v>45260</v>
+      </c>
+      <c r="Q21" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F21" s="17">
+      <c r="R21" s="17">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G21" s="15">
-        <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="H21" s="16">
-        <f t="shared" si="20"/>
-        <v>13562</v>
-      </c>
-      <c r="I21" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="17">
+      <c r="S21" s="15">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="T21" s="16">
+        <f t="shared" si="23"/>
+        <v>7991</v>
+      </c>
+      <c r="U21" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K21" s="15">
-        <f t="shared" si="20"/>
-        <v>39</v>
-      </c>
-      <c r="L21" s="16">
-        <f t="shared" si="20"/>
-        <v>43256</v>
-      </c>
-      <c r="M21" s="16">
+      <c r="V21" s="17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N21" s="17">
+      <c r="W21" s="15">
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="X21" s="16">
+        <f t="shared" si="23"/>
+        <v>38673</v>
+      </c>
+      <c r="Y21" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O21" s="15">
-        <f t="shared" si="20"/>
-        <v>48</v>
-      </c>
-      <c r="P21" s="16">
-        <f t="shared" si="20"/>
-        <v>33415</v>
-      </c>
-      <c r="Q21" s="16">
+      <c r="Z21" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R21" s="17">
+      <c r="AA21" s="15">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+      <c r="AB21" s="16">
+        <f t="shared" si="23"/>
+        <v>55791</v>
+      </c>
+      <c r="AC21" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S21" s="15">
+      <c r="AD21" s="17">
         <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="T21" s="16">
-        <f t="shared" si="29"/>
-        <v>7991</v>
-      </c>
-      <c r="U21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V21" s="17">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W21" s="15">
-        <f t="shared" si="29"/>
-        <v>34</v>
-      </c>
-      <c r="X21" s="16">
-        <f t="shared" si="29"/>
-        <v>37292</v>
-      </c>
-      <c r="Y21" s="16">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="17">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="15">
-        <f t="shared" si="29"/>
-        <v>42</v>
-      </c>
-      <c r="AB21" s="16">
-        <f t="shared" si="29"/>
-        <v>55091</v>
-      </c>
-      <c r="AC21" s="16">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AE21" s="4">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
       <c r="AF21" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -2685,123 +2973,123 @@
         <v>42012</v>
       </c>
       <c r="C22" s="15">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="D22" s="16">
+        <f t="shared" si="14"/>
+        <v>33900</v>
+      </c>
+      <c r="E22" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="15">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="H22" s="16">
+        <f t="shared" si="14"/>
+        <v>14399</v>
+      </c>
+      <c r="I22" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="15">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="L22" s="16">
+        <f t="shared" si="14"/>
+        <v>48988</v>
+      </c>
+      <c r="M22" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="17">
         <f t="shared" si="20"/>
-        <v>50</v>
-      </c>
-      <c r="D22" s="16">
-        <f t="shared" si="20"/>
-        <v>32828</v>
-      </c>
-      <c r="E22" s="16">
+        <v>0</v>
+      </c>
+      <c r="O22" s="15">
+        <f t="shared" si="14"/>
+        <v>65</v>
+      </c>
+      <c r="P22" s="16">
+        <f t="shared" si="14"/>
+        <v>45260</v>
+      </c>
+      <c r="Q22" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F22" s="17">
+      <c r="R22" s="17">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G22" s="15">
-        <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="H22" s="16">
-        <f t="shared" si="20"/>
-        <v>13562</v>
-      </c>
-      <c r="I22" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="17">
+      <c r="S22" s="15">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="T22" s="16">
+        <f t="shared" si="23"/>
+        <v>7991</v>
+      </c>
+      <c r="U22" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K22" s="15">
-        <f t="shared" si="20"/>
-        <v>39</v>
-      </c>
-      <c r="L22" s="16">
-        <f t="shared" si="20"/>
-        <v>43256</v>
-      </c>
-      <c r="M22" s="16">
+      <c r="V22" s="17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N22" s="17">
+      <c r="W22" s="15">
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="X22" s="16">
+        <f t="shared" si="23"/>
+        <v>38673</v>
+      </c>
+      <c r="Y22" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O22" s="15">
-        <f t="shared" si="20"/>
-        <v>48</v>
-      </c>
-      <c r="P22" s="16">
-        <f t="shared" si="20"/>
-        <v>33415</v>
-      </c>
-      <c r="Q22" s="16">
+      <c r="Z22" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R22" s="17">
+      <c r="AA22" s="15">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+      <c r="AB22" s="16">
+        <f t="shared" si="23"/>
+        <v>55791</v>
+      </c>
+      <c r="AC22" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S22" s="15">
+      <c r="AD22" s="17">
         <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="T22" s="16">
-        <f t="shared" si="29"/>
-        <v>7991</v>
-      </c>
-      <c r="U22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V22" s="17">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="15">
-        <f t="shared" si="29"/>
-        <v>34</v>
-      </c>
-      <c r="X22" s="16">
-        <f t="shared" si="29"/>
-        <v>37292</v>
-      </c>
-      <c r="Y22" s="16">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="17">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="15">
-        <f t="shared" si="29"/>
-        <v>42</v>
-      </c>
-      <c r="AB22" s="16">
-        <f t="shared" si="29"/>
-        <v>55091</v>
-      </c>
-      <c r="AC22" s="16">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AE22" s="4">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
       <c r="AF22" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -2813,123 +3101,123 @@
         <v>42011</v>
       </c>
       <c r="C23" s="15">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="D23" s="16">
+        <f t="shared" si="14"/>
+        <v>33900</v>
+      </c>
+      <c r="E23" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="15">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="H23" s="16">
+        <f t="shared" si="14"/>
+        <v>14399</v>
+      </c>
+      <c r="I23" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="15">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="L23" s="16">
+        <f t="shared" si="14"/>
+        <v>48988</v>
+      </c>
+      <c r="M23" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="17">
         <f t="shared" si="20"/>
-        <v>50</v>
-      </c>
-      <c r="D23" s="16">
-        <f t="shared" si="20"/>
-        <v>32828</v>
-      </c>
-      <c r="E23" s="16">
+        <v>0</v>
+      </c>
+      <c r="O23" s="15">
+        <f t="shared" si="14"/>
+        <v>65</v>
+      </c>
+      <c r="P23" s="16">
+        <f t="shared" si="14"/>
+        <v>45260</v>
+      </c>
+      <c r="Q23" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F23" s="17">
+      <c r="R23" s="17">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G23" s="15">
-        <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="H23" s="16">
-        <f t="shared" si="20"/>
-        <v>13562</v>
-      </c>
-      <c r="I23" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="17">
+      <c r="S23" s="15">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="T23" s="16">
+        <f t="shared" si="23"/>
+        <v>7991</v>
+      </c>
+      <c r="U23" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K23" s="15">
-        <f t="shared" si="20"/>
-        <v>39</v>
-      </c>
-      <c r="L23" s="16">
-        <f t="shared" si="20"/>
-        <v>43256</v>
-      </c>
-      <c r="M23" s="16">
+      <c r="V23" s="17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N23" s="17">
+      <c r="W23" s="15">
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="X23" s="16">
+        <f t="shared" si="23"/>
+        <v>38673</v>
+      </c>
+      <c r="Y23" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O23" s="15">
-        <f t="shared" si="20"/>
-        <v>48</v>
-      </c>
-      <c r="P23" s="16">
-        <f t="shared" si="20"/>
-        <v>33415</v>
-      </c>
-      <c r="Q23" s="16">
+      <c r="Z23" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R23" s="17">
+      <c r="AA23" s="15">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+      <c r="AB23" s="16">
+        <f t="shared" si="23"/>
+        <v>55791</v>
+      </c>
+      <c r="AC23" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S23" s="15">
+      <c r="AD23" s="17">
         <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="T23" s="16">
-        <f t="shared" si="29"/>
-        <v>7991</v>
-      </c>
-      <c r="U23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V23" s="17">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W23" s="15">
-        <f t="shared" si="29"/>
-        <v>34</v>
-      </c>
-      <c r="X23" s="16">
-        <f t="shared" si="29"/>
-        <v>37292</v>
-      </c>
-      <c r="Y23" s="16">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Z23" s="17">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="15">
-        <f t="shared" si="29"/>
-        <v>42</v>
-      </c>
-      <c r="AB23" s="16">
-        <f t="shared" si="29"/>
-        <v>55091</v>
-      </c>
-      <c r="AC23" s="16">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AD23" s="17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AE23" s="4">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
       <c r="AF23" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -2941,123 +3229,123 @@
         <v>42010</v>
       </c>
       <c r="C24" s="15">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="D24" s="16">
+        <f t="shared" si="14"/>
+        <v>33900</v>
+      </c>
+      <c r="E24" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="15">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="H24" s="16">
+        <f t="shared" si="14"/>
+        <v>14399</v>
+      </c>
+      <c r="I24" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="15">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="L24" s="16">
+        <f t="shared" si="14"/>
+        <v>48988</v>
+      </c>
+      <c r="M24" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="17">
         <f t="shared" si="20"/>
-        <v>50</v>
-      </c>
-      <c r="D24" s="16">
-        <f t="shared" si="20"/>
-        <v>32828</v>
-      </c>
-      <c r="E24" s="16">
+        <v>0</v>
+      </c>
+      <c r="O24" s="15">
+        <f t="shared" si="14"/>
+        <v>65</v>
+      </c>
+      <c r="P24" s="16">
+        <f t="shared" si="14"/>
+        <v>45260</v>
+      </c>
+      <c r="Q24" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F24" s="17">
+      <c r="R24" s="17">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G24" s="15">
-        <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="H24" s="16">
-        <f t="shared" si="20"/>
-        <v>13562</v>
-      </c>
-      <c r="I24" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="17">
+      <c r="S24" s="15">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="T24" s="16">
+        <f t="shared" si="23"/>
+        <v>7991</v>
+      </c>
+      <c r="U24" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K24" s="15">
-        <f t="shared" si="20"/>
-        <v>39</v>
-      </c>
-      <c r="L24" s="16">
-        <f t="shared" si="20"/>
-        <v>43256</v>
-      </c>
-      <c r="M24" s="16">
+      <c r="V24" s="17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N24" s="17">
+      <c r="W24" s="15">
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="X24" s="16">
+        <f t="shared" si="23"/>
+        <v>38673</v>
+      </c>
+      <c r="Y24" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O24" s="15">
-        <f t="shared" si="20"/>
-        <v>48</v>
-      </c>
-      <c r="P24" s="16">
-        <f t="shared" si="20"/>
-        <v>33415</v>
-      </c>
-      <c r="Q24" s="16">
+      <c r="Z24" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R24" s="17">
+      <c r="AA24" s="15">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+      <c r="AB24" s="16">
+        <f t="shared" si="23"/>
+        <v>55791</v>
+      </c>
+      <c r="AC24" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S24" s="15">
+      <c r="AD24" s="17">
         <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="T24" s="16">
-        <f t="shared" si="29"/>
-        <v>7991</v>
-      </c>
-      <c r="U24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V24" s="17">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="15">
-        <f t="shared" si="29"/>
-        <v>34</v>
-      </c>
-      <c r="X24" s="16">
-        <f t="shared" si="29"/>
-        <v>37292</v>
-      </c>
-      <c r="Y24" s="16">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="17">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="15">
-        <f t="shared" si="29"/>
-        <v>42</v>
-      </c>
-      <c r="AB24" s="16">
-        <f t="shared" si="29"/>
-        <v>55091</v>
-      </c>
-      <c r="AC24" s="16">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AE24" s="4">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
       <c r="AF24" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -3069,123 +3357,123 @@
         <v>42009</v>
       </c>
       <c r="C25" s="15">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="D25" s="16">
+        <f t="shared" si="14"/>
+        <v>33900</v>
+      </c>
+      <c r="E25" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="H25" s="16">
+        <f t="shared" si="14"/>
+        <v>14399</v>
+      </c>
+      <c r="I25" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="15">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="L25" s="16">
+        <f t="shared" si="14"/>
+        <v>48988</v>
+      </c>
+      <c r="M25" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="17">
         <f t="shared" si="20"/>
-        <v>50</v>
-      </c>
-      <c r="D25" s="16">
-        <f t="shared" si="20"/>
-        <v>32828</v>
-      </c>
-      <c r="E25" s="16">
+        <v>0</v>
+      </c>
+      <c r="O25" s="15">
+        <f t="shared" si="14"/>
+        <v>65</v>
+      </c>
+      <c r="P25" s="16">
+        <f t="shared" si="14"/>
+        <v>45260</v>
+      </c>
+      <c r="Q25" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F25" s="17">
+      <c r="R25" s="17">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G25" s="15">
-        <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="H25" s="16">
-        <f t="shared" si="20"/>
-        <v>13562</v>
-      </c>
-      <c r="I25" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="17">
+      <c r="S25" s="15">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="T25" s="16">
+        <f t="shared" si="23"/>
+        <v>7991</v>
+      </c>
+      <c r="U25" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K25" s="15">
-        <f t="shared" si="20"/>
-        <v>39</v>
-      </c>
-      <c r="L25" s="16">
-        <f t="shared" si="20"/>
-        <v>43256</v>
-      </c>
-      <c r="M25" s="16">
+      <c r="V25" s="17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N25" s="17">
+      <c r="W25" s="15">
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="X25" s="16">
+        <f t="shared" si="23"/>
+        <v>38673</v>
+      </c>
+      <c r="Y25" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O25" s="15">
-        <f t="shared" si="20"/>
-        <v>48</v>
-      </c>
-      <c r="P25" s="16">
-        <f t="shared" si="20"/>
-        <v>33415</v>
-      </c>
-      <c r="Q25" s="16">
+      <c r="Z25" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R25" s="17">
+      <c r="AA25" s="15">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+      <c r="AB25" s="16">
+        <f t="shared" si="23"/>
+        <v>55791</v>
+      </c>
+      <c r="AC25" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S25" s="15">
+      <c r="AD25" s="17">
         <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="T25" s="16">
-        <f t="shared" si="29"/>
-        <v>7991</v>
-      </c>
-      <c r="U25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V25" s="17">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="15">
-        <f t="shared" si="29"/>
-        <v>34</v>
-      </c>
-      <c r="X25" s="16">
-        <f t="shared" si="29"/>
-        <v>37292</v>
-      </c>
-      <c r="Y25" s="16">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="17">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="15">
-        <f t="shared" si="29"/>
-        <v>42</v>
-      </c>
-      <c r="AB25" s="16">
-        <f t="shared" si="29"/>
-        <v>55091</v>
-      </c>
-      <c r="AC25" s="16">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AE25" s="4">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
       <c r="AF25" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -3197,123 +3485,123 @@
         <v>42008</v>
       </c>
       <c r="C26" s="15">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="D26" s="16">
+        <f t="shared" si="14"/>
+        <v>33900</v>
+      </c>
+      <c r="E26" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="H26" s="16">
+        <f t="shared" si="14"/>
+        <v>14399</v>
+      </c>
+      <c r="I26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="15">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="L26" s="16">
+        <f t="shared" si="14"/>
+        <v>48988</v>
+      </c>
+      <c r="M26" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="17">
         <f t="shared" si="20"/>
-        <v>50</v>
-      </c>
-      <c r="D26" s="16">
-        <f t="shared" si="20"/>
-        <v>32828</v>
-      </c>
-      <c r="E26" s="16">
+        <v>0</v>
+      </c>
+      <c r="O26" s="15">
+        <f t="shared" si="14"/>
+        <v>65</v>
+      </c>
+      <c r="P26" s="16">
+        <f t="shared" si="14"/>
+        <v>45260</v>
+      </c>
+      <c r="Q26" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F26" s="17">
+      <c r="R26" s="17">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G26" s="15">
-        <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="H26" s="16">
-        <f t="shared" si="20"/>
-        <v>13562</v>
-      </c>
-      <c r="I26" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="17">
+      <c r="S26" s="15">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="T26" s="16">
+        <f t="shared" si="23"/>
+        <v>7991</v>
+      </c>
+      <c r="U26" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K26" s="15">
-        <f t="shared" si="20"/>
-        <v>39</v>
-      </c>
-      <c r="L26" s="16">
-        <f t="shared" si="20"/>
-        <v>43256</v>
-      </c>
-      <c r="M26" s="16">
+      <c r="V26" s="17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N26" s="17">
+      <c r="W26" s="15">
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="X26" s="16">
+        <f t="shared" si="23"/>
+        <v>38673</v>
+      </c>
+      <c r="Y26" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O26" s="15">
-        <f t="shared" si="20"/>
-        <v>48</v>
-      </c>
-      <c r="P26" s="16">
-        <f t="shared" si="20"/>
-        <v>33415</v>
-      </c>
-      <c r="Q26" s="16">
+      <c r="Z26" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R26" s="17">
+      <c r="AA26" s="15">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+      <c r="AB26" s="16">
+        <f t="shared" si="23"/>
+        <v>55791</v>
+      </c>
+      <c r="AC26" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S26" s="15">
+      <c r="AD26" s="17">
         <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="T26" s="16">
-        <f t="shared" si="29"/>
-        <v>7991</v>
-      </c>
-      <c r="U26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V26" s="17">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W26" s="15">
-        <f t="shared" si="29"/>
-        <v>34</v>
-      </c>
-      <c r="X26" s="16">
-        <f t="shared" si="29"/>
-        <v>37292</v>
-      </c>
-      <c r="Y26" s="16">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="17">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="15">
-        <f t="shared" si="29"/>
-        <v>42</v>
-      </c>
-      <c r="AB26" s="16">
-        <f t="shared" si="29"/>
-        <v>55091</v>
-      </c>
-      <c r="AC26" s="16">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AD26" s="17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="4">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
       <c r="AF26" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -3325,123 +3613,123 @@
         <v>42007</v>
       </c>
       <c r="C27" s="15">
-        <f t="shared" ref="C27:Q40" si="37">C28</f>
+        <f t="shared" ref="C27:P40" si="31">C28</f>
         <v>50</v>
       </c>
       <c r="D27" s="16">
-        <f t="shared" si="37"/>
-        <v>32828</v>
+        <f t="shared" si="31"/>
+        <v>33900</v>
       </c>
       <c r="E27" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="15">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="H27" s="16">
+        <f t="shared" si="31"/>
+        <v>14399</v>
+      </c>
+      <c r="I27" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="15">
+        <f t="shared" si="31"/>
+        <v>44</v>
+      </c>
+      <c r="L27" s="16">
+        <f t="shared" si="31"/>
+        <v>48988</v>
+      </c>
+      <c r="M27" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="15">
+        <f t="shared" si="31"/>
+        <v>65</v>
+      </c>
+      <c r="P27" s="16">
+        <f t="shared" si="31"/>
+        <v>45260</v>
+      </c>
+      <c r="Q27" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F27" s="17">
+      <c r="R27" s="17">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G27" s="15">
-        <f t="shared" si="37"/>
-        <v>6</v>
-      </c>
-      <c r="H27" s="16">
-        <f t="shared" si="37"/>
-        <v>13562</v>
-      </c>
-      <c r="I27" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="17">
+      <c r="S27" s="15">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="T27" s="16">
+        <f t="shared" si="23"/>
+        <v>7991</v>
+      </c>
+      <c r="U27" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K27" s="15">
-        <f t="shared" si="37"/>
-        <v>39</v>
-      </c>
-      <c r="L27" s="16">
-        <f t="shared" si="37"/>
-        <v>43256</v>
-      </c>
-      <c r="M27" s="16">
+      <c r="V27" s="17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N27" s="17">
+      <c r="W27" s="15">
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="X27" s="16">
+        <f t="shared" si="23"/>
+        <v>38673</v>
+      </c>
+      <c r="Y27" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O27" s="15">
-        <f t="shared" si="37"/>
-        <v>48</v>
-      </c>
-      <c r="P27" s="16">
-        <f t="shared" si="37"/>
-        <v>33415</v>
-      </c>
-      <c r="Q27" s="16">
+      <c r="Z27" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R27" s="17">
+      <c r="AA27" s="15">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+      <c r="AB27" s="16">
+        <f t="shared" si="23"/>
+        <v>55791</v>
+      </c>
+      <c r="AC27" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S27" s="15">
+      <c r="AD27" s="17">
         <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="T27" s="16">
-        <f t="shared" si="29"/>
-        <v>7991</v>
-      </c>
-      <c r="U27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V27" s="17">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W27" s="15">
-        <f t="shared" si="29"/>
-        <v>34</v>
-      </c>
-      <c r="X27" s="16">
-        <f t="shared" si="29"/>
-        <v>37292</v>
-      </c>
-      <c r="Y27" s="16">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="17">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="15">
-        <f t="shared" si="29"/>
-        <v>42</v>
-      </c>
-      <c r="AB27" s="16">
-        <f t="shared" si="29"/>
-        <v>55091</v>
-      </c>
-      <c r="AC27" s="16">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AD27" s="17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AE27" s="4">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
       <c r="AF27" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -3453,123 +3741,123 @@
         <v>42006</v>
       </c>
       <c r="C28" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>50</v>
       </c>
       <c r="D28" s="16">
-        <f t="shared" si="37"/>
-        <v>32828</v>
+        <f t="shared" si="31"/>
+        <v>33900</v>
       </c>
       <c r="E28" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="15">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="H28" s="16">
+        <f t="shared" si="31"/>
+        <v>14399</v>
+      </c>
+      <c r="I28" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <f t="shared" si="31"/>
+        <v>44</v>
+      </c>
+      <c r="L28" s="16">
+        <f t="shared" si="31"/>
+        <v>48988</v>
+      </c>
+      <c r="M28" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="15">
+        <f t="shared" si="31"/>
+        <v>65</v>
+      </c>
+      <c r="P28" s="16">
+        <f t="shared" si="31"/>
+        <v>45260</v>
+      </c>
+      <c r="Q28" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F28" s="17">
+      <c r="R28" s="17">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G28" s="15">
-        <f t="shared" si="37"/>
-        <v>6</v>
-      </c>
-      <c r="H28" s="16">
-        <f t="shared" si="37"/>
-        <v>13562</v>
-      </c>
-      <c r="I28" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="17">
+      <c r="S28" s="15">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="T28" s="16">
+        <f t="shared" si="23"/>
+        <v>7991</v>
+      </c>
+      <c r="U28" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K28" s="15">
-        <f t="shared" si="37"/>
-        <v>39</v>
-      </c>
-      <c r="L28" s="16">
-        <f t="shared" si="37"/>
-        <v>43256</v>
-      </c>
-      <c r="M28" s="16">
+      <c r="V28" s="17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N28" s="17">
+      <c r="W28" s="15">
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="X28" s="16">
+        <f t="shared" si="23"/>
+        <v>38673</v>
+      </c>
+      <c r="Y28" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O28" s="15">
-        <f t="shared" si="37"/>
-        <v>48</v>
-      </c>
-      <c r="P28" s="16">
-        <f t="shared" si="37"/>
-        <v>33415</v>
-      </c>
-      <c r="Q28" s="16">
+      <c r="Z28" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R28" s="17">
+      <c r="AA28" s="15">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+      <c r="AB28" s="16">
+        <f t="shared" si="23"/>
+        <v>55791</v>
+      </c>
+      <c r="AC28" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S28" s="15">
+      <c r="AD28" s="17">
         <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="T28" s="16">
-        <f t="shared" si="29"/>
-        <v>7991</v>
-      </c>
-      <c r="U28" s="16">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="17">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W28" s="15">
-        <f t="shared" si="29"/>
-        <v>34</v>
-      </c>
-      <c r="X28" s="16">
-        <f t="shared" si="29"/>
-        <v>37292</v>
-      </c>
-      <c r="Y28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="4">
+        <f t="shared" ref="AE28:AF44" si="32">SUM(C28,G28,K28,O28,S28,W28,AA28)-SUM(C29,G29,K29,O29,S29,W29,AA29)</f>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="4">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Z28" s="17">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="15">
-        <f t="shared" si="29"/>
-        <v>42</v>
-      </c>
-      <c r="AB28" s="16">
-        <f t="shared" si="29"/>
-        <v>55091</v>
-      </c>
-      <c r="AC28" s="16">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AE28" s="4">
-        <f t="shared" ref="AE28:AF44" si="38">SUM(C28,G28,K28,O28,S28,W28,AA28)-SUM(C29,G29,K29,O29,S29,W29,AA29)</f>
-        <v>0</v>
-      </c>
-      <c r="AF28" s="4">
-        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -3581,123 +3869,123 @@
         <v>42005</v>
       </c>
       <c r="C29" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>50</v>
       </c>
       <c r="D29" s="16">
-        <f t="shared" si="37"/>
-        <v>32828</v>
+        <f t="shared" si="31"/>
+        <v>33900</v>
       </c>
       <c r="E29" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="15">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" si="31"/>
+        <v>14399</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="15">
+        <f t="shared" si="31"/>
+        <v>44</v>
+      </c>
+      <c r="L29" s="16">
+        <f t="shared" si="31"/>
+        <v>48988</v>
+      </c>
+      <c r="M29" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="15">
+        <f t="shared" si="31"/>
+        <v>65</v>
+      </c>
+      <c r="P29" s="16">
+        <f t="shared" si="31"/>
+        <v>45260</v>
+      </c>
+      <c r="Q29" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F29" s="17">
+      <c r="R29" s="17">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G29" s="15">
-        <f t="shared" si="37"/>
-        <v>6</v>
-      </c>
-      <c r="H29" s="16">
-        <f t="shared" si="37"/>
-        <v>13562</v>
-      </c>
-      <c r="I29" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="17">
+      <c r="S29" s="15">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="T29" s="16">
+        <f t="shared" si="23"/>
+        <v>7991</v>
+      </c>
+      <c r="U29" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K29" s="15">
-        <f t="shared" si="37"/>
-        <v>39</v>
-      </c>
-      <c r="L29" s="16">
-        <f t="shared" si="37"/>
-        <v>43256</v>
-      </c>
-      <c r="M29" s="16">
+      <c r="V29" s="17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N29" s="17">
+      <c r="W29" s="15">
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="X29" s="16">
+        <f t="shared" si="23"/>
+        <v>38673</v>
+      </c>
+      <c r="Y29" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O29" s="15">
-        <f t="shared" si="37"/>
-        <v>48</v>
-      </c>
-      <c r="P29" s="16">
-        <f t="shared" si="37"/>
-        <v>33415</v>
-      </c>
-      <c r="Q29" s="16">
+      <c r="Z29" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R29" s="17">
+      <c r="AA29" s="15">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+      <c r="AB29" s="16">
+        <f t="shared" si="23"/>
+        <v>55791</v>
+      </c>
+      <c r="AC29" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S29" s="15">
+      <c r="AD29" s="17">
         <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="T29" s="16">
-        <f t="shared" si="29"/>
-        <v>7991</v>
-      </c>
-      <c r="U29" s="16">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="V29" s="17">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W29" s="15">
-        <f t="shared" si="29"/>
-        <v>34</v>
-      </c>
-      <c r="X29" s="16">
-        <f t="shared" si="29"/>
-        <v>37292</v>
-      </c>
-      <c r="Y29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="4">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="Z29" s="17">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="15">
-        <f t="shared" si="29"/>
-        <v>42</v>
-      </c>
-      <c r="AB29" s="16">
-        <f t="shared" si="29"/>
-        <v>55091</v>
-      </c>
-      <c r="AC29" s="16">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AD29" s="17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AE29" s="4">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
       <c r="AF29" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -3709,123 +3997,123 @@
         <v>42004</v>
       </c>
       <c r="C30" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>50</v>
       </c>
       <c r="D30" s="16">
-        <f t="shared" si="37"/>
-        <v>32828</v>
+        <f t="shared" si="31"/>
+        <v>33900</v>
       </c>
       <c r="E30" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="15">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="H30" s="16">
+        <f t="shared" si="31"/>
+        <v>14399</v>
+      </c>
+      <c r="I30" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="15">
+        <f t="shared" si="31"/>
+        <v>44</v>
+      </c>
+      <c r="L30" s="16">
+        <f t="shared" si="31"/>
+        <v>48988</v>
+      </c>
+      <c r="M30" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="15">
+        <f t="shared" si="31"/>
+        <v>65</v>
+      </c>
+      <c r="P30" s="16">
+        <f t="shared" si="31"/>
+        <v>45260</v>
+      </c>
+      <c r="Q30" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F30" s="17">
+      <c r="R30" s="17">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G30" s="15">
-        <f t="shared" si="37"/>
-        <v>6</v>
-      </c>
-      <c r="H30" s="16">
-        <f t="shared" si="37"/>
-        <v>13562</v>
-      </c>
-      <c r="I30" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="17">
+      <c r="S30" s="15">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="T30" s="16">
+        <f t="shared" si="23"/>
+        <v>7991</v>
+      </c>
+      <c r="U30" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K30" s="15">
-        <f t="shared" si="37"/>
-        <v>39</v>
-      </c>
-      <c r="L30" s="16">
-        <f t="shared" si="37"/>
-        <v>43256</v>
-      </c>
-      <c r="M30" s="16">
+      <c r="V30" s="17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N30" s="17">
+      <c r="W30" s="15">
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="X30" s="16">
+        <f t="shared" si="23"/>
+        <v>38673</v>
+      </c>
+      <c r="Y30" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O30" s="15">
-        <f t="shared" si="37"/>
-        <v>48</v>
-      </c>
-      <c r="P30" s="16">
-        <f t="shared" si="37"/>
-        <v>33415</v>
-      </c>
-      <c r="Q30" s="16">
+      <c r="Z30" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R30" s="17">
+      <c r="AA30" s="15">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+      <c r="AB30" s="16">
+        <f t="shared" si="23"/>
+        <v>55791</v>
+      </c>
+      <c r="AC30" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S30" s="15">
+      <c r="AD30" s="17">
         <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="T30" s="16">
-        <f t="shared" si="29"/>
-        <v>7991</v>
-      </c>
-      <c r="U30" s="16">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="17">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W30" s="15">
-        <f t="shared" si="29"/>
-        <v>34</v>
-      </c>
-      <c r="X30" s="16">
-        <f t="shared" si="29"/>
-        <v>37292</v>
-      </c>
-      <c r="Y30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="4">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="Z30" s="17">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="15">
-        <f t="shared" si="29"/>
-        <v>42</v>
-      </c>
-      <c r="AB30" s="16">
-        <f t="shared" si="29"/>
-        <v>55091</v>
-      </c>
-      <c r="AC30" s="16">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AE30" s="4">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
       <c r="AF30" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -3837,123 +4125,123 @@
         <v>42003</v>
       </c>
       <c r="C31" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>50</v>
       </c>
       <c r="D31" s="16">
-        <f t="shared" si="37"/>
-        <v>32828</v>
+        <f t="shared" si="31"/>
+        <v>33900</v>
       </c>
       <c r="E31" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="15">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="H31" s="16">
+        <f t="shared" si="31"/>
+        <v>14399</v>
+      </c>
+      <c r="I31" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="15">
+        <f t="shared" si="31"/>
+        <v>44</v>
+      </c>
+      <c r="L31" s="16">
+        <f t="shared" si="31"/>
+        <v>48988</v>
+      </c>
+      <c r="M31" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="15">
+        <f t="shared" si="31"/>
+        <v>65</v>
+      </c>
+      <c r="P31" s="16">
+        <f t="shared" si="31"/>
+        <v>45260</v>
+      </c>
+      <c r="Q31" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F31" s="17">
+      <c r="R31" s="17">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G31" s="15">
-        <f t="shared" si="37"/>
-        <v>6</v>
-      </c>
-      <c r="H31" s="16">
-        <f t="shared" si="37"/>
-        <v>13562</v>
-      </c>
-      <c r="I31" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="17">
+      <c r="S31" s="15">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="T31" s="16">
+        <f t="shared" si="23"/>
+        <v>7991</v>
+      </c>
+      <c r="U31" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K31" s="15">
-        <f t="shared" si="37"/>
-        <v>39</v>
-      </c>
-      <c r="L31" s="16">
-        <f t="shared" si="37"/>
-        <v>43256</v>
-      </c>
-      <c r="M31" s="16">
+      <c r="V31" s="17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N31" s="17">
+      <c r="W31" s="15">
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="X31" s="16">
+        <f t="shared" si="23"/>
+        <v>38673</v>
+      </c>
+      <c r="Y31" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O31" s="15">
-        <f t="shared" si="37"/>
-        <v>48</v>
-      </c>
-      <c r="P31" s="16">
-        <f t="shared" si="37"/>
-        <v>33415</v>
-      </c>
-      <c r="Q31" s="16">
+      <c r="Z31" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R31" s="17">
+      <c r="AA31" s="15">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+      <c r="AB31" s="16">
+        <f t="shared" si="23"/>
+        <v>55791</v>
+      </c>
+      <c r="AC31" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S31" s="15">
+      <c r="AD31" s="17">
         <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="T31" s="16">
-        <f t="shared" si="29"/>
-        <v>7991</v>
-      </c>
-      <c r="U31" s="16">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="17">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W31" s="15">
-        <f t="shared" si="29"/>
-        <v>34</v>
-      </c>
-      <c r="X31" s="16">
-        <f t="shared" si="29"/>
-        <v>37292</v>
-      </c>
-      <c r="Y31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="4">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="Z31" s="17">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="15">
-        <f t="shared" si="29"/>
-        <v>42</v>
-      </c>
-      <c r="AB31" s="16">
-        <f t="shared" si="29"/>
-        <v>55091</v>
-      </c>
-      <c r="AC31" s="16">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AE31" s="4">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
       <c r="AF31" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -3965,123 +4253,123 @@
         <v>42002</v>
       </c>
       <c r="C32" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>50</v>
       </c>
       <c r="D32" s="16">
-        <f t="shared" si="37"/>
-        <v>32828</v>
+        <f t="shared" si="31"/>
+        <v>33900</v>
       </c>
       <c r="E32" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="15">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="H32" s="16">
+        <f t="shared" si="31"/>
+        <v>14399</v>
+      </c>
+      <c r="I32" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="15">
+        <f t="shared" si="31"/>
+        <v>44</v>
+      </c>
+      <c r="L32" s="16">
+        <f t="shared" si="31"/>
+        <v>48988</v>
+      </c>
+      <c r="M32" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="15">
+        <f t="shared" si="31"/>
+        <v>65</v>
+      </c>
+      <c r="P32" s="16">
+        <f t="shared" si="31"/>
+        <v>45260</v>
+      </c>
+      <c r="Q32" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F32" s="17">
+      <c r="R32" s="17">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G32" s="15">
-        <f t="shared" si="37"/>
-        <v>6</v>
-      </c>
-      <c r="H32" s="16">
-        <f t="shared" si="37"/>
-        <v>13562</v>
-      </c>
-      <c r="I32" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="17">
+      <c r="S32" s="15">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="T32" s="16">
+        <f t="shared" si="23"/>
+        <v>7991</v>
+      </c>
+      <c r="U32" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K32" s="15">
-        <f t="shared" si="37"/>
-        <v>39</v>
-      </c>
-      <c r="L32" s="16">
-        <f t="shared" si="37"/>
-        <v>43256</v>
-      </c>
-      <c r="M32" s="16">
+      <c r="V32" s="17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N32" s="17">
+      <c r="W32" s="15">
+        <f t="shared" ref="W32:AB37" si="33">W33</f>
+        <v>35</v>
+      </c>
+      <c r="X32" s="16">
+        <f t="shared" si="33"/>
+        <v>38673</v>
+      </c>
+      <c r="Y32" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O32" s="15">
-        <f t="shared" si="37"/>
-        <v>48</v>
-      </c>
-      <c r="P32" s="16">
-        <f t="shared" si="37"/>
-        <v>33415</v>
-      </c>
-      <c r="Q32" s="16">
+      <c r="Z32" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R32" s="17">
+      <c r="AA32" s="15">
+        <f t="shared" si="33"/>
+        <v>42</v>
+      </c>
+      <c r="AB32" s="16">
+        <f t="shared" si="33"/>
+        <v>55791</v>
+      </c>
+      <c r="AC32" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S32" s="15">
+      <c r="AD32" s="17">
         <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="T32" s="16">
-        <f t="shared" si="29"/>
-        <v>7991</v>
-      </c>
-      <c r="U32" s="16">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="V32" s="17">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W32" s="15">
-        <f t="shared" ref="V32:AD39" si="39">W33</f>
-        <v>34</v>
-      </c>
-      <c r="X32" s="16">
-        <f t="shared" si="39"/>
-        <v>37292</v>
-      </c>
-      <c r="Y32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="4">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="Z32" s="17">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA32" s="15">
-        <f t="shared" si="39"/>
-        <v>42</v>
-      </c>
-      <c r="AB32" s="16">
-        <f t="shared" si="39"/>
-        <v>55091</v>
-      </c>
-      <c r="AC32" s="16">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AE32" s="4">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
       <c r="AF32" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -4093,123 +4381,123 @@
         <v>42001</v>
       </c>
       <c r="C33" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>50</v>
       </c>
       <c r="D33" s="16">
-        <f t="shared" si="37"/>
-        <v>32828</v>
+        <f t="shared" si="31"/>
+        <v>33900</v>
       </c>
       <c r="E33" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="15">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="H33" s="16">
+        <f t="shared" si="31"/>
+        <v>14399</v>
+      </c>
+      <c r="I33" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="15">
+        <f t="shared" si="31"/>
+        <v>44</v>
+      </c>
+      <c r="L33" s="16">
+        <f t="shared" si="31"/>
+        <v>48988</v>
+      </c>
+      <c r="M33" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="15">
+        <f t="shared" si="31"/>
+        <v>65</v>
+      </c>
+      <c r="P33" s="16">
+        <f t="shared" si="31"/>
+        <v>45260</v>
+      </c>
+      <c r="Q33" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F33" s="17">
+      <c r="R33" s="17">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G33" s="15">
-        <f t="shared" si="37"/>
-        <v>6</v>
-      </c>
-      <c r="H33" s="16">
-        <f t="shared" si="37"/>
-        <v>13562</v>
-      </c>
-      <c r="I33" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="17">
+      <c r="S33" s="15">
+        <f t="shared" ref="S33:T39" si="34">S34</f>
+        <v>12</v>
+      </c>
+      <c r="T33" s="16">
+        <f t="shared" si="34"/>
+        <v>7991</v>
+      </c>
+      <c r="U33" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K33" s="15">
-        <f t="shared" si="37"/>
-        <v>39</v>
-      </c>
-      <c r="L33" s="16">
-        <f t="shared" si="37"/>
-        <v>43256</v>
-      </c>
-      <c r="M33" s="16">
+      <c r="V33" s="17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N33" s="17">
+      <c r="W33" s="15">
+        <f t="shared" si="33"/>
+        <v>35</v>
+      </c>
+      <c r="X33" s="16">
+        <f t="shared" si="33"/>
+        <v>38673</v>
+      </c>
+      <c r="Y33" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O33" s="15">
-        <f t="shared" si="37"/>
-        <v>48</v>
-      </c>
-      <c r="P33" s="16">
-        <f t="shared" si="37"/>
-        <v>33415</v>
-      </c>
-      <c r="Q33" s="16">
+      <c r="Z33" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R33" s="17">
+      <c r="AA33" s="15">
+        <f t="shared" si="33"/>
+        <v>42</v>
+      </c>
+      <c r="AB33" s="16">
+        <f t="shared" si="33"/>
+        <v>55791</v>
+      </c>
+      <c r="AC33" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S33" s="15">
-        <f t="shared" ref="R26:U39" si="40">S34</f>
-        <v>12</v>
-      </c>
-      <c r="T33" s="16">
-        <f t="shared" si="40"/>
-        <v>7991</v>
-      </c>
-      <c r="U33" s="16">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="V33" s="17">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W33" s="15">
-        <f t="shared" si="39"/>
-        <v>34</v>
-      </c>
-      <c r="X33" s="16">
-        <f t="shared" si="39"/>
-        <v>37292</v>
-      </c>
-      <c r="Y33" s="16">
+      <c r="AD33" s="17">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="4">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="Z33" s="17">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="15">
-        <f t="shared" si="39"/>
-        <v>42</v>
-      </c>
-      <c r="AB33" s="16">
-        <f t="shared" si="39"/>
-        <v>55091</v>
-      </c>
-      <c r="AC33" s="16">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AD33" s="17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AE33" s="4">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
       <c r="AF33" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -4221,123 +4509,123 @@
         <v>42000</v>
       </c>
       <c r="C34" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>50</v>
       </c>
       <c r="D34" s="16">
-        <f t="shared" si="37"/>
-        <v>32828</v>
+        <f t="shared" si="31"/>
+        <v>33900</v>
       </c>
       <c r="E34" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="15">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="H34" s="16">
+        <f t="shared" si="31"/>
+        <v>14399</v>
+      </c>
+      <c r="I34" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="15">
+        <f t="shared" si="31"/>
+        <v>44</v>
+      </c>
+      <c r="L34" s="16">
+        <f t="shared" si="31"/>
+        <v>48988</v>
+      </c>
+      <c r="M34" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="15">
+        <f t="shared" si="31"/>
+        <v>65</v>
+      </c>
+      <c r="P34" s="16">
+        <f t="shared" si="31"/>
+        <v>45260</v>
+      </c>
+      <c r="Q34" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F34" s="17">
+      <c r="R34" s="17">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G34" s="15">
-        <f t="shared" si="37"/>
-        <v>6</v>
-      </c>
-      <c r="H34" s="16">
-        <f t="shared" si="37"/>
-        <v>13562</v>
-      </c>
-      <c r="I34" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="17">
+      <c r="S34" s="15">
+        <f t="shared" si="34"/>
+        <v>12</v>
+      </c>
+      <c r="T34" s="16">
+        <f t="shared" si="34"/>
+        <v>7991</v>
+      </c>
+      <c r="U34" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K34" s="15">
-        <f t="shared" si="37"/>
-        <v>39</v>
-      </c>
-      <c r="L34" s="16">
-        <f t="shared" si="37"/>
-        <v>43256</v>
-      </c>
-      <c r="M34" s="16">
+      <c r="V34" s="17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N34" s="17">
+      <c r="W34" s="15">
+        <f t="shared" si="33"/>
+        <v>35</v>
+      </c>
+      <c r="X34" s="16">
+        <f t="shared" si="33"/>
+        <v>38673</v>
+      </c>
+      <c r="Y34" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O34" s="15">
-        <f t="shared" si="37"/>
-        <v>48</v>
-      </c>
-      <c r="P34" s="16">
-        <f t="shared" si="37"/>
-        <v>33415</v>
-      </c>
-      <c r="Q34" s="16">
+      <c r="Z34" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R34" s="17">
+      <c r="AA34" s="15">
+        <f t="shared" si="33"/>
+        <v>42</v>
+      </c>
+      <c r="AB34" s="16">
+        <f t="shared" si="33"/>
+        <v>55791</v>
+      </c>
+      <c r="AC34" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S34" s="15">
-        <f t="shared" si="40"/>
-        <v>12</v>
-      </c>
-      <c r="T34" s="16">
-        <f t="shared" si="40"/>
-        <v>7991</v>
-      </c>
-      <c r="U34" s="16">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="V34" s="17">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W34" s="15">
-        <f t="shared" si="39"/>
-        <v>34</v>
-      </c>
-      <c r="X34" s="16">
-        <f t="shared" si="39"/>
-        <v>37292</v>
-      </c>
-      <c r="Y34" s="16">
+      <c r="AD34" s="17">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="4">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="Z34" s="17">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA34" s="15">
-        <f t="shared" si="39"/>
-        <v>42</v>
-      </c>
-      <c r="AB34" s="16">
-        <f t="shared" si="39"/>
-        <v>55091</v>
-      </c>
-      <c r="AC34" s="16">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AD34" s="17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="4">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
       <c r="AF34" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -4349,123 +4637,123 @@
         <v>41999</v>
       </c>
       <c r="C35" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>50</v>
       </c>
       <c r="D35" s="16">
-        <f t="shared" si="37"/>
-        <v>32828</v>
+        <f t="shared" si="31"/>
+        <v>33900</v>
       </c>
       <c r="E35" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="15">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="H35" s="16">
+        <f t="shared" si="31"/>
+        <v>14399</v>
+      </c>
+      <c r="I35" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <f t="shared" si="31"/>
+        <v>44</v>
+      </c>
+      <c r="L35" s="16">
+        <f t="shared" si="31"/>
+        <v>48988</v>
+      </c>
+      <c r="M35" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="15">
+        <f t="shared" si="31"/>
+        <v>65</v>
+      </c>
+      <c r="P35" s="16">
+        <f t="shared" si="31"/>
+        <v>45260</v>
+      </c>
+      <c r="Q35" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F35" s="17">
+      <c r="R35" s="17">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G35" s="15">
-        <f t="shared" si="37"/>
-        <v>6</v>
-      </c>
-      <c r="H35" s="16">
-        <f t="shared" si="37"/>
-        <v>13562</v>
-      </c>
-      <c r="I35" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="17">
+      <c r="S35" s="15">
+        <f t="shared" si="34"/>
+        <v>12</v>
+      </c>
+      <c r="T35" s="16">
+        <f t="shared" si="34"/>
+        <v>7991</v>
+      </c>
+      <c r="U35" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K35" s="15">
-        <f t="shared" si="37"/>
-        <v>39</v>
-      </c>
-      <c r="L35" s="16">
-        <f t="shared" si="37"/>
-        <v>43256</v>
-      </c>
-      <c r="M35" s="16">
+      <c r="V35" s="17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N35" s="17">
+      <c r="W35" s="15">
+        <f t="shared" si="33"/>
+        <v>35</v>
+      </c>
+      <c r="X35" s="16">
+        <f t="shared" si="33"/>
+        <v>38673</v>
+      </c>
+      <c r="Y35" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O35" s="15">
-        <f t="shared" si="37"/>
-        <v>48</v>
-      </c>
-      <c r="P35" s="16">
-        <f t="shared" si="37"/>
-        <v>33415</v>
-      </c>
-      <c r="Q35" s="16">
+      <c r="Z35" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R35" s="17">
+      <c r="AA35" s="15">
+        <f t="shared" si="33"/>
+        <v>42</v>
+      </c>
+      <c r="AB35" s="16">
+        <f t="shared" si="33"/>
+        <v>55791</v>
+      </c>
+      <c r="AC35" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S35" s="15">
-        <f t="shared" si="40"/>
-        <v>12</v>
-      </c>
-      <c r="T35" s="16">
-        <f t="shared" si="40"/>
-        <v>7991</v>
-      </c>
-      <c r="U35" s="16">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="V35" s="17">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W35" s="15">
-        <f t="shared" si="39"/>
-        <v>34</v>
-      </c>
-      <c r="X35" s="16">
-        <f t="shared" si="39"/>
-        <v>37292</v>
-      </c>
-      <c r="Y35" s="16">
+      <c r="AD35" s="17">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="4">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="Z35" s="17">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="15">
-        <f t="shared" si="39"/>
-        <v>42</v>
-      </c>
-      <c r="AB35" s="16">
-        <f t="shared" si="39"/>
-        <v>55091</v>
-      </c>
-      <c r="AC35" s="16">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AD35" s="17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AE35" s="4">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
       <c r="AF35" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -4477,123 +4765,123 @@
         <v>41998</v>
       </c>
       <c r="C36" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>50</v>
       </c>
       <c r="D36" s="16">
-        <f t="shared" si="37"/>
-        <v>32828</v>
+        <f t="shared" si="31"/>
+        <v>33900</v>
       </c>
       <c r="E36" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="15">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="H36" s="16">
+        <f t="shared" si="31"/>
+        <v>14399</v>
+      </c>
+      <c r="I36" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="15">
+        <f t="shared" si="31"/>
+        <v>44</v>
+      </c>
+      <c r="L36" s="16">
+        <f t="shared" si="31"/>
+        <v>48988</v>
+      </c>
+      <c r="M36" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="15">
+        <f t="shared" si="31"/>
+        <v>65</v>
+      </c>
+      <c r="P36" s="16">
+        <f t="shared" si="31"/>
+        <v>45260</v>
+      </c>
+      <c r="Q36" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F36" s="17">
+      <c r="R36" s="17">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G36" s="15">
-        <f t="shared" si="37"/>
-        <v>6</v>
-      </c>
-      <c r="H36" s="16">
-        <f t="shared" si="37"/>
-        <v>13562</v>
-      </c>
-      <c r="I36" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="17">
+      <c r="S36" s="15">
+        <f t="shared" si="34"/>
+        <v>12</v>
+      </c>
+      <c r="T36" s="16">
+        <f t="shared" si="34"/>
+        <v>7991</v>
+      </c>
+      <c r="U36" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K36" s="15">
-        <f t="shared" si="37"/>
-        <v>39</v>
-      </c>
-      <c r="L36" s="16">
-        <f t="shared" si="37"/>
-        <v>43256</v>
-      </c>
-      <c r="M36" s="16">
+      <c r="V36" s="17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N36" s="17">
+      <c r="W36" s="15">
+        <f t="shared" si="33"/>
+        <v>35</v>
+      </c>
+      <c r="X36" s="16">
+        <f t="shared" si="33"/>
+        <v>38673</v>
+      </c>
+      <c r="Y36" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O36" s="15">
-        <f t="shared" si="37"/>
-        <v>48</v>
-      </c>
-      <c r="P36" s="16">
-        <f t="shared" si="37"/>
-        <v>33415</v>
-      </c>
-      <c r="Q36" s="16">
+      <c r="Z36" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R36" s="17">
+      <c r="AA36" s="15">
+        <f t="shared" si="33"/>
+        <v>42</v>
+      </c>
+      <c r="AB36" s="16">
+        <f t="shared" si="33"/>
+        <v>55791</v>
+      </c>
+      <c r="AC36" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S36" s="15">
-        <f t="shared" si="40"/>
-        <v>12</v>
-      </c>
-      <c r="T36" s="16">
-        <f t="shared" si="40"/>
-        <v>7991</v>
-      </c>
-      <c r="U36" s="16">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="V36" s="17">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W36" s="15">
-        <f t="shared" si="39"/>
-        <v>34</v>
-      </c>
-      <c r="X36" s="16">
-        <f t="shared" si="39"/>
-        <v>37292</v>
-      </c>
-      <c r="Y36" s="16">
+      <c r="AD36" s="17">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="4">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="Z36" s="17">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA36" s="15">
-        <f t="shared" si="39"/>
-        <v>42</v>
-      </c>
-      <c r="AB36" s="16">
-        <f t="shared" si="39"/>
-        <v>55091</v>
-      </c>
-      <c r="AC36" s="16">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AD36" s="17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AE36" s="4">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
       <c r="AF36" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -4605,134 +4893,130 @@
         <v>41997</v>
       </c>
       <c r="C37" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>50</v>
       </c>
       <c r="D37" s="16">
-        <v>32828</v>
+        <v>33900</v>
       </c>
       <c r="E37" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="17">
+        <f t="shared" si="16"/>
+        <v>1853</v>
+      </c>
+      <c r="G37" s="15">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="H37" s="16">
+        <v>14399</v>
+      </c>
+      <c r="I37" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="17">
+        <f t="shared" si="18"/>
+        <v>837</v>
+      </c>
+      <c r="K37" s="15">
+        <v>44</v>
+      </c>
+      <c r="L37" s="16">
+        <v>48988</v>
+      </c>
+      <c r="M37" s="16">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="N37" s="17">
+        <f t="shared" si="20"/>
+        <v>10125</v>
+      </c>
+      <c r="O37" s="15">
+        <v>65</v>
+      </c>
+      <c r="P37" s="16">
+        <v>45260</v>
+      </c>
+      <c r="Q37" s="16">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="17">
+        <v>17</v>
+      </c>
+      <c r="R37" s="17">
         <f t="shared" si="22"/>
-        <v>781</v>
-      </c>
-      <c r="G37" s="15">
-        <f t="shared" si="37"/>
-        <v>6</v>
-      </c>
-      <c r="H37" s="16">
-        <f t="shared" si="37"/>
-        <v>13562</v>
-      </c>
-      <c r="I37" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="17">
+        <v>11845</v>
+      </c>
+      <c r="S37" s="15">
+        <f t="shared" si="34"/>
+        <v>12</v>
+      </c>
+      <c r="T37" s="16">
+        <f t="shared" si="34"/>
+        <v>7991</v>
+      </c>
+      <c r="U37" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K37" s="15">
-        <v>39</v>
-      </c>
-      <c r="L37" s="16">
-        <v>43256</v>
-      </c>
-      <c r="M37" s="16">
+      <c r="V37" s="17">
         <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="N37" s="17">
+        <v>0</v>
+      </c>
+      <c r="W37" s="15">
+        <v>35</v>
+      </c>
+      <c r="X37" s="16">
+        <v>38673</v>
+      </c>
+      <c r="Y37" s="16">
         <f t="shared" si="26"/>
-        <v>4393</v>
-      </c>
-      <c r="O37" s="15">
-        <f t="shared" si="37"/>
-        <v>48</v>
-      </c>
-      <c r="P37" s="16">
-        <f t="shared" si="37"/>
-        <v>33415</v>
-      </c>
-      <c r="Q37" s="16">
+        <v>2</v>
+      </c>
+      <c r="Z37" s="17">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="17">
+        <v>4173</v>
+      </c>
+      <c r="AA37" s="15">
+        <f t="shared" si="33"/>
+        <v>42</v>
+      </c>
+      <c r="AB37" s="16">
+        <v>55791</v>
+      </c>
+      <c r="AC37" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S37" s="15">
-        <f t="shared" si="40"/>
-        <v>12</v>
-      </c>
-      <c r="T37" s="16">
-        <f t="shared" si="40"/>
-        <v>7991</v>
-      </c>
-      <c r="U37" s="16">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="V37" s="17">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W37" s="15">
-        <v>34</v>
-      </c>
-      <c r="X37" s="16">
-        <v>37292</v>
-      </c>
-      <c r="Y37" s="16">
+      <c r="AD37" s="17">
+        <f t="shared" si="29"/>
+        <v>700</v>
+      </c>
+      <c r="AE37" s="4">
         <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="Z37" s="17">
-        <f t="shared" si="33"/>
-        <v>2792</v>
-      </c>
-      <c r="AA37" s="15">
-        <f t="shared" si="39"/>
-        <v>42</v>
-      </c>
-      <c r="AB37" s="16">
-        <f t="shared" si="39"/>
-        <v>55091</v>
-      </c>
-      <c r="AC37" s="16">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AD37" s="17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AE37" s="4">
-        <f t="shared" si="38"/>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AF37" s="4">
-        <f t="shared" si="38"/>
-        <v>7966</v>
+        <f t="shared" si="32"/>
+        <v>29533</v>
       </c>
       <c r="AG37">
-        <v>16517</v>
+        <v>16525</v>
       </c>
       <c r="AH37">
-        <f t="shared" ref="AH37:AH38" si="41">AG37-AG38</f>
-        <v>3</v>
+        <f t="shared" ref="AH37:AH38" si="35">AG37-AG38</f>
+        <v>11</v>
       </c>
       <c r="AI37">
-        <f>AE37/$AH37</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" ref="AI37:AJ40" si="36">AE37/$AH37</f>
+        <v>2.2727272727272729</v>
       </c>
       <c r="AJ37">
-        <f>AF37/$AH37</f>
-        <v>2655.3333333333335</v>
+        <f t="shared" si="36"/>
+        <v>2684.818181818182</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -4749,11 +5033,11 @@
         <v>32047</v>
       </c>
       <c r="E38" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="F38" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1632</v>
       </c>
       <c r="G38" s="15">
@@ -4763,27 +5047,27 @@
         <v>13562</v>
       </c>
       <c r="I38" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="J38" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>1776</v>
       </c>
       <c r="K38" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>38</v>
       </c>
       <c r="L38" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>38863</v>
       </c>
       <c r="M38" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N38" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O38" s="15">
@@ -4793,27 +5077,27 @@
         <v>33415</v>
       </c>
       <c r="Q38" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="R38" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>971</v>
       </c>
       <c r="S38" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>12</v>
       </c>
       <c r="T38" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>7991</v>
       </c>
       <c r="U38" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V38" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W38" s="15">
@@ -4823,11 +5107,11 @@
         <v>34500</v>
       </c>
       <c r="Y38" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="Z38" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>3162</v>
       </c>
       <c r="AA38" s="15">
@@ -4837,34 +5121,34 @@
         <v>55091</v>
       </c>
       <c r="AC38" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="AD38" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="29"/>
         <v>5817</v>
       </c>
       <c r="AE38" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>21</v>
       </c>
       <c r="AF38" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>13358</v>
       </c>
       <c r="AG38">
         <v>16514</v>
       </c>
       <c r="AH38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="35"/>
         <v>27</v>
       </c>
       <c r="AI38">
-        <f>AE38/$AH38</f>
+        <f t="shared" si="36"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="AJ38">
-        <f>AF38/$AH38</f>
+        <f t="shared" si="36"/>
         <v>494.74074074074076</v>
       </c>
     </row>
@@ -4882,43 +5166,43 @@
         <v>30415</v>
       </c>
       <c r="E39" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="F39" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>2923</v>
       </c>
       <c r="G39" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="H39" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>11786</v>
       </c>
       <c r="I39" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J39" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K39" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>38</v>
       </c>
       <c r="L39" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>38863</v>
       </c>
       <c r="M39" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N39" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O39" s="15">
@@ -4928,27 +5212,27 @@
         <v>32444</v>
       </c>
       <c r="Q39" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="R39" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>1204</v>
       </c>
       <c r="S39" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>12</v>
       </c>
       <c r="T39" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>7991</v>
       </c>
       <c r="U39" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V39" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W39" s="15">
@@ -4958,11 +5242,11 @@
         <v>31338</v>
       </c>
       <c r="Y39" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="Z39" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>2739</v>
       </c>
       <c r="AA39" s="15">
@@ -4972,19 +5256,19 @@
         <v>49274</v>
       </c>
       <c r="AC39" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AD39" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="29"/>
         <v>1064</v>
       </c>
       <c r="AE39" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>14</v>
       </c>
       <c r="AF39" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>7930</v>
       </c>
       <c r="AG39">
@@ -4995,11 +5279,11 @@
         <v>10</v>
       </c>
       <c r="AI39">
-        <f>AE39/$AH39</f>
+        <f t="shared" si="36"/>
         <v>1.4</v>
       </c>
       <c r="AJ39">
-        <f>AF39/$AH39</f>
+        <f t="shared" si="36"/>
         <v>793</v>
       </c>
     </row>
@@ -5025,7 +5309,7 @@
         <v>4562</v>
       </c>
       <c r="G40" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="H40" s="16">
@@ -5110,11 +5394,11 @@
         <v>8390</v>
       </c>
       <c r="AE40" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>48</v>
       </c>
       <c r="AF40" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>40575</v>
       </c>
       <c r="AG40">
@@ -5125,11 +5409,11 @@
         <v>28</v>
       </c>
       <c r="AI40">
-        <f>AE40/$AH40</f>
+        <f t="shared" si="36"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="AJ40">
-        <f>AF40/$AH40</f>
+        <f t="shared" si="36"/>
         <v>1449.1071428571429</v>
       </c>
     </row>
@@ -5239,11 +5523,11 @@
         <v>20041</v>
       </c>
       <c r="AE41" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>62</v>
       </c>
       <c r="AF41" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>73206</v>
       </c>
       <c r="AG41">
@@ -5264,26 +5548,26 @@
         <v>17472</v>
       </c>
       <c r="E42" s="16">
-        <f t="shared" ref="E42:F44" si="42">C42-C43</f>
+        <f t="shared" ref="E42:F44" si="37">C42-C43</f>
         <v>4</v>
       </c>
       <c r="F42" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>3603</v>
       </c>
       <c r="G42" s="15">
-        <f t="shared" ref="G42:T43" si="43">G43</f>
+        <f t="shared" ref="G42:T43" si="38">G43</f>
         <v>0</v>
       </c>
       <c r="H42" s="16">
         <v>2587</v>
       </c>
       <c r="I42" s="16">
-        <f t="shared" ref="I42:J44" si="44">G42-G43</f>
+        <f t="shared" ref="I42:J44" si="39">G42-G43</f>
         <v>0</v>
       </c>
       <c r="J42" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>2121</v>
       </c>
       <c r="K42" s="15">
@@ -5293,11 +5577,11 @@
         <v>17845</v>
       </c>
       <c r="M42" s="16">
-        <f t="shared" ref="M42:N44" si="45">K42-K43</f>
+        <f t="shared" ref="M42:N44" si="40">K42-K43</f>
         <v>0</v>
       </c>
       <c r="N42" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>1145</v>
       </c>
       <c r="O42" s="15">
@@ -5307,26 +5591,26 @@
         <v>15917</v>
       </c>
       <c r="Q42" s="16">
-        <f t="shared" ref="Q42:R44" si="46">O42-O43</f>
+        <f t="shared" ref="Q42:R44" si="41">O42-O43</f>
         <v>2</v>
       </c>
       <c r="R42" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>2510</v>
       </c>
       <c r="S42" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="T42" s="16">
         <v>0</v>
       </c>
       <c r="U42" s="16">
-        <f t="shared" ref="U42:V44" si="47">S42-S43</f>
+        <f t="shared" ref="U42:V44" si="42">S42-S43</f>
         <v>0</v>
       </c>
       <c r="V42" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="W42" s="15">
@@ -5336,11 +5620,11 @@
         <v>6800</v>
       </c>
       <c r="Y42" s="16">
-        <f t="shared" ref="Y42:Z44" si="48">W42-W43</f>
+        <f t="shared" ref="Y42:Z44" si="43">W42-W43</f>
         <v>5</v>
       </c>
       <c r="Z42" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>2138</v>
       </c>
       <c r="AA42" s="15">
@@ -5350,19 +5634,19 @@
         <v>19779</v>
       </c>
       <c r="AC42" s="16">
-        <f t="shared" ref="AC42:AD44" si="49">AA42-AA43</f>
+        <f t="shared" ref="AC42:AD44" si="44">AA42-AA43</f>
         <v>6</v>
       </c>
       <c r="AD42" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>8542</v>
       </c>
       <c r="AE42" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>17</v>
       </c>
       <c r="AF42" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>20059</v>
       </c>
     </row>
@@ -5380,26 +5664,26 @@
         <v>13869</v>
       </c>
       <c r="E43" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="F43" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>5719</v>
       </c>
       <c r="G43" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="H43" s="16">
         <v>466</v>
       </c>
       <c r="I43" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J43" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>466</v>
       </c>
       <c r="K43" s="15">
@@ -5409,11 +5693,11 @@
         <v>16700</v>
       </c>
       <c r="M43" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="N43" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>14</v>
       </c>
       <c r="O43" s="15">
@@ -5423,27 +5707,27 @@
         <v>13407</v>
       </c>
       <c r="Q43" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>12</v>
       </c>
       <c r="R43" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>7199</v>
       </c>
       <c r="S43" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="T43" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="U43" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="V43" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="W43" s="15">
@@ -5453,11 +5737,11 @@
         <v>4662</v>
       </c>
       <c r="Y43" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>3</v>
       </c>
       <c r="Z43" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>3582</v>
       </c>
       <c r="AA43" s="15">
@@ -5467,19 +5751,19 @@
         <v>11237</v>
       </c>
       <c r="AC43" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="AD43" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>1879</v>
       </c>
       <c r="AE43" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>28</v>
       </c>
       <c r="AF43" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>18859</v>
       </c>
     </row>
@@ -5497,11 +5781,11 @@
         <v>8150</v>
       </c>
       <c r="E44" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="F44" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>4075</v>
       </c>
       <c r="G44" s="15">
@@ -5511,11 +5795,11 @@
         <v>0</v>
       </c>
       <c r="I44" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J44" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="K44" s="15">
@@ -5525,11 +5809,11 @@
         <v>16686</v>
       </c>
       <c r="M44" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>8</v>
       </c>
       <c r="N44" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>8343</v>
       </c>
       <c r="O44" s="15">
@@ -5539,11 +5823,11 @@
         <v>6208</v>
       </c>
       <c r="Q44" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>5</v>
       </c>
       <c r="R44" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>3104</v>
       </c>
       <c r="S44" s="15">
@@ -5553,11 +5837,11 @@
         <v>0</v>
       </c>
       <c r="U44" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="V44" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="W44" s="15">
@@ -5567,11 +5851,11 @@
         <v>1080</v>
       </c>
       <c r="Y44" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="Z44" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>540</v>
       </c>
       <c r="AA44" s="15">
@@ -5581,19 +5865,19 @@
         <v>9358</v>
       </c>
       <c r="AC44" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="AD44" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>4679</v>
       </c>
       <c r="AE44" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>21</v>
       </c>
       <c r="AF44" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>20741</v>
       </c>
     </row>
@@ -5621,11 +5905,11 @@
         <v>4075</v>
       </c>
       <c r="G45" s="15">
-        <f t="shared" ref="G45:H45" si="50">INT(G44/2)</f>
+        <f t="shared" ref="G45:H45" si="45">INT(G44/2)</f>
         <v>0</v>
       </c>
       <c r="H45" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="I45" s="16">
@@ -5637,11 +5921,11 @@
         <v>0</v>
       </c>
       <c r="K45" s="15">
-        <f t="shared" ref="K45:L45" si="51">INT(K44/2)</f>
+        <f t="shared" ref="K45:L45" si="46">INT(K44/2)</f>
         <v>7</v>
       </c>
       <c r="L45" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>8343</v>
       </c>
       <c r="M45" s="16">
@@ -5653,11 +5937,11 @@
         <v>8343</v>
       </c>
       <c r="O45" s="15">
-        <f t="shared" ref="O45:P45" si="52">INT(O44/2)</f>
+        <f t="shared" ref="O45:P45" si="47">INT(O44/2)</f>
         <v>4</v>
       </c>
       <c r="P45" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>3104</v>
       </c>
       <c r="Q45" s="16">
@@ -5669,11 +5953,11 @@
         <v>3104</v>
       </c>
       <c r="S45" s="15">
-        <f t="shared" ref="S45:T45" si="53">INT(S44/2)</f>
+        <f t="shared" ref="S45:T45" si="48">INT(S44/2)</f>
         <v>0</v>
       </c>
       <c r="T45" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="U45" s="16">
@@ -5685,11 +5969,11 @@
         <v>0</v>
       </c>
       <c r="W45" s="15">
-        <f t="shared" ref="W45:X45" si="54">INT(W44/2)</f>
+        <f t="shared" ref="W45:X45" si="49">INT(W44/2)</f>
         <v>1</v>
       </c>
       <c r="X45" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>540</v>
       </c>
       <c r="Y45" s="16">
@@ -5701,11 +5985,11 @@
         <v>540</v>
       </c>
       <c r="AA45" s="15">
-        <f t="shared" ref="AA45:AB45" si="55">INT(AA44/2)</f>
+        <f t="shared" ref="AA45:AB45" si="50">INT(AA44/2)</f>
         <v>2</v>
       </c>
       <c r="AB45" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>4679</v>
       </c>
       <c r="AC45" s="16">
@@ -5736,30 +6020,30 @@
     <mergeCell ref="O1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="AG5:AH5 C5:AD5">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:P2">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="9" operator="greaterThan">
       <formula>$T$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:P2">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="lessThan">
       <formula>$T$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:AD2">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
       <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:AD2">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
       <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/mission wz.xlsx
+++ b/mission wz.xlsx
@@ -299,295 +299,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <condense val="0"/>
@@ -953,7 +665,7 @@
   <dimension ref="A1:AK45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6:AD6"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -966,7 +678,7 @@
     <col min="7" max="7" width="4.5703125" style="9" customWidth="1"/>
     <col min="8" max="8" width="7" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.140625" style="9" bestFit="1" customWidth="1"/>
@@ -1055,21 +767,21 @@
       </c>
       <c r="C2" s="8">
         <f>(150-C6)/150</f>
-        <v>0.33333333333333331</v>
+        <v>0.34</v>
       </c>
       <c r="D2" s="8">
         <f>(150000-D6)/150000</f>
-        <v>0.22600000000000001</v>
+        <v>0.24197333333333335</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8">
         <f t="shared" ref="G2" si="0">(150-G6)/150</f>
-        <v>0.04</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H2" s="8">
         <f t="shared" ref="H2" si="1">(150000-H6)/150000</f>
-        <v>9.5993333333333333E-2</v>
+        <v>0.21066666666666667</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -1085,31 +797,31 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8">
         <f t="shared" ref="O2" si="4">(150-O6)/150</f>
-        <v>0.43333333333333335</v>
+        <v>0.45333333333333331</v>
       </c>
       <c r="P2" s="8">
         <f t="shared" ref="P2" si="5">(150000-P6)/150000</f>
-        <v>0.30173333333333335</v>
+        <v>0.31106</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8">
         <f t="shared" ref="S2" si="6">(150-S6)/150</f>
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="T2" s="8">
         <f t="shared" ref="T2" si="7">(150000-T6)/150000</f>
-        <v>5.3273333333333332E-2</v>
+        <v>6.3920000000000005E-2</v>
       </c>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
       <c r="W2" s="8">
         <f t="shared" ref="W2" si="8">(150-W6)/150</f>
-        <v>0.23333333333333334</v>
+        <v>0.32</v>
       </c>
       <c r="X2" s="8">
         <f t="shared" ref="X2" si="9">(150000-X6)/150000</f>
-        <v>0.25781999999999999</v>
+        <v>0.30562666666666666</v>
       </c>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
@@ -1119,7 +831,7 @@
       </c>
       <c r="AB2" s="8">
         <f t="shared" ref="AB2" si="11">(150000-AB6)/150000</f>
-        <v>0.37193999999999999</v>
+        <v>0.37947999999999998</v>
       </c>
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
@@ -1144,15 +856,15 @@
       </c>
       <c r="D3" s="9">
         <f ca="1">IF(D6&lt;0,0,INT(D6/$AK$1))</f>
-        <v>4837</v>
+        <v>4737</v>
       </c>
       <c r="G3" s="9">
         <f ca="1">IF(G6&lt;0,0,INT(G6/$AK$1))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="9">
         <f ca="1">IF(H6&lt;0,0,INT(H6/$AK$1))</f>
-        <v>5650</v>
+        <v>4933</v>
       </c>
       <c r="K3" s="9">
         <f ca="1">IF(K6&lt;0,0,INT(K6/$AK$1))</f>
@@ -1168,7 +880,7 @@
       </c>
       <c r="P3" s="9">
         <f ca="1">IF(P6&lt;0,0,INT(P6/$AK$1))</f>
-        <v>4364</v>
+        <v>4305</v>
       </c>
       <c r="S3" s="9">
         <f ca="1">IF(S6&lt;0,0,INT(S6/$AK$1))</f>
@@ -1176,7 +888,7 @@
       </c>
       <c r="T3" s="9">
         <f ca="1">IF(T6&lt;0,0,INT(T6/$AK$1))</f>
-        <v>5917</v>
+        <v>5850</v>
       </c>
       <c r="W3" s="9">
         <f ca="1">IF(W6&lt;0,0,INT(W6/$AK$1))</f>
@@ -1184,7 +896,7 @@
       </c>
       <c r="X3" s="9">
         <f ca="1">IF(X6&lt;0,0,INT(X6/$AK$1))</f>
-        <v>4638</v>
+        <v>4339</v>
       </c>
       <c r="AA3" s="9">
         <f ca="1">IF(AA6&lt;0,0,INT(AA6/$AK$1))</f>
@@ -1192,15 +904,15 @@
       </c>
       <c r="AB3" s="9">
         <f ca="1">IF(AB6&lt;0,0,INT(AB6/$AK$1))</f>
-        <v>3925</v>
+        <v>3878</v>
       </c>
       <c r="AE3" s="5">
         <f t="shared" ref="AE3:AE4" ca="1" si="12">SUM(C3,G3,K3,O3,S3,W3,AA3)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF3" s="5">
         <f ca="1">SUM(D3,H3,L3,P3,T3,X3,AB3)</f>
-        <v>33539</v>
+        <v>32250</v>
       </c>
       <c r="AI3" s="1">
         <v>41996</v>
@@ -1288,19 +1000,19 @@
       </c>
       <c r="C5" s="9">
         <f ca="1">IF(150-INT(150-150/34*$AK$1)&lt;0,0,150-INT(150-150/34*$AK$1)-C6)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="9">
         <f ca="1">IF(150000-INT(150000-150000/34*$AK$1)&lt;0,0,150000-INT(150000-150000/34*$AK$1)-D6)</f>
-        <v>-10217</v>
+        <v>-7821</v>
       </c>
       <c r="G5" s="9">
         <f ca="1">IF(150-INT(150-150/34*$AK$1)&lt;0,0,150-INT(150-150/34*$AK$1)-G6)</f>
-        <v>-38</v>
+        <v>-19</v>
       </c>
       <c r="H5" s="9">
         <f ca="1">IF(150000-INT(150000-150000/34*$AK$1)&lt;0,0,150000-INT(150000-150000/34*$AK$1)-H6)</f>
-        <v>-29718</v>
+        <v>-12517</v>
       </c>
       <c r="K5" s="9">
         <f ca="1">IF(150-INT(150-150/34*$AK$1)&lt;0,0,150-INT(150-150/34*$AK$1)-K6)</f>
@@ -1312,27 +1024,27 @@
       </c>
       <c r="O5" s="9">
         <f ca="1">IF(150-INT(150-150/34*$AK$1)&lt;0,0,150-INT(150-150/34*$AK$1)-O6)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P5" s="9">
         <f ca="1">IF(150000-INT(150000-150000/34*$AK$1)&lt;0,0,150000-INT(150000-150000/34*$AK$1)-P6)</f>
-        <v>1143</v>
+        <v>2542</v>
       </c>
       <c r="S5" s="9">
         <f ca="1">IF(150-INT(150-150/34*$AK$1)&lt;0,0,150-INT(150-150/34*$AK$1)-S6)</f>
-        <v>-32</v>
+        <v>-29</v>
       </c>
       <c r="T5" s="9">
         <f ca="1">IF(150000-INT(150000-150000/34*$AK$1)&lt;0,0,150000-INT(150000-150000/34*$AK$1)-T6)</f>
-        <v>-36126</v>
+        <v>-34529</v>
       </c>
       <c r="W5" s="9">
         <f ca="1">IF(150-INT(150-150/34*$AK$1)&lt;0,0,150-INT(150-150/34*$AK$1)-W6)</f>
-        <v>-9</v>
+        <v>4</v>
       </c>
       <c r="X5" s="9">
         <f ca="1">IF(150000-INT(150000-150000/34*$AK$1)&lt;0,0,150000-INT(150000-150000/34*$AK$1)-X6)</f>
-        <v>-5444</v>
+        <v>1727</v>
       </c>
       <c r="AA5" s="9">
         <f ca="1">IF(150-INT(150-150/34*$AK$1)&lt;0,0,150-INT(150-150/34*$AK$1)-AA6)</f>
@@ -1340,23 +1052,23 @@
       </c>
       <c r="AB5" s="9">
         <f ca="1">IF(150000-INT(150000-150000/34*$AK$1)&lt;0,0,150000-INT(150000-150000/34*$AK$1)-AB6)</f>
-        <v>11674</v>
+        <v>12805</v>
       </c>
       <c r="AE5" s="5">
         <f ca="1">SUM(C5,G5,K5,O5,S5,W5,AA5)</f>
-        <v>-54</v>
+        <v>-15</v>
       </c>
       <c r="AF5" s="5">
         <f ca="1">SUM(D5,H5,L5,P5,T5,X5,AB5)</f>
-        <v>-63817</v>
+        <v>-32922</v>
       </c>
       <c r="AG5" s="3">
         <f ca="1">-$AK$3+AG6</f>
-        <v>-3.0822510822510807E-2</v>
+        <v>6.3203463203463373E-3</v>
       </c>
       <c r="AH5" s="3">
         <f ca="1">AH6-$AK$3</f>
-        <v>-3.9392034632034612E-2</v>
+        <v>-9.9682251082250928E-3</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1365,19 +1077,19 @@
       </c>
       <c r="C6" s="9">
         <f>IF(150-C11&lt;0,0,150-C11)</f>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="9">
         <f>IF(150000-D11&lt;0,0,150000-D11)</f>
-        <v>116100</v>
+        <v>113704</v>
       </c>
       <c r="G6" s="9">
         <f>IF(150-G11&lt;0,0,150-G11)</f>
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="H6" s="9">
         <f>IF(150000-H11&lt;0,0,150000-H11)</f>
-        <v>135601</v>
+        <v>118400</v>
       </c>
       <c r="K6" s="9">
         <f>IF(150-K11&lt;0,0,150-K11)</f>
@@ -1389,27 +1101,27 @@
       </c>
       <c r="O6" s="9">
         <f>IF(150-O11&lt;0,0,150-O11)</f>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P6" s="9">
         <f>IF(150000-P11&lt;0,0,150000-P11)</f>
-        <v>104740</v>
+        <v>103341</v>
       </c>
       <c r="S6" s="9">
         <f>IF(150-S11&lt;0,0,150-S11)</f>
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="T6" s="9">
         <f>IF(150000-T11&lt;0,0,150000-T11)</f>
-        <v>142009</v>
+        <v>140412</v>
       </c>
       <c r="W6" s="9">
         <f>IF(150-W11&lt;0,0,150-W11)</f>
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="X6" s="9">
         <f>IF(150000-X11&lt;0,0,150000-X11)</f>
-        <v>111327</v>
+        <v>104156</v>
       </c>
       <c r="AA6" s="9">
         <f>IF(150-AA11&lt;0,0,150-AA11)</f>
@@ -1417,23 +1129,23 @@
       </c>
       <c r="AB6" s="9">
         <f>IF(150000-AB11&lt;0,0,150000-AB11)</f>
-        <v>94209</v>
+        <v>93078</v>
       </c>
       <c r="AE6" s="5">
         <f>SUM(C6,G6,K6,O6,S6,W6,AA6)</f>
-        <v>796</v>
+        <v>757</v>
       </c>
       <c r="AF6" s="5">
         <f>SUM(D6,H6,L6,P6,T6,X6,AB6)</f>
-        <v>804998</v>
+        <v>774103</v>
       </c>
       <c r="AG6" s="3">
         <f>(7*150-AE6)/(7*150)</f>
-        <v>0.2419047619047619</v>
+        <v>0.27904761904761904</v>
       </c>
       <c r="AH6" s="3">
         <f>(7*150000-AF6)/(7*150000)</f>
-        <v>0.2333352380952381</v>
+        <v>0.26275904761904761</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -1442,11 +1154,11 @@
       </c>
       <c r="AE7" s="5">
         <f>150*7-AE6</f>
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="AF7" s="5">
         <f>150000*7-AF6</f>
-        <v>245002</v>
+        <v>275897</v>
       </c>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
@@ -1566,11 +1278,11 @@
       </c>
       <c r="C11" s="13">
         <f t="shared" ref="C11:P26" si="14">C12</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="14">
         <f t="shared" si="14"/>
-        <v>33900</v>
+        <v>36296</v>
       </c>
       <c r="E11" s="16">
         <f t="shared" ref="E11:E39" si="15">C11-C12</f>
@@ -1582,11 +1294,11 @@
       </c>
       <c r="G11" s="13">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H11" s="14">
         <f t="shared" si="14"/>
-        <v>14399</v>
+        <v>31600</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" ref="I11:I39" si="17">G11-G12</f>
@@ -1614,11 +1326,11 @@
       </c>
       <c r="O11" s="13">
         <f t="shared" si="14"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P11" s="14">
         <f t="shared" si="14"/>
-        <v>45260</v>
+        <v>46659</v>
       </c>
       <c r="Q11" s="16">
         <f t="shared" ref="Q11:Q39" si="21">O11-O12</f>
@@ -1630,11 +1342,11 @@
       </c>
       <c r="S11" s="13">
         <f t="shared" ref="S11:AB32" si="23">S12</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T11" s="14">
         <f t="shared" si="23"/>
-        <v>7991</v>
+        <v>9588</v>
       </c>
       <c r="U11" s="16">
         <f t="shared" ref="U11:U39" si="24">S11-S12</f>
@@ -1646,11 +1358,11 @@
       </c>
       <c r="W11" s="13">
         <f t="shared" si="23"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="X11" s="14">
         <f t="shared" si="23"/>
-        <v>38673</v>
+        <v>45844</v>
       </c>
       <c r="Y11" s="16">
         <f t="shared" ref="Y11:Y39" si="26">W11-W12</f>
@@ -1666,7 +1378,7 @@
       </c>
       <c r="AB11" s="14">
         <f t="shared" si="23"/>
-        <v>55791</v>
+        <v>56922</v>
       </c>
       <c r="AC11" s="16">
         <f t="shared" ref="AC11:AC39" si="28">AA11-AA12</f>
@@ -1694,11 +1406,11 @@
       </c>
       <c r="C12" s="15">
         <f t="shared" si="14"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" s="16">
         <f t="shared" si="14"/>
-        <v>33900</v>
+        <v>36296</v>
       </c>
       <c r="E12" s="16">
         <f t="shared" si="15"/>
@@ -1710,11 +1422,11 @@
       </c>
       <c r="G12" s="15">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H12" s="16">
         <f t="shared" si="14"/>
-        <v>14399</v>
+        <v>31600</v>
       </c>
       <c r="I12" s="16">
         <f t="shared" si="17"/>
@@ -1742,11 +1454,11 @@
       </c>
       <c r="O12" s="15">
         <f t="shared" si="14"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P12" s="16">
         <f t="shared" si="14"/>
-        <v>45260</v>
+        <v>46659</v>
       </c>
       <c r="Q12" s="16">
         <f t="shared" si="21"/>
@@ -1758,11 +1470,11 @@
       </c>
       <c r="S12" s="15">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T12" s="16">
         <f t="shared" si="23"/>
-        <v>7991</v>
+        <v>9588</v>
       </c>
       <c r="U12" s="16">
         <f t="shared" si="24"/>
@@ -1774,11 +1486,11 @@
       </c>
       <c r="W12" s="15">
         <f t="shared" si="23"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="X12" s="16">
         <f t="shared" si="23"/>
-        <v>38673</v>
+        <v>45844</v>
       </c>
       <c r="Y12" s="16">
         <f t="shared" si="26"/>
@@ -1794,7 +1506,7 @@
       </c>
       <c r="AB12" s="16">
         <f t="shared" si="23"/>
-        <v>55791</v>
+        <v>56922</v>
       </c>
       <c r="AC12" s="16">
         <f t="shared" si="28"/>
@@ -1822,11 +1534,11 @@
       </c>
       <c r="C13" s="15">
         <f t="shared" si="14"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="16">
         <f t="shared" si="14"/>
-        <v>33900</v>
+        <v>36296</v>
       </c>
       <c r="E13" s="16">
         <f t="shared" si="15"/>
@@ -1838,11 +1550,11 @@
       </c>
       <c r="G13" s="15">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H13" s="16">
         <f t="shared" si="14"/>
-        <v>14399</v>
+        <v>31600</v>
       </c>
       <c r="I13" s="16">
         <f t="shared" si="17"/>
@@ -1870,11 +1582,11 @@
       </c>
       <c r="O13" s="15">
         <f t="shared" si="14"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P13" s="16">
         <f t="shared" si="14"/>
-        <v>45260</v>
+        <v>46659</v>
       </c>
       <c r="Q13" s="16">
         <f t="shared" si="21"/>
@@ -1886,11 +1598,11 @@
       </c>
       <c r="S13" s="15">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T13" s="16">
         <f t="shared" si="23"/>
-        <v>7991</v>
+        <v>9588</v>
       </c>
       <c r="U13" s="16">
         <f t="shared" si="24"/>
@@ -1902,11 +1614,11 @@
       </c>
       <c r="W13" s="15">
         <f t="shared" si="23"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="X13" s="16">
         <f t="shared" si="23"/>
-        <v>38673</v>
+        <v>45844</v>
       </c>
       <c r="Y13" s="16">
         <f t="shared" si="26"/>
@@ -1922,7 +1634,7 @@
       </c>
       <c r="AB13" s="16">
         <f t="shared" si="23"/>
-        <v>55791</v>
+        <v>56922</v>
       </c>
       <c r="AC13" s="16">
         <f t="shared" si="28"/>
@@ -1950,11 +1662,11 @@
       </c>
       <c r="C14" s="15">
         <f t="shared" si="14"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" s="16">
         <f t="shared" si="14"/>
-        <v>33900</v>
+        <v>36296</v>
       </c>
       <c r="E14" s="16">
         <f t="shared" si="15"/>
@@ -1966,11 +1678,11 @@
       </c>
       <c r="G14" s="15">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H14" s="16">
         <f t="shared" si="14"/>
-        <v>14399</v>
+        <v>31600</v>
       </c>
       <c r="I14" s="16">
         <f t="shared" si="17"/>
@@ -1998,11 +1710,11 @@
       </c>
       <c r="O14" s="15">
         <f t="shared" si="14"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P14" s="16">
         <f t="shared" si="14"/>
-        <v>45260</v>
+        <v>46659</v>
       </c>
       <c r="Q14" s="16">
         <f t="shared" si="21"/>
@@ -2014,11 +1726,11 @@
       </c>
       <c r="S14" s="15">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T14" s="16">
         <f t="shared" si="23"/>
-        <v>7991</v>
+        <v>9588</v>
       </c>
       <c r="U14" s="16">
         <f t="shared" si="24"/>
@@ -2030,11 +1742,11 @@
       </c>
       <c r="W14" s="15">
         <f t="shared" si="23"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="X14" s="16">
         <f t="shared" si="23"/>
-        <v>38673</v>
+        <v>45844</v>
       </c>
       <c r="Y14" s="16">
         <f t="shared" si="26"/>
@@ -2050,7 +1762,7 @@
       </c>
       <c r="AB14" s="16">
         <f t="shared" si="23"/>
-        <v>55791</v>
+        <v>56922</v>
       </c>
       <c r="AC14" s="16">
         <f t="shared" si="28"/>
@@ -2078,11 +1790,11 @@
       </c>
       <c r="C15" s="15">
         <f t="shared" si="14"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="16">
         <f t="shared" si="14"/>
-        <v>33900</v>
+        <v>36296</v>
       </c>
       <c r="E15" s="16">
         <f t="shared" si="15"/>
@@ -2094,11 +1806,11 @@
       </c>
       <c r="G15" s="15">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H15" s="16">
         <f t="shared" si="14"/>
-        <v>14399</v>
+        <v>31600</v>
       </c>
       <c r="I15" s="16">
         <f t="shared" si="17"/>
@@ -2126,11 +1838,11 @@
       </c>
       <c r="O15" s="15">
         <f t="shared" si="14"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P15" s="16">
         <f t="shared" si="14"/>
-        <v>45260</v>
+        <v>46659</v>
       </c>
       <c r="Q15" s="16">
         <f t="shared" si="21"/>
@@ -2142,11 +1854,11 @@
       </c>
       <c r="S15" s="15">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T15" s="16">
         <f t="shared" si="23"/>
-        <v>7991</v>
+        <v>9588</v>
       </c>
       <c r="U15" s="16">
         <f t="shared" si="24"/>
@@ -2158,11 +1870,11 @@
       </c>
       <c r="W15" s="15">
         <f t="shared" si="23"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="X15" s="16">
         <f t="shared" si="23"/>
-        <v>38673</v>
+        <v>45844</v>
       </c>
       <c r="Y15" s="16">
         <f t="shared" si="26"/>
@@ -2178,7 +1890,7 @@
       </c>
       <c r="AB15" s="16">
         <f t="shared" si="23"/>
-        <v>55791</v>
+        <v>56922</v>
       </c>
       <c r="AC15" s="16">
         <f t="shared" si="28"/>
@@ -2206,11 +1918,11 @@
       </c>
       <c r="C16" s="15">
         <f t="shared" si="14"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="16">
         <f t="shared" si="14"/>
-        <v>33900</v>
+        <v>36296</v>
       </c>
       <c r="E16" s="16">
         <f t="shared" si="15"/>
@@ -2222,11 +1934,11 @@
       </c>
       <c r="G16" s="15">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H16" s="16">
         <f t="shared" si="14"/>
-        <v>14399</v>
+        <v>31600</v>
       </c>
       <c r="I16" s="16">
         <f t="shared" si="17"/>
@@ -2254,11 +1966,11 @@
       </c>
       <c r="O16" s="15">
         <f t="shared" si="14"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P16" s="16">
         <f t="shared" si="14"/>
-        <v>45260</v>
+        <v>46659</v>
       </c>
       <c r="Q16" s="16">
         <f t="shared" si="21"/>
@@ -2270,11 +1982,11 @@
       </c>
       <c r="S16" s="15">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T16" s="16">
         <f t="shared" si="23"/>
-        <v>7991</v>
+        <v>9588</v>
       </c>
       <c r="U16" s="16">
         <f t="shared" si="24"/>
@@ -2286,11 +1998,11 @@
       </c>
       <c r="W16" s="15">
         <f t="shared" si="23"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="X16" s="16">
         <f t="shared" si="23"/>
-        <v>38673</v>
+        <v>45844</v>
       </c>
       <c r="Y16" s="16">
         <f t="shared" si="26"/>
@@ -2306,7 +2018,7 @@
       </c>
       <c r="AB16" s="16">
         <f t="shared" si="23"/>
-        <v>55791</v>
+        <v>56922</v>
       </c>
       <c r="AC16" s="16">
         <f t="shared" si="28"/>
@@ -2334,11 +2046,11 @@
       </c>
       <c r="C17" s="15">
         <f t="shared" si="14"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="16">
         <f t="shared" si="14"/>
-        <v>33900</v>
+        <v>36296</v>
       </c>
       <c r="E17" s="16">
         <f t="shared" si="15"/>
@@ -2350,11 +2062,11 @@
       </c>
       <c r="G17" s="15">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H17" s="16">
         <f t="shared" si="14"/>
-        <v>14399</v>
+        <v>31600</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" si="17"/>
@@ -2382,11 +2094,11 @@
       </c>
       <c r="O17" s="15">
         <f t="shared" si="14"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P17" s="16">
         <f t="shared" si="14"/>
-        <v>45260</v>
+        <v>46659</v>
       </c>
       <c r="Q17" s="16">
         <f t="shared" si="21"/>
@@ -2398,11 +2110,11 @@
       </c>
       <c r="S17" s="15">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T17" s="16">
         <f t="shared" si="23"/>
-        <v>7991</v>
+        <v>9588</v>
       </c>
       <c r="U17" s="16">
         <f t="shared" si="24"/>
@@ -2414,11 +2126,11 @@
       </c>
       <c r="W17" s="15">
         <f t="shared" si="23"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="X17" s="16">
         <f t="shared" si="23"/>
-        <v>38673</v>
+        <v>45844</v>
       </c>
       <c r="Y17" s="16">
         <f t="shared" si="26"/>
@@ -2434,7 +2146,7 @@
       </c>
       <c r="AB17" s="16">
         <f t="shared" si="23"/>
-        <v>55791</v>
+        <v>56922</v>
       </c>
       <c r="AC17" s="16">
         <f t="shared" si="28"/>
@@ -2462,11 +2174,11 @@
       </c>
       <c r="C18" s="15">
         <f t="shared" si="14"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="16">
         <f t="shared" si="14"/>
-        <v>33900</v>
+        <v>36296</v>
       </c>
       <c r="E18" s="16">
         <f t="shared" si="15"/>
@@ -2478,11 +2190,11 @@
       </c>
       <c r="G18" s="15">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H18" s="16">
         <f t="shared" si="14"/>
-        <v>14399</v>
+        <v>31600</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" si="17"/>
@@ -2510,11 +2222,11 @@
       </c>
       <c r="O18" s="15">
         <f t="shared" si="14"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P18" s="16">
         <f t="shared" si="14"/>
-        <v>45260</v>
+        <v>46659</v>
       </c>
       <c r="Q18" s="16">
         <f t="shared" si="21"/>
@@ -2526,11 +2238,11 @@
       </c>
       <c r="S18" s="15">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T18" s="16">
         <f t="shared" si="23"/>
-        <v>7991</v>
+        <v>9588</v>
       </c>
       <c r="U18" s="16">
         <f t="shared" si="24"/>
@@ -2542,11 +2254,11 @@
       </c>
       <c r="W18" s="15">
         <f t="shared" si="23"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="X18" s="16">
         <f t="shared" si="23"/>
-        <v>38673</v>
+        <v>45844</v>
       </c>
       <c r="Y18" s="16">
         <f t="shared" si="26"/>
@@ -2562,7 +2274,7 @@
       </c>
       <c r="AB18" s="16">
         <f t="shared" si="23"/>
-        <v>55791</v>
+        <v>56922</v>
       </c>
       <c r="AC18" s="16">
         <f t="shared" si="28"/>
@@ -2590,11 +2302,11 @@
       </c>
       <c r="C19" s="15">
         <f t="shared" si="14"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" s="16">
         <f t="shared" si="14"/>
-        <v>33900</v>
+        <v>36296</v>
       </c>
       <c r="E19" s="16">
         <f t="shared" si="15"/>
@@ -2606,11 +2318,11 @@
       </c>
       <c r="G19" s="15">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H19" s="16">
         <f t="shared" si="14"/>
-        <v>14399</v>
+        <v>31600</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" si="17"/>
@@ -2638,11 +2350,11 @@
       </c>
       <c r="O19" s="15">
         <f t="shared" si="14"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P19" s="16">
         <f t="shared" si="14"/>
-        <v>45260</v>
+        <v>46659</v>
       </c>
       <c r="Q19" s="16">
         <f t="shared" si="21"/>
@@ -2654,11 +2366,11 @@
       </c>
       <c r="S19" s="15">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T19" s="16">
         <f t="shared" si="23"/>
-        <v>7991</v>
+        <v>9588</v>
       </c>
       <c r="U19" s="16">
         <f t="shared" si="24"/>
@@ -2670,11 +2382,11 @@
       </c>
       <c r="W19" s="15">
         <f t="shared" si="23"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="X19" s="16">
         <f t="shared" si="23"/>
-        <v>38673</v>
+        <v>45844</v>
       </c>
       <c r="Y19" s="16">
         <f t="shared" si="26"/>
@@ -2690,7 +2402,7 @@
       </c>
       <c r="AB19" s="16">
         <f t="shared" si="23"/>
-        <v>55791</v>
+        <v>56922</v>
       </c>
       <c r="AC19" s="16">
         <f t="shared" si="28"/>
@@ -2718,11 +2430,11 @@
       </c>
       <c r="C20" s="15">
         <f t="shared" si="14"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" s="16">
         <f t="shared" si="14"/>
-        <v>33900</v>
+        <v>36296</v>
       </c>
       <c r="E20" s="16">
         <f t="shared" si="15"/>
@@ -2734,11 +2446,11 @@
       </c>
       <c r="G20" s="15">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H20" s="16">
         <f t="shared" si="14"/>
-        <v>14399</v>
+        <v>31600</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="17"/>
@@ -2766,11 +2478,11 @@
       </c>
       <c r="O20" s="15">
         <f t="shared" si="14"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P20" s="16">
         <f t="shared" si="14"/>
-        <v>45260</v>
+        <v>46659</v>
       </c>
       <c r="Q20" s="16">
         <f t="shared" si="21"/>
@@ -2782,11 +2494,11 @@
       </c>
       <c r="S20" s="15">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T20" s="16">
         <f t="shared" si="23"/>
-        <v>7991</v>
+        <v>9588</v>
       </c>
       <c r="U20" s="16">
         <f t="shared" si="24"/>
@@ -2798,11 +2510,11 @@
       </c>
       <c r="W20" s="15">
         <f t="shared" si="23"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="X20" s="16">
         <f t="shared" si="23"/>
-        <v>38673</v>
+        <v>45844</v>
       </c>
       <c r="Y20" s="16">
         <f t="shared" si="26"/>
@@ -2818,7 +2530,7 @@
       </c>
       <c r="AB20" s="16">
         <f t="shared" si="23"/>
-        <v>55791</v>
+        <v>56922</v>
       </c>
       <c r="AC20" s="16">
         <f t="shared" si="28"/>
@@ -2846,11 +2558,11 @@
       </c>
       <c r="C21" s="15">
         <f t="shared" si="14"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D21" s="16">
         <f t="shared" si="14"/>
-        <v>33900</v>
+        <v>36296</v>
       </c>
       <c r="E21" s="16">
         <f t="shared" si="15"/>
@@ -2862,11 +2574,11 @@
       </c>
       <c r="G21" s="15">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H21" s="16">
         <f t="shared" si="14"/>
-        <v>14399</v>
+        <v>31600</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" si="17"/>
@@ -2894,11 +2606,11 @@
       </c>
       <c r="O21" s="15">
         <f t="shared" si="14"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P21" s="16">
         <f t="shared" si="14"/>
-        <v>45260</v>
+        <v>46659</v>
       </c>
       <c r="Q21" s="16">
         <f t="shared" si="21"/>
@@ -2910,11 +2622,11 @@
       </c>
       <c r="S21" s="15">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T21" s="16">
         <f t="shared" si="23"/>
-        <v>7991</v>
+        <v>9588</v>
       </c>
       <c r="U21" s="16">
         <f t="shared" si="24"/>
@@ -2926,11 +2638,11 @@
       </c>
       <c r="W21" s="15">
         <f t="shared" si="23"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="X21" s="16">
         <f t="shared" si="23"/>
-        <v>38673</v>
+        <v>45844</v>
       </c>
       <c r="Y21" s="16">
         <f t="shared" si="26"/>
@@ -2946,7 +2658,7 @@
       </c>
       <c r="AB21" s="16">
         <f t="shared" si="23"/>
-        <v>55791</v>
+        <v>56922</v>
       </c>
       <c r="AC21" s="16">
         <f t="shared" si="28"/>
@@ -2974,11 +2686,11 @@
       </c>
       <c r="C22" s="15">
         <f t="shared" si="14"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22" s="16">
         <f t="shared" si="14"/>
-        <v>33900</v>
+        <v>36296</v>
       </c>
       <c r="E22" s="16">
         <f t="shared" si="15"/>
@@ -2990,11 +2702,11 @@
       </c>
       <c r="G22" s="15">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H22" s="16">
         <f t="shared" si="14"/>
-        <v>14399</v>
+        <v>31600</v>
       </c>
       <c r="I22" s="16">
         <f t="shared" si="17"/>
@@ -3022,11 +2734,11 @@
       </c>
       <c r="O22" s="15">
         <f t="shared" si="14"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P22" s="16">
         <f t="shared" si="14"/>
-        <v>45260</v>
+        <v>46659</v>
       </c>
       <c r="Q22" s="16">
         <f t="shared" si="21"/>
@@ -3038,11 +2750,11 @@
       </c>
       <c r="S22" s="15">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T22" s="16">
         <f t="shared" si="23"/>
-        <v>7991</v>
+        <v>9588</v>
       </c>
       <c r="U22" s="16">
         <f t="shared" si="24"/>
@@ -3054,11 +2766,11 @@
       </c>
       <c r="W22" s="15">
         <f t="shared" si="23"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="X22" s="16">
         <f t="shared" si="23"/>
-        <v>38673</v>
+        <v>45844</v>
       </c>
       <c r="Y22" s="16">
         <f t="shared" si="26"/>
@@ -3074,7 +2786,7 @@
       </c>
       <c r="AB22" s="16">
         <f t="shared" si="23"/>
-        <v>55791</v>
+        <v>56922</v>
       </c>
       <c r="AC22" s="16">
         <f t="shared" si="28"/>
@@ -3102,11 +2814,11 @@
       </c>
       <c r="C23" s="15">
         <f t="shared" si="14"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D23" s="16">
         <f t="shared" si="14"/>
-        <v>33900</v>
+        <v>36296</v>
       </c>
       <c r="E23" s="16">
         <f t="shared" si="15"/>
@@ -3118,11 +2830,11 @@
       </c>
       <c r="G23" s="15">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H23" s="16">
         <f t="shared" si="14"/>
-        <v>14399</v>
+        <v>31600</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" si="17"/>
@@ -3150,11 +2862,11 @@
       </c>
       <c r="O23" s="15">
         <f t="shared" si="14"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P23" s="16">
         <f t="shared" si="14"/>
-        <v>45260</v>
+        <v>46659</v>
       </c>
       <c r="Q23" s="16">
         <f t="shared" si="21"/>
@@ -3166,11 +2878,11 @@
       </c>
       <c r="S23" s="15">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T23" s="16">
         <f t="shared" si="23"/>
-        <v>7991</v>
+        <v>9588</v>
       </c>
       <c r="U23" s="16">
         <f t="shared" si="24"/>
@@ -3182,11 +2894,11 @@
       </c>
       <c r="W23" s="15">
         <f t="shared" si="23"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="X23" s="16">
         <f t="shared" si="23"/>
-        <v>38673</v>
+        <v>45844</v>
       </c>
       <c r="Y23" s="16">
         <f t="shared" si="26"/>
@@ -3202,7 +2914,7 @@
       </c>
       <c r="AB23" s="16">
         <f t="shared" si="23"/>
-        <v>55791</v>
+        <v>56922</v>
       </c>
       <c r="AC23" s="16">
         <f t="shared" si="28"/>
@@ -3230,11 +2942,11 @@
       </c>
       <c r="C24" s="15">
         <f t="shared" si="14"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D24" s="16">
         <f t="shared" si="14"/>
-        <v>33900</v>
+        <v>36296</v>
       </c>
       <c r="E24" s="16">
         <f t="shared" si="15"/>
@@ -3246,11 +2958,11 @@
       </c>
       <c r="G24" s="15">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H24" s="16">
         <f t="shared" si="14"/>
-        <v>14399</v>
+        <v>31600</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="17"/>
@@ -3278,11 +2990,11 @@
       </c>
       <c r="O24" s="15">
         <f t="shared" si="14"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P24" s="16">
         <f t="shared" si="14"/>
-        <v>45260</v>
+        <v>46659</v>
       </c>
       <c r="Q24" s="16">
         <f t="shared" si="21"/>
@@ -3294,11 +3006,11 @@
       </c>
       <c r="S24" s="15">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T24" s="16">
         <f t="shared" si="23"/>
-        <v>7991</v>
+        <v>9588</v>
       </c>
       <c r="U24" s="16">
         <f t="shared" si="24"/>
@@ -3310,11 +3022,11 @@
       </c>
       <c r="W24" s="15">
         <f t="shared" si="23"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="X24" s="16">
         <f t="shared" si="23"/>
-        <v>38673</v>
+        <v>45844</v>
       </c>
       <c r="Y24" s="16">
         <f t="shared" si="26"/>
@@ -3330,7 +3042,7 @@
       </c>
       <c r="AB24" s="16">
         <f t="shared" si="23"/>
-        <v>55791</v>
+        <v>56922</v>
       </c>
       <c r="AC24" s="16">
         <f t="shared" si="28"/>
@@ -3358,11 +3070,11 @@
       </c>
       <c r="C25" s="15">
         <f t="shared" si="14"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D25" s="16">
         <f t="shared" si="14"/>
-        <v>33900</v>
+        <v>36296</v>
       </c>
       <c r="E25" s="16">
         <f t="shared" si="15"/>
@@ -3374,11 +3086,11 @@
       </c>
       <c r="G25" s="15">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H25" s="16">
         <f t="shared" si="14"/>
-        <v>14399</v>
+        <v>31600</v>
       </c>
       <c r="I25" s="16">
         <f t="shared" si="17"/>
@@ -3406,11 +3118,11 @@
       </c>
       <c r="O25" s="15">
         <f t="shared" si="14"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P25" s="16">
         <f t="shared" si="14"/>
-        <v>45260</v>
+        <v>46659</v>
       </c>
       <c r="Q25" s="16">
         <f t="shared" si="21"/>
@@ -3422,11 +3134,11 @@
       </c>
       <c r="S25" s="15">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T25" s="16">
         <f t="shared" si="23"/>
-        <v>7991</v>
+        <v>9588</v>
       </c>
       <c r="U25" s="16">
         <f t="shared" si="24"/>
@@ -3438,11 +3150,11 @@
       </c>
       <c r="W25" s="15">
         <f t="shared" si="23"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="X25" s="16">
         <f t="shared" si="23"/>
-        <v>38673</v>
+        <v>45844</v>
       </c>
       <c r="Y25" s="16">
         <f t="shared" si="26"/>
@@ -3458,7 +3170,7 @@
       </c>
       <c r="AB25" s="16">
         <f t="shared" si="23"/>
-        <v>55791</v>
+        <v>56922</v>
       </c>
       <c r="AC25" s="16">
         <f t="shared" si="28"/>
@@ -3486,11 +3198,11 @@
       </c>
       <c r="C26" s="15">
         <f t="shared" si="14"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D26" s="16">
         <f t="shared" si="14"/>
-        <v>33900</v>
+        <v>36296</v>
       </c>
       <c r="E26" s="16">
         <f t="shared" si="15"/>
@@ -3502,11 +3214,11 @@
       </c>
       <c r="G26" s="15">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H26" s="16">
         <f t="shared" si="14"/>
-        <v>14399</v>
+        <v>31600</v>
       </c>
       <c r="I26" s="16">
         <f t="shared" si="17"/>
@@ -3534,11 +3246,11 @@
       </c>
       <c r="O26" s="15">
         <f t="shared" si="14"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P26" s="16">
         <f t="shared" si="14"/>
-        <v>45260</v>
+        <v>46659</v>
       </c>
       <c r="Q26" s="16">
         <f t="shared" si="21"/>
@@ -3550,11 +3262,11 @@
       </c>
       <c r="S26" s="15">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T26" s="16">
         <f t="shared" si="23"/>
-        <v>7991</v>
+        <v>9588</v>
       </c>
       <c r="U26" s="16">
         <f t="shared" si="24"/>
@@ -3566,11 +3278,11 @@
       </c>
       <c r="W26" s="15">
         <f t="shared" si="23"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="X26" s="16">
         <f t="shared" si="23"/>
-        <v>38673</v>
+        <v>45844</v>
       </c>
       <c r="Y26" s="16">
         <f t="shared" si="26"/>
@@ -3586,7 +3298,7 @@
       </c>
       <c r="AB26" s="16">
         <f t="shared" si="23"/>
-        <v>55791</v>
+        <v>56922</v>
       </c>
       <c r="AC26" s="16">
         <f t="shared" si="28"/>
@@ -3614,11 +3326,11 @@
       </c>
       <c r="C27" s="15">
         <f t="shared" ref="C27:P40" si="31">C28</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D27" s="16">
         <f t="shared" si="31"/>
-        <v>33900</v>
+        <v>36296</v>
       </c>
       <c r="E27" s="16">
         <f t="shared" si="15"/>
@@ -3630,11 +3342,11 @@
       </c>
       <c r="G27" s="15">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H27" s="16">
         <f t="shared" si="31"/>
-        <v>14399</v>
+        <v>31600</v>
       </c>
       <c r="I27" s="16">
         <f t="shared" si="17"/>
@@ -3662,11 +3374,11 @@
       </c>
       <c r="O27" s="15">
         <f t="shared" si="31"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P27" s="16">
         <f t="shared" si="31"/>
-        <v>45260</v>
+        <v>46659</v>
       </c>
       <c r="Q27" s="16">
         <f t="shared" si="21"/>
@@ -3678,11 +3390,11 @@
       </c>
       <c r="S27" s="15">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T27" s="16">
         <f t="shared" si="23"/>
-        <v>7991</v>
+        <v>9588</v>
       </c>
       <c r="U27" s="16">
         <f t="shared" si="24"/>
@@ -3694,11 +3406,11 @@
       </c>
       <c r="W27" s="15">
         <f t="shared" si="23"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="X27" s="16">
         <f t="shared" si="23"/>
-        <v>38673</v>
+        <v>45844</v>
       </c>
       <c r="Y27" s="16">
         <f t="shared" si="26"/>
@@ -3714,7 +3426,7 @@
       </c>
       <c r="AB27" s="16">
         <f t="shared" si="23"/>
-        <v>55791</v>
+        <v>56922</v>
       </c>
       <c r="AC27" s="16">
         <f t="shared" si="28"/>
@@ -3742,11 +3454,11 @@
       </c>
       <c r="C28" s="15">
         <f t="shared" si="31"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D28" s="16">
         <f t="shared" si="31"/>
-        <v>33900</v>
+        <v>36296</v>
       </c>
       <c r="E28" s="16">
         <f t="shared" si="15"/>
@@ -3758,11 +3470,11 @@
       </c>
       <c r="G28" s="15">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H28" s="16">
         <f t="shared" si="31"/>
-        <v>14399</v>
+        <v>31600</v>
       </c>
       <c r="I28" s="16">
         <f t="shared" si="17"/>
@@ -3790,11 +3502,11 @@
       </c>
       <c r="O28" s="15">
         <f t="shared" si="31"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P28" s="16">
         <f t="shared" si="31"/>
-        <v>45260</v>
+        <v>46659</v>
       </c>
       <c r="Q28" s="16">
         <f t="shared" si="21"/>
@@ -3806,11 +3518,11 @@
       </c>
       <c r="S28" s="15">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T28" s="16">
         <f t="shared" si="23"/>
-        <v>7991</v>
+        <v>9588</v>
       </c>
       <c r="U28" s="16">
         <f t="shared" si="24"/>
@@ -3822,11 +3534,11 @@
       </c>
       <c r="W28" s="15">
         <f t="shared" si="23"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="X28" s="16">
         <f t="shared" si="23"/>
-        <v>38673</v>
+        <v>45844</v>
       </c>
       <c r="Y28" s="16">
         <f t="shared" si="26"/>
@@ -3842,7 +3554,7 @@
       </c>
       <c r="AB28" s="16">
         <f t="shared" si="23"/>
-        <v>55791</v>
+        <v>56922</v>
       </c>
       <c r="AC28" s="16">
         <f t="shared" si="28"/>
@@ -3870,11 +3582,11 @@
       </c>
       <c r="C29" s="15">
         <f t="shared" si="31"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D29" s="16">
         <f t="shared" si="31"/>
-        <v>33900</v>
+        <v>36296</v>
       </c>
       <c r="E29" s="16">
         <f t="shared" si="15"/>
@@ -3886,11 +3598,11 @@
       </c>
       <c r="G29" s="15">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H29" s="16">
         <f t="shared" si="31"/>
-        <v>14399</v>
+        <v>31600</v>
       </c>
       <c r="I29" s="16">
         <f t="shared" si="17"/>
@@ -3918,11 +3630,11 @@
       </c>
       <c r="O29" s="15">
         <f t="shared" si="31"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P29" s="16">
         <f t="shared" si="31"/>
-        <v>45260</v>
+        <v>46659</v>
       </c>
       <c r="Q29" s="16">
         <f t="shared" si="21"/>
@@ -3934,11 +3646,11 @@
       </c>
       <c r="S29" s="15">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T29" s="16">
         <f t="shared" si="23"/>
-        <v>7991</v>
+        <v>9588</v>
       </c>
       <c r="U29" s="16">
         <f t="shared" si="24"/>
@@ -3950,11 +3662,11 @@
       </c>
       <c r="W29" s="15">
         <f t="shared" si="23"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="X29" s="16">
         <f t="shared" si="23"/>
-        <v>38673</v>
+        <v>45844</v>
       </c>
       <c r="Y29" s="16">
         <f t="shared" si="26"/>
@@ -3970,7 +3682,7 @@
       </c>
       <c r="AB29" s="16">
         <f t="shared" si="23"/>
-        <v>55791</v>
+        <v>56922</v>
       </c>
       <c r="AC29" s="16">
         <f t="shared" si="28"/>
@@ -3998,11 +3710,11 @@
       </c>
       <c r="C30" s="15">
         <f t="shared" si="31"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D30" s="16">
         <f t="shared" si="31"/>
-        <v>33900</v>
+        <v>36296</v>
       </c>
       <c r="E30" s="16">
         <f t="shared" si="15"/>
@@ -4014,11 +3726,11 @@
       </c>
       <c r="G30" s="15">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H30" s="16">
         <f t="shared" si="31"/>
-        <v>14399</v>
+        <v>31600</v>
       </c>
       <c r="I30" s="16">
         <f t="shared" si="17"/>
@@ -4046,11 +3758,11 @@
       </c>
       <c r="O30" s="15">
         <f t="shared" si="31"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P30" s="16">
         <f t="shared" si="31"/>
-        <v>45260</v>
+        <v>46659</v>
       </c>
       <c r="Q30" s="16">
         <f t="shared" si="21"/>
@@ -4062,11 +3774,11 @@
       </c>
       <c r="S30" s="15">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T30" s="16">
         <f t="shared" si="23"/>
-        <v>7991</v>
+        <v>9588</v>
       </c>
       <c r="U30" s="16">
         <f t="shared" si="24"/>
@@ -4078,11 +3790,11 @@
       </c>
       <c r="W30" s="15">
         <f t="shared" si="23"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="X30" s="16">
         <f t="shared" si="23"/>
-        <v>38673</v>
+        <v>45844</v>
       </c>
       <c r="Y30" s="16">
         <f t="shared" si="26"/>
@@ -4098,7 +3810,7 @@
       </c>
       <c r="AB30" s="16">
         <f t="shared" si="23"/>
-        <v>55791</v>
+        <v>56922</v>
       </c>
       <c r="AC30" s="16">
         <f t="shared" si="28"/>
@@ -4126,11 +3838,11 @@
       </c>
       <c r="C31" s="15">
         <f t="shared" si="31"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D31" s="16">
         <f t="shared" si="31"/>
-        <v>33900</v>
+        <v>36296</v>
       </c>
       <c r="E31" s="16">
         <f t="shared" si="15"/>
@@ -4142,11 +3854,11 @@
       </c>
       <c r="G31" s="15">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H31" s="16">
         <f t="shared" si="31"/>
-        <v>14399</v>
+        <v>31600</v>
       </c>
       <c r="I31" s="16">
         <f t="shared" si="17"/>
@@ -4174,11 +3886,11 @@
       </c>
       <c r="O31" s="15">
         <f t="shared" si="31"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P31" s="16">
         <f t="shared" si="31"/>
-        <v>45260</v>
+        <v>46659</v>
       </c>
       <c r="Q31" s="16">
         <f t="shared" si="21"/>
@@ -4190,11 +3902,11 @@
       </c>
       <c r="S31" s="15">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T31" s="16">
         <f t="shared" si="23"/>
-        <v>7991</v>
+        <v>9588</v>
       </c>
       <c r="U31" s="16">
         <f t="shared" si="24"/>
@@ -4206,11 +3918,11 @@
       </c>
       <c r="W31" s="15">
         <f t="shared" si="23"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="X31" s="16">
         <f t="shared" si="23"/>
-        <v>38673</v>
+        <v>45844</v>
       </c>
       <c r="Y31" s="16">
         <f t="shared" si="26"/>
@@ -4226,7 +3938,7 @@
       </c>
       <c r="AB31" s="16">
         <f t="shared" si="23"/>
-        <v>55791</v>
+        <v>56922</v>
       </c>
       <c r="AC31" s="16">
         <f t="shared" si="28"/>
@@ -4254,11 +3966,11 @@
       </c>
       <c r="C32" s="15">
         <f t="shared" si="31"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D32" s="16">
         <f t="shared" si="31"/>
-        <v>33900</v>
+        <v>36296</v>
       </c>
       <c r="E32" s="16">
         <f t="shared" si="15"/>
@@ -4270,11 +3982,11 @@
       </c>
       <c r="G32" s="15">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H32" s="16">
         <f t="shared" si="31"/>
-        <v>14399</v>
+        <v>31600</v>
       </c>
       <c r="I32" s="16">
         <f t="shared" si="17"/>
@@ -4302,11 +4014,11 @@
       </c>
       <c r="O32" s="15">
         <f t="shared" si="31"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P32" s="16">
         <f t="shared" si="31"/>
-        <v>45260</v>
+        <v>46659</v>
       </c>
       <c r="Q32" s="16">
         <f t="shared" si="21"/>
@@ -4318,11 +4030,11 @@
       </c>
       <c r="S32" s="15">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T32" s="16">
         <f t="shared" si="23"/>
-        <v>7991</v>
+        <v>9588</v>
       </c>
       <c r="U32" s="16">
         <f t="shared" si="24"/>
@@ -4334,11 +4046,11 @@
       </c>
       <c r="W32" s="15">
         <f t="shared" ref="W32:AB37" si="33">W33</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="X32" s="16">
         <f t="shared" si="33"/>
-        <v>38673</v>
+        <v>45844</v>
       </c>
       <c r="Y32" s="16">
         <f t="shared" si="26"/>
@@ -4354,7 +4066,7 @@
       </c>
       <c r="AB32" s="16">
         <f t="shared" si="33"/>
-        <v>55791</v>
+        <v>56922</v>
       </c>
       <c r="AC32" s="16">
         <f t="shared" si="28"/>
@@ -4382,11 +4094,11 @@
       </c>
       <c r="C33" s="15">
         <f t="shared" si="31"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D33" s="16">
         <f t="shared" si="31"/>
-        <v>33900</v>
+        <v>36296</v>
       </c>
       <c r="E33" s="16">
         <f t="shared" si="15"/>
@@ -4398,11 +4110,11 @@
       </c>
       <c r="G33" s="15">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H33" s="16">
         <f t="shared" si="31"/>
-        <v>14399</v>
+        <v>31600</v>
       </c>
       <c r="I33" s="16">
         <f t="shared" si="17"/>
@@ -4430,11 +4142,11 @@
       </c>
       <c r="O33" s="15">
         <f t="shared" si="31"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P33" s="16">
         <f t="shared" si="31"/>
-        <v>45260</v>
+        <v>46659</v>
       </c>
       <c r="Q33" s="16">
         <f t="shared" si="21"/>
@@ -4446,11 +4158,11 @@
       </c>
       <c r="S33" s="15">
         <f t="shared" ref="S33:T39" si="34">S34</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T33" s="16">
         <f t="shared" si="34"/>
-        <v>7991</v>
+        <v>9588</v>
       </c>
       <c r="U33" s="16">
         <f t="shared" si="24"/>
@@ -4462,11 +4174,11 @@
       </c>
       <c r="W33" s="15">
         <f t="shared" si="33"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="X33" s="16">
         <f t="shared" si="33"/>
-        <v>38673</v>
+        <v>45844</v>
       </c>
       <c r="Y33" s="16">
         <f t="shared" si="26"/>
@@ -4482,7 +4194,7 @@
       </c>
       <c r="AB33" s="16">
         <f t="shared" si="33"/>
-        <v>55791</v>
+        <v>56922</v>
       </c>
       <c r="AC33" s="16">
         <f t="shared" si="28"/>
@@ -4510,11 +4222,11 @@
       </c>
       <c r="C34" s="15">
         <f t="shared" si="31"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D34" s="16">
         <f t="shared" si="31"/>
-        <v>33900</v>
+        <v>36296</v>
       </c>
       <c r="E34" s="16">
         <f t="shared" si="15"/>
@@ -4526,11 +4238,11 @@
       </c>
       <c r="G34" s="15">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H34" s="16">
         <f t="shared" si="31"/>
-        <v>14399</v>
+        <v>31600</v>
       </c>
       <c r="I34" s="16">
         <f t="shared" si="17"/>
@@ -4558,11 +4270,11 @@
       </c>
       <c r="O34" s="15">
         <f t="shared" si="31"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P34" s="16">
         <f t="shared" si="31"/>
-        <v>45260</v>
+        <v>46659</v>
       </c>
       <c r="Q34" s="16">
         <f t="shared" si="21"/>
@@ -4574,11 +4286,11 @@
       </c>
       <c r="S34" s="15">
         <f t="shared" si="34"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T34" s="16">
         <f t="shared" si="34"/>
-        <v>7991</v>
+        <v>9588</v>
       </c>
       <c r="U34" s="16">
         <f t="shared" si="24"/>
@@ -4590,11 +4302,11 @@
       </c>
       <c r="W34" s="15">
         <f t="shared" si="33"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="X34" s="16">
         <f t="shared" si="33"/>
-        <v>38673</v>
+        <v>45844</v>
       </c>
       <c r="Y34" s="16">
         <f t="shared" si="26"/>
@@ -4610,7 +4322,7 @@
       </c>
       <c r="AB34" s="16">
         <f t="shared" si="33"/>
-        <v>55791</v>
+        <v>56922</v>
       </c>
       <c r="AC34" s="16">
         <f t="shared" si="28"/>
@@ -4638,11 +4350,11 @@
       </c>
       <c r="C35" s="15">
         <f t="shared" si="31"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D35" s="16">
         <f t="shared" si="31"/>
-        <v>33900</v>
+        <v>36296</v>
       </c>
       <c r="E35" s="16">
         <f t="shared" si="15"/>
@@ -4654,11 +4366,11 @@
       </c>
       <c r="G35" s="15">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H35" s="16">
         <f t="shared" si="31"/>
-        <v>14399</v>
+        <v>31600</v>
       </c>
       <c r="I35" s="16">
         <f t="shared" si="17"/>
@@ -4686,11 +4398,11 @@
       </c>
       <c r="O35" s="15">
         <f t="shared" si="31"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P35" s="16">
         <f t="shared" si="31"/>
-        <v>45260</v>
+        <v>46659</v>
       </c>
       <c r="Q35" s="16">
         <f t="shared" si="21"/>
@@ -4702,11 +4414,11 @@
       </c>
       <c r="S35" s="15">
         <f t="shared" si="34"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T35" s="16">
         <f t="shared" si="34"/>
-        <v>7991</v>
+        <v>9588</v>
       </c>
       <c r="U35" s="16">
         <f t="shared" si="24"/>
@@ -4718,11 +4430,11 @@
       </c>
       <c r="W35" s="15">
         <f t="shared" si="33"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="X35" s="16">
         <f t="shared" si="33"/>
-        <v>38673</v>
+        <v>45844</v>
       </c>
       <c r="Y35" s="16">
         <f t="shared" si="26"/>
@@ -4738,7 +4450,7 @@
       </c>
       <c r="AB35" s="16">
         <f t="shared" si="33"/>
-        <v>55791</v>
+        <v>56922</v>
       </c>
       <c r="AC35" s="16">
         <f t="shared" si="28"/>
@@ -4757,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:36" hidden="1">
+    <row r="36" spans="1:36">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -4765,36 +4477,32 @@
         <v>41998</v>
       </c>
       <c r="C36" s="15">
-        <f t="shared" si="31"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D36" s="16">
-        <f t="shared" si="31"/>
-        <v>33900</v>
+        <v>36296</v>
       </c>
       <c r="E36" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="17">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2396</v>
       </c>
       <c r="G36" s="15">
-        <f t="shared" si="31"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H36" s="16">
-        <f t="shared" si="31"/>
-        <v>14399</v>
+        <v>31600</v>
       </c>
       <c r="I36" s="16">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J36" s="17">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>17201</v>
       </c>
       <c r="K36" s="15">
         <f t="shared" si="31"/>
@@ -4813,60 +4521,53 @@
         <v>0</v>
       </c>
       <c r="O36" s="15">
-        <f t="shared" si="31"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P36" s="16">
-        <f t="shared" si="31"/>
-        <v>45260</v>
+        <v>46659</v>
       </c>
       <c r="Q36" s="16">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R36" s="17">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1399</v>
       </c>
       <c r="S36" s="15">
-        <f t="shared" si="34"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T36" s="16">
-        <f t="shared" si="34"/>
-        <v>7991</v>
+        <v>9588</v>
       </c>
       <c r="U36" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V36" s="17">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1597</v>
       </c>
       <c r="W36" s="15">
-        <f t="shared" si="33"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="X36" s="16">
-        <f t="shared" si="33"/>
-        <v>38673</v>
+        <v>45844</v>
       </c>
       <c r="Y36" s="16">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z36" s="17">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>7171</v>
       </c>
       <c r="AA36" s="15">
         <f t="shared" si="33"/>
         <v>42</v>
       </c>
       <c r="AB36" s="16">
-        <f t="shared" si="33"/>
-        <v>55791</v>
+        <v>56922</v>
       </c>
       <c r="AC36" s="16">
         <f t="shared" si="28"/>
@@ -4874,15 +4575,15 @@
       </c>
       <c r="AD36" s="17">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="AE36" s="4">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AF36" s="4">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>30895</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -5004,19 +4705,19 @@
         <v>29533</v>
       </c>
       <c r="AG37">
-        <v>16525</v>
+        <v>16536</v>
       </c>
       <c r="AH37">
         <f t="shared" ref="AH37:AH38" si="35">AG37-AG38</f>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AI37">
         <f t="shared" ref="AI37:AJ40" si="36">AE37/$AH37</f>
-        <v>2.2727272727272729</v>
+        <v>1.1363636363636365</v>
       </c>
       <c r="AJ37">
         <f t="shared" si="36"/>
-        <v>2684.818181818182</v>
+        <v>1342.409090909091</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -6020,30 +5721,30 @@
     <mergeCell ref="O1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="AG5:AH5 C5:AD5">
-    <cfRule type="cellIs" dxfId="29" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:P2">
-    <cfRule type="cellIs" dxfId="27" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">
       <formula>$T$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:P2">
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="lessThan">
       <formula>$T$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:AD2">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:AD2">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/mission wz.xlsx
+++ b/mission wz.xlsx
@@ -265,7 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -291,6 +291,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -665,7 +668,7 @@
   <dimension ref="A1:AK45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="AA37" sqref="AA37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -704,48 +707,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19" t="s">
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19" t="s">
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19" t="s">
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
       <c r="AE1" t="s">
         <v>19</v>
       </c>
@@ -781,7 +784,7 @@
       </c>
       <c r="H2" s="8">
         <f t="shared" ref="H2" si="1">(150000-H6)/150000</f>
-        <v>0.21066666666666667</v>
+        <v>0.22022666666666665</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -827,7 +830,7 @@
       <c r="Z2" s="8"/>
       <c r="AA2" s="8">
         <f t="shared" ref="AA2" si="10">(150-AA6)/150</f>
-        <v>0.28000000000000003</v>
+        <v>0.29333333333333333</v>
       </c>
       <c r="AB2" s="8">
         <f t="shared" ref="AB2" si="11">(150000-AB6)/150000</f>
@@ -864,7 +867,7 @@
       </c>
       <c r="H3" s="9">
         <f ca="1">IF(H6&lt;0,0,INT(H6/$AK$1))</f>
-        <v>4933</v>
+        <v>4873</v>
       </c>
       <c r="K3" s="9">
         <f ca="1">IF(K6&lt;0,0,INT(K6/$AK$1))</f>
@@ -912,7 +915,7 @@
       </c>
       <c r="AF3" s="5">
         <f ca="1">SUM(D3,H3,L3,P3,T3,X3,AB3)</f>
-        <v>32250</v>
+        <v>32190</v>
       </c>
       <c r="AI3" s="1">
         <v>41996</v>
@@ -1012,7 +1015,7 @@
       </c>
       <c r="H5" s="9">
         <f ca="1">IF(150000-INT(150000-150000/34*$AK$1)&lt;0,0,150000-INT(150000-150000/34*$AK$1)-H6)</f>
-        <v>-12517</v>
+        <v>-11083</v>
       </c>
       <c r="K5" s="9">
         <f ca="1">IF(150-INT(150-150/34*$AK$1)&lt;0,0,150-INT(150-150/34*$AK$1)-K6)</f>
@@ -1048,7 +1051,7 @@
       </c>
       <c r="AA5" s="9">
         <f ca="1">IF(150-INT(150-150/34*$AK$1)&lt;0,0,150-INT(150-150/34*$AK$1)-AA6)</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="9">
         <f ca="1">IF(150000-INT(150000-150000/34*$AK$1)&lt;0,0,150000-INT(150000-150000/34*$AK$1)-AB6)</f>
@@ -1056,19 +1059,19 @@
       </c>
       <c r="AE5" s="5">
         <f ca="1">SUM(C5,G5,K5,O5,S5,W5,AA5)</f>
-        <v>-15</v>
+        <v>-13</v>
       </c>
       <c r="AF5" s="5">
         <f ca="1">SUM(D5,H5,L5,P5,T5,X5,AB5)</f>
-        <v>-32922</v>
+        <v>-31488</v>
       </c>
       <c r="AG5" s="3">
         <f ca="1">-$AK$3+AG6</f>
-        <v>6.3203463203463373E-3</v>
+        <v>8.2251082251082464E-3</v>
       </c>
       <c r="AH5" s="3">
         <f ca="1">AH6-$AK$3</f>
-        <v>-9.9682251082250928E-3</v>
+        <v>-8.6025108225107894E-3</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1089,7 +1092,7 @@
       </c>
       <c r="H6" s="9">
         <f>IF(150000-H11&lt;0,0,150000-H11)</f>
-        <v>118400</v>
+        <v>116966</v>
       </c>
       <c r="K6" s="9">
         <f>IF(150-K11&lt;0,0,150-K11)</f>
@@ -1125,7 +1128,7 @@
       </c>
       <c r="AA6" s="9">
         <f>IF(150-AA11&lt;0,0,150-AA11)</f>
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AB6" s="9">
         <f>IF(150000-AB11&lt;0,0,150000-AB11)</f>
@@ -1133,19 +1136,19 @@
       </c>
       <c r="AE6" s="5">
         <f>SUM(C6,G6,K6,O6,S6,W6,AA6)</f>
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AF6" s="5">
         <f>SUM(D6,H6,L6,P6,T6,X6,AB6)</f>
-        <v>774103</v>
+        <v>772669</v>
       </c>
       <c r="AG6" s="3">
         <f>(7*150-AE6)/(7*150)</f>
-        <v>0.27904761904761904</v>
+        <v>0.28095238095238095</v>
       </c>
       <c r="AH6" s="3">
         <f>(7*150000-AF6)/(7*150000)</f>
-        <v>0.26275904761904761</v>
+        <v>0.26412476190476192</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -1154,16 +1157,17 @@
       </c>
       <c r="AE7" s="5">
         <f>150*7-AE6</f>
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AF7" s="5">
         <f>150000*7-AF6</f>
-        <v>275897</v>
+        <v>277331</v>
       </c>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
     </row>
     <row r="8" spans="1:37">
+      <c r="AE8" s="19"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
     </row>
@@ -1298,7 +1302,7 @@
       </c>
       <c r="H11" s="14">
         <f t="shared" si="14"/>
-        <v>31600</v>
+        <v>33034</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" ref="I11:I39" si="17">G11-G12</f>
@@ -1374,7 +1378,7 @@
       </c>
       <c r="AA11" s="13">
         <f t="shared" si="23"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB11" s="14">
         <f t="shared" si="23"/>
@@ -1426,7 +1430,7 @@
       </c>
       <c r="H12" s="16">
         <f t="shared" si="14"/>
-        <v>31600</v>
+        <v>33034</v>
       </c>
       <c r="I12" s="16">
         <f t="shared" si="17"/>
@@ -1502,7 +1506,7 @@
       </c>
       <c r="AA12" s="15">
         <f t="shared" si="23"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB12" s="16">
         <f t="shared" si="23"/>
@@ -1554,7 +1558,7 @@
       </c>
       <c r="H13" s="16">
         <f t="shared" si="14"/>
-        <v>31600</v>
+        <v>33034</v>
       </c>
       <c r="I13" s="16">
         <f t="shared" si="17"/>
@@ -1630,7 +1634,7 @@
       </c>
       <c r="AA13" s="15">
         <f t="shared" si="23"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB13" s="16">
         <f t="shared" si="23"/>
@@ -1682,7 +1686,7 @@
       </c>
       <c r="H14" s="16">
         <f t="shared" si="14"/>
-        <v>31600</v>
+        <v>33034</v>
       </c>
       <c r="I14" s="16">
         <f t="shared" si="17"/>
@@ -1758,7 +1762,7 @@
       </c>
       <c r="AA14" s="15">
         <f t="shared" si="23"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB14" s="16">
         <f t="shared" si="23"/>
@@ -1810,7 +1814,7 @@
       </c>
       <c r="H15" s="16">
         <f t="shared" si="14"/>
-        <v>31600</v>
+        <v>33034</v>
       </c>
       <c r="I15" s="16">
         <f t="shared" si="17"/>
@@ -1886,7 +1890,7 @@
       </c>
       <c r="AA15" s="15">
         <f t="shared" si="23"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB15" s="16">
         <f t="shared" si="23"/>
@@ -1938,7 +1942,7 @@
       </c>
       <c r="H16" s="16">
         <f t="shared" si="14"/>
-        <v>31600</v>
+        <v>33034</v>
       </c>
       <c r="I16" s="16">
         <f t="shared" si="17"/>
@@ -2014,7 +2018,7 @@
       </c>
       <c r="AA16" s="15">
         <f t="shared" si="23"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB16" s="16">
         <f t="shared" si="23"/>
@@ -2066,7 +2070,7 @@
       </c>
       <c r="H17" s="16">
         <f t="shared" si="14"/>
-        <v>31600</v>
+        <v>33034</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" si="17"/>
@@ -2142,7 +2146,7 @@
       </c>
       <c r="AA17" s="15">
         <f t="shared" si="23"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB17" s="16">
         <f t="shared" si="23"/>
@@ -2194,7 +2198,7 @@
       </c>
       <c r="H18" s="16">
         <f t="shared" si="14"/>
-        <v>31600</v>
+        <v>33034</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" si="17"/>
@@ -2270,7 +2274,7 @@
       </c>
       <c r="AA18" s="15">
         <f t="shared" si="23"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB18" s="16">
         <f t="shared" si="23"/>
@@ -2322,7 +2326,7 @@
       </c>
       <c r="H19" s="16">
         <f t="shared" si="14"/>
-        <v>31600</v>
+        <v>33034</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" si="17"/>
@@ -2398,7 +2402,7 @@
       </c>
       <c r="AA19" s="15">
         <f t="shared" si="23"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB19" s="16">
         <f t="shared" si="23"/>
@@ -2450,7 +2454,7 @@
       </c>
       <c r="H20" s="16">
         <f t="shared" si="14"/>
-        <v>31600</v>
+        <v>33034</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="17"/>
@@ -2526,7 +2530,7 @@
       </c>
       <c r="AA20" s="15">
         <f t="shared" si="23"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB20" s="16">
         <f t="shared" si="23"/>
@@ -2578,7 +2582,7 @@
       </c>
       <c r="H21" s="16">
         <f t="shared" si="14"/>
-        <v>31600</v>
+        <v>33034</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" si="17"/>
@@ -2654,7 +2658,7 @@
       </c>
       <c r="AA21" s="15">
         <f t="shared" si="23"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB21" s="16">
         <f t="shared" si="23"/>
@@ -2706,7 +2710,7 @@
       </c>
       <c r="H22" s="16">
         <f t="shared" si="14"/>
-        <v>31600</v>
+        <v>33034</v>
       </c>
       <c r="I22" s="16">
         <f t="shared" si="17"/>
@@ -2782,7 +2786,7 @@
       </c>
       <c r="AA22" s="15">
         <f t="shared" si="23"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB22" s="16">
         <f t="shared" si="23"/>
@@ -2834,7 +2838,7 @@
       </c>
       <c r="H23" s="16">
         <f t="shared" si="14"/>
-        <v>31600</v>
+        <v>33034</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" si="17"/>
@@ -2910,7 +2914,7 @@
       </c>
       <c r="AA23" s="15">
         <f t="shared" si="23"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB23" s="16">
         <f t="shared" si="23"/>
@@ -2962,7 +2966,7 @@
       </c>
       <c r="H24" s="16">
         <f t="shared" si="14"/>
-        <v>31600</v>
+        <v>33034</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="17"/>
@@ -3038,7 +3042,7 @@
       </c>
       <c r="AA24" s="15">
         <f t="shared" si="23"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB24" s="16">
         <f t="shared" si="23"/>
@@ -3090,7 +3094,7 @@
       </c>
       <c r="H25" s="16">
         <f t="shared" si="14"/>
-        <v>31600</v>
+        <v>33034</v>
       </c>
       <c r="I25" s="16">
         <f t="shared" si="17"/>
@@ -3166,7 +3170,7 @@
       </c>
       <c r="AA25" s="15">
         <f t="shared" si="23"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB25" s="16">
         <f t="shared" si="23"/>
@@ -3218,7 +3222,7 @@
       </c>
       <c r="H26" s="16">
         <f t="shared" si="14"/>
-        <v>31600</v>
+        <v>33034</v>
       </c>
       <c r="I26" s="16">
         <f t="shared" si="17"/>
@@ -3294,7 +3298,7 @@
       </c>
       <c r="AA26" s="15">
         <f t="shared" si="23"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB26" s="16">
         <f t="shared" si="23"/>
@@ -3346,7 +3350,7 @@
       </c>
       <c r="H27" s="16">
         <f t="shared" si="31"/>
-        <v>31600</v>
+        <v>33034</v>
       </c>
       <c r="I27" s="16">
         <f t="shared" si="17"/>
@@ -3422,7 +3426,7 @@
       </c>
       <c r="AA27" s="15">
         <f t="shared" si="23"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB27" s="16">
         <f t="shared" si="23"/>
@@ -3474,7 +3478,7 @@
       </c>
       <c r="H28" s="16">
         <f t="shared" si="31"/>
-        <v>31600</v>
+        <v>33034</v>
       </c>
       <c r="I28" s="16">
         <f t="shared" si="17"/>
@@ -3550,7 +3554,7 @@
       </c>
       <c r="AA28" s="15">
         <f t="shared" si="23"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB28" s="16">
         <f t="shared" si="23"/>
@@ -3602,7 +3606,7 @@
       </c>
       <c r="H29" s="16">
         <f t="shared" si="31"/>
-        <v>31600</v>
+        <v>33034</v>
       </c>
       <c r="I29" s="16">
         <f t="shared" si="17"/>
@@ -3678,7 +3682,7 @@
       </c>
       <c r="AA29" s="15">
         <f t="shared" si="23"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB29" s="16">
         <f t="shared" si="23"/>
@@ -3730,7 +3734,7 @@
       </c>
       <c r="H30" s="16">
         <f t="shared" si="31"/>
-        <v>31600</v>
+        <v>33034</v>
       </c>
       <c r="I30" s="16">
         <f t="shared" si="17"/>
@@ -3806,7 +3810,7 @@
       </c>
       <c r="AA30" s="15">
         <f t="shared" si="23"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB30" s="16">
         <f t="shared" si="23"/>
@@ -3858,7 +3862,7 @@
       </c>
       <c r="H31" s="16">
         <f t="shared" si="31"/>
-        <v>31600</v>
+        <v>33034</v>
       </c>
       <c r="I31" s="16">
         <f t="shared" si="17"/>
@@ -3934,7 +3938,7 @@
       </c>
       <c r="AA31" s="15">
         <f t="shared" si="23"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB31" s="16">
         <f t="shared" si="23"/>
@@ -3986,7 +3990,7 @@
       </c>
       <c r="H32" s="16">
         <f t="shared" si="31"/>
-        <v>31600</v>
+        <v>33034</v>
       </c>
       <c r="I32" s="16">
         <f t="shared" si="17"/>
@@ -4062,7 +4066,7 @@
       </c>
       <c r="AA32" s="15">
         <f t="shared" si="33"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB32" s="16">
         <f t="shared" si="33"/>
@@ -4114,7 +4118,7 @@
       </c>
       <c r="H33" s="16">
         <f t="shared" si="31"/>
-        <v>31600</v>
+        <v>33034</v>
       </c>
       <c r="I33" s="16">
         <f t="shared" si="17"/>
@@ -4190,7 +4194,7 @@
       </c>
       <c r="AA33" s="15">
         <f t="shared" si="33"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB33" s="16">
         <f t="shared" si="33"/>
@@ -4242,7 +4246,7 @@
       </c>
       <c r="H34" s="16">
         <f t="shared" si="31"/>
-        <v>31600</v>
+        <v>33034</v>
       </c>
       <c r="I34" s="16">
         <f t="shared" si="17"/>
@@ -4318,7 +4322,7 @@
       </c>
       <c r="AA34" s="15">
         <f t="shared" si="33"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB34" s="16">
         <f t="shared" si="33"/>
@@ -4370,7 +4374,7 @@
       </c>
       <c r="H35" s="16">
         <f t="shared" si="31"/>
-        <v>31600</v>
+        <v>33034</v>
       </c>
       <c r="I35" s="16">
         <f t="shared" si="17"/>
@@ -4446,7 +4450,7 @@
       </c>
       <c r="AA35" s="15">
         <f t="shared" si="33"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB35" s="16">
         <f t="shared" si="33"/>
@@ -4494,7 +4498,7 @@
         <v>25</v>
       </c>
       <c r="H36" s="16">
-        <v>31600</v>
+        <v>33034</v>
       </c>
       <c r="I36" s="16">
         <f t="shared" si="17"/>
@@ -4502,7 +4506,7 @@
       </c>
       <c r="J36" s="17">
         <f t="shared" si="18"/>
-        <v>17201</v>
+        <v>18635</v>
       </c>
       <c r="K36" s="15">
         <f t="shared" si="31"/>
@@ -4563,15 +4567,14 @@
         <v>7171</v>
       </c>
       <c r="AA36" s="15">
-        <f t="shared" si="33"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB36" s="16">
         <v>56922</v>
       </c>
       <c r="AC36" s="16">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD36" s="17">
         <f t="shared" si="29"/>
@@ -4579,11 +4582,11 @@
       </c>
       <c r="AE36" s="4">
         <f t="shared" si="32"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AF36" s="4">
         <f t="shared" si="32"/>
-        <v>30895</v>
+        <v>32329</v>
       </c>
     </row>
     <row r="37" spans="1:36">

--- a/mission wz.xlsx
+++ b/mission wz.xlsx
@@ -668,7 +668,7 @@
   <dimension ref="A1:AK45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA37" sqref="AA37"/>
+      <selection activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -754,14 +754,14 @@
       </c>
       <c r="AI1" s="1">
         <f ca="1">TODAY()</f>
-        <v>41998</v>
+        <v>41999</v>
       </c>
       <c r="AJ1" s="1">
         <v>42023</v>
       </c>
       <c r="AK1">
         <f ca="1">AJ1-AI1-1</f>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:37">
@@ -770,71 +770,71 @@
       </c>
       <c r="C2" s="8">
         <f>(150-C6)/150</f>
-        <v>0.34</v>
+        <v>0.37333333333333335</v>
       </c>
       <c r="D2" s="8">
         <f>(150000-D6)/150000</f>
-        <v>0.24197333333333335</v>
+        <v>0.24800666666666665</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8">
         <f t="shared" ref="G2" si="0">(150-G6)/150</f>
-        <v>0.16666666666666666</v>
+        <v>0.22</v>
       </c>
       <c r="H2" s="8">
         <f t="shared" ref="H2" si="1">(150000-H6)/150000</f>
-        <v>0.22022666666666665</v>
+        <v>0.26561333333333331</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8">
         <f t="shared" ref="K2" si="2">(150-K6)/150</f>
-        <v>0.29333333333333333</v>
+        <v>0.32</v>
       </c>
       <c r="L2" s="8">
         <f t="shared" ref="L2" si="3">(150000-L6)/150000</f>
-        <v>0.32658666666666669</v>
+        <v>0.35833999999999999</v>
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8">
         <f t="shared" ref="O2" si="4">(150-O6)/150</f>
-        <v>0.45333333333333331</v>
+        <v>0.46</v>
       </c>
       <c r="P2" s="8">
         <f t="shared" ref="P2" si="5">(150000-P6)/150000</f>
-        <v>0.31106</v>
+        <v>0.31427333333333335</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8">
         <f t="shared" ref="S2" si="6">(150-S6)/150</f>
-        <v>0.1</v>
+        <v>0.12666666666666668</v>
       </c>
       <c r="T2" s="8">
         <f t="shared" ref="T2" si="7">(150000-T6)/150000</f>
-        <v>6.3920000000000005E-2</v>
+        <v>7.5219999999999995E-2</v>
       </c>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
       <c r="W2" s="8">
         <f t="shared" ref="W2" si="8">(150-W6)/150</f>
-        <v>0.32</v>
+        <v>0.32666666666666666</v>
       </c>
       <c r="X2" s="8">
         <f t="shared" ref="X2" si="9">(150000-X6)/150000</f>
-        <v>0.30562666666666666</v>
+        <v>0.308</v>
       </c>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8">
         <f t="shared" ref="AA2" si="10">(150-AA6)/150</f>
-        <v>0.29333333333333333</v>
+        <v>0.30666666666666664</v>
       </c>
       <c r="AB2" s="8">
         <f t="shared" ref="AB2" si="11">(150000-AB6)/150000</f>
-        <v>0.37947999999999998</v>
+        <v>0.40846666666666664</v>
       </c>
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
@@ -859,7 +859,7 @@
       </c>
       <c r="D3" s="9">
         <f ca="1">IF(D6&lt;0,0,INT(D6/$AK$1))</f>
-        <v>4737</v>
+        <v>4904</v>
       </c>
       <c r="G3" s="9">
         <f ca="1">IF(G6&lt;0,0,INT(G6/$AK$1))</f>
@@ -867,7 +867,7 @@
       </c>
       <c r="H3" s="9">
         <f ca="1">IF(H6&lt;0,0,INT(H6/$AK$1))</f>
-        <v>4873</v>
+        <v>4789</v>
       </c>
       <c r="K3" s="9">
         <f ca="1">IF(K6&lt;0,0,INT(K6/$AK$1))</f>
@@ -875,7 +875,7 @@
       </c>
       <c r="L3" s="9">
         <f ca="1">IF(L6&lt;0,0,INT(L6/$AK$1))</f>
-        <v>4208</v>
+        <v>4184</v>
       </c>
       <c r="O3" s="9">
         <f ca="1">IF(O6&lt;0,0,INT(O6/$AK$1))</f>
@@ -883,7 +883,7 @@
       </c>
       <c r="P3" s="9">
         <f ca="1">IF(P6&lt;0,0,INT(P6/$AK$1))</f>
-        <v>4305</v>
+        <v>4472</v>
       </c>
       <c r="S3" s="9">
         <f ca="1">IF(S6&lt;0,0,INT(S6/$AK$1))</f>
@@ -891,7 +891,7 @@
       </c>
       <c r="T3" s="9">
         <f ca="1">IF(T6&lt;0,0,INT(T6/$AK$1))</f>
-        <v>5850</v>
+        <v>6031</v>
       </c>
       <c r="W3" s="9">
         <f ca="1">IF(W6&lt;0,0,INT(W6/$AK$1))</f>
@@ -899,7 +899,7 @@
       </c>
       <c r="X3" s="9">
         <f ca="1">IF(X6&lt;0,0,INT(X6/$AK$1))</f>
-        <v>4339</v>
+        <v>4513</v>
       </c>
       <c r="AA3" s="9">
         <f ca="1">IF(AA6&lt;0,0,INT(AA6/$AK$1))</f>
@@ -907,7 +907,7 @@
       </c>
       <c r="AB3" s="9">
         <f ca="1">IF(AB6&lt;0,0,INT(AB6/$AK$1))</f>
-        <v>3878</v>
+        <v>3857</v>
       </c>
       <c r="AE3" s="5">
         <f t="shared" ref="AE3:AE4" ca="1" si="12">SUM(C3,G3,K3,O3,S3,W3,AA3)</f>
@@ -915,7 +915,7 @@
       </c>
       <c r="AF3" s="5">
         <f ca="1">SUM(D3,H3,L3,P3,T3,X3,AB3)</f>
-        <v>32190</v>
+        <v>32750</v>
       </c>
       <c r="AI3" s="1">
         <v>41996</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="AK3" s="2">
         <f ca="1">(AK2-AK1)/AK2</f>
-        <v>0.27272727272727271</v>
+        <v>0.30303030303030304</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -1003,19 +1003,19 @@
       </c>
       <c r="C5" s="9">
         <f ca="1">IF(150-INT(150-150/34*$AK$1)&lt;0,0,150-INT(150-150/34*$AK$1)-C6)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="9">
         <f ca="1">IF(150000-INT(150000-150000/34*$AK$1)&lt;0,0,150000-INT(150000-150000/34*$AK$1)-D6)</f>
-        <v>-7821</v>
+        <v>-11328</v>
       </c>
       <c r="G5" s="9">
         <f ca="1">IF(150-INT(150-150/34*$AK$1)&lt;0,0,150-INT(150-150/34*$AK$1)-G6)</f>
-        <v>-19</v>
+        <v>-15</v>
       </c>
       <c r="H5" s="9">
         <f ca="1">IF(150000-INT(150000-150000/34*$AK$1)&lt;0,0,150000-INT(150000-150000/34*$AK$1)-H6)</f>
-        <v>-11083</v>
+        <v>-8687</v>
       </c>
       <c r="K5" s="9">
         <f ca="1">IF(150-INT(150-150/34*$AK$1)&lt;0,0,150-INT(150-150/34*$AK$1)-K6)</f>
@@ -1023,15 +1023,15 @@
       </c>
       <c r="L5" s="9">
         <f ca="1">IF(150000-INT(150000-150000/34*$AK$1)&lt;0,0,150000-INT(150000-150000/34*$AK$1)-L6)</f>
-        <v>4871</v>
+        <v>5222</v>
       </c>
       <c r="O5" s="9">
         <f ca="1">IF(150-INT(150-150/34*$AK$1)&lt;0,0,150-INT(150-150/34*$AK$1)-O6)</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="P5" s="9">
         <f ca="1">IF(150000-INT(150000-150000/34*$AK$1)&lt;0,0,150000-INT(150000-150000/34*$AK$1)-P6)</f>
-        <v>2542</v>
+        <v>-1388</v>
       </c>
       <c r="S5" s="9">
         <f ca="1">IF(150-INT(150-150/34*$AK$1)&lt;0,0,150-INT(150-150/34*$AK$1)-S6)</f>
@@ -1039,39 +1039,39 @@
       </c>
       <c r="T5" s="9">
         <f ca="1">IF(150000-INT(150000-150000/34*$AK$1)&lt;0,0,150000-INT(150000-150000/34*$AK$1)-T6)</f>
-        <v>-34529</v>
+        <v>-37246</v>
       </c>
       <c r="W5" s="9">
         <f ca="1">IF(150-INT(150-150/34*$AK$1)&lt;0,0,150-INT(150-150/34*$AK$1)-W6)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X5" s="9">
         <f ca="1">IF(150000-INT(150000-150000/34*$AK$1)&lt;0,0,150000-INT(150000-150000/34*$AK$1)-X6)</f>
-        <v>1727</v>
+        <v>-2329</v>
       </c>
       <c r="AA5" s="9">
         <f ca="1">IF(150-INT(150-150/34*$AK$1)&lt;0,0,150-INT(150-150/34*$AK$1)-AA6)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB5" s="9">
         <f ca="1">IF(150000-INT(150000-150000/34*$AK$1)&lt;0,0,150000-INT(150000-150000/34*$AK$1)-AB6)</f>
-        <v>12805</v>
+        <v>12741</v>
       </c>
       <c r="AE5" s="5">
         <f ca="1">SUM(C5,G5,K5,O5,S5,W5,AA5)</f>
-        <v>-13</v>
+        <v>-16</v>
       </c>
       <c r="AF5" s="5">
         <f ca="1">SUM(D5,H5,L5,P5,T5,X5,AB5)</f>
-        <v>-31488</v>
+        <v>-43015</v>
       </c>
       <c r="AG5" s="3">
         <f ca="1">-$AK$3+AG6</f>
-        <v>8.2251082251082464E-3</v>
+        <v>1.7316017316017507E-3</v>
       </c>
       <c r="AH5" s="3">
         <f ca="1">AH6-$AK$3</f>
-        <v>-8.6025108225107894E-3</v>
+        <v>-2.0470303030303061E-2</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1080,75 +1080,75 @@
       </c>
       <c r="C6" s="9">
         <f>IF(150-C11&lt;0,0,150-C11)</f>
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D6" s="9">
         <f>IF(150000-D11&lt;0,0,150000-D11)</f>
-        <v>113704</v>
+        <v>112799</v>
       </c>
       <c r="G6" s="9">
         <f>IF(150-G11&lt;0,0,150-G11)</f>
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H6" s="9">
         <f>IF(150000-H11&lt;0,0,150000-H11)</f>
-        <v>116966</v>
+        <v>110158</v>
       </c>
       <c r="K6" s="9">
         <f>IF(150-K11&lt;0,0,150-K11)</f>
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L6" s="9">
         <f>IF(150000-L11&lt;0,0,150000-L11)</f>
-        <v>101012</v>
+        <v>96249</v>
       </c>
       <c r="O6" s="9">
         <f>IF(150-O11&lt;0,0,150-O11)</f>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P6" s="9">
         <f>IF(150000-P11&lt;0,0,150000-P11)</f>
-        <v>103341</v>
+        <v>102859</v>
       </c>
       <c r="S6" s="9">
         <f>IF(150-S11&lt;0,0,150-S11)</f>
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="T6" s="9">
         <f>IF(150000-T11&lt;0,0,150000-T11)</f>
-        <v>140412</v>
+        <v>138717</v>
       </c>
       <c r="W6" s="9">
         <f>IF(150-W11&lt;0,0,150-W11)</f>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X6" s="9">
         <f>IF(150000-X11&lt;0,0,150000-X11)</f>
-        <v>104156</v>
+        <v>103800</v>
       </c>
       <c r="AA6" s="9">
         <f>IF(150-AA11&lt;0,0,150-AA11)</f>
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AB6" s="9">
         <f>IF(150000-AB11&lt;0,0,150000-AB11)</f>
-        <v>93078</v>
+        <v>88730</v>
       </c>
       <c r="AE6" s="5">
         <f>SUM(C6,G6,K6,O6,S6,W6,AA6)</f>
-        <v>755</v>
+        <v>730</v>
       </c>
       <c r="AF6" s="5">
         <f>SUM(D6,H6,L6,P6,T6,X6,AB6)</f>
-        <v>772669</v>
+        <v>753312</v>
       </c>
       <c r="AG6" s="3">
         <f>(7*150-AE6)/(7*150)</f>
-        <v>0.28095238095238095</v>
+        <v>0.30476190476190479</v>
       </c>
       <c r="AH6" s="3">
         <f>(7*150000-AF6)/(7*150000)</f>
-        <v>0.26412476190476192</v>
+        <v>0.28255999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -1157,11 +1157,11 @@
       </c>
       <c r="AE7" s="5">
         <f>150*7-AE6</f>
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="AF7" s="5">
         <f>150000*7-AF6</f>
-        <v>277331</v>
+        <v>296688</v>
       </c>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="C11" s="13">
         <f t="shared" ref="C11:P26" si="14">C12</f>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D11" s="14">
         <f t="shared" si="14"/>
-        <v>36296</v>
+        <v>37201</v>
       </c>
       <c r="E11" s="16">
         <f t="shared" ref="E11:E39" si="15">C11-C12</f>
@@ -1298,11 +1298,11 @@
       </c>
       <c r="G11" s="13">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H11" s="14">
         <f t="shared" si="14"/>
-        <v>33034</v>
+        <v>39842</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" ref="I11:I39" si="17">G11-G12</f>
@@ -1314,11 +1314,11 @@
       </c>
       <c r="K11" s="13">
         <f t="shared" si="14"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L11" s="14">
         <f t="shared" si="14"/>
-        <v>48988</v>
+        <v>53751</v>
       </c>
       <c r="M11" s="16">
         <f t="shared" ref="M11:M39" si="19">K11-K12</f>
@@ -1330,11 +1330,11 @@
       </c>
       <c r="O11" s="13">
         <f t="shared" si="14"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P11" s="14">
         <f t="shared" si="14"/>
-        <v>46659</v>
+        <v>47141</v>
       </c>
       <c r="Q11" s="16">
         <f t="shared" ref="Q11:Q39" si="21">O11-O12</f>
@@ -1346,11 +1346,11 @@
       </c>
       <c r="S11" s="13">
         <f t="shared" ref="S11:AB32" si="23">S12</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T11" s="14">
         <f t="shared" si="23"/>
-        <v>9588</v>
+        <v>11283</v>
       </c>
       <c r="U11" s="16">
         <f t="shared" ref="U11:U39" si="24">S11-S12</f>
@@ -1362,11 +1362,11 @@
       </c>
       <c r="W11" s="13">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X11" s="14">
         <f t="shared" si="23"/>
-        <v>45844</v>
+        <v>46200</v>
       </c>
       <c r="Y11" s="16">
         <f t="shared" ref="Y11:Y39" si="26">W11-W12</f>
@@ -1378,11 +1378,11 @@
       </c>
       <c r="AA11" s="13">
         <f t="shared" si="23"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB11" s="14">
         <f t="shared" si="23"/>
-        <v>56922</v>
+        <v>61270</v>
       </c>
       <c r="AC11" s="16">
         <f t="shared" ref="AC11:AC39" si="28">AA11-AA12</f>
@@ -1410,11 +1410,11 @@
       </c>
       <c r="C12" s="15">
         <f t="shared" si="14"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D12" s="16">
         <f t="shared" si="14"/>
-        <v>36296</v>
+        <v>37201</v>
       </c>
       <c r="E12" s="16">
         <f t="shared" si="15"/>
@@ -1426,11 +1426,11 @@
       </c>
       <c r="G12" s="15">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H12" s="16">
         <f t="shared" si="14"/>
-        <v>33034</v>
+        <v>39842</v>
       </c>
       <c r="I12" s="16">
         <f t="shared" si="17"/>
@@ -1442,11 +1442,11 @@
       </c>
       <c r="K12" s="15">
         <f t="shared" si="14"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L12" s="16">
         <f t="shared" si="14"/>
-        <v>48988</v>
+        <v>53751</v>
       </c>
       <c r="M12" s="16">
         <f t="shared" si="19"/>
@@ -1458,11 +1458,11 @@
       </c>
       <c r="O12" s="15">
         <f t="shared" si="14"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P12" s="16">
         <f t="shared" si="14"/>
-        <v>46659</v>
+        <v>47141</v>
       </c>
       <c r="Q12" s="16">
         <f t="shared" si="21"/>
@@ -1474,11 +1474,11 @@
       </c>
       <c r="S12" s="15">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T12" s="16">
         <f t="shared" si="23"/>
-        <v>9588</v>
+        <v>11283</v>
       </c>
       <c r="U12" s="16">
         <f t="shared" si="24"/>
@@ -1490,11 +1490,11 @@
       </c>
       <c r="W12" s="15">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X12" s="16">
         <f t="shared" si="23"/>
-        <v>45844</v>
+        <v>46200</v>
       </c>
       <c r="Y12" s="16">
         <f t="shared" si="26"/>
@@ -1506,11 +1506,11 @@
       </c>
       <c r="AA12" s="15">
         <f t="shared" si="23"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB12" s="16">
         <f t="shared" si="23"/>
-        <v>56922</v>
+        <v>61270</v>
       </c>
       <c r="AC12" s="16">
         <f t="shared" si="28"/>
@@ -1538,11 +1538,11 @@
       </c>
       <c r="C13" s="15">
         <f t="shared" si="14"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D13" s="16">
         <f t="shared" si="14"/>
-        <v>36296</v>
+        <v>37201</v>
       </c>
       <c r="E13" s="16">
         <f t="shared" si="15"/>
@@ -1554,11 +1554,11 @@
       </c>
       <c r="G13" s="15">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H13" s="16">
         <f t="shared" si="14"/>
-        <v>33034</v>
+        <v>39842</v>
       </c>
       <c r="I13" s="16">
         <f t="shared" si="17"/>
@@ -1570,11 +1570,11 @@
       </c>
       <c r="K13" s="15">
         <f t="shared" si="14"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L13" s="16">
         <f t="shared" si="14"/>
-        <v>48988</v>
+        <v>53751</v>
       </c>
       <c r="M13" s="16">
         <f t="shared" si="19"/>
@@ -1586,11 +1586,11 @@
       </c>
       <c r="O13" s="15">
         <f t="shared" si="14"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P13" s="16">
         <f t="shared" si="14"/>
-        <v>46659</v>
+        <v>47141</v>
       </c>
       <c r="Q13" s="16">
         <f t="shared" si="21"/>
@@ -1602,11 +1602,11 @@
       </c>
       <c r="S13" s="15">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T13" s="16">
         <f t="shared" si="23"/>
-        <v>9588</v>
+        <v>11283</v>
       </c>
       <c r="U13" s="16">
         <f t="shared" si="24"/>
@@ -1618,11 +1618,11 @@
       </c>
       <c r="W13" s="15">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X13" s="16">
         <f t="shared" si="23"/>
-        <v>45844</v>
+        <v>46200</v>
       </c>
       <c r="Y13" s="16">
         <f t="shared" si="26"/>
@@ -1634,11 +1634,11 @@
       </c>
       <c r="AA13" s="15">
         <f t="shared" si="23"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB13" s="16">
         <f t="shared" si="23"/>
-        <v>56922</v>
+        <v>61270</v>
       </c>
       <c r="AC13" s="16">
         <f t="shared" si="28"/>
@@ -1666,11 +1666,11 @@
       </c>
       <c r="C14" s="15">
         <f t="shared" si="14"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D14" s="16">
         <f t="shared" si="14"/>
-        <v>36296</v>
+        <v>37201</v>
       </c>
       <c r="E14" s="16">
         <f t="shared" si="15"/>
@@ -1682,11 +1682,11 @@
       </c>
       <c r="G14" s="15">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H14" s="16">
         <f t="shared" si="14"/>
-        <v>33034</v>
+        <v>39842</v>
       </c>
       <c r="I14" s="16">
         <f t="shared" si="17"/>
@@ -1698,11 +1698,11 @@
       </c>
       <c r="K14" s="15">
         <f t="shared" si="14"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L14" s="16">
         <f t="shared" si="14"/>
-        <v>48988</v>
+        <v>53751</v>
       </c>
       <c r="M14" s="16">
         <f t="shared" si="19"/>
@@ -1714,11 +1714,11 @@
       </c>
       <c r="O14" s="15">
         <f t="shared" si="14"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P14" s="16">
         <f t="shared" si="14"/>
-        <v>46659</v>
+        <v>47141</v>
       </c>
       <c r="Q14" s="16">
         <f t="shared" si="21"/>
@@ -1730,11 +1730,11 @@
       </c>
       <c r="S14" s="15">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T14" s="16">
         <f t="shared" si="23"/>
-        <v>9588</v>
+        <v>11283</v>
       </c>
       <c r="U14" s="16">
         <f t="shared" si="24"/>
@@ -1746,11 +1746,11 @@
       </c>
       <c r="W14" s="15">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X14" s="16">
         <f t="shared" si="23"/>
-        <v>45844</v>
+        <v>46200</v>
       </c>
       <c r="Y14" s="16">
         <f t="shared" si="26"/>
@@ -1762,11 +1762,11 @@
       </c>
       <c r="AA14" s="15">
         <f t="shared" si="23"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB14" s="16">
         <f t="shared" si="23"/>
-        <v>56922</v>
+        <v>61270</v>
       </c>
       <c r="AC14" s="16">
         <f t="shared" si="28"/>
@@ -1794,11 +1794,11 @@
       </c>
       <c r="C15" s="15">
         <f t="shared" si="14"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D15" s="16">
         <f t="shared" si="14"/>
-        <v>36296</v>
+        <v>37201</v>
       </c>
       <c r="E15" s="16">
         <f t="shared" si="15"/>
@@ -1810,11 +1810,11 @@
       </c>
       <c r="G15" s="15">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H15" s="16">
         <f t="shared" si="14"/>
-        <v>33034</v>
+        <v>39842</v>
       </c>
       <c r="I15" s="16">
         <f t="shared" si="17"/>
@@ -1826,11 +1826,11 @@
       </c>
       <c r="K15" s="15">
         <f t="shared" si="14"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L15" s="16">
         <f t="shared" si="14"/>
-        <v>48988</v>
+        <v>53751</v>
       </c>
       <c r="M15" s="16">
         <f t="shared" si="19"/>
@@ -1842,11 +1842,11 @@
       </c>
       <c r="O15" s="15">
         <f t="shared" si="14"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P15" s="16">
         <f t="shared" si="14"/>
-        <v>46659</v>
+        <v>47141</v>
       </c>
       <c r="Q15" s="16">
         <f t="shared" si="21"/>
@@ -1858,11 +1858,11 @@
       </c>
       <c r="S15" s="15">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T15" s="16">
         <f t="shared" si="23"/>
-        <v>9588</v>
+        <v>11283</v>
       </c>
       <c r="U15" s="16">
         <f t="shared" si="24"/>
@@ -1874,11 +1874,11 @@
       </c>
       <c r="W15" s="15">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X15" s="16">
         <f t="shared" si="23"/>
-        <v>45844</v>
+        <v>46200</v>
       </c>
       <c r="Y15" s="16">
         <f t="shared" si="26"/>
@@ -1890,11 +1890,11 @@
       </c>
       <c r="AA15" s="15">
         <f t="shared" si="23"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB15" s="16">
         <f t="shared" si="23"/>
-        <v>56922</v>
+        <v>61270</v>
       </c>
       <c r="AC15" s="16">
         <f t="shared" si="28"/>
@@ -1922,11 +1922,11 @@
       </c>
       <c r="C16" s="15">
         <f t="shared" si="14"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D16" s="16">
         <f t="shared" si="14"/>
-        <v>36296</v>
+        <v>37201</v>
       </c>
       <c r="E16" s="16">
         <f t="shared" si="15"/>
@@ -1938,11 +1938,11 @@
       </c>
       <c r="G16" s="15">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H16" s="16">
         <f t="shared" si="14"/>
-        <v>33034</v>
+        <v>39842</v>
       </c>
       <c r="I16" s="16">
         <f t="shared" si="17"/>
@@ -1954,11 +1954,11 @@
       </c>
       <c r="K16" s="15">
         <f t="shared" si="14"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L16" s="16">
         <f t="shared" si="14"/>
-        <v>48988</v>
+        <v>53751</v>
       </c>
       <c r="M16" s="16">
         <f t="shared" si="19"/>
@@ -1970,11 +1970,11 @@
       </c>
       <c r="O16" s="15">
         <f t="shared" si="14"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P16" s="16">
         <f t="shared" si="14"/>
-        <v>46659</v>
+        <v>47141</v>
       </c>
       <c r="Q16" s="16">
         <f t="shared" si="21"/>
@@ -1986,11 +1986,11 @@
       </c>
       <c r="S16" s="15">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T16" s="16">
         <f t="shared" si="23"/>
-        <v>9588</v>
+        <v>11283</v>
       </c>
       <c r="U16" s="16">
         <f t="shared" si="24"/>
@@ -2002,11 +2002,11 @@
       </c>
       <c r="W16" s="15">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X16" s="16">
         <f t="shared" si="23"/>
-        <v>45844</v>
+        <v>46200</v>
       </c>
       <c r="Y16" s="16">
         <f t="shared" si="26"/>
@@ -2018,11 +2018,11 @@
       </c>
       <c r="AA16" s="15">
         <f t="shared" si="23"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB16" s="16">
         <f t="shared" si="23"/>
-        <v>56922</v>
+        <v>61270</v>
       </c>
       <c r="AC16" s="16">
         <f t="shared" si="28"/>
@@ -2050,11 +2050,11 @@
       </c>
       <c r="C17" s="15">
         <f t="shared" si="14"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D17" s="16">
         <f t="shared" si="14"/>
-        <v>36296</v>
+        <v>37201</v>
       </c>
       <c r="E17" s="16">
         <f t="shared" si="15"/>
@@ -2066,11 +2066,11 @@
       </c>
       <c r="G17" s="15">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H17" s="16">
         <f t="shared" si="14"/>
-        <v>33034</v>
+        <v>39842</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" si="17"/>
@@ -2082,11 +2082,11 @@
       </c>
       <c r="K17" s="15">
         <f t="shared" si="14"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L17" s="16">
         <f t="shared" si="14"/>
-        <v>48988</v>
+        <v>53751</v>
       </c>
       <c r="M17" s="16">
         <f t="shared" si="19"/>
@@ -2098,11 +2098,11 @@
       </c>
       <c r="O17" s="15">
         <f t="shared" si="14"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P17" s="16">
         <f t="shared" si="14"/>
-        <v>46659</v>
+        <v>47141</v>
       </c>
       <c r="Q17" s="16">
         <f t="shared" si="21"/>
@@ -2114,11 +2114,11 @@
       </c>
       <c r="S17" s="15">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T17" s="16">
         <f t="shared" si="23"/>
-        <v>9588</v>
+        <v>11283</v>
       </c>
       <c r="U17" s="16">
         <f t="shared" si="24"/>
@@ -2130,11 +2130,11 @@
       </c>
       <c r="W17" s="15">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X17" s="16">
         <f t="shared" si="23"/>
-        <v>45844</v>
+        <v>46200</v>
       </c>
       <c r="Y17" s="16">
         <f t="shared" si="26"/>
@@ -2146,11 +2146,11 @@
       </c>
       <c r="AA17" s="15">
         <f t="shared" si="23"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB17" s="16">
         <f t="shared" si="23"/>
-        <v>56922</v>
+        <v>61270</v>
       </c>
       <c r="AC17" s="16">
         <f t="shared" si="28"/>
@@ -2178,11 +2178,11 @@
       </c>
       <c r="C18" s="15">
         <f t="shared" si="14"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D18" s="16">
         <f t="shared" si="14"/>
-        <v>36296</v>
+        <v>37201</v>
       </c>
       <c r="E18" s="16">
         <f t="shared" si="15"/>
@@ -2194,11 +2194,11 @@
       </c>
       <c r="G18" s="15">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H18" s="16">
         <f t="shared" si="14"/>
-        <v>33034</v>
+        <v>39842</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" si="17"/>
@@ -2210,11 +2210,11 @@
       </c>
       <c r="K18" s="15">
         <f t="shared" si="14"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L18" s="16">
         <f t="shared" si="14"/>
-        <v>48988</v>
+        <v>53751</v>
       </c>
       <c r="M18" s="16">
         <f t="shared" si="19"/>
@@ -2226,11 +2226,11 @@
       </c>
       <c r="O18" s="15">
         <f t="shared" si="14"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P18" s="16">
         <f t="shared" si="14"/>
-        <v>46659</v>
+        <v>47141</v>
       </c>
       <c r="Q18" s="16">
         <f t="shared" si="21"/>
@@ -2242,11 +2242,11 @@
       </c>
       <c r="S18" s="15">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T18" s="16">
         <f t="shared" si="23"/>
-        <v>9588</v>
+        <v>11283</v>
       </c>
       <c r="U18" s="16">
         <f t="shared" si="24"/>
@@ -2258,11 +2258,11 @@
       </c>
       <c r="W18" s="15">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X18" s="16">
         <f t="shared" si="23"/>
-        <v>45844</v>
+        <v>46200</v>
       </c>
       <c r="Y18" s="16">
         <f t="shared" si="26"/>
@@ -2274,11 +2274,11 @@
       </c>
       <c r="AA18" s="15">
         <f t="shared" si="23"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB18" s="16">
         <f t="shared" si="23"/>
-        <v>56922</v>
+        <v>61270</v>
       </c>
       <c r="AC18" s="16">
         <f t="shared" si="28"/>
@@ -2306,11 +2306,11 @@
       </c>
       <c r="C19" s="15">
         <f t="shared" si="14"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D19" s="16">
         <f t="shared" si="14"/>
-        <v>36296</v>
+        <v>37201</v>
       </c>
       <c r="E19" s="16">
         <f t="shared" si="15"/>
@@ -2322,11 +2322,11 @@
       </c>
       <c r="G19" s="15">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H19" s="16">
         <f t="shared" si="14"/>
-        <v>33034</v>
+        <v>39842</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" si="17"/>
@@ -2338,11 +2338,11 @@
       </c>
       <c r="K19" s="15">
         <f t="shared" si="14"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L19" s="16">
         <f t="shared" si="14"/>
-        <v>48988</v>
+        <v>53751</v>
       </c>
       <c r="M19" s="16">
         <f t="shared" si="19"/>
@@ -2354,11 +2354,11 @@
       </c>
       <c r="O19" s="15">
         <f t="shared" si="14"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P19" s="16">
         <f t="shared" si="14"/>
-        <v>46659</v>
+        <v>47141</v>
       </c>
       <c r="Q19" s="16">
         <f t="shared" si="21"/>
@@ -2370,11 +2370,11 @@
       </c>
       <c r="S19" s="15">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T19" s="16">
         <f t="shared" si="23"/>
-        <v>9588</v>
+        <v>11283</v>
       </c>
       <c r="U19" s="16">
         <f t="shared" si="24"/>
@@ -2386,11 +2386,11 @@
       </c>
       <c r="W19" s="15">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X19" s="16">
         <f t="shared" si="23"/>
-        <v>45844</v>
+        <v>46200</v>
       </c>
       <c r="Y19" s="16">
         <f t="shared" si="26"/>
@@ -2402,11 +2402,11 @@
       </c>
       <c r="AA19" s="15">
         <f t="shared" si="23"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB19" s="16">
         <f t="shared" si="23"/>
-        <v>56922</v>
+        <v>61270</v>
       </c>
       <c r="AC19" s="16">
         <f t="shared" si="28"/>
@@ -2434,11 +2434,11 @@
       </c>
       <c r="C20" s="15">
         <f t="shared" si="14"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D20" s="16">
         <f t="shared" si="14"/>
-        <v>36296</v>
+        <v>37201</v>
       </c>
       <c r="E20" s="16">
         <f t="shared" si="15"/>
@@ -2450,11 +2450,11 @@
       </c>
       <c r="G20" s="15">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H20" s="16">
         <f t="shared" si="14"/>
-        <v>33034</v>
+        <v>39842</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="17"/>
@@ -2466,11 +2466,11 @@
       </c>
       <c r="K20" s="15">
         <f t="shared" si="14"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L20" s="16">
         <f t="shared" si="14"/>
-        <v>48988</v>
+        <v>53751</v>
       </c>
       <c r="M20" s="16">
         <f t="shared" si="19"/>
@@ -2482,11 +2482,11 @@
       </c>
       <c r="O20" s="15">
         <f t="shared" si="14"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P20" s="16">
         <f t="shared" si="14"/>
-        <v>46659</v>
+        <v>47141</v>
       </c>
       <c r="Q20" s="16">
         <f t="shared" si="21"/>
@@ -2498,11 +2498,11 @@
       </c>
       <c r="S20" s="15">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T20" s="16">
         <f t="shared" si="23"/>
-        <v>9588</v>
+        <v>11283</v>
       </c>
       <c r="U20" s="16">
         <f t="shared" si="24"/>
@@ -2514,11 +2514,11 @@
       </c>
       <c r="W20" s="15">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X20" s="16">
         <f t="shared" si="23"/>
-        <v>45844</v>
+        <v>46200</v>
       </c>
       <c r="Y20" s="16">
         <f t="shared" si="26"/>
@@ -2530,11 +2530,11 @@
       </c>
       <c r="AA20" s="15">
         <f t="shared" si="23"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB20" s="16">
         <f t="shared" si="23"/>
-        <v>56922</v>
+        <v>61270</v>
       </c>
       <c r="AC20" s="16">
         <f t="shared" si="28"/>
@@ -2562,11 +2562,11 @@
       </c>
       <c r="C21" s="15">
         <f t="shared" si="14"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D21" s="16">
         <f t="shared" si="14"/>
-        <v>36296</v>
+        <v>37201</v>
       </c>
       <c r="E21" s="16">
         <f t="shared" si="15"/>
@@ -2578,11 +2578,11 @@
       </c>
       <c r="G21" s="15">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H21" s="16">
         <f t="shared" si="14"/>
-        <v>33034</v>
+        <v>39842</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" si="17"/>
@@ -2594,11 +2594,11 @@
       </c>
       <c r="K21" s="15">
         <f t="shared" si="14"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L21" s="16">
         <f t="shared" si="14"/>
-        <v>48988</v>
+        <v>53751</v>
       </c>
       <c r="M21" s="16">
         <f t="shared" si="19"/>
@@ -2610,11 +2610,11 @@
       </c>
       <c r="O21" s="15">
         <f t="shared" si="14"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P21" s="16">
         <f t="shared" si="14"/>
-        <v>46659</v>
+        <v>47141</v>
       </c>
       <c r="Q21" s="16">
         <f t="shared" si="21"/>
@@ -2626,11 +2626,11 @@
       </c>
       <c r="S21" s="15">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T21" s="16">
         <f t="shared" si="23"/>
-        <v>9588</v>
+        <v>11283</v>
       </c>
       <c r="U21" s="16">
         <f t="shared" si="24"/>
@@ -2642,11 +2642,11 @@
       </c>
       <c r="W21" s="15">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X21" s="16">
         <f t="shared" si="23"/>
-        <v>45844</v>
+        <v>46200</v>
       </c>
       <c r="Y21" s="16">
         <f t="shared" si="26"/>
@@ -2658,11 +2658,11 @@
       </c>
       <c r="AA21" s="15">
         <f t="shared" si="23"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB21" s="16">
         <f t="shared" si="23"/>
-        <v>56922</v>
+        <v>61270</v>
       </c>
       <c r="AC21" s="16">
         <f t="shared" si="28"/>
@@ -2690,11 +2690,11 @@
       </c>
       <c r="C22" s="15">
         <f t="shared" si="14"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D22" s="16">
         <f t="shared" si="14"/>
-        <v>36296</v>
+        <v>37201</v>
       </c>
       <c r="E22" s="16">
         <f t="shared" si="15"/>
@@ -2706,11 +2706,11 @@
       </c>
       <c r="G22" s="15">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H22" s="16">
         <f t="shared" si="14"/>
-        <v>33034</v>
+        <v>39842</v>
       </c>
       <c r="I22" s="16">
         <f t="shared" si="17"/>
@@ -2722,11 +2722,11 @@
       </c>
       <c r="K22" s="15">
         <f t="shared" si="14"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L22" s="16">
         <f t="shared" si="14"/>
-        <v>48988</v>
+        <v>53751</v>
       </c>
       <c r="M22" s="16">
         <f t="shared" si="19"/>
@@ -2738,11 +2738,11 @@
       </c>
       <c r="O22" s="15">
         <f t="shared" si="14"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P22" s="16">
         <f t="shared" si="14"/>
-        <v>46659</v>
+        <v>47141</v>
       </c>
       <c r="Q22" s="16">
         <f t="shared" si="21"/>
@@ -2754,11 +2754,11 @@
       </c>
       <c r="S22" s="15">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T22" s="16">
         <f t="shared" si="23"/>
-        <v>9588</v>
+        <v>11283</v>
       </c>
       <c r="U22" s="16">
         <f t="shared" si="24"/>
@@ -2770,11 +2770,11 @@
       </c>
       <c r="W22" s="15">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X22" s="16">
         <f t="shared" si="23"/>
-        <v>45844</v>
+        <v>46200</v>
       </c>
       <c r="Y22" s="16">
         <f t="shared" si="26"/>
@@ -2786,11 +2786,11 @@
       </c>
       <c r="AA22" s="15">
         <f t="shared" si="23"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB22" s="16">
         <f t="shared" si="23"/>
-        <v>56922</v>
+        <v>61270</v>
       </c>
       <c r="AC22" s="16">
         <f t="shared" si="28"/>
@@ -2818,11 +2818,11 @@
       </c>
       <c r="C23" s="15">
         <f t="shared" si="14"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D23" s="16">
         <f t="shared" si="14"/>
-        <v>36296</v>
+        <v>37201</v>
       </c>
       <c r="E23" s="16">
         <f t="shared" si="15"/>
@@ -2834,11 +2834,11 @@
       </c>
       <c r="G23" s="15">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H23" s="16">
         <f t="shared" si="14"/>
-        <v>33034</v>
+        <v>39842</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" si="17"/>
@@ -2850,11 +2850,11 @@
       </c>
       <c r="K23" s="15">
         <f t="shared" si="14"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L23" s="16">
         <f t="shared" si="14"/>
-        <v>48988</v>
+        <v>53751</v>
       </c>
       <c r="M23" s="16">
         <f t="shared" si="19"/>
@@ -2866,11 +2866,11 @@
       </c>
       <c r="O23" s="15">
         <f t="shared" si="14"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P23" s="16">
         <f t="shared" si="14"/>
-        <v>46659</v>
+        <v>47141</v>
       </c>
       <c r="Q23" s="16">
         <f t="shared" si="21"/>
@@ -2882,11 +2882,11 @@
       </c>
       <c r="S23" s="15">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T23" s="16">
         <f t="shared" si="23"/>
-        <v>9588</v>
+        <v>11283</v>
       </c>
       <c r="U23" s="16">
         <f t="shared" si="24"/>
@@ -2898,11 +2898,11 @@
       </c>
       <c r="W23" s="15">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X23" s="16">
         <f t="shared" si="23"/>
-        <v>45844</v>
+        <v>46200</v>
       </c>
       <c r="Y23" s="16">
         <f t="shared" si="26"/>
@@ -2914,11 +2914,11 @@
       </c>
       <c r="AA23" s="15">
         <f t="shared" si="23"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB23" s="16">
         <f t="shared" si="23"/>
-        <v>56922</v>
+        <v>61270</v>
       </c>
       <c r="AC23" s="16">
         <f t="shared" si="28"/>
@@ -2946,11 +2946,11 @@
       </c>
       <c r="C24" s="15">
         <f t="shared" si="14"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D24" s="16">
         <f t="shared" si="14"/>
-        <v>36296</v>
+        <v>37201</v>
       </c>
       <c r="E24" s="16">
         <f t="shared" si="15"/>
@@ -2962,11 +2962,11 @@
       </c>
       <c r="G24" s="15">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H24" s="16">
         <f t="shared" si="14"/>
-        <v>33034</v>
+        <v>39842</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="17"/>
@@ -2978,11 +2978,11 @@
       </c>
       <c r="K24" s="15">
         <f t="shared" si="14"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L24" s="16">
         <f t="shared" si="14"/>
-        <v>48988</v>
+        <v>53751</v>
       </c>
       <c r="M24" s="16">
         <f t="shared" si="19"/>
@@ -2994,11 +2994,11 @@
       </c>
       <c r="O24" s="15">
         <f t="shared" si="14"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P24" s="16">
         <f t="shared" si="14"/>
-        <v>46659</v>
+        <v>47141</v>
       </c>
       <c r="Q24" s="16">
         <f t="shared" si="21"/>
@@ -3010,11 +3010,11 @@
       </c>
       <c r="S24" s="15">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T24" s="16">
         <f t="shared" si="23"/>
-        <v>9588</v>
+        <v>11283</v>
       </c>
       <c r="U24" s="16">
         <f t="shared" si="24"/>
@@ -3026,11 +3026,11 @@
       </c>
       <c r="W24" s="15">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X24" s="16">
         <f t="shared" si="23"/>
-        <v>45844</v>
+        <v>46200</v>
       </c>
       <c r="Y24" s="16">
         <f t="shared" si="26"/>
@@ -3042,11 +3042,11 @@
       </c>
       <c r="AA24" s="15">
         <f t="shared" si="23"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB24" s="16">
         <f t="shared" si="23"/>
-        <v>56922</v>
+        <v>61270</v>
       </c>
       <c r="AC24" s="16">
         <f t="shared" si="28"/>
@@ -3074,11 +3074,11 @@
       </c>
       <c r="C25" s="15">
         <f t="shared" si="14"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D25" s="16">
         <f t="shared" si="14"/>
-        <v>36296</v>
+        <v>37201</v>
       </c>
       <c r="E25" s="16">
         <f t="shared" si="15"/>
@@ -3090,11 +3090,11 @@
       </c>
       <c r="G25" s="15">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H25" s="16">
         <f t="shared" si="14"/>
-        <v>33034</v>
+        <v>39842</v>
       </c>
       <c r="I25" s="16">
         <f t="shared" si="17"/>
@@ -3106,11 +3106,11 @@
       </c>
       <c r="K25" s="15">
         <f t="shared" si="14"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L25" s="16">
         <f t="shared" si="14"/>
-        <v>48988</v>
+        <v>53751</v>
       </c>
       <c r="M25" s="16">
         <f t="shared" si="19"/>
@@ -3122,11 +3122,11 @@
       </c>
       <c r="O25" s="15">
         <f t="shared" si="14"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P25" s="16">
         <f t="shared" si="14"/>
-        <v>46659</v>
+        <v>47141</v>
       </c>
       <c r="Q25" s="16">
         <f t="shared" si="21"/>
@@ -3138,11 +3138,11 @@
       </c>
       <c r="S25" s="15">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T25" s="16">
         <f t="shared" si="23"/>
-        <v>9588</v>
+        <v>11283</v>
       </c>
       <c r="U25" s="16">
         <f t="shared" si="24"/>
@@ -3154,11 +3154,11 @@
       </c>
       <c r="W25" s="15">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X25" s="16">
         <f t="shared" si="23"/>
-        <v>45844</v>
+        <v>46200</v>
       </c>
       <c r="Y25" s="16">
         <f t="shared" si="26"/>
@@ -3170,11 +3170,11 @@
       </c>
       <c r="AA25" s="15">
         <f t="shared" si="23"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB25" s="16">
         <f t="shared" si="23"/>
-        <v>56922</v>
+        <v>61270</v>
       </c>
       <c r="AC25" s="16">
         <f t="shared" si="28"/>
@@ -3202,11 +3202,11 @@
       </c>
       <c r="C26" s="15">
         <f t="shared" si="14"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D26" s="16">
         <f t="shared" si="14"/>
-        <v>36296</v>
+        <v>37201</v>
       </c>
       <c r="E26" s="16">
         <f t="shared" si="15"/>
@@ -3218,11 +3218,11 @@
       </c>
       <c r="G26" s="15">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H26" s="16">
         <f t="shared" si="14"/>
-        <v>33034</v>
+        <v>39842</v>
       </c>
       <c r="I26" s="16">
         <f t="shared" si="17"/>
@@ -3234,11 +3234,11 @@
       </c>
       <c r="K26" s="15">
         <f t="shared" si="14"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L26" s="16">
         <f t="shared" si="14"/>
-        <v>48988</v>
+        <v>53751</v>
       </c>
       <c r="M26" s="16">
         <f t="shared" si="19"/>
@@ -3250,11 +3250,11 @@
       </c>
       <c r="O26" s="15">
         <f t="shared" si="14"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P26" s="16">
         <f t="shared" si="14"/>
-        <v>46659</v>
+        <v>47141</v>
       </c>
       <c r="Q26" s="16">
         <f t="shared" si="21"/>
@@ -3266,11 +3266,11 @@
       </c>
       <c r="S26" s="15">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T26" s="16">
         <f t="shared" si="23"/>
-        <v>9588</v>
+        <v>11283</v>
       </c>
       <c r="U26" s="16">
         <f t="shared" si="24"/>
@@ -3282,11 +3282,11 @@
       </c>
       <c r="W26" s="15">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X26" s="16">
         <f t="shared" si="23"/>
-        <v>45844</v>
+        <v>46200</v>
       </c>
       <c r="Y26" s="16">
         <f t="shared" si="26"/>
@@ -3298,11 +3298,11 @@
       </c>
       <c r="AA26" s="15">
         <f t="shared" si="23"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB26" s="16">
         <f t="shared" si="23"/>
-        <v>56922</v>
+        <v>61270</v>
       </c>
       <c r="AC26" s="16">
         <f t="shared" si="28"/>
@@ -3330,11 +3330,11 @@
       </c>
       <c r="C27" s="15">
         <f t="shared" ref="C27:P40" si="31">C28</f>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D27" s="16">
         <f t="shared" si="31"/>
-        <v>36296</v>
+        <v>37201</v>
       </c>
       <c r="E27" s="16">
         <f t="shared" si="15"/>
@@ -3346,11 +3346,11 @@
       </c>
       <c r="G27" s="15">
         <f t="shared" si="31"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H27" s="16">
         <f t="shared" si="31"/>
-        <v>33034</v>
+        <v>39842</v>
       </c>
       <c r="I27" s="16">
         <f t="shared" si="17"/>
@@ -3362,11 +3362,11 @@
       </c>
       <c r="K27" s="15">
         <f t="shared" si="31"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L27" s="16">
         <f t="shared" si="31"/>
-        <v>48988</v>
+        <v>53751</v>
       </c>
       <c r="M27" s="16">
         <f t="shared" si="19"/>
@@ -3378,11 +3378,11 @@
       </c>
       <c r="O27" s="15">
         <f t="shared" si="31"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P27" s="16">
         <f t="shared" si="31"/>
-        <v>46659</v>
+        <v>47141</v>
       </c>
       <c r="Q27" s="16">
         <f t="shared" si="21"/>
@@ -3394,11 +3394,11 @@
       </c>
       <c r="S27" s="15">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T27" s="16">
         <f t="shared" si="23"/>
-        <v>9588</v>
+        <v>11283</v>
       </c>
       <c r="U27" s="16">
         <f t="shared" si="24"/>
@@ -3410,11 +3410,11 @@
       </c>
       <c r="W27" s="15">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X27" s="16">
         <f t="shared" si="23"/>
-        <v>45844</v>
+        <v>46200</v>
       </c>
       <c r="Y27" s="16">
         <f t="shared" si="26"/>
@@ -3426,11 +3426,11 @@
       </c>
       <c r="AA27" s="15">
         <f t="shared" si="23"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB27" s="16">
         <f t="shared" si="23"/>
-        <v>56922</v>
+        <v>61270</v>
       </c>
       <c r="AC27" s="16">
         <f t="shared" si="28"/>
@@ -3458,11 +3458,11 @@
       </c>
       <c r="C28" s="15">
         <f t="shared" si="31"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D28" s="16">
         <f t="shared" si="31"/>
-        <v>36296</v>
+        <v>37201</v>
       </c>
       <c r="E28" s="16">
         <f t="shared" si="15"/>
@@ -3474,11 +3474,11 @@
       </c>
       <c r="G28" s="15">
         <f t="shared" si="31"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H28" s="16">
         <f t="shared" si="31"/>
-        <v>33034</v>
+        <v>39842</v>
       </c>
       <c r="I28" s="16">
         <f t="shared" si="17"/>
@@ -3490,11 +3490,11 @@
       </c>
       <c r="K28" s="15">
         <f t="shared" si="31"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L28" s="16">
         <f t="shared" si="31"/>
-        <v>48988</v>
+        <v>53751</v>
       </c>
       <c r="M28" s="16">
         <f t="shared" si="19"/>
@@ -3506,11 +3506,11 @@
       </c>
       <c r="O28" s="15">
         <f t="shared" si="31"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P28" s="16">
         <f t="shared" si="31"/>
-        <v>46659</v>
+        <v>47141</v>
       </c>
       <c r="Q28" s="16">
         <f t="shared" si="21"/>
@@ -3522,11 +3522,11 @@
       </c>
       <c r="S28" s="15">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T28" s="16">
         <f t="shared" si="23"/>
-        <v>9588</v>
+        <v>11283</v>
       </c>
       <c r="U28" s="16">
         <f t="shared" si="24"/>
@@ -3538,11 +3538,11 @@
       </c>
       <c r="W28" s="15">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X28" s="16">
         <f t="shared" si="23"/>
-        <v>45844</v>
+        <v>46200</v>
       </c>
       <c r="Y28" s="16">
         <f t="shared" si="26"/>
@@ -3554,11 +3554,11 @@
       </c>
       <c r="AA28" s="15">
         <f t="shared" si="23"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB28" s="16">
         <f t="shared" si="23"/>
-        <v>56922</v>
+        <v>61270</v>
       </c>
       <c r="AC28" s="16">
         <f t="shared" si="28"/>
@@ -3586,11 +3586,11 @@
       </c>
       <c r="C29" s="15">
         <f t="shared" si="31"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D29" s="16">
         <f t="shared" si="31"/>
-        <v>36296</v>
+        <v>37201</v>
       </c>
       <c r="E29" s="16">
         <f t="shared" si="15"/>
@@ -3602,11 +3602,11 @@
       </c>
       <c r="G29" s="15">
         <f t="shared" si="31"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H29" s="16">
         <f t="shared" si="31"/>
-        <v>33034</v>
+        <v>39842</v>
       </c>
       <c r="I29" s="16">
         <f t="shared" si="17"/>
@@ -3618,11 +3618,11 @@
       </c>
       <c r="K29" s="15">
         <f t="shared" si="31"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L29" s="16">
         <f t="shared" si="31"/>
-        <v>48988</v>
+        <v>53751</v>
       </c>
       <c r="M29" s="16">
         <f t="shared" si="19"/>
@@ -3634,11 +3634,11 @@
       </c>
       <c r="O29" s="15">
         <f t="shared" si="31"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P29" s="16">
         <f t="shared" si="31"/>
-        <v>46659</v>
+        <v>47141</v>
       </c>
       <c r="Q29" s="16">
         <f t="shared" si="21"/>
@@ -3650,11 +3650,11 @@
       </c>
       <c r="S29" s="15">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T29" s="16">
         <f t="shared" si="23"/>
-        <v>9588</v>
+        <v>11283</v>
       </c>
       <c r="U29" s="16">
         <f t="shared" si="24"/>
@@ -3666,11 +3666,11 @@
       </c>
       <c r="W29" s="15">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X29" s="16">
         <f t="shared" si="23"/>
-        <v>45844</v>
+        <v>46200</v>
       </c>
       <c r="Y29" s="16">
         <f t="shared" si="26"/>
@@ -3682,11 +3682,11 @@
       </c>
       <c r="AA29" s="15">
         <f t="shared" si="23"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB29" s="16">
         <f t="shared" si="23"/>
-        <v>56922</v>
+        <v>61270</v>
       </c>
       <c r="AC29" s="16">
         <f t="shared" si="28"/>
@@ -3714,11 +3714,11 @@
       </c>
       <c r="C30" s="15">
         <f t="shared" si="31"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D30" s="16">
         <f t="shared" si="31"/>
-        <v>36296</v>
+        <v>37201</v>
       </c>
       <c r="E30" s="16">
         <f t="shared" si="15"/>
@@ -3730,11 +3730,11 @@
       </c>
       <c r="G30" s="15">
         <f t="shared" si="31"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H30" s="16">
         <f t="shared" si="31"/>
-        <v>33034</v>
+        <v>39842</v>
       </c>
       <c r="I30" s="16">
         <f t="shared" si="17"/>
@@ -3746,11 +3746,11 @@
       </c>
       <c r="K30" s="15">
         <f t="shared" si="31"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L30" s="16">
         <f t="shared" si="31"/>
-        <v>48988</v>
+        <v>53751</v>
       </c>
       <c r="M30" s="16">
         <f t="shared" si="19"/>
@@ -3762,11 +3762,11 @@
       </c>
       <c r="O30" s="15">
         <f t="shared" si="31"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P30" s="16">
         <f t="shared" si="31"/>
-        <v>46659</v>
+        <v>47141</v>
       </c>
       <c r="Q30" s="16">
         <f t="shared" si="21"/>
@@ -3778,11 +3778,11 @@
       </c>
       <c r="S30" s="15">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T30" s="16">
         <f t="shared" si="23"/>
-        <v>9588</v>
+        <v>11283</v>
       </c>
       <c r="U30" s="16">
         <f t="shared" si="24"/>
@@ -3794,11 +3794,11 @@
       </c>
       <c r="W30" s="15">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X30" s="16">
         <f t="shared" si="23"/>
-        <v>45844</v>
+        <v>46200</v>
       </c>
       <c r="Y30" s="16">
         <f t="shared" si="26"/>
@@ -3810,11 +3810,11 @@
       </c>
       <c r="AA30" s="15">
         <f t="shared" si="23"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB30" s="16">
         <f t="shared" si="23"/>
-        <v>56922</v>
+        <v>61270</v>
       </c>
       <c r="AC30" s="16">
         <f t="shared" si="28"/>
@@ -3842,11 +3842,11 @@
       </c>
       <c r="C31" s="15">
         <f t="shared" si="31"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D31" s="16">
         <f t="shared" si="31"/>
-        <v>36296</v>
+        <v>37201</v>
       </c>
       <c r="E31" s="16">
         <f t="shared" si="15"/>
@@ -3858,11 +3858,11 @@
       </c>
       <c r="G31" s="15">
         <f t="shared" si="31"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H31" s="16">
         <f t="shared" si="31"/>
-        <v>33034</v>
+        <v>39842</v>
       </c>
       <c r="I31" s="16">
         <f t="shared" si="17"/>
@@ -3874,11 +3874,11 @@
       </c>
       <c r="K31" s="15">
         <f t="shared" si="31"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L31" s="16">
         <f t="shared" si="31"/>
-        <v>48988</v>
+        <v>53751</v>
       </c>
       <c r="M31" s="16">
         <f t="shared" si="19"/>
@@ -3890,11 +3890,11 @@
       </c>
       <c r="O31" s="15">
         <f t="shared" si="31"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P31" s="16">
         <f t="shared" si="31"/>
-        <v>46659</v>
+        <v>47141</v>
       </c>
       <c r="Q31" s="16">
         <f t="shared" si="21"/>
@@ -3906,11 +3906,11 @@
       </c>
       <c r="S31" s="15">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T31" s="16">
         <f t="shared" si="23"/>
-        <v>9588</v>
+        <v>11283</v>
       </c>
       <c r="U31" s="16">
         <f t="shared" si="24"/>
@@ -3922,11 +3922,11 @@
       </c>
       <c r="W31" s="15">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X31" s="16">
         <f t="shared" si="23"/>
-        <v>45844</v>
+        <v>46200</v>
       </c>
       <c r="Y31" s="16">
         <f t="shared" si="26"/>
@@ -3938,11 +3938,11 @@
       </c>
       <c r="AA31" s="15">
         <f t="shared" si="23"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB31" s="16">
         <f t="shared" si="23"/>
-        <v>56922</v>
+        <v>61270</v>
       </c>
       <c r="AC31" s="16">
         <f t="shared" si="28"/>
@@ -3970,11 +3970,11 @@
       </c>
       <c r="C32" s="15">
         <f t="shared" si="31"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D32" s="16">
         <f t="shared" si="31"/>
-        <v>36296</v>
+        <v>37201</v>
       </c>
       <c r="E32" s="16">
         <f t="shared" si="15"/>
@@ -3986,11 +3986,11 @@
       </c>
       <c r="G32" s="15">
         <f t="shared" si="31"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H32" s="16">
         <f t="shared" si="31"/>
-        <v>33034</v>
+        <v>39842</v>
       </c>
       <c r="I32" s="16">
         <f t="shared" si="17"/>
@@ -4002,11 +4002,11 @@
       </c>
       <c r="K32" s="15">
         <f t="shared" si="31"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L32" s="16">
         <f t="shared" si="31"/>
-        <v>48988</v>
+        <v>53751</v>
       </c>
       <c r="M32" s="16">
         <f t="shared" si="19"/>
@@ -4018,11 +4018,11 @@
       </c>
       <c r="O32" s="15">
         <f t="shared" si="31"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P32" s="16">
         <f t="shared" si="31"/>
-        <v>46659</v>
+        <v>47141</v>
       </c>
       <c r="Q32" s="16">
         <f t="shared" si="21"/>
@@ -4034,11 +4034,11 @@
       </c>
       <c r="S32" s="15">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T32" s="16">
         <f t="shared" si="23"/>
-        <v>9588</v>
+        <v>11283</v>
       </c>
       <c r="U32" s="16">
         <f t="shared" si="24"/>
@@ -4050,11 +4050,11 @@
       </c>
       <c r="W32" s="15">
         <f t="shared" ref="W32:AB37" si="33">W33</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X32" s="16">
         <f t="shared" si="33"/>
-        <v>45844</v>
+        <v>46200</v>
       </c>
       <c r="Y32" s="16">
         <f t="shared" si="26"/>
@@ -4066,11 +4066,11 @@
       </c>
       <c r="AA32" s="15">
         <f t="shared" si="33"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB32" s="16">
         <f t="shared" si="33"/>
-        <v>56922</v>
+        <v>61270</v>
       </c>
       <c r="AC32" s="16">
         <f t="shared" si="28"/>
@@ -4098,11 +4098,11 @@
       </c>
       <c r="C33" s="15">
         <f t="shared" si="31"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D33" s="16">
         <f t="shared" si="31"/>
-        <v>36296</v>
+        <v>37201</v>
       </c>
       <c r="E33" s="16">
         <f t="shared" si="15"/>
@@ -4114,11 +4114,11 @@
       </c>
       <c r="G33" s="15">
         <f t="shared" si="31"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H33" s="16">
         <f t="shared" si="31"/>
-        <v>33034</v>
+        <v>39842</v>
       </c>
       <c r="I33" s="16">
         <f t="shared" si="17"/>
@@ -4130,11 +4130,11 @@
       </c>
       <c r="K33" s="15">
         <f t="shared" si="31"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L33" s="16">
         <f t="shared" si="31"/>
-        <v>48988</v>
+        <v>53751</v>
       </c>
       <c r="M33" s="16">
         <f t="shared" si="19"/>
@@ -4146,11 +4146,11 @@
       </c>
       <c r="O33" s="15">
         <f t="shared" si="31"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P33" s="16">
         <f t="shared" si="31"/>
-        <v>46659</v>
+        <v>47141</v>
       </c>
       <c r="Q33" s="16">
         <f t="shared" si="21"/>
@@ -4162,11 +4162,11 @@
       </c>
       <c r="S33" s="15">
         <f t="shared" ref="S33:T39" si="34">S34</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T33" s="16">
         <f t="shared" si="34"/>
-        <v>9588</v>
+        <v>11283</v>
       </c>
       <c r="U33" s="16">
         <f t="shared" si="24"/>
@@ -4178,11 +4178,11 @@
       </c>
       <c r="W33" s="15">
         <f t="shared" si="33"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X33" s="16">
         <f t="shared" si="33"/>
-        <v>45844</v>
+        <v>46200</v>
       </c>
       <c r="Y33" s="16">
         <f t="shared" si="26"/>
@@ -4194,11 +4194,11 @@
       </c>
       <c r="AA33" s="15">
         <f t="shared" si="33"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB33" s="16">
         <f t="shared" si="33"/>
-        <v>56922</v>
+        <v>61270</v>
       </c>
       <c r="AC33" s="16">
         <f t="shared" si="28"/>
@@ -4226,11 +4226,11 @@
       </c>
       <c r="C34" s="15">
         <f t="shared" si="31"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D34" s="16">
         <f t="shared" si="31"/>
-        <v>36296</v>
+        <v>37201</v>
       </c>
       <c r="E34" s="16">
         <f t="shared" si="15"/>
@@ -4242,11 +4242,11 @@
       </c>
       <c r="G34" s="15">
         <f t="shared" si="31"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H34" s="16">
         <f t="shared" si="31"/>
-        <v>33034</v>
+        <v>39842</v>
       </c>
       <c r="I34" s="16">
         <f t="shared" si="17"/>
@@ -4258,11 +4258,11 @@
       </c>
       <c r="K34" s="15">
         <f t="shared" si="31"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L34" s="16">
         <f t="shared" si="31"/>
-        <v>48988</v>
+        <v>53751</v>
       </c>
       <c r="M34" s="16">
         <f t="shared" si="19"/>
@@ -4274,11 +4274,11 @@
       </c>
       <c r="O34" s="15">
         <f t="shared" si="31"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P34" s="16">
         <f t="shared" si="31"/>
-        <v>46659</v>
+        <v>47141</v>
       </c>
       <c r="Q34" s="16">
         <f t="shared" si="21"/>
@@ -4290,11 +4290,11 @@
       </c>
       <c r="S34" s="15">
         <f t="shared" si="34"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T34" s="16">
         <f t="shared" si="34"/>
-        <v>9588</v>
+        <v>11283</v>
       </c>
       <c r="U34" s="16">
         <f t="shared" si="24"/>
@@ -4306,11 +4306,11 @@
       </c>
       <c r="W34" s="15">
         <f t="shared" si="33"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X34" s="16">
         <f t="shared" si="33"/>
-        <v>45844</v>
+        <v>46200</v>
       </c>
       <c r="Y34" s="16">
         <f t="shared" si="26"/>
@@ -4322,11 +4322,11 @@
       </c>
       <c r="AA34" s="15">
         <f t="shared" si="33"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB34" s="16">
         <f t="shared" si="33"/>
-        <v>56922</v>
+        <v>61270</v>
       </c>
       <c r="AC34" s="16">
         <f t="shared" si="28"/>
@@ -4345,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:36" hidden="1">
+    <row r="35" spans="1:36">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -4354,11 +4354,10 @@
       </c>
       <c r="C35" s="15">
         <f t="shared" si="31"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D35" s="16">
-        <f t="shared" si="31"/>
-        <v>36296</v>
+        <v>37201</v>
       </c>
       <c r="E35" s="16">
         <f t="shared" si="15"/>
@@ -4366,111 +4365,99 @@
       </c>
       <c r="F35" s="17">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="15">
-        <f t="shared" si="31"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H35" s="16">
-        <f t="shared" si="31"/>
-        <v>33034</v>
+        <v>39842</v>
       </c>
       <c r="I35" s="16">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J35" s="17">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>2155</v>
       </c>
       <c r="K35" s="15">
-        <f t="shared" si="31"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L35" s="16">
-        <f t="shared" si="31"/>
-        <v>48988</v>
+        <v>53751</v>
       </c>
       <c r="M35" s="16">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="17">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1981</v>
       </c>
       <c r="O35" s="15">
-        <f t="shared" si="31"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P35" s="16">
-        <f t="shared" si="31"/>
-        <v>46659</v>
+        <v>47141</v>
       </c>
       <c r="Q35" s="16">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="17">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="S35" s="15">
-        <f t="shared" si="34"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T35" s="16">
-        <f t="shared" si="34"/>
-        <v>9588</v>
+        <v>11283</v>
       </c>
       <c r="U35" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V35" s="17">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1695</v>
       </c>
       <c r="W35" s="15">
-        <f t="shared" si="33"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X35" s="16">
-        <f t="shared" si="33"/>
-        <v>45844</v>
+        <v>46200</v>
       </c>
       <c r="Y35" s="16">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35" s="17">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="AA35" s="15">
-        <f t="shared" si="33"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB35" s="16">
-        <f t="shared" si="33"/>
-        <v>56922</v>
+        <v>61270</v>
       </c>
       <c r="AC35" s="16">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD35" s="17">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>4348</v>
       </c>
       <c r="AE35" s="4">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AF35" s="4">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>11018</v>
       </c>
     </row>
     <row r="36" spans="1:36">
@@ -4481,48 +4468,46 @@
         <v>41998</v>
       </c>
       <c r="C36" s="15">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D36" s="16">
-        <v>36296</v>
+        <v>37200</v>
       </c>
       <c r="E36" s="16">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F36" s="17">
         <f t="shared" si="16"/>
-        <v>2396</v>
+        <v>3300</v>
       </c>
       <c r="G36" s="15">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H36" s="16">
-        <v>33034</v>
+        <v>37687</v>
       </c>
       <c r="I36" s="16">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J36" s="17">
         <f t="shared" si="18"/>
-        <v>18635</v>
+        <v>23288</v>
       </c>
       <c r="K36" s="15">
-        <f t="shared" si="31"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L36" s="16">
-        <f t="shared" si="31"/>
-        <v>48988</v>
+        <v>51770</v>
       </c>
       <c r="M36" s="16">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N36" s="17">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2782</v>
       </c>
       <c r="O36" s="15">
         <v>68</v>
@@ -4582,11 +4567,26 @@
       </c>
       <c r="AE36" s="4">
         <f t="shared" si="32"/>
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="AF36" s="4">
         <f t="shared" si="32"/>
-        <v>32329</v>
+        <v>40668</v>
+      </c>
+      <c r="AG36">
+        <v>16592</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" ref="AH36" si="35">AG36-AG37</f>
+        <v>56</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" ref="AI36" si="36">AE36/$AH36</f>
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="AJ36">
+        <f t="shared" ref="AJ36" si="37">AF36/$AH36</f>
+        <v>726.21428571428567</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -4711,15 +4711,15 @@
         <v>16536</v>
       </c>
       <c r="AH37">
-        <f t="shared" ref="AH37:AH38" si="35">AG37-AG38</f>
+        <f t="shared" ref="AH37:AH38" si="38">AG37-AG38</f>
         <v>22</v>
       </c>
       <c r="AI37">
-        <f t="shared" ref="AI37:AJ40" si="36">AE37/$AH37</f>
+        <f t="shared" ref="AI37:AJ40" si="39">AE37/$AH37</f>
         <v>1.1363636363636365</v>
       </c>
       <c r="AJ37">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>1342.409090909091</v>
       </c>
     </row>
@@ -4844,15 +4844,15 @@
         <v>16514</v>
       </c>
       <c r="AH38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>27</v>
       </c>
       <c r="AI38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="AJ38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>494.74074074074076</v>
       </c>
     </row>
@@ -4983,11 +4983,11 @@
         <v>10</v>
       </c>
       <c r="AI39">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>1.4</v>
       </c>
       <c r="AJ39">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>793</v>
       </c>
     </row>
@@ -5113,11 +5113,11 @@
         <v>28</v>
       </c>
       <c r="AI40">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="AJ40">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>1449.1071428571429</v>
       </c>
     </row>
@@ -5252,26 +5252,26 @@
         <v>17472</v>
       </c>
       <c r="E42" s="16">
-        <f t="shared" ref="E42:F44" si="37">C42-C43</f>
+        <f t="shared" ref="E42:F44" si="40">C42-C43</f>
         <v>4</v>
       </c>
       <c r="F42" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>3603</v>
       </c>
       <c r="G42" s="15">
-        <f t="shared" ref="G42:T43" si="38">G43</f>
+        <f t="shared" ref="G42:T43" si="41">G43</f>
         <v>0</v>
       </c>
       <c r="H42" s="16">
         <v>2587</v>
       </c>
       <c r="I42" s="16">
-        <f t="shared" ref="I42:J44" si="39">G42-G43</f>
+        <f t="shared" ref="I42:J44" si="42">G42-G43</f>
         <v>0</v>
       </c>
       <c r="J42" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2121</v>
       </c>
       <c r="K42" s="15">
@@ -5281,11 +5281,11 @@
         <v>17845</v>
       </c>
       <c r="M42" s="16">
-        <f t="shared" ref="M42:N44" si="40">K42-K43</f>
+        <f t="shared" ref="M42:N44" si="43">K42-K43</f>
         <v>0</v>
       </c>
       <c r="N42" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1145</v>
       </c>
       <c r="O42" s="15">
@@ -5295,26 +5295,26 @@
         <v>15917</v>
       </c>
       <c r="Q42" s="16">
-        <f t="shared" ref="Q42:R44" si="41">O42-O43</f>
+        <f t="shared" ref="Q42:R44" si="44">O42-O43</f>
         <v>2</v>
       </c>
       <c r="R42" s="17">
+        <f t="shared" si="44"/>
+        <v>2510</v>
+      </c>
+      <c r="S42" s="15">
         <f t="shared" si="41"/>
-        <v>2510</v>
-      </c>
-      <c r="S42" s="15">
-        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="T42" s="16">
         <v>0</v>
       </c>
       <c r="U42" s="16">
-        <f t="shared" ref="U42:V44" si="42">S42-S43</f>
+        <f t="shared" ref="U42:V44" si="45">S42-S43</f>
         <v>0</v>
       </c>
       <c r="V42" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W42" s="15">
@@ -5324,11 +5324,11 @@
         <v>6800</v>
       </c>
       <c r="Y42" s="16">
-        <f t="shared" ref="Y42:Z44" si="43">W42-W43</f>
+        <f t="shared" ref="Y42:Z44" si="46">W42-W43</f>
         <v>5</v>
       </c>
       <c r="Z42" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>2138</v>
       </c>
       <c r="AA42" s="15">
@@ -5338,11 +5338,11 @@
         <v>19779</v>
       </c>
       <c r="AC42" s="16">
-        <f t="shared" ref="AC42:AD44" si="44">AA42-AA43</f>
+        <f t="shared" ref="AC42:AD44" si="47">AA42-AA43</f>
         <v>6</v>
       </c>
       <c r="AD42" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>8542</v>
       </c>
       <c r="AE42" s="4">
@@ -5368,26 +5368,26 @@
         <v>13869</v>
       </c>
       <c r="E43" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="F43" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>5719</v>
       </c>
       <c r="G43" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="H43" s="16">
         <v>466</v>
       </c>
       <c r="I43" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J43" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>466</v>
       </c>
       <c r="K43" s="15">
@@ -5397,11 +5397,11 @@
         <v>16700</v>
       </c>
       <c r="M43" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="N43" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>14</v>
       </c>
       <c r="O43" s="15">
@@ -5411,27 +5411,27 @@
         <v>13407</v>
       </c>
       <c r="Q43" s="16">
+        <f t="shared" si="44"/>
+        <v>12</v>
+      </c>
+      <c r="R43" s="17">
+        <f t="shared" si="44"/>
+        <v>7199</v>
+      </c>
+      <c r="S43" s="15">
         <f t="shared" si="41"/>
-        <v>12</v>
-      </c>
-      <c r="R43" s="17">
+        <v>0</v>
+      </c>
+      <c r="T43" s="16">
         <f t="shared" si="41"/>
-        <v>7199</v>
-      </c>
-      <c r="S43" s="15">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="T43" s="16">
-        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="U43" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V43" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W43" s="15">
@@ -5441,11 +5441,11 @@
         <v>4662</v>
       </c>
       <c r="Y43" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>3</v>
       </c>
       <c r="Z43" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>3582</v>
       </c>
       <c r="AA43" s="15">
@@ -5455,11 +5455,11 @@
         <v>11237</v>
       </c>
       <c r="AC43" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="AD43" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1879</v>
       </c>
       <c r="AE43" s="4">
@@ -5485,11 +5485,11 @@
         <v>8150</v>
       </c>
       <c r="E44" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="F44" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>4075</v>
       </c>
       <c r="G44" s="15">
@@ -5499,11 +5499,11 @@
         <v>0</v>
       </c>
       <c r="I44" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J44" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="K44" s="15">
@@ -5513,11 +5513,11 @@
         <v>16686</v>
       </c>
       <c r="M44" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>8</v>
       </c>
       <c r="N44" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>8343</v>
       </c>
       <c r="O44" s="15">
@@ -5527,11 +5527,11 @@
         <v>6208</v>
       </c>
       <c r="Q44" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>5</v>
       </c>
       <c r="R44" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>3104</v>
       </c>
       <c r="S44" s="15">
@@ -5541,11 +5541,11 @@
         <v>0</v>
       </c>
       <c r="U44" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V44" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W44" s="15">
@@ -5555,11 +5555,11 @@
         <v>1080</v>
       </c>
       <c r="Y44" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="Z44" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>540</v>
       </c>
       <c r="AA44" s="15">
@@ -5569,11 +5569,11 @@
         <v>9358</v>
       </c>
       <c r="AC44" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="AD44" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>4679</v>
       </c>
       <c r="AE44" s="4">
@@ -5609,11 +5609,11 @@
         <v>4075</v>
       </c>
       <c r="G45" s="15">
-        <f t="shared" ref="G45:H45" si="45">INT(G44/2)</f>
+        <f t="shared" ref="G45:H45" si="48">INT(G44/2)</f>
         <v>0</v>
       </c>
       <c r="H45" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I45" s="16">
@@ -5625,11 +5625,11 @@
         <v>0</v>
       </c>
       <c r="K45" s="15">
-        <f t="shared" ref="K45:L45" si="46">INT(K44/2)</f>
+        <f t="shared" ref="K45:L45" si="49">INT(K44/2)</f>
         <v>7</v>
       </c>
       <c r="L45" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>8343</v>
       </c>
       <c r="M45" s="16">
@@ -5641,11 +5641,11 @@
         <v>8343</v>
       </c>
       <c r="O45" s="15">
-        <f t="shared" ref="O45:P45" si="47">INT(O44/2)</f>
+        <f t="shared" ref="O45:P45" si="50">INT(O44/2)</f>
         <v>4</v>
       </c>
       <c r="P45" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>3104</v>
       </c>
       <c r="Q45" s="16">
@@ -5657,11 +5657,11 @@
         <v>3104</v>
       </c>
       <c r="S45" s="15">
-        <f t="shared" ref="S45:T45" si="48">INT(S44/2)</f>
+        <f t="shared" ref="S45:T45" si="51">INT(S44/2)</f>
         <v>0</v>
       </c>
       <c r="T45" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="U45" s="16">
@@ -5673,11 +5673,11 @@
         <v>0</v>
       </c>
       <c r="W45" s="15">
-        <f t="shared" ref="W45:X45" si="49">INT(W44/2)</f>
+        <f t="shared" ref="W45:X45" si="52">INT(W44/2)</f>
         <v>1</v>
       </c>
       <c r="X45" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>540</v>
       </c>
       <c r="Y45" s="16">
@@ -5689,11 +5689,11 @@
         <v>540</v>
       </c>
       <c r="AA45" s="15">
-        <f t="shared" ref="AA45:AB45" si="50">INT(AA44/2)</f>
+        <f t="shared" ref="AA45:AB45" si="53">INT(AA44/2)</f>
         <v>2</v>
       </c>
       <c r="AB45" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>4679</v>
       </c>
       <c r="AC45" s="16">

--- a/mission wz.xlsx
+++ b/mission wz.xlsx
@@ -259,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -744,6 +744,119 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -755,7 +868,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -894,133 +1007,175 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="46" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="47" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="44" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="45" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1401,7 +1556,7 @@
   <dimension ref="B1:AL47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1413,22 +1568,22 @@
     <col min="5" max="5" width="7" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="5" customWidth="1"/>
     <col min="17" max="17" width="6" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7" style="5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="3.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6" style="5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5.5703125" style="5" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="7" style="5" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="3.140625" style="5" hidden="1" customWidth="1"/>
@@ -1443,62 +1598,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" ht="15.75" thickBot="1">
-      <c r="D1" s="134" t="s">
+      <c r="D1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="137" t="s">
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="116" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="134" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
-      <c r="O1" s="142"/>
-      <c r="P1" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="125" t="s">
-        <v>4</v>
-      </c>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="128" t="s">
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="129"/>
-      <c r="Z1" s="129"/>
-      <c r="AA1" s="130"/>
-      <c r="AB1" s="131" t="s">
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="121"/>
+      <c r="AB1" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="133"/>
-      <c r="AF1" s="121" t="s">
+      <c r="AC1" s="123"/>
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="124"/>
+      <c r="AF1" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="AG1" s="121"/>
+      <c r="AG1" s="108"/>
       <c r="AJ1" s="1">
         <f ca="1">TODAY()</f>
-        <v>42012</v>
+        <v>42014</v>
       </c>
       <c r="AK1" s="1">
         <v>42023</v>
       </c>
       <c r="AL1">
         <f ca="1">AK1-AJ1-2</f>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:38">
@@ -1511,88 +1666,85 @@
       </c>
       <c r="E2" s="99">
         <f>(150000-F6)/150000</f>
-        <v>0.69500666666666666</v>
-      </c>
-      <c r="F2" s="122">
+        <v>0.76</v>
+      </c>
+      <c r="F2" s="109">
         <f>AVERAGE(D2:E2)</f>
-        <v>0.84750333333333328</v>
-      </c>
-      <c r="G2" s="123"/>
+        <v>0.88</v>
+      </c>
+      <c r="G2" s="110"/>
       <c r="H2" s="98">
         <f>(150-H6)/150</f>
-        <v>0.52</v>
+        <v>0.2</v>
       </c>
       <c r="I2" s="99">
         <f>(150000-J6)/150000</f>
-        <v>0.55303333333333338</v>
-      </c>
-      <c r="J2" s="122">
+        <v>0.12021999999999999</v>
+      </c>
+      <c r="J2" s="109">
         <f>AVERAGE(H2:I2)</f>
-        <v>0.53651666666666675</v>
-      </c>
-      <c r="K2" s="123"/>
+        <v>0.16011</v>
+      </c>
+      <c r="K2" s="110"/>
       <c r="L2" s="98">
         <f>(150-L6)/150</f>
-        <v>0.73333333333333328</v>
+        <v>0.78</v>
       </c>
       <c r="M2" s="99">
         <f>(150000-N6)/150000</f>
-        <v>0.92166666666666663</v>
-      </c>
-      <c r="N2" s="122">
+        <v>0.55281999999999998</v>
+      </c>
+      <c r="N2" s="109">
         <f>AVERAGE(L2:M2)</f>
-        <v>0.8274999999999999</v>
-      </c>
-      <c r="O2" s="123"/>
+        <v>0.66640999999999995</v>
+      </c>
+      <c r="O2" s="110"/>
       <c r="P2" s="98">
         <f>(150-P6)/150</f>
-        <v>0.77333333333333332</v>
+        <v>0.54</v>
       </c>
       <c r="Q2" s="99">
         <f>(150000-R6)/150000</f>
-        <v>0.54710666666666663</v>
-      </c>
-      <c r="R2" s="122">
+        <v>0.57289333333333337</v>
+      </c>
+      <c r="R2" s="109">
         <f>AVERAGE(P2:Q2)</f>
-        <v>0.66022000000000003</v>
-      </c>
-      <c r="S2" s="123"/>
+        <v>0.55644666666666676</v>
+      </c>
+      <c r="S2" s="110"/>
       <c r="T2" s="98">
         <f>(150-T6)/150</f>
-        <v>0.18666666666666668</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="U2" s="99">
         <f>(150000-V6)/150000</f>
-        <v>0.11545999999999999</v>
-      </c>
-      <c r="V2" s="122">
+        <v>0.94664000000000004</v>
+      </c>
+      <c r="V2" s="109">
         <f>AVERAGE(T2:U2)</f>
-        <v>0.15106333333333333</v>
-      </c>
-      <c r="W2" s="123"/>
-      <c r="X2" s="98">
-        <f>(150-X6)/150</f>
+        <v>0.84665333333333337</v>
+      </c>
+      <c r="W2" s="110"/>
+      <c r="X2" s="145">
+        <f t="shared" ref="X2" si="0">(150-X6)/150</f>
         <v>1</v>
       </c>
-      <c r="Y2" s="99">
-        <f>(150000-Z6)/150000</f>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="112">
+        <f t="shared" ref="Z2" si="1">(150000-Z6)/150000</f>
         <v>1</v>
       </c>
-      <c r="Z2" s="122">
-        <f>AVERAGE(X2:Y2)</f>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="114">
+        <f t="shared" ref="AB2" si="2">(150-AB6)/150</f>
         <v>1</v>
       </c>
-      <c r="AA2" s="123"/>
-      <c r="AB2" s="124">
-        <f t="shared" ref="AB2" si="0">(150-AB6)/150</f>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115">
+        <f t="shared" ref="AD2" si="3">(150000-AD6)/150000</f>
         <v>1</v>
       </c>
-      <c r="AC2" s="116"/>
-      <c r="AD2" s="116">
-        <f t="shared" ref="AD2" si="1">(150000-AD6)/150000</f>
-        <v>1</v>
-      </c>
-      <c r="AE2" s="117"/>
+      <c r="AE2" s="137"/>
       <c r="AJ2" s="1">
         <v>41989</v>
       </c>
@@ -1608,83 +1760,83 @@
       <c r="C3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="118">
+      <c r="D3" s="104">
         <f ca="1">IF(D6&lt;0,0,INT(D6/$AL$1))</f>
         <v>0</v>
       </c>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119">
+      <c r="E3" s="105"/>
+      <c r="F3" s="105">
         <f ca="1">IF(F6&lt;0,0,INT(F6/$AL$1))</f>
-        <v>5083</v>
-      </c>
-      <c r="G3" s="120"/>
-      <c r="H3" s="118">
-        <f t="shared" ref="H3" ca="1" si="2">IF(H6&lt;0,0,INT(H6/$AL$1))</f>
-        <v>8</v>
-      </c>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119">
-        <f t="shared" ref="J3" ca="1" si="3">IF(J6&lt;0,0,INT(J6/$AL$1))</f>
-        <v>7449</v>
-      </c>
-      <c r="K3" s="120"/>
-      <c r="L3" s="118">
-        <f t="shared" ref="L3" ca="1" si="4">IF(L6&lt;0,0,INT(L6/$AL$1))</f>
+        <v>5142</v>
+      </c>
+      <c r="G3" s="111"/>
+      <c r="H3" s="104">
+        <f t="shared" ref="H3" ca="1" si="4">IF(H6&lt;0,0,INT(H6/$AL$1))</f>
+        <v>17</v>
+      </c>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105">
+        <f t="shared" ref="J3" ca="1" si="5">IF(J6&lt;0,0,INT(J6/$AL$1))</f>
+        <v>18852</v>
+      </c>
+      <c r="K3" s="111"/>
+      <c r="L3" s="104">
+        <f t="shared" ref="L3" ca="1" si="6">IF(L6&lt;0,0,INT(L6/$AL$1))</f>
         <v>4</v>
       </c>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119">
-        <f t="shared" ref="N3" ca="1" si="5">IF(N6&lt;0,0,INT(N6/$AL$1))</f>
-        <v>1305</v>
-      </c>
-      <c r="O3" s="120"/>
-      <c r="P3" s="118">
-        <f t="shared" ref="P3" ca="1" si="6">IF(P6&lt;0,0,INT(P6/$AL$1))</f>
-        <v>3</v>
-      </c>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="119">
-        <f t="shared" ref="R3" ca="1" si="7">IF(R6&lt;0,0,INT(R6/$AL$1))</f>
-        <v>7548</v>
-      </c>
-      <c r="S3" s="120"/>
-      <c r="T3" s="118">
-        <f t="shared" ref="T3" ca="1" si="8">IF(T6&lt;0,0,INT(T6/$AL$1))</f>
-        <v>13</v>
-      </c>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119">
-        <f t="shared" ref="V3" ca="1" si="9">IF(V6&lt;0,0,INT(V6/$AL$1))</f>
-        <v>14742</v>
-      </c>
-      <c r="W3" s="120"/>
-      <c r="X3" s="118">
-        <f t="shared" ref="X3" ca="1" si="10">IF(X6&lt;0,0,INT(X6/$AL$1))</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="119"/>
-      <c r="Z3" s="119">
-        <f t="shared" ref="Z3" ca="1" si="11">IF(Z6&lt;0,0,INT(Z6/$AL$1))</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="102">
-        <f t="shared" ref="AB3" ca="1" si="12">IF(AB6&lt;0,0,INT(AB6/$AL$1))</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="103"/>
-      <c r="AD3" s="103">
-        <f t="shared" ref="AD3" ca="1" si="13">IF(AD6&lt;0,0,INT(AD6/$AL$1))</f>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="104"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105">
+        <f t="shared" ref="N3" ca="1" si="7">IF(N6&lt;0,0,INT(N6/$AL$1))</f>
+        <v>9582</v>
+      </c>
+      <c r="O3" s="111"/>
+      <c r="P3" s="104">
+        <f t="shared" ref="P3" ca="1" si="8">IF(P6&lt;0,0,INT(P6/$AL$1))</f>
+        <v>9</v>
+      </c>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105">
+        <f t="shared" ref="R3" ca="1" si="9">IF(R6&lt;0,0,INT(R6/$AL$1))</f>
+        <v>9152</v>
+      </c>
+      <c r="S3" s="111"/>
+      <c r="T3" s="104">
+        <f t="shared" ref="T3" ca="1" si="10">IF(T6&lt;0,0,INT(T6/$AL$1))</f>
+        <v>5</v>
+      </c>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105">
+        <f t="shared" ref="V3" ca="1" si="11">IF(V6&lt;0,0,INT(V6/$AL$1))</f>
+        <v>1143</v>
+      </c>
+      <c r="W3" s="111"/>
+      <c r="X3" s="138">
+        <f t="shared" ref="X3" ca="1" si="12">IF(X6&lt;0,0,INT(X6/$AL$1))</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="140">
+        <f t="shared" ref="Z3" ca="1" si="13">IF(Z6&lt;0,0,INT(Z6/$AL$1))</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="142">
+        <f t="shared" ref="AB3" ca="1" si="14">IF(AB6&lt;0,0,INT(AB6/$AL$1))</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="143"/>
+      <c r="AD3" s="143">
+        <f t="shared" ref="AD3" ca="1" si="15">IF(AD6&lt;0,0,INT(AD6/$AL$1))</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="144"/>
       <c r="AF3" s="4">
-        <f ca="1">SUM(D3,H3,L3,P3,T3,X3,AB3)</f>
-        <v>28</v>
+        <f ca="1">SUM(D3,P3,T3,L3,H3,X3,AB3)</f>
+        <v>35</v>
       </c>
       <c r="AG3" s="4">
-        <f ca="1">SUM(F3,J3,N3,R3,V3,Z3,AD3)</f>
-        <v>36127</v>
+        <f ca="1">SUM(F3,R3,V3,N3,J3,Z3,AD3)</f>
+        <v>43871</v>
       </c>
       <c r="AJ3" s="1">
         <v>41996</v>
@@ -1694,89 +1846,89 @@
       </c>
       <c r="AL3" s="2">
         <f ca="1">(AL2-AL1)/AL2</f>
-        <v>0.73529411764705888</v>
+        <v>0.79411764705882348</v>
       </c>
     </row>
     <row r="4" spans="2:38">
       <c r="C4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="110">
+      <c r="D4" s="106">
         <f>D13-D14</f>
         <v>0</v>
       </c>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108">
+      <c r="E4" s="100"/>
+      <c r="F4" s="100">
         <f>E13-E14</f>
         <v>0</v>
       </c>
-      <c r="G4" s="109"/>
-      <c r="H4" s="110">
-        <f t="shared" ref="H4" si="14">H13-H14</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108">
-        <f t="shared" ref="J4" si="15">I13-I14</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="109"/>
-      <c r="L4" s="110">
-        <f t="shared" ref="L4" si="16">L13-L14</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108">
-        <f t="shared" ref="N4" si="17">M13-M14</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="109"/>
-      <c r="P4" s="110">
-        <f t="shared" ref="P4" si="18">P13-P14</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="108">
-        <f t="shared" ref="R4" si="19">Q13-Q14</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="109"/>
-      <c r="T4" s="110">
-        <f t="shared" ref="T4" si="20">T13-T14</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108">
-        <f t="shared" ref="V4" si="21">U13-U14</f>
-        <v>0</v>
-      </c>
-      <c r="W4" s="109"/>
-      <c r="X4" s="110">
-        <f t="shared" ref="X4" si="22">X13-X14</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="108">
-        <f t="shared" ref="Z4" si="23">Y13-Y14</f>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="109"/>
-      <c r="AB4" s="102">
-        <f t="shared" ref="AB4" si="24">AB13-AB14</f>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="103"/>
-      <c r="AD4" s="103">
-        <f t="shared" ref="AD4" si="25">AC13-AC14</f>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="104"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="106">
+        <f t="shared" ref="H4" si="16">H13-H14</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100">
+        <f t="shared" ref="J4" si="17">I13-I14</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="101"/>
+      <c r="L4" s="106">
+        <f t="shared" ref="L4" si="18">L13-L14</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100">
+        <f t="shared" ref="N4" si="19">M13-M14</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="101"/>
+      <c r="P4" s="106">
+        <f t="shared" ref="P4" si="20">P13-P14</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100">
+        <f t="shared" ref="R4" si="21">Q13-Q14</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="101"/>
+      <c r="T4" s="106">
+        <f t="shared" ref="T4" si="22">T13-T14</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="100"/>
+      <c r="V4" s="100">
+        <f t="shared" ref="V4" si="23">U13-U14</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="101"/>
+      <c r="X4" s="138">
+        <f t="shared" ref="X4" si="24">X13-X14</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="139"/>
+      <c r="Z4" s="140">
+        <f t="shared" ref="Z4" si="25">Y13-Y14</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="141"/>
+      <c r="AB4" s="142">
+        <f t="shared" ref="AB4" si="26">AB13-AB14</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="143"/>
+      <c r="AD4" s="143">
+        <f t="shared" ref="AD4" si="27">AC13-AC14</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="144"/>
       <c r="AF4" s="4">
-        <f t="shared" ref="AF4" si="26">SUM(D4,H4,L4,P4,T4,X4,AB4)</f>
+        <f>SUM(D4,P4,T4,L4,H4,X4,AB4)</f>
         <v>0</v>
       </c>
       <c r="AG4" s="4">
-        <f>SUM(F4,I4,M4,Q4,U4,Y4,AC4)</f>
+        <f>SUM(F4,Q4,U4,M4,I4,Y4,AC4)</f>
         <v>0</v>
       </c>
     </row>
@@ -1784,91 +1936,91 @@
       <c r="C5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="110">
+      <c r="D5" s="106">
         <f ca="1">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-D6)</f>
-        <v>40</v>
-      </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108">
+        <v>31</v>
+      </c>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100">
         <f ca="1">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-F6)</f>
-        <v>-6043</v>
-      </c>
-      <c r="G5" s="109"/>
-      <c r="H5" s="110">
-        <f t="shared" ref="H5" ca="1" si="27">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-H6)</f>
-        <v>-32</v>
-      </c>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108">
-        <f t="shared" ref="J5" ca="1" si="28">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-J6)</f>
-        <v>-27339</v>
-      </c>
-      <c r="K5" s="109"/>
-      <c r="L5" s="110">
-        <f t="shared" ref="L5" ca="1" si="29">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-L6)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108">
-        <f t="shared" ref="N5" ca="1" si="30">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-N6)</f>
-        <v>27956</v>
-      </c>
-      <c r="O5" s="109"/>
-      <c r="P5" s="110">
-        <f t="shared" ref="P5" ca="1" si="31">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-P6)</f>
-        <v>6</v>
-      </c>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108">
-        <f t="shared" ref="R5" ca="1" si="32">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-R6)</f>
-        <v>-28228</v>
-      </c>
-      <c r="S5" s="109"/>
-      <c r="T5" s="110">
-        <f t="shared" ref="T5" ca="1" si="33">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-T6)</f>
-        <v>-82</v>
-      </c>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108">
-        <f t="shared" ref="V5" ca="1" si="34">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-V6)</f>
-        <v>-92975</v>
-      </c>
-      <c r="W5" s="109"/>
-      <c r="X5" s="110">
-        <f t="shared" ref="X5" ca="1" si="35">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-X6)</f>
-        <v>40</v>
-      </c>
-      <c r="Y5" s="108"/>
-      <c r="Z5" s="108">
-        <f t="shared" ref="Z5" ca="1" si="36">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-Z6)</f>
-        <v>39706</v>
-      </c>
-      <c r="AA5" s="109"/>
-      <c r="AB5" s="111">
-        <f t="shared" ref="AB5" ca="1" si="37">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-AB6)</f>
-        <v>40</v>
-      </c>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="103">
-        <f t="shared" ref="AD5" ca="1" si="38">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-AD6)</f>
-        <v>39706</v>
-      </c>
-      <c r="AE5" s="104"/>
+        <v>-5117</v>
+      </c>
+      <c r="G5" s="101"/>
+      <c r="H5" s="106">
+        <f t="shared" ref="H5" ca="1" si="28">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-H6)</f>
+        <v>-89</v>
+      </c>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100">
+        <f t="shared" ref="J5" ca="1" si="29">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-J6)</f>
+        <v>-101084</v>
+      </c>
+      <c r="K5" s="101"/>
+      <c r="L5" s="106">
+        <f t="shared" ref="L5" ca="1" si="30">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-L6)</f>
+        <v>-2</v>
+      </c>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100">
+        <f t="shared" ref="N5" ca="1" si="31">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-N6)</f>
+        <v>-36194</v>
+      </c>
+      <c r="O5" s="101"/>
+      <c r="P5" s="106">
+        <f t="shared" ref="P5" ca="1" si="32">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-P6)</f>
+        <v>-38</v>
+      </c>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100">
+        <f t="shared" ref="R5" ca="1" si="33">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-R6)</f>
+        <v>-33183</v>
+      </c>
+      <c r="S5" s="101"/>
+      <c r="T5" s="106">
+        <f t="shared" ref="T5" ca="1" si="34">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-T6)</f>
+        <v>-7</v>
+      </c>
+      <c r="U5" s="100"/>
+      <c r="V5" s="100">
+        <f t="shared" ref="V5" ca="1" si="35">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-V6)</f>
+        <v>22879</v>
+      </c>
+      <c r="W5" s="101"/>
+      <c r="X5" s="147">
+        <f t="shared" ref="X5" ca="1" si="36">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-X6)</f>
+        <v>31</v>
+      </c>
+      <c r="Y5" s="148"/>
+      <c r="Z5" s="140">
+        <f t="shared" ref="Z5" ca="1" si="37">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-Z6)</f>
+        <v>30883</v>
+      </c>
+      <c r="AA5" s="141"/>
+      <c r="AB5" s="149">
+        <f t="shared" ref="AB5" ca="1" si="38">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-AB6)</f>
+        <v>31</v>
+      </c>
+      <c r="AC5" s="150"/>
+      <c r="AD5" s="143">
+        <f t="shared" ref="AD5" ca="1" si="39">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-AD6)</f>
+        <v>30883</v>
+      </c>
+      <c r="AE5" s="144"/>
       <c r="AF5" s="4">
-        <f ca="1">SUM(D5,H5,L5,P5,T5,X5,AB5)</f>
-        <v>12</v>
+        <f ca="1">SUM(D5,P5,T5,L5,H5,X5,AB5)</f>
+        <v>-43</v>
       </c>
       <c r="AG5" s="4">
-        <f ca="1">SUM(F5,J5,N5,R5,V5,Z5,AD5)</f>
-        <v>-47217</v>
+        <f ca="1">SUM(F5,R5,V5,N5,J5,Z5,AD5)</f>
+        <v>-90933</v>
       </c>
       <c r="AH5" s="3">
         <f ca="1">-$AL$3+AH6</f>
-        <v>9.4677871148458603E-3</v>
+        <v>-4.1736694677871111E-2</v>
       </c>
       <c r="AI5" s="3">
         <f ca="1">AI6-$AL$3</f>
-        <v>-4.496935574229699E-2</v>
+        <v>-8.6607170868347239E-2</v>
       </c>
       <c r="AJ5" s="92" t="s">
         <v>30</v>
@@ -1881,182 +2033,182 @@
       <c r="C6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="110">
+      <c r="D6" s="106">
         <f>IF(150-D13&lt;0,0,150-D13)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108">
+      <c r="E6" s="100"/>
+      <c r="F6" s="100">
         <f>IF(150000-E13&lt;0,0,150000-E13)</f>
-        <v>45749</v>
-      </c>
-      <c r="G6" s="109"/>
-      <c r="H6" s="110">
-        <f t="shared" ref="H6" si="39">IF(150-H13&lt;0,0,150-H13)</f>
-        <v>72</v>
-      </c>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108">
-        <f t="shared" ref="J6" si="40">IF(150000-I13&lt;0,0,150000-I13)</f>
-        <v>67045</v>
-      </c>
-      <c r="K6" s="109"/>
-      <c r="L6" s="110">
-        <f t="shared" ref="L6" si="41">IF(150-L13&lt;0,0,150-L13)</f>
-        <v>40</v>
-      </c>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108">
-        <f t="shared" ref="N6" si="42">IF(150000-M13&lt;0,0,150000-M13)</f>
-        <v>11750</v>
-      </c>
-      <c r="O6" s="109"/>
-      <c r="P6" s="110">
-        <f t="shared" ref="P6" si="43">IF(150-P13&lt;0,0,150-P13)</f>
-        <v>34</v>
-      </c>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108">
-        <f t="shared" ref="R6" si="44">IF(150000-Q13&lt;0,0,150000-Q13)</f>
-        <v>67934</v>
-      </c>
-      <c r="S6" s="109"/>
-      <c r="T6" s="110">
-        <f t="shared" ref="T6" si="45">IF(150-T13&lt;0,0,150-T13)</f>
-        <v>122</v>
-      </c>
-      <c r="U6" s="108"/>
-      <c r="V6" s="108">
-        <f t="shared" ref="V6" si="46">IF(150000-U13&lt;0,0,150000-U13)</f>
-        <v>132681</v>
-      </c>
-      <c r="W6" s="109"/>
-      <c r="X6" s="110">
-        <f t="shared" ref="X6" si="47">IF(150-X13&lt;0,0,150-X13)</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108">
-        <f t="shared" ref="Z6" si="48">IF(150000-Y13&lt;0,0,150000-Y13)</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="109"/>
-      <c r="AB6" s="102">
-        <f t="shared" ref="AB6" si="49">IF(150-AB13&lt;0,0,150-AB13)</f>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="103"/>
-      <c r="AD6" s="103">
-        <f t="shared" ref="AD6" si="50">IF(150000-AC13&lt;0,0,150000-AC13)</f>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="104"/>
+        <v>36000</v>
+      </c>
+      <c r="G6" s="101"/>
+      <c r="H6" s="106">
+        <f t="shared" ref="H6" si="40">IF(150-H13&lt;0,0,150-H13)</f>
+        <v>120</v>
+      </c>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100">
+        <f t="shared" ref="J6" si="41">IF(150000-I13&lt;0,0,150000-I13)</f>
+        <v>131967</v>
+      </c>
+      <c r="K6" s="101"/>
+      <c r="L6" s="106">
+        <f t="shared" ref="L6" si="42">IF(150-L13&lt;0,0,150-L13)</f>
+        <v>33</v>
+      </c>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100">
+        <f t="shared" ref="N6" si="43">IF(150000-M13&lt;0,0,150000-M13)</f>
+        <v>67077</v>
+      </c>
+      <c r="O6" s="101"/>
+      <c r="P6" s="106">
+        <f t="shared" ref="P6" si="44">IF(150-P13&lt;0,0,150-P13)</f>
+        <v>69</v>
+      </c>
+      <c r="Q6" s="100"/>
+      <c r="R6" s="100">
+        <f t="shared" ref="R6" si="45">IF(150000-Q13&lt;0,0,150000-Q13)</f>
+        <v>64066</v>
+      </c>
+      <c r="S6" s="101"/>
+      <c r="T6" s="106">
+        <f t="shared" ref="T6" si="46">IF(150-T13&lt;0,0,150-T13)</f>
+        <v>38</v>
+      </c>
+      <c r="U6" s="100"/>
+      <c r="V6" s="100">
+        <f t="shared" ref="V6" si="47">IF(150000-U13&lt;0,0,150000-U13)</f>
+        <v>8004</v>
+      </c>
+      <c r="W6" s="101"/>
+      <c r="X6" s="138">
+        <f t="shared" ref="X6" si="48">IF(150-X13&lt;0,0,150-X13)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="139"/>
+      <c r="Z6" s="140">
+        <f t="shared" ref="Z6" si="49">IF(150000-Y13&lt;0,0,150000-Y13)</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="141"/>
+      <c r="AB6" s="142">
+        <f t="shared" ref="AB6" si="50">IF(150-AB13&lt;0,0,150-AB13)</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="143"/>
+      <c r="AD6" s="143">
+        <f t="shared" ref="AD6" si="51">IF(150000-AC13&lt;0,0,150000-AC13)</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="144"/>
       <c r="AF6" s="4">
-        <f>SUM(D6,H6,L6,P6,T6,X6,AB6)</f>
-        <v>268</v>
+        <f>SUM(D6,P6,T6,L6,H6,X6,AB6)</f>
+        <v>260</v>
       </c>
       <c r="AG6" s="4">
-        <f>SUM(F6,J6,N6,R6,V6,Z6,AD6)</f>
-        <v>325159</v>
+        <f>SUM(F6,R6,V6,N6,J6,Z6,AD6)</f>
+        <v>307114</v>
       </c>
       <c r="AH6" s="3">
         <f>(7*150-AF6)/(7*150)</f>
-        <v>0.74476190476190474</v>
+        <v>0.75238095238095237</v>
       </c>
       <c r="AI6" s="3">
         <f>(7*150000-AG6)/(7*150000)</f>
-        <v>0.69032476190476189</v>
+        <v>0.70751047619047625</v>
       </c>
       <c r="AJ6" s="90">
         <f>AF6/35</f>
-        <v>7.6571428571428575</v>
+        <v>7.4285714285714288</v>
       </c>
       <c r="AK6" s="90">
         <f>AG6/35000</f>
-        <v>9.2902571428571434</v>
+        <v>8.7746857142857149</v>
       </c>
     </row>
     <row r="7" spans="2:38" ht="15.75" thickBot="1">
       <c r="C7" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="105">
+      <c r="D7" s="107">
         <f>D6/5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106">
+      <c r="E7" s="102"/>
+      <c r="F7" s="102">
         <f>F6/5000</f>
-        <v>9.1498000000000008</v>
-      </c>
-      <c r="G7" s="107"/>
-      <c r="H7" s="105">
-        <f t="shared" ref="H7" si="51">H6/5</f>
-        <v>14.4</v>
-      </c>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106">
-        <f t="shared" ref="J7" si="52">J6/5000</f>
-        <v>13.409000000000001</v>
-      </c>
-      <c r="K7" s="107"/>
-      <c r="L7" s="105">
-        <f t="shared" ref="L7" si="53">L6/5</f>
-        <v>8</v>
-      </c>
-      <c r="M7" s="106"/>
-      <c r="N7" s="106">
-        <f t="shared" ref="N7" si="54">N6/5000</f>
-        <v>2.35</v>
-      </c>
-      <c r="O7" s="107"/>
-      <c r="P7" s="105">
-        <f t="shared" ref="P7" si="55">P6/5</f>
-        <v>6.8</v>
-      </c>
-      <c r="Q7" s="106"/>
-      <c r="R7" s="106">
-        <f t="shared" ref="R7" si="56">R6/5000</f>
-        <v>13.5868</v>
-      </c>
-      <c r="S7" s="107"/>
-      <c r="T7" s="105">
-        <f t="shared" ref="T7" si="57">T6/5</f>
-        <v>24.4</v>
-      </c>
-      <c r="U7" s="106"/>
-      <c r="V7" s="106">
-        <f t="shared" ref="V7" si="58">V6/5000</f>
-        <v>26.536200000000001</v>
-      </c>
-      <c r="W7" s="107"/>
-      <c r="X7" s="105">
-        <f t="shared" ref="X7" si="59">X6/5</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="106"/>
-      <c r="Z7" s="106">
-        <f t="shared" ref="Z7" si="60">Z6/5000</f>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="107"/>
-      <c r="AB7" s="105">
-        <f t="shared" ref="AB7" si="61">AB6/5</f>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="106"/>
-      <c r="AD7" s="106">
-        <f t="shared" ref="AD7" si="62">AD6/5000</f>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="107"/>
+        <v>7.2</v>
+      </c>
+      <c r="G7" s="103"/>
+      <c r="H7" s="107">
+        <f t="shared" ref="H7" si="52">H6/5</f>
+        <v>24</v>
+      </c>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102">
+        <f t="shared" ref="J7" si="53">J6/5000</f>
+        <v>26.3934</v>
+      </c>
+      <c r="K7" s="103"/>
+      <c r="L7" s="107">
+        <f t="shared" ref="L7" si="54">L6/5</f>
+        <v>6.6</v>
+      </c>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102">
+        <f t="shared" ref="N7" si="55">N6/5000</f>
+        <v>13.4154</v>
+      </c>
+      <c r="O7" s="103"/>
+      <c r="P7" s="107">
+        <f t="shared" ref="P7" si="56">P6/5</f>
+        <v>13.8</v>
+      </c>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102">
+        <f t="shared" ref="R7" si="57">R6/5000</f>
+        <v>12.8132</v>
+      </c>
+      <c r="S7" s="103"/>
+      <c r="T7" s="107">
+        <f t="shared" ref="T7" si="58">T6/5</f>
+        <v>7.6</v>
+      </c>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102">
+        <f t="shared" ref="V7" si="59">V6/5000</f>
+        <v>1.6008</v>
+      </c>
+      <c r="W7" s="103"/>
+      <c r="X7" s="151">
+        <f t="shared" ref="X7" si="60">X6/5</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="152"/>
+      <c r="Z7" s="153">
+        <f t="shared" ref="Z7" si="61">Z6/5000</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="154"/>
+      <c r="AB7" s="107">
+        <f t="shared" ref="AB7" si="62">AB6/5</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="102">
+        <f t="shared" ref="AD7" si="63">AD6/5000</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="103"/>
       <c r="AF7" s="4">
         <f>150*7-AF6</f>
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="AG7" s="4">
         <f>150000*7-AG6</f>
-        <v>724841</v>
+        <v>742886</v>
       </c>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
@@ -2065,66 +2217,66 @@
       <c r="C8" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="100">
+      <c r="D8" s="155">
         <f>D$6/AVERAGE(F24:F25)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="101"/>
-      <c r="F8" s="100">
+      <c r="E8" s="156"/>
+      <c r="F8" s="155">
         <f>F$6/AVERAGE(G24:G25)</f>
-        <v>31.925331472435449</v>
-      </c>
-      <c r="G8" s="101"/>
-      <c r="H8" s="100">
+        <v>16.716972370559553</v>
+      </c>
+      <c r="G8" s="156"/>
+      <c r="H8" s="155">
         <f>H$6/AVERAGE(J24:J25)</f>
-        <v>72</v>
-      </c>
-      <c r="I8" s="101"/>
-      <c r="J8" s="100">
+        <v>80</v>
+      </c>
+      <c r="I8" s="156"/>
+      <c r="J8" s="155">
         <f>J$6/AVERAGE(K24:K25)</f>
-        <v>66.021664204825214</v>
-      </c>
-      <c r="K8" s="101"/>
-      <c r="L8" s="100">
+        <v>149.7922814982974</v>
+      </c>
+      <c r="K8" s="156"/>
+      <c r="L8" s="155">
         <f>L$6/AVERAGE(N24:N25)</f>
-        <v>8.8888888888888893</v>
-      </c>
-      <c r="M8" s="101"/>
-      <c r="N8" s="100">
+        <v>66</v>
+      </c>
+      <c r="M8" s="156"/>
+      <c r="N8" s="155">
         <f>N$6/AVERAGE(O24:O25)</f>
-        <v>1.3968971051536587</v>
-      </c>
-      <c r="O8" s="101"/>
-      <c r="P8" s="100">
+        <v>53.130297029702973</v>
+      </c>
+      <c r="O8" s="156"/>
+      <c r="P8" s="155">
         <f>P$6/AVERAGE(R24:R25)</f>
-        <v>68</v>
-      </c>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="100">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="156"/>
+      <c r="R8" s="155">
         <f>R$6/AVERAGE(S24:S25)</f>
-        <v>53.809108910891091</v>
-      </c>
-      <c r="S8" s="101"/>
-      <c r="T8" s="100">
+        <v>42.925293132328306</v>
+      </c>
+      <c r="S8" s="156"/>
+      <c r="T8" s="155">
         <f>T$6/AVERAGE(V24:V25)</f>
-        <v>81.333333333333329</v>
-      </c>
-      <c r="U8" s="101"/>
-      <c r="V8" s="100">
+        <v>8.4444444444444446</v>
+      </c>
+      <c r="U8" s="156"/>
+      <c r="V8" s="155">
         <f>V$6/AVERAGE(W24:W25)</f>
-        <v>150.60272417707151</v>
-      </c>
-      <c r="W8" s="101"/>
-      <c r="X8" s="100">
-        <f t="shared" ref="X8" si="63">X$6/AVERAGE(Z25:Z26)</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="101"/>
-      <c r="Z8" s="100">
-        <f t="shared" ref="Z8" si="64">Z$6/AVERAGE(AA25:AA26)</f>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="101"/>
+        <v>0.78655660377358494</v>
+      </c>
+      <c r="W8" s="156"/>
+      <c r="X8" s="155">
+        <f t="shared" ref="X8" si="64">X$6/AVERAGE(Z25:Z26)</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="156"/>
+      <c r="Z8" s="155">
+        <f t="shared" ref="Z8" si="65">Z$6/AVERAGE(AA25:AA26)</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="156"/>
       <c r="AB8" s="94"/>
       <c r="AC8" s="94"/>
       <c r="AD8" s="94"/>
@@ -2138,66 +2290,66 @@
       <c r="C9" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="100">
+      <c r="D9" s="155">
         <f>D$6/AVERAGE(F24:F26)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="101"/>
-      <c r="F9" s="100">
+      <c r="E9" s="156"/>
+      <c r="F9" s="155">
         <f>F$6/AVERAGE(G24:G26)</f>
-        <v>20.387254901960784</v>
-      </c>
-      <c r="G9" s="101"/>
-      <c r="H9" s="100">
+        <v>13.214242016395447</v>
+      </c>
+      <c r="G9" s="156"/>
+      <c r="H9" s="155">
         <f>H$6/AVERAGE(J24:J26)</f>
-        <v>43.199999999999996</v>
-      </c>
-      <c r="I9" s="101"/>
-      <c r="J9" s="100">
+        <v>120</v>
+      </c>
+      <c r="I9" s="156"/>
+      <c r="J9" s="155">
         <f>J$6/AVERAGE(K24:K26)</f>
-        <v>35.6117209631728</v>
-      </c>
-      <c r="K9" s="101"/>
-      <c r="L9" s="100">
+        <v>224.68842224744606</v>
+      </c>
+      <c r="K9" s="156"/>
+      <c r="L9" s="155">
         <f>L$6/AVERAGE(N24:N26)</f>
-        <v>9.2307692307692317</v>
-      </c>
-      <c r="M9" s="101"/>
-      <c r="N9" s="100">
+        <v>99</v>
+      </c>
+      <c r="M9" s="156"/>
+      <c r="N9" s="155">
         <f>N$6/AVERAGE(O24:O26)</f>
-        <v>1.8292682926829269</v>
-      </c>
-      <c r="O9" s="101"/>
-      <c r="P9" s="100">
+        <v>79.69544554455446</v>
+      </c>
+      <c r="O9" s="156"/>
+      <c r="P9" s="155">
         <f>P$6/AVERAGE(R24:R26)</f>
-        <v>102</v>
-      </c>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="100">
+        <v>34.5</v>
+      </c>
+      <c r="Q9" s="156"/>
+      <c r="R9" s="155">
         <f>R$6/AVERAGE(S24:S26)</f>
-        <v>80.713663366336633</v>
-      </c>
-      <c r="S9" s="101"/>
-      <c r="T9" s="100">
+        <v>29.112087246289004</v>
+      </c>
+      <c r="S9" s="156"/>
+      <c r="T9" s="155">
         <f>T$6/AVERAGE(V24:V26)</f>
-        <v>122</v>
-      </c>
-      <c r="U9" s="101"/>
-      <c r="V9" s="100">
+        <v>8.7692307692307701</v>
+      </c>
+      <c r="U9" s="156"/>
+      <c r="V9" s="155">
         <f>V$6/AVERAGE(W24:W26)</f>
-        <v>225.90408626560725</v>
-      </c>
-      <c r="W9" s="101"/>
-      <c r="X9" s="100">
-        <f t="shared" ref="X9" si="65">X$6/AVERAGE(Z25:Z27)</f>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="101"/>
-      <c r="Z9" s="100">
-        <f t="shared" ref="Z9" si="66">Z$6/AVERAGE(AA25:AA27)</f>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="101"/>
+        <v>1.053204087898592</v>
+      </c>
+      <c r="W9" s="156"/>
+      <c r="X9" s="155">
+        <f t="shared" ref="X9" si="66">X$6/AVERAGE(Z25:Z27)</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="156"/>
+      <c r="Z9" s="155">
+        <f t="shared" ref="Z9" si="67">Z$6/AVERAGE(AA25:AA27)</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="156"/>
       <c r="AE9" s="25" t="s">
         <v>13</v>
       </c>
@@ -2209,66 +2361,66 @@
       <c r="C10" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="100">
+      <c r="D10" s="155">
         <f>D$6/AVERAGE(F24:F27)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="101"/>
-      <c r="F10" s="100">
+      <c r="E10" s="156"/>
+      <c r="F10" s="155">
         <f>F$6/AVERAGE(G24:G27)</f>
-        <v>16.005947695268084</v>
-      </c>
-      <c r="G10" s="101"/>
-      <c r="H10" s="100">
+        <v>11.185334783284139</v>
+      </c>
+      <c r="G10" s="156"/>
+      <c r="H10" s="155">
         <f>H$6/AVERAGE(J24:J27)</f>
-        <v>24</v>
-      </c>
-      <c r="I10" s="101"/>
-      <c r="J10" s="100">
+        <v>160</v>
+      </c>
+      <c r="I10" s="156"/>
+      <c r="J10" s="155">
         <f>J$6/AVERAGE(K24:K27)</f>
-        <v>26.823364672934588</v>
-      </c>
-      <c r="K10" s="101"/>
-      <c r="L10" s="100">
+        <v>299.5845629965948</v>
+      </c>
+      <c r="K10" s="156"/>
+      <c r="L10" s="155">
         <f>L$6/AVERAGE(N24:N27)</f>
-        <v>8.8888888888888893</v>
-      </c>
-      <c r="M10" s="101"/>
-      <c r="N10" s="100">
+        <v>14.666666666666666</v>
+      </c>
+      <c r="M10" s="156"/>
+      <c r="N10" s="155">
         <f>N$6/AVERAGE(O24:O27)</f>
-        <v>1.9697414190520095</v>
-      </c>
-      <c r="O10" s="101"/>
-      <c r="P10" s="100">
+        <v>64.096512183468704</v>
+      </c>
+      <c r="O10" s="156"/>
+      <c r="P10" s="155">
         <f>P$6/AVERAGE(R24:R27)</f>
-        <v>15.111111111111111</v>
-      </c>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="100">
+        <v>21.23076923076923</v>
+      </c>
+      <c r="Q10" s="156"/>
+      <c r="R10" s="155">
         <f>R$6/AVERAGE(S24:S27)</f>
-        <v>64.915432393693266</v>
-      </c>
-      <c r="S10" s="101"/>
-      <c r="T10" s="100">
+        <v>23.398831263696128</v>
+      </c>
+      <c r="S10" s="156"/>
+      <c r="T10" s="155">
         <f>T$6/AVERAGE(V24:V27)</f>
-        <v>162.66666666666666</v>
-      </c>
-      <c r="U10" s="101"/>
-      <c r="V10" s="100">
+        <v>8.4444444444444446</v>
+      </c>
+      <c r="U10" s="156"/>
+      <c r="V10" s="155">
         <f>V$6/AVERAGE(W24:W27)</f>
-        <v>301.20544835414302</v>
-      </c>
-      <c r="W10" s="101"/>
-      <c r="X10" s="100">
-        <f t="shared" ref="X10" si="67">X$6/AVERAGE(Z25:Z28)</f>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="101"/>
-      <c r="Z10" s="100">
-        <f t="shared" ref="Z10" si="68">Z$6/AVERAGE(AA25:AA28)</f>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="101"/>
+        <v>1.1688937568455642</v>
+      </c>
+      <c r="W10" s="156"/>
+      <c r="X10" s="155">
+        <f t="shared" ref="X10" si="68">X$6/AVERAGE(Z25:Z28)</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="156"/>
+      <c r="Z10" s="155">
+        <f t="shared" ref="Z10" si="69">Z$6/AVERAGE(AA25:AA28)</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="156"/>
       <c r="AE10" s="97"/>
       <c r="AF10" s="93"/>
       <c r="AH10" s="3"/>
@@ -2293,52 +2445,52 @@
       <c r="G12" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="48" t="s">
+      <c r="I12" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="50" t="s">
+      <c r="K12" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="38" t="s">
+      <c r="L12" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="42" t="s">
+      <c r="M12" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="40" t="s">
+      <c r="N12" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="44" t="s">
+      <c r="O12" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="P12" s="56" t="s">
+      <c r="P12" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="Q12" s="60" t="s">
+      <c r="Q12" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="R12" s="58" t="s">
+      <c r="R12" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S12" s="62" t="s">
+      <c r="S12" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="T12" s="68" t="s">
+      <c r="T12" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="V12" s="70" t="s">
+      <c r="V12" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="W12" s="74" t="s">
+      <c r="W12" s="44" t="s">
         <v>16</v>
       </c>
       <c r="X12" s="64" t="s">
@@ -2392,136 +2544,136 @@
         <v>42023</v>
       </c>
       <c r="D13" s="53">
-        <f t="shared" ref="D13:Q26" si="69">D14</f>
+        <f t="shared" ref="D13:E25" si="70">D14</f>
         <v>150</v>
       </c>
       <c r="E13" s="32">
-        <f t="shared" si="69"/>
-        <v>104251</v>
+        <f t="shared" si="70"/>
+        <v>114000</v>
       </c>
       <c r="F13" s="55">
-        <f t="shared" ref="F13:F41" si="70">D13-D14</f>
+        <f t="shared" ref="F13:F41" si="71">D13-D14</f>
         <v>0</v>
       </c>
       <c r="G13" s="33">
-        <f t="shared" ref="G13:G41" si="71">E13-E14</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="35">
-        <f t="shared" si="69"/>
-        <v>78</v>
-      </c>
-      <c r="I13" s="49">
-        <f t="shared" si="69"/>
-        <v>82955</v>
-      </c>
-      <c r="J13" s="37">
-        <f t="shared" ref="J13:J41" si="72">H13-H14</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="51">
-        <f t="shared" ref="K13:K41" si="73">I13-I14</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="39">
-        <f t="shared" si="69"/>
-        <v>110</v>
-      </c>
-      <c r="M13" s="91">
-        <f t="shared" si="69"/>
-        <v>138250</v>
-      </c>
-      <c r="N13" s="41">
-        <f t="shared" ref="N13:N41" si="74">L13-L14</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="45">
-        <f t="shared" ref="O13:O41" si="75">M13-M14</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="57">
-        <f t="shared" si="69"/>
-        <v>116</v>
-      </c>
-      <c r="Q13" s="61">
-        <f t="shared" si="69"/>
-        <v>82066</v>
-      </c>
-      <c r="R13" s="59">
-        <f t="shared" ref="R13:R41" si="76">P13-P14</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="63">
-        <f t="shared" ref="S13:S41" si="77">Q13-Q14</f>
-        <v>0</v>
-      </c>
-      <c r="T13" s="69">
-        <f t="shared" ref="T13:AC34" si="78">T14</f>
-        <v>28</v>
-      </c>
-      <c r="U13" s="73">
-        <f t="shared" si="78"/>
-        <v>17319</v>
-      </c>
-      <c r="V13" s="71">
-        <f t="shared" ref="V13:V41" si="79">T13-T14</f>
-        <v>0</v>
-      </c>
-      <c r="W13" s="75">
-        <f t="shared" ref="W13:W41" si="80">U13-U14</f>
+        <f t="shared" ref="G13:G41" si="72">E13-E14</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="69">
+        <f t="shared" ref="H13:AC34" si="73">H14</f>
+        <v>30</v>
+      </c>
+      <c r="I13" s="73">
+        <f t="shared" si="73"/>
+        <v>18033</v>
+      </c>
+      <c r="J13" s="71">
+        <f t="shared" ref="J13:J41" si="74">H13-H14</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="75">
+        <f t="shared" ref="K13:K41" si="75">I13-I14</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="57">
+        <f t="shared" ref="L13:L22" si="76">L14</f>
+        <v>117</v>
+      </c>
+      <c r="M13" s="61">
+        <f t="shared" ref="M13:M22" si="77">M14</f>
+        <v>82923</v>
+      </c>
+      <c r="N13" s="59">
+        <f t="shared" ref="N13:N41" si="78">L13-L14</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="63">
+        <f t="shared" ref="O13:O41" si="79">M13-M14</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="35">
+        <f t="shared" ref="P13:P22" si="80">P14</f>
+        <v>81</v>
+      </c>
+      <c r="Q13" s="49">
+        <f t="shared" ref="Q13:Q22" si="81">Q14</f>
+        <v>85934</v>
+      </c>
+      <c r="R13" s="37">
+        <f t="shared" ref="R13:R41" si="82">P13-P14</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="51">
+        <f t="shared" ref="S13:S41" si="83">Q13-Q14</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="39">
+        <f t="shared" ref="T13:T22" si="84">T14</f>
+        <v>112</v>
+      </c>
+      <c r="U13" s="91">
+        <f t="shared" ref="U13:U22" si="85">U14</f>
+        <v>141996</v>
+      </c>
+      <c r="V13" s="41">
+        <f t="shared" ref="V13:V41" si="86">T13-T14</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="45">
+        <f t="shared" ref="W13:W41" si="87">U13-U14</f>
         <v>0</v>
       </c>
       <c r="X13" s="65">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150</v>
       </c>
       <c r="Y13" s="47">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150000</v>
       </c>
       <c r="Z13" s="61">
-        <f t="shared" ref="Z13:Z41" si="81">X13-X14</f>
+        <f t="shared" ref="Z13:Z41" si="88">X13-X14</f>
         <v>0</v>
       </c>
       <c r="AA13" s="67">
-        <f t="shared" ref="AA13:AA41" si="82">Y13-Y14</f>
+        <f t="shared" ref="AA13:AA41" si="89">Y13-Y14</f>
         <v>0</v>
       </c>
       <c r="AB13" s="77">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150</v>
       </c>
       <c r="AC13" s="83">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150000</v>
       </c>
       <c r="AD13" s="80">
-        <f t="shared" ref="AD13:AD41" si="83">AB13-AB14</f>
+        <f t="shared" ref="AD13:AD41" si="90">AB13-AB14</f>
         <v>0</v>
       </c>
       <c r="AE13" s="86">
-        <f t="shared" ref="AE13:AE41" si="84">AC13-AC14</f>
+        <f t="shared" ref="AE13:AE41" si="91">AC13-AC14</f>
         <v>0</v>
       </c>
       <c r="AF13" s="12">
-        <f>SUM(D13,H13,L13,P13,T13,X13,AB13)-SUM(D14,H14,L14,P14,T14,X14,AB14)</f>
+        <f t="shared" ref="AF13:AF47" si="92">SUM(D13,P13,T13,L13,H13,X13,AB13)-SUM(D14,P14,T14,L14,H14,X14,AB14)</f>
         <v>0</v>
       </c>
       <c r="AG13" s="18">
-        <f>SUM(E13,I13,M13,Q13,U13,Y13,AC13)-SUM(E14,I14,M14,Q14,U14,Y14,AC14)</f>
+        <f t="shared" ref="AG13:AG47" si="93">SUM(E13,Q13,U13,M13,I13,Y13,AC13)-SUM(E14,Q14,U14,M14,I14,Y14,AC14)</f>
         <v>0</v>
       </c>
       <c r="AH13" s="15"/>
       <c r="AI13" s="21">
-        <f t="shared" ref="AI13:AI36" si="85">AH13-AH14</f>
+        <f t="shared" ref="AI13:AI36" si="94">AH13-AH14</f>
         <v>0</v>
       </c>
       <c r="AJ13" s="15">
-        <f t="shared" ref="AJ13:AJ30" si="86">IF($AI13=0,0,AF13/$AI13)</f>
+        <f t="shared" ref="AJ13:AJ30" si="95">IF($AI13=0,0,AF13/$AI13)</f>
         <v>0</v>
       </c>
       <c r="AK13" s="21">
-        <f t="shared" ref="AK13:AK30" si="87">IF($AI13=0,0,AG13/$AI13)</f>
+        <f t="shared" ref="AK13:AK30" si="96">IF($AI13=0,0,AG13/$AI13)</f>
         <v>0</v>
       </c>
     </row>
@@ -2533,136 +2685,136 @@
         <v>42022</v>
       </c>
       <c r="D14" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>150</v>
       </c>
       <c r="E14" s="32">
-        <f t="shared" si="69"/>
-        <v>104251</v>
+        <f t="shared" si="70"/>
+        <v>114000</v>
       </c>
       <c r="F14" s="55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="G14" s="33">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="35">
-        <f t="shared" si="69"/>
-        <v>78</v>
-      </c>
-      <c r="I14" s="49">
-        <f t="shared" si="69"/>
-        <v>82955</v>
-      </c>
-      <c r="J14" s="37">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="K14" s="51">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="39">
-        <f t="shared" si="69"/>
-        <v>110</v>
-      </c>
-      <c r="M14" s="91">
-        <f t="shared" si="69"/>
-        <v>138250</v>
-      </c>
-      <c r="N14" s="41">
+      <c r="H14" s="69">
+        <f t="shared" si="73"/>
+        <v>30</v>
+      </c>
+      <c r="I14" s="73">
+        <f t="shared" si="73"/>
+        <v>18033</v>
+      </c>
+      <c r="J14" s="71">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="O14" s="45">
+      <c r="K14" s="75">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="P14" s="57">
-        <f t="shared" si="69"/>
-        <v>116</v>
-      </c>
-      <c r="Q14" s="61">
-        <f t="shared" si="69"/>
-        <v>82066</v>
-      </c>
-      <c r="R14" s="59">
+      <c r="L14" s="57">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="63">
+        <v>117</v>
+      </c>
+      <c r="M14" s="61">
         <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="69">
+        <v>82923</v>
+      </c>
+      <c r="N14" s="59">
         <f t="shared" si="78"/>
-        <v>28</v>
-      </c>
-      <c r="U14" s="73">
-        <f t="shared" si="78"/>
-        <v>17319</v>
-      </c>
-      <c r="V14" s="71">
+        <v>0</v>
+      </c>
+      <c r="O14" s="63">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="W14" s="75">
+      <c r="P14" s="35">
         <f t="shared" si="80"/>
+        <v>81</v>
+      </c>
+      <c r="Q14" s="49">
+        <f t="shared" si="81"/>
+        <v>85934</v>
+      </c>
+      <c r="R14" s="37">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="51">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="39">
+        <f t="shared" si="84"/>
+        <v>112</v>
+      </c>
+      <c r="U14" s="91">
+        <f t="shared" si="85"/>
+        <v>141996</v>
+      </c>
+      <c r="V14" s="41">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="45">
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="X14" s="65">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150</v>
       </c>
       <c r="Y14" s="47">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150000</v>
       </c>
       <c r="Z14" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="AA14" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AB14" s="77">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150</v>
       </c>
       <c r="AC14" s="83">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150000</v>
       </c>
       <c r="AD14" s="80">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AE14" s="86">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AF14" s="12">
-        <f t="shared" ref="AF14:AG29" si="88">SUM(D14,H14,L14,P14,T14,X14,AB14)-SUM(D15,H15,L15,P15,T15,X15,AB15)</f>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AG14" s="18">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AH14" s="15"/>
       <c r="AI14" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AJ14" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AK14" s="21">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
     </row>
@@ -2674,136 +2826,136 @@
         <v>42021</v>
       </c>
       <c r="D15" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>150</v>
       </c>
       <c r="E15" s="32">
-        <f t="shared" si="69"/>
-        <v>104251</v>
+        <f t="shared" si="70"/>
+        <v>114000</v>
       </c>
       <c r="F15" s="55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="G15" s="33">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="35">
-        <f t="shared" si="69"/>
-        <v>78</v>
-      </c>
-      <c r="I15" s="49">
-        <f t="shared" si="69"/>
-        <v>82955</v>
-      </c>
-      <c r="J15" s="37">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="K15" s="51">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="39">
-        <f t="shared" si="69"/>
-        <v>110</v>
-      </c>
-      <c r="M15" s="91">
-        <f t="shared" si="69"/>
-        <v>138250</v>
-      </c>
-      <c r="N15" s="41">
+      <c r="H15" s="69">
+        <f t="shared" si="73"/>
+        <v>30</v>
+      </c>
+      <c r="I15" s="73">
+        <f t="shared" si="73"/>
+        <v>18033</v>
+      </c>
+      <c r="J15" s="71">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="O15" s="45">
+      <c r="K15" s="75">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="P15" s="57">
-        <f t="shared" si="69"/>
-        <v>116</v>
-      </c>
-      <c r="Q15" s="61">
-        <f t="shared" si="69"/>
-        <v>82066</v>
-      </c>
-      <c r="R15" s="59">
+      <c r="L15" s="57">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="63">
+        <v>117</v>
+      </c>
+      <c r="M15" s="61">
         <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="69">
+        <v>82923</v>
+      </c>
+      <c r="N15" s="59">
         <f t="shared" si="78"/>
-        <v>28</v>
-      </c>
-      <c r="U15" s="73">
-        <f t="shared" si="78"/>
-        <v>17319</v>
-      </c>
-      <c r="V15" s="71">
+        <v>0</v>
+      </c>
+      <c r="O15" s="63">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="W15" s="75">
+      <c r="P15" s="35">
         <f t="shared" si="80"/>
+        <v>81</v>
+      </c>
+      <c r="Q15" s="49">
+        <f t="shared" si="81"/>
+        <v>85934</v>
+      </c>
+      <c r="R15" s="37">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="51">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="39">
+        <f t="shared" si="84"/>
+        <v>112</v>
+      </c>
+      <c r="U15" s="91">
+        <f t="shared" si="85"/>
+        <v>141996</v>
+      </c>
+      <c r="V15" s="41">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="45">
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="X15" s="65">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150</v>
       </c>
       <c r="Y15" s="47">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150000</v>
       </c>
       <c r="Z15" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="AA15" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AB15" s="77">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150</v>
       </c>
       <c r="AC15" s="83">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150000</v>
       </c>
       <c r="AD15" s="80">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AE15" s="86">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AF15" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AG15" s="18">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AH15" s="15"/>
       <c r="AI15" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AJ15" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AK15" s="21">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
     </row>
@@ -2815,136 +2967,136 @@
         <v>42020</v>
       </c>
       <c r="D16" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>150</v>
       </c>
       <c r="E16" s="32">
-        <f t="shared" si="69"/>
-        <v>104251</v>
+        <f t="shared" si="70"/>
+        <v>114000</v>
       </c>
       <c r="F16" s="55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="G16" s="33">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="35">
-        <f t="shared" si="69"/>
-        <v>78</v>
-      </c>
-      <c r="I16" s="49">
-        <f t="shared" si="69"/>
-        <v>82955</v>
-      </c>
-      <c r="J16" s="37">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="K16" s="51">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="39">
-        <f t="shared" si="69"/>
-        <v>110</v>
-      </c>
-      <c r="M16" s="91">
-        <f t="shared" si="69"/>
-        <v>138250</v>
-      </c>
-      <c r="N16" s="41">
+      <c r="H16" s="69">
+        <f t="shared" si="73"/>
+        <v>30</v>
+      </c>
+      <c r="I16" s="73">
+        <f t="shared" si="73"/>
+        <v>18033</v>
+      </c>
+      <c r="J16" s="71">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="O16" s="45">
+      <c r="K16" s="75">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="P16" s="57">
-        <f t="shared" si="69"/>
-        <v>116</v>
-      </c>
-      <c r="Q16" s="61">
-        <f t="shared" si="69"/>
-        <v>82066</v>
-      </c>
-      <c r="R16" s="59">
+      <c r="L16" s="57">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="63">
+        <v>117</v>
+      </c>
+      <c r="M16" s="61">
         <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="69">
+        <v>82923</v>
+      </c>
+      <c r="N16" s="59">
         <f t="shared" si="78"/>
-        <v>28</v>
-      </c>
-      <c r="U16" s="73">
-        <f t="shared" si="78"/>
-        <v>17319</v>
-      </c>
-      <c r="V16" s="71">
+        <v>0</v>
+      </c>
+      <c r="O16" s="63">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="W16" s="75">
+      <c r="P16" s="35">
         <f t="shared" si="80"/>
+        <v>81</v>
+      </c>
+      <c r="Q16" s="49">
+        <f t="shared" si="81"/>
+        <v>85934</v>
+      </c>
+      <c r="R16" s="37">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="51">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="39">
+        <f t="shared" si="84"/>
+        <v>112</v>
+      </c>
+      <c r="U16" s="91">
+        <f t="shared" si="85"/>
+        <v>141996</v>
+      </c>
+      <c r="V16" s="41">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="45">
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="X16" s="65">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150</v>
       </c>
       <c r="Y16" s="47">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150000</v>
       </c>
       <c r="Z16" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="AA16" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AB16" s="77">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150</v>
       </c>
       <c r="AC16" s="83">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150000</v>
       </c>
       <c r="AD16" s="80">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AE16" s="86">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AF16" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AG16" s="18">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AH16" s="15"/>
       <c r="AI16" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AJ16" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AK16" s="21">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
     </row>
@@ -2956,136 +3108,136 @@
         <v>42019</v>
       </c>
       <c r="D17" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>150</v>
       </c>
       <c r="E17" s="32">
-        <f t="shared" si="69"/>
-        <v>104251</v>
+        <f t="shared" si="70"/>
+        <v>114000</v>
       </c>
       <c r="F17" s="55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="G17" s="33">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="35">
-        <f t="shared" si="69"/>
-        <v>78</v>
-      </c>
-      <c r="I17" s="49">
-        <f t="shared" si="69"/>
-        <v>82955</v>
-      </c>
-      <c r="J17" s="37">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="K17" s="51">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="39">
-        <f t="shared" si="69"/>
-        <v>110</v>
-      </c>
-      <c r="M17" s="91">
-        <f t="shared" si="69"/>
-        <v>138250</v>
-      </c>
-      <c r="N17" s="41">
+      <c r="H17" s="69">
+        <f t="shared" si="73"/>
+        <v>30</v>
+      </c>
+      <c r="I17" s="73">
+        <f t="shared" si="73"/>
+        <v>18033</v>
+      </c>
+      <c r="J17" s="71">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="O17" s="45">
+      <c r="K17" s="75">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="P17" s="57">
-        <f t="shared" si="69"/>
-        <v>116</v>
-      </c>
-      <c r="Q17" s="61">
-        <f t="shared" si="69"/>
-        <v>82066</v>
-      </c>
-      <c r="R17" s="59">
+      <c r="L17" s="57">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="63">
+        <v>117</v>
+      </c>
+      <c r="M17" s="61">
         <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="69">
+        <v>82923</v>
+      </c>
+      <c r="N17" s="59">
         <f t="shared" si="78"/>
-        <v>28</v>
-      </c>
-      <c r="U17" s="73">
-        <f t="shared" si="78"/>
-        <v>17319</v>
-      </c>
-      <c r="V17" s="71">
+        <v>0</v>
+      </c>
+      <c r="O17" s="63">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="W17" s="75">
+      <c r="P17" s="35">
         <f t="shared" si="80"/>
+        <v>81</v>
+      </c>
+      <c r="Q17" s="49">
+        <f t="shared" si="81"/>
+        <v>85934</v>
+      </c>
+      <c r="R17" s="37">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="51">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="39">
+        <f t="shared" si="84"/>
+        <v>112</v>
+      </c>
+      <c r="U17" s="91">
+        <f t="shared" si="85"/>
+        <v>141996</v>
+      </c>
+      <c r="V17" s="41">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="45">
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="X17" s="65">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150</v>
       </c>
       <c r="Y17" s="47">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150000</v>
       </c>
       <c r="Z17" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="AA17" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AB17" s="77">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150</v>
       </c>
       <c r="AC17" s="83">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150000</v>
       </c>
       <c r="AD17" s="80">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AE17" s="86">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AF17" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AG17" s="18">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AH17" s="15"/>
       <c r="AI17" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AJ17" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AK17" s="21">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
     </row>
@@ -3097,136 +3249,136 @@
         <v>42018</v>
       </c>
       <c r="D18" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>150</v>
       </c>
       <c r="E18" s="32">
-        <f t="shared" si="69"/>
-        <v>104251</v>
+        <f t="shared" si="70"/>
+        <v>114000</v>
       </c>
       <c r="F18" s="55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="G18" s="33">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="35">
-        <f t="shared" si="69"/>
-        <v>78</v>
-      </c>
-      <c r="I18" s="49">
-        <f t="shared" si="69"/>
-        <v>82955</v>
-      </c>
-      <c r="J18" s="37">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="K18" s="51">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="39">
-        <f t="shared" si="69"/>
-        <v>110</v>
-      </c>
-      <c r="M18" s="91">
-        <f t="shared" si="69"/>
-        <v>138250</v>
-      </c>
-      <c r="N18" s="41">
+      <c r="H18" s="69">
+        <f t="shared" si="73"/>
+        <v>30</v>
+      </c>
+      <c r="I18" s="73">
+        <f t="shared" si="73"/>
+        <v>18033</v>
+      </c>
+      <c r="J18" s="71">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="O18" s="45">
+      <c r="K18" s="75">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="P18" s="57">
-        <f t="shared" si="69"/>
-        <v>116</v>
-      </c>
-      <c r="Q18" s="61">
-        <f t="shared" si="69"/>
-        <v>82066</v>
-      </c>
-      <c r="R18" s="59">
+      <c r="L18" s="57">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="63">
+        <v>117</v>
+      </c>
+      <c r="M18" s="61">
         <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="69">
+        <v>82923</v>
+      </c>
+      <c r="N18" s="59">
         <f t="shared" si="78"/>
-        <v>28</v>
-      </c>
-      <c r="U18" s="73">
-        <f t="shared" si="78"/>
-        <v>17319</v>
-      </c>
-      <c r="V18" s="71">
+        <v>0</v>
+      </c>
+      <c r="O18" s="63">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="W18" s="75">
+      <c r="P18" s="35">
         <f t="shared" si="80"/>
+        <v>81</v>
+      </c>
+      <c r="Q18" s="49">
+        <f t="shared" si="81"/>
+        <v>85934</v>
+      </c>
+      <c r="R18" s="37">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="51">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="39">
+        <f t="shared" si="84"/>
+        <v>112</v>
+      </c>
+      <c r="U18" s="91">
+        <f t="shared" si="85"/>
+        <v>141996</v>
+      </c>
+      <c r="V18" s="41">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="45">
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="X18" s="65">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150</v>
       </c>
       <c r="Y18" s="47">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150000</v>
       </c>
       <c r="Z18" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="AA18" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AB18" s="77">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150</v>
       </c>
       <c r="AC18" s="83">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150000</v>
       </c>
       <c r="AD18" s="80">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AE18" s="86">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AF18" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AG18" s="18">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AH18" s="15"/>
       <c r="AI18" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AJ18" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AK18" s="21">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
     </row>
@@ -3238,136 +3390,136 @@
         <v>42017</v>
       </c>
       <c r="D19" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>150</v>
       </c>
       <c r="E19" s="32">
-        <f t="shared" si="69"/>
-        <v>104251</v>
+        <f t="shared" si="70"/>
+        <v>114000</v>
       </c>
       <c r="F19" s="55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="G19" s="33">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="35">
-        <f t="shared" si="69"/>
-        <v>78</v>
-      </c>
-      <c r="I19" s="49">
-        <f t="shared" si="69"/>
-        <v>82955</v>
-      </c>
-      <c r="J19" s="37">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="K19" s="51">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="39">
-        <f t="shared" si="69"/>
-        <v>110</v>
-      </c>
-      <c r="M19" s="91">
-        <f t="shared" si="69"/>
-        <v>138250</v>
-      </c>
-      <c r="N19" s="41">
+      <c r="H19" s="69">
+        <f t="shared" si="73"/>
+        <v>30</v>
+      </c>
+      <c r="I19" s="73">
+        <f t="shared" si="73"/>
+        <v>18033</v>
+      </c>
+      <c r="J19" s="71">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="O19" s="45">
+      <c r="K19" s="75">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="P19" s="57">
-        <f t="shared" si="69"/>
-        <v>116</v>
-      </c>
-      <c r="Q19" s="61">
-        <f t="shared" si="69"/>
-        <v>82066</v>
-      </c>
-      <c r="R19" s="59">
+      <c r="L19" s="57">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="63">
+        <v>117</v>
+      </c>
+      <c r="M19" s="61">
         <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="69">
+        <v>82923</v>
+      </c>
+      <c r="N19" s="59">
         <f t="shared" si="78"/>
-        <v>28</v>
-      </c>
-      <c r="U19" s="73">
-        <f t="shared" si="78"/>
-        <v>17319</v>
-      </c>
-      <c r="V19" s="71">
+        <v>0</v>
+      </c>
+      <c r="O19" s="63">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="W19" s="75">
+      <c r="P19" s="35">
         <f t="shared" si="80"/>
+        <v>81</v>
+      </c>
+      <c r="Q19" s="49">
+        <f t="shared" si="81"/>
+        <v>85934</v>
+      </c>
+      <c r="R19" s="37">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="51">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="39">
+        <f t="shared" si="84"/>
+        <v>112</v>
+      </c>
+      <c r="U19" s="91">
+        <f t="shared" si="85"/>
+        <v>141996</v>
+      </c>
+      <c r="V19" s="41">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="45">
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="X19" s="65">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150</v>
       </c>
       <c r="Y19" s="47">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150000</v>
       </c>
       <c r="Z19" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="AA19" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AB19" s="77">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150</v>
       </c>
       <c r="AC19" s="83">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150000</v>
       </c>
       <c r="AD19" s="80">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AE19" s="86">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AF19" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AG19" s="18">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AH19" s="15"/>
       <c r="AI19" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AJ19" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AK19" s="21">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
     </row>
@@ -3379,136 +3531,136 @@
         <v>42016</v>
       </c>
       <c r="D20" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>150</v>
       </c>
       <c r="E20" s="32">
-        <f t="shared" si="69"/>
-        <v>104251</v>
+        <f t="shared" si="70"/>
+        <v>114000</v>
       </c>
       <c r="F20" s="55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="G20" s="33">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="35">
-        <f t="shared" si="69"/>
-        <v>78</v>
-      </c>
-      <c r="I20" s="49">
-        <f t="shared" si="69"/>
-        <v>82955</v>
-      </c>
-      <c r="J20" s="37">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="K20" s="51">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="39">
-        <f t="shared" si="69"/>
-        <v>110</v>
-      </c>
-      <c r="M20" s="91">
-        <f t="shared" si="69"/>
-        <v>138250</v>
-      </c>
-      <c r="N20" s="41">
+      <c r="H20" s="69">
+        <f t="shared" si="73"/>
+        <v>30</v>
+      </c>
+      <c r="I20" s="73">
+        <f t="shared" si="73"/>
+        <v>18033</v>
+      </c>
+      <c r="J20" s="71">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="O20" s="45">
+      <c r="K20" s="75">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="P20" s="57">
-        <f t="shared" si="69"/>
-        <v>116</v>
-      </c>
-      <c r="Q20" s="61">
-        <f t="shared" si="69"/>
-        <v>82066</v>
-      </c>
-      <c r="R20" s="59">
+      <c r="L20" s="57">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="63">
+        <v>117</v>
+      </c>
+      <c r="M20" s="61">
         <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="69">
+        <v>82923</v>
+      </c>
+      <c r="N20" s="59">
         <f t="shared" si="78"/>
-        <v>28</v>
-      </c>
-      <c r="U20" s="73">
-        <f t="shared" si="78"/>
-        <v>17319</v>
-      </c>
-      <c r="V20" s="71">
+        <v>0</v>
+      </c>
+      <c r="O20" s="63">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="W20" s="75">
+      <c r="P20" s="35">
         <f t="shared" si="80"/>
+        <v>81</v>
+      </c>
+      <c r="Q20" s="49">
+        <f t="shared" si="81"/>
+        <v>85934</v>
+      </c>
+      <c r="R20" s="37">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="51">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="39">
+        <f t="shared" si="84"/>
+        <v>112</v>
+      </c>
+      <c r="U20" s="91">
+        <f t="shared" si="85"/>
+        <v>141996</v>
+      </c>
+      <c r="V20" s="41">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="45">
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="X20" s="65">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150</v>
       </c>
       <c r="Y20" s="47">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150000</v>
       </c>
       <c r="Z20" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="AA20" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AB20" s="77">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150</v>
       </c>
       <c r="AC20" s="83">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150000</v>
       </c>
       <c r="AD20" s="80">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AE20" s="86">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AF20" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AG20" s="18">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AH20" s="15"/>
       <c r="AI20" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AJ20" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AK20" s="21">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
     </row>
@@ -3520,136 +3672,136 @@
         <v>42015</v>
       </c>
       <c r="D21" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>150</v>
       </c>
       <c r="E21" s="32">
-        <f t="shared" si="69"/>
-        <v>104251</v>
+        <f t="shared" si="70"/>
+        <v>114000</v>
       </c>
       <c r="F21" s="55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="G21" s="33">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="35">
-        <f t="shared" si="69"/>
-        <v>78</v>
-      </c>
-      <c r="I21" s="49">
-        <f t="shared" si="69"/>
-        <v>82955</v>
-      </c>
-      <c r="J21" s="37">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="K21" s="51">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="39">
-        <f t="shared" si="69"/>
-        <v>110</v>
-      </c>
-      <c r="M21" s="91">
-        <f t="shared" si="69"/>
-        <v>138250</v>
-      </c>
-      <c r="N21" s="41">
+      <c r="H21" s="69">
+        <f t="shared" si="73"/>
+        <v>30</v>
+      </c>
+      <c r="I21" s="73">
+        <f t="shared" si="73"/>
+        <v>18033</v>
+      </c>
+      <c r="J21" s="71">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="O21" s="45">
+      <c r="K21" s="75">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="P21" s="57">
-        <f t="shared" si="69"/>
-        <v>116</v>
-      </c>
-      <c r="Q21" s="61">
-        <f t="shared" si="69"/>
-        <v>82066</v>
-      </c>
-      <c r="R21" s="59">
+      <c r="L21" s="57">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="63">
+        <v>117</v>
+      </c>
+      <c r="M21" s="61">
         <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="69">
+        <v>82923</v>
+      </c>
+      <c r="N21" s="59">
         <f t="shared" si="78"/>
-        <v>28</v>
-      </c>
-      <c r="U21" s="73">
-        <f t="shared" si="78"/>
-        <v>17319</v>
-      </c>
-      <c r="V21" s="71">
+        <v>0</v>
+      </c>
+      <c r="O21" s="63">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="W21" s="75">
+      <c r="P21" s="35">
         <f t="shared" si="80"/>
+        <v>81</v>
+      </c>
+      <c r="Q21" s="49">
+        <f t="shared" si="81"/>
+        <v>85934</v>
+      </c>
+      <c r="R21" s="37">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="51">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="39">
+        <f t="shared" si="84"/>
+        <v>112</v>
+      </c>
+      <c r="U21" s="91">
+        <f t="shared" si="85"/>
+        <v>141996</v>
+      </c>
+      <c r="V21" s="41">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="45">
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="X21" s="65">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150</v>
       </c>
       <c r="Y21" s="47">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150000</v>
       </c>
       <c r="Z21" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="AA21" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AB21" s="77">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150</v>
       </c>
       <c r="AC21" s="83">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150000</v>
       </c>
       <c r="AD21" s="80">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AE21" s="86">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AF21" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AG21" s="18">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AH21" s="15"/>
       <c r="AI21" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AJ21" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AK21" s="21">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
     </row>
@@ -3661,140 +3813,140 @@
         <v>42014</v>
       </c>
       <c r="D22" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>150</v>
       </c>
       <c r="E22" s="32">
-        <f t="shared" si="69"/>
-        <v>104251</v>
+        <f t="shared" si="70"/>
+        <v>114000</v>
       </c>
       <c r="F22" s="55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="G22" s="33">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="35">
-        <f t="shared" si="69"/>
-        <v>78</v>
-      </c>
-      <c r="I22" s="49">
-        <f t="shared" si="69"/>
-        <v>82955</v>
-      </c>
-      <c r="J22" s="37">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="K22" s="51">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="39">
-        <f t="shared" si="69"/>
-        <v>110</v>
-      </c>
-      <c r="M22" s="91">
-        <f t="shared" si="69"/>
-        <v>138250</v>
-      </c>
-      <c r="N22" s="41">
+      <c r="H22" s="69">
+        <f t="shared" si="73"/>
+        <v>30</v>
+      </c>
+      <c r="I22" s="73">
+        <f t="shared" si="73"/>
+        <v>18033</v>
+      </c>
+      <c r="J22" s="71">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="O22" s="45">
+      <c r="K22" s="75">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="P22" s="57">
-        <f t="shared" si="69"/>
-        <v>116</v>
-      </c>
-      <c r="Q22" s="61">
-        <f t="shared" si="69"/>
-        <v>82066</v>
-      </c>
-      <c r="R22" s="59">
+      <c r="L22" s="57">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="63">
+        <v>117</v>
+      </c>
+      <c r="M22" s="61">
         <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="69">
+        <v>82923</v>
+      </c>
+      <c r="N22" s="59">
         <f t="shared" si="78"/>
-        <v>28</v>
-      </c>
-      <c r="U22" s="73">
-        <f t="shared" si="78"/>
-        <v>17319</v>
-      </c>
-      <c r="V22" s="71">
+        <v>0</v>
+      </c>
+      <c r="O22" s="63">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="W22" s="75">
+      <c r="P22" s="35">
         <f t="shared" si="80"/>
+        <v>81</v>
+      </c>
+      <c r="Q22" s="49">
+        <f t="shared" si="81"/>
+        <v>85934</v>
+      </c>
+      <c r="R22" s="37">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="51">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="39">
+        <f t="shared" si="84"/>
+        <v>112</v>
+      </c>
+      <c r="U22" s="91">
+        <f t="shared" si="85"/>
+        <v>141996</v>
+      </c>
+      <c r="V22" s="41">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="45">
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="X22" s="65">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150</v>
       </c>
       <c r="Y22" s="47">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150000</v>
       </c>
       <c r="Z22" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="AA22" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AB22" s="77">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150</v>
       </c>
       <c r="AC22" s="83">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150000</v>
       </c>
       <c r="AD22" s="80">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AE22" s="86">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AF22" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AG22" s="18">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AH22" s="15"/>
       <c r="AI22" s="21">
-        <f t="shared" si="85"/>
-        <v>0</v>
+        <f t="shared" si="94"/>
+        <v>-17081</v>
       </c>
       <c r="AJ22" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AK22" s="21">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:37" hidden="1">
+    <row r="23" spans="2:37">
       <c r="B23" s="9" t="s">
         <v>25</v>
       </c>
@@ -3802,136 +3954,129 @@
         <v>42013</v>
       </c>
       <c r="D23" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>150</v>
       </c>
       <c r="E23" s="32">
-        <f t="shared" si="69"/>
-        <v>104251</v>
+        <v>114000</v>
       </c>
       <c r="F23" s="55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="G23" s="33">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="35">
-        <f t="shared" si="69"/>
-        <v>78</v>
-      </c>
-      <c r="I23" s="49">
-        <f t="shared" si="69"/>
-        <v>82955</v>
-      </c>
-      <c r="J23" s="37">
         <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="51">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="39">
-        <f t="shared" si="69"/>
-        <v>110</v>
-      </c>
-      <c r="M23" s="91">
-        <f t="shared" si="69"/>
-        <v>138250</v>
-      </c>
-      <c r="N23" s="41">
+        <v>8308</v>
+      </c>
+      <c r="H23" s="69">
+        <v>30</v>
+      </c>
+      <c r="I23" s="73">
+        <v>18033</v>
+      </c>
+      <c r="J23" s="71">
         <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="45">
+        <v>2</v>
+      </c>
+      <c r="K23" s="75">
         <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="57">
-        <f t="shared" si="69"/>
-        <v>116</v>
-      </c>
-      <c r="Q23" s="61">
-        <f t="shared" si="69"/>
-        <v>82066</v>
-      </c>
-      <c r="R23" s="59">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="S23" s="63">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="69">
+        <v>714</v>
+      </c>
+      <c r="L23" s="57">
+        <v>117</v>
+      </c>
+      <c r="M23" s="61">
+        <v>82923</v>
+      </c>
+      <c r="N23" s="59">
         <f t="shared" si="78"/>
-        <v>28</v>
-      </c>
-      <c r="U23" s="73">
-        <f t="shared" si="78"/>
-        <v>17319</v>
-      </c>
-      <c r="V23" s="71">
+        <v>1</v>
+      </c>
+      <c r="O23" s="63">
         <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="W23" s="75">
-        <f t="shared" si="80"/>
-        <v>0</v>
+        <v>857</v>
+      </c>
+      <c r="P23" s="35">
+        <v>81</v>
+      </c>
+      <c r="Q23" s="49">
+        <v>85934</v>
+      </c>
+      <c r="R23" s="37">
+        <f t="shared" si="82"/>
+        <v>2</v>
+      </c>
+      <c r="S23" s="51">
+        <f t="shared" si="83"/>
+        <v>2025</v>
+      </c>
+      <c r="T23" s="39">
+        <v>112</v>
+      </c>
+      <c r="U23" s="91">
+        <v>141996</v>
+      </c>
+      <c r="V23" s="41">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="W23" s="45">
+        <f t="shared" si="87"/>
+        <v>217</v>
       </c>
       <c r="X23" s="65">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150</v>
       </c>
       <c r="Y23" s="47">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150000</v>
       </c>
       <c r="Z23" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="AA23" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AB23" s="77">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150</v>
       </c>
       <c r="AC23" s="83">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150000</v>
       </c>
       <c r="AD23" s="80">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AE23" s="86">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AF23" s="12">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="92"/>
+        <v>7</v>
       </c>
       <c r="AG23" s="18">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="AH23" s="15"/>
+        <f t="shared" si="93"/>
+        <v>12121</v>
+      </c>
+      <c r="AH23" s="15">
+        <v>17081</v>
+      </c>
       <c r="AI23" s="21">
-        <f t="shared" si="85"/>
-        <v>-17045</v>
+        <f t="shared" si="94"/>
+        <v>0</v>
       </c>
       <c r="AJ23" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AK23" s="21">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
     </row>
@@ -3946,71 +4091,71 @@
         <v>150</v>
       </c>
       <c r="E24" s="32">
-        <v>104251</v>
+        <v>105692</v>
       </c>
       <c r="F24" s="55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="G24" s="33">
-        <f t="shared" si="71"/>
-        <v>2866</v>
-      </c>
-      <c r="H24" s="35">
-        <v>78</v>
-      </c>
-      <c r="I24" s="49">
-        <v>82955</v>
-      </c>
-      <c r="J24" s="37">
         <f t="shared" si="72"/>
-        <v>2</v>
-      </c>
-      <c r="K24" s="51">
-        <f t="shared" si="73"/>
-        <v>2031</v>
-      </c>
-      <c r="L24" s="39">
+        <v>4307</v>
+      </c>
+      <c r="H24" s="69">
+        <v>28</v>
+      </c>
+      <c r="I24" s="73">
+        <v>17319</v>
+      </c>
+      <c r="J24" s="71">
+        <f t="shared" si="74"/>
+        <v>3</v>
+      </c>
+      <c r="K24" s="75">
+        <f t="shared" si="75"/>
+        <v>1762</v>
+      </c>
+      <c r="L24" s="57">
+        <v>116</v>
+      </c>
+      <c r="M24" s="61">
+        <v>82066</v>
+      </c>
+      <c r="N24" s="59">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="O24" s="63">
+        <f t="shared" si="79"/>
+        <v>2525</v>
+      </c>
+      <c r="P24" s="35">
+        <v>79</v>
+      </c>
+      <c r="Q24" s="49">
+        <v>83909</v>
+      </c>
+      <c r="R24" s="37">
+        <f t="shared" si="82"/>
+        <v>3</v>
+      </c>
+      <c r="S24" s="51">
+        <f t="shared" si="83"/>
+        <v>2985</v>
+      </c>
+      <c r="T24" s="39">
         <v>110</v>
       </c>
-      <c r="M24" s="91">
-        <v>138250</v>
-      </c>
-      <c r="N24" s="41">
-        <f t="shared" si="74"/>
+      <c r="U24" s="91">
+        <v>141779</v>
+      </c>
+      <c r="V24" s="41">
+        <f t="shared" si="86"/>
         <v>9</v>
       </c>
-      <c r="O24" s="45">
-        <f t="shared" si="75"/>
-        <v>16823</v>
-      </c>
-      <c r="P24" s="57">
-        <v>116</v>
-      </c>
-      <c r="Q24" s="61">
-        <v>82066</v>
-      </c>
-      <c r="R24" s="59">
-        <f t="shared" si="76"/>
-        <v>1</v>
-      </c>
-      <c r="S24" s="63">
-        <f t="shared" si="77"/>
-        <v>2525</v>
-      </c>
-      <c r="T24" s="69">
-        <v>28</v>
-      </c>
-      <c r="U24" s="73">
-        <v>17319</v>
-      </c>
-      <c r="V24" s="71">
-        <f t="shared" si="79"/>
-        <v>3</v>
-      </c>
-      <c r="W24" s="75">
-        <f t="shared" si="80"/>
-        <v>1762</v>
+      <c r="W24" s="45">
+        <f t="shared" si="87"/>
+        <v>20352</v>
       </c>
       <c r="X24" s="65">
         <v>150</v>
@@ -4019,51 +4164,51 @@
         <v>150000</v>
       </c>
       <c r="Z24" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>17</v>
       </c>
       <c r="AA24" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>11371</v>
       </c>
       <c r="AB24" s="77">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150</v>
       </c>
       <c r="AC24" s="83">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150000</v>
       </c>
       <c r="AD24" s="80">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AE24" s="86">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AF24" s="12">
-        <f t="shared" si="88"/>
-        <v>33</v>
+        <f t="shared" si="92"/>
+        <v>34</v>
       </c>
       <c r="AG24" s="18">
-        <f t="shared" si="88"/>
-        <v>37378</v>
+        <f t="shared" si="93"/>
+        <v>43302</v>
       </c>
       <c r="AH24" s="15">
-        <v>17045</v>
+        <v>17081</v>
       </c>
       <c r="AI24" s="21">
-        <f t="shared" si="85"/>
-        <v>11</v>
+        <f t="shared" si="94"/>
+        <v>47</v>
       </c>
       <c r="AJ24" s="15">
-        <f t="shared" si="86"/>
-        <v>3</v>
+        <f t="shared" si="95"/>
+        <v>0.72340425531914898</v>
       </c>
       <c r="AK24" s="21">
-        <f t="shared" si="87"/>
-        <v>3398</v>
+        <f t="shared" si="96"/>
+        <v>921.31914893617022</v>
       </c>
     </row>
     <row r="25" spans="2:37">
@@ -4074,83 +4219,83 @@
         <v>42011</v>
       </c>
       <c r="D25" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>149</v>
       </c>
       <c r="E25" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>101385</v>
       </c>
       <c r="F25" s="55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="G25" s="33">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="69">
+        <f t="shared" si="73"/>
+        <v>25</v>
+      </c>
+      <c r="I25" s="73">
+        <f t="shared" si="73"/>
+        <v>15557</v>
+      </c>
+      <c r="J25" s="71">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="75">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="57">
+        <f>L26</f>
+        <v>115</v>
+      </c>
+      <c r="M25" s="61">
+        <f>M26</f>
+        <v>79541</v>
+      </c>
+      <c r="N25" s="59">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="63">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="35">
+        <f>P26</f>
         <v>76</v>
       </c>
-      <c r="I25" s="49">
-        <f t="shared" si="69"/>
+      <c r="Q25" s="49">
+        <f>Q26</f>
         <v>80924</v>
       </c>
-      <c r="J25" s="37">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="51">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="39">
-        <f t="shared" si="69"/>
+      <c r="R25" s="37">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="51">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="39">
+        <f>T26</f>
         <v>101</v>
       </c>
-      <c r="M25" s="91">
-        <f t="shared" si="69"/>
+      <c r="U25" s="91">
+        <f>U26</f>
         <v>121427</v>
       </c>
-      <c r="N25" s="41">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="45">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="57">
-        <f t="shared" si="69"/>
-        <v>115</v>
-      </c>
-      <c r="Q25" s="61">
-        <f t="shared" si="69"/>
-        <v>79541</v>
-      </c>
-      <c r="R25" s="59">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="S25" s="63">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="69">
-        <f t="shared" si="78"/>
-        <v>25</v>
-      </c>
-      <c r="U25" s="73">
-        <f t="shared" si="78"/>
-        <v>15557</v>
-      </c>
-      <c r="V25" s="71">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="75">
-        <f t="shared" si="80"/>
+      <c r="V25" s="41">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="45">
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="X25" s="65">
@@ -4160,50 +4305,50 @@
         <v>138629</v>
       </c>
       <c r="Z25" s="61">
-        <f t="shared" si="81"/>
-        <v>16</v>
-      </c>
-      <c r="AA25" s="67">
-        <f t="shared" si="82"/>
-        <v>16053</v>
-      </c>
-      <c r="AB25" s="77">
-        <f t="shared" si="78"/>
-        <v>150</v>
-      </c>
-      <c r="AC25" s="83">
-        <f t="shared" si="78"/>
-        <v>150000</v>
-      </c>
-      <c r="AD25" s="80">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="AE25" s="86">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="12">
         <f t="shared" si="88"/>
         <v>16</v>
       </c>
+      <c r="AA25" s="67">
+        <f t="shared" si="89"/>
+        <v>16053</v>
+      </c>
+      <c r="AB25" s="77">
+        <f t="shared" si="73"/>
+        <v>150</v>
+      </c>
+      <c r="AC25" s="83">
+        <f t="shared" si="73"/>
+        <v>150000</v>
+      </c>
+      <c r="AD25" s="80">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="86">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="12">
+        <f t="shared" si="92"/>
+        <v>16</v>
+      </c>
       <c r="AG25" s="18">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>16053</v>
       </c>
       <c r="AH25" s="15">
         <v>17034</v>
       </c>
       <c r="AI25" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="94"/>
         <v>15</v>
       </c>
       <c r="AJ25" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>1.0666666666666667</v>
       </c>
       <c r="AK25" s="21">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>1070.2</v>
       </c>
     </row>
@@ -4221,72 +4366,72 @@
         <v>101385</v>
       </c>
       <c r="F26" s="55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>10</v>
       </c>
       <c r="G26" s="33">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>3866</v>
       </c>
-      <c r="H26" s="35">
+      <c r="H26" s="69">
+        <f t="shared" si="73"/>
+        <v>25</v>
+      </c>
+      <c r="I26" s="73">
+        <f t="shared" si="73"/>
+        <v>15557</v>
+      </c>
+      <c r="J26" s="71">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="75">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="57">
+        <f>L27</f>
+        <v>115</v>
+      </c>
+      <c r="M26" s="61">
+        <f>M27</f>
+        <v>79541</v>
+      </c>
+      <c r="N26" s="59">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="63">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="35">
         <v>76</v>
       </c>
-      <c r="I26" s="49">
+      <c r="Q26" s="49">
         <v>80924</v>
       </c>
-      <c r="J26" s="37">
-        <f t="shared" si="72"/>
+      <c r="R26" s="37">
+        <f t="shared" si="82"/>
         <v>3</v>
       </c>
-      <c r="K26" s="51">
-        <f t="shared" si="73"/>
+      <c r="S26" s="51">
+        <f t="shared" si="83"/>
         <v>3617</v>
       </c>
-      <c r="L26" s="39">
+      <c r="T26" s="39">
         <v>101</v>
       </c>
-      <c r="M26" s="91">
+      <c r="U26" s="91">
         <v>121427</v>
       </c>
-      <c r="N26" s="41">
-        <f t="shared" si="74"/>
+      <c r="V26" s="41">
+        <f t="shared" si="86"/>
         <v>4</v>
       </c>
-      <c r="O26" s="45">
-        <f t="shared" si="75"/>
+      <c r="W26" s="45">
+        <f t="shared" si="87"/>
         <v>2447</v>
-      </c>
-      <c r="P26" s="57">
-        <f t="shared" si="69"/>
-        <v>115</v>
-      </c>
-      <c r="Q26" s="61">
-        <f t="shared" si="69"/>
-        <v>79541</v>
-      </c>
-      <c r="R26" s="59">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="63">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="69">
-        <f t="shared" si="78"/>
-        <v>25</v>
-      </c>
-      <c r="U26" s="73">
-        <f t="shared" si="78"/>
-        <v>15557</v>
-      </c>
-      <c r="V26" s="71">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="W26" s="75">
-        <f t="shared" si="80"/>
-        <v>0</v>
       </c>
       <c r="X26" s="65">
         <v>117</v>
@@ -4295,50 +4440,50 @@
         <v>122576</v>
       </c>
       <c r="Z26" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>12</v>
       </c>
       <c r="AA26" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>18202</v>
       </c>
       <c r="AB26" s="77">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150</v>
       </c>
       <c r="AC26" s="83">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150000</v>
       </c>
       <c r="AD26" s="80">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AE26" s="86">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AF26" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>29</v>
       </c>
       <c r="AG26" s="18">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>28132</v>
       </c>
       <c r="AH26" s="15">
         <v>17019</v>
       </c>
       <c r="AI26" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="94"/>
         <v>24</v>
       </c>
       <c r="AJ26" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>1.2083333333333333</v>
       </c>
       <c r="AK26" s="21">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>1172.1666666666667</v>
       </c>
     </row>
@@ -4356,70 +4501,70 @@
         <v>97519</v>
       </c>
       <c r="F27" s="55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>4</v>
       </c>
       <c r="G27" s="33">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>4701</v>
       </c>
-      <c r="H27" s="35">
+      <c r="H27" s="69">
+        <f t="shared" si="73"/>
+        <v>25</v>
+      </c>
+      <c r="I27" s="73">
+        <f t="shared" si="73"/>
+        <v>15557</v>
+      </c>
+      <c r="J27" s="71">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="75">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="57">
+        <v>115</v>
+      </c>
+      <c r="M27" s="61">
+        <v>79541</v>
+      </c>
+      <c r="N27" s="59">
+        <f t="shared" si="78"/>
+        <v>8</v>
+      </c>
+      <c r="O27" s="63">
+        <f t="shared" si="79"/>
+        <v>1661</v>
+      </c>
+      <c r="P27" s="35">
         <v>73</v>
       </c>
-      <c r="I27" s="49">
+      <c r="Q27" s="49">
         <v>77307</v>
       </c>
-      <c r="J27" s="37">
-        <f t="shared" si="72"/>
+      <c r="R27" s="37">
+        <f t="shared" si="82"/>
         <v>7</v>
       </c>
-      <c r="K27" s="51">
-        <f t="shared" si="73"/>
+      <c r="S27" s="51">
+        <f t="shared" si="83"/>
         <v>4350</v>
       </c>
-      <c r="L27" s="39">
+      <c r="T27" s="39">
         <v>97</v>
       </c>
-      <c r="M27" s="91">
+      <c r="U27" s="91">
         <v>118980</v>
       </c>
-      <c r="N27" s="41">
-        <f t="shared" si="74"/>
+      <c r="V27" s="41">
+        <f t="shared" si="86"/>
         <v>5</v>
       </c>
-      <c r="O27" s="45">
-        <f t="shared" si="75"/>
+      <c r="W27" s="45">
+        <f t="shared" si="87"/>
         <v>4591</v>
-      </c>
-      <c r="P27" s="57">
-        <v>115</v>
-      </c>
-      <c r="Q27" s="61">
-        <v>79541</v>
-      </c>
-      <c r="R27" s="59">
-        <f t="shared" si="76"/>
-        <v>8</v>
-      </c>
-      <c r="S27" s="63">
-        <f t="shared" si="77"/>
-        <v>1661</v>
-      </c>
-      <c r="T27" s="69">
-        <f t="shared" si="78"/>
-        <v>25</v>
-      </c>
-      <c r="U27" s="73">
-        <f t="shared" si="78"/>
-        <v>15557</v>
-      </c>
-      <c r="V27" s="71">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="W27" s="75">
-        <f t="shared" si="80"/>
-        <v>0</v>
       </c>
       <c r="X27" s="65">
         <v>105</v>
@@ -4428,50 +4573,50 @@
         <v>104374</v>
       </c>
       <c r="Z27" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>4</v>
       </c>
       <c r="AA27" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>5145</v>
       </c>
       <c r="AB27" s="77">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150</v>
       </c>
       <c r="AC27" s="83">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150000</v>
       </c>
       <c r="AD27" s="80">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AE27" s="86">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AF27" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>28</v>
       </c>
       <c r="AG27" s="18">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>20448</v>
       </c>
       <c r="AH27" s="15">
         <v>16995</v>
       </c>
       <c r="AI27" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="94"/>
         <v>22</v>
       </c>
       <c r="AJ27" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>1.2727272727272727</v>
       </c>
       <c r="AK27" s="21">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>929.4545454545455</v>
       </c>
     </row>
@@ -4489,68 +4634,68 @@
         <v>92818</v>
       </c>
       <c r="F28" s="55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>32</v>
       </c>
       <c r="G28" s="33">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>23518</v>
       </c>
-      <c r="H28" s="35">
+      <c r="H28" s="69">
+        <v>25</v>
+      </c>
+      <c r="I28" s="73">
+        <v>15557</v>
+      </c>
+      <c r="J28" s="71">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="75">
+        <f t="shared" si="75"/>
+        <v>1656</v>
+      </c>
+      <c r="L28" s="57">
+        <v>107</v>
+      </c>
+      <c r="M28" s="61">
+        <v>77880</v>
+      </c>
+      <c r="N28" s="59">
+        <f t="shared" si="78"/>
+        <v>11</v>
+      </c>
+      <c r="O28" s="63">
+        <f t="shared" si="79"/>
+        <v>12141</v>
+      </c>
+      <c r="P28" s="35">
         <v>66</v>
       </c>
-      <c r="I28" s="49">
+      <c r="Q28" s="49">
         <v>72957</v>
       </c>
-      <c r="J28" s="37">
-        <f t="shared" si="72"/>
+      <c r="R28" s="37">
+        <f t="shared" si="82"/>
         <v>13</v>
       </c>
-      <c r="K28" s="51">
-        <f t="shared" si="73"/>
+      <c r="S28" s="51">
+        <f t="shared" si="83"/>
         <v>10825</v>
       </c>
-      <c r="L28" s="39">
+      <c r="T28" s="39">
         <v>92</v>
       </c>
-      <c r="M28" s="91">
+      <c r="U28" s="91">
         <v>114389</v>
       </c>
-      <c r="N28" s="41">
-        <f t="shared" si="74"/>
+      <c r="V28" s="41">
+        <f t="shared" si="86"/>
         <v>30</v>
       </c>
-      <c r="O28" s="45">
-        <f>M28-M29</f>
+      <c r="W28" s="45">
+        <f>U28-U29</f>
         <v>38065</v>
-      </c>
-      <c r="P28" s="57">
-        <v>107</v>
-      </c>
-      <c r="Q28" s="61">
-        <v>77880</v>
-      </c>
-      <c r="R28" s="59">
-        <f t="shared" si="76"/>
-        <v>11</v>
-      </c>
-      <c r="S28" s="63">
-        <f t="shared" si="77"/>
-        <v>12141</v>
-      </c>
-      <c r="T28" s="69">
-        <v>25</v>
-      </c>
-      <c r="U28" s="73">
-        <v>15557</v>
-      </c>
-      <c r="V28" s="71">
-        <f t="shared" si="79"/>
-        <v>1</v>
-      </c>
-      <c r="W28" s="75">
-        <f t="shared" si="80"/>
-        <v>1656</v>
       </c>
       <c r="X28" s="65">
         <v>101</v>
@@ -4559,50 +4704,50 @@
         <v>99229</v>
       </c>
       <c r="Z28" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>27</v>
       </c>
       <c r="AA28" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>24483</v>
       </c>
       <c r="AB28" s="77">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150</v>
       </c>
       <c r="AC28" s="83">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>150000</v>
       </c>
       <c r="AD28" s="80">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AE28" s="86">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AF28" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>114</v>
       </c>
       <c r="AG28" s="18">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>110688</v>
       </c>
       <c r="AH28" s="15">
         <v>16973</v>
       </c>
       <c r="AI28" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="94"/>
         <v>126</v>
       </c>
       <c r="AJ28" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>0.90476190476190477</v>
       </c>
       <c r="AK28" s="21">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>878.47619047619048</v>
       </c>
     </row>
@@ -4620,68 +4765,68 @@
         <v>69300</v>
       </c>
       <c r="F29" s="55">
-        <f t="shared" ref="F29" si="89">D29-D30</f>
+        <f t="shared" ref="F29" si="97">D29-D30</f>
         <v>8</v>
       </c>
       <c r="G29" s="33">
-        <f t="shared" ref="G29" si="90">E29-E30</f>
+        <f t="shared" ref="G29" si="98">E29-E30</f>
         <v>4151</v>
       </c>
-      <c r="H29" s="35">
+      <c r="H29" s="69">
+        <v>24</v>
+      </c>
+      <c r="I29" s="73">
+        <v>13901</v>
+      </c>
+      <c r="J29" s="71">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="75">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="57">
+        <v>96</v>
+      </c>
+      <c r="M29" s="61">
+        <v>65739</v>
+      </c>
+      <c r="N29" s="59">
+        <f t="shared" si="78"/>
+        <v>6</v>
+      </c>
+      <c r="O29" s="63">
+        <f t="shared" si="79"/>
+        <v>6671</v>
+      </c>
+      <c r="P29" s="35">
         <v>53</v>
       </c>
-      <c r="I29" s="49">
+      <c r="Q29" s="49">
         <v>62132</v>
       </c>
-      <c r="J29" s="37">
-        <f t="shared" si="72"/>
+      <c r="R29" s="37">
+        <f t="shared" si="82"/>
         <v>15</v>
       </c>
-      <c r="K29" s="51">
-        <f t="shared" si="73"/>
+      <c r="S29" s="51">
+        <f t="shared" si="83"/>
         <v>14540</v>
       </c>
-      <c r="L29" s="39">
+      <c r="T29" s="39">
         <v>62</v>
       </c>
-      <c r="M29" s="43">
+      <c r="U29" s="43">
         <v>76324</v>
       </c>
-      <c r="N29" s="41">
-        <f t="shared" si="74"/>
+      <c r="V29" s="41">
+        <f t="shared" si="86"/>
         <v>2</v>
       </c>
-      <c r="O29" s="45">
-        <f t="shared" si="75"/>
+      <c r="W29" s="45">
+        <f t="shared" si="87"/>
         <v>1209</v>
-      </c>
-      <c r="P29" s="57">
-        <v>96</v>
-      </c>
-      <c r="Q29" s="61">
-        <v>65739</v>
-      </c>
-      <c r="R29" s="59">
-        <f t="shared" si="76"/>
-        <v>6</v>
-      </c>
-      <c r="S29" s="63">
-        <f t="shared" si="77"/>
-        <v>6671</v>
-      </c>
-      <c r="T29" s="69">
-        <v>24</v>
-      </c>
-      <c r="U29" s="73">
-        <v>13901</v>
-      </c>
-      <c r="V29" s="71">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="W29" s="75">
-        <f t="shared" si="80"/>
-        <v>0</v>
       </c>
       <c r="X29" s="65">
         <v>74</v>
@@ -4690,11 +4835,11 @@
         <v>74746</v>
       </c>
       <c r="Z29" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>13</v>
       </c>
       <c r="AA29" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>14974</v>
       </c>
       <c r="AB29" s="77">
@@ -4704,34 +4849,34 @@
         <v>150000</v>
       </c>
       <c r="AD29" s="80">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>14</v>
       </c>
       <c r="AE29" s="86">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AF29" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>58</v>
       </c>
       <c r="AG29" s="18">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>41545</v>
       </c>
       <c r="AH29" s="15">
         <v>16847</v>
       </c>
       <c r="AI29" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="94"/>
         <v>63</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>0.92063492063492058</v>
       </c>
       <c r="AK29" s="21">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>659.44444444444446</v>
       </c>
     </row>
@@ -4743,98 +4888,98 @@
         <v>42006</v>
       </c>
       <c r="D30" s="53">
-        <f t="shared" ref="D30:Q42" si="91">D31</f>
+        <f t="shared" ref="D30:E39" si="99">D31</f>
         <v>95</v>
       </c>
       <c r="E30" s="32">
-        <f t="shared" si="91"/>
+        <f t="shared" si="99"/>
         <v>65149</v>
       </c>
       <c r="F30" s="55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="G30" s="33">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="35">
-        <f t="shared" si="91"/>
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="69">
+        <f t="shared" si="73"/>
+        <v>24</v>
+      </c>
+      <c r="I30" s="73">
+        <f t="shared" si="73"/>
+        <v>13901</v>
+      </c>
+      <c r="J30" s="71">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="75">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="57">
+        <f t="shared" ref="L30:M32" si="100">L31</f>
+        <v>90</v>
+      </c>
+      <c r="M30" s="61">
+        <f t="shared" si="100"/>
+        <v>59068</v>
+      </c>
+      <c r="N30" s="59">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="63">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="35">
+        <f t="shared" ref="P30:Q33" si="101">P31</f>
         <v>38</v>
       </c>
-      <c r="I30" s="49">
-        <f t="shared" si="91"/>
+      <c r="Q30" s="49">
+        <f t="shared" si="101"/>
         <v>47592</v>
       </c>
-      <c r="J30" s="37">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="51">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="39">
-        <f t="shared" si="91"/>
+      <c r="R30" s="37">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="51">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="39">
+        <f>T31</f>
         <v>60</v>
       </c>
-      <c r="M30" s="43">
+      <c r="U30" s="43">
         <v>75115</v>
       </c>
-      <c r="N30" s="41">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="45">
-        <f t="shared" si="75"/>
+      <c r="V30" s="41">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="45">
+        <f t="shared" si="87"/>
         <v>3216</v>
       </c>
-      <c r="P30" s="57">
-        <f t="shared" si="91"/>
-        <v>90</v>
-      </c>
-      <c r="Q30" s="61">
-        <f t="shared" si="91"/>
-        <v>59068</v>
-      </c>
-      <c r="R30" s="59">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="63">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="T30" s="69">
-        <f t="shared" si="78"/>
-        <v>24</v>
-      </c>
-      <c r="U30" s="73">
-        <f t="shared" si="78"/>
-        <v>13901</v>
-      </c>
-      <c r="V30" s="71">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="W30" s="75">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
       <c r="X30" s="65">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>61</v>
       </c>
       <c r="Y30" s="47">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>59772</v>
       </c>
       <c r="Z30" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="AA30" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AB30" s="77">
@@ -4844,34 +4989,34 @@
         <v>150000</v>
       </c>
       <c r="AD30" s="80">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>35</v>
       </c>
       <c r="AE30" s="86">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>28631</v>
       </c>
       <c r="AF30" s="12">
-        <f t="shared" ref="AF30:AG46" si="92">SUM(D30,H30,L30,P30,T30,X30,AB30)-SUM(D31,H31,L31,P31,T31,X31,AB31)</f>
+        <f t="shared" si="92"/>
         <v>35</v>
       </c>
       <c r="AG30" s="18">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>31847</v>
       </c>
       <c r="AH30" s="15">
         <v>16784</v>
       </c>
       <c r="AI30" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="94"/>
         <v>41</v>
       </c>
       <c r="AJ30" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>0.85365853658536583</v>
       </c>
       <c r="AK30" s="21">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>776.7560975609756</v>
       </c>
     </row>
@@ -4883,99 +5028,99 @@
         <v>42005</v>
       </c>
       <c r="D31" s="53">
-        <f t="shared" si="91"/>
+        <f t="shared" si="99"/>
         <v>95</v>
       </c>
       <c r="E31" s="32">
-        <f t="shared" si="91"/>
+        <f t="shared" si="99"/>
         <v>65149</v>
       </c>
       <c r="F31" s="55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="G31" s="33">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="35">
-        <f t="shared" si="91"/>
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="69">
+        <f t="shared" si="73"/>
+        <v>24</v>
+      </c>
+      <c r="I31" s="73">
+        <f t="shared" si="73"/>
+        <v>13901</v>
+      </c>
+      <c r="J31" s="71">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="75">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="57">
+        <f t="shared" si="100"/>
+        <v>90</v>
+      </c>
+      <c r="M31" s="61">
+        <f t="shared" si="100"/>
+        <v>59068</v>
+      </c>
+      <c r="N31" s="59">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="63">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="35">
+        <f t="shared" si="101"/>
         <v>38</v>
       </c>
-      <c r="I31" s="49">
-        <f t="shared" si="91"/>
+      <c r="Q31" s="49">
+        <f t="shared" si="101"/>
         <v>47592</v>
       </c>
-      <c r="J31" s="37">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="51">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="39">
-        <f t="shared" si="91"/>
+      <c r="R31" s="37">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="51">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="39">
+        <f>T32</f>
         <v>60</v>
       </c>
-      <c r="M31" s="43">
-        <f t="shared" si="91"/>
+      <c r="U31" s="43">
+        <f>U32</f>
         <v>71899</v>
       </c>
-      <c r="N31" s="41">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="45">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="57">
-        <f t="shared" si="91"/>
-        <v>90</v>
-      </c>
-      <c r="Q31" s="61">
-        <f t="shared" si="91"/>
-        <v>59068</v>
-      </c>
-      <c r="R31" s="59">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="63">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="69">
-        <f t="shared" si="78"/>
-        <v>24</v>
-      </c>
-      <c r="U31" s="73">
-        <f t="shared" si="78"/>
-        <v>13901</v>
-      </c>
-      <c r="V31" s="71">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="W31" s="75">
-        <f t="shared" si="80"/>
+      <c r="V31" s="41">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="45">
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="X31" s="65">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>61</v>
       </c>
       <c r="Y31" s="47">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>59772</v>
       </c>
       <c r="Z31" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="AA31" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AB31" s="77">
@@ -4985,11 +5130,11 @@
         <v>121369</v>
       </c>
       <c r="AD31" s="80">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>23</v>
       </c>
       <c r="AE31" s="86">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>23745</v>
       </c>
       <c r="AF31" s="12">
@@ -4997,14 +5142,14 @@
         <v>23</v>
       </c>
       <c r="AG31" s="18">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>23745</v>
       </c>
       <c r="AH31" s="15">
         <v>16743</v>
       </c>
       <c r="AI31" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="94"/>
         <v>21</v>
       </c>
       <c r="AJ31" s="15">
@@ -5024,115 +5169,115 @@
         <v>42004</v>
       </c>
       <c r="D32" s="53">
+        <f t="shared" si="99"/>
+        <v>95</v>
+      </c>
+      <c r="E32" s="32">
+        <f t="shared" si="99"/>
+        <v>65149</v>
+      </c>
+      <c r="F32" s="55">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="33">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="69">
+        <f t="shared" si="73"/>
+        <v>24</v>
+      </c>
+      <c r="I32" s="73">
+        <f t="shared" si="73"/>
+        <v>13901</v>
+      </c>
+      <c r="J32" s="71">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="75">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="57">
+        <f t="shared" si="100"/>
+        <v>90</v>
+      </c>
+      <c r="M32" s="61">
+        <f t="shared" si="100"/>
+        <v>59068</v>
+      </c>
+      <c r="N32" s="59">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="63">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="35">
+        <f t="shared" si="101"/>
+        <v>38</v>
+      </c>
+      <c r="Q32" s="49">
+        <f t="shared" si="101"/>
+        <v>47592</v>
+      </c>
+      <c r="R32" s="37">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="51">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="39">
+        <f>T33</f>
+        <v>60</v>
+      </c>
+      <c r="U32" s="43">
+        <f>U33</f>
+        <v>71899</v>
+      </c>
+      <c r="V32" s="41">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="45">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="X32" s="65">
+        <f t="shared" si="73"/>
+        <v>61</v>
+      </c>
+      <c r="Y32" s="47">
+        <f t="shared" si="73"/>
+        <v>59772</v>
+      </c>
+      <c r="Z32" s="61">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="67">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="77">
+        <f t="shared" si="73"/>
+        <v>78</v>
+      </c>
+      <c r="AC32" s="83">
+        <f t="shared" si="73"/>
+        <v>97624</v>
+      </c>
+      <c r="AD32" s="80">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="86">
         <f t="shared" si="91"/>
-        <v>95</v>
-      </c>
-      <c r="E32" s="32">
-        <f t="shared" si="91"/>
-        <v>65149</v>
-      </c>
-      <c r="F32" s="55">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="33">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="35">
-        <f t="shared" si="91"/>
-        <v>38</v>
-      </c>
-      <c r="I32" s="49">
-        <f t="shared" si="91"/>
-        <v>47592</v>
-      </c>
-      <c r="J32" s="37">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="51">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="39">
-        <f t="shared" si="91"/>
-        <v>60</v>
-      </c>
-      <c r="M32" s="43">
-        <f t="shared" si="91"/>
-        <v>71899</v>
-      </c>
-      <c r="N32" s="41">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="45">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="57">
-        <f t="shared" si="91"/>
-        <v>90</v>
-      </c>
-      <c r="Q32" s="61">
-        <f t="shared" si="91"/>
-        <v>59068</v>
-      </c>
-      <c r="R32" s="59">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="S32" s="63">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="69">
-        <f t="shared" si="78"/>
-        <v>24</v>
-      </c>
-      <c r="U32" s="73">
-        <f t="shared" si="78"/>
-        <v>13901</v>
-      </c>
-      <c r="V32" s="71">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="W32" s="75">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="X32" s="65">
-        <f t="shared" si="78"/>
-        <v>61</v>
-      </c>
-      <c r="Y32" s="47">
-        <f t="shared" si="78"/>
-        <v>59772</v>
-      </c>
-      <c r="Z32" s="61">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="AA32" s="67">
-        <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="AB32" s="77">
-        <f t="shared" si="78"/>
-        <v>78</v>
-      </c>
-      <c r="AC32" s="83">
-        <f t="shared" si="78"/>
-        <v>97624</v>
-      </c>
-      <c r="AD32" s="80">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="AE32" s="86">
-        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="AF32" s="12">
@@ -5140,22 +5285,22 @@
         <v>0</v>
       </c>
       <c r="AG32" s="18">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AH32" s="15">
         <v>16722</v>
       </c>
       <c r="AI32" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AJ32" s="15">
-        <f t="shared" ref="AJ32:AJ33" si="93">IF($AI32=0,0,AF32/$AI32)</f>
+        <f t="shared" ref="AJ32:AJ33" si="102">IF($AI32=0,0,AF32/$AI32)</f>
         <v>0</v>
       </c>
       <c r="AK32" s="21">
-        <f t="shared" ref="AK32:AK33" si="94">IF($AI32=0,0,AG32/$AI32)</f>
+        <f t="shared" ref="AK32:AK33" si="103">IF($AI32=0,0,AG32/$AI32)</f>
         <v>0</v>
       </c>
     </row>
@@ -5173,87 +5318,87 @@
         <v>65149</v>
       </c>
       <c r="F33" s="55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>9</v>
       </c>
       <c r="G33" s="33">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>6604</v>
       </c>
-      <c r="H33" s="35">
-        <f t="shared" si="91"/>
+      <c r="H33" s="69">
+        <f t="shared" si="73"/>
+        <v>24</v>
+      </c>
+      <c r="I33" s="73">
+        <f t="shared" si="73"/>
+        <v>13901</v>
+      </c>
+      <c r="J33" s="71">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="75">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="57">
+        <v>90</v>
+      </c>
+      <c r="M33" s="61">
+        <v>59068</v>
+      </c>
+      <c r="N33" s="59">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="O33" s="63">
+        <f t="shared" si="79"/>
+        <v>909</v>
+      </c>
+      <c r="P33" s="35">
+        <f t="shared" si="101"/>
         <v>38</v>
       </c>
-      <c r="I33" s="49">
-        <f t="shared" si="91"/>
+      <c r="Q33" s="49">
+        <f t="shared" si="101"/>
         <v>47592</v>
       </c>
-      <c r="J33" s="37">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="51">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="39">
+      <c r="R33" s="37">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="51">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="39">
         <v>60</v>
       </c>
-      <c r="M33" s="43">
+      <c r="U33" s="43">
         <v>71899</v>
       </c>
-      <c r="N33" s="41">
-        <f t="shared" si="74"/>
+      <c r="V33" s="41">
+        <f t="shared" si="86"/>
         <v>2</v>
       </c>
-      <c r="O33" s="45">
-        <f t="shared" si="75"/>
+      <c r="W33" s="45">
+        <f t="shared" si="87"/>
         <v>3515</v>
       </c>
-      <c r="P33" s="57">
-        <v>90</v>
-      </c>
-      <c r="Q33" s="61">
-        <v>59068</v>
-      </c>
-      <c r="R33" s="59">
-        <f t="shared" si="76"/>
-        <v>1</v>
-      </c>
-      <c r="S33" s="63">
-        <f t="shared" si="77"/>
-        <v>909</v>
-      </c>
-      <c r="T33" s="69">
-        <f t="shared" si="78"/>
-        <v>24</v>
-      </c>
-      <c r="U33" s="73">
-        <f t="shared" si="78"/>
-        <v>13901</v>
-      </c>
-      <c r="V33" s="71">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="W33" s="75">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
       <c r="X33" s="65">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>61</v>
       </c>
       <c r="Y33" s="47">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>59772</v>
       </c>
       <c r="Z33" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="AA33" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AB33" s="77">
@@ -5263,11 +5408,11 @@
         <v>97624</v>
       </c>
       <c r="AD33" s="80">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>17</v>
       </c>
       <c r="AE33" s="86">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>15893</v>
       </c>
       <c r="AF33" s="12">
@@ -5275,22 +5420,22 @@
         <v>29</v>
       </c>
       <c r="AG33" s="18">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>26921</v>
       </c>
       <c r="AH33" s="15">
         <v>16722</v>
       </c>
       <c r="AI33" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="94"/>
         <v>27</v>
       </c>
       <c r="AJ33" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="102"/>
         <v>1.0740740740740742</v>
       </c>
       <c r="AK33" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="103"/>
         <v>997.07407407407402</v>
       </c>
     </row>
@@ -5308,102 +5453,102 @@
         <v>58545</v>
       </c>
       <c r="F34" s="55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>5</v>
       </c>
       <c r="G34" s="33">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>2176</v>
       </c>
-      <c r="H34" s="35">
+      <c r="H34" s="69">
+        <f t="shared" si="73"/>
+        <v>24</v>
+      </c>
+      <c r="I34" s="73">
+        <f t="shared" si="73"/>
+        <v>13901</v>
+      </c>
+      <c r="J34" s="71">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="75">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="57">
+        <f>L35</f>
+        <v>89</v>
+      </c>
+      <c r="M34" s="61">
+        <f>M35</f>
+        <v>58159</v>
+      </c>
+      <c r="N34" s="59">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="63">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="35">
         <v>38</v>
       </c>
-      <c r="I34" s="49">
+      <c r="Q34" s="49">
         <v>47592</v>
       </c>
-      <c r="J34" s="37">
-        <f t="shared" si="72"/>
+      <c r="R34" s="37">
+        <f t="shared" si="82"/>
         <v>3</v>
       </c>
-      <c r="K34" s="51">
-        <f t="shared" si="73"/>
+      <c r="S34" s="51">
+        <f t="shared" si="83"/>
         <v>3306</v>
       </c>
-      <c r="L34" s="39">
+      <c r="T34" s="39">
         <v>58</v>
       </c>
-      <c r="M34" s="43">
+      <c r="U34" s="43">
         <v>68384</v>
       </c>
-      <c r="N34" s="41">
-        <f t="shared" si="74"/>
+      <c r="V34" s="41">
+        <f t="shared" si="86"/>
         <v>4</v>
       </c>
-      <c r="O34" s="45">
-        <f t="shared" si="75"/>
+      <c r="W34" s="45">
+        <f t="shared" si="87"/>
         <v>7384</v>
       </c>
-      <c r="P34" s="57">
-        <f t="shared" si="91"/>
-        <v>89</v>
-      </c>
-      <c r="Q34" s="61">
-        <f t="shared" si="91"/>
-        <v>58159</v>
-      </c>
-      <c r="R34" s="59">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="S34" s="63">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="69">
-        <f t="shared" si="78"/>
-        <v>24</v>
-      </c>
-      <c r="U34" s="73">
-        <f t="shared" si="78"/>
-        <v>13901</v>
-      </c>
-      <c r="V34" s="71">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="W34" s="75">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
       <c r="X34" s="65">
-        <f t="shared" ref="X34:AC39" si="95">X35</f>
+        <f t="shared" ref="X34:AC39" si="104">X35</f>
         <v>61</v>
       </c>
       <c r="Y34" s="47">
         <v>59772</v>
       </c>
       <c r="Z34" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="AA34" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>1572</v>
       </c>
       <c r="AB34" s="77">
-        <f t="shared" si="95"/>
+        <f t="shared" si="104"/>
         <v>61</v>
       </c>
       <c r="AC34" s="83">
-        <f t="shared" si="95"/>
+        <f t="shared" si="104"/>
         <v>81731</v>
       </c>
       <c r="AD34" s="80">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AE34" s="86">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AF34" s="12">
@@ -5411,22 +5556,22 @@
         <v>12</v>
       </c>
       <c r="AG34" s="18">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>14438</v>
       </c>
       <c r="AH34" s="15">
         <v>16695</v>
       </c>
       <c r="AI34" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="94"/>
         <v>13</v>
       </c>
       <c r="AJ34" s="15">
-        <f t="shared" ref="AJ34:AJ36" si="96">AF34/$AI34</f>
+        <f t="shared" ref="AJ34:AJ36" si="105">AF34/$AI34</f>
         <v>0.92307692307692313</v>
       </c>
       <c r="AK34" s="21">
-        <f t="shared" ref="AK34:AK36" si="97">AG34/$AI34</f>
+        <f t="shared" ref="AK34:AK36" si="106">AG34/$AI34</f>
         <v>1110.6153846153845</v>
       </c>
     </row>
@@ -5444,67 +5589,67 @@
         <v>56369</v>
       </c>
       <c r="F35" s="55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>8</v>
       </c>
       <c r="G35" s="33">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>8249</v>
       </c>
-      <c r="H35" s="35">
+      <c r="H35" s="69">
+        <v>24</v>
+      </c>
+      <c r="I35" s="73">
+        <v>13901</v>
+      </c>
+      <c r="J35" s="71">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+      <c r="K35" s="75">
+        <f t="shared" si="75"/>
+        <v>693</v>
+      </c>
+      <c r="L35" s="57">
+        <v>89</v>
+      </c>
+      <c r="M35" s="61">
+        <v>58159</v>
+      </c>
+      <c r="N35" s="59">
+        <f t="shared" si="78"/>
+        <v>15</v>
+      </c>
+      <c r="O35" s="63">
+        <f t="shared" si="79"/>
+        <v>7495</v>
+      </c>
+      <c r="P35" s="35">
         <v>35</v>
       </c>
-      <c r="I35" s="49">
+      <c r="Q35" s="49">
         <v>44286</v>
       </c>
-      <c r="J35" s="37">
-        <f t="shared" si="72"/>
+      <c r="R35" s="37">
+        <f t="shared" si="82"/>
         <v>2</v>
       </c>
-      <c r="K35" s="51">
-        <f t="shared" si="73"/>
+      <c r="S35" s="51">
+        <f t="shared" si="83"/>
         <v>4444</v>
       </c>
-      <c r="L35" s="39">
+      <c r="T35" s="39">
         <v>54</v>
       </c>
-      <c r="M35" s="43">
+      <c r="U35" s="43">
         <v>61000</v>
       </c>
-      <c r="N35" s="41">
-        <f t="shared" si="74"/>
+      <c r="V35" s="41">
+        <f t="shared" si="86"/>
         <v>6</v>
       </c>
-      <c r="O35" s="45" t="s">
+      <c r="W35" s="45" t="s">
         <v>34</v>
-      </c>
-      <c r="P35" s="57">
-        <v>89</v>
-      </c>
-      <c r="Q35" s="61">
-        <v>58159</v>
-      </c>
-      <c r="R35" s="59">
-        <f t="shared" si="76"/>
-        <v>15</v>
-      </c>
-      <c r="S35" s="63">
-        <f t="shared" si="77"/>
-        <v>7495</v>
-      </c>
-      <c r="T35" s="69">
-        <v>24</v>
-      </c>
-      <c r="U35" s="73">
-        <v>13901</v>
-      </c>
-      <c r="V35" s="71">
-        <f t="shared" si="79"/>
-        <v>1</v>
-      </c>
-      <c r="W35" s="75">
-        <f t="shared" si="80"/>
-        <v>693</v>
       </c>
       <c r="X35" s="65">
         <v>61</v>
@@ -5513,11 +5658,11 @@
         <v>58200</v>
       </c>
       <c r="Z35" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>6</v>
       </c>
       <c r="AA35" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>4879</v>
       </c>
       <c r="AB35" s="77">
@@ -5527,11 +5672,11 @@
         <v>81731</v>
       </c>
       <c r="AD35" s="80">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>9</v>
       </c>
       <c r="AE35" s="86">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>13255</v>
       </c>
       <c r="AF35" s="12">
@@ -5539,22 +5684,22 @@
         <v>47</v>
       </c>
       <c r="AG35" s="18">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>46264</v>
       </c>
       <c r="AH35" s="15">
         <v>16682</v>
       </c>
       <c r="AI35" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="94"/>
         <v>50</v>
       </c>
       <c r="AJ35" s="15">
-        <f t="shared" si="96"/>
+        <f t="shared" si="105"/>
         <v>0.94</v>
       </c>
       <c r="AK35" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="106"/>
         <v>925.28</v>
       </c>
     </row>
@@ -5572,107 +5717,107 @@
         <v>48120</v>
       </c>
       <c r="F36" s="55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>8</v>
       </c>
       <c r="G36" s="33">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>4420</v>
       </c>
-      <c r="H36" s="35">
+      <c r="H36" s="69">
+        <f t="shared" ref="H36:I41" si="107">H37</f>
+        <v>23</v>
+      </c>
+      <c r="I36" s="73">
+        <f t="shared" si="107"/>
+        <v>13208</v>
+      </c>
+      <c r="J36" s="71">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="75">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="57">
+        <f>L37</f>
+        <v>74</v>
+      </c>
+      <c r="M36" s="61">
+        <f>M37</f>
+        <v>50664</v>
+      </c>
+      <c r="N36" s="59">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="63">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="35">
+        <f>P37</f>
+        <v>33</v>
+      </c>
+      <c r="Q36" s="49">
+        <f>Q37</f>
+        <v>39842</v>
+      </c>
+      <c r="R36" s="37">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="51">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="39">
+        <f>T37</f>
+        <v>48</v>
+      </c>
+      <c r="U36" s="43">
+        <f>U37</f>
+        <v>53751</v>
+      </c>
+      <c r="V36" s="41">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="45">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="X36" s="65">
+        <f t="shared" si="104"/>
+        <v>55</v>
+      </c>
+      <c r="Y36" s="47">
+        <f t="shared" si="104"/>
+        <v>53321</v>
+      </c>
+      <c r="Z36" s="61">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="67">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="77">
+        <f t="shared" si="104"/>
+        <v>52</v>
+      </c>
+      <c r="AC36" s="83">
+        <f t="shared" si="104"/>
+        <v>68476</v>
+      </c>
+      <c r="AD36" s="80">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="86">
         <f t="shared" si="91"/>
-        <v>33</v>
-      </c>
-      <c r="I36" s="49">
-        <f t="shared" si="91"/>
-        <v>39842</v>
-      </c>
-      <c r="J36" s="37">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="51">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="39">
-        <f t="shared" si="91"/>
-        <v>48</v>
-      </c>
-      <c r="M36" s="43">
-        <f t="shared" si="91"/>
-        <v>53751</v>
-      </c>
-      <c r="N36" s="41">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="45">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="57">
-        <f t="shared" si="91"/>
-        <v>74</v>
-      </c>
-      <c r="Q36" s="61">
-        <f t="shared" si="91"/>
-        <v>50664</v>
-      </c>
-      <c r="R36" s="59">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="63">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="69">
-        <f t="shared" ref="T36:U41" si="98">T37</f>
-        <v>23</v>
-      </c>
-      <c r="U36" s="73">
-        <f t="shared" si="98"/>
-        <v>13208</v>
-      </c>
-      <c r="V36" s="71">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="W36" s="75">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="X36" s="65">
-        <f t="shared" si="95"/>
-        <v>55</v>
-      </c>
-      <c r="Y36" s="47">
-        <f t="shared" si="95"/>
-        <v>53321</v>
-      </c>
-      <c r="Z36" s="61">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="AA36" s="67">
-        <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="AB36" s="77">
-        <f t="shared" si="95"/>
-        <v>52</v>
-      </c>
-      <c r="AC36" s="83">
-        <f t="shared" si="95"/>
-        <v>68476</v>
-      </c>
-      <c r="AD36" s="80">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="AE36" s="86">
-        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="AF36" s="12">
@@ -5680,22 +5825,22 @@
         <v>8</v>
       </c>
       <c r="AG36" s="18">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>4420</v>
       </c>
       <c r="AH36" s="15">
         <v>16632</v>
       </c>
       <c r="AI36" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="94"/>
         <v>2</v>
       </c>
       <c r="AJ36" s="15">
-        <f t="shared" si="96"/>
+        <f t="shared" si="105"/>
         <v>4</v>
       </c>
       <c r="AK36" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="106"/>
         <v>2210</v>
       </c>
     </row>
@@ -5713,68 +5858,68 @@
         <v>43700</v>
       </c>
       <c r="F37" s="55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>9</v>
       </c>
       <c r="G37" s="33">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>6500</v>
       </c>
-      <c r="H37" s="35">
+      <c r="H37" s="69">
+        <v>23</v>
+      </c>
+      <c r="I37" s="73">
+        <v>13208</v>
+      </c>
+      <c r="J37" s="71">
+        <f t="shared" si="74"/>
+        <v>8</v>
+      </c>
+      <c r="K37" s="75">
+        <f t="shared" si="75"/>
+        <v>3620</v>
+      </c>
+      <c r="L37" s="57">
+        <v>74</v>
+      </c>
+      <c r="M37" s="61">
+        <v>50664</v>
+      </c>
+      <c r="N37" s="59">
+        <f t="shared" si="78"/>
+        <v>6</v>
+      </c>
+      <c r="O37" s="63">
+        <f t="shared" si="79"/>
+        <v>4005</v>
+      </c>
+      <c r="P37" s="35">
         <v>33</v>
       </c>
-      <c r="I37" s="49">
+      <c r="Q37" s="49">
         <v>39842</v>
       </c>
-      <c r="J37" s="37">
-        <f t="shared" si="72"/>
+      <c r="R37" s="37">
+        <f t="shared" si="82"/>
         <v>3</v>
       </c>
-      <c r="K37" s="51">
-        <f t="shared" si="73"/>
+      <c r="S37" s="51">
+        <f t="shared" si="83"/>
         <v>2155</v>
       </c>
-      <c r="L37" s="39">
+      <c r="T37" s="39">
         <v>48</v>
       </c>
-      <c r="M37" s="43">
+      <c r="U37" s="43">
         <v>53751</v>
       </c>
-      <c r="N37" s="41">
-        <f t="shared" si="74"/>
+      <c r="V37" s="41">
+        <f t="shared" si="86"/>
         <v>1</v>
       </c>
-      <c r="O37" s="45">
-        <f t="shared" si="75"/>
+      <c r="W37" s="45">
+        <f t="shared" si="87"/>
         <v>1981</v>
-      </c>
-      <c r="P37" s="57">
-        <v>74</v>
-      </c>
-      <c r="Q37" s="61">
-        <v>50664</v>
-      </c>
-      <c r="R37" s="59">
-        <f t="shared" si="76"/>
-        <v>6</v>
-      </c>
-      <c r="S37" s="63">
-        <f t="shared" si="77"/>
-        <v>4005</v>
-      </c>
-      <c r="T37" s="69">
-        <v>23</v>
-      </c>
-      <c r="U37" s="73">
-        <v>13208</v>
-      </c>
-      <c r="V37" s="71">
-        <f t="shared" si="79"/>
-        <v>8</v>
-      </c>
-      <c r="W37" s="75">
-        <f t="shared" si="80"/>
-        <v>3620</v>
       </c>
       <c r="X37" s="65">
         <v>55</v>
@@ -5783,11 +5928,11 @@
         <v>53321</v>
       </c>
       <c r="Z37" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>7</v>
       </c>
       <c r="AA37" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>7477</v>
       </c>
       <c r="AB37" s="77">
@@ -5797,11 +5942,11 @@
         <v>68476</v>
       </c>
       <c r="AD37" s="80">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>8</v>
       </c>
       <c r="AE37" s="86">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>11554</v>
       </c>
       <c r="AF37" s="12">
@@ -5809,22 +5954,22 @@
         <v>42</v>
       </c>
       <c r="AG37" s="18">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>37292</v>
       </c>
       <c r="AH37" s="15">
         <v>16630</v>
       </c>
       <c r="AI37" s="21">
-        <f t="shared" ref="AI37" si="99">AH37-AH38</f>
+        <f t="shared" ref="AI37" si="108">AH37-AH38</f>
         <v>38</v>
       </c>
       <c r="AJ37" s="15">
-        <f t="shared" ref="AJ37" si="100">AF37/$AI37</f>
+        <f t="shared" ref="AJ37" si="109">AF37/$AI37</f>
         <v>1.1052631578947369</v>
       </c>
       <c r="AK37" s="21">
-        <f t="shared" ref="AK37" si="101">AG37/$AI37</f>
+        <f t="shared" ref="AK37" si="110">AG37/$AI37</f>
         <v>981.36842105263156</v>
       </c>
     </row>
@@ -5842,68 +5987,68 @@
         <v>37200</v>
       </c>
       <c r="F38" s="55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>6</v>
       </c>
       <c r="G38" s="33">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>3300</v>
       </c>
-      <c r="H38" s="35">
-        <v>30</v>
-      </c>
-      <c r="I38" s="49">
-        <v>37687</v>
-      </c>
-      <c r="J38" s="37">
-        <f t="shared" si="72"/>
-        <v>24</v>
-      </c>
-      <c r="K38" s="51">
-        <f t="shared" si="73"/>
-        <v>23288</v>
-      </c>
-      <c r="L38" s="39">
-        <v>47</v>
-      </c>
-      <c r="M38" s="43">
-        <v>51770</v>
-      </c>
-      <c r="N38" s="41">
+      <c r="H38" s="69">
+        <v>15</v>
+      </c>
+      <c r="I38" s="73">
+        <v>9588</v>
+      </c>
+      <c r="J38" s="71">
         <f t="shared" si="74"/>
         <v>3</v>
       </c>
-      <c r="O38" s="45">
+      <c r="K38" s="75">
         <f t="shared" si="75"/>
+        <v>1597</v>
+      </c>
+      <c r="L38" s="57">
+        <v>68</v>
+      </c>
+      <c r="M38" s="61">
+        <v>46659</v>
+      </c>
+      <c r="N38" s="59">
+        <f t="shared" si="78"/>
+        <v>3</v>
+      </c>
+      <c r="O38" s="63">
+        <f t="shared" si="79"/>
+        <v>1399</v>
+      </c>
+      <c r="P38" s="35">
+        <v>30</v>
+      </c>
+      <c r="Q38" s="49">
+        <v>37687</v>
+      </c>
+      <c r="R38" s="37">
+        <f t="shared" si="82"/>
+        <v>24</v>
+      </c>
+      <c r="S38" s="51">
+        <f t="shared" si="83"/>
+        <v>23288</v>
+      </c>
+      <c r="T38" s="39">
+        <v>47</v>
+      </c>
+      <c r="U38" s="43">
+        <v>51770</v>
+      </c>
+      <c r="V38" s="41">
+        <f t="shared" si="86"/>
+        <v>3</v>
+      </c>
+      <c r="W38" s="45">
+        <f t="shared" si="87"/>
         <v>2782</v>
-      </c>
-      <c r="P38" s="57">
-        <v>68</v>
-      </c>
-      <c r="Q38" s="61">
-        <v>46659</v>
-      </c>
-      <c r="R38" s="59">
-        <f t="shared" si="76"/>
-        <v>3</v>
-      </c>
-      <c r="S38" s="63">
-        <f t="shared" si="77"/>
-        <v>1399</v>
-      </c>
-      <c r="T38" s="69">
-        <v>15</v>
-      </c>
-      <c r="U38" s="73">
-        <v>9588</v>
-      </c>
-      <c r="V38" s="71">
-        <f t="shared" si="79"/>
-        <v>3</v>
-      </c>
-      <c r="W38" s="75">
-        <f t="shared" si="80"/>
-        <v>1597</v>
       </c>
       <c r="X38" s="65">
         <v>48</v>
@@ -5912,11 +6057,11 @@
         <v>45844</v>
       </c>
       <c r="Z38" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>13</v>
       </c>
       <c r="AA38" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>7171</v>
       </c>
       <c r="AB38" s="77">
@@ -5926,11 +6071,11 @@
         <v>56922</v>
       </c>
       <c r="AD38" s="80">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>2</v>
       </c>
       <c r="AE38" s="86">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>1131</v>
       </c>
       <c r="AF38" s="12">
@@ -5938,22 +6083,22 @@
         <v>54</v>
       </c>
       <c r="AG38" s="18">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>40668</v>
       </c>
       <c r="AH38" s="15">
         <v>16592</v>
       </c>
       <c r="AI38" s="21">
-        <f t="shared" ref="AI38" si="102">AH38-AH39</f>
+        <f t="shared" ref="AI38" si="111">AH38-AH39</f>
         <v>56</v>
       </c>
       <c r="AJ38" s="15">
-        <f t="shared" ref="AJ38" si="103">AF38/$AI38</f>
+        <f t="shared" ref="AJ38" si="112">AF38/$AI38</f>
         <v>0.9642857142857143</v>
       </c>
       <c r="AK38" s="21">
-        <f t="shared" ref="AK38" si="104">AG38/$AI38</f>
+        <f t="shared" ref="AK38" si="113">AG38/$AI38</f>
         <v>726.21428571428567</v>
       </c>
     </row>
@@ -5965,78 +6110,78 @@
         <v>41997</v>
       </c>
       <c r="D39" s="53">
-        <f t="shared" si="91"/>
+        <f t="shared" si="99"/>
         <v>50</v>
       </c>
       <c r="E39" s="32">
         <v>33900</v>
       </c>
       <c r="F39" s="55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="G39" s="33">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1853</v>
       </c>
-      <c r="H39" s="35">
-        <f t="shared" si="91"/>
+      <c r="H39" s="69">
+        <f t="shared" si="107"/>
+        <v>12</v>
+      </c>
+      <c r="I39" s="73">
+        <f t="shared" si="107"/>
+        <v>7991</v>
+      </c>
+      <c r="J39" s="71">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="75">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="57">
+        <v>65</v>
+      </c>
+      <c r="M39" s="61">
+        <v>45260</v>
+      </c>
+      <c r="N39" s="59">
+        <f t="shared" si="78"/>
+        <v>17</v>
+      </c>
+      <c r="O39" s="63">
+        <f t="shared" si="79"/>
+        <v>11845</v>
+      </c>
+      <c r="P39" s="35">
+        <f>P40</f>
         <v>6</v>
       </c>
-      <c r="I39" s="49">
+      <c r="Q39" s="49">
         <v>14399</v>
       </c>
-      <c r="J39" s="37">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="51">
-        <f t="shared" si="73"/>
+      <c r="R39" s="37">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="51">
+        <f t="shared" si="83"/>
         <v>837</v>
       </c>
-      <c r="L39" s="39">
+      <c r="T39" s="39">
         <v>44</v>
       </c>
-      <c r="M39" s="43">
+      <c r="U39" s="43">
         <v>48988</v>
       </c>
-      <c r="N39" s="41">
-        <f t="shared" si="74"/>
+      <c r="V39" s="41">
+        <f t="shared" si="86"/>
         <v>6</v>
       </c>
-      <c r="O39" s="45">
-        <f t="shared" si="75"/>
+      <c r="W39" s="45">
+        <f t="shared" si="87"/>
         <v>10125</v>
-      </c>
-      <c r="P39" s="57">
-        <v>65</v>
-      </c>
-      <c r="Q39" s="61">
-        <v>45260</v>
-      </c>
-      <c r="R39" s="59">
-        <f t="shared" si="76"/>
-        <v>17</v>
-      </c>
-      <c r="S39" s="63">
-        <f t="shared" si="77"/>
-        <v>11845</v>
-      </c>
-      <c r="T39" s="69">
-        <f t="shared" si="98"/>
-        <v>12</v>
-      </c>
-      <c r="U39" s="73">
-        <f t="shared" si="98"/>
-        <v>7991</v>
-      </c>
-      <c r="V39" s="71">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="W39" s="75">
-        <f t="shared" si="80"/>
-        <v>0</v>
       </c>
       <c r="X39" s="65">
         <v>35</v>
@@ -6045,26 +6190,26 @@
         <v>38673</v>
       </c>
       <c r="Z39" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>2</v>
       </c>
       <c r="AA39" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>4173</v>
       </c>
       <c r="AB39" s="77">
-        <f t="shared" si="95"/>
+        <f t="shared" si="104"/>
         <v>42</v>
       </c>
       <c r="AC39" s="83">
         <v>55791</v>
       </c>
       <c r="AD39" s="80">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AE39" s="86">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>700</v>
       </c>
       <c r="AF39" s="12">
@@ -6072,22 +6217,22 @@
         <v>25</v>
       </c>
       <c r="AG39" s="18">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>29533</v>
       </c>
       <c r="AH39" s="15">
         <v>16536</v>
       </c>
       <c r="AI39" s="21">
-        <f t="shared" ref="AI39:AI40" si="105">AH39-AH40</f>
+        <f t="shared" ref="AI39:AI40" si="114">AH39-AH40</f>
         <v>22</v>
       </c>
       <c r="AJ39" s="15">
-        <f t="shared" ref="AJ39:AK42" si="106">AF39/$AI39</f>
+        <f t="shared" ref="AJ39:AK42" si="115">AF39/$AI39</f>
         <v>1.1363636363636365</v>
       </c>
       <c r="AK39" s="21">
-        <f t="shared" si="106"/>
+        <f t="shared" si="115"/>
         <v>1342.409090909091</v>
       </c>
     </row>
@@ -6105,71 +6250,71 @@
         <v>32047</v>
       </c>
       <c r="F40" s="55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>3</v>
       </c>
       <c r="G40" s="33">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1632</v>
       </c>
-      <c r="H40" s="35">
+      <c r="H40" s="69">
+        <f t="shared" si="107"/>
+        <v>12</v>
+      </c>
+      <c r="I40" s="73">
+        <f t="shared" si="107"/>
+        <v>7991</v>
+      </c>
+      <c r="J40" s="71">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="75">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="57">
+        <v>48</v>
+      </c>
+      <c r="M40" s="61">
+        <v>33415</v>
+      </c>
+      <c r="N40" s="59">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="O40" s="63">
+        <f t="shared" si="79"/>
+        <v>971</v>
+      </c>
+      <c r="P40" s="35">
         <v>6</v>
       </c>
-      <c r="I40" s="49">
+      <c r="Q40" s="49">
         <v>13562</v>
       </c>
-      <c r="J40" s="37">
-        <f t="shared" si="72"/>
+      <c r="R40" s="37">
+        <f t="shared" si="82"/>
         <v>2</v>
       </c>
-      <c r="K40" s="51">
-        <f t="shared" si="73"/>
+      <c r="S40" s="51">
+        <f t="shared" si="83"/>
         <v>1776</v>
       </c>
-      <c r="L40" s="39">
-        <f t="shared" si="91"/>
+      <c r="T40" s="39">
+        <f>T41</f>
         <v>38</v>
       </c>
-      <c r="M40" s="43">
-        <f t="shared" si="91"/>
+      <c r="U40" s="43">
+        <f>U41</f>
         <v>38863</v>
       </c>
-      <c r="N40" s="41">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="45">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="57">
-        <v>48</v>
-      </c>
-      <c r="Q40" s="61">
-        <v>33415</v>
-      </c>
-      <c r="R40" s="59">
-        <f t="shared" si="76"/>
-        <v>1</v>
-      </c>
-      <c r="S40" s="63">
-        <f t="shared" si="77"/>
-        <v>971</v>
-      </c>
-      <c r="T40" s="69">
-        <f t="shared" si="98"/>
-        <v>12</v>
-      </c>
-      <c r="U40" s="73">
-        <f t="shared" si="98"/>
-        <v>7991</v>
-      </c>
-      <c r="V40" s="71">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="W40" s="75">
-        <f t="shared" si="80"/>
+      <c r="V40" s="41">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="45">
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="X40" s="65">
@@ -6179,11 +6324,11 @@
         <v>34500</v>
       </c>
       <c r="Z40" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>3</v>
       </c>
       <c r="AA40" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>3162</v>
       </c>
       <c r="AB40" s="77">
@@ -6193,11 +6338,11 @@
         <v>55091</v>
       </c>
       <c r="AD40" s="80">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>12</v>
       </c>
       <c r="AE40" s="86">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>5817</v>
       </c>
       <c r="AF40" s="12">
@@ -6205,22 +6350,22 @@
         <v>21</v>
       </c>
       <c r="AG40" s="18">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>13358</v>
       </c>
       <c r="AH40" s="15">
         <v>16514</v>
       </c>
       <c r="AI40" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="114"/>
         <v>27</v>
       </c>
       <c r="AJ40" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="115"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="AK40" s="21">
-        <f t="shared" si="106"/>
+        <f t="shared" si="115"/>
         <v>494.74074074074076</v>
       </c>
     </row>
@@ -6238,73 +6383,73 @@
         <v>30415</v>
       </c>
       <c r="F41" s="55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>7</v>
       </c>
       <c r="G41" s="33">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>2923</v>
       </c>
-      <c r="H41" s="35">
-        <f t="shared" si="91"/>
+      <c r="H41" s="69">
+        <f t="shared" si="107"/>
+        <v>12</v>
+      </c>
+      <c r="I41" s="73">
+        <f t="shared" si="107"/>
+        <v>7991</v>
+      </c>
+      <c r="J41" s="71">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="75">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="57">
+        <v>47</v>
+      </c>
+      <c r="M41" s="61">
+        <v>32444</v>
+      </c>
+      <c r="N41" s="59">
+        <f t="shared" si="78"/>
+        <v>3</v>
+      </c>
+      <c r="O41" s="63">
+        <f t="shared" si="79"/>
+        <v>1204</v>
+      </c>
+      <c r="P41" s="35">
+        <f>P42</f>
         <v>4</v>
       </c>
-      <c r="I41" s="49">
-        <f t="shared" si="91"/>
+      <c r="Q41" s="49">
+        <f>Q42</f>
         <v>11786</v>
       </c>
-      <c r="J41" s="37">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="51">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="39">
-        <f t="shared" si="91"/>
+      <c r="R41" s="37">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="51">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="39">
+        <f>T42</f>
         <v>38</v>
       </c>
-      <c r="M41" s="43">
-        <f t="shared" si="91"/>
+      <c r="U41" s="43">
+        <f>U42</f>
         <v>38863</v>
       </c>
-      <c r="N41" s="41">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="45">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="57">
-        <v>47</v>
-      </c>
-      <c r="Q41" s="61">
-        <v>32444</v>
-      </c>
-      <c r="R41" s="59">
-        <f t="shared" si="76"/>
-        <v>3</v>
-      </c>
-      <c r="S41" s="63">
-        <f t="shared" si="77"/>
-        <v>1204</v>
-      </c>
-      <c r="T41" s="69">
-        <f t="shared" si="98"/>
-        <v>12</v>
-      </c>
-      <c r="U41" s="73">
-        <f t="shared" si="98"/>
-        <v>7991</v>
-      </c>
-      <c r="V41" s="71">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="W41" s="75">
-        <f t="shared" si="80"/>
+      <c r="V41" s="41">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="45">
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="X41" s="65">
@@ -6314,11 +6459,11 @@
         <v>31338</v>
       </c>
       <c r="Z41" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>3</v>
       </c>
       <c r="AA41" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>2739</v>
       </c>
       <c r="AB41" s="77">
@@ -6328,11 +6473,11 @@
         <v>49274</v>
       </c>
       <c r="AD41" s="80">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>1</v>
       </c>
       <c r="AE41" s="86">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>1064</v>
       </c>
       <c r="AF41" s="12">
@@ -6340,7 +6485,7 @@
         <v>14</v>
       </c>
       <c r="AG41" s="18">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>7930</v>
       </c>
       <c r="AH41" s="15">
@@ -6351,11 +6496,11 @@
         <v>10</v>
       </c>
       <c r="AJ41" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="115"/>
         <v>1.4</v>
       </c>
       <c r="AK41" s="21">
-        <f t="shared" si="106"/>
+        <f t="shared" si="115"/>
         <v>793</v>
       </c>
     </row>
@@ -6380,62 +6525,62 @@
         <f>E42-E43</f>
         <v>4562</v>
       </c>
-      <c r="H42" s="35">
-        <f t="shared" si="91"/>
+      <c r="H42" s="69">
+        <v>12</v>
+      </c>
+      <c r="I42" s="73">
+        <v>7991</v>
+      </c>
+      <c r="J42" s="71">
+        <f>H42-H43</f>
+        <v>9</v>
+      </c>
+      <c r="K42" s="75">
+        <f>I42-I43</f>
+        <v>6258</v>
+      </c>
+      <c r="L42" s="57">
+        <v>44</v>
+      </c>
+      <c r="M42" s="61">
+        <v>31240</v>
+      </c>
+      <c r="N42" s="59">
+        <f>L42-L43</f>
+        <v>12</v>
+      </c>
+      <c r="O42" s="63">
+        <f>M42-M43</f>
+        <v>8516</v>
+      </c>
+      <c r="P42" s="35">
+        <f>P43</f>
         <v>4</v>
       </c>
-      <c r="I42" s="49">
+      <c r="Q42" s="49">
         <v>11786</v>
       </c>
-      <c r="J42" s="37">
-        <f>H42-H43</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="51">
-        <f>I42-I43</f>
+      <c r="R42" s="37">
+        <f>P42-P43</f>
+        <v>0</v>
+      </c>
+      <c r="S42" s="51">
+        <f>Q42-Q43</f>
         <v>474</v>
       </c>
-      <c r="L42" s="39">
+      <c r="T42" s="39">
         <v>38</v>
       </c>
-      <c r="M42" s="43">
+      <c r="U42" s="43">
         <v>38863</v>
       </c>
-      <c r="N42" s="41">
-        <f>L42-L43</f>
+      <c r="V42" s="41">
+        <f>T42-T43</f>
         <v>8</v>
       </c>
-      <c r="O42" s="45">
-        <f>M42-M43</f>
+      <c r="W42" s="45">
+        <f>U42-U43</f>
         <v>7008</v>
-      </c>
-      <c r="P42" s="57">
-        <v>44</v>
-      </c>
-      <c r="Q42" s="61">
-        <v>31240</v>
-      </c>
-      <c r="R42" s="59">
-        <f>P42-P43</f>
-        <v>12</v>
-      </c>
-      <c r="S42" s="63">
-        <f>Q42-Q43</f>
-        <v>8516</v>
-      </c>
-      <c r="T42" s="69">
-        <v>12</v>
-      </c>
-      <c r="U42" s="73">
-        <v>7991</v>
-      </c>
-      <c r="V42" s="71">
-        <f>T42-T43</f>
-        <v>9</v>
-      </c>
-      <c r="W42" s="75">
-        <f>U42-U43</f>
-        <v>6258</v>
       </c>
       <c r="X42" s="65">
         <v>27</v>
@@ -6470,7 +6615,7 @@
         <v>48</v>
       </c>
       <c r="AG42" s="18">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>40575</v>
       </c>
       <c r="AH42" s="15">
@@ -6481,11 +6626,11 @@
         <v>28</v>
       </c>
       <c r="AJ42" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="115"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="AK42" s="21">
-        <f t="shared" si="106"/>
+        <f t="shared" si="115"/>
         <v>1449.1071428571429</v>
       </c>
     </row>
@@ -6510,61 +6655,61 @@
         <f>E43-E44</f>
         <v>5458</v>
       </c>
-      <c r="H43" s="35">
+      <c r="H43" s="69">
+        <v>3</v>
+      </c>
+      <c r="I43" s="73">
+        <v>1733</v>
+      </c>
+      <c r="J43" s="71">
+        <f>H43-H44</f>
+        <v>3</v>
+      </c>
+      <c r="K43" s="75">
+        <f>I43-I44</f>
+        <v>1733</v>
+      </c>
+      <c r="L43" s="57">
+        <v>32</v>
+      </c>
+      <c r="M43" s="61">
+        <v>22724</v>
+      </c>
+      <c r="N43" s="59">
+        <f>L43-L44</f>
+        <v>9</v>
+      </c>
+      <c r="O43" s="63">
+        <f>M43-M44</f>
+        <v>6807</v>
+      </c>
+      <c r="P43" s="35">
         <v>4</v>
       </c>
-      <c r="I43" s="49">
+      <c r="Q43" s="49">
         <v>11312</v>
       </c>
-      <c r="J43" s="37">
-        <f>H43-H44</f>
+      <c r="R43" s="37">
+        <f>P43-P44</f>
         <v>4</v>
       </c>
-      <c r="K43" s="51">
-        <f>I43-I44</f>
+      <c r="S43" s="51">
+        <f>Q43-Q44</f>
         <v>8725</v>
       </c>
-      <c r="L43" s="39">
+      <c r="T43" s="39">
         <v>30</v>
       </c>
-      <c r="M43" s="43">
+      <c r="U43" s="43">
         <v>31855</v>
       </c>
-      <c r="N43" s="41">
-        <f>L43-L44</f>
+      <c r="V43" s="41">
+        <f>T43-T44</f>
         <v>13</v>
       </c>
-      <c r="O43" s="45">
-        <f>M43-M44</f>
+      <c r="W43" s="45">
+        <f>U43-U44</f>
         <v>14010</v>
-      </c>
-      <c r="P43" s="57">
-        <v>32</v>
-      </c>
-      <c r="Q43" s="61">
-        <v>22724</v>
-      </c>
-      <c r="R43" s="59">
-        <f>P43-P44</f>
-        <v>9</v>
-      </c>
-      <c r="S43" s="63">
-        <f>Q43-Q44</f>
-        <v>6807</v>
-      </c>
-      <c r="T43" s="69">
-        <v>3</v>
-      </c>
-      <c r="U43" s="73">
-        <v>1733</v>
-      </c>
-      <c r="V43" s="71">
-        <f>T43-T44</f>
-        <v>3</v>
-      </c>
-      <c r="W43" s="75">
-        <f>U43-U44</f>
-        <v>1733</v>
       </c>
       <c r="X43" s="65">
         <v>23</v>
@@ -6599,7 +6744,7 @@
         <v>62</v>
       </c>
       <c r="AG43" s="18">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>73206</v>
       </c>
       <c r="AH43" s="15">
@@ -6623,70 +6768,70 @@
         <v>17472</v>
       </c>
       <c r="F44" s="55">
-        <f t="shared" ref="F44:G46" si="107">D44-D45</f>
+        <f t="shared" ref="F44:G46" si="116">D44-D45</f>
         <v>4</v>
       </c>
       <c r="G44" s="33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="116"/>
         <v>3603</v>
       </c>
-      <c r="H44" s="35">
-        <f t="shared" ref="H44:U45" si="108">H45</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="49">
+      <c r="H44" s="69">
+        <f t="shared" ref="H44:I45" si="117">H45</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="73">
+        <v>0</v>
+      </c>
+      <c r="J44" s="71">
+        <f t="shared" ref="J44:K46" si="118">H44-H45</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="75">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="57">
+        <v>23</v>
+      </c>
+      <c r="M44" s="61">
+        <v>15917</v>
+      </c>
+      <c r="N44" s="59">
+        <f t="shared" ref="N44:O46" si="119">L44-L45</f>
+        <v>2</v>
+      </c>
+      <c r="O44" s="63">
+        <f t="shared" si="119"/>
+        <v>2510</v>
+      </c>
+      <c r="P44" s="35">
+        <f>P45</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="49">
         <v>2587</v>
       </c>
-      <c r="J44" s="37">
-        <f t="shared" ref="J44:K46" si="109">H44-H45</f>
-        <v>0</v>
-      </c>
-      <c r="K44" s="51">
-        <f t="shared" si="109"/>
+      <c r="R44" s="37">
+        <f t="shared" ref="R44:S46" si="120">P44-P45</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="51">
+        <f t="shared" si="120"/>
         <v>2121</v>
       </c>
-      <c r="L44" s="39">
+      <c r="T44" s="39">
         <v>17</v>
       </c>
-      <c r="M44" s="43">
+      <c r="U44" s="43">
         <v>17845</v>
       </c>
-      <c r="N44" s="41">
-        <f t="shared" ref="N44:O46" si="110">L44-L45</f>
-        <v>0</v>
-      </c>
-      <c r="O44" s="45">
-        <f t="shared" si="110"/>
+      <c r="V44" s="41">
+        <f t="shared" ref="V44:W46" si="121">T44-T45</f>
+        <v>0</v>
+      </c>
+      <c r="W44" s="45">
+        <f t="shared" si="121"/>
         <v>1145</v>
-      </c>
-      <c r="P44" s="57">
-        <v>23</v>
-      </c>
-      <c r="Q44" s="61">
-        <v>15917</v>
-      </c>
-      <c r="R44" s="59">
-        <f t="shared" ref="R44:S46" si="111">P44-P45</f>
-        <v>2</v>
-      </c>
-      <c r="S44" s="63">
-        <f t="shared" si="111"/>
-        <v>2510</v>
-      </c>
-      <c r="T44" s="69">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="U44" s="73">
-        <v>0</v>
-      </c>
-      <c r="V44" s="71">
-        <f t="shared" ref="V44:W46" si="112">T44-T45</f>
-        <v>0</v>
-      </c>
-      <c r="W44" s="75">
-        <f t="shared" si="112"/>
-        <v>0</v>
       </c>
       <c r="X44" s="65">
         <v>10</v>
@@ -6695,11 +6840,11 @@
         <v>6800</v>
       </c>
       <c r="Z44" s="61">
-        <f t="shared" ref="Z44:AA46" si="113">X44-X45</f>
+        <f t="shared" ref="Z44:AA46" si="122">X44-X45</f>
         <v>5</v>
       </c>
       <c r="AA44" s="67">
-        <f t="shared" si="113"/>
+        <f t="shared" si="122"/>
         <v>2138</v>
       </c>
       <c r="AB44" s="77">
@@ -6709,11 +6854,11 @@
         <v>19779</v>
       </c>
       <c r="AD44" s="80">
-        <f t="shared" ref="AD44:AE46" si="114">AB44-AB45</f>
+        <f t="shared" ref="AD44:AE46" si="123">AB44-AB45</f>
         <v>6</v>
       </c>
       <c r="AE44" s="86">
-        <f t="shared" si="114"/>
+        <f t="shared" si="123"/>
         <v>8542</v>
       </c>
       <c r="AF44" s="12">
@@ -6721,7 +6866,7 @@
         <v>17</v>
       </c>
       <c r="AG44" s="18">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>20059</v>
       </c>
       <c r="AH44" s="15"/>
@@ -6743,71 +6888,71 @@
         <v>13869</v>
       </c>
       <c r="F45" s="55">
-        <f t="shared" si="107"/>
+        <f t="shared" si="116"/>
         <v>10</v>
       </c>
       <c r="G45" s="33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="116"/>
         <v>5719</v>
       </c>
-      <c r="H45" s="35">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="49">
+      <c r="H45" s="69">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="73">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="71">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="75">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="57">
+        <v>21</v>
+      </c>
+      <c r="M45" s="61">
+        <v>13407</v>
+      </c>
+      <c r="N45" s="59">
+        <f t="shared" si="119"/>
+        <v>12</v>
+      </c>
+      <c r="O45" s="63">
+        <f t="shared" si="119"/>
+        <v>7199</v>
+      </c>
+      <c r="P45" s="35">
+        <f>P46</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="49">
         <v>466</v>
       </c>
-      <c r="J45" s="37">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="51">
-        <f t="shared" si="109"/>
+      <c r="R45" s="37">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="51">
+        <f t="shared" si="120"/>
         <v>466</v>
       </c>
-      <c r="L45" s="39">
+      <c r="T45" s="39">
         <v>17</v>
       </c>
-      <c r="M45" s="43">
+      <c r="U45" s="43">
         <v>16700</v>
       </c>
-      <c r="N45" s="41">
-        <f t="shared" si="110"/>
+      <c r="V45" s="41">
+        <f t="shared" si="121"/>
         <v>2</v>
       </c>
-      <c r="O45" s="45">
-        <f t="shared" si="110"/>
+      <c r="W45" s="45">
+        <f t="shared" si="121"/>
         <v>14</v>
-      </c>
-      <c r="P45" s="57">
-        <v>21</v>
-      </c>
-      <c r="Q45" s="61">
-        <v>13407</v>
-      </c>
-      <c r="R45" s="59">
-        <f t="shared" si="111"/>
-        <v>12</v>
-      </c>
-      <c r="S45" s="63">
-        <f t="shared" si="111"/>
-        <v>7199</v>
-      </c>
-      <c r="T45" s="69">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="U45" s="73">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="V45" s="71">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="W45" s="75">
-        <f t="shared" si="112"/>
-        <v>0</v>
       </c>
       <c r="X45" s="65">
         <v>5</v>
@@ -6816,11 +6961,11 @@
         <v>4662</v>
       </c>
       <c r="Z45" s="61">
-        <f t="shared" si="113"/>
+        <f t="shared" si="122"/>
         <v>3</v>
       </c>
       <c r="AA45" s="67">
-        <f t="shared" si="113"/>
+        <f t="shared" si="122"/>
         <v>3582</v>
       </c>
       <c r="AB45" s="77">
@@ -6830,11 +6975,11 @@
         <v>11237</v>
       </c>
       <c r="AD45" s="80">
-        <f t="shared" si="114"/>
+        <f t="shared" si="123"/>
         <v>1</v>
       </c>
       <c r="AE45" s="86">
-        <f t="shared" si="114"/>
+        <f t="shared" si="123"/>
         <v>1879</v>
       </c>
       <c r="AF45" s="12">
@@ -6842,7 +6987,7 @@
         <v>28</v>
       </c>
       <c r="AG45" s="18">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>18859</v>
       </c>
       <c r="AH45" s="15"/>
@@ -6864,68 +7009,68 @@
         <v>8150</v>
       </c>
       <c r="F46" s="55">
-        <f t="shared" si="107"/>
+        <f t="shared" si="116"/>
         <v>5</v>
       </c>
       <c r="G46" s="33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="116"/>
         <v>4075</v>
       </c>
-      <c r="H46" s="35">
-        <v>0</v>
-      </c>
-      <c r="I46" s="49">
-        <v>0</v>
-      </c>
-      <c r="J46" s="37">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="51">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="39">
+      <c r="H46" s="69">
+        <v>0</v>
+      </c>
+      <c r="I46" s="73">
+        <v>0</v>
+      </c>
+      <c r="J46" s="71">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="75">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="57">
+        <v>9</v>
+      </c>
+      <c r="M46" s="61">
+        <v>6208</v>
+      </c>
+      <c r="N46" s="59">
+        <f t="shared" si="119"/>
+        <v>5</v>
+      </c>
+      <c r="O46" s="63">
+        <f t="shared" si="119"/>
+        <v>3104</v>
+      </c>
+      <c r="P46" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="49">
+        <v>0</v>
+      </c>
+      <c r="R46" s="37">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="51">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="39">
         <v>15</v>
       </c>
-      <c r="M46" s="43">
+      <c r="U46" s="43">
         <v>16686</v>
       </c>
-      <c r="N46" s="41">
-        <f t="shared" si="110"/>
+      <c r="V46" s="41">
+        <f t="shared" si="121"/>
         <v>8</v>
       </c>
-      <c r="O46" s="45">
-        <f t="shared" si="110"/>
+      <c r="W46" s="45">
+        <f t="shared" si="121"/>
         <v>8343</v>
-      </c>
-      <c r="P46" s="57">
-        <v>9</v>
-      </c>
-      <c r="Q46" s="61">
-        <v>6208</v>
-      </c>
-      <c r="R46" s="59">
-        <f t="shared" si="111"/>
-        <v>5</v>
-      </c>
-      <c r="S46" s="63">
-        <f t="shared" si="111"/>
-        <v>3104</v>
-      </c>
-      <c r="T46" s="69">
-        <v>0</v>
-      </c>
-      <c r="U46" s="73">
-        <v>0</v>
-      </c>
-      <c r="V46" s="71">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="W46" s="75">
-        <f t="shared" si="112"/>
-        <v>0</v>
       </c>
       <c r="X46" s="65">
         <v>2</v>
@@ -6934,11 +7079,11 @@
         <v>1080</v>
       </c>
       <c r="Z46" s="61">
-        <f t="shared" si="113"/>
+        <f t="shared" si="122"/>
         <v>1</v>
       </c>
       <c r="AA46" s="67">
-        <f t="shared" si="113"/>
+        <f t="shared" si="122"/>
         <v>540</v>
       </c>
       <c r="AB46" s="77">
@@ -6948,11 +7093,11 @@
         <v>9358</v>
       </c>
       <c r="AD46" s="80">
-        <f t="shared" si="114"/>
+        <f t="shared" si="123"/>
         <v>2</v>
       </c>
       <c r="AE46" s="86">
-        <f t="shared" si="114"/>
+        <f t="shared" si="123"/>
         <v>4679</v>
       </c>
       <c r="AF46" s="12">
@@ -6960,7 +7105,7 @@
         <v>21</v>
       </c>
       <c r="AG46" s="18">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>20741</v>
       </c>
       <c r="AH46" s="15"/>
@@ -6991,76 +7136,76 @@
         <f>E47-E48</f>
         <v>4075</v>
       </c>
-      <c r="H47" s="35">
-        <f t="shared" ref="H47:I47" si="115">INT(H46/2)</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="49">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="37">
+      <c r="H47" s="69">
+        <f t="shared" ref="H47:I47" si="124">INT(H46/2)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="73">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="71">
         <f>H47-H48</f>
         <v>0</v>
       </c>
-      <c r="K47" s="51">
+      <c r="K47" s="75">
         <f>I47-I48</f>
         <v>0</v>
       </c>
-      <c r="L47" s="39">
-        <f t="shared" ref="L47:M47" si="116">INT(L46/2)</f>
+      <c r="L47" s="57">
+        <f t="shared" ref="L47:M47" si="125">INT(L46/2)</f>
+        <v>4</v>
+      </c>
+      <c r="M47" s="61">
+        <f t="shared" si="125"/>
+        <v>3104</v>
+      </c>
+      <c r="N47" s="59">
+        <f>L47-L48</f>
+        <v>4</v>
+      </c>
+      <c r="O47" s="63">
+        <f>M47-M48</f>
+        <v>3104</v>
+      </c>
+      <c r="P47" s="35">
+        <f t="shared" ref="P47:Q47" si="126">INT(P46/2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="49">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="37">
+        <f>P47-P48</f>
+        <v>0</v>
+      </c>
+      <c r="S47" s="51">
+        <f>Q47-Q48</f>
+        <v>0</v>
+      </c>
+      <c r="T47" s="39">
+        <f t="shared" ref="T47:U47" si="127">INT(T46/2)</f>
         <v>7</v>
       </c>
-      <c r="M47" s="43">
-        <f t="shared" si="116"/>
+      <c r="U47" s="43">
+        <f t="shared" si="127"/>
         <v>8343</v>
       </c>
-      <c r="N47" s="41">
-        <f>L47-L48</f>
+      <c r="V47" s="41">
+        <f>T47-T48</f>
         <v>7</v>
       </c>
-      <c r="O47" s="45">
-        <f>M47-M48</f>
+      <c r="W47" s="45">
+        <f>U47-U48</f>
         <v>8343</v>
       </c>
-      <c r="P47" s="57">
-        <f t="shared" ref="P47:Q47" si="117">INT(P46/2)</f>
-        <v>4</v>
-      </c>
-      <c r="Q47" s="61">
-        <f t="shared" si="117"/>
-        <v>3104</v>
-      </c>
-      <c r="R47" s="59">
-        <f>P47-P48</f>
-        <v>4</v>
-      </c>
-      <c r="S47" s="63">
-        <f>Q47-Q48</f>
-        <v>3104</v>
-      </c>
-      <c r="T47" s="69">
-        <f t="shared" ref="T47:U47" si="118">INT(T46/2)</f>
-        <v>0</v>
-      </c>
-      <c r="U47" s="73">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="V47" s="71">
-        <f>T47-T48</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="75">
-        <f>U47-U48</f>
-        <v>0</v>
-      </c>
       <c r="X47" s="65">
-        <f t="shared" ref="X47:Y47" si="119">INT(X46/2)</f>
+        <f t="shared" ref="X47:Y47" si="128">INT(X46/2)</f>
         <v>1</v>
       </c>
       <c r="Y47" s="47">
-        <f t="shared" si="119"/>
+        <f t="shared" si="128"/>
         <v>540</v>
       </c>
       <c r="Z47" s="61">
@@ -7072,11 +7217,11 @@
         <v>540</v>
       </c>
       <c r="AB47" s="78">
-        <f t="shared" ref="AB47:AC47" si="120">INT(AB46/2)</f>
+        <f t="shared" ref="AB47:AC47" si="129">INT(AB46/2)</f>
         <v>2</v>
       </c>
       <c r="AC47" s="84">
-        <f t="shared" si="120"/>
+        <f t="shared" si="129"/>
         <v>4679</v>
       </c>
       <c r="AD47" s="81">
@@ -7088,11 +7233,11 @@
         <v>4679</v>
       </c>
       <c r="AF47" s="13">
-        <f>SUM(D47,H47,L47,P47,T47,X47,AB47)-SUM(D48,H48,L48,P48,T48,X48,AB48)</f>
+        <f t="shared" si="92"/>
         <v>18</v>
       </c>
       <c r="AG47" s="19">
-        <f>SUM(E47,I47,M47,Q47,U47,Y47,AC47)-SUM(E48,I48,M48,Q48,U48,Y48,AC48)</f>
+        <f t="shared" si="93"/>
         <v>20741</v>
       </c>
       <c r="AH47" s="16"/>
@@ -7101,7 +7246,106 @@
       <c r="AK47" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="123">
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="X2:Y2"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="D3:E3"/>
@@ -7114,118 +7358,20 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="V2:W2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="H1:K1"/>
     <mergeCell ref="X1:AA1"/>
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
     <mergeCell ref="P1:S1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="T1:W1"/>
   </mergeCells>
-  <conditionalFormatting sqref="AH5:AI5 D5 F5:AE5">
+  <conditionalFormatting sqref="AH5:AI5 D5 AB5:AE5 F5:X5 Z5">
     <cfRule type="cellIs" dxfId="5" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7233,22 +7379,22 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:F2 H2:AE2">
+  <conditionalFormatting sqref="D2:F2 H2:X2 Z2 AB2:AE2">
     <cfRule type="cellIs" dxfId="3" priority="17" operator="greaterThan">
-      <formula>$U$3</formula>
+      <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:F2 H2:AE2">
+  <conditionalFormatting sqref="D2:F2 H2:X2 Z2 AB2:AE2">
     <cfRule type="cellIs" dxfId="2" priority="15" operator="lessThan">
-      <formula>$U$3</formula>
+      <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:F2 H2:AE2">
+  <conditionalFormatting sqref="D2:F2 H2:X2 Z2 AB2:AE2">
     <cfRule type="cellIs" dxfId="1" priority="10" operator="greaterThan">
       <formula>$AL$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:F2 H2:AE2">
+  <conditionalFormatting sqref="D2:F2 H2:X2 Z2 AB2:AE2">
     <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThan">
       <formula>$AL$3</formula>
     </cfRule>
@@ -7256,7 +7402,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F4:F6 J4:J6" formula="1"/>
+    <ignoredError sqref="F4:F6" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/mission wz.xlsx
+++ b/mission wz.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
   <si>
     <t>France</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>Est. Normal fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -868,7 +874,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1176,6 +1182,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1556,7 +1568,7 @@
   <dimension ref="B1:AL47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="AJ34" sqref="AJ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1573,17 +1585,17 @@
     <col min="10" max="10" width="3.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.5703125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" style="5" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="7" style="5" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="3.140625" style="5" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="6" style="5" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="5.5703125" style="5" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="7" style="5" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="3.140625" style="5" hidden="1" customWidth="1"/>
@@ -1646,14 +1658,14 @@
       <c r="AG1" s="108"/>
       <c r="AJ1" s="1">
         <f ca="1">TODAY()</f>
-        <v>42014</v>
+        <v>42015</v>
       </c>
       <c r="AK1" s="1">
         <v>42023</v>
       </c>
       <c r="AL1">
         <f ca="1">AK1-AJ1-2</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="2:38">
@@ -1666,63 +1678,63 @@
       </c>
       <c r="E2" s="99">
         <f>(150000-F6)/150000</f>
-        <v>0.76</v>
+        <v>0.85164666666666666</v>
       </c>
       <c r="F2" s="109">
         <f>AVERAGE(D2:E2)</f>
-        <v>0.88</v>
+        <v>0.92582333333333333</v>
       </c>
       <c r="G2" s="110"/>
       <c r="H2" s="98">
         <f>(150-H6)/150</f>
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="I2" s="99">
         <f>(150000-J6)/150000</f>
-        <v>0.12021999999999999</v>
+        <v>0.17212</v>
       </c>
       <c r="J2" s="109">
         <f>AVERAGE(H2:I2)</f>
-        <v>0.16011</v>
+        <v>0.21606</v>
       </c>
       <c r="K2" s="110"/>
       <c r="L2" s="98">
         <f>(150-L6)/150</f>
-        <v>0.78</v>
+        <v>0.96</v>
       </c>
       <c r="M2" s="99">
         <f>(150000-N6)/150000</f>
-        <v>0.55281999999999998</v>
+        <v>0.67444000000000004</v>
       </c>
       <c r="N2" s="109">
         <f>AVERAGE(L2:M2)</f>
-        <v>0.66640999999999995</v>
+        <v>0.81722000000000006</v>
       </c>
       <c r="O2" s="110"/>
       <c r="P2" s="98">
         <f>(150-P6)/150</f>
-        <v>0.54</v>
+        <v>0.86</v>
       </c>
       <c r="Q2" s="99">
         <f>(150000-R6)/150000</f>
-        <v>0.57289333333333337</v>
+        <v>0.87966</v>
       </c>
       <c r="R2" s="109">
         <f>AVERAGE(P2:Q2)</f>
-        <v>0.55644666666666676</v>
+        <v>0.86982999999999999</v>
       </c>
       <c r="S2" s="110"/>
       <c r="T2" s="98">
         <f>(150-T6)/150</f>
-        <v>0.7466666666666667</v>
+        <v>1</v>
       </c>
       <c r="U2" s="99">
         <f>(150000-V6)/150000</f>
-        <v>0.94664000000000004</v>
+        <v>1</v>
       </c>
       <c r="V2" s="109">
         <f>AVERAGE(T2:U2)</f>
-        <v>0.84665333333333337</v>
+        <v>1</v>
       </c>
       <c r="W2" s="110"/>
       <c r="X2" s="145">
@@ -1767,47 +1779,47 @@
       <c r="E3" s="105"/>
       <c r="F3" s="105">
         <f ca="1">IF(F6&lt;0,0,INT(F6/$AL$1))</f>
-        <v>5142</v>
+        <v>3708</v>
       </c>
       <c r="G3" s="111"/>
       <c r="H3" s="104">
         <f t="shared" ref="H3" ca="1" si="4">IF(H6&lt;0,0,INT(H6/$AL$1))</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" s="105"/>
       <c r="J3" s="105">
         <f t="shared" ref="J3" ca="1" si="5">IF(J6&lt;0,0,INT(J6/$AL$1))</f>
-        <v>18852</v>
+        <v>20697</v>
       </c>
       <c r="K3" s="111"/>
       <c r="L3" s="104">
         <f t="shared" ref="L3" ca="1" si="6">IF(L6&lt;0,0,INT(L6/$AL$1))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3" s="105"/>
       <c r="N3" s="105">
         <f t="shared" ref="N3" ca="1" si="7">IF(N6&lt;0,0,INT(N6/$AL$1))</f>
-        <v>9582</v>
+        <v>8139</v>
       </c>
       <c r="O3" s="111"/>
       <c r="P3" s="104">
         <f t="shared" ref="P3" ca="1" si="8">IF(P6&lt;0,0,INT(P6/$AL$1))</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="105"/>
       <c r="R3" s="105">
         <f t="shared" ref="R3" ca="1" si="9">IF(R6&lt;0,0,INT(R6/$AL$1))</f>
-        <v>9152</v>
+        <v>3008</v>
       </c>
       <c r="S3" s="111"/>
       <c r="T3" s="104">
         <f t="shared" ref="T3" ca="1" si="10">IF(T6&lt;0,0,INT(T6/$AL$1))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U3" s="105"/>
       <c r="V3" s="105">
         <f t="shared" ref="V3" ca="1" si="11">IF(V6&lt;0,0,INT(V6/$AL$1))</f>
-        <v>1143</v>
+        <v>0</v>
       </c>
       <c r="W3" s="111"/>
       <c r="X3" s="138">
@@ -1832,11 +1844,11 @@
       <c r="AE3" s="144"/>
       <c r="AF3" s="4">
         <f ca="1">SUM(D3,P3,T3,L3,H3,X3,AB3)</f>
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="AG3" s="4">
         <f ca="1">SUM(F3,R3,V3,N3,J3,Z3,AD3)</f>
-        <v>43871</v>
+        <v>35552</v>
       </c>
       <c r="AJ3" s="1">
         <v>41996</v>
@@ -1846,7 +1858,7 @@
       </c>
       <c r="AL3" s="2">
         <f ca="1">(AL2-AL1)/AL2</f>
-        <v>0.79411764705882348</v>
+        <v>0.82352941176470584</v>
       </c>
     </row>
     <row r="4" spans="2:38">
@@ -1938,89 +1950,89 @@
       </c>
       <c r="D5" s="106">
         <f ca="1">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-D6)</f>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E5" s="100"/>
       <c r="F5" s="100">
         <f ca="1">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-F6)</f>
-        <v>-5117</v>
+        <v>4218</v>
       </c>
       <c r="G5" s="101"/>
       <c r="H5" s="106">
         <f t="shared" ref="H5" ca="1" si="28">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-H6)</f>
-        <v>-89</v>
+        <v>-84</v>
       </c>
       <c r="I5" s="100"/>
       <c r="J5" s="100">
         <f t="shared" ref="J5" ca="1" si="29">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-J6)</f>
-        <v>-101084</v>
+        <v>-97711</v>
       </c>
       <c r="K5" s="101"/>
       <c r="L5" s="106">
         <f t="shared" ref="L5" ca="1" si="30">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-L6)</f>
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="M5" s="100"/>
       <c r="N5" s="100">
         <f t="shared" ref="N5" ca="1" si="31">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-N6)</f>
-        <v>-36194</v>
+        <v>-22363</v>
       </c>
       <c r="O5" s="101"/>
       <c r="P5" s="106">
         <f t="shared" ref="P5" ca="1" si="32">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-P6)</f>
-        <v>-38</v>
+        <v>6</v>
       </c>
       <c r="Q5" s="100"/>
       <c r="R5" s="100">
         <f t="shared" ref="R5" ca="1" si="33">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-R6)</f>
-        <v>-33183</v>
+        <v>8420</v>
       </c>
       <c r="S5" s="101"/>
       <c r="T5" s="106">
         <f t="shared" ref="T5" ca="1" si="34">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-T6)</f>
-        <v>-7</v>
+        <v>27</v>
       </c>
       <c r="U5" s="100"/>
       <c r="V5" s="100">
         <f t="shared" ref="V5" ca="1" si="35">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-V6)</f>
-        <v>22879</v>
+        <v>26471</v>
       </c>
       <c r="W5" s="101"/>
       <c r="X5" s="147">
         <f t="shared" ref="X5" ca="1" si="36">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-X6)</f>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Y5" s="148"/>
       <c r="Z5" s="140">
         <f t="shared" ref="Z5" ca="1" si="37">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-Z6)</f>
-        <v>30883</v>
+        <v>26471</v>
       </c>
       <c r="AA5" s="141"/>
       <c r="AB5" s="149">
         <f t="shared" ref="AB5" ca="1" si="38">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-AB6)</f>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AC5" s="150"/>
       <c r="AD5" s="143">
         <f t="shared" ref="AD5" ca="1" si="39">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-AD6)</f>
-        <v>30883</v>
+        <v>26471</v>
       </c>
       <c r="AE5" s="144"/>
       <c r="AF5" s="4">
         <f ca="1">SUM(D5,P5,T5,L5,H5,X5,AB5)</f>
-        <v>-43</v>
+        <v>51</v>
       </c>
       <c r="AG5" s="4">
         <f ca="1">SUM(F5,R5,V5,N5,J5,Z5,AD5)</f>
-        <v>-90933</v>
+        <v>-28023</v>
       </c>
       <c r="AH5" s="3">
         <f ca="1">-$AL$3+AH6</f>
-        <v>-4.1736694677871111E-2</v>
+        <v>4.5042016806722707E-2</v>
       </c>
       <c r="AI5" s="3">
         <f ca="1">AI6-$AL$3</f>
-        <v>-8.6607170868347239E-2</v>
+        <v>-2.6691316526610609E-2</v>
       </c>
       <c r="AJ5" s="92" t="s">
         <v>30</v>
@@ -2040,47 +2052,47 @@
       <c r="E6" s="100"/>
       <c r="F6" s="100">
         <f>IF(150000-E13&lt;0,0,150000-E13)</f>
-        <v>36000</v>
+        <v>22253</v>
       </c>
       <c r="G6" s="101"/>
       <c r="H6" s="106">
         <f t="shared" ref="H6" si="40">IF(150-H13&lt;0,0,150-H13)</f>
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="I6" s="100"/>
       <c r="J6" s="100">
         <f t="shared" ref="J6" si="41">IF(150000-I13&lt;0,0,150000-I13)</f>
-        <v>131967</v>
+        <v>124182</v>
       </c>
       <c r="K6" s="101"/>
       <c r="L6" s="106">
         <f t="shared" ref="L6" si="42">IF(150-L13&lt;0,0,150-L13)</f>
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="M6" s="100"/>
       <c r="N6" s="100">
         <f t="shared" ref="N6" si="43">IF(150000-M13&lt;0,0,150000-M13)</f>
-        <v>67077</v>
+        <v>48834</v>
       </c>
       <c r="O6" s="101"/>
       <c r="P6" s="106">
         <f t="shared" ref="P6" si="44">IF(150-P13&lt;0,0,150-P13)</f>
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="100"/>
       <c r="R6" s="100">
         <f t="shared" ref="R6" si="45">IF(150000-Q13&lt;0,0,150000-Q13)</f>
-        <v>64066</v>
+        <v>18051</v>
       </c>
       <c r="S6" s="101"/>
       <c r="T6" s="106">
         <f t="shared" ref="T6" si="46">IF(150-T13&lt;0,0,150-T13)</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="U6" s="100"/>
       <c r="V6" s="100">
         <f t="shared" ref="V6" si="47">IF(150000-U13&lt;0,0,150000-U13)</f>
-        <v>8004</v>
+        <v>0</v>
       </c>
       <c r="W6" s="101"/>
       <c r="X6" s="138">
@@ -2105,32 +2117,32 @@
       <c r="AE6" s="144"/>
       <c r="AF6" s="4">
         <f>SUM(D6,P6,T6,L6,H6,X6,AB6)</f>
-        <v>260</v>
+        <v>138</v>
       </c>
       <c r="AG6" s="4">
         <f>SUM(F6,R6,V6,N6,J6,Z6,AD6)</f>
-        <v>307114</v>
+        <v>213320</v>
       </c>
       <c r="AH6" s="3">
         <f>(7*150-AF6)/(7*150)</f>
-        <v>0.75238095238095237</v>
+        <v>0.86857142857142855</v>
       </c>
       <c r="AI6" s="3">
         <f>(7*150000-AG6)/(7*150000)</f>
-        <v>0.70751047619047625</v>
+        <v>0.79683809523809523</v>
       </c>
       <c r="AJ6" s="90">
         <f>AF6/35</f>
-        <v>7.4285714285714288</v>
+        <v>3.9428571428571431</v>
       </c>
       <c r="AK6" s="90">
         <f>AG6/35000</f>
-        <v>8.7746857142857149</v>
+        <v>6.0948571428571432</v>
       </c>
     </row>
     <row r="7" spans="2:38" ht="15.75" thickBot="1">
       <c r="C7" s="89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="107">
         <f>D6/5</f>
@@ -2139,47 +2151,47 @@
       <c r="E7" s="102"/>
       <c r="F7" s="102">
         <f>F6/5000</f>
-        <v>7.2</v>
+        <v>4.4505999999999997</v>
       </c>
       <c r="G7" s="103"/>
       <c r="H7" s="107">
         <f t="shared" ref="H7" si="52">H6/5</f>
-        <v>24</v>
+        <v>22.2</v>
       </c>
       <c r="I7" s="102"/>
       <c r="J7" s="102">
         <f t="shared" ref="J7" si="53">J6/5000</f>
-        <v>26.3934</v>
+        <v>24.836400000000001</v>
       </c>
       <c r="K7" s="103"/>
       <c r="L7" s="107">
         <f t="shared" ref="L7" si="54">L6/5</f>
-        <v>6.6</v>
+        <v>1.2</v>
       </c>
       <c r="M7" s="102"/>
       <c r="N7" s="102">
         <f t="shared" ref="N7" si="55">N6/5000</f>
-        <v>13.4154</v>
+        <v>9.7667999999999999</v>
       </c>
       <c r="O7" s="103"/>
       <c r="P7" s="107">
         <f t="shared" ref="P7" si="56">P6/5</f>
-        <v>13.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q7" s="102"/>
       <c r="R7" s="102">
         <f t="shared" ref="R7" si="57">R6/5000</f>
-        <v>12.8132</v>
+        <v>3.6101999999999999</v>
       </c>
       <c r="S7" s="103"/>
       <c r="T7" s="107">
         <f t="shared" ref="T7" si="58">T6/5</f>
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="U7" s="102"/>
       <c r="V7" s="102">
         <f t="shared" ref="V7" si="59">V6/5000</f>
-        <v>1.6008</v>
+        <v>0</v>
       </c>
       <c r="W7" s="103"/>
       <c r="X7" s="151">
@@ -2204,11 +2216,11 @@
       <c r="AE7" s="103"/>
       <c r="AF7" s="4">
         <f>150*7-AF6</f>
-        <v>790</v>
+        <v>912</v>
       </c>
       <c r="AG7" s="4">
         <f>150000*7-AG6</f>
-        <v>742886</v>
+        <v>836680</v>
       </c>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
@@ -2217,63 +2229,62 @@
       <c r="C8" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="155">
-        <f>D$6/AVERAGE(F24:F25)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="156"/>
+      <c r="D8" s="157">
+        <v>0</v>
+      </c>
+      <c r="E8" s="158"/>
       <c r="F8" s="155">
-        <f>F$6/AVERAGE(G24:G25)</f>
-        <v>16.716972370559553</v>
+        <f>F$6/AVERAGE(G22:G23)</f>
+        <v>2.5368217054263567</v>
       </c>
       <c r="G8" s="156"/>
-      <c r="H8" s="155">
-        <f>H$6/AVERAGE(J24:J25)</f>
-        <v>80</v>
-      </c>
-      <c r="I8" s="156"/>
+      <c r="H8" s="157">
+        <f t="shared" ref="H8" si="64">H$6/AVERAGE(J22:J23)</f>
+        <v>111</v>
+      </c>
+      <c r="I8" s="158"/>
       <c r="J8" s="155">
-        <f>J$6/AVERAGE(K24:K25)</f>
-        <v>149.7922814982974</v>
+        <f t="shared" ref="J8" si="65">J$6/AVERAGE(K22:K23)</f>
+        <v>89.051272857655078</v>
       </c>
       <c r="K8" s="156"/>
-      <c r="L8" s="155">
-        <f>L$6/AVERAGE(N24:N25)</f>
-        <v>66</v>
-      </c>
-      <c r="M8" s="156"/>
+      <c r="L8" s="157">
+        <f t="shared" ref="L8" si="66">L$6/AVERAGE(N22:N23)</f>
+        <v>0.8</v>
+      </c>
+      <c r="M8" s="158"/>
       <c r="N8" s="155">
-        <f>N$6/AVERAGE(O24:O25)</f>
-        <v>53.130297029702973</v>
+        <f t="shared" ref="N8" si="67">N$6/AVERAGE(O22:O23)</f>
+        <v>12.378707224334601</v>
       </c>
       <c r="O8" s="156"/>
-      <c r="P8" s="155">
-        <f>P$6/AVERAGE(R24:R25)</f>
-        <v>46</v>
-      </c>
-      <c r="Q8" s="156"/>
+      <c r="P8" s="157">
+        <f t="shared" ref="P8" si="68">P$6/AVERAGE(R22:R23)</f>
+        <v>1.05</v>
+      </c>
+      <c r="Q8" s="158"/>
       <c r="R8" s="155">
-        <f>R$6/AVERAGE(S24:S25)</f>
-        <v>42.925293132328306</v>
+        <f t="shared" ref="R8" si="69">R$6/AVERAGE(S22:S23)</f>
+        <v>1.0288108061896213</v>
       </c>
       <c r="S8" s="156"/>
-      <c r="T8" s="155">
-        <f>T$6/AVERAGE(V24:V25)</f>
-        <v>8.4444444444444446</v>
-      </c>
-      <c r="U8" s="156"/>
+      <c r="T8" s="157">
+        <f t="shared" ref="T8" si="70">T$6/AVERAGE(V22:V23)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="158"/>
       <c r="V8" s="155">
-        <f>V$6/AVERAGE(W24:W25)</f>
-        <v>0.78655660377358494</v>
+        <f t="shared" ref="V8" si="71">V$6/AVERAGE(W22:W23)</f>
+        <v>0</v>
       </c>
       <c r="W8" s="156"/>
       <c r="X8" s="155">
-        <f t="shared" ref="X8" si="64">X$6/AVERAGE(Z25:Z26)</f>
+        <f t="shared" ref="X8" si="72">X$6/AVERAGE(Z25:Z26)</f>
         <v>0</v>
       </c>
       <c r="Y8" s="156"/>
       <c r="Z8" s="155">
-        <f t="shared" ref="Z8" si="65">Z$6/AVERAGE(AA25:AA26)</f>
+        <f t="shared" ref="Z8" si="73">Z$6/AVERAGE(AA25:AA26)</f>
         <v>0</v>
       </c>
       <c r="AA8" s="156"/>
@@ -2291,62 +2302,62 @@
         <v>31</v>
       </c>
       <c r="D9" s="155">
-        <f>D$6/AVERAGE(F24:F26)</f>
+        <f>D$6/AVERAGE(F22:F24)</f>
         <v>0</v>
       </c>
       <c r="E9" s="156"/>
       <c r="F9" s="155">
-        <f>F$6/AVERAGE(G24:G26)</f>
-        <v>13.214242016395447</v>
+        <f>F$6/AVERAGE(G22:G24)</f>
+        <v>3.0551919820603173</v>
       </c>
       <c r="G9" s="156"/>
       <c r="H9" s="155">
-        <f>H$6/AVERAGE(J24:J26)</f>
-        <v>120</v>
+        <f t="shared" ref="H9" si="74">H$6/AVERAGE(J22:J24)</f>
+        <v>66.599999999999994</v>
       </c>
       <c r="I9" s="156"/>
       <c r="J9" s="155">
-        <f>J$6/AVERAGE(K24:K26)</f>
-        <v>224.68842224744606</v>
+        <f t="shared" ref="J9" si="75">J$6/AVERAGE(K22:K24)</f>
+        <v>81.860250494396837</v>
       </c>
       <c r="K9" s="156"/>
       <c r="L9" s="155">
-        <f>L$6/AVERAGE(N24:N26)</f>
-        <v>99</v>
+        <f t="shared" ref="L9" si="76">L$6/AVERAGE(N22:N24)</f>
+        <v>1.125</v>
       </c>
       <c r="M9" s="156"/>
       <c r="N9" s="155">
-        <f>N$6/AVERAGE(O24:O26)</f>
-        <v>79.69544554455446</v>
+        <f t="shared" ref="N9" si="77">N$6/AVERAGE(O22:O24)</f>
+        <v>14.066442630820932</v>
       </c>
       <c r="O9" s="156"/>
       <c r="P9" s="155">
-        <f>P$6/AVERAGE(R24:R26)</f>
-        <v>34.5</v>
+        <f t="shared" ref="P9" si="78">P$6/AVERAGE(R22:R24)</f>
+        <v>1.4651162790697674</v>
       </c>
       <c r="Q9" s="156"/>
       <c r="R9" s="155">
-        <f>R$6/AVERAGE(S24:S26)</f>
-        <v>29.112087246289004</v>
+        <f t="shared" ref="R9" si="79">R$6/AVERAGE(S22:S24)</f>
+        <v>1.4222344784115979</v>
       </c>
       <c r="S9" s="156"/>
       <c r="T9" s="155">
-        <f>T$6/AVERAGE(V24:V26)</f>
-        <v>8.7692307692307701</v>
+        <f t="shared" ref="T9" si="80">T$6/AVERAGE(V22:V24)</f>
+        <v>0</v>
       </c>
       <c r="U9" s="156"/>
       <c r="V9" s="155">
-        <f>V$6/AVERAGE(W24:W26)</f>
-        <v>1.053204087898592</v>
+        <f t="shared" ref="V9" si="81">V$6/AVERAGE(W22:W24)</f>
+        <v>0</v>
       </c>
       <c r="W9" s="156"/>
       <c r="X9" s="155">
-        <f t="shared" ref="X9" si="66">X$6/AVERAGE(Z25:Z27)</f>
+        <f t="shared" ref="X9" si="82">X$6/AVERAGE(Z25:Z27)</f>
         <v>0</v>
       </c>
       <c r="Y9" s="156"/>
       <c r="Z9" s="155">
-        <f t="shared" ref="Z9" si="67">Z$6/AVERAGE(AA25:AA27)</f>
+        <f t="shared" ref="Z9" si="83">Z$6/AVERAGE(AA25:AA27)</f>
         <v>0</v>
       </c>
       <c r="AA9" s="156"/>
@@ -2362,62 +2373,62 @@
         <v>33</v>
       </c>
       <c r="D10" s="155">
-        <f>D$6/AVERAGE(F24:F27)</f>
+        <f>D$6/AVERAGE(F22:F25)</f>
         <v>0</v>
       </c>
       <c r="E10" s="156"/>
       <c r="F10" s="155">
-        <f>F$6/AVERAGE(G24:G27)</f>
-        <v>11.185334783284139</v>
+        <f>F$6/AVERAGE(G22:G25)</f>
+        <v>4.073589309413757</v>
       </c>
       <c r="G10" s="156"/>
       <c r="H10" s="155">
-        <f>H$6/AVERAGE(J24:J27)</f>
-        <v>160</v>
+        <f t="shared" ref="H10" si="84">H$6/AVERAGE(J22:J25)</f>
+        <v>88.8</v>
       </c>
       <c r="I10" s="156"/>
       <c r="J10" s="155">
-        <f>J$6/AVERAGE(K24:K27)</f>
-        <v>299.5845629965948</v>
+        <f t="shared" ref="J10" si="85">J$6/AVERAGE(K22:K25)</f>
+        <v>109.14700065919578</v>
       </c>
       <c r="K10" s="156"/>
       <c r="L10" s="155">
-        <f>L$6/AVERAGE(N24:N27)</f>
-        <v>14.666666666666666</v>
+        <f t="shared" ref="L10" si="86">L$6/AVERAGE(N22:N25)</f>
+        <v>1.5</v>
       </c>
       <c r="M10" s="156"/>
       <c r="N10" s="155">
-        <f>N$6/AVERAGE(O24:O27)</f>
-        <v>64.096512183468704</v>
+        <f t="shared" ref="N10" si="87">N$6/AVERAGE(O22:O25)</f>
+        <v>18.755256841094575</v>
       </c>
       <c r="O10" s="156"/>
       <c r="P10" s="155">
-        <f>P$6/AVERAGE(R24:R27)</f>
-        <v>21.23076923076923</v>
+        <f t="shared" ref="P10" si="88">P$6/AVERAGE(R22:R25)</f>
+        <v>1.9534883720930232</v>
       </c>
       <c r="Q10" s="156"/>
       <c r="R10" s="155">
-        <f>R$6/AVERAGE(S24:S27)</f>
-        <v>23.398831263696128</v>
+        <f t="shared" ref="R10" si="89">R$6/AVERAGE(S22:S25)</f>
+        <v>1.8963126378821304</v>
       </c>
       <c r="S10" s="156"/>
       <c r="T10" s="155">
-        <f>T$6/AVERAGE(V24:V27)</f>
-        <v>8.4444444444444446</v>
+        <f t="shared" ref="T10" si="90">T$6/AVERAGE(V22:V25)</f>
+        <v>0</v>
       </c>
       <c r="U10" s="156"/>
       <c r="V10" s="155">
-        <f>V$6/AVERAGE(W24:W27)</f>
-        <v>1.1688937568455642</v>
+        <f t="shared" ref="V10" si="91">V$6/AVERAGE(W22:W25)</f>
+        <v>0</v>
       </c>
       <c r="W10" s="156"/>
       <c r="X10" s="155">
-        <f t="shared" ref="X10" si="68">X$6/AVERAGE(Z25:Z28)</f>
+        <f t="shared" ref="X10" si="92">X$6/AVERAGE(Z25:Z28)</f>
         <v>0</v>
       </c>
       <c r="Y10" s="156"/>
       <c r="Z10" s="155">
-        <f t="shared" ref="Z10" si="69">Z$6/AVERAGE(AA25:AA28)</f>
+        <f t="shared" ref="Z10" si="93">Z$6/AVERAGE(AA25:AA28)</f>
         <v>0</v>
       </c>
       <c r="AA10" s="156"/>
@@ -2536,7 +2547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:38" hidden="1">
+    <row r="13" spans="2:38" ht="15" hidden="1" customHeight="1">
       <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
@@ -2544,140 +2555,140 @@
         <v>42023</v>
       </c>
       <c r="D13" s="53">
-        <f t="shared" ref="D13:E25" si="70">D14</f>
+        <f t="shared" ref="D13:E25" si="94">D14</f>
         <v>150</v>
       </c>
       <c r="E13" s="32">
-        <f t="shared" si="70"/>
-        <v>114000</v>
+        <f t="shared" si="94"/>
+        <v>127747</v>
       </c>
       <c r="F13" s="55">
-        <f t="shared" ref="F13:F41" si="71">D13-D14</f>
+        <f t="shared" ref="F13:F41" si="95">D13-D14</f>
         <v>0</v>
       </c>
       <c r="G13" s="33">
-        <f t="shared" ref="G13:G41" si="72">E13-E14</f>
+        <f t="shared" ref="G13:G41" si="96">E13-E14</f>
         <v>0</v>
       </c>
       <c r="H13" s="69">
-        <f t="shared" ref="H13:AC34" si="73">H14</f>
-        <v>30</v>
+        <f t="shared" ref="H13:AC34" si="97">H14</f>
+        <v>39</v>
       </c>
       <c r="I13" s="73">
-        <f t="shared" si="73"/>
-        <v>18033</v>
+        <f t="shared" si="97"/>
+        <v>25818</v>
       </c>
       <c r="J13" s="71">
-        <f t="shared" ref="J13:J41" si="74">H13-H14</f>
+        <f t="shared" ref="J13:J41" si="98">H13-H14</f>
         <v>0</v>
       </c>
       <c r="K13" s="75">
-        <f t="shared" ref="K13:K41" si="75">I13-I14</f>
+        <f t="shared" ref="K13:K41" si="99">I13-I14</f>
         <v>0</v>
       </c>
       <c r="L13" s="57">
-        <f t="shared" ref="L13:L22" si="76">L14</f>
-        <v>117</v>
+        <f t="shared" ref="L13:L21" si="100">L14</f>
+        <v>144</v>
       </c>
       <c r="M13" s="61">
-        <f t="shared" ref="M13:M22" si="77">M14</f>
-        <v>82923</v>
+        <f t="shared" ref="M13:M20" si="101">M14</f>
+        <v>101166</v>
       </c>
       <c r="N13" s="59">
-        <f t="shared" ref="N13:N41" si="78">L13-L14</f>
+        <f t="shared" ref="N13:N41" si="102">L13-L14</f>
         <v>0</v>
       </c>
       <c r="O13" s="63">
-        <f t="shared" ref="O13:O41" si="79">M13-M14</f>
+        <f t="shared" ref="O13:O41" si="103">M13-M14</f>
         <v>0</v>
       </c>
       <c r="P13" s="35">
-        <f t="shared" ref="P13:P22" si="80">P14</f>
-        <v>81</v>
+        <f t="shared" ref="P13:P20" si="104">P14</f>
+        <v>129</v>
       </c>
       <c r="Q13" s="49">
-        <f t="shared" ref="Q13:Q22" si="81">Q14</f>
-        <v>85934</v>
+        <f t="shared" ref="Q13:Q20" si="105">Q14</f>
+        <v>131949</v>
       </c>
       <c r="R13" s="37">
-        <f t="shared" ref="R13:R41" si="82">P13-P14</f>
+        <f t="shared" ref="R13:R41" si="106">P13-P14</f>
         <v>0</v>
       </c>
       <c r="S13" s="51">
-        <f t="shared" ref="S13:S41" si="83">Q13-Q14</f>
+        <f t="shared" ref="S13:S41" si="107">Q13-Q14</f>
         <v>0</v>
       </c>
       <c r="T13" s="39">
-        <f t="shared" ref="T13:T22" si="84">T14</f>
-        <v>112</v>
+        <f t="shared" ref="T13:T20" si="108">T14</f>
+        <v>150</v>
       </c>
       <c r="U13" s="91">
-        <f t="shared" ref="U13:U22" si="85">U14</f>
-        <v>141996</v>
+        <f t="shared" ref="U13:U21" si="109">U14</f>
+        <v>150000</v>
       </c>
       <c r="V13" s="41">
-        <f t="shared" ref="V13:V41" si="86">T13-T14</f>
+        <f t="shared" ref="V13:V41" si="110">T13-T14</f>
         <v>0</v>
       </c>
       <c r="W13" s="45">
-        <f t="shared" ref="W13:W41" si="87">U13-U14</f>
+        <f t="shared" ref="W13:W41" si="111">U13-U14</f>
         <v>0</v>
       </c>
       <c r="X13" s="65">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150</v>
       </c>
       <c r="Y13" s="47">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150000</v>
       </c>
       <c r="Z13" s="61">
-        <f t="shared" ref="Z13:Z41" si="88">X13-X14</f>
+        <f t="shared" ref="Z13:Z41" si="112">X13-X14</f>
         <v>0</v>
       </c>
       <c r="AA13" s="67">
-        <f t="shared" ref="AA13:AA41" si="89">Y13-Y14</f>
+        <f t="shared" ref="AA13:AA41" si="113">Y13-Y14</f>
         <v>0</v>
       </c>
       <c r="AB13" s="77">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150</v>
       </c>
       <c r="AC13" s="83">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150000</v>
       </c>
       <c r="AD13" s="80">
-        <f t="shared" ref="AD13:AD41" si="90">AB13-AB14</f>
+        <f t="shared" ref="AD13:AD41" si="114">AB13-AB14</f>
         <v>0</v>
       </c>
       <c r="AE13" s="86">
-        <f t="shared" ref="AE13:AE41" si="91">AC13-AC14</f>
+        <f t="shared" ref="AE13:AE41" si="115">AC13-AC14</f>
         <v>0</v>
       </c>
       <c r="AF13" s="12">
-        <f t="shared" ref="AF13:AF47" si="92">SUM(D13,P13,T13,L13,H13,X13,AB13)-SUM(D14,P14,T14,L14,H14,X14,AB14)</f>
+        <f t="shared" ref="AF13:AF47" si="116">SUM(D13,P13,T13,L13,H13,X13,AB13)-SUM(D14,P14,T14,L14,H14,X14,AB14)</f>
         <v>0</v>
       </c>
       <c r="AG13" s="18">
-        <f t="shared" ref="AG13:AG47" si="93">SUM(E13,Q13,U13,M13,I13,Y13,AC13)-SUM(E14,Q14,U14,M14,I14,Y14,AC14)</f>
+        <f t="shared" ref="AG13:AG47" si="117">SUM(E13,Q13,U13,M13,I13,Y13,AC13)-SUM(E14,Q14,U14,M14,I14,Y14,AC14)</f>
         <v>0</v>
       </c>
       <c r="AH13" s="15"/>
       <c r="AI13" s="21">
-        <f t="shared" ref="AI13:AI36" si="94">AH13-AH14</f>
+        <f t="shared" ref="AI13:AI36" si="118">AH13-AH14</f>
         <v>0</v>
       </c>
       <c r="AJ13" s="15">
-        <f t="shared" ref="AJ13:AJ30" si="95">IF($AI13=0,0,AF13/$AI13)</f>
+        <f t="shared" ref="AJ13:AJ30" si="119">IF($AI13=0,0,AF13/$AI13)</f>
         <v>0</v>
       </c>
       <c r="AK13" s="21">
-        <f t="shared" ref="AK13:AK30" si="96">IF($AI13=0,0,AG13/$AI13)</f>
+        <f t="shared" ref="AK13:AK30" si="120">IF($AI13=0,0,AG13/$AI13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:38" hidden="1">
+    <row r="14" spans="2:38" ht="15" hidden="1" customHeight="1">
       <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
@@ -2685,140 +2696,140 @@
         <v>42022</v>
       </c>
       <c r="D14" s="53">
-        <f t="shared" si="70"/>
+        <f t="shared" si="94"/>
         <v>150</v>
       </c>
       <c r="E14" s="32">
-        <f t="shared" si="70"/>
-        <v>114000</v>
+        <f t="shared" si="94"/>
+        <v>127747</v>
       </c>
       <c r="F14" s="55">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="G14" s="33">
-        <f t="shared" si="72"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H14" s="69">
-        <f t="shared" si="73"/>
-        <v>30</v>
+        <f t="shared" si="97"/>
+        <v>39</v>
       </c>
       <c r="I14" s="73">
-        <f t="shared" si="73"/>
-        <v>18033</v>
+        <f t="shared" si="97"/>
+        <v>25818</v>
       </c>
       <c r="J14" s="71">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="K14" s="75">
-        <f t="shared" si="75"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L14" s="57">
-        <f t="shared" si="76"/>
-        <v>117</v>
+        <f t="shared" si="100"/>
+        <v>144</v>
       </c>
       <c r="M14" s="61">
-        <f t="shared" si="77"/>
-        <v>82923</v>
+        <f t="shared" si="101"/>
+        <v>101166</v>
       </c>
       <c r="N14" s="59">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="O14" s="63">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="P14" s="35">
-        <f t="shared" si="80"/>
-        <v>81</v>
+        <f t="shared" si="104"/>
+        <v>129</v>
       </c>
       <c r="Q14" s="49">
-        <f t="shared" si="81"/>
-        <v>85934</v>
+        <f t="shared" si="105"/>
+        <v>131949</v>
       </c>
       <c r="R14" s="37">
-        <f t="shared" si="82"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="S14" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="T14" s="39">
-        <f t="shared" si="84"/>
-        <v>112</v>
+        <f t="shared" si="108"/>
+        <v>150</v>
       </c>
       <c r="U14" s="91">
-        <f t="shared" si="85"/>
-        <v>141996</v>
+        <f t="shared" si="109"/>
+        <v>150000</v>
       </c>
       <c r="V14" s="41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="W14" s="45">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="X14" s="65">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150</v>
       </c>
       <c r="Y14" s="47">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150000</v>
       </c>
       <c r="Z14" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AA14" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AB14" s="77">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150</v>
       </c>
       <c r="AC14" s="83">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150000</v>
       </c>
       <c r="AD14" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE14" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AF14" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="AG14" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="AH14" s="15"/>
       <c r="AI14" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="AJ14" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AK14" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:38" hidden="1">
+    <row r="15" spans="2:38" ht="15" hidden="1" customHeight="1">
       <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
@@ -2826,140 +2837,140 @@
         <v>42021</v>
       </c>
       <c r="D15" s="53">
-        <f t="shared" si="70"/>
+        <f t="shared" si="94"/>
         <v>150</v>
       </c>
       <c r="E15" s="32">
-        <f t="shared" si="70"/>
-        <v>114000</v>
+        <f t="shared" si="94"/>
+        <v>127747</v>
       </c>
       <c r="F15" s="55">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="G15" s="33">
-        <f t="shared" si="72"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H15" s="69">
-        <f t="shared" si="73"/>
-        <v>30</v>
+        <f t="shared" si="97"/>
+        <v>39</v>
       </c>
       <c r="I15" s="73">
-        <f t="shared" si="73"/>
-        <v>18033</v>
+        <f t="shared" si="97"/>
+        <v>25818</v>
       </c>
       <c r="J15" s="71">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="K15" s="75">
-        <f t="shared" si="75"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L15" s="57">
-        <f t="shared" si="76"/>
-        <v>117</v>
+        <f t="shared" si="100"/>
+        <v>144</v>
       </c>
       <c r="M15" s="61">
-        <f t="shared" si="77"/>
-        <v>82923</v>
+        <f t="shared" si="101"/>
+        <v>101166</v>
       </c>
       <c r="N15" s="59">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="O15" s="63">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="P15" s="35">
-        <f t="shared" si="80"/>
-        <v>81</v>
+        <f t="shared" si="104"/>
+        <v>129</v>
       </c>
       <c r="Q15" s="49">
-        <f t="shared" si="81"/>
-        <v>85934</v>
+        <f t="shared" si="105"/>
+        <v>131949</v>
       </c>
       <c r="R15" s="37">
-        <f t="shared" si="82"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="S15" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="T15" s="39">
-        <f t="shared" si="84"/>
-        <v>112</v>
+        <f t="shared" si="108"/>
+        <v>150</v>
       </c>
       <c r="U15" s="91">
-        <f t="shared" si="85"/>
-        <v>141996</v>
+        <f t="shared" si="109"/>
+        <v>150000</v>
       </c>
       <c r="V15" s="41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="W15" s="45">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="X15" s="65">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150</v>
       </c>
       <c r="Y15" s="47">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150000</v>
       </c>
       <c r="Z15" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AA15" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AB15" s="77">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150</v>
       </c>
       <c r="AC15" s="83">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150000</v>
       </c>
       <c r="AD15" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE15" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AF15" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="AG15" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="AH15" s="15"/>
       <c r="AI15" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="AJ15" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AK15" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:38" hidden="1">
+    <row r="16" spans="2:38" ht="15" hidden="1" customHeight="1">
       <c r="B16" s="9" t="s">
         <v>25</v>
       </c>
@@ -2967,140 +2978,140 @@
         <v>42020</v>
       </c>
       <c r="D16" s="53">
-        <f t="shared" si="70"/>
+        <f t="shared" si="94"/>
         <v>150</v>
       </c>
       <c r="E16" s="32">
-        <f t="shared" si="70"/>
-        <v>114000</v>
+        <f t="shared" si="94"/>
+        <v>127747</v>
       </c>
       <c r="F16" s="55">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="G16" s="33">
-        <f t="shared" si="72"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H16" s="69">
-        <f t="shared" si="73"/>
-        <v>30</v>
+        <f t="shared" si="97"/>
+        <v>39</v>
       </c>
       <c r="I16" s="73">
-        <f t="shared" si="73"/>
-        <v>18033</v>
+        <f t="shared" si="97"/>
+        <v>25818</v>
       </c>
       <c r="J16" s="71">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="K16" s="75">
-        <f t="shared" si="75"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L16" s="57">
-        <f t="shared" si="76"/>
-        <v>117</v>
+        <f t="shared" si="100"/>
+        <v>144</v>
       </c>
       <c r="M16" s="61">
-        <f t="shared" si="77"/>
-        <v>82923</v>
+        <f t="shared" si="101"/>
+        <v>101166</v>
       </c>
       <c r="N16" s="59">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="O16" s="63">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="P16" s="35">
-        <f t="shared" si="80"/>
-        <v>81</v>
+        <f t="shared" si="104"/>
+        <v>129</v>
       </c>
       <c r="Q16" s="49">
-        <f t="shared" si="81"/>
-        <v>85934</v>
+        <f t="shared" si="105"/>
+        <v>131949</v>
       </c>
       <c r="R16" s="37">
-        <f t="shared" si="82"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="S16" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="T16" s="39">
-        <f t="shared" si="84"/>
-        <v>112</v>
+        <f t="shared" si="108"/>
+        <v>150</v>
       </c>
       <c r="U16" s="91">
-        <f t="shared" si="85"/>
-        <v>141996</v>
+        <f t="shared" si="109"/>
+        <v>150000</v>
       </c>
       <c r="V16" s="41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="W16" s="45">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="X16" s="65">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150</v>
       </c>
       <c r="Y16" s="47">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150000</v>
       </c>
       <c r="Z16" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AA16" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AB16" s="77">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150</v>
       </c>
       <c r="AC16" s="83">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150000</v>
       </c>
       <c r="AD16" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE16" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AF16" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="AG16" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="AH16" s="15"/>
       <c r="AI16" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="AJ16" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AK16" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:37" hidden="1">
+    <row r="17" spans="2:37" ht="15" hidden="1" customHeight="1">
       <c r="B17" s="9" t="s">
         <v>20</v>
       </c>
@@ -3108,140 +3119,140 @@
         <v>42019</v>
       </c>
       <c r="D17" s="53">
-        <f t="shared" si="70"/>
+        <f t="shared" si="94"/>
         <v>150</v>
       </c>
       <c r="E17" s="32">
-        <f t="shared" si="70"/>
-        <v>114000</v>
+        <f t="shared" si="94"/>
+        <v>127747</v>
       </c>
       <c r="F17" s="55">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="G17" s="33">
-        <f t="shared" si="72"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H17" s="69">
-        <f t="shared" si="73"/>
-        <v>30</v>
+        <f t="shared" si="97"/>
+        <v>39</v>
       </c>
       <c r="I17" s="73">
-        <f t="shared" si="73"/>
-        <v>18033</v>
+        <f t="shared" si="97"/>
+        <v>25818</v>
       </c>
       <c r="J17" s="71">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="K17" s="75">
-        <f t="shared" si="75"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L17" s="57">
-        <f t="shared" si="76"/>
-        <v>117</v>
+        <f t="shared" si="100"/>
+        <v>144</v>
       </c>
       <c r="M17" s="61">
-        <f t="shared" si="77"/>
-        <v>82923</v>
+        <f t="shared" si="101"/>
+        <v>101166</v>
       </c>
       <c r="N17" s="59">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="O17" s="63">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="P17" s="35">
-        <f t="shared" si="80"/>
-        <v>81</v>
+        <f t="shared" si="104"/>
+        <v>129</v>
       </c>
       <c r="Q17" s="49">
-        <f t="shared" si="81"/>
-        <v>85934</v>
+        <f t="shared" si="105"/>
+        <v>131949</v>
       </c>
       <c r="R17" s="37">
-        <f t="shared" si="82"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="S17" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="T17" s="39">
-        <f t="shared" si="84"/>
-        <v>112</v>
+        <f t="shared" si="108"/>
+        <v>150</v>
       </c>
       <c r="U17" s="91">
-        <f t="shared" si="85"/>
-        <v>141996</v>
+        <f t="shared" si="109"/>
+        <v>150000</v>
       </c>
       <c r="V17" s="41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="W17" s="45">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="X17" s="65">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150</v>
       </c>
       <c r="Y17" s="47">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150000</v>
       </c>
       <c r="Z17" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AA17" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AB17" s="77">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150</v>
       </c>
       <c r="AC17" s="83">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150000</v>
       </c>
       <c r="AD17" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE17" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AF17" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="AG17" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="AH17" s="15"/>
       <c r="AI17" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="AJ17" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AK17" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:37" hidden="1">
+    <row r="18" spans="2:37" ht="15" hidden="1" customHeight="1">
       <c r="B18" s="9" t="s">
         <v>21</v>
       </c>
@@ -3249,140 +3260,140 @@
         <v>42018</v>
       </c>
       <c r="D18" s="53">
-        <f t="shared" si="70"/>
+        <f t="shared" si="94"/>
         <v>150</v>
       </c>
       <c r="E18" s="32">
-        <f t="shared" si="70"/>
-        <v>114000</v>
+        <f t="shared" si="94"/>
+        <v>127747</v>
       </c>
       <c r="F18" s="55">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="G18" s="33">
-        <f t="shared" si="72"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H18" s="69">
-        <f t="shared" si="73"/>
-        <v>30</v>
+        <f t="shared" si="97"/>
+        <v>39</v>
       </c>
       <c r="I18" s="73">
-        <f t="shared" si="73"/>
-        <v>18033</v>
+        <f t="shared" si="97"/>
+        <v>25818</v>
       </c>
       <c r="J18" s="71">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="K18" s="75">
-        <f t="shared" si="75"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L18" s="57">
-        <f t="shared" si="76"/>
-        <v>117</v>
+        <f t="shared" si="100"/>
+        <v>144</v>
       </c>
       <c r="M18" s="61">
-        <f t="shared" si="77"/>
-        <v>82923</v>
+        <f t="shared" si="101"/>
+        <v>101166</v>
       </c>
       <c r="N18" s="59">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="O18" s="63">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="P18" s="35">
-        <f t="shared" si="80"/>
-        <v>81</v>
+        <f t="shared" si="104"/>
+        <v>129</v>
       </c>
       <c r="Q18" s="49">
-        <f t="shared" si="81"/>
-        <v>85934</v>
+        <f t="shared" si="105"/>
+        <v>131949</v>
       </c>
       <c r="R18" s="37">
-        <f t="shared" si="82"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="S18" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="T18" s="39">
-        <f t="shared" si="84"/>
-        <v>112</v>
+        <f t="shared" si="108"/>
+        <v>150</v>
       </c>
       <c r="U18" s="91">
-        <f t="shared" si="85"/>
-        <v>141996</v>
+        <f t="shared" si="109"/>
+        <v>150000</v>
       </c>
       <c r="V18" s="41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="W18" s="45">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="X18" s="65">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150</v>
       </c>
       <c r="Y18" s="47">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150000</v>
       </c>
       <c r="Z18" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AA18" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AB18" s="77">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150</v>
       </c>
       <c r="AC18" s="83">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150000</v>
       </c>
       <c r="AD18" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE18" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AF18" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="AG18" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="AH18" s="15"/>
       <c r="AI18" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="AJ18" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AK18" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:37" hidden="1">
+    <row r="19" spans="2:37" ht="15" hidden="1" customHeight="1">
       <c r="B19" s="9" t="s">
         <v>22</v>
       </c>
@@ -3390,140 +3401,140 @@
         <v>42017</v>
       </c>
       <c r="D19" s="53">
-        <f t="shared" si="70"/>
+        <f t="shared" si="94"/>
         <v>150</v>
       </c>
       <c r="E19" s="32">
-        <f t="shared" si="70"/>
-        <v>114000</v>
+        <f t="shared" si="94"/>
+        <v>127747</v>
       </c>
       <c r="F19" s="55">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="G19" s="33">
-        <f t="shared" si="72"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H19" s="69">
-        <f t="shared" si="73"/>
-        <v>30</v>
+        <f t="shared" si="97"/>
+        <v>39</v>
       </c>
       <c r="I19" s="73">
-        <f t="shared" si="73"/>
-        <v>18033</v>
+        <f t="shared" si="97"/>
+        <v>25818</v>
       </c>
       <c r="J19" s="71">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="K19" s="75">
-        <f t="shared" si="75"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L19" s="57">
-        <f t="shared" si="76"/>
-        <v>117</v>
+        <f t="shared" si="100"/>
+        <v>144</v>
       </c>
       <c r="M19" s="61">
-        <f t="shared" si="77"/>
-        <v>82923</v>
+        <f t="shared" si="101"/>
+        <v>101166</v>
       </c>
       <c r="N19" s="59">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="O19" s="63">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="P19" s="35">
-        <f t="shared" si="80"/>
-        <v>81</v>
+        <f t="shared" si="104"/>
+        <v>129</v>
       </c>
       <c r="Q19" s="49">
-        <f t="shared" si="81"/>
-        <v>85934</v>
+        <f t="shared" si="105"/>
+        <v>131949</v>
       </c>
       <c r="R19" s="37">
-        <f t="shared" si="82"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="S19" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="T19" s="39">
-        <f t="shared" si="84"/>
-        <v>112</v>
+        <f t="shared" si="108"/>
+        <v>150</v>
       </c>
       <c r="U19" s="91">
-        <f t="shared" si="85"/>
-        <v>141996</v>
+        <f t="shared" si="109"/>
+        <v>150000</v>
       </c>
       <c r="V19" s="41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="W19" s="45">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="X19" s="65">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150</v>
       </c>
       <c r="Y19" s="47">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150000</v>
       </c>
       <c r="Z19" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AA19" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AB19" s="77">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150</v>
       </c>
       <c r="AC19" s="83">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150000</v>
       </c>
       <c r="AD19" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE19" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AF19" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="AG19" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="AH19" s="15"/>
       <c r="AI19" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="AJ19" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AK19" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:37" hidden="1">
+    <row r="20" spans="2:37" ht="15" hidden="1" customHeight="1">
       <c r="B20" s="9" t="s">
         <v>23</v>
       </c>
@@ -3531,140 +3542,140 @@
         <v>42016</v>
       </c>
       <c r="D20" s="53">
-        <f t="shared" si="70"/>
+        <f t="shared" si="94"/>
         <v>150</v>
       </c>
       <c r="E20" s="32">
-        <f t="shared" si="70"/>
-        <v>114000</v>
+        <f t="shared" si="94"/>
+        <v>127747</v>
       </c>
       <c r="F20" s="55">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="G20" s="33">
-        <f t="shared" si="72"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H20" s="69">
-        <f t="shared" si="73"/>
-        <v>30</v>
+        <f t="shared" si="97"/>
+        <v>39</v>
       </c>
       <c r="I20" s="73">
-        <f t="shared" si="73"/>
-        <v>18033</v>
+        <f t="shared" si="97"/>
+        <v>25818</v>
       </c>
       <c r="J20" s="71">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="K20" s="75">
-        <f t="shared" si="75"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L20" s="57">
-        <f t="shared" si="76"/>
-        <v>117</v>
+        <f t="shared" si="100"/>
+        <v>144</v>
       </c>
       <c r="M20" s="61">
-        <f t="shared" si="77"/>
-        <v>82923</v>
+        <f t="shared" si="101"/>
+        <v>101166</v>
       </c>
       <c r="N20" s="59">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="O20" s="63">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="P20" s="35">
-        <f t="shared" si="80"/>
-        <v>81</v>
+        <f t="shared" si="104"/>
+        <v>129</v>
       </c>
       <c r="Q20" s="49">
-        <f t="shared" si="81"/>
-        <v>85934</v>
+        <f t="shared" si="105"/>
+        <v>131949</v>
       </c>
       <c r="R20" s="37">
-        <f t="shared" si="82"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="S20" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="T20" s="39">
-        <f t="shared" si="84"/>
-        <v>112</v>
+        <f t="shared" si="108"/>
+        <v>150</v>
       </c>
       <c r="U20" s="91">
-        <f t="shared" si="85"/>
-        <v>141996</v>
+        <f t="shared" si="109"/>
+        <v>150000</v>
       </c>
       <c r="V20" s="41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="W20" s="45">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="X20" s="65">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150</v>
       </c>
       <c r="Y20" s="47">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150000</v>
       </c>
       <c r="Z20" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AA20" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AB20" s="77">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150</v>
       </c>
       <c r="AC20" s="83">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150000</v>
       </c>
       <c r="AD20" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE20" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AF20" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="AG20" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="AH20" s="15"/>
       <c r="AI20" s="21">
-        <f t="shared" si="94"/>
-        <v>0</v>
+        <f t="shared" si="118"/>
+        <v>-17225</v>
       </c>
       <c r="AJ20" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AK20" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:37" hidden="1">
+    <row r="21" spans="2:37">
       <c r="B21" s="9" t="s">
         <v>24</v>
       </c>
@@ -3672,140 +3683,134 @@
         <v>42015</v>
       </c>
       <c r="D21" s="53">
-        <f t="shared" si="70"/>
+        <f t="shared" si="94"/>
         <v>150</v>
       </c>
       <c r="E21" s="32">
-        <f t="shared" si="70"/>
-        <v>114000</v>
+        <v>127747</v>
       </c>
       <c r="F21" s="55">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="G21" s="33">
-        <f t="shared" si="72"/>
-        <v>0</v>
+        <f t="shared" si="96"/>
+        <v>4511</v>
       </c>
       <c r="H21" s="69">
-        <f t="shared" si="73"/>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I21" s="73">
-        <f t="shared" si="73"/>
-        <v>18033</v>
+        <v>25818</v>
       </c>
       <c r="J21" s="71">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f t="shared" si="98"/>
+        <v>9</v>
       </c>
       <c r="K21" s="75">
-        <f t="shared" si="75"/>
-        <v>0</v>
+        <f t="shared" si="99"/>
+        <v>5710</v>
       </c>
       <c r="L21" s="57">
-        <f t="shared" si="76"/>
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="M21" s="61">
-        <f t="shared" si="77"/>
-        <v>82923</v>
+        <v>101166</v>
       </c>
       <c r="N21" s="59">
-        <f t="shared" si="78"/>
-        <v>0</v>
+        <f t="shared" si="102"/>
+        <v>13</v>
       </c>
       <c r="O21" s="63">
-        <f t="shared" si="79"/>
-        <v>0</v>
+        <f t="shared" si="103"/>
+        <v>11210</v>
       </c>
       <c r="P21" s="35">
-        <f t="shared" si="80"/>
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="Q21" s="49">
-        <f t="shared" si="81"/>
-        <v>85934</v>
+        <v>131949</v>
       </c>
       <c r="R21" s="37">
-        <f t="shared" si="82"/>
-        <v>0</v>
+        <f t="shared" si="106"/>
+        <v>10</v>
       </c>
       <c r="S21" s="51">
-        <f t="shared" si="83"/>
-        <v>0</v>
+        <f t="shared" si="107"/>
+        <v>12949</v>
       </c>
       <c r="T21" s="39">
-        <f t="shared" si="84"/>
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="U21" s="91">
-        <f t="shared" si="85"/>
-        <v>141996</v>
+        <f t="shared" si="109"/>
+        <v>150000</v>
       </c>
       <c r="V21" s="41">
-        <f t="shared" si="86"/>
-        <v>0</v>
+        <f t="shared" si="110"/>
+        <v>7</v>
       </c>
       <c r="W21" s="45">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="X21" s="65">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150</v>
       </c>
       <c r="Y21" s="47">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150000</v>
       </c>
       <c r="Z21" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AA21" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AB21" s="77">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150</v>
       </c>
       <c r="AC21" s="83">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150000</v>
       </c>
       <c r="AD21" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE21" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AF21" s="12">
-        <f t="shared" si="92"/>
-        <v>0</v>
+        <f t="shared" si="116"/>
+        <v>39</v>
       </c>
       <c r="AG21" s="18">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="AH21" s="15"/>
+        <f t="shared" si="117"/>
+        <v>34380</v>
+      </c>
+      <c r="AH21" s="15">
+        <v>17225</v>
+      </c>
       <c r="AI21" s="21">
-        <f t="shared" si="94"/>
-        <v>0</v>
+        <f t="shared" si="118"/>
+        <v>20</v>
       </c>
       <c r="AJ21" s="15">
-        <f t="shared" si="95"/>
-        <v>0</v>
+        <f t="shared" si="119"/>
+        <v>1.95</v>
       </c>
       <c r="AK21" s="21">
-        <f t="shared" si="96"/>
-        <v>0</v>
+        <f t="shared" si="120"/>
+        <v>1719</v>
       </c>
     </row>
-    <row r="22" spans="2:37" hidden="1">
+    <row r="22" spans="2:37">
       <c r="B22" s="9" t="s">
         <v>19</v>
       </c>
@@ -3813,137 +3818,131 @@
         <v>42014</v>
       </c>
       <c r="D22" s="53">
-        <f t="shared" si="70"/>
+        <f t="shared" si="94"/>
         <v>150</v>
       </c>
       <c r="E22" s="32">
-        <f t="shared" si="70"/>
-        <v>114000</v>
+        <v>123236</v>
       </c>
       <c r="F22" s="55">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="G22" s="33">
-        <f t="shared" si="72"/>
-        <v>0</v>
+        <f t="shared" si="96"/>
+        <v>9453</v>
       </c>
       <c r="H22" s="69">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>30</v>
       </c>
       <c r="I22" s="73">
-        <f t="shared" si="73"/>
-        <v>18033</v>
+        <v>20108</v>
       </c>
       <c r="J22" s="71">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="K22" s="75">
-        <f t="shared" si="75"/>
-        <v>0</v>
+        <f t="shared" si="99"/>
+        <v>2075</v>
       </c>
       <c r="L22" s="57">
-        <f t="shared" si="76"/>
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M22" s="61">
-        <f t="shared" si="77"/>
-        <v>82923</v>
+        <v>89956</v>
       </c>
       <c r="N22" s="59">
-        <f t="shared" si="78"/>
-        <v>0</v>
+        <f t="shared" si="102"/>
+        <v>14</v>
       </c>
       <c r="O22" s="63">
-        <f t="shared" si="79"/>
-        <v>0</v>
+        <f t="shared" si="103"/>
+        <v>7033</v>
       </c>
       <c r="P22" s="35">
-        <f t="shared" si="80"/>
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="49">
-        <f t="shared" si="81"/>
-        <v>85934</v>
+        <v>119000</v>
       </c>
       <c r="R22" s="37">
-        <f t="shared" si="82"/>
-        <v>0</v>
+        <f t="shared" si="106"/>
+        <v>38</v>
       </c>
       <c r="S22" s="51">
-        <f t="shared" si="83"/>
-        <v>0</v>
+        <f t="shared" si="107"/>
+        <v>33066</v>
       </c>
       <c r="T22" s="39">
-        <f t="shared" si="84"/>
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="U22" s="91">
-        <f t="shared" si="85"/>
-        <v>141996</v>
+        <v>150000</v>
       </c>
       <c r="V22" s="41">
-        <f t="shared" si="86"/>
-        <v>0</v>
+        <f t="shared" si="110"/>
+        <v>31</v>
       </c>
       <c r="W22" s="45">
-        <f t="shared" si="87"/>
-        <v>0</v>
+        <f t="shared" si="111"/>
+        <v>8004</v>
       </c>
       <c r="X22" s="65">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150</v>
       </c>
       <c r="Y22" s="47">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150000</v>
       </c>
       <c r="Z22" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AA22" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AB22" s="77">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150</v>
       </c>
       <c r="AC22" s="83">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150000</v>
       </c>
       <c r="AD22" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE22" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AF22" s="12">
-        <f t="shared" si="92"/>
-        <v>0</v>
+        <f t="shared" si="116"/>
+        <v>83</v>
       </c>
       <c r="AG22" s="18">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="AH22" s="15"/>
+        <f t="shared" si="117"/>
+        <v>59631</v>
+      </c>
+      <c r="AH22" s="15">
+        <v>17205</v>
+      </c>
       <c r="AI22" s="21">
-        <f t="shared" si="94"/>
-        <v>-17081</v>
+        <f t="shared" si="118"/>
+        <v>108</v>
       </c>
       <c r="AJ22" s="15">
-        <f t="shared" si="95"/>
-        <v>0</v>
+        <f t="shared" si="119"/>
+        <v>0.76851851851851849</v>
       </c>
       <c r="AK22" s="21">
-        <f t="shared" si="96"/>
-        <v>0</v>
+        <f t="shared" si="120"/>
+        <v>552.13888888888891</v>
       </c>
     </row>
     <row r="23" spans="2:37">
@@ -3954,19 +3953,19 @@
         <v>42013</v>
       </c>
       <c r="D23" s="53">
-        <f t="shared" si="70"/>
+        <f t="shared" si="94"/>
         <v>150</v>
       </c>
       <c r="E23" s="32">
-        <v>114000</v>
+        <v>113783</v>
       </c>
       <c r="F23" s="55">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="G23" s="33">
-        <f t="shared" si="72"/>
-        <v>8308</v>
+        <f t="shared" si="96"/>
+        <v>8091</v>
       </c>
       <c r="H23" s="69">
         <v>30</v>
@@ -3975,11 +3974,11 @@
         <v>18033</v>
       </c>
       <c r="J23" s="71">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>2</v>
       </c>
       <c r="K23" s="75">
-        <f t="shared" si="75"/>
+        <f t="shared" si="99"/>
         <v>714</v>
       </c>
       <c r="L23" s="57">
@@ -3989,11 +3988,11 @@
         <v>82923</v>
       </c>
       <c r="N23" s="59">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>1</v>
       </c>
       <c r="O23" s="63">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>857</v>
       </c>
       <c r="P23" s="35">
@@ -4003,11 +4002,11 @@
         <v>85934</v>
       </c>
       <c r="R23" s="37">
-        <f t="shared" si="82"/>
+        <f t="shared" si="106"/>
         <v>2</v>
       </c>
       <c r="S23" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>2025</v>
       </c>
       <c r="T23" s="39">
@@ -4017,67 +4016,67 @@
         <v>141996</v>
       </c>
       <c r="V23" s="41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>2</v>
       </c>
       <c r="W23" s="45">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>217</v>
       </c>
       <c r="X23" s="65">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150</v>
       </c>
       <c r="Y23" s="47">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150000</v>
       </c>
       <c r="Z23" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AA23" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AB23" s="77">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150</v>
       </c>
       <c r="AC23" s="83">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150000</v>
       </c>
       <c r="AD23" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE23" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AF23" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>7</v>
       </c>
       <c r="AG23" s="18">
-        <f t="shared" si="93"/>
-        <v>12121</v>
+        <f t="shared" si="117"/>
+        <v>11904</v>
       </c>
       <c r="AH23" s="15">
-        <v>17081</v>
+        <v>17097</v>
       </c>
       <c r="AI23" s="21">
-        <f t="shared" si="94"/>
-        <v>0</v>
+        <f t="shared" si="118"/>
+        <v>16</v>
       </c>
       <c r="AJ23" s="15">
-        <f t="shared" si="95"/>
-        <v>0</v>
+        <f t="shared" si="119"/>
+        <v>0.4375</v>
       </c>
       <c r="AK23" s="21">
-        <f t="shared" si="96"/>
-        <v>0</v>
+        <f t="shared" si="120"/>
+        <v>744</v>
       </c>
     </row>
     <row r="24" spans="2:37">
@@ -4094,11 +4093,11 @@
         <v>105692</v>
       </c>
       <c r="F24" s="55">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>1</v>
       </c>
       <c r="G24" s="33">
-        <f t="shared" si="72"/>
+        <f t="shared" si="96"/>
         <v>4307</v>
       </c>
       <c r="H24" s="69">
@@ -4108,11 +4107,11 @@
         <v>17319</v>
       </c>
       <c r="J24" s="71">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>3</v>
       </c>
       <c r="K24" s="75">
-        <f t="shared" si="75"/>
+        <f t="shared" si="99"/>
         <v>1762</v>
       </c>
       <c r="L24" s="57">
@@ -4122,11 +4121,11 @@
         <v>82066</v>
       </c>
       <c r="N24" s="59">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>1</v>
       </c>
       <c r="O24" s="63">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>2525</v>
       </c>
       <c r="P24" s="35">
@@ -4136,11 +4135,11 @@
         <v>83909</v>
       </c>
       <c r="R24" s="37">
-        <f t="shared" si="82"/>
+        <f t="shared" si="106"/>
         <v>3</v>
       </c>
       <c r="S24" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>2985</v>
       </c>
       <c r="T24" s="39">
@@ -4150,11 +4149,11 @@
         <v>141779</v>
       </c>
       <c r="V24" s="41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>9</v>
       </c>
       <c r="W24" s="45">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>20352</v>
       </c>
       <c r="X24" s="65">
@@ -4164,50 +4163,50 @@
         <v>150000</v>
       </c>
       <c r="Z24" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>17</v>
       </c>
       <c r="AA24" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>11371</v>
       </c>
       <c r="AB24" s="77">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150</v>
       </c>
       <c r="AC24" s="83">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150000</v>
       </c>
       <c r="AD24" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE24" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AF24" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>34</v>
       </c>
       <c r="AG24" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>43302</v>
       </c>
       <c r="AH24" s="15">
         <v>17081</v>
       </c>
       <c r="AI24" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="118"/>
         <v>47</v>
       </c>
       <c r="AJ24" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="119"/>
         <v>0.72340425531914898</v>
       </c>
       <c r="AK24" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="120"/>
         <v>921.31914893617022</v>
       </c>
     </row>
@@ -4219,35 +4218,35 @@
         <v>42011</v>
       </c>
       <c r="D25" s="53">
-        <f t="shared" si="70"/>
+        <f t="shared" si="94"/>
         <v>149</v>
       </c>
       <c r="E25" s="32">
-        <f t="shared" si="70"/>
+        <f t="shared" si="94"/>
         <v>101385</v>
       </c>
       <c r="F25" s="55">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="G25" s="33">
-        <f t="shared" si="72"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H25" s="69">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>25</v>
       </c>
       <c r="I25" s="73">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>15557</v>
       </c>
       <c r="J25" s="71">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="K25" s="75">
-        <f t="shared" si="75"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L25" s="57">
@@ -4259,11 +4258,11 @@
         <v>79541</v>
       </c>
       <c r="N25" s="59">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="O25" s="63">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="P25" s="35">
@@ -4275,11 +4274,11 @@
         <v>80924</v>
       </c>
       <c r="R25" s="37">
-        <f t="shared" si="82"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="S25" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="T25" s="39">
@@ -4291,11 +4290,11 @@
         <v>121427</v>
       </c>
       <c r="V25" s="41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="W25" s="45">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="X25" s="65">
@@ -4305,50 +4304,50 @@
         <v>138629</v>
       </c>
       <c r="Z25" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>16</v>
       </c>
       <c r="AA25" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>16053</v>
       </c>
       <c r="AB25" s="77">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150</v>
       </c>
       <c r="AC25" s="83">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150000</v>
       </c>
       <c r="AD25" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE25" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AF25" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>16</v>
       </c>
       <c r="AG25" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>16053</v>
       </c>
       <c r="AH25" s="15">
         <v>17034</v>
       </c>
       <c r="AI25" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="118"/>
         <v>15</v>
       </c>
       <c r="AJ25" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="119"/>
         <v>1.0666666666666667</v>
       </c>
       <c r="AK25" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="120"/>
         <v>1070.2</v>
       </c>
     </row>
@@ -4366,27 +4365,27 @@
         <v>101385</v>
       </c>
       <c r="F26" s="55">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>10</v>
       </c>
       <c r="G26" s="33">
-        <f t="shared" si="72"/>
+        <f t="shared" si="96"/>
         <v>3866</v>
       </c>
       <c r="H26" s="69">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>25</v>
       </c>
       <c r="I26" s="73">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>15557</v>
       </c>
       <c r="J26" s="71">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="K26" s="75">
-        <f t="shared" si="75"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L26" s="57">
@@ -4398,11 +4397,11 @@
         <v>79541</v>
       </c>
       <c r="N26" s="59">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="O26" s="63">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="P26" s="35">
@@ -4412,11 +4411,11 @@
         <v>80924</v>
       </c>
       <c r="R26" s="37">
-        <f t="shared" si="82"/>
+        <f t="shared" si="106"/>
         <v>3</v>
       </c>
       <c r="S26" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>3617</v>
       </c>
       <c r="T26" s="39">
@@ -4426,11 +4425,11 @@
         <v>121427</v>
       </c>
       <c r="V26" s="41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>4</v>
       </c>
       <c r="W26" s="45">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>2447</v>
       </c>
       <c r="X26" s="65">
@@ -4440,50 +4439,50 @@
         <v>122576</v>
       </c>
       <c r="Z26" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>12</v>
       </c>
       <c r="AA26" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>18202</v>
       </c>
       <c r="AB26" s="77">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150</v>
       </c>
       <c r="AC26" s="83">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150000</v>
       </c>
       <c r="AD26" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE26" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AF26" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>29</v>
       </c>
       <c r="AG26" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>28132</v>
       </c>
       <c r="AH26" s="15">
         <v>17019</v>
       </c>
       <c r="AI26" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="118"/>
         <v>24</v>
       </c>
       <c r="AJ26" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="119"/>
         <v>1.2083333333333333</v>
       </c>
       <c r="AK26" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="120"/>
         <v>1172.1666666666667</v>
       </c>
     </row>
@@ -4501,27 +4500,27 @@
         <v>97519</v>
       </c>
       <c r="F27" s="55">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>4</v>
       </c>
       <c r="G27" s="33">
-        <f t="shared" si="72"/>
+        <f t="shared" si="96"/>
         <v>4701</v>
       </c>
       <c r="H27" s="69">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>25</v>
       </c>
       <c r="I27" s="73">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>15557</v>
       </c>
       <c r="J27" s="71">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="K27" s="75">
-        <f t="shared" si="75"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L27" s="57">
@@ -4531,11 +4530,11 @@
         <v>79541</v>
       </c>
       <c r="N27" s="59">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>8</v>
       </c>
       <c r="O27" s="63">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>1661</v>
       </c>
       <c r="P27" s="35">
@@ -4545,11 +4544,11 @@
         <v>77307</v>
       </c>
       <c r="R27" s="37">
-        <f t="shared" si="82"/>
+        <f t="shared" si="106"/>
         <v>7</v>
       </c>
       <c r="S27" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>4350</v>
       </c>
       <c r="T27" s="39">
@@ -4559,11 +4558,11 @@
         <v>118980</v>
       </c>
       <c r="V27" s="41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>5</v>
       </c>
       <c r="W27" s="45">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>4591</v>
       </c>
       <c r="X27" s="65">
@@ -4573,50 +4572,50 @@
         <v>104374</v>
       </c>
       <c r="Z27" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>4</v>
       </c>
       <c r="AA27" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>5145</v>
       </c>
       <c r="AB27" s="77">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150</v>
       </c>
       <c r="AC27" s="83">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150000</v>
       </c>
       <c r="AD27" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE27" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AF27" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>28</v>
       </c>
       <c r="AG27" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>20448</v>
       </c>
       <c r="AH27" s="15">
         <v>16995</v>
       </c>
       <c r="AI27" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="118"/>
         <v>22</v>
       </c>
       <c r="AJ27" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="119"/>
         <v>1.2727272727272727</v>
       </c>
       <c r="AK27" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="120"/>
         <v>929.4545454545455</v>
       </c>
     </row>
@@ -4634,11 +4633,11 @@
         <v>92818</v>
       </c>
       <c r="F28" s="55">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>32</v>
       </c>
       <c r="G28" s="33">
-        <f t="shared" si="72"/>
+        <f t="shared" si="96"/>
         <v>23518</v>
       </c>
       <c r="H28" s="69">
@@ -4648,11 +4647,11 @@
         <v>15557</v>
       </c>
       <c r="J28" s="71">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
       <c r="K28" s="75">
-        <f t="shared" si="75"/>
+        <f t="shared" si="99"/>
         <v>1656</v>
       </c>
       <c r="L28" s="57">
@@ -4662,11 +4661,11 @@
         <v>77880</v>
       </c>
       <c r="N28" s="59">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>11</v>
       </c>
       <c r="O28" s="63">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>12141</v>
       </c>
       <c r="P28" s="35">
@@ -4676,11 +4675,11 @@
         <v>72957</v>
       </c>
       <c r="R28" s="37">
-        <f t="shared" si="82"/>
+        <f t="shared" si="106"/>
         <v>13</v>
       </c>
       <c r="S28" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>10825</v>
       </c>
       <c r="T28" s="39">
@@ -4690,7 +4689,7 @@
         <v>114389</v>
       </c>
       <c r="V28" s="41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>30</v>
       </c>
       <c r="W28" s="45">
@@ -4704,50 +4703,50 @@
         <v>99229</v>
       </c>
       <c r="Z28" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>27</v>
       </c>
       <c r="AA28" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>24483</v>
       </c>
       <c r="AB28" s="77">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150</v>
       </c>
       <c r="AC28" s="83">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>150000</v>
       </c>
       <c r="AD28" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE28" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AF28" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>114</v>
       </c>
       <c r="AG28" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>110688</v>
       </c>
       <c r="AH28" s="15">
         <v>16973</v>
       </c>
       <c r="AI28" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="118"/>
         <v>126</v>
       </c>
       <c r="AJ28" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="119"/>
         <v>0.90476190476190477</v>
       </c>
       <c r="AK28" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="120"/>
         <v>878.47619047619048</v>
       </c>
     </row>
@@ -4765,11 +4764,11 @@
         <v>69300</v>
       </c>
       <c r="F29" s="55">
-        <f t="shared" ref="F29" si="97">D29-D30</f>
+        <f t="shared" ref="F29" si="121">D29-D30</f>
         <v>8</v>
       </c>
       <c r="G29" s="33">
-        <f t="shared" ref="G29" si="98">E29-E30</f>
+        <f t="shared" ref="G29" si="122">E29-E30</f>
         <v>4151</v>
       </c>
       <c r="H29" s="69">
@@ -4779,11 +4778,11 @@
         <v>13901</v>
       </c>
       <c r="J29" s="71">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="K29" s="75">
-        <f t="shared" si="75"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L29" s="57">
@@ -4793,11 +4792,11 @@
         <v>65739</v>
       </c>
       <c r="N29" s="59">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>6</v>
       </c>
       <c r="O29" s="63">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>6671</v>
       </c>
       <c r="P29" s="35">
@@ -4807,11 +4806,11 @@
         <v>62132</v>
       </c>
       <c r="R29" s="37">
-        <f t="shared" si="82"/>
+        <f t="shared" si="106"/>
         <v>15</v>
       </c>
       <c r="S29" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>14540</v>
       </c>
       <c r="T29" s="39">
@@ -4821,11 +4820,11 @@
         <v>76324</v>
       </c>
       <c r="V29" s="41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>2</v>
       </c>
       <c r="W29" s="45">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>1209</v>
       </c>
       <c r="X29" s="65">
@@ -4835,11 +4834,11 @@
         <v>74746</v>
       </c>
       <c r="Z29" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>13</v>
       </c>
       <c r="AA29" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>14974</v>
       </c>
       <c r="AB29" s="77">
@@ -4849,34 +4848,34 @@
         <v>150000</v>
       </c>
       <c r="AD29" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>14</v>
       </c>
       <c r="AE29" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AF29" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>58</v>
       </c>
       <c r="AG29" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>41545</v>
       </c>
       <c r="AH29" s="15">
         <v>16847</v>
       </c>
       <c r="AI29" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="118"/>
         <v>63</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="119"/>
         <v>0.92063492063492058</v>
       </c>
       <c r="AK29" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="120"/>
         <v>659.44444444444446</v>
       </c>
     </row>
@@ -4888,67 +4887,67 @@
         <v>42006</v>
       </c>
       <c r="D30" s="53">
-        <f t="shared" ref="D30:E39" si="99">D31</f>
+        <f t="shared" ref="D30:E39" si="123">D31</f>
         <v>95</v>
       </c>
       <c r="E30" s="32">
+        <f t="shared" si="123"/>
+        <v>65149</v>
+      </c>
+      <c r="F30" s="55">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="33">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="69">
+        <f t="shared" si="97"/>
+        <v>24</v>
+      </c>
+      <c r="I30" s="73">
+        <f t="shared" si="97"/>
+        <v>13901</v>
+      </c>
+      <c r="J30" s="71">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="75">
         <f t="shared" si="99"/>
-        <v>65149</v>
-      </c>
-      <c r="F30" s="55">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="33">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="69">
-        <f t="shared" si="73"/>
-        <v>24</v>
-      </c>
-      <c r="I30" s="73">
-        <f t="shared" si="73"/>
-        <v>13901</v>
-      </c>
-      <c r="J30" s="71">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="75">
-        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="L30" s="57">
-        <f t="shared" ref="L30:M32" si="100">L31</f>
+        <f t="shared" ref="L30:M32" si="124">L31</f>
         <v>90</v>
       </c>
       <c r="M30" s="61">
-        <f t="shared" si="100"/>
+        <f t="shared" si="124"/>
         <v>59068</v>
       </c>
       <c r="N30" s="59">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="O30" s="63">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="P30" s="35">
-        <f t="shared" ref="P30:Q33" si="101">P31</f>
+        <f t="shared" ref="P30:Q33" si="125">P31</f>
         <v>38</v>
       </c>
       <c r="Q30" s="49">
-        <f t="shared" si="101"/>
+        <f t="shared" si="125"/>
         <v>47592</v>
       </c>
       <c r="R30" s="37">
-        <f t="shared" si="82"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="S30" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="T30" s="39">
@@ -4959,27 +4958,27 @@
         <v>75115</v>
       </c>
       <c r="V30" s="41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="W30" s="45">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>3216</v>
       </c>
       <c r="X30" s="65">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>61</v>
       </c>
       <c r="Y30" s="47">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>59772</v>
       </c>
       <c r="Z30" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AA30" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AB30" s="77">
@@ -4989,34 +4988,34 @@
         <v>150000</v>
       </c>
       <c r="AD30" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>35</v>
       </c>
       <c r="AE30" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>28631</v>
       </c>
       <c r="AF30" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>35</v>
       </c>
       <c r="AG30" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>31847</v>
       </c>
       <c r="AH30" s="15">
         <v>16784</v>
       </c>
       <c r="AI30" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="118"/>
         <v>41</v>
       </c>
       <c r="AJ30" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="119"/>
         <v>0.85365853658536583</v>
       </c>
       <c r="AK30" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="120"/>
         <v>776.7560975609756</v>
       </c>
     </row>
@@ -5028,67 +5027,67 @@
         <v>42005</v>
       </c>
       <c r="D31" s="53">
+        <f t="shared" si="123"/>
+        <v>95</v>
+      </c>
+      <c r="E31" s="32">
+        <f t="shared" si="123"/>
+        <v>65149</v>
+      </c>
+      <c r="F31" s="55">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="33">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="69">
+        <f t="shared" si="97"/>
+        <v>24</v>
+      </c>
+      <c r="I31" s="73">
+        <f t="shared" si="97"/>
+        <v>13901</v>
+      </c>
+      <c r="J31" s="71">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="75">
         <f t="shared" si="99"/>
-        <v>95</v>
-      </c>
-      <c r="E31" s="32">
-        <f t="shared" si="99"/>
-        <v>65149</v>
-      </c>
-      <c r="F31" s="55">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="33">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="69">
-        <f t="shared" si="73"/>
-        <v>24</v>
-      </c>
-      <c r="I31" s="73">
-        <f t="shared" si="73"/>
-        <v>13901</v>
-      </c>
-      <c r="J31" s="71">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="75">
-        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="L31" s="57">
-        <f t="shared" si="100"/>
+        <f t="shared" si="124"/>
         <v>90</v>
       </c>
       <c r="M31" s="61">
-        <f t="shared" si="100"/>
+        <f t="shared" si="124"/>
         <v>59068</v>
       </c>
       <c r="N31" s="59">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="O31" s="63">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="P31" s="35">
-        <f t="shared" si="101"/>
+        <f t="shared" si="125"/>
         <v>38</v>
       </c>
       <c r="Q31" s="49">
-        <f t="shared" si="101"/>
+        <f t="shared" si="125"/>
         <v>47592</v>
       </c>
       <c r="R31" s="37">
-        <f t="shared" si="82"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="S31" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="T31" s="39">
@@ -5100,27 +5099,27 @@
         <v>71899</v>
       </c>
       <c r="V31" s="41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="W31" s="45">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="X31" s="65">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>61</v>
       </c>
       <c r="Y31" s="47">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>59772</v>
       </c>
       <c r="Z31" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AA31" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AB31" s="77">
@@ -5130,26 +5129,26 @@
         <v>121369</v>
       </c>
       <c r="AD31" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>23</v>
       </c>
       <c r="AE31" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>23745</v>
       </c>
       <c r="AF31" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>23</v>
       </c>
       <c r="AG31" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>23745</v>
       </c>
       <c r="AH31" s="15">
         <v>16743</v>
       </c>
       <c r="AI31" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="118"/>
         <v>21</v>
       </c>
       <c r="AJ31" s="15">
@@ -5169,67 +5168,67 @@
         <v>42004</v>
       </c>
       <c r="D32" s="53">
+        <f t="shared" si="123"/>
+        <v>95</v>
+      </c>
+      <c r="E32" s="32">
+        <f t="shared" si="123"/>
+        <v>65149</v>
+      </c>
+      <c r="F32" s="55">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="33">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="69">
+        <f t="shared" si="97"/>
+        <v>24</v>
+      </c>
+      <c r="I32" s="73">
+        <f t="shared" si="97"/>
+        <v>13901</v>
+      </c>
+      <c r="J32" s="71">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="75">
         <f t="shared" si="99"/>
-        <v>95</v>
-      </c>
-      <c r="E32" s="32">
-        <f t="shared" si="99"/>
-        <v>65149</v>
-      </c>
-      <c r="F32" s="55">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="33">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="69">
-        <f t="shared" si="73"/>
-        <v>24</v>
-      </c>
-      <c r="I32" s="73">
-        <f t="shared" si="73"/>
-        <v>13901</v>
-      </c>
-      <c r="J32" s="71">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="75">
-        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="L32" s="57">
-        <f t="shared" si="100"/>
+        <f t="shared" si="124"/>
         <v>90</v>
       </c>
       <c r="M32" s="61">
-        <f t="shared" si="100"/>
+        <f t="shared" si="124"/>
         <v>59068</v>
       </c>
       <c r="N32" s="59">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="O32" s="63">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="P32" s="35">
-        <f t="shared" si="101"/>
+        <f t="shared" si="125"/>
         <v>38</v>
       </c>
       <c r="Q32" s="49">
-        <f t="shared" si="101"/>
+        <f t="shared" si="125"/>
         <v>47592</v>
       </c>
       <c r="R32" s="37">
-        <f t="shared" si="82"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="S32" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="T32" s="39">
@@ -5241,67 +5240,67 @@
         <v>71899</v>
       </c>
       <c r="V32" s="41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="W32" s="45">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="X32" s="65">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>61</v>
       </c>
       <c r="Y32" s="47">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>59772</v>
       </c>
       <c r="Z32" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AA32" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AB32" s="77">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>78</v>
       </c>
       <c r="AC32" s="83">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>97624</v>
       </c>
       <c r="AD32" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE32" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AF32" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="AG32" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="AH32" s="15">
         <v>16722</v>
       </c>
-      <c r="AI32" s="21">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="15">
-        <f t="shared" ref="AJ32:AJ33" si="102">IF($AI32=0,0,AF32/$AI32)</f>
-        <v>0</v>
-      </c>
-      <c r="AK32" s="21">
-        <f t="shared" ref="AK32:AK33" si="103">IF($AI32=0,0,AG32/$AI32)</f>
-        <v>0</v>
+      <c r="AI32" s="21" t="e">
+        <f t="shared" si="118"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ32" s="15" t="e">
+        <f t="shared" ref="AJ32:AJ33" si="126">IF($AI32=0,0,AF32/$AI32)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK32" s="21" t="e">
+        <f t="shared" ref="AK32:AK33" si="127">IF($AI32=0,0,AG32/$AI32)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="33" spans="2:37">
@@ -5318,27 +5317,27 @@
         <v>65149</v>
       </c>
       <c r="F33" s="55">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>9</v>
       </c>
       <c r="G33" s="33">
-        <f t="shared" si="72"/>
+        <f t="shared" si="96"/>
         <v>6604</v>
       </c>
       <c r="H33" s="69">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>24</v>
       </c>
       <c r="I33" s="73">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>13901</v>
       </c>
       <c r="J33" s="71">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="K33" s="75">
-        <f t="shared" si="75"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L33" s="57">
@@ -5348,27 +5347,27 @@
         <v>59068</v>
       </c>
       <c r="N33" s="59">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>1</v>
       </c>
       <c r="O33" s="63">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>909</v>
       </c>
       <c r="P33" s="35">
-        <f t="shared" si="101"/>
+        <f t="shared" si="125"/>
         <v>38</v>
       </c>
       <c r="Q33" s="49">
-        <f t="shared" si="101"/>
+        <f t="shared" si="125"/>
         <v>47592</v>
       </c>
       <c r="R33" s="37">
-        <f t="shared" si="82"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="S33" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="T33" s="39">
@@ -5378,27 +5377,27 @@
         <v>71899</v>
       </c>
       <c r="V33" s="41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>2</v>
       </c>
       <c r="W33" s="45">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>3515</v>
       </c>
       <c r="X33" s="65">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>61</v>
       </c>
       <c r="Y33" s="47">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>59772</v>
       </c>
       <c r="Z33" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AA33" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AB33" s="77">
@@ -5408,35 +5407,35 @@
         <v>97624</v>
       </c>
       <c r="AD33" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>17</v>
       </c>
       <c r="AE33" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>15893</v>
       </c>
       <c r="AF33" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>29</v>
       </c>
       <c r="AG33" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>26921</v>
       </c>
-      <c r="AH33" s="15">
-        <v>16722</v>
-      </c>
-      <c r="AI33" s="21">
-        <f t="shared" si="94"/>
-        <v>27</v>
-      </c>
-      <c r="AJ33" s="15">
-        <f t="shared" si="102"/>
-        <v>1.0740740740740742</v>
-      </c>
-      <c r="AK33" s="21">
-        <f t="shared" si="103"/>
-        <v>997.07407407407402</v>
+      <c r="AH33" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI33" s="21" t="e">
+        <f t="shared" si="118"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ33" s="15" t="e">
+        <f t="shared" si="126"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK33" s="21" t="e">
+        <f t="shared" si="127"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="2:37">
@@ -5453,27 +5452,27 @@
         <v>58545</v>
       </c>
       <c r="F34" s="55">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>5</v>
       </c>
       <c r="G34" s="33">
-        <f t="shared" si="72"/>
+        <f t="shared" si="96"/>
         <v>2176</v>
       </c>
       <c r="H34" s="69">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>24</v>
       </c>
       <c r="I34" s="73">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>13901</v>
       </c>
       <c r="J34" s="71">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="K34" s="75">
-        <f t="shared" si="75"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L34" s="57">
@@ -5485,11 +5484,11 @@
         <v>58159</v>
       </c>
       <c r="N34" s="59">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="O34" s="63">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="P34" s="35">
@@ -5499,11 +5498,11 @@
         <v>47592</v>
       </c>
       <c r="R34" s="37">
-        <f t="shared" si="82"/>
+        <f t="shared" si="106"/>
         <v>3</v>
       </c>
       <c r="S34" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>3306</v>
       </c>
       <c r="T34" s="39">
@@ -5513,65 +5512,65 @@
         <v>68384</v>
       </c>
       <c r="V34" s="41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>4</v>
       </c>
       <c r="W34" s="45">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>7384</v>
       </c>
       <c r="X34" s="65">
-        <f t="shared" ref="X34:AC39" si="104">X35</f>
+        <f t="shared" ref="X34:AC39" si="128">X35</f>
         <v>61</v>
       </c>
       <c r="Y34" s="47">
         <v>59772</v>
       </c>
       <c r="Z34" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AA34" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>1572</v>
       </c>
       <c r="AB34" s="77">
-        <f t="shared" si="104"/>
+        <f t="shared" si="128"/>
         <v>61</v>
       </c>
       <c r="AC34" s="83">
-        <f t="shared" si="104"/>
+        <f t="shared" si="128"/>
         <v>81731</v>
       </c>
       <c r="AD34" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE34" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AF34" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>12</v>
       </c>
       <c r="AG34" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>14438</v>
       </c>
       <c r="AH34" s="15">
         <v>16695</v>
       </c>
       <c r="AI34" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="118"/>
         <v>13</v>
       </c>
       <c r="AJ34" s="15">
-        <f t="shared" ref="AJ34:AJ36" si="105">AF34/$AI34</f>
+        <f t="shared" ref="AJ34:AJ36" si="129">AF34/$AI34</f>
         <v>0.92307692307692313</v>
       </c>
       <c r="AK34" s="21">
-        <f t="shared" ref="AK34:AK36" si="106">AG34/$AI34</f>
+        <f t="shared" ref="AK34:AK36" si="130">AG34/$AI34</f>
         <v>1110.6153846153845</v>
       </c>
     </row>
@@ -5589,11 +5588,11 @@
         <v>56369</v>
       </c>
       <c r="F35" s="55">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>8</v>
       </c>
       <c r="G35" s="33">
-        <f t="shared" si="72"/>
+        <f t="shared" si="96"/>
         <v>8249</v>
       </c>
       <c r="H35" s="69">
@@ -5603,11 +5602,11 @@
         <v>13901</v>
       </c>
       <c r="J35" s="71">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
       <c r="K35" s="75">
-        <f t="shared" si="75"/>
+        <f t="shared" si="99"/>
         <v>693</v>
       </c>
       <c r="L35" s="57">
@@ -5617,11 +5616,11 @@
         <v>58159</v>
       </c>
       <c r="N35" s="59">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>15</v>
       </c>
       <c r="O35" s="63">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>7495</v>
       </c>
       <c r="P35" s="35">
@@ -5631,11 +5630,11 @@
         <v>44286</v>
       </c>
       <c r="R35" s="37">
-        <f t="shared" si="82"/>
+        <f t="shared" si="106"/>
         <v>2</v>
       </c>
       <c r="S35" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>4444</v>
       </c>
       <c r="T35" s="39">
@@ -5645,7 +5644,7 @@
         <v>61000</v>
       </c>
       <c r="V35" s="41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>6</v>
       </c>
       <c r="W35" s="45" t="s">
@@ -5658,11 +5657,11 @@
         <v>58200</v>
       </c>
       <c r="Z35" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>6</v>
       </c>
       <c r="AA35" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>4879</v>
       </c>
       <c r="AB35" s="77">
@@ -5672,34 +5671,34 @@
         <v>81731</v>
       </c>
       <c r="AD35" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>9</v>
       </c>
       <c r="AE35" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>13255</v>
       </c>
       <c r="AF35" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>47</v>
       </c>
       <c r="AG35" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>46264</v>
       </c>
       <c r="AH35" s="15">
         <v>16682</v>
       </c>
       <c r="AI35" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="118"/>
         <v>50</v>
       </c>
       <c r="AJ35" s="15">
-        <f t="shared" si="105"/>
+        <f t="shared" si="129"/>
         <v>0.94</v>
       </c>
       <c r="AK35" s="21">
-        <f t="shared" si="106"/>
+        <f t="shared" si="130"/>
         <v>925.28</v>
       </c>
     </row>
@@ -5717,27 +5716,27 @@
         <v>48120</v>
       </c>
       <c r="F36" s="55">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>8</v>
       </c>
       <c r="G36" s="33">
-        <f t="shared" si="72"/>
+        <f t="shared" si="96"/>
         <v>4420</v>
       </c>
       <c r="H36" s="69">
-        <f t="shared" ref="H36:I41" si="107">H37</f>
+        <f t="shared" ref="H36:I41" si="131">H37</f>
         <v>23</v>
       </c>
       <c r="I36" s="73">
-        <f t="shared" si="107"/>
+        <f t="shared" si="131"/>
         <v>13208</v>
       </c>
       <c r="J36" s="71">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="K36" s="75">
-        <f t="shared" si="75"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L36" s="57">
@@ -5749,11 +5748,11 @@
         <v>50664</v>
       </c>
       <c r="N36" s="59">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="O36" s="63">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="P36" s="35">
@@ -5765,11 +5764,11 @@
         <v>39842</v>
       </c>
       <c r="R36" s="37">
-        <f t="shared" si="82"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="S36" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="T36" s="39">
@@ -5781,66 +5780,66 @@
         <v>53751</v>
       </c>
       <c r="V36" s="41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="W36" s="45">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="X36" s="65">
-        <f t="shared" si="104"/>
+        <f t="shared" si="128"/>
         <v>55</v>
       </c>
       <c r="Y36" s="47">
-        <f t="shared" si="104"/>
+        <f t="shared" si="128"/>
         <v>53321</v>
       </c>
       <c r="Z36" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AA36" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AB36" s="77">
-        <f t="shared" si="104"/>
+        <f t="shared" si="128"/>
         <v>52</v>
       </c>
       <c r="AC36" s="83">
-        <f t="shared" si="104"/>
+        <f t="shared" si="128"/>
         <v>68476</v>
       </c>
       <c r="AD36" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE36" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AF36" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>8</v>
       </c>
       <c r="AG36" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>4420</v>
       </c>
       <c r="AH36" s="15">
         <v>16632</v>
       </c>
       <c r="AI36" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="118"/>
         <v>2</v>
       </c>
       <c r="AJ36" s="15">
-        <f t="shared" si="105"/>
+        <f t="shared" si="129"/>
         <v>4</v>
       </c>
       <c r="AK36" s="21">
-        <f t="shared" si="106"/>
+        <f t="shared" si="130"/>
         <v>2210</v>
       </c>
     </row>
@@ -5858,11 +5857,11 @@
         <v>43700</v>
       </c>
       <c r="F37" s="55">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>9</v>
       </c>
       <c r="G37" s="33">
-        <f t="shared" si="72"/>
+        <f t="shared" si="96"/>
         <v>6500</v>
       </c>
       <c r="H37" s="69">
@@ -5872,11 +5871,11 @@
         <v>13208</v>
       </c>
       <c r="J37" s="71">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>8</v>
       </c>
       <c r="K37" s="75">
-        <f t="shared" si="75"/>
+        <f t="shared" si="99"/>
         <v>3620</v>
       </c>
       <c r="L37" s="57">
@@ -5886,11 +5885,11 @@
         <v>50664</v>
       </c>
       <c r="N37" s="59">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>6</v>
       </c>
       <c r="O37" s="63">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>4005</v>
       </c>
       <c r="P37" s="35">
@@ -5900,11 +5899,11 @@
         <v>39842</v>
       </c>
       <c r="R37" s="37">
-        <f t="shared" si="82"/>
+        <f t="shared" si="106"/>
         <v>3</v>
       </c>
       <c r="S37" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>2155</v>
       </c>
       <c r="T37" s="39">
@@ -5914,11 +5913,11 @@
         <v>53751</v>
       </c>
       <c r="V37" s="41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>1</v>
       </c>
       <c r="W37" s="45">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>1981</v>
       </c>
       <c r="X37" s="65">
@@ -5928,11 +5927,11 @@
         <v>53321</v>
       </c>
       <c r="Z37" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>7</v>
       </c>
       <c r="AA37" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>7477</v>
       </c>
       <c r="AB37" s="77">
@@ -5942,34 +5941,34 @@
         <v>68476</v>
       </c>
       <c r="AD37" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>8</v>
       </c>
       <c r="AE37" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>11554</v>
       </c>
       <c r="AF37" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>42</v>
       </c>
       <c r="AG37" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>37292</v>
       </c>
       <c r="AH37" s="15">
         <v>16630</v>
       </c>
       <c r="AI37" s="21">
-        <f t="shared" ref="AI37" si="108">AH37-AH38</f>
+        <f t="shared" ref="AI37" si="132">AH37-AH38</f>
         <v>38</v>
       </c>
       <c r="AJ37" s="15">
-        <f t="shared" ref="AJ37" si="109">AF37/$AI37</f>
+        <f t="shared" ref="AJ37" si="133">AF37/$AI37</f>
         <v>1.1052631578947369</v>
       </c>
       <c r="AK37" s="21">
-        <f t="shared" ref="AK37" si="110">AG37/$AI37</f>
+        <f t="shared" ref="AK37" si="134">AG37/$AI37</f>
         <v>981.36842105263156</v>
       </c>
     </row>
@@ -5987,11 +5986,11 @@
         <v>37200</v>
       </c>
       <c r="F38" s="55">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>6</v>
       </c>
       <c r="G38" s="33">
-        <f t="shared" si="72"/>
+        <f t="shared" si="96"/>
         <v>3300</v>
       </c>
       <c r="H38" s="69">
@@ -6001,11 +6000,11 @@
         <v>9588</v>
       </c>
       <c r="J38" s="71">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>3</v>
       </c>
       <c r="K38" s="75">
-        <f t="shared" si="75"/>
+        <f t="shared" si="99"/>
         <v>1597</v>
       </c>
       <c r="L38" s="57">
@@ -6015,11 +6014,11 @@
         <v>46659</v>
       </c>
       <c r="N38" s="59">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>3</v>
       </c>
       <c r="O38" s="63">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>1399</v>
       </c>
       <c r="P38" s="35">
@@ -6029,11 +6028,11 @@
         <v>37687</v>
       </c>
       <c r="R38" s="37">
-        <f t="shared" si="82"/>
+        <f t="shared" si="106"/>
         <v>24</v>
       </c>
       <c r="S38" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>23288</v>
       </c>
       <c r="T38" s="39">
@@ -6043,11 +6042,11 @@
         <v>51770</v>
       </c>
       <c r="V38" s="41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>3</v>
       </c>
       <c r="W38" s="45">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>2782</v>
       </c>
       <c r="X38" s="65">
@@ -6057,11 +6056,11 @@
         <v>45844</v>
       </c>
       <c r="Z38" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>13</v>
       </c>
       <c r="AA38" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>7171</v>
       </c>
       <c r="AB38" s="77">
@@ -6071,34 +6070,34 @@
         <v>56922</v>
       </c>
       <c r="AD38" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>2</v>
       </c>
       <c r="AE38" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>1131</v>
       </c>
       <c r="AF38" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>54</v>
       </c>
       <c r="AG38" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>40668</v>
       </c>
       <c r="AH38" s="15">
         <v>16592</v>
       </c>
       <c r="AI38" s="21">
-        <f t="shared" ref="AI38" si="111">AH38-AH39</f>
+        <f t="shared" ref="AI38" si="135">AH38-AH39</f>
         <v>56</v>
       </c>
       <c r="AJ38" s="15">
-        <f t="shared" ref="AJ38" si="112">AF38/$AI38</f>
+        <f t="shared" ref="AJ38" si="136">AF38/$AI38</f>
         <v>0.9642857142857143</v>
       </c>
       <c r="AK38" s="21">
-        <f t="shared" ref="AK38" si="113">AG38/$AI38</f>
+        <f t="shared" ref="AK38" si="137">AG38/$AI38</f>
         <v>726.21428571428567</v>
       </c>
     </row>
@@ -6110,34 +6109,34 @@
         <v>41997</v>
       </c>
       <c r="D39" s="53">
-        <f t="shared" si="99"/>
+        <f t="shared" si="123"/>
         <v>50</v>
       </c>
       <c r="E39" s="32">
         <v>33900</v>
       </c>
       <c r="F39" s="55">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="G39" s="33">
-        <f t="shared" si="72"/>
+        <f t="shared" si="96"/>
         <v>1853</v>
       </c>
       <c r="H39" s="69">
-        <f t="shared" si="107"/>
+        <f t="shared" si="131"/>
         <v>12</v>
       </c>
       <c r="I39" s="73">
-        <f t="shared" si="107"/>
+        <f t="shared" si="131"/>
         <v>7991</v>
       </c>
       <c r="J39" s="71">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="K39" s="75">
-        <f t="shared" si="75"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L39" s="57">
@@ -6147,11 +6146,11 @@
         <v>45260</v>
       </c>
       <c r="N39" s="59">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>17</v>
       </c>
       <c r="O39" s="63">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>11845</v>
       </c>
       <c r="P39" s="35">
@@ -6162,11 +6161,11 @@
         <v>14399</v>
       </c>
       <c r="R39" s="37">
-        <f t="shared" si="82"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="S39" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>837</v>
       </c>
       <c r="T39" s="39">
@@ -6176,11 +6175,11 @@
         <v>48988</v>
       </c>
       <c r="V39" s="41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>6</v>
       </c>
       <c r="W39" s="45">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>10125</v>
       </c>
       <c r="X39" s="65">
@@ -6190,49 +6189,49 @@
         <v>38673</v>
       </c>
       <c r="Z39" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>2</v>
       </c>
       <c r="AA39" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>4173</v>
       </c>
       <c r="AB39" s="77">
-        <f t="shared" si="104"/>
+        <f t="shared" si="128"/>
         <v>42</v>
       </c>
       <c r="AC39" s="83">
         <v>55791</v>
       </c>
       <c r="AD39" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE39" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>700</v>
       </c>
       <c r="AF39" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>25</v>
       </c>
       <c r="AG39" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>29533</v>
       </c>
       <c r="AH39" s="15">
         <v>16536</v>
       </c>
       <c r="AI39" s="21">
-        <f t="shared" ref="AI39:AI40" si="114">AH39-AH40</f>
+        <f t="shared" ref="AI39:AI40" si="138">AH39-AH40</f>
         <v>22</v>
       </c>
       <c r="AJ39" s="15">
-        <f t="shared" ref="AJ39:AK42" si="115">AF39/$AI39</f>
+        <f t="shared" ref="AJ39:AK42" si="139">AF39/$AI39</f>
         <v>1.1363636363636365</v>
       </c>
       <c r="AK39" s="21">
-        <f t="shared" si="115"/>
+        <f t="shared" si="139"/>
         <v>1342.409090909091</v>
       </c>
     </row>
@@ -6250,27 +6249,27 @@
         <v>32047</v>
       </c>
       <c r="F40" s="55">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>3</v>
       </c>
       <c r="G40" s="33">
-        <f t="shared" si="72"/>
+        <f t="shared" si="96"/>
         <v>1632</v>
       </c>
       <c r="H40" s="69">
-        <f t="shared" si="107"/>
+        <f t="shared" si="131"/>
         <v>12</v>
       </c>
       <c r="I40" s="73">
-        <f t="shared" si="107"/>
+        <f t="shared" si="131"/>
         <v>7991</v>
       </c>
       <c r="J40" s="71">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="K40" s="75">
-        <f t="shared" si="75"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L40" s="57">
@@ -6280,11 +6279,11 @@
         <v>33415</v>
       </c>
       <c r="N40" s="59">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>1</v>
       </c>
       <c r="O40" s="63">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>971</v>
       </c>
       <c r="P40" s="35">
@@ -6294,11 +6293,11 @@
         <v>13562</v>
       </c>
       <c r="R40" s="37">
-        <f t="shared" si="82"/>
+        <f t="shared" si="106"/>
         <v>2</v>
       </c>
       <c r="S40" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>1776</v>
       </c>
       <c r="T40" s="39">
@@ -6310,11 +6309,11 @@
         <v>38863</v>
       </c>
       <c r="V40" s="41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="W40" s="45">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="X40" s="65">
@@ -6324,11 +6323,11 @@
         <v>34500</v>
       </c>
       <c r="Z40" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>3</v>
       </c>
       <c r="AA40" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>3162</v>
       </c>
       <c r="AB40" s="77">
@@ -6338,34 +6337,34 @@
         <v>55091</v>
       </c>
       <c r="AD40" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>12</v>
       </c>
       <c r="AE40" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>5817</v>
       </c>
       <c r="AF40" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>21</v>
       </c>
       <c r="AG40" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>13358</v>
       </c>
       <c r="AH40" s="15">
         <v>16514</v>
       </c>
       <c r="AI40" s="21">
-        <f t="shared" si="114"/>
+        <f t="shared" si="138"/>
         <v>27</v>
       </c>
       <c r="AJ40" s="15">
-        <f t="shared" si="115"/>
+        <f t="shared" si="139"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="AK40" s="21">
-        <f t="shared" si="115"/>
+        <f t="shared" si="139"/>
         <v>494.74074074074076</v>
       </c>
     </row>
@@ -6383,27 +6382,27 @@
         <v>30415</v>
       </c>
       <c r="F41" s="55">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>7</v>
       </c>
       <c r="G41" s="33">
-        <f t="shared" si="72"/>
+        <f t="shared" si="96"/>
         <v>2923</v>
       </c>
       <c r="H41" s="69">
-        <f t="shared" si="107"/>
+        <f t="shared" si="131"/>
         <v>12</v>
       </c>
       <c r="I41" s="73">
-        <f t="shared" si="107"/>
+        <f t="shared" si="131"/>
         <v>7991</v>
       </c>
       <c r="J41" s="71">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="K41" s="75">
-        <f t="shared" si="75"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L41" s="57">
@@ -6413,11 +6412,11 @@
         <v>32444</v>
       </c>
       <c r="N41" s="59">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>3</v>
       </c>
       <c r="O41" s="63">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>1204</v>
       </c>
       <c r="P41" s="35">
@@ -6429,11 +6428,11 @@
         <v>11786</v>
       </c>
       <c r="R41" s="37">
-        <f t="shared" si="82"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="S41" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="T41" s="39">
@@ -6445,11 +6444,11 @@
         <v>38863</v>
       </c>
       <c r="V41" s="41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="W41" s="45">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="X41" s="65">
@@ -6459,11 +6458,11 @@
         <v>31338</v>
       </c>
       <c r="Z41" s="61">
-        <f t="shared" si="88"/>
+        <f t="shared" si="112"/>
         <v>3</v>
       </c>
       <c r="AA41" s="67">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>2739</v>
       </c>
       <c r="AB41" s="77">
@@ -6473,19 +6472,19 @@
         <v>49274</v>
       </c>
       <c r="AD41" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="114"/>
         <v>1</v>
       </c>
       <c r="AE41" s="86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="115"/>
         <v>1064</v>
       </c>
       <c r="AF41" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>14</v>
       </c>
       <c r="AG41" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>7930</v>
       </c>
       <c r="AH41" s="15">
@@ -6496,11 +6495,11 @@
         <v>10</v>
       </c>
       <c r="AJ41" s="15">
-        <f t="shared" si="115"/>
+        <f t="shared" si="139"/>
         <v>1.4</v>
       </c>
       <c r="AK41" s="21">
-        <f t="shared" si="115"/>
+        <f t="shared" si="139"/>
         <v>793</v>
       </c>
     </row>
@@ -6611,11 +6610,11 @@
         <v>8390</v>
       </c>
       <c r="AF42" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>48</v>
       </c>
       <c r="AG42" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>40575</v>
       </c>
       <c r="AH42" s="15">
@@ -6626,11 +6625,11 @@
         <v>28</v>
       </c>
       <c r="AJ42" s="15">
-        <f t="shared" si="115"/>
+        <f t="shared" si="139"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="AK42" s="21">
-        <f t="shared" si="115"/>
+        <f t="shared" si="139"/>
         <v>1449.1071428571429</v>
       </c>
     </row>
@@ -6740,11 +6739,11 @@
         <v>20041</v>
       </c>
       <c r="AF43" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>62</v>
       </c>
       <c r="AG43" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>73206</v>
       </c>
       <c r="AH43" s="15">
@@ -6768,26 +6767,26 @@
         <v>17472</v>
       </c>
       <c r="F44" s="55">
-        <f t="shared" ref="F44:G46" si="116">D44-D45</f>
+        <f t="shared" ref="F44:G46" si="140">D44-D45</f>
         <v>4</v>
       </c>
       <c r="G44" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="140"/>
         <v>3603</v>
       </c>
       <c r="H44" s="69">
-        <f t="shared" ref="H44:I45" si="117">H45</f>
+        <f t="shared" ref="H44:I45" si="141">H45</f>
         <v>0</v>
       </c>
       <c r="I44" s="73">
         <v>0</v>
       </c>
       <c r="J44" s="71">
-        <f t="shared" ref="J44:K46" si="118">H44-H45</f>
+        <f t="shared" ref="J44:K46" si="142">H44-H45</f>
         <v>0</v>
       </c>
       <c r="K44" s="75">
-        <f t="shared" si="118"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="L44" s="57">
@@ -6797,11 +6796,11 @@
         <v>15917</v>
       </c>
       <c r="N44" s="59">
-        <f t="shared" ref="N44:O46" si="119">L44-L45</f>
+        <f t="shared" ref="N44:O46" si="143">L44-L45</f>
         <v>2</v>
       </c>
       <c r="O44" s="63">
-        <f t="shared" si="119"/>
+        <f t="shared" si="143"/>
         <v>2510</v>
       </c>
       <c r="P44" s="35">
@@ -6812,11 +6811,11 @@
         <v>2587</v>
       </c>
       <c r="R44" s="37">
-        <f t="shared" ref="R44:S46" si="120">P44-P45</f>
+        <f t="shared" ref="R44:S46" si="144">P44-P45</f>
         <v>0</v>
       </c>
       <c r="S44" s="51">
-        <f t="shared" si="120"/>
+        <f t="shared" si="144"/>
         <v>2121</v>
       </c>
       <c r="T44" s="39">
@@ -6826,11 +6825,11 @@
         <v>17845</v>
       </c>
       <c r="V44" s="41">
-        <f t="shared" ref="V44:W46" si="121">T44-T45</f>
+        <f t="shared" ref="V44:W46" si="145">T44-T45</f>
         <v>0</v>
       </c>
       <c r="W44" s="45">
-        <f t="shared" si="121"/>
+        <f t="shared" si="145"/>
         <v>1145</v>
       </c>
       <c r="X44" s="65">
@@ -6840,11 +6839,11 @@
         <v>6800</v>
       </c>
       <c r="Z44" s="61">
-        <f t="shared" ref="Z44:AA46" si="122">X44-X45</f>
+        <f t="shared" ref="Z44:AA46" si="146">X44-X45</f>
         <v>5</v>
       </c>
       <c r="AA44" s="67">
-        <f t="shared" si="122"/>
+        <f t="shared" si="146"/>
         <v>2138</v>
       </c>
       <c r="AB44" s="77">
@@ -6854,19 +6853,19 @@
         <v>19779</v>
       </c>
       <c r="AD44" s="80">
-        <f t="shared" ref="AD44:AE46" si="123">AB44-AB45</f>
+        <f t="shared" ref="AD44:AE46" si="147">AB44-AB45</f>
         <v>6</v>
       </c>
       <c r="AE44" s="86">
-        <f t="shared" si="123"/>
+        <f t="shared" si="147"/>
         <v>8542</v>
       </c>
       <c r="AF44" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>17</v>
       </c>
       <c r="AG44" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>20059</v>
       </c>
       <c r="AH44" s="15"/>
@@ -6888,27 +6887,27 @@
         <v>13869</v>
       </c>
       <c r="F45" s="55">
-        <f t="shared" si="116"/>
+        <f t="shared" si="140"/>
         <v>10</v>
       </c>
       <c r="G45" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="140"/>
         <v>5719</v>
       </c>
       <c r="H45" s="69">
-        <f t="shared" si="117"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="I45" s="73">
-        <f t="shared" si="117"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="J45" s="71">
-        <f t="shared" si="118"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="K45" s="75">
-        <f t="shared" si="118"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="L45" s="57">
@@ -6918,11 +6917,11 @@
         <v>13407</v>
       </c>
       <c r="N45" s="59">
-        <f t="shared" si="119"/>
+        <f t="shared" si="143"/>
         <v>12</v>
       </c>
       <c r="O45" s="63">
-        <f t="shared" si="119"/>
+        <f t="shared" si="143"/>
         <v>7199</v>
       </c>
       <c r="P45" s="35">
@@ -6933,11 +6932,11 @@
         <v>466</v>
       </c>
       <c r="R45" s="37">
-        <f t="shared" si="120"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="S45" s="51">
-        <f t="shared" si="120"/>
+        <f t="shared" si="144"/>
         <v>466</v>
       </c>
       <c r="T45" s="39">
@@ -6947,11 +6946,11 @@
         <v>16700</v>
       </c>
       <c r="V45" s="41">
-        <f t="shared" si="121"/>
+        <f t="shared" si="145"/>
         <v>2</v>
       </c>
       <c r="W45" s="45">
-        <f t="shared" si="121"/>
+        <f t="shared" si="145"/>
         <v>14</v>
       </c>
       <c r="X45" s="65">
@@ -6961,11 +6960,11 @@
         <v>4662</v>
       </c>
       <c r="Z45" s="61">
-        <f t="shared" si="122"/>
+        <f t="shared" si="146"/>
         <v>3</v>
       </c>
       <c r="AA45" s="67">
-        <f t="shared" si="122"/>
+        <f t="shared" si="146"/>
         <v>3582</v>
       </c>
       <c r="AB45" s="77">
@@ -6975,19 +6974,19 @@
         <v>11237</v>
       </c>
       <c r="AD45" s="80">
-        <f t="shared" si="123"/>
+        <f t="shared" si="147"/>
         <v>1</v>
       </c>
       <c r="AE45" s="86">
-        <f t="shared" si="123"/>
+        <f t="shared" si="147"/>
         <v>1879</v>
       </c>
       <c r="AF45" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>28</v>
       </c>
       <c r="AG45" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>18859</v>
       </c>
       <c r="AH45" s="15"/>
@@ -7009,11 +7008,11 @@
         <v>8150</v>
       </c>
       <c r="F46" s="55">
-        <f t="shared" si="116"/>
+        <f t="shared" si="140"/>
         <v>5</v>
       </c>
       <c r="G46" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="140"/>
         <v>4075</v>
       </c>
       <c r="H46" s="69">
@@ -7023,11 +7022,11 @@
         <v>0</v>
       </c>
       <c r="J46" s="71">
-        <f t="shared" si="118"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="K46" s="75">
-        <f t="shared" si="118"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="L46" s="57">
@@ -7037,11 +7036,11 @@
         <v>6208</v>
       </c>
       <c r="N46" s="59">
-        <f t="shared" si="119"/>
+        <f t="shared" si="143"/>
         <v>5</v>
       </c>
       <c r="O46" s="63">
-        <f t="shared" si="119"/>
+        <f t="shared" si="143"/>
         <v>3104</v>
       </c>
       <c r="P46" s="35">
@@ -7051,11 +7050,11 @@
         <v>0</v>
       </c>
       <c r="R46" s="37">
-        <f t="shared" si="120"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="S46" s="51">
-        <f t="shared" si="120"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="T46" s="39">
@@ -7065,11 +7064,11 @@
         <v>16686</v>
       </c>
       <c r="V46" s="41">
-        <f t="shared" si="121"/>
+        <f t="shared" si="145"/>
         <v>8</v>
       </c>
       <c r="W46" s="45">
-        <f t="shared" si="121"/>
+        <f t="shared" si="145"/>
         <v>8343</v>
       </c>
       <c r="X46" s="65">
@@ -7079,11 +7078,11 @@
         <v>1080</v>
       </c>
       <c r="Z46" s="61">
-        <f t="shared" si="122"/>
+        <f t="shared" si="146"/>
         <v>1</v>
       </c>
       <c r="AA46" s="67">
-        <f t="shared" si="122"/>
+        <f t="shared" si="146"/>
         <v>540</v>
       </c>
       <c r="AB46" s="77">
@@ -7093,19 +7092,19 @@
         <v>9358</v>
       </c>
       <c r="AD46" s="80">
-        <f t="shared" si="123"/>
+        <f t="shared" si="147"/>
         <v>2</v>
       </c>
       <c r="AE46" s="86">
-        <f t="shared" si="123"/>
+        <f t="shared" si="147"/>
         <v>4679</v>
       </c>
       <c r="AF46" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>21</v>
       </c>
       <c r="AG46" s="18">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>20741</v>
       </c>
       <c r="AH46" s="15"/>
@@ -7137,11 +7136,11 @@
         <v>4075</v>
       </c>
       <c r="H47" s="69">
-        <f t="shared" ref="H47:I47" si="124">INT(H46/2)</f>
+        <f t="shared" ref="H47:I47" si="148">INT(H46/2)</f>
         <v>0</v>
       </c>
       <c r="I47" s="73">
-        <f t="shared" si="124"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="J47" s="71">
@@ -7153,11 +7152,11 @@
         <v>0</v>
       </c>
       <c r="L47" s="57">
-        <f t="shared" ref="L47:M47" si="125">INT(L46/2)</f>
+        <f t="shared" ref="L47:M47" si="149">INT(L46/2)</f>
         <v>4</v>
       </c>
       <c r="M47" s="61">
-        <f t="shared" si="125"/>
+        <f t="shared" si="149"/>
         <v>3104</v>
       </c>
       <c r="N47" s="59">
@@ -7169,11 +7168,11 @@
         <v>3104</v>
       </c>
       <c r="P47" s="35">
-        <f t="shared" ref="P47:Q47" si="126">INT(P46/2)</f>
+        <f t="shared" ref="P47:Q47" si="150">INT(P46/2)</f>
         <v>0</v>
       </c>
       <c r="Q47" s="49">
-        <f t="shared" si="126"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="R47" s="37">
@@ -7185,11 +7184,11 @@
         <v>0</v>
       </c>
       <c r="T47" s="39">
-        <f t="shared" ref="T47:U47" si="127">INT(T46/2)</f>
+        <f t="shared" ref="T47:U47" si="151">INT(T46/2)</f>
         <v>7</v>
       </c>
       <c r="U47" s="43">
-        <f t="shared" si="127"/>
+        <f t="shared" si="151"/>
         <v>8343</v>
       </c>
       <c r="V47" s="41">
@@ -7201,11 +7200,11 @@
         <v>8343</v>
       </c>
       <c r="X47" s="65">
-        <f t="shared" ref="X47:Y47" si="128">INT(X46/2)</f>
+        <f t="shared" ref="X47:Y47" si="152">INT(X46/2)</f>
         <v>1</v>
       </c>
       <c r="Y47" s="47">
-        <f t="shared" si="128"/>
+        <f t="shared" si="152"/>
         <v>540</v>
       </c>
       <c r="Z47" s="61">
@@ -7217,11 +7216,11 @@
         <v>540</v>
       </c>
       <c r="AB47" s="78">
-        <f t="shared" ref="AB47:AC47" si="129">INT(AB46/2)</f>
+        <f t="shared" ref="AB47:AC47" si="153">INT(AB46/2)</f>
         <v>2</v>
       </c>
       <c r="AC47" s="84">
-        <f t="shared" si="129"/>
+        <f t="shared" si="153"/>
         <v>4679</v>
       </c>
       <c r="AD47" s="81">
@@ -7233,11 +7232,11 @@
         <v>4679</v>
       </c>
       <c r="AF47" s="13">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
         <v>18</v>
       </c>
       <c r="AG47" s="19">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>20741</v>
       </c>
       <c r="AH47" s="16"/>

--- a/mission wz.xlsx
+++ b/mission wz.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="36">
   <si>
     <t>France</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>Est. Normal fin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1013,16 +1010,94 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1031,10 +1106,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="44" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="45" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1046,9 +1124,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="46" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1058,9 +1133,6 @@
     <xf numFmtId="9" fontId="2" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1113,81 +1185,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="44" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="45" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1568,7 +1565,7 @@
   <dimension ref="B1:AL47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ34" sqref="AJ34"/>
+      <selection activeCell="AH33" sqref="AH33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1592,70 +1589,70 @@
     <col min="17" max="17" width="7" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" style="5" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="7" style="5" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="3.140625" style="5" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="6" style="5" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="5.5703125" style="5" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="7" style="5" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="3.140625" style="5" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="6" style="5" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="4.5703125" style="5" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="7" style="5" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="3.140625" style="5" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="6.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" style="5" customWidth="1"/>
+    <col min="21" max="21" width="7" style="5" customWidth="1"/>
+    <col min="22" max="22" width="3.140625" style="5" customWidth="1"/>
+    <col min="23" max="23" width="6" style="5" customWidth="1"/>
+    <col min="24" max="24" width="5.5703125" style="5" customWidth="1"/>
+    <col min="25" max="25" width="7" style="5" customWidth="1"/>
+    <col min="26" max="26" width="3.140625" style="5" customWidth="1"/>
+    <col min="27" max="27" width="6" style="5" customWidth="1"/>
+    <col min="28" max="28" width="4.5703125" style="5" customWidth="1"/>
+    <col min="29" max="29" width="7" style="5" customWidth="1"/>
+    <col min="30" max="30" width="3.140625" style="5" customWidth="1"/>
+    <col min="31" max="31" width="6.7109375" style="5" customWidth="1"/>
     <col min="32" max="32" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="10" bestFit="1" customWidth="1"/>
     <col min="36" max="37" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:38" ht="15.75" thickBot="1">
-      <c r="D1" s="125" t="s">
+      <c r="D1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="116" t="s">
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="134" t="s">
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="128" t="s">
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="129"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="119" t="s">
+      <c r="Q1" s="154"/>
+      <c r="R1" s="154"/>
+      <c r="S1" s="155"/>
+      <c r="T1" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="157"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="121"/>
-      <c r="AB1" s="122" t="s">
+      <c r="Y1" s="145"/>
+      <c r="Z1" s="145"/>
+      <c r="AA1" s="146"/>
+      <c r="AB1" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="AC1" s="123"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="124"/>
-      <c r="AF1" s="108" t="s">
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="AG1" s="108"/>
+      <c r="AG1" s="135"/>
       <c r="AJ1" s="1">
         <f ca="1">TODAY()</f>
         <v>42015</v>
@@ -1680,11 +1677,11 @@
         <f>(150000-F6)/150000</f>
         <v>0.85164666666666666</v>
       </c>
-      <c r="F2" s="109">
+      <c r="F2" s="136">
         <f>AVERAGE(D2:E2)</f>
         <v>0.92582333333333333</v>
       </c>
-      <c r="G2" s="110"/>
+      <c r="G2" s="137"/>
       <c r="H2" s="98">
         <f>(150-H6)/150</f>
         <v>0.26</v>
@@ -1693,11 +1690,11 @@
         <f>(150000-J6)/150000</f>
         <v>0.17212</v>
       </c>
-      <c r="J2" s="109">
+      <c r="J2" s="136">
         <f>AVERAGE(H2:I2)</f>
         <v>0.21606</v>
       </c>
-      <c r="K2" s="110"/>
+      <c r="K2" s="137"/>
       <c r="L2" s="98">
         <f>(150-L6)/150</f>
         <v>0.96</v>
@@ -1706,11 +1703,11 @@
         <f>(150000-N6)/150000</f>
         <v>0.67444000000000004</v>
       </c>
-      <c r="N2" s="109">
+      <c r="N2" s="136">
         <f>AVERAGE(L2:M2)</f>
         <v>0.81722000000000006</v>
       </c>
-      <c r="O2" s="110"/>
+      <c r="O2" s="137"/>
       <c r="P2" s="98">
         <f>(150-P6)/150</f>
         <v>0.86</v>
@@ -1719,11 +1716,11 @@
         <f>(150000-R6)/150000</f>
         <v>0.87966</v>
       </c>
-      <c r="R2" s="109">
+      <c r="R2" s="136">
         <f>AVERAGE(P2:Q2)</f>
         <v>0.86982999999999999</v>
       </c>
-      <c r="S2" s="110"/>
+      <c r="S2" s="137"/>
       <c r="T2" s="98">
         <f>(150-T6)/150</f>
         <v>1</v>
@@ -1732,31 +1729,31 @@
         <f>(150000-V6)/150000</f>
         <v>1</v>
       </c>
-      <c r="V2" s="109">
+      <c r="V2" s="136">
         <f>AVERAGE(T2:U2)</f>
         <v>1</v>
       </c>
-      <c r="W2" s="110"/>
-      <c r="X2" s="145">
+      <c r="W2" s="137"/>
+      <c r="X2" s="133">
         <f t="shared" ref="X2" si="0">(150-X6)/150</f>
         <v>1</v>
       </c>
-      <c r="Y2" s="146"/>
-      <c r="Z2" s="112">
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="138">
         <f t="shared" ref="Z2" si="1">(150000-Z6)/150000</f>
         <v>1</v>
       </c>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="114">
+      <c r="AA2" s="139"/>
+      <c r="AB2" s="140">
         <f t="shared" ref="AB2" si="2">(150-AB6)/150</f>
         <v>1</v>
       </c>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115">
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128">
         <f t="shared" ref="AD2" si="3">(150000-AD6)/150000</f>
         <v>1</v>
       </c>
-      <c r="AE2" s="137"/>
+      <c r="AE2" s="129"/>
       <c r="AJ2" s="1">
         <v>41989</v>
       </c>
@@ -1772,76 +1769,76 @@
       <c r="C3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="104">
+      <c r="D3" s="130">
         <f ca="1">IF(D6&lt;0,0,INT(D6/$AL$1))</f>
         <v>0</v>
       </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105">
+      <c r="E3" s="131"/>
+      <c r="F3" s="131">
         <f ca="1">IF(F6&lt;0,0,INT(F6/$AL$1))</f>
         <v>3708</v>
       </c>
-      <c r="G3" s="111"/>
-      <c r="H3" s="104">
+      <c r="G3" s="132"/>
+      <c r="H3" s="130">
         <f t="shared" ref="H3" ca="1" si="4">IF(H6&lt;0,0,INT(H6/$AL$1))</f>
         <v>18</v>
       </c>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105">
+      <c r="I3" s="131"/>
+      <c r="J3" s="131">
         <f t="shared" ref="J3" ca="1" si="5">IF(J6&lt;0,0,INT(J6/$AL$1))</f>
         <v>20697</v>
       </c>
-      <c r="K3" s="111"/>
-      <c r="L3" s="104">
+      <c r="K3" s="132"/>
+      <c r="L3" s="130">
         <f t="shared" ref="L3" ca="1" si="6">IF(L6&lt;0,0,INT(L6/$AL$1))</f>
         <v>1</v>
       </c>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105">
+      <c r="M3" s="131"/>
+      <c r="N3" s="131">
         <f t="shared" ref="N3" ca="1" si="7">IF(N6&lt;0,0,INT(N6/$AL$1))</f>
         <v>8139</v>
       </c>
-      <c r="O3" s="111"/>
-      <c r="P3" s="104">
+      <c r="O3" s="132"/>
+      <c r="P3" s="130">
         <f t="shared" ref="P3" ca="1" si="8">IF(P6&lt;0,0,INT(P6/$AL$1))</f>
         <v>3</v>
       </c>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105">
+      <c r="Q3" s="131"/>
+      <c r="R3" s="131">
         <f t="shared" ref="R3" ca="1" si="9">IF(R6&lt;0,0,INT(R6/$AL$1))</f>
         <v>3008</v>
       </c>
-      <c r="S3" s="111"/>
-      <c r="T3" s="104">
+      <c r="S3" s="132"/>
+      <c r="T3" s="130">
         <f t="shared" ref="T3" ca="1" si="10">IF(T6&lt;0,0,INT(T6/$AL$1))</f>
         <v>0</v>
       </c>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105">
+      <c r="U3" s="131"/>
+      <c r="V3" s="131">
         <f t="shared" ref="V3" ca="1" si="11">IF(V6&lt;0,0,INT(V6/$AL$1))</f>
         <v>0</v>
       </c>
-      <c r="W3" s="111"/>
-      <c r="X3" s="138">
+      <c r="W3" s="132"/>
+      <c r="X3" s="117">
         <f t="shared" ref="X3" ca="1" si="12">IF(X6&lt;0,0,INT(X6/$AL$1))</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="139"/>
-      <c r="Z3" s="140">
+      <c r="Y3" s="118"/>
+      <c r="Z3" s="119">
         <f t="shared" ref="Z3" ca="1" si="13">IF(Z6&lt;0,0,INT(Z6/$AL$1))</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="142">
+      <c r="AA3" s="120"/>
+      <c r="AB3" s="104">
         <f t="shared" ref="AB3" ca="1" si="14">IF(AB6&lt;0,0,INT(AB6/$AL$1))</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="143"/>
-      <c r="AD3" s="143">
+      <c r="AC3" s="105"/>
+      <c r="AD3" s="105">
         <f t="shared" ref="AD3" ca="1" si="15">IF(AD6&lt;0,0,INT(AD6/$AL$1))</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="144"/>
+      <c r="AE3" s="106"/>
       <c r="AF3" s="4">
         <f ca="1">SUM(D3,P3,T3,L3,H3,X3,AB3)</f>
         <v>22</v>
@@ -1865,76 +1862,76 @@
       <c r="C4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="106">
+      <c r="D4" s="116">
         <f>D13-D14</f>
         <v>0</v>
       </c>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100">
+      <c r="E4" s="114"/>
+      <c r="F4" s="114">
         <f>E13-E14</f>
         <v>0</v>
       </c>
-      <c r="G4" s="101"/>
-      <c r="H4" s="106">
+      <c r="G4" s="115"/>
+      <c r="H4" s="116">
         <f t="shared" ref="H4" si="16">H13-H14</f>
         <v>0</v>
       </c>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100">
+      <c r="I4" s="114"/>
+      <c r="J4" s="114">
         <f t="shared" ref="J4" si="17">I13-I14</f>
         <v>0</v>
       </c>
-      <c r="K4" s="101"/>
-      <c r="L4" s="106">
+      <c r="K4" s="115"/>
+      <c r="L4" s="116">
         <f t="shared" ref="L4" si="18">L13-L14</f>
         <v>0</v>
       </c>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100">
+      <c r="M4" s="114"/>
+      <c r="N4" s="114">
         <f t="shared" ref="N4" si="19">M13-M14</f>
         <v>0</v>
       </c>
-      <c r="O4" s="101"/>
-      <c r="P4" s="106">
+      <c r="O4" s="115"/>
+      <c r="P4" s="116">
         <f t="shared" ref="P4" si="20">P13-P14</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100">
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114">
         <f t="shared" ref="R4" si="21">Q13-Q14</f>
         <v>0</v>
       </c>
-      <c r="S4" s="101"/>
-      <c r="T4" s="106">
+      <c r="S4" s="115"/>
+      <c r="T4" s="116">
         <f t="shared" ref="T4" si="22">T13-T14</f>
         <v>0</v>
       </c>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100">
+      <c r="U4" s="114"/>
+      <c r="V4" s="114">
         <f t="shared" ref="V4" si="23">U13-U14</f>
         <v>0</v>
       </c>
-      <c r="W4" s="101"/>
-      <c r="X4" s="138">
+      <c r="W4" s="115"/>
+      <c r="X4" s="117">
         <f t="shared" ref="X4" si="24">X13-X14</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="139"/>
-      <c r="Z4" s="140">
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="119">
         <f t="shared" ref="Z4" si="25">Y13-Y14</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="141"/>
-      <c r="AB4" s="142">
+      <c r="AA4" s="120"/>
+      <c r="AB4" s="104">
         <f t="shared" ref="AB4" si="26">AB13-AB14</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="143"/>
-      <c r="AD4" s="143">
+      <c r="AC4" s="105"/>
+      <c r="AD4" s="105">
         <f t="shared" ref="AD4" si="27">AC13-AC14</f>
         <v>0</v>
       </c>
-      <c r="AE4" s="144"/>
+      <c r="AE4" s="106"/>
       <c r="AF4" s="4">
         <f>SUM(D4,P4,T4,L4,H4,X4,AB4)</f>
         <v>0</v>
@@ -1948,76 +1945,76 @@
       <c r="C5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="106">
+      <c r="D5" s="116">
         <f ca="1">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-D6)</f>
         <v>27</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100">
+      <c r="E5" s="114"/>
+      <c r="F5" s="114">
         <f ca="1">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-F6)</f>
         <v>4218</v>
       </c>
-      <c r="G5" s="101"/>
-      <c r="H5" s="106">
+      <c r="G5" s="115"/>
+      <c r="H5" s="116">
         <f t="shared" ref="H5" ca="1" si="28">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-H6)</f>
         <v>-84</v>
       </c>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100">
+      <c r="I5" s="114"/>
+      <c r="J5" s="114">
         <f t="shared" ref="J5" ca="1" si="29">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-J6)</f>
         <v>-97711</v>
       </c>
-      <c r="K5" s="101"/>
-      <c r="L5" s="106">
+      <c r="K5" s="115"/>
+      <c r="L5" s="116">
         <f t="shared" ref="L5" ca="1" si="30">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-L6)</f>
         <v>21</v>
       </c>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100">
+      <c r="M5" s="114"/>
+      <c r="N5" s="114">
         <f t="shared" ref="N5" ca="1" si="31">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-N6)</f>
         <v>-22363</v>
       </c>
-      <c r="O5" s="101"/>
-      <c r="P5" s="106">
+      <c r="O5" s="115"/>
+      <c r="P5" s="116">
         <f t="shared" ref="P5" ca="1" si="32">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-P6)</f>
         <v>6</v>
       </c>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100">
+      <c r="Q5" s="114"/>
+      <c r="R5" s="114">
         <f t="shared" ref="R5" ca="1" si="33">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-R6)</f>
         <v>8420</v>
       </c>
-      <c r="S5" s="101"/>
-      <c r="T5" s="106">
+      <c r="S5" s="115"/>
+      <c r="T5" s="116">
         <f t="shared" ref="T5" ca="1" si="34">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-T6)</f>
         <v>27</v>
       </c>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100">
+      <c r="U5" s="114"/>
+      <c r="V5" s="114">
         <f t="shared" ref="V5" ca="1" si="35">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-V6)</f>
         <v>26471</v>
       </c>
-      <c r="W5" s="101"/>
-      <c r="X5" s="147">
+      <c r="W5" s="115"/>
+      <c r="X5" s="121">
         <f t="shared" ref="X5" ca="1" si="36">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-X6)</f>
         <v>27</v>
       </c>
-      <c r="Y5" s="148"/>
-      <c r="Z5" s="140">
+      <c r="Y5" s="122"/>
+      <c r="Z5" s="119">
         <f t="shared" ref="Z5" ca="1" si="37">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-Z6)</f>
         <v>26471</v>
       </c>
-      <c r="AA5" s="141"/>
-      <c r="AB5" s="149">
+      <c r="AA5" s="120"/>
+      <c r="AB5" s="123">
         <f t="shared" ref="AB5" ca="1" si="38">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-AB6)</f>
         <v>27</v>
       </c>
-      <c r="AC5" s="150"/>
-      <c r="AD5" s="143">
+      <c r="AC5" s="124"/>
+      <c r="AD5" s="105">
         <f t="shared" ref="AD5" ca="1" si="39">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-AD6)</f>
         <v>26471</v>
       </c>
-      <c r="AE5" s="144"/>
+      <c r="AE5" s="106"/>
       <c r="AF5" s="4">
         <f ca="1">SUM(D5,P5,T5,L5,H5,X5,AB5)</f>
         <v>51</v>
@@ -2045,76 +2042,76 @@
       <c r="C6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="106">
+      <c r="D6" s="116">
         <f>IF(150-D13&lt;0,0,150-D13)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100">
+      <c r="E6" s="114"/>
+      <c r="F6" s="114">
         <f>IF(150000-E13&lt;0,0,150000-E13)</f>
         <v>22253</v>
       </c>
-      <c r="G6" s="101"/>
-      <c r="H6" s="106">
+      <c r="G6" s="115"/>
+      <c r="H6" s="116">
         <f t="shared" ref="H6" si="40">IF(150-H13&lt;0,0,150-H13)</f>
         <v>111</v>
       </c>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100">
+      <c r="I6" s="114"/>
+      <c r="J6" s="114">
         <f t="shared" ref="J6" si="41">IF(150000-I13&lt;0,0,150000-I13)</f>
         <v>124182</v>
       </c>
-      <c r="K6" s="101"/>
-      <c r="L6" s="106">
+      <c r="K6" s="115"/>
+      <c r="L6" s="116">
         <f t="shared" ref="L6" si="42">IF(150-L13&lt;0,0,150-L13)</f>
         <v>6</v>
       </c>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100">
+      <c r="M6" s="114"/>
+      <c r="N6" s="114">
         <f t="shared" ref="N6" si="43">IF(150000-M13&lt;0,0,150000-M13)</f>
         <v>48834</v>
       </c>
-      <c r="O6" s="101"/>
-      <c r="P6" s="106">
+      <c r="O6" s="115"/>
+      <c r="P6" s="116">
         <f t="shared" ref="P6" si="44">IF(150-P13&lt;0,0,150-P13)</f>
         <v>21</v>
       </c>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100">
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114">
         <f t="shared" ref="R6" si="45">IF(150000-Q13&lt;0,0,150000-Q13)</f>
         <v>18051</v>
       </c>
-      <c r="S6" s="101"/>
-      <c r="T6" s="106">
+      <c r="S6" s="115"/>
+      <c r="T6" s="116">
         <f t="shared" ref="T6" si="46">IF(150-T13&lt;0,0,150-T13)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="100"/>
-      <c r="V6" s="100">
+      <c r="U6" s="114"/>
+      <c r="V6" s="114">
         <f t="shared" ref="V6" si="47">IF(150000-U13&lt;0,0,150000-U13)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="101"/>
-      <c r="X6" s="138">
+      <c r="W6" s="115"/>
+      <c r="X6" s="117">
         <f t="shared" ref="X6" si="48">IF(150-X13&lt;0,0,150-X13)</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="139"/>
-      <c r="Z6" s="140">
+      <c r="Y6" s="118"/>
+      <c r="Z6" s="119">
         <f t="shared" ref="Z6" si="49">IF(150000-Y13&lt;0,0,150000-Y13)</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="141"/>
-      <c r="AB6" s="142">
+      <c r="AA6" s="120"/>
+      <c r="AB6" s="104">
         <f t="shared" ref="AB6" si="50">IF(150-AB13&lt;0,0,150-AB13)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="143"/>
-      <c r="AD6" s="143">
+      <c r="AC6" s="105"/>
+      <c r="AD6" s="105">
         <f t="shared" ref="AD6" si="51">IF(150000-AC13&lt;0,0,150000-AC13)</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="144"/>
+      <c r="AE6" s="106"/>
       <c r="AF6" s="4">
         <f>SUM(D6,P6,T6,L6,H6,X6,AB6)</f>
         <v>138</v>
@@ -2148,72 +2145,72 @@
         <f>D6/5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102">
+      <c r="E7" s="108"/>
+      <c r="F7" s="108">
         <f>F6/5000</f>
         <v>4.4505999999999997</v>
       </c>
-      <c r="G7" s="103"/>
+      <c r="G7" s="109"/>
       <c r="H7" s="107">
         <f t="shared" ref="H7" si="52">H6/5</f>
         <v>22.2</v>
       </c>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102">
+      <c r="I7" s="108"/>
+      <c r="J7" s="108">
         <f t="shared" ref="J7" si="53">J6/5000</f>
         <v>24.836400000000001</v>
       </c>
-      <c r="K7" s="103"/>
+      <c r="K7" s="109"/>
       <c r="L7" s="107">
         <f t="shared" ref="L7" si="54">L6/5</f>
         <v>1.2</v>
       </c>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102">
+      <c r="M7" s="108"/>
+      <c r="N7" s="108">
         <f t="shared" ref="N7" si="55">N6/5000</f>
         <v>9.7667999999999999</v>
       </c>
-      <c r="O7" s="103"/>
+      <c r="O7" s="109"/>
       <c r="P7" s="107">
         <f t="shared" ref="P7" si="56">P6/5</f>
         <v>4.2</v>
       </c>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102">
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108">
         <f t="shared" ref="R7" si="57">R6/5000</f>
         <v>3.6101999999999999</v>
       </c>
-      <c r="S7" s="103"/>
+      <c r="S7" s="109"/>
       <c r="T7" s="107">
         <f t="shared" ref="T7" si="58">T6/5</f>
         <v>0</v>
       </c>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102">
+      <c r="U7" s="108"/>
+      <c r="V7" s="108">
         <f t="shared" ref="V7" si="59">V6/5000</f>
         <v>0</v>
       </c>
-      <c r="W7" s="103"/>
-      <c r="X7" s="151">
+      <c r="W7" s="109"/>
+      <c r="X7" s="110">
         <f t="shared" ref="X7" si="60">X6/5</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="152"/>
-      <c r="Z7" s="153">
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="112">
         <f t="shared" ref="Z7" si="61">Z6/5000</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="154"/>
+      <c r="AA7" s="113"/>
       <c r="AB7" s="107">
         <f t="shared" ref="AB7" si="62">AB6/5</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="102"/>
-      <c r="AD7" s="102">
+      <c r="AC7" s="108"/>
+      <c r="AD7" s="108">
         <f t="shared" ref="AD7" si="63">AD6/5000</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="103"/>
+      <c r="AE7" s="109"/>
       <c r="AF7" s="4">
         <f>150*7-AF6</f>
         <v>912</v>
@@ -2229,65 +2226,65 @@
       <c r="C8" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="157">
-        <v>0</v>
-      </c>
-      <c r="E8" s="158"/>
-      <c r="F8" s="155">
+      <c r="D8" s="102">
+        <v>0</v>
+      </c>
+      <c r="E8" s="103"/>
+      <c r="F8" s="100">
         <f>F$6/AVERAGE(G22:G23)</f>
         <v>2.5368217054263567</v>
       </c>
-      <c r="G8" s="156"/>
-      <c r="H8" s="157">
+      <c r="G8" s="101"/>
+      <c r="H8" s="102">
         <f t="shared" ref="H8" si="64">H$6/AVERAGE(J22:J23)</f>
         <v>111</v>
       </c>
-      <c r="I8" s="158"/>
-      <c r="J8" s="155">
+      <c r="I8" s="103"/>
+      <c r="J8" s="100">
         <f t="shared" ref="J8" si="65">J$6/AVERAGE(K22:K23)</f>
         <v>89.051272857655078</v>
       </c>
-      <c r="K8" s="156"/>
-      <c r="L8" s="157">
+      <c r="K8" s="101"/>
+      <c r="L8" s="102">
         <f t="shared" ref="L8" si="66">L$6/AVERAGE(N22:N23)</f>
         <v>0.8</v>
       </c>
-      <c r="M8" s="158"/>
-      <c r="N8" s="155">
+      <c r="M8" s="103"/>
+      <c r="N8" s="100">
         <f t="shared" ref="N8" si="67">N$6/AVERAGE(O22:O23)</f>
         <v>12.378707224334601</v>
       </c>
-      <c r="O8" s="156"/>
-      <c r="P8" s="157">
+      <c r="O8" s="101"/>
+      <c r="P8" s="102">
         <f t="shared" ref="P8" si="68">P$6/AVERAGE(R22:R23)</f>
         <v>1.05</v>
       </c>
-      <c r="Q8" s="158"/>
-      <c r="R8" s="155">
+      <c r="Q8" s="103"/>
+      <c r="R8" s="100">
         <f t="shared" ref="R8" si="69">R$6/AVERAGE(S22:S23)</f>
         <v>1.0288108061896213</v>
       </c>
-      <c r="S8" s="156"/>
-      <c r="T8" s="157">
+      <c r="S8" s="101"/>
+      <c r="T8" s="102">
         <f t="shared" ref="T8" si="70">T$6/AVERAGE(V22:V23)</f>
         <v>0</v>
       </c>
-      <c r="U8" s="158"/>
-      <c r="V8" s="155">
+      <c r="U8" s="103"/>
+      <c r="V8" s="100">
         <f t="shared" ref="V8" si="71">V$6/AVERAGE(W22:W23)</f>
         <v>0</v>
       </c>
-      <c r="W8" s="156"/>
-      <c r="X8" s="155">
+      <c r="W8" s="101"/>
+      <c r="X8" s="100">
         <f t="shared" ref="X8" si="72">X$6/AVERAGE(Z25:Z26)</f>
         <v>0</v>
       </c>
-      <c r="Y8" s="156"/>
-      <c r="Z8" s="155">
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="100">
         <f t="shared" ref="Z8" si="73">Z$6/AVERAGE(AA25:AA26)</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="156"/>
+      <c r="AA8" s="101"/>
       <c r="AB8" s="94"/>
       <c r="AC8" s="94"/>
       <c r="AD8" s="94"/>
@@ -2301,66 +2298,66 @@
       <c r="C9" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="155">
+      <c r="D9" s="100">
         <f>D$6/AVERAGE(F22:F24)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="156"/>
-      <c r="F9" s="155">
+      <c r="E9" s="101"/>
+      <c r="F9" s="100">
         <f>F$6/AVERAGE(G22:G24)</f>
         <v>3.0551919820603173</v>
       </c>
-      <c r="G9" s="156"/>
-      <c r="H9" s="155">
+      <c r="G9" s="101"/>
+      <c r="H9" s="100">
         <f t="shared" ref="H9" si="74">H$6/AVERAGE(J22:J24)</f>
         <v>66.599999999999994</v>
       </c>
-      <c r="I9" s="156"/>
-      <c r="J9" s="155">
+      <c r="I9" s="101"/>
+      <c r="J9" s="100">
         <f t="shared" ref="J9" si="75">J$6/AVERAGE(K22:K24)</f>
         <v>81.860250494396837</v>
       </c>
-      <c r="K9" s="156"/>
-      <c r="L9" s="155">
+      <c r="K9" s="101"/>
+      <c r="L9" s="100">
         <f t="shared" ref="L9" si="76">L$6/AVERAGE(N22:N24)</f>
         <v>1.125</v>
       </c>
-      <c r="M9" s="156"/>
-      <c r="N9" s="155">
+      <c r="M9" s="101"/>
+      <c r="N9" s="100">
         <f t="shared" ref="N9" si="77">N$6/AVERAGE(O22:O24)</f>
         <v>14.066442630820932</v>
       </c>
-      <c r="O9" s="156"/>
-      <c r="P9" s="155">
+      <c r="O9" s="101"/>
+      <c r="P9" s="100">
         <f t="shared" ref="P9" si="78">P$6/AVERAGE(R22:R24)</f>
         <v>1.4651162790697674</v>
       </c>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="155">
+      <c r="Q9" s="101"/>
+      <c r="R9" s="100">
         <f t="shared" ref="R9" si="79">R$6/AVERAGE(S22:S24)</f>
         <v>1.4222344784115979</v>
       </c>
-      <c r="S9" s="156"/>
-      <c r="T9" s="155">
+      <c r="S9" s="101"/>
+      <c r="T9" s="100">
         <f t="shared" ref="T9" si="80">T$6/AVERAGE(V22:V24)</f>
         <v>0</v>
       </c>
-      <c r="U9" s="156"/>
-      <c r="V9" s="155">
+      <c r="U9" s="101"/>
+      <c r="V9" s="100">
         <f t="shared" ref="V9" si="81">V$6/AVERAGE(W22:W24)</f>
         <v>0</v>
       </c>
-      <c r="W9" s="156"/>
-      <c r="X9" s="155">
+      <c r="W9" s="101"/>
+      <c r="X9" s="100">
         <f t="shared" ref="X9" si="82">X$6/AVERAGE(Z25:Z27)</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="156"/>
-      <c r="Z9" s="155">
+      <c r="Y9" s="101"/>
+      <c r="Z9" s="100">
         <f t="shared" ref="Z9" si="83">Z$6/AVERAGE(AA25:AA27)</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="156"/>
+      <c r="AA9" s="101"/>
       <c r="AE9" s="25" t="s">
         <v>13</v>
       </c>
@@ -2372,66 +2369,66 @@
       <c r="C10" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="155">
+      <c r="D10" s="100">
         <f>D$6/AVERAGE(F22:F25)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="156"/>
-      <c r="F10" s="155">
+      <c r="E10" s="101"/>
+      <c r="F10" s="100">
         <f>F$6/AVERAGE(G22:G25)</f>
         <v>4.073589309413757</v>
       </c>
-      <c r="G10" s="156"/>
-      <c r="H10" s="155">
+      <c r="G10" s="101"/>
+      <c r="H10" s="100">
         <f t="shared" ref="H10" si="84">H$6/AVERAGE(J22:J25)</f>
         <v>88.8</v>
       </c>
-      <c r="I10" s="156"/>
-      <c r="J10" s="155">
+      <c r="I10" s="101"/>
+      <c r="J10" s="100">
         <f t="shared" ref="J10" si="85">J$6/AVERAGE(K22:K25)</f>
         <v>109.14700065919578</v>
       </c>
-      <c r="K10" s="156"/>
-      <c r="L10" s="155">
+      <c r="K10" s="101"/>
+      <c r="L10" s="100">
         <f t="shared" ref="L10" si="86">L$6/AVERAGE(N22:N25)</f>
         <v>1.5</v>
       </c>
-      <c r="M10" s="156"/>
-      <c r="N10" s="155">
+      <c r="M10" s="101"/>
+      <c r="N10" s="100">
         <f t="shared" ref="N10" si="87">N$6/AVERAGE(O22:O25)</f>
         <v>18.755256841094575</v>
       </c>
-      <c r="O10" s="156"/>
-      <c r="P10" s="155">
+      <c r="O10" s="101"/>
+      <c r="P10" s="100">
         <f t="shared" ref="P10" si="88">P$6/AVERAGE(R22:R25)</f>
         <v>1.9534883720930232</v>
       </c>
-      <c r="Q10" s="156"/>
-      <c r="R10" s="155">
+      <c r="Q10" s="101"/>
+      <c r="R10" s="100">
         <f t="shared" ref="R10" si="89">R$6/AVERAGE(S22:S25)</f>
         <v>1.8963126378821304</v>
       </c>
-      <c r="S10" s="156"/>
-      <c r="T10" s="155">
+      <c r="S10" s="101"/>
+      <c r="T10" s="100">
         <f t="shared" ref="T10" si="90">T$6/AVERAGE(V22:V25)</f>
         <v>0</v>
       </c>
-      <c r="U10" s="156"/>
-      <c r="V10" s="155">
+      <c r="U10" s="101"/>
+      <c r="V10" s="100">
         <f t="shared" ref="V10" si="91">V$6/AVERAGE(W22:W25)</f>
         <v>0</v>
       </c>
-      <c r="W10" s="156"/>
-      <c r="X10" s="155">
+      <c r="W10" s="101"/>
+      <c r="X10" s="100">
         <f t="shared" ref="X10" si="92">X$6/AVERAGE(Z25:Z28)</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="156"/>
-      <c r="Z10" s="155">
+      <c r="Y10" s="101"/>
+      <c r="Z10" s="100">
         <f t="shared" ref="Z10" si="93">Z$6/AVERAGE(AA25:AA28)</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="156"/>
+      <c r="AA10" s="101"/>
       <c r="AE10" s="97"/>
       <c r="AF10" s="93"/>
       <c r="AH10" s="3"/>
@@ -2587,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="57">
-        <f t="shared" ref="L13:L21" si="100">L14</f>
+        <f t="shared" ref="L13:L20" si="100">L14</f>
         <v>144</v>
       </c>
       <c r="M13" s="61">
@@ -5290,17 +5287,17 @@
       <c r="AH32" s="15">
         <v>16722</v>
       </c>
-      <c r="AI32" s="21" t="e">
+      <c r="AI32" s="21">
         <f t="shared" si="118"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ32" s="15" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="15">
         <f t="shared" ref="AJ32:AJ33" si="126">IF($AI32=0,0,AF32/$AI32)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK32" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="21">
         <f t="shared" ref="AK32:AK33" si="127">IF($AI32=0,0,AG32/$AI32)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:37">
@@ -5422,20 +5419,20 @@
         <f t="shared" si="117"/>
         <v>26921</v>
       </c>
-      <c r="AH33" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI33" s="21" t="e">
+      <c r="AH33" s="15">
+        <v>16722</v>
+      </c>
+      <c r="AI33" s="21">
         <f t="shared" si="118"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ33" s="15" t="e">
+        <v>27</v>
+      </c>
+      <c r="AJ33" s="15">
         <f t="shared" si="126"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK33" s="21" t="e">
+        <v>1.0740740740740742</v>
+      </c>
+      <c r="AK33" s="21">
         <f t="shared" si="127"/>
-        <v>#VALUE!</v>
+        <v>997.07407407407402</v>
       </c>
     </row>
     <row r="34" spans="2:37">
@@ -7246,18 +7243,93 @@
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="X8:Y8"/>
     <mergeCell ref="Z8:AA8"/>
     <mergeCell ref="D9:E9"/>
@@ -7282,93 +7354,18 @@
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="T8:U8"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
   </mergeCells>
   <conditionalFormatting sqref="AH5:AI5 D5 AB5:AE5 F5:X5 Z5">
     <cfRule type="cellIs" dxfId="5" priority="18" operator="greaterThan">

--- a/mission wz.xlsx
+++ b/mission wz.xlsx
@@ -108,9 +108,6 @@
     <t>Tot partie</t>
   </si>
   <si>
-    <t>Est. Jour kill</t>
-  </si>
-  <si>
     <t>3ier jour</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Est. Normal fin</t>
+  </si>
+  <si>
+    <t>Est. fin kill</t>
   </si>
 </sst>
 </file>
@@ -871,7 +871,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -880,9 +880,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -986,13 +983,7 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1010,28 +1001,13 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1040,79 +1016,16 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="44" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="45" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1124,6 +1037,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="46" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1131,6 +1047,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1187,13 +1106,244 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="44" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="45" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
     <cellStyle name="Satisfaisant" xfId="2" builtinId="26"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1562,10 +1712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AL47"/>
+  <dimension ref="B1:AM47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH33" sqref="AH33"/>
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1580,7 +1730,7 @@
     <col min="8" max="8" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.140625" style="5" bestFit="1" customWidth="1"/>
@@ -1589,70 +1739,70 @@
     <col min="17" max="17" width="7" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" style="5" customWidth="1"/>
-    <col min="21" max="21" width="7" style="5" customWidth="1"/>
-    <col min="22" max="22" width="3.140625" style="5" customWidth="1"/>
-    <col min="23" max="23" width="6" style="5" customWidth="1"/>
-    <col min="24" max="24" width="5.5703125" style="5" customWidth="1"/>
-    <col min="25" max="25" width="7" style="5" customWidth="1"/>
-    <col min="26" max="26" width="3.140625" style="5" customWidth="1"/>
-    <col min="27" max="27" width="6" style="5" customWidth="1"/>
-    <col min="28" max="28" width="4.5703125" style="5" customWidth="1"/>
-    <col min="29" max="29" width="7" style="5" customWidth="1"/>
-    <col min="30" max="30" width="3.140625" style="5" customWidth="1"/>
-    <col min="31" max="31" width="6.7109375" style="5" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" style="5" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="7" style="5" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="3.140625" style="5" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="6" style="5" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="5.5703125" style="5" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="7" style="5" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="3.140625" style="5" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="6" style="5" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5703125" style="5" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="7" style="5" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="3.140625" style="5" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="6.7109375" style="5" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="10" bestFit="1" customWidth="1"/>
     <col min="36" max="37" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:38" ht="15.75" thickBot="1">
-      <c r="D1" s="150" t="s">
+      <c r="D1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="141" t="s">
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="125" t="s">
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="153" t="s">
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="155"/>
-      <c r="T1" s="156" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" s="157"/>
-      <c r="V1" s="157"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="144" t="s">
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="145"/>
-      <c r="AA1" s="146"/>
-      <c r="AB1" s="147" t="s">
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="119"/>
+      <c r="AB1" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="AC1" s="148"/>
-      <c r="AD1" s="148"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="135" t="s">
+      <c r="AC1" s="121"/>
+      <c r="AD1" s="121"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="AG1" s="135"/>
+      <c r="AG1" s="106"/>
       <c r="AJ1" s="1">
         <f ca="1">TODAY()</f>
         <v>42015</v>
@@ -1666,94 +1816,94 @@
       </c>
     </row>
     <row r="2" spans="2:38">
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="98">
+      <c r="D2" s="95">
         <f>(150-D6)/150</f>
         <v>1</v>
       </c>
-      <c r="E2" s="99">
+      <c r="E2" s="96">
         <f>(150000-F6)/150000</f>
-        <v>0.85164666666666666</v>
-      </c>
-      <c r="F2" s="136">
+        <v>0.87859333333333334</v>
+      </c>
+      <c r="F2" s="107">
         <f>AVERAGE(D2:E2)</f>
-        <v>0.92582333333333333</v>
-      </c>
-      <c r="G2" s="137"/>
-      <c r="H2" s="98">
+        <v>0.93929666666666667</v>
+      </c>
+      <c r="G2" s="108"/>
+      <c r="H2" s="95">
         <f>(150-H6)/150</f>
-        <v>0.26</v>
-      </c>
-      <c r="I2" s="99">
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="I2" s="96">
         <f>(150000-J6)/150000</f>
-        <v>0.17212</v>
-      </c>
-      <c r="J2" s="136">
+        <v>0.28356666666666669</v>
+      </c>
+      <c r="J2" s="107">
         <f>AVERAGE(H2:I2)</f>
-        <v>0.21606</v>
-      </c>
-      <c r="K2" s="137"/>
-      <c r="L2" s="98">
+        <v>0.32511666666666666</v>
+      </c>
+      <c r="K2" s="108"/>
+      <c r="L2" s="95">
         <f>(150-L6)/150</f>
-        <v>0.96</v>
-      </c>
-      <c r="M2" s="99">
+        <v>0.98</v>
+      </c>
+      <c r="M2" s="96">
         <f>(150000-N6)/150000</f>
-        <v>0.67444000000000004</v>
-      </c>
-      <c r="N2" s="136">
+        <v>0.72883333333333333</v>
+      </c>
+      <c r="N2" s="107">
         <f>AVERAGE(L2:M2)</f>
-        <v>0.81722000000000006</v>
-      </c>
-      <c r="O2" s="137"/>
-      <c r="P2" s="98">
+        <v>0.8544166666666666</v>
+      </c>
+      <c r="O2" s="108"/>
+      <c r="P2" s="95">
         <f>(150-P6)/150</f>
         <v>0.86</v>
       </c>
-      <c r="Q2" s="99">
+      <c r="Q2" s="96">
         <f>(150000-R6)/150000</f>
         <v>0.87966</v>
       </c>
-      <c r="R2" s="136">
+      <c r="R2" s="107">
         <f>AVERAGE(P2:Q2)</f>
         <v>0.86982999999999999</v>
       </c>
-      <c r="S2" s="137"/>
-      <c r="T2" s="98">
+      <c r="S2" s="108"/>
+      <c r="T2" s="143">
         <f>(150-T6)/150</f>
         <v>1</v>
       </c>
-      <c r="U2" s="99">
+      <c r="U2" s="144">
         <f>(150000-V6)/150000</f>
         <v>1</v>
       </c>
-      <c r="V2" s="136">
+      <c r="V2" s="110">
         <f>AVERAGE(T2:U2)</f>
         <v>1</v>
       </c>
-      <c r="W2" s="137"/>
-      <c r="X2" s="133">
+      <c r="W2" s="111"/>
+      <c r="X2" s="143">
         <f t="shared" ref="X2" si="0">(150-X6)/150</f>
         <v>1</v>
       </c>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="138">
+      <c r="Y2" s="144"/>
+      <c r="Z2" s="110">
         <f t="shared" ref="Z2" si="1">(150000-Z6)/150000</f>
         <v>1</v>
       </c>
-      <c r="AA2" s="139"/>
-      <c r="AB2" s="140">
+      <c r="AA2" s="111"/>
+      <c r="AB2" s="112">
         <f t="shared" ref="AB2" si="2">(150-AB6)/150</f>
         <v>1</v>
       </c>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="128">
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113">
         <f t="shared" ref="AD2" si="3">(150000-AD6)/150000</f>
         <v>1</v>
       </c>
-      <c r="AE2" s="129"/>
+      <c r="AE2" s="135"/>
       <c r="AJ2" s="1">
         <v>41989</v>
       </c>
@@ -1766,86 +1916,86 @@
       </c>
     </row>
     <row r="3" spans="2:38">
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="130">
+      <c r="D3" s="102">
         <f ca="1">IF(D6&lt;0,0,INT(D6/$AL$1))</f>
         <v>0</v>
       </c>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131">
+      <c r="E3" s="103"/>
+      <c r="F3" s="103">
         <f ca="1">IF(F6&lt;0,0,INT(F6/$AL$1))</f>
-        <v>3708</v>
-      </c>
-      <c r="G3" s="132"/>
-      <c r="H3" s="130">
+        <v>3035</v>
+      </c>
+      <c r="G3" s="109"/>
+      <c r="H3" s="102">
         <f t="shared" ref="H3" ca="1" si="4">IF(H6&lt;0,0,INT(H6/$AL$1))</f>
-        <v>18</v>
-      </c>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131">
+        <v>15</v>
+      </c>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103">
         <f t="shared" ref="J3" ca="1" si="5">IF(J6&lt;0,0,INT(J6/$AL$1))</f>
-        <v>20697</v>
-      </c>
-      <c r="K3" s="132"/>
-      <c r="L3" s="130">
+        <v>17910</v>
+      </c>
+      <c r="K3" s="109"/>
+      <c r="L3" s="102">
         <f t="shared" ref="L3" ca="1" si="6">IF(L6&lt;0,0,INT(L6/$AL$1))</f>
-        <v>1</v>
-      </c>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131">
+        <v>0</v>
+      </c>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103">
         <f t="shared" ref="N3" ca="1" si="7">IF(N6&lt;0,0,INT(N6/$AL$1))</f>
-        <v>8139</v>
-      </c>
-      <c r="O3" s="132"/>
-      <c r="P3" s="130">
+        <v>6779</v>
+      </c>
+      <c r="O3" s="109"/>
+      <c r="P3" s="102">
         <f t="shared" ref="P3" ca="1" si="8">IF(P6&lt;0,0,INT(P6/$AL$1))</f>
         <v>3</v>
       </c>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="131">
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103">
         <f t="shared" ref="R3" ca="1" si="9">IF(R6&lt;0,0,INT(R6/$AL$1))</f>
         <v>3008</v>
       </c>
-      <c r="S3" s="132"/>
-      <c r="T3" s="130">
+      <c r="S3" s="109"/>
+      <c r="T3" s="136">
         <f t="shared" ref="T3" ca="1" si="10">IF(T6&lt;0,0,INT(T6/$AL$1))</f>
         <v>0</v>
       </c>
-      <c r="U3" s="131"/>
-      <c r="V3" s="131">
+      <c r="U3" s="137"/>
+      <c r="V3" s="138">
         <f t="shared" ref="V3" ca="1" si="11">IF(V6&lt;0,0,INT(V6/$AL$1))</f>
         <v>0</v>
       </c>
-      <c r="W3" s="132"/>
-      <c r="X3" s="117">
+      <c r="W3" s="139"/>
+      <c r="X3" s="136">
         <f t="shared" ref="X3" ca="1" si="12">IF(X6&lt;0,0,INT(X6/$AL$1))</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="118"/>
-      <c r="Z3" s="119">
+      <c r="Y3" s="137"/>
+      <c r="Z3" s="138">
         <f t="shared" ref="Z3" ca="1" si="13">IF(Z6&lt;0,0,INT(Z6/$AL$1))</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="104">
+      <c r="AA3" s="139"/>
+      <c r="AB3" s="140">
         <f t="shared" ref="AB3" ca="1" si="14">IF(AB6&lt;0,0,INT(AB6/$AL$1))</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="105">
+      <c r="AC3" s="141"/>
+      <c r="AD3" s="141">
         <f t="shared" ref="AD3" ca="1" si="15">IF(AD6&lt;0,0,INT(AD6/$AL$1))</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="106"/>
+      <c r="AE3" s="142"/>
       <c r="AF3" s="4">
         <f ca="1">SUM(D3,P3,T3,L3,H3,X3,AB3)</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AG3" s="4">
         <f ca="1">SUM(F3,R3,V3,N3,J3,Z3,AD3)</f>
-        <v>35552</v>
+        <v>30732</v>
       </c>
       <c r="AJ3" s="1">
         <v>41996</v>
@@ -1859,79 +2009,79 @@
       </c>
     </row>
     <row r="4" spans="2:38">
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="116">
+      <c r="D4" s="104">
         <f>D13-D14</f>
         <v>0</v>
       </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114">
+      <c r="E4" s="98"/>
+      <c r="F4" s="98">
         <f>E13-E14</f>
         <v>0</v>
       </c>
-      <c r="G4" s="115"/>
-      <c r="H4" s="116">
+      <c r="G4" s="99"/>
+      <c r="H4" s="104">
         <f t="shared" ref="H4" si="16">H13-H14</f>
         <v>0</v>
       </c>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114">
+      <c r="I4" s="98"/>
+      <c r="J4" s="98">
         <f t="shared" ref="J4" si="17">I13-I14</f>
         <v>0</v>
       </c>
-      <c r="K4" s="115"/>
-      <c r="L4" s="116">
+      <c r="K4" s="99"/>
+      <c r="L4" s="104">
         <f t="shared" ref="L4" si="18">L13-L14</f>
         <v>0</v>
       </c>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114">
+      <c r="M4" s="98"/>
+      <c r="N4" s="98">
         <f t="shared" ref="N4" si="19">M13-M14</f>
         <v>0</v>
       </c>
-      <c r="O4" s="115"/>
-      <c r="P4" s="116">
+      <c r="O4" s="99"/>
+      <c r="P4" s="104">
         <f t="shared" ref="P4" si="20">P13-P14</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="114">
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98">
         <f t="shared" ref="R4" si="21">Q13-Q14</f>
         <v>0</v>
       </c>
-      <c r="S4" s="115"/>
-      <c r="T4" s="116">
+      <c r="S4" s="99"/>
+      <c r="T4" s="136">
         <f t="shared" ref="T4" si="22">T13-T14</f>
         <v>0</v>
       </c>
-      <c r="U4" s="114"/>
-      <c r="V4" s="114">
+      <c r="U4" s="137"/>
+      <c r="V4" s="138">
         <f t="shared" ref="V4" si="23">U13-U14</f>
         <v>0</v>
       </c>
-      <c r="W4" s="115"/>
-      <c r="X4" s="117">
+      <c r="W4" s="139"/>
+      <c r="X4" s="136">
         <f t="shared" ref="X4" si="24">X13-X14</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="119">
+      <c r="Y4" s="137"/>
+      <c r="Z4" s="138">
         <f t="shared" ref="Z4" si="25">Y13-Y14</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="120"/>
-      <c r="AB4" s="104">
+      <c r="AA4" s="139"/>
+      <c r="AB4" s="140">
         <f t="shared" ref="AB4" si="26">AB13-AB14</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="105"/>
-      <c r="AD4" s="105">
+      <c r="AC4" s="141"/>
+      <c r="AD4" s="141">
         <f t="shared" ref="AD4" si="27">AC13-AC14</f>
         <v>0</v>
       </c>
-      <c r="AE4" s="106"/>
+      <c r="AE4" s="142"/>
       <c r="AF4" s="4">
         <f>SUM(D4,P4,T4,L4,H4,X4,AB4)</f>
         <v>0</v>
@@ -1942,423 +2092,423 @@
       </c>
     </row>
     <row r="5" spans="2:38">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="116">
+      <c r="D5" s="104">
         <f ca="1">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-D6)</f>
         <v>27</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114">
+      <c r="E5" s="98"/>
+      <c r="F5" s="98">
         <f ca="1">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-F6)</f>
-        <v>4218</v>
-      </c>
-      <c r="G5" s="115"/>
-      <c r="H5" s="116">
+        <v>8260</v>
+      </c>
+      <c r="G5" s="99"/>
+      <c r="H5" s="104">
         <f t="shared" ref="H5" ca="1" si="28">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-H6)</f>
-        <v>-84</v>
-      </c>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114">
+        <v>-68</v>
+      </c>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98">
         <f t="shared" ref="J5" ca="1" si="29">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-J6)</f>
-        <v>-97711</v>
-      </c>
-      <c r="K5" s="115"/>
-      <c r="L5" s="116">
+        <v>-80994</v>
+      </c>
+      <c r="K5" s="99"/>
+      <c r="L5" s="104">
         <f t="shared" ref="L5" ca="1" si="30">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-L6)</f>
-        <v>21</v>
-      </c>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114">
+        <v>24</v>
+      </c>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98">
         <f t="shared" ref="N5" ca="1" si="31">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-N6)</f>
-        <v>-22363</v>
-      </c>
-      <c r="O5" s="115"/>
-      <c r="P5" s="116">
+        <v>-14204</v>
+      </c>
+      <c r="O5" s="99"/>
+      <c r="P5" s="104">
         <f t="shared" ref="P5" ca="1" si="32">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-P6)</f>
         <v>6</v>
       </c>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114">
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98">
         <f t="shared" ref="R5" ca="1" si="33">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-R6)</f>
         <v>8420</v>
       </c>
-      <c r="S5" s="115"/>
-      <c r="T5" s="116">
+      <c r="S5" s="99"/>
+      <c r="T5" s="145">
         <f t="shared" ref="T5" ca="1" si="34">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-T6)</f>
         <v>27</v>
       </c>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114">
+      <c r="U5" s="146"/>
+      <c r="V5" s="138">
         <f t="shared" ref="V5" ca="1" si="35">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-V6)</f>
         <v>26471</v>
       </c>
-      <c r="W5" s="115"/>
-      <c r="X5" s="121">
+      <c r="W5" s="139"/>
+      <c r="X5" s="145">
         <f t="shared" ref="X5" ca="1" si="36">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-X6)</f>
         <v>27</v>
       </c>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="119">
+      <c r="Y5" s="146"/>
+      <c r="Z5" s="138">
         <f t="shared" ref="Z5" ca="1" si="37">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-Z6)</f>
         <v>26471</v>
       </c>
-      <c r="AA5" s="120"/>
-      <c r="AB5" s="123">
+      <c r="AA5" s="139"/>
+      <c r="AB5" s="147">
         <f t="shared" ref="AB5" ca="1" si="38">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-AB6)</f>
         <v>27</v>
       </c>
-      <c r="AC5" s="124"/>
-      <c r="AD5" s="105">
+      <c r="AC5" s="148"/>
+      <c r="AD5" s="141">
         <f t="shared" ref="AD5" ca="1" si="39">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-AD6)</f>
         <v>26471</v>
       </c>
-      <c r="AE5" s="106"/>
+      <c r="AE5" s="142"/>
       <c r="AF5" s="4">
         <f ca="1">SUM(D5,P5,T5,L5,H5,X5,AB5)</f>
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AG5" s="4">
         <f ca="1">SUM(F5,R5,V5,N5,J5,Z5,AD5)</f>
-        <v>-28023</v>
+        <v>895</v>
       </c>
       <c r="AH5" s="3">
         <f ca="1">-$AL$3+AH6</f>
-        <v>4.5042016806722707E-2</v>
+        <v>6.3137254901960871E-2</v>
       </c>
       <c r="AI5" s="3">
         <f ca="1">AI6-$AL$3</f>
-        <v>-2.6691316526610609E-2</v>
-      </c>
-      <c r="AJ5" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK5" s="7" t="s">
-        <v>30</v>
+        <v>8.4963585434172373E-4</v>
+      </c>
+      <c r="AJ5" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK5" s="97" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:38">
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="116">
+      <c r="D6" s="104">
         <f>IF(150-D13&lt;0,0,150-D13)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114">
+      <c r="E6" s="98"/>
+      <c r="F6" s="98">
         <f>IF(150000-E13&lt;0,0,150000-E13)</f>
-        <v>22253</v>
-      </c>
-      <c r="G6" s="115"/>
-      <c r="H6" s="116">
+        <v>18211</v>
+      </c>
+      <c r="G6" s="99"/>
+      <c r="H6" s="104">
         <f t="shared" ref="H6" si="40">IF(150-H13&lt;0,0,150-H13)</f>
-        <v>111</v>
-      </c>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114">
+        <v>95</v>
+      </c>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98">
         <f t="shared" ref="J6" si="41">IF(150000-I13&lt;0,0,150000-I13)</f>
-        <v>124182</v>
-      </c>
-      <c r="K6" s="115"/>
-      <c r="L6" s="116">
+        <v>107465</v>
+      </c>
+      <c r="K6" s="99"/>
+      <c r="L6" s="104">
         <f t="shared" ref="L6" si="42">IF(150-L13&lt;0,0,150-L13)</f>
-        <v>6</v>
-      </c>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114">
+        <v>3</v>
+      </c>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98">
         <f t="shared" ref="N6" si="43">IF(150000-M13&lt;0,0,150000-M13)</f>
-        <v>48834</v>
-      </c>
-      <c r="O6" s="115"/>
-      <c r="P6" s="116">
+        <v>40675</v>
+      </c>
+      <c r="O6" s="99"/>
+      <c r="P6" s="104">
         <f t="shared" ref="P6" si="44">IF(150-P13&lt;0,0,150-P13)</f>
         <v>21</v>
       </c>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114">
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98">
         <f t="shared" ref="R6" si="45">IF(150000-Q13&lt;0,0,150000-Q13)</f>
         <v>18051</v>
       </c>
-      <c r="S6" s="115"/>
-      <c r="T6" s="116">
+      <c r="S6" s="99"/>
+      <c r="T6" s="136">
         <f t="shared" ref="T6" si="46">IF(150-T13&lt;0,0,150-T13)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114">
+      <c r="U6" s="137"/>
+      <c r="V6" s="138">
         <f t="shared" ref="V6" si="47">IF(150000-U13&lt;0,0,150000-U13)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="115"/>
-      <c r="X6" s="117">
+      <c r="W6" s="139"/>
+      <c r="X6" s="136">
         <f t="shared" ref="X6" si="48">IF(150-X13&lt;0,0,150-X13)</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="118"/>
-      <c r="Z6" s="119">
+      <c r="Y6" s="137"/>
+      <c r="Z6" s="138">
         <f t="shared" ref="Z6" si="49">IF(150000-Y13&lt;0,0,150000-Y13)</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="120"/>
-      <c r="AB6" s="104">
+      <c r="AA6" s="139"/>
+      <c r="AB6" s="140">
         <f t="shared" ref="AB6" si="50">IF(150-AB13&lt;0,0,150-AB13)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="105"/>
-      <c r="AD6" s="105">
+      <c r="AC6" s="141"/>
+      <c r="AD6" s="141">
         <f t="shared" ref="AD6" si="51">IF(150000-AC13&lt;0,0,150000-AC13)</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="106"/>
+      <c r="AE6" s="142"/>
       <c r="AF6" s="4">
         <f>SUM(D6,P6,T6,L6,H6,X6,AB6)</f>
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="AG6" s="4">
         <f>SUM(F6,R6,V6,N6,J6,Z6,AD6)</f>
-        <v>213320</v>
+        <v>184402</v>
       </c>
       <c r="AH6" s="3">
         <f>(7*150-AF6)/(7*150)</f>
-        <v>0.86857142857142855</v>
+        <v>0.88666666666666671</v>
       </c>
       <c r="AI6" s="3">
         <f>(7*150000-AG6)/(7*150000)</f>
-        <v>0.79683809523809523</v>
-      </c>
-      <c r="AJ6" s="90">
-        <f>AF6/35</f>
-        <v>3.9428571428571431</v>
-      </c>
-      <c r="AK6" s="90">
-        <f>AG6/35000</f>
-        <v>6.0948571428571432</v>
+        <v>0.82437904761904757</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f ca="1">AJ1+AF6/35</f>
+        <v>42018.400000000001</v>
+      </c>
+      <c r="AK6" s="1">
+        <f ca="1">AJ1+AG6/35000</f>
+        <v>42020.26862857143</v>
       </c>
     </row>
     <row r="7" spans="2:38" ht="15.75" thickBot="1">
-      <c r="C7" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="107">
+      <c r="C7" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="105">
         <f>D6/5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108">
+      <c r="E7" s="100"/>
+      <c r="F7" s="100">
         <f>F6/5000</f>
-        <v>4.4505999999999997</v>
-      </c>
-      <c r="G7" s="109"/>
-      <c r="H7" s="107">
+        <v>3.6421999999999999</v>
+      </c>
+      <c r="G7" s="101"/>
+      <c r="H7" s="105">
         <f t="shared" ref="H7" si="52">H6/5</f>
-        <v>22.2</v>
-      </c>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108">
+        <v>19</v>
+      </c>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100">
         <f t="shared" ref="J7" si="53">J6/5000</f>
-        <v>24.836400000000001</v>
-      </c>
-      <c r="K7" s="109"/>
-      <c r="L7" s="107">
+        <v>21.492999999999999</v>
+      </c>
+      <c r="K7" s="101"/>
+      <c r="L7" s="105">
         <f t="shared" ref="L7" si="54">L6/5</f>
-        <v>1.2</v>
-      </c>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108">
+        <v>0.6</v>
+      </c>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100">
         <f t="shared" ref="N7" si="55">N6/5000</f>
-        <v>9.7667999999999999</v>
-      </c>
-      <c r="O7" s="109"/>
-      <c r="P7" s="107">
+        <v>8.1349999999999998</v>
+      </c>
+      <c r="O7" s="101"/>
+      <c r="P7" s="105">
         <f t="shared" ref="P7" si="56">P6/5</f>
         <v>4.2</v>
       </c>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108">
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100">
         <f t="shared" ref="R7" si="57">R6/5000</f>
         <v>3.6101999999999999</v>
       </c>
-      <c r="S7" s="109"/>
-      <c r="T7" s="107">
+      <c r="S7" s="101"/>
+      <c r="T7" s="149">
         <f t="shared" ref="T7" si="58">T6/5</f>
         <v>0</v>
       </c>
-      <c r="U7" s="108"/>
-      <c r="V7" s="108">
+      <c r="U7" s="150"/>
+      <c r="V7" s="151">
         <f t="shared" ref="V7" si="59">V6/5000</f>
         <v>0</v>
       </c>
-      <c r="W7" s="109"/>
-      <c r="X7" s="110">
+      <c r="W7" s="152"/>
+      <c r="X7" s="149">
         <f t="shared" ref="X7" si="60">X6/5</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="111"/>
-      <c r="Z7" s="112">
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="151">
         <f t="shared" ref="Z7" si="61">Z6/5000</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="113"/>
-      <c r="AB7" s="107">
+      <c r="AA7" s="152"/>
+      <c r="AB7" s="105">
         <f t="shared" ref="AB7" si="62">AB6/5</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="108"/>
-      <c r="AD7" s="108">
+      <c r="AC7" s="100"/>
+      <c r="AD7" s="100">
         <f t="shared" ref="AD7" si="63">AD6/5000</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="109"/>
+      <c r="AE7" s="101"/>
       <c r="AF7" s="4">
         <f>150*7-AF6</f>
-        <v>912</v>
+        <v>931</v>
       </c>
       <c r="AG7" s="4">
         <f>150000*7-AG6</f>
-        <v>836680</v>
+        <v>865598</v>
       </c>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
     </row>
     <row r="8" spans="2:38" ht="15.75" thickBot="1">
-      <c r="C8" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="102">
-        <v>0</v>
-      </c>
-      <c r="E8" s="103"/>
-      <c r="F8" s="100">
+      <c r="C8" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="155">
+        <v>0</v>
+      </c>
+      <c r="E8" s="156"/>
+      <c r="F8" s="153">
         <f>F$6/AVERAGE(G22:G23)</f>
-        <v>2.5368217054263567</v>
-      </c>
-      <c r="G8" s="101"/>
-      <c r="H8" s="102">
+        <v>2.0760373917008663</v>
+      </c>
+      <c r="G8" s="154"/>
+      <c r="H8" s="155">
         <f t="shared" ref="H8" si="64">H$6/AVERAGE(J22:J23)</f>
-        <v>111</v>
-      </c>
-      <c r="I8" s="103"/>
-      <c r="J8" s="100">
+        <v>95</v>
+      </c>
+      <c r="I8" s="156"/>
+      <c r="J8" s="153">
         <f t="shared" ref="J8" si="65">J$6/AVERAGE(K22:K23)</f>
-        <v>89.051272857655078</v>
-      </c>
-      <c r="K8" s="101"/>
-      <c r="L8" s="102">
+        <v>77.063463607027614</v>
+      </c>
+      <c r="K8" s="154"/>
+      <c r="L8" s="155">
         <f t="shared" ref="L8" si="66">L$6/AVERAGE(N22:N23)</f>
-        <v>0.8</v>
-      </c>
-      <c r="M8" s="103"/>
-      <c r="N8" s="100">
+        <v>0.4</v>
+      </c>
+      <c r="M8" s="156"/>
+      <c r="N8" s="153">
         <f t="shared" ref="N8" si="67">N$6/AVERAGE(O22:O23)</f>
-        <v>12.378707224334601</v>
-      </c>
-      <c r="O8" s="101"/>
-      <c r="P8" s="102">
+        <v>10.310519645120406</v>
+      </c>
+      <c r="O8" s="154"/>
+      <c r="P8" s="155">
         <f t="shared" ref="P8" si="68">P$6/AVERAGE(R22:R23)</f>
         <v>1.05</v>
       </c>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="100">
+      <c r="Q8" s="156"/>
+      <c r="R8" s="153">
         <f t="shared" ref="R8" si="69">R$6/AVERAGE(S22:S23)</f>
         <v>1.0288108061896213</v>
       </c>
-      <c r="S8" s="101"/>
-      <c r="T8" s="102">
+      <c r="S8" s="154"/>
+      <c r="T8" s="155">
         <f t="shared" ref="T8" si="70">T$6/AVERAGE(V22:V23)</f>
         <v>0</v>
       </c>
-      <c r="U8" s="103"/>
-      <c r="V8" s="100">
+      <c r="U8" s="156"/>
+      <c r="V8" s="153">
         <f t="shared" ref="V8" si="71">V$6/AVERAGE(W22:W23)</f>
         <v>0</v>
       </c>
-      <c r="W8" s="101"/>
-      <c r="X8" s="100">
+      <c r="W8" s="154"/>
+      <c r="X8" s="153">
         <f t="shared" ref="X8" si="72">X$6/AVERAGE(Z25:Z26)</f>
         <v>0</v>
       </c>
-      <c r="Y8" s="101"/>
-      <c r="Z8" s="100">
+      <c r="Y8" s="154"/>
+      <c r="Z8" s="153">
         <f t="shared" ref="Z8" si="73">Z$6/AVERAGE(AA25:AA26)</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="101"/>
-      <c r="AB8" s="94"/>
-      <c r="AC8" s="94"/>
-      <c r="AD8" s="94"/>
-      <c r="AE8" s="95"/>
-      <c r="AF8" s="93"/>
-      <c r="AG8" s="93"/>
+      <c r="AA8" s="154"/>
+      <c r="AB8" s="91"/>
+      <c r="AC8" s="91"/>
+      <c r="AD8" s="91"/>
+      <c r="AE8" s="92"/>
+      <c r="AF8" s="90"/>
+      <c r="AG8" s="90"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
     </row>
     <row r="9" spans="2:38" ht="15.75" thickBot="1">
-      <c r="C9" s="96" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="100">
+      <c r="C9" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="153">
         <f>D$6/AVERAGE(F22:F24)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="101"/>
-      <c r="F9" s="100">
+      <c r="E9" s="154"/>
+      <c r="F9" s="153">
         <f>F$6/AVERAGE(G22:G24)</f>
-        <v>3.0551919820603173</v>
-      </c>
-      <c r="G9" s="101"/>
-      <c r="H9" s="100">
+        <v>2.5002517047274724</v>
+      </c>
+      <c r="G9" s="154"/>
+      <c r="H9" s="153">
         <f t="shared" ref="H9" si="74">H$6/AVERAGE(J22:J24)</f>
-        <v>66.599999999999994</v>
-      </c>
-      <c r="I9" s="101"/>
-      <c r="J9" s="100">
+        <v>57</v>
+      </c>
+      <c r="I9" s="154"/>
+      <c r="J9" s="153">
         <f t="shared" ref="J9" si="75">J$6/AVERAGE(K22:K24)</f>
-        <v>81.860250494396837</v>
-      </c>
-      <c r="K9" s="101"/>
-      <c r="L9" s="100">
+        <v>70.840474620962425</v>
+      </c>
+      <c r="K9" s="154"/>
+      <c r="L9" s="153">
         <f t="shared" ref="L9" si="76">L$6/AVERAGE(N22:N24)</f>
-        <v>1.125</v>
-      </c>
-      <c r="M9" s="101"/>
-      <c r="N9" s="100">
+        <v>0.5625</v>
+      </c>
+      <c r="M9" s="154"/>
+      <c r="N9" s="153">
         <f t="shared" ref="N9" si="77">N$6/AVERAGE(O22:O24)</f>
-        <v>14.066442630820932</v>
-      </c>
-      <c r="O9" s="101"/>
-      <c r="P9" s="100">
+        <v>11.716274603936631</v>
+      </c>
+      <c r="O9" s="154"/>
+      <c r="P9" s="153">
         <f t="shared" ref="P9" si="78">P$6/AVERAGE(R22:R24)</f>
         <v>1.4651162790697674</v>
       </c>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="100">
+      <c r="Q9" s="154"/>
+      <c r="R9" s="153">
         <f t="shared" ref="R9" si="79">R$6/AVERAGE(S22:S24)</f>
         <v>1.4222344784115979</v>
       </c>
-      <c r="S9" s="101"/>
-      <c r="T9" s="100">
+      <c r="S9" s="154"/>
+      <c r="T9" s="153">
         <f t="shared" ref="T9" si="80">T$6/AVERAGE(V22:V24)</f>
         <v>0</v>
       </c>
-      <c r="U9" s="101"/>
-      <c r="V9" s="100">
+      <c r="U9" s="154"/>
+      <c r="V9" s="153">
         <f t="shared" ref="V9" si="81">V$6/AVERAGE(W22:W24)</f>
         <v>0</v>
       </c>
-      <c r="W9" s="101"/>
-      <c r="X9" s="100">
+      <c r="W9" s="154"/>
+      <c r="X9" s="153">
         <f t="shared" ref="X9" si="82">X$6/AVERAGE(Z25:Z27)</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="101"/>
-      <c r="Z9" s="100">
+      <c r="Y9" s="154"/>
+      <c r="Z9" s="153">
         <f t="shared" ref="Z9" si="83">Z$6/AVERAGE(AA25:AA27)</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="101"/>
-      <c r="AE9" s="25" t="s">
+      <c r="AA9" s="154"/>
+      <c r="AE9" s="24" t="s">
         <v>13</v>
       </c>
       <c r="AF9" s="6"/>
@@ -2366,71 +2516,71 @@
       <c r="AI9" s="3"/>
     </row>
     <row r="10" spans="2:38" ht="15.75" thickBot="1">
-      <c r="C10" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="100">
+      <c r="C10" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="153">
         <f>D$6/AVERAGE(F22:F25)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="101"/>
-      <c r="F10" s="100">
+      <c r="E10" s="154"/>
+      <c r="F10" s="153">
         <f>F$6/AVERAGE(G22:G25)</f>
-        <v>4.073589309413757</v>
-      </c>
-      <c r="G10" s="101"/>
-      <c r="H10" s="100">
+        <v>3.3336689396366297</v>
+      </c>
+      <c r="G10" s="154"/>
+      <c r="H10" s="153">
         <f t="shared" ref="H10" si="84">H$6/AVERAGE(J22:J25)</f>
-        <v>88.8</v>
-      </c>
-      <c r="I10" s="101"/>
-      <c r="J10" s="100">
+        <v>76</v>
+      </c>
+      <c r="I10" s="154"/>
+      <c r="J10" s="153">
         <f t="shared" ref="J10" si="85">J$6/AVERAGE(K22:K25)</f>
-        <v>109.14700065919578</v>
-      </c>
-      <c r="K10" s="101"/>
-      <c r="L10" s="100">
+        <v>94.453966161283233</v>
+      </c>
+      <c r="K10" s="154"/>
+      <c r="L10" s="153">
         <f t="shared" ref="L10" si="86">L$6/AVERAGE(N22:N25)</f>
-        <v>1.5</v>
-      </c>
-      <c r="M10" s="101"/>
-      <c r="N10" s="100">
+        <v>0.75</v>
+      </c>
+      <c r="M10" s="154"/>
+      <c r="N10" s="153">
         <f t="shared" ref="N10" si="87">N$6/AVERAGE(O22:O25)</f>
-        <v>18.755256841094575</v>
-      </c>
-      <c r="O10" s="101"/>
-      <c r="P10" s="100">
+        <v>15.621699471915507</v>
+      </c>
+      <c r="O10" s="154"/>
+      <c r="P10" s="153">
         <f t="shared" ref="P10" si="88">P$6/AVERAGE(R22:R25)</f>
         <v>1.9534883720930232</v>
       </c>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="100">
+      <c r="Q10" s="154"/>
+      <c r="R10" s="153">
         <f t="shared" ref="R10" si="89">R$6/AVERAGE(S22:S25)</f>
         <v>1.8963126378821304</v>
       </c>
-      <c r="S10" s="101"/>
-      <c r="T10" s="100">
+      <c r="S10" s="154"/>
+      <c r="T10" s="153">
         <f t="shared" ref="T10" si="90">T$6/AVERAGE(V22:V25)</f>
         <v>0</v>
       </c>
-      <c r="U10" s="101"/>
-      <c r="V10" s="100">
+      <c r="U10" s="154"/>
+      <c r="V10" s="153">
         <f t="shared" ref="V10" si="91">V$6/AVERAGE(W22:W25)</f>
         <v>0</v>
       </c>
-      <c r="W10" s="101"/>
-      <c r="X10" s="100">
+      <c r="W10" s="154"/>
+      <c r="X10" s="153">
         <f t="shared" ref="X10" si="92">X$6/AVERAGE(Z25:Z28)</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="101"/>
-      <c r="Z10" s="100">
+      <c r="Y10" s="154"/>
+      <c r="Z10" s="153">
         <f t="shared" ref="Z10" si="93">Z$6/AVERAGE(AA25:AA28)</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="101"/>
-      <c r="AE10" s="97"/>
-      <c r="AF10" s="93"/>
+      <c r="AA10" s="154"/>
+      <c r="AE10" s="94"/>
+      <c r="AF10" s="90"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
     </row>
@@ -2439,4810 +2589,5018 @@
       <c r="AI11" s="3"/>
     </row>
     <row r="12" spans="2:38" ht="15.75" thickBot="1">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="52" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="72" t="s">
+      <c r="I12" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="70" t="s">
+      <c r="J12" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="74" t="s">
+      <c r="K12" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="56" t="s">
+      <c r="L12" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="60" t="s">
+      <c r="M12" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="58" t="s">
+      <c r="N12" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="62" t="s">
+      <c r="O12" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="P12" s="34" t="s">
+      <c r="P12" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="Q12" s="48" t="s">
+      <c r="Q12" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="R12" s="36" t="s">
+      <c r="R12" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="S12" s="50" t="s">
+      <c r="S12" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="T12" s="38" t="s">
+      <c r="T12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="U12" s="42" t="s">
+      <c r="U12" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="V12" s="40" t="s">
+      <c r="V12" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="W12" s="44" t="s">
+      <c r="W12" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="X12" s="64" t="s">
+      <c r="X12" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="Y12" s="46" t="s">
+      <c r="Y12" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="Z12" s="60" t="s">
+      <c r="Z12" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="AA12" s="66" t="s">
+      <c r="AA12" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="AB12" s="76" t="s">
+      <c r="AB12" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="AC12" s="82" t="s">
+      <c r="AC12" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AD12" s="79" t="s">
+      <c r="AD12" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="AE12" s="85" t="s">
+      <c r="AE12" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="AF12" s="11" t="s">
+      <c r="AF12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AG12" s="17" t="s">
+      <c r="AG12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AH12" s="14" t="s">
+      <c r="AH12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AI12" s="20" t="s">
+      <c r="AI12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="23" t="s">
+      <c r="AJ12" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AK12" s="24" t="s">
+      <c r="AK12" s="23" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:38" ht="15" hidden="1" customHeight="1">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="28">
         <v>42023</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="52">
         <f t="shared" ref="D13:E25" si="94">D14</f>
         <v>150</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="31">
         <f t="shared" si="94"/>
-        <v>127747</v>
-      </c>
-      <c r="F13" s="55">
+        <v>131789</v>
+      </c>
+      <c r="F13" s="54">
         <f t="shared" ref="F13:F41" si="95">D13-D14</f>
         <v>0</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="32">
         <f t="shared" ref="G13:G41" si="96">E13-E14</f>
         <v>0</v>
       </c>
-      <c r="H13" s="69">
+      <c r="H13" s="68">
         <f t="shared" ref="H13:AC34" si="97">H14</f>
-        <v>39</v>
-      </c>
-      <c r="I13" s="73">
-        <f t="shared" si="97"/>
-        <v>25818</v>
-      </c>
-      <c r="J13" s="71">
+        <v>55</v>
+      </c>
+      <c r="I13" s="72">
+        <f t="shared" si="97"/>
+        <v>42535</v>
+      </c>
+      <c r="J13" s="70">
         <f t="shared" ref="J13:J41" si="98">H13-H14</f>
         <v>0</v>
       </c>
-      <c r="K13" s="75">
+      <c r="K13" s="74">
         <f t="shared" ref="K13:K41" si="99">I13-I14</f>
         <v>0</v>
       </c>
-      <c r="L13" s="57">
+      <c r="L13" s="56">
         <f t="shared" ref="L13:L20" si="100">L14</f>
-        <v>144</v>
-      </c>
-      <c r="M13" s="61">
+        <v>147</v>
+      </c>
+      <c r="M13" s="60">
         <f t="shared" ref="M13:M20" si="101">M14</f>
-        <v>101166</v>
-      </c>
-      <c r="N13" s="59">
+        <v>109325</v>
+      </c>
+      <c r="N13" s="58">
         <f t="shared" ref="N13:N41" si="102">L13-L14</f>
         <v>0</v>
       </c>
-      <c r="O13" s="63">
+      <c r="O13" s="62">
         <f t="shared" ref="O13:O41" si="103">M13-M14</f>
         <v>0</v>
       </c>
-      <c r="P13" s="35">
+      <c r="P13" s="34">
         <f t="shared" ref="P13:P20" si="104">P14</f>
         <v>129</v>
       </c>
-      <c r="Q13" s="49">
+      <c r="Q13" s="48">
         <f t="shared" ref="Q13:Q20" si="105">Q14</f>
         <v>131949</v>
       </c>
-      <c r="R13" s="37">
+      <c r="R13" s="36">
         <f t="shared" ref="R13:R41" si="106">P13-P14</f>
         <v>0</v>
       </c>
-      <c r="S13" s="51">
+      <c r="S13" s="50">
         <f t="shared" ref="S13:S41" si="107">Q13-Q14</f>
         <v>0</v>
       </c>
-      <c r="T13" s="39">
+      <c r="T13" s="38">
         <f t="shared" ref="T13:T20" si="108">T14</f>
         <v>150</v>
       </c>
-      <c r="U13" s="91">
+      <c r="U13" s="89">
         <f t="shared" ref="U13:U21" si="109">U14</f>
         <v>150000</v>
       </c>
-      <c r="V13" s="41">
+      <c r="V13" s="40">
         <f t="shared" ref="V13:V41" si="110">T13-T14</f>
         <v>0</v>
       </c>
-      <c r="W13" s="45">
+      <c r="W13" s="44">
         <f t="shared" ref="W13:W41" si="111">U13-U14</f>
         <v>0</v>
       </c>
-      <c r="X13" s="65">
+      <c r="X13" s="64">
         <f t="shared" si="97"/>
         <v>150</v>
       </c>
-      <c r="Y13" s="47">
+      <c r="Y13" s="46">
         <f t="shared" si="97"/>
         <v>150000</v>
       </c>
-      <c r="Z13" s="61">
+      <c r="Z13" s="60">
         <f t="shared" ref="Z13:Z41" si="112">X13-X14</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="67">
+      <c r="AA13" s="66">
         <f t="shared" ref="AA13:AA41" si="113">Y13-Y14</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="77">
+      <c r="AB13" s="76">
         <f t="shared" si="97"/>
         <v>150</v>
       </c>
-      <c r="AC13" s="83">
+      <c r="AC13" s="82">
         <f t="shared" si="97"/>
         <v>150000</v>
       </c>
-      <c r="AD13" s="80">
+      <c r="AD13" s="79">
         <f t="shared" ref="AD13:AD41" si="114">AB13-AB14</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="86">
+      <c r="AE13" s="85">
         <f t="shared" ref="AE13:AE41" si="115">AC13-AC14</f>
         <v>0</v>
       </c>
-      <c r="AF13" s="12">
+      <c r="AF13" s="11">
         <f t="shared" ref="AF13:AF47" si="116">SUM(D13,P13,T13,L13,H13,X13,AB13)-SUM(D14,P14,T14,L14,H14,X14,AB14)</f>
         <v>0</v>
       </c>
-      <c r="AG13" s="18">
+      <c r="AG13" s="17">
         <f t="shared" ref="AG13:AG47" si="117">SUM(E13,Q13,U13,M13,I13,Y13,AC13)-SUM(E14,Q14,U14,M14,I14,Y14,AC14)</f>
         <v>0</v>
       </c>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="21">
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="20">
         <f t="shared" ref="AI13:AI36" si="118">AH13-AH14</f>
         <v>0</v>
       </c>
-      <c r="AJ13" s="15">
+      <c r="AJ13" s="14">
         <f t="shared" ref="AJ13:AJ30" si="119">IF($AI13=0,0,AF13/$AI13)</f>
         <v>0</v>
       </c>
-      <c r="AK13" s="21">
+      <c r="AK13" s="20">
         <f t="shared" ref="AK13:AK30" si="120">IF($AI13=0,0,AG13/$AI13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:38" ht="15" hidden="1" customHeight="1">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="26">
         <v>42022</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="52">
         <f t="shared" si="94"/>
         <v>150</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="31">
         <f t="shared" si="94"/>
-        <v>127747</v>
-      </c>
-      <c r="F14" s="55">
+        <v>131789</v>
+      </c>
+      <c r="F14" s="54">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="32">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="H14" s="69">
-        <f t="shared" si="97"/>
-        <v>39</v>
-      </c>
-      <c r="I14" s="73">
-        <f t="shared" si="97"/>
-        <v>25818</v>
-      </c>
-      <c r="J14" s="71">
+      <c r="H14" s="68">
+        <f t="shared" si="97"/>
+        <v>55</v>
+      </c>
+      <c r="I14" s="72">
+        <f t="shared" si="97"/>
+        <v>42535</v>
+      </c>
+      <c r="J14" s="70">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K14" s="75">
+      <c r="K14" s="74">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="L14" s="57">
+      <c r="L14" s="56">
         <f t="shared" si="100"/>
-        <v>144</v>
-      </c>
-      <c r="M14" s="61">
+        <v>147</v>
+      </c>
+      <c r="M14" s="60">
         <f t="shared" si="101"/>
-        <v>101166</v>
-      </c>
-      <c r="N14" s="59">
+        <v>109325</v>
+      </c>
+      <c r="N14" s="58">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="O14" s="63">
+      <c r="O14" s="62">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="P14" s="35">
+      <c r="P14" s="34">
         <f t="shared" si="104"/>
         <v>129</v>
       </c>
-      <c r="Q14" s="49">
+      <c r="Q14" s="48">
         <f t="shared" si="105"/>
         <v>131949</v>
       </c>
-      <c r="R14" s="37">
+      <c r="R14" s="36">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="S14" s="51">
+      <c r="S14" s="50">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="T14" s="39">
+      <c r="T14" s="38">
         <f t="shared" si="108"/>
         <v>150</v>
       </c>
-      <c r="U14" s="91">
+      <c r="U14" s="89">
         <f t="shared" si="109"/>
         <v>150000</v>
       </c>
-      <c r="V14" s="41">
+      <c r="V14" s="40">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="W14" s="45">
+      <c r="W14" s="44">
         <f t="shared" si="111"/>
         <v>0</v>
       </c>
-      <c r="X14" s="65">
+      <c r="X14" s="64">
         <f t="shared" si="97"/>
         <v>150</v>
       </c>
-      <c r="Y14" s="47">
+      <c r="Y14" s="46">
         <f t="shared" si="97"/>
         <v>150000</v>
       </c>
-      <c r="Z14" s="61">
+      <c r="Z14" s="60">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="67">
+      <c r="AA14" s="66">
         <f t="shared" si="113"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="77">
+      <c r="AB14" s="76">
         <f t="shared" si="97"/>
         <v>150</v>
       </c>
-      <c r="AC14" s="83">
+      <c r="AC14" s="82">
         <f t="shared" si="97"/>
         <v>150000</v>
       </c>
-      <c r="AD14" s="80">
+      <c r="AD14" s="79">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="AE14" s="86">
+      <c r="AE14" s="85">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="12">
+      <c r="AF14" s="11">
         <f t="shared" si="116"/>
         <v>0</v>
       </c>
-      <c r="AG14" s="18">
+      <c r="AG14" s="17">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="21">
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="20">
         <f t="shared" si="118"/>
         <v>0</v>
       </c>
-      <c r="AJ14" s="15">
+      <c r="AJ14" s="14">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="AK14" s="21">
+      <c r="AK14" s="20">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:38" ht="15" hidden="1" customHeight="1">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="26">
         <v>42021</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="52">
         <f t="shared" si="94"/>
         <v>150</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="31">
         <f t="shared" si="94"/>
-        <v>127747</v>
-      </c>
-      <c r="F15" s="55">
+        <v>131789</v>
+      </c>
+      <c r="F15" s="54">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="32">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="H15" s="69">
-        <f t="shared" si="97"/>
-        <v>39</v>
-      </c>
-      <c r="I15" s="73">
-        <f t="shared" si="97"/>
-        <v>25818</v>
-      </c>
-      <c r="J15" s="71">
+      <c r="H15" s="68">
+        <f t="shared" si="97"/>
+        <v>55</v>
+      </c>
+      <c r="I15" s="72">
+        <f t="shared" si="97"/>
+        <v>42535</v>
+      </c>
+      <c r="J15" s="70">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K15" s="75">
+      <c r="K15" s="74">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="L15" s="57">
+      <c r="L15" s="56">
         <f t="shared" si="100"/>
-        <v>144</v>
-      </c>
-      <c r="M15" s="61">
+        <v>147</v>
+      </c>
+      <c r="M15" s="60">
         <f t="shared" si="101"/>
-        <v>101166</v>
-      </c>
-      <c r="N15" s="59">
+        <v>109325</v>
+      </c>
+      <c r="N15" s="58">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="O15" s="63">
+      <c r="O15" s="62">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="P15" s="35">
+      <c r="P15" s="34">
         <f t="shared" si="104"/>
         <v>129</v>
       </c>
-      <c r="Q15" s="49">
+      <c r="Q15" s="48">
         <f t="shared" si="105"/>
         <v>131949</v>
       </c>
-      <c r="R15" s="37">
+      <c r="R15" s="36">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="S15" s="51">
+      <c r="S15" s="50">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="T15" s="39">
+      <c r="T15" s="38">
         <f t="shared" si="108"/>
         <v>150</v>
       </c>
-      <c r="U15" s="91">
+      <c r="U15" s="89">
         <f t="shared" si="109"/>
         <v>150000</v>
       </c>
-      <c r="V15" s="41">
+      <c r="V15" s="40">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="W15" s="45">
+      <c r="W15" s="44">
         <f t="shared" si="111"/>
         <v>0</v>
       </c>
-      <c r="X15" s="65">
+      <c r="X15" s="64">
         <f t="shared" si="97"/>
         <v>150</v>
       </c>
-      <c r="Y15" s="47">
+      <c r="Y15" s="46">
         <f t="shared" si="97"/>
         <v>150000</v>
       </c>
-      <c r="Z15" s="61">
+      <c r="Z15" s="60">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="67">
+      <c r="AA15" s="66">
         <f t="shared" si="113"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="77">
+      <c r="AB15" s="76">
         <f t="shared" si="97"/>
         <v>150</v>
       </c>
-      <c r="AC15" s="83">
+      <c r="AC15" s="82">
         <f t="shared" si="97"/>
         <v>150000</v>
       </c>
-      <c r="AD15" s="80">
+      <c r="AD15" s="79">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="86">
+      <c r="AE15" s="85">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="12">
+      <c r="AF15" s="11">
         <f t="shared" si="116"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="18">
+      <c r="AG15" s="17">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AH15" s="15"/>
-      <c r="AI15" s="21">
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="20">
         <f t="shared" si="118"/>
         <v>0</v>
       </c>
-      <c r="AJ15" s="15">
+      <c r="AJ15" s="14">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="AK15" s="21">
+      <c r="AK15" s="20">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:38" ht="15" hidden="1" customHeight="1">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="26">
         <v>42020</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="52">
         <f t="shared" si="94"/>
         <v>150</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="31">
         <f t="shared" si="94"/>
-        <v>127747</v>
-      </c>
-      <c r="F16" s="55">
+        <v>131789</v>
+      </c>
+      <c r="F16" s="54">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="32">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="H16" s="69">
-        <f t="shared" si="97"/>
-        <v>39</v>
-      </c>
-      <c r="I16" s="73">
-        <f t="shared" si="97"/>
-        <v>25818</v>
-      </c>
-      <c r="J16" s="71">
+      <c r="H16" s="68">
+        <f t="shared" si="97"/>
+        <v>55</v>
+      </c>
+      <c r="I16" s="72">
+        <f t="shared" si="97"/>
+        <v>42535</v>
+      </c>
+      <c r="J16" s="70">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K16" s="75">
+      <c r="K16" s="74">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="L16" s="57">
+      <c r="L16" s="56">
         <f t="shared" si="100"/>
-        <v>144</v>
-      </c>
-      <c r="M16" s="61">
+        <v>147</v>
+      </c>
+      <c r="M16" s="60">
         <f t="shared" si="101"/>
-        <v>101166</v>
-      </c>
-      <c r="N16" s="59">
+        <v>109325</v>
+      </c>
+      <c r="N16" s="58">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="O16" s="63">
+      <c r="O16" s="62">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="P16" s="35">
+      <c r="P16" s="34">
         <f t="shared" si="104"/>
         <v>129</v>
       </c>
-      <c r="Q16" s="49">
+      <c r="Q16" s="48">
         <f t="shared" si="105"/>
         <v>131949</v>
       </c>
-      <c r="R16" s="37">
+      <c r="R16" s="36">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="S16" s="51">
+      <c r="S16" s="50">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="T16" s="39">
+      <c r="T16" s="38">
         <f t="shared" si="108"/>
         <v>150</v>
       </c>
-      <c r="U16" s="91">
+      <c r="U16" s="89">
         <f t="shared" si="109"/>
         <v>150000</v>
       </c>
-      <c r="V16" s="41">
+      <c r="V16" s="40">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="W16" s="45">
+      <c r="W16" s="44">
         <f t="shared" si="111"/>
         <v>0</v>
       </c>
-      <c r="X16" s="65">
+      <c r="X16" s="64">
         <f t="shared" si="97"/>
         <v>150</v>
       </c>
-      <c r="Y16" s="47">
+      <c r="Y16" s="46">
         <f t="shared" si="97"/>
         <v>150000</v>
       </c>
-      <c r="Z16" s="61">
+      <c r="Z16" s="60">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="67">
+      <c r="AA16" s="66">
         <f t="shared" si="113"/>
         <v>0</v>
       </c>
-      <c r="AB16" s="77">
+      <c r="AB16" s="76">
         <f t="shared" si="97"/>
         <v>150</v>
       </c>
-      <c r="AC16" s="83">
+      <c r="AC16" s="82">
         <f t="shared" si="97"/>
         <v>150000</v>
       </c>
-      <c r="AD16" s="80">
+      <c r="AD16" s="79">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="86">
+      <c r="AE16" s="85">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="AF16" s="12">
+      <c r="AF16" s="11">
         <f t="shared" si="116"/>
         <v>0</v>
       </c>
-      <c r="AG16" s="18">
+      <c r="AG16" s="17">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AH16" s="15"/>
-      <c r="AI16" s="21">
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="20">
         <f t="shared" si="118"/>
         <v>0</v>
       </c>
-      <c r="AJ16" s="15">
+      <c r="AJ16" s="14">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="AK16" s="21">
+      <c r="AK16" s="20">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:37" ht="15" hidden="1" customHeight="1">
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="2:39" ht="15" hidden="1" customHeight="1">
+      <c r="B17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="26">
         <v>42019</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="52">
         <f t="shared" si="94"/>
         <v>150</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="31">
         <f t="shared" si="94"/>
-        <v>127747</v>
-      </c>
-      <c r="F17" s="55">
+        <v>131789</v>
+      </c>
+      <c r="F17" s="54">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="32">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="H17" s="69">
-        <f t="shared" si="97"/>
-        <v>39</v>
-      </c>
-      <c r="I17" s="73">
-        <f t="shared" si="97"/>
-        <v>25818</v>
-      </c>
-      <c r="J17" s="71">
+      <c r="H17" s="68">
+        <f t="shared" si="97"/>
+        <v>55</v>
+      </c>
+      <c r="I17" s="72">
+        <f t="shared" si="97"/>
+        <v>42535</v>
+      </c>
+      <c r="J17" s="70">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K17" s="75">
+      <c r="K17" s="74">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="L17" s="57">
+      <c r="L17" s="56">
         <f t="shared" si="100"/>
-        <v>144</v>
-      </c>
-      <c r="M17" s="61">
+        <v>147</v>
+      </c>
+      <c r="M17" s="60">
         <f t="shared" si="101"/>
-        <v>101166</v>
-      </c>
-      <c r="N17" s="59">
+        <v>109325</v>
+      </c>
+      <c r="N17" s="58">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="O17" s="63">
+      <c r="O17" s="62">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="P17" s="35">
+      <c r="P17" s="34">
         <f t="shared" si="104"/>
         <v>129</v>
       </c>
-      <c r="Q17" s="49">
+      <c r="Q17" s="48">
         <f t="shared" si="105"/>
         <v>131949</v>
       </c>
-      <c r="R17" s="37">
+      <c r="R17" s="36">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="S17" s="51">
+      <c r="S17" s="50">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="T17" s="39">
+      <c r="T17" s="38">
         <f t="shared" si="108"/>
         <v>150</v>
       </c>
-      <c r="U17" s="91">
+      <c r="U17" s="89">
         <f t="shared" si="109"/>
         <v>150000</v>
       </c>
-      <c r="V17" s="41">
+      <c r="V17" s="40">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="W17" s="45">
+      <c r="W17" s="44">
         <f t="shared" si="111"/>
         <v>0</v>
       </c>
-      <c r="X17" s="65">
+      <c r="X17" s="64">
         <f t="shared" si="97"/>
         <v>150</v>
       </c>
-      <c r="Y17" s="47">
+      <c r="Y17" s="46">
         <f t="shared" si="97"/>
         <v>150000</v>
       </c>
-      <c r="Z17" s="61">
+      <c r="Z17" s="60">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="AA17" s="67">
+      <c r="AA17" s="66">
         <f t="shared" si="113"/>
         <v>0</v>
       </c>
-      <c r="AB17" s="77">
+      <c r="AB17" s="76">
         <f t="shared" si="97"/>
         <v>150</v>
       </c>
-      <c r="AC17" s="83">
+      <c r="AC17" s="82">
         <f t="shared" si="97"/>
         <v>150000</v>
       </c>
-      <c r="AD17" s="80">
+      <c r="AD17" s="79">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="86">
+      <c r="AE17" s="85">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="AF17" s="12">
+      <c r="AF17" s="11">
         <f t="shared" si="116"/>
         <v>0</v>
       </c>
-      <c r="AG17" s="18">
+      <c r="AG17" s="17">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AH17" s="15"/>
-      <c r="AI17" s="21">
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="20">
         <f t="shared" si="118"/>
         <v>0</v>
       </c>
-      <c r="AJ17" s="15">
+      <c r="AJ17" s="14">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="AK17" s="21">
+      <c r="AK17" s="20">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:37" ht="15" hidden="1" customHeight="1">
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="2:39" ht="15" hidden="1" customHeight="1">
+      <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="26">
         <v>42018</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="52">
         <f t="shared" si="94"/>
         <v>150</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="31">
         <f t="shared" si="94"/>
-        <v>127747</v>
-      </c>
-      <c r="F18" s="55">
+        <v>131789</v>
+      </c>
+      <c r="F18" s="54">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="32">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="H18" s="69">
-        <f t="shared" si="97"/>
-        <v>39</v>
-      </c>
-      <c r="I18" s="73">
-        <f t="shared" si="97"/>
-        <v>25818</v>
-      </c>
-      <c r="J18" s="71">
+      <c r="H18" s="68">
+        <f t="shared" si="97"/>
+        <v>55</v>
+      </c>
+      <c r="I18" s="72">
+        <f t="shared" si="97"/>
+        <v>42535</v>
+      </c>
+      <c r="J18" s="70">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K18" s="75">
+      <c r="K18" s="74">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="L18" s="57">
+      <c r="L18" s="56">
         <f t="shared" si="100"/>
-        <v>144</v>
-      </c>
-      <c r="M18" s="61">
+        <v>147</v>
+      </c>
+      <c r="M18" s="60">
         <f t="shared" si="101"/>
-        <v>101166</v>
-      </c>
-      <c r="N18" s="59">
+        <v>109325</v>
+      </c>
+      <c r="N18" s="58">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="O18" s="63">
+      <c r="O18" s="62">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="P18" s="35">
+      <c r="P18" s="34">
         <f t="shared" si="104"/>
         <v>129</v>
       </c>
-      <c r="Q18" s="49">
+      <c r="Q18" s="48">
         <f t="shared" si="105"/>
         <v>131949</v>
       </c>
-      <c r="R18" s="37">
+      <c r="R18" s="36">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="S18" s="51">
+      <c r="S18" s="50">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="T18" s="39">
+      <c r="T18" s="38">
         <f t="shared" si="108"/>
         <v>150</v>
       </c>
-      <c r="U18" s="91">
+      <c r="U18" s="89">
         <f t="shared" si="109"/>
         <v>150000</v>
       </c>
-      <c r="V18" s="41">
+      <c r="V18" s="40">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="W18" s="45">
+      <c r="W18" s="44">
         <f t="shared" si="111"/>
         <v>0</v>
       </c>
-      <c r="X18" s="65">
+      <c r="X18" s="64">
         <f t="shared" si="97"/>
         <v>150</v>
       </c>
-      <c r="Y18" s="47">
+      <c r="Y18" s="46">
         <f t="shared" si="97"/>
         <v>150000</v>
       </c>
-      <c r="Z18" s="61">
+      <c r="Z18" s="60">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="AA18" s="67">
+      <c r="AA18" s="66">
         <f t="shared" si="113"/>
         <v>0</v>
       </c>
-      <c r="AB18" s="77">
+      <c r="AB18" s="76">
         <f t="shared" si="97"/>
         <v>150</v>
       </c>
-      <c r="AC18" s="83">
+      <c r="AC18" s="82">
         <f t="shared" si="97"/>
         <v>150000</v>
       </c>
-      <c r="AD18" s="80">
+      <c r="AD18" s="79">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="86">
+      <c r="AE18" s="85">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="AF18" s="12">
+      <c r="AF18" s="11">
         <f t="shared" si="116"/>
         <v>0</v>
       </c>
-      <c r="AG18" s="18">
+      <c r="AG18" s="17">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="21">
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="20">
         <f t="shared" si="118"/>
         <v>0</v>
       </c>
-      <c r="AJ18" s="15">
+      <c r="AJ18" s="14">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="AK18" s="21">
+      <c r="AK18" s="20">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:37" ht="15" hidden="1" customHeight="1">
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="2:39" ht="15" hidden="1" customHeight="1">
+      <c r="B19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="26">
         <v>42017</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="52">
         <f t="shared" si="94"/>
         <v>150</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="31">
         <f t="shared" si="94"/>
-        <v>127747</v>
-      </c>
-      <c r="F19" s="55">
+        <v>131789</v>
+      </c>
+      <c r="F19" s="54">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="32">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="H19" s="69">
-        <f t="shared" si="97"/>
-        <v>39</v>
-      </c>
-      <c r="I19" s="73">
-        <f t="shared" si="97"/>
-        <v>25818</v>
-      </c>
-      <c r="J19" s="71">
+      <c r="H19" s="68">
+        <f t="shared" si="97"/>
+        <v>55</v>
+      </c>
+      <c r="I19" s="72">
+        <f t="shared" si="97"/>
+        <v>42535</v>
+      </c>
+      <c r="J19" s="70">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K19" s="75">
+      <c r="K19" s="74">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="L19" s="57">
+      <c r="L19" s="56">
         <f t="shared" si="100"/>
-        <v>144</v>
-      </c>
-      <c r="M19" s="61">
+        <v>147</v>
+      </c>
+      <c r="M19" s="60">
         <f t="shared" si="101"/>
-        <v>101166</v>
-      </c>
-      <c r="N19" s="59">
+        <v>109325</v>
+      </c>
+      <c r="N19" s="58">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="O19" s="63">
+      <c r="O19" s="62">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="P19" s="35">
+      <c r="P19" s="34">
         <f t="shared" si="104"/>
         <v>129</v>
       </c>
-      <c r="Q19" s="49">
+      <c r="Q19" s="48">
         <f t="shared" si="105"/>
         <v>131949</v>
       </c>
-      <c r="R19" s="37">
+      <c r="R19" s="36">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="S19" s="51">
+      <c r="S19" s="50">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="T19" s="39">
+      <c r="T19" s="38">
         <f t="shared" si="108"/>
         <v>150</v>
       </c>
-      <c r="U19" s="91">
+      <c r="U19" s="89">
         <f t="shared" si="109"/>
         <v>150000</v>
       </c>
-      <c r="V19" s="41">
+      <c r="V19" s="40">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="W19" s="45">
+      <c r="W19" s="44">
         <f t="shared" si="111"/>
         <v>0</v>
       </c>
-      <c r="X19" s="65">
+      <c r="X19" s="64">
         <f t="shared" si="97"/>
         <v>150</v>
       </c>
-      <c r="Y19" s="47">
+      <c r="Y19" s="46">
         <f t="shared" si="97"/>
         <v>150000</v>
       </c>
-      <c r="Z19" s="61">
+      <c r="Z19" s="60">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="67">
+      <c r="AA19" s="66">
         <f t="shared" si="113"/>
         <v>0</v>
       </c>
-      <c r="AB19" s="77">
+      <c r="AB19" s="76">
         <f t="shared" si="97"/>
         <v>150</v>
       </c>
-      <c r="AC19" s="83">
+      <c r="AC19" s="82">
         <f t="shared" si="97"/>
         <v>150000</v>
       </c>
-      <c r="AD19" s="80">
+      <c r="AD19" s="79">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="86">
+      <c r="AE19" s="85">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="AF19" s="12">
+      <c r="AF19" s="11">
         <f t="shared" si="116"/>
         <v>0</v>
       </c>
-      <c r="AG19" s="18">
+      <c r="AG19" s="17">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="21">
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="20">
         <f t="shared" si="118"/>
         <v>0</v>
       </c>
-      <c r="AJ19" s="15">
+      <c r="AJ19" s="14">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="AK19" s="21">
+      <c r="AK19" s="20">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:37" ht="15" hidden="1" customHeight="1">
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="2:39" ht="15" hidden="1" customHeight="1">
+      <c r="B20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="26">
         <v>42016</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="52">
         <f t="shared" si="94"/>
         <v>150</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="31">
         <f t="shared" si="94"/>
-        <v>127747</v>
-      </c>
-      <c r="F20" s="55">
+        <v>131789</v>
+      </c>
+      <c r="F20" s="54">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="32">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="H20" s="69">
-        <f t="shared" si="97"/>
-        <v>39</v>
-      </c>
-      <c r="I20" s="73">
-        <f t="shared" si="97"/>
-        <v>25818</v>
-      </c>
-      <c r="J20" s="71">
+      <c r="H20" s="68">
+        <f t="shared" si="97"/>
+        <v>55</v>
+      </c>
+      <c r="I20" s="72">
+        <f t="shared" si="97"/>
+        <v>42535</v>
+      </c>
+      <c r="J20" s="70">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K20" s="75">
+      <c r="K20" s="74">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="L20" s="57">
+      <c r="L20" s="56">
         <f t="shared" si="100"/>
-        <v>144</v>
-      </c>
-      <c r="M20" s="61">
+        <v>147</v>
+      </c>
+      <c r="M20" s="60">
         <f t="shared" si="101"/>
-        <v>101166</v>
-      </c>
-      <c r="N20" s="59">
+        <v>109325</v>
+      </c>
+      <c r="N20" s="58">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="O20" s="63">
+      <c r="O20" s="62">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="P20" s="35">
+      <c r="P20" s="34">
         <f t="shared" si="104"/>
         <v>129</v>
       </c>
-      <c r="Q20" s="49">
+      <c r="Q20" s="48">
         <f t="shared" si="105"/>
         <v>131949</v>
       </c>
-      <c r="R20" s="37">
+      <c r="R20" s="36">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="S20" s="51">
+      <c r="S20" s="50">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="T20" s="39">
+      <c r="T20" s="38">
         <f t="shared" si="108"/>
         <v>150</v>
       </c>
-      <c r="U20" s="91">
+      <c r="U20" s="89">
         <f t="shared" si="109"/>
         <v>150000</v>
       </c>
-      <c r="V20" s="41">
+      <c r="V20" s="40">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="W20" s="45">
+      <c r="W20" s="44">
         <f t="shared" si="111"/>
         <v>0</v>
       </c>
-      <c r="X20" s="65">
+      <c r="X20" s="64">
         <f t="shared" si="97"/>
         <v>150</v>
       </c>
-      <c r="Y20" s="47">
+      <c r="Y20" s="46">
         <f t="shared" si="97"/>
         <v>150000</v>
       </c>
-      <c r="Z20" s="61">
+      <c r="Z20" s="60">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="AA20" s="67">
+      <c r="AA20" s="66">
         <f t="shared" si="113"/>
         <v>0</v>
       </c>
-      <c r="AB20" s="77">
+      <c r="AB20" s="76">
         <f t="shared" si="97"/>
         <v>150</v>
       </c>
-      <c r="AC20" s="83">
+      <c r="AC20" s="82">
         <f t="shared" si="97"/>
         <v>150000</v>
       </c>
-      <c r="AD20" s="80">
+      <c r="AD20" s="79">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="86">
+      <c r="AE20" s="85">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="AF20" s="12">
+      <c r="AF20" s="11">
         <f t="shared" si="116"/>
         <v>0</v>
       </c>
-      <c r="AG20" s="18">
+      <c r="AG20" s="17">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AH20" s="15"/>
-      <c r="AI20" s="21">
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="20">
         <f t="shared" si="118"/>
-        <v>-17225</v>
-      </c>
-      <c r="AJ20" s="15">
+        <v>-17300</v>
+      </c>
+      <c r="AJ20" s="14">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="AK20" s="21">
+      <c r="AK20" s="20">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:37">
-      <c r="B21" s="9" t="s">
+    <row r="21" spans="2:39">
+      <c r="B21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="26">
         <v>42015</v>
       </c>
-      <c r="D21" s="53">
+      <c r="D21" s="52">
         <f t="shared" si="94"/>
         <v>150</v>
       </c>
-      <c r="E21" s="32">
-        <v>127747</v>
-      </c>
-      <c r="F21" s="55">
+      <c r="E21" s="31">
+        <v>131789</v>
+      </c>
+      <c r="F21" s="54">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="32">
         <f t="shared" si="96"/>
-        <v>4511</v>
-      </c>
-      <c r="H21" s="69">
-        <v>39</v>
-      </c>
-      <c r="I21" s="73">
-        <v>25818</v>
-      </c>
-      <c r="J21" s="71">
+        <v>8553</v>
+      </c>
+      <c r="H21" s="68">
+        <v>55</v>
+      </c>
+      <c r="I21" s="72">
+        <v>42535</v>
+      </c>
+      <c r="J21" s="70">
         <f t="shared" si="98"/>
-        <v>9</v>
-      </c>
-      <c r="K21" s="75">
+        <v>25</v>
+      </c>
+      <c r="K21" s="74">
         <f t="shared" si="99"/>
-        <v>5710</v>
-      </c>
-      <c r="L21" s="57">
-        <v>144</v>
-      </c>
-      <c r="M21" s="61">
-        <v>101166</v>
-      </c>
-      <c r="N21" s="59">
+        <v>22427</v>
+      </c>
+      <c r="L21" s="56">
+        <v>147</v>
+      </c>
+      <c r="M21" s="60">
+        <v>109325</v>
+      </c>
+      <c r="N21" s="58">
         <f t="shared" si="102"/>
-        <v>13</v>
-      </c>
-      <c r="O21" s="63">
+        <v>16</v>
+      </c>
+      <c r="O21" s="62">
         <f t="shared" si="103"/>
-        <v>11210</v>
-      </c>
-      <c r="P21" s="35">
+        <v>19369</v>
+      </c>
+      <c r="P21" s="34">
         <v>129</v>
       </c>
-      <c r="Q21" s="49">
+      <c r="Q21" s="48">
         <v>131949</v>
       </c>
-      <c r="R21" s="37">
+      <c r="R21" s="36">
         <f t="shared" si="106"/>
         <v>10</v>
       </c>
-      <c r="S21" s="51">
+      <c r="S21" s="50">
         <f t="shared" si="107"/>
         <v>12949</v>
       </c>
-      <c r="T21" s="39">
+      <c r="T21" s="38">
         <v>150</v>
       </c>
-      <c r="U21" s="91">
+      <c r="U21" s="89">
         <f t="shared" si="109"/>
         <v>150000</v>
       </c>
-      <c r="V21" s="41">
+      <c r="V21" s="40">
         <f t="shared" si="110"/>
         <v>7</v>
       </c>
-      <c r="W21" s="45">
+      <c r="W21" s="44">
         <f t="shared" si="111"/>
         <v>0</v>
       </c>
-      <c r="X21" s="65">
+      <c r="X21" s="64">
         <f t="shared" si="97"/>
         <v>150</v>
       </c>
-      <c r="Y21" s="47">
+      <c r="Y21" s="46">
         <f t="shared" si="97"/>
         <v>150000</v>
       </c>
-      <c r="Z21" s="61">
+      <c r="Z21" s="60">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="67">
+      <c r="AA21" s="66">
         <f t="shared" si="113"/>
         <v>0</v>
       </c>
-      <c r="AB21" s="77">
+      <c r="AB21" s="76">
         <f t="shared" si="97"/>
         <v>150</v>
       </c>
-      <c r="AC21" s="83">
+      <c r="AC21" s="82">
         <f t="shared" si="97"/>
         <v>150000</v>
       </c>
-      <c r="AD21" s="80">
+      <c r="AD21" s="79">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="86">
+      <c r="AE21" s="85">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="AF21" s="12">
+      <c r="AF21" s="11">
         <f t="shared" si="116"/>
-        <v>39</v>
-      </c>
-      <c r="AG21" s="18">
+        <v>58</v>
+      </c>
+      <c r="AG21" s="17">
         <f t="shared" si="117"/>
-        <v>34380</v>
-      </c>
-      <c r="AH21" s="15">
-        <v>17225</v>
-      </c>
-      <c r="AI21" s="21">
+        <v>63298</v>
+      </c>
+      <c r="AH21" s="14">
+        <v>17300</v>
+      </c>
+      <c r="AI21" s="20">
         <f t="shared" si="118"/>
-        <v>20</v>
-      </c>
-      <c r="AJ21" s="15">
+        <v>95</v>
+      </c>
+      <c r="AJ21" s="14">
         <f t="shared" si="119"/>
-        <v>1.95</v>
-      </c>
-      <c r="AK21" s="21">
+        <v>0.61052631578947369</v>
+      </c>
+      <c r="AK21" s="20">
         <f t="shared" si="120"/>
-        <v>1719</v>
+        <v>666.29473684210529</v>
+      </c>
+      <c r="AM21" t="b">
+        <f>(AF21&gt;AG21/1000)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:37">
-      <c r="B22" s="9" t="s">
+    <row r="22" spans="2:39">
+      <c r="B22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="26">
         <v>42014</v>
       </c>
-      <c r="D22" s="53">
+      <c r="D22" s="52">
         <f t="shared" si="94"/>
         <v>150</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="31">
         <v>123236</v>
       </c>
-      <c r="F22" s="55">
+      <c r="F22" s="54">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="32">
         <f t="shared" si="96"/>
         <v>9453</v>
       </c>
-      <c r="H22" s="69">
+      <c r="H22" s="68">
         <f t="shared" si="97"/>
         <v>30</v>
       </c>
-      <c r="I22" s="73">
+      <c r="I22" s="72">
         <v>20108</v>
       </c>
-      <c r="J22" s="71">
+      <c r="J22" s="70">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K22" s="75">
+      <c r="K22" s="74">
         <f t="shared" si="99"/>
         <v>2075</v>
       </c>
-      <c r="L22" s="57">
+      <c r="L22" s="56">
         <v>131</v>
       </c>
-      <c r="M22" s="61">
+      <c r="M22" s="60">
         <v>89956</v>
       </c>
-      <c r="N22" s="59">
+      <c r="N22" s="58">
         <f t="shared" si="102"/>
         <v>14</v>
       </c>
-      <c r="O22" s="63">
+      <c r="O22" s="62">
         <f t="shared" si="103"/>
         <v>7033</v>
       </c>
-      <c r="P22" s="35">
+      <c r="P22" s="34">
         <v>119</v>
       </c>
-      <c r="Q22" s="49">
+      <c r="Q22" s="48">
         <v>119000</v>
       </c>
-      <c r="R22" s="37">
+      <c r="R22" s="36">
         <f t="shared" si="106"/>
         <v>38</v>
       </c>
-      <c r="S22" s="51">
+      <c r="S22" s="50">
         <f t="shared" si="107"/>
         <v>33066</v>
       </c>
-      <c r="T22" s="39">
+      <c r="T22" s="38">
         <v>143</v>
       </c>
-      <c r="U22" s="91">
+      <c r="U22" s="89">
         <v>150000</v>
       </c>
-      <c r="V22" s="41">
+      <c r="V22" s="40">
         <f t="shared" si="110"/>
         <v>31</v>
       </c>
-      <c r="W22" s="45">
+      <c r="W22" s="44">
         <f t="shared" si="111"/>
         <v>8004</v>
       </c>
-      <c r="X22" s="65">
+      <c r="X22" s="64">
         <f t="shared" si="97"/>
         <v>150</v>
       </c>
-      <c r="Y22" s="47">
+      <c r="Y22" s="46">
         <f t="shared" si="97"/>
         <v>150000</v>
       </c>
-      <c r="Z22" s="61">
+      <c r="Z22" s="60">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="67">
+      <c r="AA22" s="66">
         <f t="shared" si="113"/>
         <v>0</v>
       </c>
-      <c r="AB22" s="77">
+      <c r="AB22" s="76">
         <f t="shared" si="97"/>
         <v>150</v>
       </c>
-      <c r="AC22" s="83">
+      <c r="AC22" s="82">
         <f t="shared" si="97"/>
         <v>150000</v>
       </c>
-      <c r="AD22" s="80">
+      <c r="AD22" s="79">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="86">
+      <c r="AE22" s="85">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="AF22" s="12">
+      <c r="AF22" s="11">
         <f t="shared" si="116"/>
         <v>83</v>
       </c>
-      <c r="AG22" s="18">
+      <c r="AG22" s="17">
         <f t="shared" si="117"/>
         <v>59631</v>
       </c>
-      <c r="AH22" s="15">
+      <c r="AH22" s="14">
         <v>17205</v>
       </c>
-      <c r="AI22" s="21">
+      <c r="AI22" s="20">
         <f t="shared" si="118"/>
         <v>108</v>
       </c>
-      <c r="AJ22" s="15">
+      <c r="AJ22" s="14">
         <f t="shared" si="119"/>
         <v>0.76851851851851849</v>
       </c>
-      <c r="AK22" s="21">
+      <c r="AK22" s="20">
         <f t="shared" si="120"/>
         <v>552.13888888888891</v>
       </c>
+      <c r="AM22" t="b">
+        <f t="shared" ref="AM22:AM47" si="121">(AF22&gt;AG22/1000)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="2:37">
-      <c r="B23" s="9" t="s">
+    <row r="23" spans="2:39">
+      <c r="B23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="26">
         <v>42013</v>
       </c>
-      <c r="D23" s="53">
+      <c r="D23" s="52">
         <f t="shared" si="94"/>
         <v>150</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="31">
         <v>113783</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="54">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="32">
         <f t="shared" si="96"/>
         <v>8091</v>
       </c>
-      <c r="H23" s="69">
+      <c r="H23" s="68">
         <v>30</v>
       </c>
-      <c r="I23" s="73">
+      <c r="I23" s="72">
         <v>18033</v>
       </c>
-      <c r="J23" s="71">
+      <c r="J23" s="70">
         <f t="shared" si="98"/>
         <v>2</v>
       </c>
-      <c r="K23" s="75">
+      <c r="K23" s="74">
         <f t="shared" si="99"/>
         <v>714</v>
       </c>
-      <c r="L23" s="57">
+      <c r="L23" s="56">
         <v>117</v>
       </c>
-      <c r="M23" s="61">
+      <c r="M23" s="60">
         <v>82923</v>
       </c>
-      <c r="N23" s="59">
+      <c r="N23" s="58">
         <f t="shared" si="102"/>
         <v>1</v>
       </c>
-      <c r="O23" s="63">
+      <c r="O23" s="62">
         <f t="shared" si="103"/>
         <v>857</v>
       </c>
-      <c r="P23" s="35">
+      <c r="P23" s="34">
         <v>81</v>
       </c>
-      <c r="Q23" s="49">
+      <c r="Q23" s="48">
         <v>85934</v>
       </c>
-      <c r="R23" s="37">
+      <c r="R23" s="36">
         <f t="shared" si="106"/>
         <v>2</v>
       </c>
-      <c r="S23" s="51">
+      <c r="S23" s="50">
         <f t="shared" si="107"/>
         <v>2025</v>
       </c>
-      <c r="T23" s="39">
+      <c r="T23" s="38">
         <v>112</v>
       </c>
-      <c r="U23" s="91">
+      <c r="U23" s="89">
         <v>141996</v>
       </c>
-      <c r="V23" s="41">
+      <c r="V23" s="40">
         <f t="shared" si="110"/>
         <v>2</v>
       </c>
-      <c r="W23" s="45">
+      <c r="W23" s="44">
         <f t="shared" si="111"/>
         <v>217</v>
       </c>
-      <c r="X23" s="65">
+      <c r="X23" s="64">
         <f t="shared" si="97"/>
         <v>150</v>
       </c>
-      <c r="Y23" s="47">
+      <c r="Y23" s="46">
         <f t="shared" si="97"/>
         <v>150000</v>
       </c>
-      <c r="Z23" s="61">
+      <c r="Z23" s="60">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="67">
+      <c r="AA23" s="66">
         <f t="shared" si="113"/>
         <v>0</v>
       </c>
-      <c r="AB23" s="77">
+      <c r="AB23" s="76">
         <f t="shared" si="97"/>
         <v>150</v>
       </c>
-      <c r="AC23" s="83">
+      <c r="AC23" s="82">
         <f t="shared" si="97"/>
         <v>150000</v>
       </c>
-      <c r="AD23" s="80">
+      <c r="AD23" s="79">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="AE23" s="86">
+      <c r="AE23" s="85">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="AF23" s="12">
+      <c r="AF23" s="11">
         <f t="shared" si="116"/>
         <v>7</v>
       </c>
-      <c r="AG23" s="18">
+      <c r="AG23" s="17">
         <f t="shared" si="117"/>
         <v>11904</v>
       </c>
-      <c r="AH23" s="15">
+      <c r="AH23" s="14">
         <v>17097</v>
       </c>
-      <c r="AI23" s="21">
+      <c r="AI23" s="20">
         <f t="shared" si="118"/>
         <v>16</v>
       </c>
-      <c r="AJ23" s="15">
+      <c r="AJ23" s="14">
         <f t="shared" si="119"/>
         <v>0.4375</v>
       </c>
-      <c r="AK23" s="21">
+      <c r="AK23" s="20">
         <f t="shared" si="120"/>
         <v>744</v>
       </c>
+      <c r="AM23" t="b">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="2:37">
-      <c r="B24" s="9" t="s">
+    <row r="24" spans="2:39">
+      <c r="B24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="26">
         <v>42012</v>
       </c>
-      <c r="D24" s="53">
+      <c r="D24" s="52">
         <v>150</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="31">
         <v>105692</v>
       </c>
-      <c r="F24" s="55">
+      <c r="F24" s="54">
         <f t="shared" si="95"/>
         <v>1</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="32">
         <f t="shared" si="96"/>
         <v>4307</v>
       </c>
-      <c r="H24" s="69">
+      <c r="H24" s="68">
         <v>28</v>
       </c>
-      <c r="I24" s="73">
+      <c r="I24" s="72">
         <v>17319</v>
       </c>
-      <c r="J24" s="71">
+      <c r="J24" s="70">
         <f t="shared" si="98"/>
         <v>3</v>
       </c>
-      <c r="K24" s="75">
+      <c r="K24" s="74">
         <f t="shared" si="99"/>
         <v>1762</v>
       </c>
-      <c r="L24" s="57">
+      <c r="L24" s="56">
         <v>116</v>
       </c>
-      <c r="M24" s="61">
+      <c r="M24" s="60">
         <v>82066</v>
       </c>
-      <c r="N24" s="59">
+      <c r="N24" s="58">
         <f t="shared" si="102"/>
         <v>1</v>
       </c>
-      <c r="O24" s="63">
+      <c r="O24" s="62">
         <f t="shared" si="103"/>
         <v>2525</v>
       </c>
-      <c r="P24" s="35">
+      <c r="P24" s="34">
         <v>79</v>
       </c>
-      <c r="Q24" s="49">
+      <c r="Q24" s="48">
         <v>83909</v>
       </c>
-      <c r="R24" s="37">
+      <c r="R24" s="36">
         <f t="shared" si="106"/>
         <v>3</v>
       </c>
-      <c r="S24" s="51">
+      <c r="S24" s="50">
         <f t="shared" si="107"/>
         <v>2985</v>
       </c>
-      <c r="T24" s="39">
+      <c r="T24" s="38">
         <v>110</v>
       </c>
-      <c r="U24" s="91">
+      <c r="U24" s="89">
         <v>141779</v>
       </c>
-      <c r="V24" s="41">
+      <c r="V24" s="40">
         <f t="shared" si="110"/>
         <v>9</v>
       </c>
-      <c r="W24" s="45">
+      <c r="W24" s="44">
         <f t="shared" si="111"/>
         <v>20352</v>
       </c>
-      <c r="X24" s="65">
+      <c r="X24" s="64">
         <v>150</v>
       </c>
-      <c r="Y24" s="47">
+      <c r="Y24" s="46">
         <v>150000</v>
       </c>
-      <c r="Z24" s="61">
+      <c r="Z24" s="60">
         <f t="shared" si="112"/>
         <v>17</v>
       </c>
-      <c r="AA24" s="67">
+      <c r="AA24" s="66">
         <f t="shared" si="113"/>
         <v>11371</v>
       </c>
-      <c r="AB24" s="77">
+      <c r="AB24" s="76">
         <f t="shared" si="97"/>
         <v>150</v>
       </c>
-      <c r="AC24" s="83">
+      <c r="AC24" s="82">
         <f t="shared" si="97"/>
         <v>150000</v>
       </c>
-      <c r="AD24" s="80">
+      <c r="AD24" s="79">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="AE24" s="86">
+      <c r="AE24" s="85">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="AF24" s="12">
+      <c r="AF24" s="11">
         <f t="shared" si="116"/>
         <v>34</v>
       </c>
-      <c r="AG24" s="18">
+      <c r="AG24" s="17">
         <f t="shared" si="117"/>
         <v>43302</v>
       </c>
-      <c r="AH24" s="15">
+      <c r="AH24" s="14">
         <v>17081</v>
       </c>
-      <c r="AI24" s="21">
+      <c r="AI24" s="20">
         <f t="shared" si="118"/>
         <v>47</v>
       </c>
-      <c r="AJ24" s="15">
+      <c r="AJ24" s="14">
         <f t="shared" si="119"/>
         <v>0.72340425531914898</v>
       </c>
-      <c r="AK24" s="21">
+      <c r="AK24" s="20">
         <f t="shared" si="120"/>
         <v>921.31914893617022</v>
       </c>
+      <c r="AM24" t="b">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="2:37">
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="2:39">
+      <c r="B25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="26">
         <v>42011</v>
       </c>
-      <c r="D25" s="53">
+      <c r="D25" s="52">
         <f t="shared" si="94"/>
         <v>149</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="31">
         <f t="shared" si="94"/>
         <v>101385</v>
       </c>
-      <c r="F25" s="55">
+      <c r="F25" s="54">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="32">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="H25" s="69">
+      <c r="H25" s="68">
         <f t="shared" si="97"/>
         <v>25</v>
       </c>
-      <c r="I25" s="73">
+      <c r="I25" s="72">
         <f t="shared" si="97"/>
         <v>15557</v>
       </c>
-      <c r="J25" s="71">
+      <c r="J25" s="70">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K25" s="75">
+      <c r="K25" s="74">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="L25" s="57">
+      <c r="L25" s="56">
         <f>L26</f>
         <v>115</v>
       </c>
-      <c r="M25" s="61">
+      <c r="M25" s="60">
         <f>M26</f>
         <v>79541</v>
       </c>
-      <c r="N25" s="59">
+      <c r="N25" s="58">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="O25" s="63">
+      <c r="O25" s="62">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="P25" s="35">
+      <c r="P25" s="34">
         <f>P26</f>
         <v>76</v>
       </c>
-      <c r="Q25" s="49">
+      <c r="Q25" s="48">
         <f>Q26</f>
         <v>80924</v>
       </c>
-      <c r="R25" s="37">
+      <c r="R25" s="36">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="S25" s="51">
+      <c r="S25" s="50">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="T25" s="39">
+      <c r="T25" s="38">
         <f>T26</f>
         <v>101</v>
       </c>
-      <c r="U25" s="91">
+      <c r="U25" s="89">
         <f>U26</f>
         <v>121427</v>
       </c>
-      <c r="V25" s="41">
+      <c r="V25" s="40">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="W25" s="45">
+      <c r="W25" s="44">
         <f t="shared" si="111"/>
         <v>0</v>
       </c>
-      <c r="X25" s="65">
+      <c r="X25" s="64">
         <v>133</v>
       </c>
-      <c r="Y25" s="47">
+      <c r="Y25" s="46">
         <v>138629</v>
       </c>
-      <c r="Z25" s="61">
+      <c r="Z25" s="60">
         <f t="shared" si="112"/>
         <v>16</v>
       </c>
-      <c r="AA25" s="67">
+      <c r="AA25" s="66">
         <f t="shared" si="113"/>
         <v>16053</v>
       </c>
-      <c r="AB25" s="77">
+      <c r="AB25" s="76">
         <f t="shared" si="97"/>
         <v>150</v>
       </c>
-      <c r="AC25" s="83">
+      <c r="AC25" s="82">
         <f t="shared" si="97"/>
         <v>150000</v>
       </c>
-      <c r="AD25" s="80">
+      <c r="AD25" s="79">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="AE25" s="86">
+      <c r="AE25" s="85">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="AF25" s="12">
+      <c r="AF25" s="11">
         <f t="shared" si="116"/>
         <v>16</v>
       </c>
-      <c r="AG25" s="18">
+      <c r="AG25" s="17">
         <f t="shared" si="117"/>
         <v>16053</v>
       </c>
-      <c r="AH25" s="15">
+      <c r="AH25" s="14">
         <v>17034</v>
       </c>
-      <c r="AI25" s="21">
+      <c r="AI25" s="20">
         <f t="shared" si="118"/>
         <v>15</v>
       </c>
-      <c r="AJ25" s="15">
+      <c r="AJ25" s="14">
         <f t="shared" si="119"/>
         <v>1.0666666666666667</v>
       </c>
-      <c r="AK25" s="21">
+      <c r="AK25" s="20">
         <f t="shared" si="120"/>
         <v>1070.2</v>
       </c>
+      <c r="AM25" t="b">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="2:37">
-      <c r="B26" s="9" t="s">
+    <row r="26" spans="2:39">
+      <c r="B26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="26">
         <v>42010</v>
       </c>
-      <c r="D26" s="53">
+      <c r="D26" s="52">
         <v>149</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="31">
         <v>101385</v>
       </c>
-      <c r="F26" s="55">
+      <c r="F26" s="54">
         <f t="shared" si="95"/>
         <v>10</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="32">
         <f t="shared" si="96"/>
         <v>3866</v>
       </c>
-      <c r="H26" s="69">
+      <c r="H26" s="68">
         <f t="shared" si="97"/>
         <v>25</v>
       </c>
-      <c r="I26" s="73">
+      <c r="I26" s="72">
         <f t="shared" si="97"/>
         <v>15557</v>
       </c>
-      <c r="J26" s="71">
+      <c r="J26" s="70">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K26" s="75">
+      <c r="K26" s="74">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="L26" s="57">
+      <c r="L26" s="56">
         <f>L27</f>
         <v>115</v>
       </c>
-      <c r="M26" s="61">
+      <c r="M26" s="60">
         <f>M27</f>
         <v>79541</v>
       </c>
-      <c r="N26" s="59">
+      <c r="N26" s="58">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="O26" s="63">
+      <c r="O26" s="62">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="P26" s="35">
+      <c r="P26" s="34">
         <v>76</v>
       </c>
-      <c r="Q26" s="49">
+      <c r="Q26" s="48">
         <v>80924</v>
       </c>
-      <c r="R26" s="37">
+      <c r="R26" s="36">
         <f t="shared" si="106"/>
         <v>3</v>
       </c>
-      <c r="S26" s="51">
+      <c r="S26" s="50">
         <f t="shared" si="107"/>
         <v>3617</v>
       </c>
-      <c r="T26" s="39">
+      <c r="T26" s="38">
         <v>101</v>
       </c>
-      <c r="U26" s="91">
+      <c r="U26" s="89">
         <v>121427</v>
       </c>
-      <c r="V26" s="41">
+      <c r="V26" s="40">
         <f t="shared" si="110"/>
         <v>4</v>
       </c>
-      <c r="W26" s="45">
+      <c r="W26" s="44">
         <f t="shared" si="111"/>
         <v>2447</v>
       </c>
-      <c r="X26" s="65">
+      <c r="X26" s="64">
         <v>117</v>
       </c>
-      <c r="Y26" s="47">
+      <c r="Y26" s="46">
         <v>122576</v>
       </c>
-      <c r="Z26" s="61">
+      <c r="Z26" s="60">
         <f t="shared" si="112"/>
         <v>12</v>
       </c>
-      <c r="AA26" s="67">
+      <c r="AA26" s="66">
         <f t="shared" si="113"/>
         <v>18202</v>
       </c>
-      <c r="AB26" s="77">
+      <c r="AB26" s="76">
         <f t="shared" si="97"/>
         <v>150</v>
       </c>
-      <c r="AC26" s="83">
+      <c r="AC26" s="82">
         <f t="shared" si="97"/>
         <v>150000</v>
       </c>
-      <c r="AD26" s="80">
+      <c r="AD26" s="79">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="86">
+      <c r="AE26" s="85">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="AF26" s="12">
+      <c r="AF26" s="11">
         <f t="shared" si="116"/>
         <v>29</v>
       </c>
-      <c r="AG26" s="18">
+      <c r="AG26" s="17">
         <f t="shared" si="117"/>
         <v>28132</v>
       </c>
-      <c r="AH26" s="15">
+      <c r="AH26" s="14">
         <v>17019</v>
       </c>
-      <c r="AI26" s="21">
+      <c r="AI26" s="20">
         <f t="shared" si="118"/>
         <v>24</v>
       </c>
-      <c r="AJ26" s="15">
+      <c r="AJ26" s="14">
         <f t="shared" si="119"/>
         <v>1.2083333333333333</v>
       </c>
-      <c r="AK26" s="21">
+      <c r="AK26" s="20">
         <f t="shared" si="120"/>
         <v>1172.1666666666667</v>
       </c>
+      <c r="AM26" t="b">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="2:37">
-      <c r="B27" s="9" t="s">
+    <row r="27" spans="2:39">
+      <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="26">
         <v>42009</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="52">
         <v>139</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="31">
         <v>97519</v>
       </c>
-      <c r="F27" s="55">
+      <c r="F27" s="54">
         <f t="shared" si="95"/>
         <v>4</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="32">
         <f t="shared" si="96"/>
         <v>4701</v>
       </c>
-      <c r="H27" s="69">
+      <c r="H27" s="68">
         <f t="shared" si="97"/>
         <v>25</v>
       </c>
-      <c r="I27" s="73">
+      <c r="I27" s="72">
         <f t="shared" si="97"/>
         <v>15557</v>
       </c>
-      <c r="J27" s="71">
+      <c r="J27" s="70">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K27" s="75">
+      <c r="K27" s="74">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="L27" s="57">
+      <c r="L27" s="56">
         <v>115</v>
       </c>
-      <c r="M27" s="61">
+      <c r="M27" s="60">
         <v>79541</v>
       </c>
-      <c r="N27" s="59">
+      <c r="N27" s="58">
         <f t="shared" si="102"/>
         <v>8</v>
       </c>
-      <c r="O27" s="63">
+      <c r="O27" s="62">
         <f t="shared" si="103"/>
         <v>1661</v>
       </c>
-      <c r="P27" s="35">
+      <c r="P27" s="34">
         <v>73</v>
       </c>
-      <c r="Q27" s="49">
+      <c r="Q27" s="48">
         <v>77307</v>
       </c>
-      <c r="R27" s="37">
+      <c r="R27" s="36">
         <f t="shared" si="106"/>
         <v>7</v>
       </c>
-      <c r="S27" s="51">
+      <c r="S27" s="50">
         <f t="shared" si="107"/>
         <v>4350</v>
       </c>
-      <c r="T27" s="39">
+      <c r="T27" s="38">
         <v>97</v>
       </c>
-      <c r="U27" s="91">
+      <c r="U27" s="89">
         <v>118980</v>
       </c>
-      <c r="V27" s="41">
+      <c r="V27" s="40">
         <f t="shared" si="110"/>
         <v>5</v>
       </c>
-      <c r="W27" s="45">
+      <c r="W27" s="44">
         <f t="shared" si="111"/>
         <v>4591</v>
       </c>
-      <c r="X27" s="65">
+      <c r="X27" s="64">
         <v>105</v>
       </c>
-      <c r="Y27" s="47">
+      <c r="Y27" s="46">
         <v>104374</v>
       </c>
-      <c r="Z27" s="61">
+      <c r="Z27" s="60">
         <f t="shared" si="112"/>
         <v>4</v>
       </c>
-      <c r="AA27" s="67">
+      <c r="AA27" s="66">
         <f t="shared" si="113"/>
         <v>5145</v>
       </c>
-      <c r="AB27" s="77">
+      <c r="AB27" s="76">
         <f t="shared" si="97"/>
         <v>150</v>
       </c>
-      <c r="AC27" s="83">
+      <c r="AC27" s="82">
         <f t="shared" si="97"/>
         <v>150000</v>
       </c>
-      <c r="AD27" s="80">
+      <c r="AD27" s="79">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="AE27" s="86">
+      <c r="AE27" s="85">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="AF27" s="12">
+      <c r="AF27" s="11">
         <f t="shared" si="116"/>
         <v>28</v>
       </c>
-      <c r="AG27" s="18">
+      <c r="AG27" s="17">
         <f t="shared" si="117"/>
         <v>20448</v>
       </c>
-      <c r="AH27" s="15">
+      <c r="AH27" s="14">
         <v>16995</v>
       </c>
-      <c r="AI27" s="21">
+      <c r="AI27" s="20">
         <f t="shared" si="118"/>
         <v>22</v>
       </c>
-      <c r="AJ27" s="15">
+      <c r="AJ27" s="14">
         <f t="shared" si="119"/>
         <v>1.2727272727272727</v>
       </c>
-      <c r="AK27" s="21">
+      <c r="AK27" s="20">
         <f t="shared" si="120"/>
         <v>929.4545454545455</v>
       </c>
+      <c r="AM27" t="b">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="2:37">
-      <c r="B28" s="9" t="s">
+    <row r="28" spans="2:39">
+      <c r="B28" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="26">
         <v>42008</v>
       </c>
-      <c r="D28" s="53">
+      <c r="D28" s="52">
         <v>135</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="31">
         <v>92818</v>
       </c>
-      <c r="F28" s="55">
+      <c r="F28" s="54">
         <f t="shared" si="95"/>
         <v>32</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="32">
         <f t="shared" si="96"/>
         <v>23518</v>
       </c>
-      <c r="H28" s="69">
+      <c r="H28" s="68">
         <v>25</v>
       </c>
-      <c r="I28" s="73">
+      <c r="I28" s="72">
         <v>15557</v>
       </c>
-      <c r="J28" s="71">
+      <c r="J28" s="70">
         <f t="shared" si="98"/>
         <v>1</v>
       </c>
-      <c r="K28" s="75">
+      <c r="K28" s="74">
         <f t="shared" si="99"/>
         <v>1656</v>
       </c>
-      <c r="L28" s="57">
+      <c r="L28" s="56">
         <v>107</v>
       </c>
-      <c r="M28" s="61">
+      <c r="M28" s="60">
         <v>77880</v>
       </c>
-      <c r="N28" s="59">
+      <c r="N28" s="58">
         <f t="shared" si="102"/>
         <v>11</v>
       </c>
-      <c r="O28" s="63">
+      <c r="O28" s="62">
         <f t="shared" si="103"/>
         <v>12141</v>
       </c>
-      <c r="P28" s="35">
+      <c r="P28" s="34">
         <v>66</v>
       </c>
-      <c r="Q28" s="49">
+      <c r="Q28" s="48">
         <v>72957</v>
       </c>
-      <c r="R28" s="37">
+      <c r="R28" s="36">
         <f t="shared" si="106"/>
         <v>13</v>
       </c>
-      <c r="S28" s="51">
+      <c r="S28" s="50">
         <f t="shared" si="107"/>
         <v>10825</v>
       </c>
-      <c r="T28" s="39">
+      <c r="T28" s="38">
         <v>92</v>
       </c>
-      <c r="U28" s="91">
+      <c r="U28" s="89">
         <v>114389</v>
       </c>
-      <c r="V28" s="41">
+      <c r="V28" s="40">
         <f t="shared" si="110"/>
         <v>30</v>
       </c>
-      <c r="W28" s="45">
+      <c r="W28" s="44">
         <f>U28-U29</f>
         <v>38065</v>
       </c>
-      <c r="X28" s="65">
+      <c r="X28" s="64">
         <v>101</v>
       </c>
-      <c r="Y28" s="47">
+      <c r="Y28" s="46">
         <v>99229</v>
       </c>
-      <c r="Z28" s="61">
+      <c r="Z28" s="60">
         <f t="shared" si="112"/>
         <v>27</v>
       </c>
-      <c r="AA28" s="67">
+      <c r="AA28" s="66">
         <f t="shared" si="113"/>
         <v>24483</v>
       </c>
-      <c r="AB28" s="77">
+      <c r="AB28" s="76">
         <f t="shared" si="97"/>
         <v>150</v>
       </c>
-      <c r="AC28" s="83">
+      <c r="AC28" s="82">
         <f t="shared" si="97"/>
         <v>150000</v>
       </c>
-      <c r="AD28" s="80">
+      <c r="AD28" s="79">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="AE28" s="86">
+      <c r="AE28" s="85">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="AF28" s="12">
+      <c r="AF28" s="11">
         <f t="shared" si="116"/>
         <v>114</v>
       </c>
-      <c r="AG28" s="18">
+      <c r="AG28" s="17">
         <f t="shared" si="117"/>
         <v>110688</v>
       </c>
-      <c r="AH28" s="15">
+      <c r="AH28" s="14">
         <v>16973</v>
       </c>
-      <c r="AI28" s="21">
+      <c r="AI28" s="20">
         <f t="shared" si="118"/>
         <v>126</v>
       </c>
-      <c r="AJ28" s="15">
+      <c r="AJ28" s="14">
         <f t="shared" si="119"/>
         <v>0.90476190476190477</v>
       </c>
-      <c r="AK28" s="21">
+      <c r="AK28" s="20">
         <f t="shared" si="120"/>
         <v>878.47619047619048</v>
       </c>
+      <c r="AM28" t="b">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="2:37">
-      <c r="B29" s="9" t="s">
+    <row r="29" spans="2:39">
+      <c r="B29" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="26">
         <v>42007</v>
       </c>
-      <c r="D29" s="53">
+      <c r="D29" s="52">
         <v>103</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="31">
         <v>69300</v>
       </c>
-      <c r="F29" s="55">
-        <f t="shared" ref="F29" si="121">D29-D30</f>
+      <c r="F29" s="54">
+        <f t="shared" ref="F29" si="122">D29-D30</f>
         <v>8</v>
       </c>
-      <c r="G29" s="33">
-        <f t="shared" ref="G29" si="122">E29-E30</f>
+      <c r="G29" s="32">
+        <f t="shared" ref="G29" si="123">E29-E30</f>
         <v>4151</v>
       </c>
-      <c r="H29" s="69">
+      <c r="H29" s="68">
         <v>24</v>
       </c>
-      <c r="I29" s="73">
+      <c r="I29" s="72">
         <v>13901</v>
       </c>
-      <c r="J29" s="71">
+      <c r="J29" s="70">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K29" s="75">
+      <c r="K29" s="74">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="L29" s="57">
+      <c r="L29" s="56">
         <v>96</v>
       </c>
-      <c r="M29" s="61">
+      <c r="M29" s="60">
         <v>65739</v>
       </c>
-      <c r="N29" s="59">
+      <c r="N29" s="58">
         <f t="shared" si="102"/>
         <v>6</v>
       </c>
-      <c r="O29" s="63">
+      <c r="O29" s="62">
         <f t="shared" si="103"/>
         <v>6671</v>
       </c>
-      <c r="P29" s="35">
+      <c r="P29" s="34">
         <v>53</v>
       </c>
-      <c r="Q29" s="49">
+      <c r="Q29" s="48">
         <v>62132</v>
       </c>
-      <c r="R29" s="37">
+      <c r="R29" s="36">
         <f t="shared" si="106"/>
         <v>15</v>
       </c>
-      <c r="S29" s="51">
+      <c r="S29" s="50">
         <f t="shared" si="107"/>
         <v>14540</v>
       </c>
-      <c r="T29" s="39">
+      <c r="T29" s="38">
         <v>62</v>
       </c>
-      <c r="U29" s="43">
+      <c r="U29" s="42">
         <v>76324</v>
       </c>
-      <c r="V29" s="41">
+      <c r="V29" s="40">
         <f t="shared" si="110"/>
         <v>2</v>
       </c>
-      <c r="W29" s="45">
+      <c r="W29" s="44">
         <f t="shared" si="111"/>
         <v>1209</v>
       </c>
-      <c r="X29" s="65">
+      <c r="X29" s="64">
         <v>74</v>
       </c>
-      <c r="Y29" s="47">
+      <c r="Y29" s="46">
         <v>74746</v>
       </c>
-      <c r="Z29" s="61">
+      <c r="Z29" s="60">
         <f t="shared" si="112"/>
         <v>13</v>
       </c>
-      <c r="AA29" s="67">
+      <c r="AA29" s="66">
         <f t="shared" si="113"/>
         <v>14974</v>
       </c>
-      <c r="AB29" s="77">
+      <c r="AB29" s="76">
         <v>150</v>
       </c>
-      <c r="AC29" s="83">
+      <c r="AC29" s="82">
         <v>150000</v>
       </c>
-      <c r="AD29" s="80">
+      <c r="AD29" s="79">
         <f t="shared" si="114"/>
         <v>14</v>
       </c>
-      <c r="AE29" s="86">
+      <c r="AE29" s="85">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="AF29" s="12">
+      <c r="AF29" s="11">
         <f t="shared" si="116"/>
         <v>58</v>
       </c>
-      <c r="AG29" s="18">
+      <c r="AG29" s="17">
         <f t="shared" si="117"/>
         <v>41545</v>
       </c>
-      <c r="AH29" s="15">
+      <c r="AH29" s="14">
         <v>16847</v>
       </c>
-      <c r="AI29" s="21">
+      <c r="AI29" s="20">
         <f t="shared" si="118"/>
         <v>63</v>
       </c>
-      <c r="AJ29" s="15">
+      <c r="AJ29" s="14">
         <f t="shared" si="119"/>
         <v>0.92063492063492058</v>
       </c>
-      <c r="AK29" s="21">
+      <c r="AK29" s="20">
         <f t="shared" si="120"/>
         <v>659.44444444444446</v>
       </c>
+      <c r="AM29" t="b">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="2:37">
-      <c r="B30" s="9" t="s">
+    <row r="30" spans="2:39">
+      <c r="B30" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="26">
         <v>42006</v>
       </c>
-      <c r="D30" s="53">
-        <f t="shared" ref="D30:E39" si="123">D31</f>
+      <c r="D30" s="52">
+        <f t="shared" ref="D30:E39" si="124">D31</f>
         <v>95</v>
       </c>
-      <c r="E30" s="32">
-        <f t="shared" si="123"/>
+      <c r="E30" s="31">
+        <f t="shared" si="124"/>
         <v>65149</v>
       </c>
-      <c r="F30" s="55">
+      <c r="F30" s="54">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="32">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="H30" s="69">
+      <c r="H30" s="68">
         <f t="shared" si="97"/>
         <v>24</v>
       </c>
-      <c r="I30" s="73">
+      <c r="I30" s="72">
         <f t="shared" si="97"/>
         <v>13901</v>
       </c>
-      <c r="J30" s="71">
+      <c r="J30" s="70">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K30" s="75">
+      <c r="K30" s="74">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="L30" s="57">
-        <f t="shared" ref="L30:M32" si="124">L31</f>
+      <c r="L30" s="56">
+        <f t="shared" ref="L30:M32" si="125">L31</f>
         <v>90</v>
       </c>
-      <c r="M30" s="61">
-        <f t="shared" si="124"/>
+      <c r="M30" s="60">
+        <f t="shared" si="125"/>
         <v>59068</v>
       </c>
-      <c r="N30" s="59">
+      <c r="N30" s="58">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="O30" s="63">
+      <c r="O30" s="62">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="P30" s="35">
-        <f t="shared" ref="P30:Q33" si="125">P31</f>
+      <c r="P30" s="34">
+        <f t="shared" ref="P30:Q33" si="126">P31</f>
         <v>38</v>
       </c>
-      <c r="Q30" s="49">
-        <f t="shared" si="125"/>
+      <c r="Q30" s="48">
+        <f t="shared" si="126"/>
         <v>47592</v>
       </c>
-      <c r="R30" s="37">
+      <c r="R30" s="36">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="S30" s="51">
+      <c r="S30" s="50">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="T30" s="39">
+      <c r="T30" s="38">
         <f>T31</f>
         <v>60</v>
       </c>
-      <c r="U30" s="43">
+      <c r="U30" s="42">
         <v>75115</v>
       </c>
-      <c r="V30" s="41">
+      <c r="V30" s="40">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="W30" s="45">
+      <c r="W30" s="44">
         <f t="shared" si="111"/>
         <v>3216</v>
       </c>
-      <c r="X30" s="65">
+      <c r="X30" s="64">
         <f t="shared" si="97"/>
         <v>61</v>
       </c>
-      <c r="Y30" s="47">
+      <c r="Y30" s="46">
         <f t="shared" si="97"/>
         <v>59772</v>
       </c>
-      <c r="Z30" s="61">
+      <c r="Z30" s="60">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="67">
+      <c r="AA30" s="66">
         <f t="shared" si="113"/>
         <v>0</v>
       </c>
-      <c r="AB30" s="77">
+      <c r="AB30" s="76">
         <v>136</v>
       </c>
-      <c r="AC30" s="83">
+      <c r="AC30" s="82">
         <v>150000</v>
       </c>
-      <c r="AD30" s="80">
+      <c r="AD30" s="79">
         <f t="shared" si="114"/>
         <v>35</v>
       </c>
-      <c r="AE30" s="86">
+      <c r="AE30" s="85">
         <f t="shared" si="115"/>
         <v>28631</v>
       </c>
-      <c r="AF30" s="12">
+      <c r="AF30" s="11">
         <f t="shared" si="116"/>
         <v>35</v>
       </c>
-      <c r="AG30" s="18">
+      <c r="AG30" s="17">
         <f t="shared" si="117"/>
         <v>31847</v>
       </c>
-      <c r="AH30" s="15">
+      <c r="AH30" s="14">
         <v>16784</v>
       </c>
-      <c r="AI30" s="21">
+      <c r="AI30" s="20">
         <f t="shared" si="118"/>
         <v>41</v>
       </c>
-      <c r="AJ30" s="15">
+      <c r="AJ30" s="14">
         <f t="shared" si="119"/>
         <v>0.85365853658536583</v>
       </c>
-      <c r="AK30" s="21">
+      <c r="AK30" s="20">
         <f t="shared" si="120"/>
         <v>776.7560975609756</v>
       </c>
+      <c r="AM30" t="b">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="2:37">
-      <c r="B31" s="9" t="s">
+    <row r="31" spans="2:39">
+      <c r="B31" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="26">
         <v>42005</v>
       </c>
-      <c r="D31" s="53">
-        <f t="shared" si="123"/>
+      <c r="D31" s="52">
+        <f t="shared" si="124"/>
         <v>95</v>
       </c>
-      <c r="E31" s="32">
-        <f t="shared" si="123"/>
+      <c r="E31" s="31">
+        <f t="shared" si="124"/>
         <v>65149</v>
       </c>
-      <c r="F31" s="55">
+      <c r="F31" s="54">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="32">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="H31" s="69">
+      <c r="H31" s="68">
         <f t="shared" si="97"/>
         <v>24</v>
       </c>
-      <c r="I31" s="73">
+      <c r="I31" s="72">
         <f t="shared" si="97"/>
         <v>13901</v>
       </c>
-      <c r="J31" s="71">
+      <c r="J31" s="70">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K31" s="75">
+      <c r="K31" s="74">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="L31" s="57">
-        <f t="shared" si="124"/>
+      <c r="L31" s="56">
+        <f t="shared" si="125"/>
         <v>90</v>
       </c>
-      <c r="M31" s="61">
-        <f t="shared" si="124"/>
+      <c r="M31" s="60">
+        <f t="shared" si="125"/>
         <v>59068</v>
       </c>
-      <c r="N31" s="59">
+      <c r="N31" s="58">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="O31" s="63">
+      <c r="O31" s="62">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="P31" s="35">
-        <f t="shared" si="125"/>
+      <c r="P31" s="34">
+        <f t="shared" si="126"/>
         <v>38</v>
       </c>
-      <c r="Q31" s="49">
-        <f t="shared" si="125"/>
+      <c r="Q31" s="48">
+        <f t="shared" si="126"/>
         <v>47592</v>
       </c>
-      <c r="R31" s="37">
+      <c r="R31" s="36">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="S31" s="51">
+      <c r="S31" s="50">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="T31" s="39">
+      <c r="T31" s="38">
         <f>T32</f>
         <v>60</v>
       </c>
-      <c r="U31" s="43">
+      <c r="U31" s="42">
         <f>U32</f>
         <v>71899</v>
       </c>
-      <c r="V31" s="41">
+      <c r="V31" s="40">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="W31" s="45">
+      <c r="W31" s="44">
         <f t="shared" si="111"/>
         <v>0</v>
       </c>
-      <c r="X31" s="65">
+      <c r="X31" s="64">
         <f t="shared" si="97"/>
         <v>61</v>
       </c>
-      <c r="Y31" s="47">
+      <c r="Y31" s="46">
         <f t="shared" si="97"/>
         <v>59772</v>
       </c>
-      <c r="Z31" s="61">
+      <c r="Z31" s="60">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="67">
+      <c r="AA31" s="66">
         <f t="shared" si="113"/>
         <v>0</v>
       </c>
-      <c r="AB31" s="77">
+      <c r="AB31" s="76">
         <v>101</v>
       </c>
-      <c r="AC31" s="83">
+      <c r="AC31" s="82">
         <v>121369</v>
       </c>
-      <c r="AD31" s="80">
+      <c r="AD31" s="79">
         <f t="shared" si="114"/>
         <v>23</v>
       </c>
-      <c r="AE31" s="86">
+      <c r="AE31" s="85">
         <f t="shared" si="115"/>
         <v>23745</v>
       </c>
-      <c r="AF31" s="12">
+      <c r="AF31" s="11">
         <f t="shared" si="116"/>
         <v>23</v>
       </c>
-      <c r="AG31" s="18">
+      <c r="AG31" s="17">
         <f t="shared" si="117"/>
         <v>23745</v>
       </c>
-      <c r="AH31" s="15">
+      <c r="AH31" s="14">
         <v>16743</v>
       </c>
-      <c r="AI31" s="21">
+      <c r="AI31" s="20">
         <f t="shared" si="118"/>
         <v>21</v>
       </c>
-      <c r="AJ31" s="15">
+      <c r="AJ31" s="14">
         <f>IF($AI31=0,0,AF31/$AI31)</f>
         <v>1.0952380952380953</v>
       </c>
-      <c r="AK31" s="21">
+      <c r="AK31" s="20">
         <f>IF($AI31=0,0,AG31/$AI31)</f>
         <v>1130.7142857142858</v>
       </c>
+      <c r="AM31" t="b">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="2:37">
-      <c r="B32" s="9" t="s">
+    <row r="32" spans="2:39">
+      <c r="B32" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="26">
         <v>42004</v>
       </c>
-      <c r="D32" s="53">
-        <f t="shared" si="123"/>
+      <c r="D32" s="52">
+        <f t="shared" si="124"/>
         <v>95</v>
       </c>
-      <c r="E32" s="32">
-        <f t="shared" si="123"/>
+      <c r="E32" s="31">
+        <f t="shared" si="124"/>
         <v>65149</v>
       </c>
-      <c r="F32" s="55">
+      <c r="F32" s="54">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="G32" s="33">
+      <c r="G32" s="32">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="H32" s="69">
+      <c r="H32" s="68">
         <f t="shared" si="97"/>
         <v>24</v>
       </c>
-      <c r="I32" s="73">
+      <c r="I32" s="72">
         <f t="shared" si="97"/>
         <v>13901</v>
       </c>
-      <c r="J32" s="71">
+      <c r="J32" s="70">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K32" s="75">
+      <c r="K32" s="74">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="L32" s="57">
-        <f t="shared" si="124"/>
+      <c r="L32" s="56">
+        <f t="shared" si="125"/>
         <v>90</v>
       </c>
-      <c r="M32" s="61">
-        <f t="shared" si="124"/>
+      <c r="M32" s="60">
+        <f t="shared" si="125"/>
         <v>59068</v>
       </c>
-      <c r="N32" s="59">
+      <c r="N32" s="58">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="O32" s="63">
+      <c r="O32" s="62">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="P32" s="35">
-        <f t="shared" si="125"/>
+      <c r="P32" s="34">
+        <f t="shared" si="126"/>
         <v>38</v>
       </c>
-      <c r="Q32" s="49">
-        <f t="shared" si="125"/>
+      <c r="Q32" s="48">
+        <f t="shared" si="126"/>
         <v>47592</v>
       </c>
-      <c r="R32" s="37">
+      <c r="R32" s="36">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="S32" s="51">
+      <c r="S32" s="50">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="T32" s="39">
+      <c r="T32" s="38">
         <f>T33</f>
         <v>60</v>
       </c>
-      <c r="U32" s="43">
+      <c r="U32" s="42">
         <f>U33</f>
         <v>71899</v>
       </c>
-      <c r="V32" s="41">
+      <c r="V32" s="40">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="W32" s="45">
+      <c r="W32" s="44">
         <f t="shared" si="111"/>
         <v>0</v>
       </c>
-      <c r="X32" s="65">
+      <c r="X32" s="64">
         <f t="shared" si="97"/>
         <v>61</v>
       </c>
-      <c r="Y32" s="47">
+      <c r="Y32" s="46">
         <f t="shared" si="97"/>
         <v>59772</v>
       </c>
-      <c r="Z32" s="61">
+      <c r="Z32" s="60">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="67">
+      <c r="AA32" s="66">
         <f t="shared" si="113"/>
         <v>0</v>
       </c>
-      <c r="AB32" s="77">
+      <c r="AB32" s="76">
         <f t="shared" si="97"/>
         <v>78</v>
       </c>
-      <c r="AC32" s="83">
+      <c r="AC32" s="82">
         <f t="shared" si="97"/>
         <v>97624</v>
       </c>
-      <c r="AD32" s="80">
+      <c r="AD32" s="79">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="AE32" s="86">
+      <c r="AE32" s="85">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="AF32" s="12">
+      <c r="AF32" s="11">
         <f t="shared" si="116"/>
         <v>0</v>
       </c>
-      <c r="AG32" s="18">
+      <c r="AG32" s="17">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AH32" s="15">
+      <c r="AH32" s="14">
         <v>16722</v>
       </c>
-      <c r="AI32" s="21">
+      <c r="AI32" s="20">
         <f t="shared" si="118"/>
         <v>0</v>
       </c>
-      <c r="AJ32" s="15">
-        <f t="shared" ref="AJ32:AJ33" si="126">IF($AI32=0,0,AF32/$AI32)</f>
-        <v>0</v>
-      </c>
-      <c r="AK32" s="21">
-        <f t="shared" ref="AK32:AK33" si="127">IF($AI32=0,0,AG32/$AI32)</f>
+      <c r="AJ32" s="14">
+        <f t="shared" ref="AJ32:AJ33" si="127">IF($AI32=0,0,AF32/$AI32)</f>
+        <v>0</v>
+      </c>
+      <c r="AK32" s="20">
+        <f t="shared" ref="AK32:AK33" si="128">IF($AI32=0,0,AG32/$AI32)</f>
+        <v>0</v>
+      </c>
+      <c r="AM32" t="b">
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:37">
-      <c r="B33" s="9" t="s">
+    <row r="33" spans="2:39">
+      <c r="B33" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C33" s="26">
         <v>42003</v>
       </c>
-      <c r="D33" s="53">
+      <c r="D33" s="52">
         <v>95</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="31">
         <v>65149</v>
       </c>
-      <c r="F33" s="55">
+      <c r="F33" s="54">
         <f t="shared" si="95"/>
         <v>9</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="32">
         <f t="shared" si="96"/>
         <v>6604</v>
       </c>
-      <c r="H33" s="69">
+      <c r="H33" s="68">
         <f t="shared" si="97"/>
         <v>24</v>
       </c>
-      <c r="I33" s="73">
+      <c r="I33" s="72">
         <f t="shared" si="97"/>
         <v>13901</v>
       </c>
-      <c r="J33" s="71">
+      <c r="J33" s="70">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K33" s="75">
+      <c r="K33" s="74">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="L33" s="57">
+      <c r="L33" s="56">
         <v>90</v>
       </c>
-      <c r="M33" s="61">
+      <c r="M33" s="60">
         <v>59068</v>
       </c>
-      <c r="N33" s="59">
+      <c r="N33" s="58">
         <f t="shared" si="102"/>
         <v>1</v>
       </c>
-      <c r="O33" s="63">
+      <c r="O33" s="62">
         <f t="shared" si="103"/>
         <v>909</v>
       </c>
-      <c r="P33" s="35">
-        <f t="shared" si="125"/>
+      <c r="P33" s="34">
+        <f t="shared" si="126"/>
         <v>38</v>
       </c>
-      <c r="Q33" s="49">
-        <f t="shared" si="125"/>
+      <c r="Q33" s="48">
+        <f t="shared" si="126"/>
         <v>47592</v>
       </c>
-      <c r="R33" s="37">
+      <c r="R33" s="36">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="S33" s="51">
+      <c r="S33" s="50">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="T33" s="39">
+      <c r="T33" s="38">
         <v>60</v>
       </c>
-      <c r="U33" s="43">
+      <c r="U33" s="42">
         <v>71899</v>
       </c>
-      <c r="V33" s="41">
+      <c r="V33" s="40">
         <f t="shared" si="110"/>
         <v>2</v>
       </c>
-      <c r="W33" s="45">
+      <c r="W33" s="44">
         <f t="shared" si="111"/>
         <v>3515</v>
       </c>
-      <c r="X33" s="65">
+      <c r="X33" s="64">
         <f t="shared" si="97"/>
         <v>61</v>
       </c>
-      <c r="Y33" s="47">
+      <c r="Y33" s="46">
         <f t="shared" si="97"/>
         <v>59772</v>
       </c>
-      <c r="Z33" s="61">
+      <c r="Z33" s="60">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="AA33" s="67">
+      <c r="AA33" s="66">
         <f t="shared" si="113"/>
         <v>0</v>
       </c>
-      <c r="AB33" s="77">
+      <c r="AB33" s="76">
         <v>78</v>
       </c>
-      <c r="AC33" s="83">
+      <c r="AC33" s="82">
         <v>97624</v>
       </c>
-      <c r="AD33" s="80">
+      <c r="AD33" s="79">
         <f t="shared" si="114"/>
         <v>17</v>
       </c>
-      <c r="AE33" s="86">
+      <c r="AE33" s="85">
         <f t="shared" si="115"/>
         <v>15893</v>
       </c>
-      <c r="AF33" s="12">
+      <c r="AF33" s="11">
         <f t="shared" si="116"/>
         <v>29</v>
       </c>
-      <c r="AG33" s="18">
+      <c r="AG33" s="17">
         <f t="shared" si="117"/>
         <v>26921</v>
       </c>
-      <c r="AH33" s="15">
+      <c r="AH33" s="14">
         <v>16722</v>
       </c>
-      <c r="AI33" s="21">
+      <c r="AI33" s="20">
         <f t="shared" si="118"/>
         <v>27</v>
       </c>
-      <c r="AJ33" s="15">
-        <f t="shared" si="126"/>
+      <c r="AJ33" s="14">
+        <f t="shared" si="127"/>
         <v>1.0740740740740742</v>
       </c>
-      <c r="AK33" s="21">
-        <f t="shared" si="127"/>
+      <c r="AK33" s="20">
+        <f t="shared" si="128"/>
         <v>997.07407407407402</v>
       </c>
+      <c r="AM33" t="b">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="2:37">
-      <c r="B34" s="9" t="s">
+    <row r="34" spans="2:39">
+      <c r="B34" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="26">
         <v>42002</v>
       </c>
-      <c r="D34" s="53">
+      <c r="D34" s="52">
         <v>86</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="31">
         <v>58545</v>
       </c>
-      <c r="F34" s="55">
+      <c r="F34" s="54">
         <f t="shared" si="95"/>
         <v>5</v>
       </c>
-      <c r="G34" s="33">
+      <c r="G34" s="32">
         <f t="shared" si="96"/>
         <v>2176</v>
       </c>
-      <c r="H34" s="69">
+      <c r="H34" s="68">
         <f t="shared" si="97"/>
         <v>24</v>
       </c>
-      <c r="I34" s="73">
+      <c r="I34" s="72">
         <f t="shared" si="97"/>
         <v>13901</v>
       </c>
-      <c r="J34" s="71">
+      <c r="J34" s="70">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K34" s="75">
+      <c r="K34" s="74">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="L34" s="57">
+      <c r="L34" s="56">
         <f>L35</f>
         <v>89</v>
       </c>
-      <c r="M34" s="61">
+      <c r="M34" s="60">
         <f>M35</f>
         <v>58159</v>
       </c>
-      <c r="N34" s="59">
+      <c r="N34" s="58">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="O34" s="63">
+      <c r="O34" s="62">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="P34" s="35">
+      <c r="P34" s="34">
         <v>38</v>
       </c>
-      <c r="Q34" s="49">
+      <c r="Q34" s="48">
         <v>47592</v>
       </c>
-      <c r="R34" s="37">
+      <c r="R34" s="36">
         <f t="shared" si="106"/>
         <v>3</v>
       </c>
-      <c r="S34" s="51">
+      <c r="S34" s="50">
         <f t="shared" si="107"/>
         <v>3306</v>
       </c>
-      <c r="T34" s="39">
+      <c r="T34" s="38">
         <v>58</v>
       </c>
-      <c r="U34" s="43">
+      <c r="U34" s="42">
         <v>68384</v>
       </c>
-      <c r="V34" s="41">
+      <c r="V34" s="40">
         <f t="shared" si="110"/>
         <v>4</v>
       </c>
-      <c r="W34" s="45">
+      <c r="W34" s="44">
         <f t="shared" si="111"/>
         <v>7384</v>
       </c>
-      <c r="X34" s="65">
-        <f t="shared" ref="X34:AC39" si="128">X35</f>
+      <c r="X34" s="64">
+        <f t="shared" ref="X34:AC39" si="129">X35</f>
         <v>61</v>
       </c>
-      <c r="Y34" s="47">
+      <c r="Y34" s="46">
         <v>59772</v>
       </c>
-      <c r="Z34" s="61">
+      <c r="Z34" s="60">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="AA34" s="67">
+      <c r="AA34" s="66">
         <f t="shared" si="113"/>
         <v>1572</v>
       </c>
-      <c r="AB34" s="77">
-        <f t="shared" si="128"/>
+      <c r="AB34" s="76">
+        <f t="shared" si="129"/>
         <v>61</v>
       </c>
-      <c r="AC34" s="83">
-        <f t="shared" si="128"/>
+      <c r="AC34" s="82">
+        <f t="shared" si="129"/>
         <v>81731</v>
       </c>
-      <c r="AD34" s="80">
+      <c r="AD34" s="79">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="AE34" s="86">
+      <c r="AE34" s="85">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="AF34" s="12">
+      <c r="AF34" s="11">
         <f t="shared" si="116"/>
         <v>12</v>
       </c>
-      <c r="AG34" s="18">
+      <c r="AG34" s="17">
         <f t="shared" si="117"/>
         <v>14438</v>
       </c>
-      <c r="AH34" s="15">
+      <c r="AH34" s="14">
         <v>16695</v>
       </c>
-      <c r="AI34" s="21">
+      <c r="AI34" s="20">
         <f t="shared" si="118"/>
         <v>13</v>
       </c>
-      <c r="AJ34" s="15">
-        <f t="shared" ref="AJ34:AJ36" si="129">AF34/$AI34</f>
+      <c r="AJ34" s="14">
+        <f t="shared" ref="AJ34:AJ36" si="130">AF34/$AI34</f>
         <v>0.92307692307692313</v>
       </c>
-      <c r="AK34" s="21">
-        <f t="shared" ref="AK34:AK36" si="130">AG34/$AI34</f>
+      <c r="AK34" s="20">
+        <f t="shared" ref="AK34:AK36" si="131">AG34/$AI34</f>
         <v>1110.6153846153845</v>
       </c>
+      <c r="AM34" t="b">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="2:37">
-      <c r="B35" s="9" t="s">
+    <row r="35" spans="2:39">
+      <c r="B35" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="26">
         <v>42001</v>
       </c>
-      <c r="D35" s="53">
+      <c r="D35" s="52">
         <v>81</v>
       </c>
-      <c r="E35" s="32">
+      <c r="E35" s="31">
         <v>56369</v>
       </c>
-      <c r="F35" s="55">
+      <c r="F35" s="54">
         <f t="shared" si="95"/>
         <v>8</v>
       </c>
-      <c r="G35" s="33">
+      <c r="G35" s="32">
         <f t="shared" si="96"/>
         <v>8249</v>
       </c>
-      <c r="H35" s="69">
+      <c r="H35" s="68">
         <v>24</v>
       </c>
-      <c r="I35" s="73">
+      <c r="I35" s="72">
         <v>13901</v>
       </c>
-      <c r="J35" s="71">
+      <c r="J35" s="70">
         <f t="shared" si="98"/>
         <v>1</v>
       </c>
-      <c r="K35" s="75">
+      <c r="K35" s="74">
         <f t="shared" si="99"/>
         <v>693</v>
       </c>
-      <c r="L35" s="57">
+      <c r="L35" s="56">
         <v>89</v>
       </c>
-      <c r="M35" s="61">
+      <c r="M35" s="60">
         <v>58159</v>
       </c>
-      <c r="N35" s="59">
+      <c r="N35" s="58">
         <f t="shared" si="102"/>
         <v>15</v>
       </c>
-      <c r="O35" s="63">
+      <c r="O35" s="62">
         <f t="shared" si="103"/>
         <v>7495</v>
       </c>
-      <c r="P35" s="35">
+      <c r="P35" s="34">
         <v>35</v>
       </c>
-      <c r="Q35" s="49">
+      <c r="Q35" s="48">
         <v>44286</v>
       </c>
-      <c r="R35" s="37">
+      <c r="R35" s="36">
         <f t="shared" si="106"/>
         <v>2</v>
       </c>
-      <c r="S35" s="51">
+      <c r="S35" s="50">
         <f t="shared" si="107"/>
         <v>4444</v>
       </c>
-      <c r="T35" s="39">
+      <c r="T35" s="38">
         <v>54</v>
       </c>
-      <c r="U35" s="43">
+      <c r="U35" s="42">
         <v>61000</v>
       </c>
-      <c r="V35" s="41">
+      <c r="V35" s="40">
         <f t="shared" si="110"/>
         <v>6</v>
       </c>
-      <c r="W35" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="X35" s="65">
+      <c r="W35" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="X35" s="64">
         <v>61</v>
       </c>
-      <c r="Y35" s="47">
+      <c r="Y35" s="46">
         <v>58200</v>
       </c>
-      <c r="Z35" s="61">
+      <c r="Z35" s="60">
         <f t="shared" si="112"/>
         <v>6</v>
       </c>
-      <c r="AA35" s="67">
+      <c r="AA35" s="66">
         <f t="shared" si="113"/>
         <v>4879</v>
       </c>
-      <c r="AB35" s="77">
+      <c r="AB35" s="76">
         <v>61</v>
       </c>
-      <c r="AC35" s="83">
+      <c r="AC35" s="82">
         <v>81731</v>
       </c>
-      <c r="AD35" s="80">
+      <c r="AD35" s="79">
         <f t="shared" si="114"/>
         <v>9</v>
       </c>
-      <c r="AE35" s="86">
+      <c r="AE35" s="85">
         <f t="shared" si="115"/>
         <v>13255</v>
       </c>
-      <c r="AF35" s="12">
+      <c r="AF35" s="11">
         <f t="shared" si="116"/>
         <v>47</v>
       </c>
-      <c r="AG35" s="18">
+      <c r="AG35" s="17">
         <f t="shared" si="117"/>
         <v>46264</v>
       </c>
-      <c r="AH35" s="15">
+      <c r="AH35" s="14">
         <v>16682</v>
       </c>
-      <c r="AI35" s="21">
+      <c r="AI35" s="20">
         <f t="shared" si="118"/>
         <v>50</v>
       </c>
-      <c r="AJ35" s="15">
-        <f t="shared" si="129"/>
+      <c r="AJ35" s="14">
+        <f t="shared" si="130"/>
         <v>0.94</v>
       </c>
-      <c r="AK35" s="21">
-        <f t="shared" si="130"/>
+      <c r="AK35" s="20">
+        <f t="shared" si="131"/>
         <v>925.28</v>
       </c>
+      <c r="AM35" t="b">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="2:37">
-      <c r="B36" s="9" t="s">
+    <row r="36" spans="2:39">
+      <c r="B36" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="26">
         <v>42000</v>
       </c>
-      <c r="D36" s="53">
+      <c r="D36" s="52">
         <v>73</v>
       </c>
-      <c r="E36" s="32">
+      <c r="E36" s="31">
         <v>48120</v>
       </c>
-      <c r="F36" s="55">
+      <c r="F36" s="54">
         <f t="shared" si="95"/>
         <v>8</v>
       </c>
-      <c r="G36" s="33">
+      <c r="G36" s="32">
         <f t="shared" si="96"/>
         <v>4420</v>
       </c>
-      <c r="H36" s="69">
-        <f t="shared" ref="H36:I41" si="131">H37</f>
+      <c r="H36" s="68">
+        <f t="shared" ref="H36:I41" si="132">H37</f>
         <v>23</v>
       </c>
-      <c r="I36" s="73">
-        <f t="shared" si="131"/>
+      <c r="I36" s="72">
+        <f t="shared" si="132"/>
         <v>13208</v>
       </c>
-      <c r="J36" s="71">
+      <c r="J36" s="70">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K36" s="75">
+      <c r="K36" s="74">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="L36" s="57">
+      <c r="L36" s="56">
         <f>L37</f>
         <v>74</v>
       </c>
-      <c r="M36" s="61">
+      <c r="M36" s="60">
         <f>M37</f>
         <v>50664</v>
       </c>
-      <c r="N36" s="59">
+      <c r="N36" s="58">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="O36" s="63">
+      <c r="O36" s="62">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="P36" s="35">
+      <c r="P36" s="34">
         <f>P37</f>
         <v>33</v>
       </c>
-      <c r="Q36" s="49">
+      <c r="Q36" s="48">
         <f>Q37</f>
         <v>39842</v>
       </c>
-      <c r="R36" s="37">
+      <c r="R36" s="36">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="S36" s="51">
+      <c r="S36" s="50">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="T36" s="39">
+      <c r="T36" s="38">
         <f>T37</f>
         <v>48</v>
       </c>
-      <c r="U36" s="43">
+      <c r="U36" s="42">
         <f>U37</f>
         <v>53751</v>
       </c>
-      <c r="V36" s="41">
+      <c r="V36" s="40">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="W36" s="45">
+      <c r="W36" s="44">
         <f t="shared" si="111"/>
         <v>0</v>
       </c>
-      <c r="X36" s="65">
-        <f t="shared" si="128"/>
+      <c r="X36" s="64">
+        <f t="shared" si="129"/>
         <v>55</v>
       </c>
-      <c r="Y36" s="47">
-        <f t="shared" si="128"/>
+      <c r="Y36" s="46">
+        <f t="shared" si="129"/>
         <v>53321</v>
       </c>
-      <c r="Z36" s="61">
+      <c r="Z36" s="60">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="AA36" s="67">
+      <c r="AA36" s="66">
         <f t="shared" si="113"/>
         <v>0</v>
       </c>
-      <c r="AB36" s="77">
-        <f t="shared" si="128"/>
+      <c r="AB36" s="76">
+        <f t="shared" si="129"/>
         <v>52</v>
       </c>
-      <c r="AC36" s="83">
-        <f t="shared" si="128"/>
+      <c r="AC36" s="82">
+        <f t="shared" si="129"/>
         <v>68476</v>
       </c>
-      <c r="AD36" s="80">
+      <c r="AD36" s="79">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="AE36" s="86">
+      <c r="AE36" s="85">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="AF36" s="12">
+      <c r="AF36" s="11">
         <f t="shared" si="116"/>
         <v>8</v>
       </c>
-      <c r="AG36" s="18">
+      <c r="AG36" s="17">
         <f t="shared" si="117"/>
         <v>4420</v>
       </c>
-      <c r="AH36" s="15">
+      <c r="AH36" s="14">
         <v>16632</v>
       </c>
-      <c r="AI36" s="21">
+      <c r="AI36" s="20">
         <f t="shared" si="118"/>
         <v>2</v>
       </c>
-      <c r="AJ36" s="15">
-        <f t="shared" si="129"/>
+      <c r="AJ36" s="14">
+        <f t="shared" si="130"/>
         <v>4</v>
       </c>
-      <c r="AK36" s="21">
-        <f t="shared" si="130"/>
+      <c r="AK36" s="20">
+        <f t="shared" si="131"/>
         <v>2210</v>
       </c>
+      <c r="AM36" t="b">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="2:37">
-      <c r="B37" s="9" t="s">
+    <row r="37" spans="2:39">
+      <c r="B37" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="26">
         <v>41999</v>
       </c>
-      <c r="D37" s="53">
+      <c r="D37" s="52">
         <v>65</v>
       </c>
-      <c r="E37" s="32">
+      <c r="E37" s="31">
         <v>43700</v>
       </c>
-      <c r="F37" s="55">
+      <c r="F37" s="54">
         <f t="shared" si="95"/>
         <v>9</v>
       </c>
-      <c r="G37" s="33">
+      <c r="G37" s="32">
         <f t="shared" si="96"/>
         <v>6500</v>
       </c>
-      <c r="H37" s="69">
+      <c r="H37" s="68">
         <v>23</v>
       </c>
-      <c r="I37" s="73">
+      <c r="I37" s="72">
         <v>13208</v>
       </c>
-      <c r="J37" s="71">
+      <c r="J37" s="70">
         <f t="shared" si="98"/>
         <v>8</v>
       </c>
-      <c r="K37" s="75">
+      <c r="K37" s="74">
         <f t="shared" si="99"/>
         <v>3620</v>
       </c>
-      <c r="L37" s="57">
+      <c r="L37" s="56">
         <v>74</v>
       </c>
-      <c r="M37" s="61">
+      <c r="M37" s="60">
         <v>50664</v>
       </c>
-      <c r="N37" s="59">
+      <c r="N37" s="58">
         <f t="shared" si="102"/>
         <v>6</v>
       </c>
-      <c r="O37" s="63">
+      <c r="O37" s="62">
         <f t="shared" si="103"/>
         <v>4005</v>
       </c>
-      <c r="P37" s="35">
+      <c r="P37" s="34">
         <v>33</v>
       </c>
-      <c r="Q37" s="49">
+      <c r="Q37" s="48">
         <v>39842</v>
       </c>
-      <c r="R37" s="37">
+      <c r="R37" s="36">
         <f t="shared" si="106"/>
         <v>3</v>
       </c>
-      <c r="S37" s="51">
+      <c r="S37" s="50">
         <f t="shared" si="107"/>
         <v>2155</v>
       </c>
-      <c r="T37" s="39">
+      <c r="T37" s="38">
         <v>48</v>
       </c>
-      <c r="U37" s="43">
+      <c r="U37" s="42">
         <v>53751</v>
       </c>
-      <c r="V37" s="41">
+      <c r="V37" s="40">
         <f t="shared" si="110"/>
         <v>1</v>
       </c>
-      <c r="W37" s="45">
+      <c r="W37" s="44">
         <f t="shared" si="111"/>
         <v>1981</v>
       </c>
-      <c r="X37" s="65">
+      <c r="X37" s="64">
         <v>55</v>
       </c>
-      <c r="Y37" s="47">
+      <c r="Y37" s="46">
         <v>53321</v>
       </c>
-      <c r="Z37" s="61">
+      <c r="Z37" s="60">
         <f t="shared" si="112"/>
         <v>7</v>
       </c>
-      <c r="AA37" s="67">
+      <c r="AA37" s="66">
         <f t="shared" si="113"/>
         <v>7477</v>
       </c>
-      <c r="AB37" s="77">
+      <c r="AB37" s="76">
         <v>52</v>
       </c>
-      <c r="AC37" s="83">
+      <c r="AC37" s="82">
         <v>68476</v>
       </c>
-      <c r="AD37" s="80">
+      <c r="AD37" s="79">
         <f t="shared" si="114"/>
         <v>8</v>
       </c>
-      <c r="AE37" s="86">
+      <c r="AE37" s="85">
         <f t="shared" si="115"/>
         <v>11554</v>
       </c>
-      <c r="AF37" s="12">
+      <c r="AF37" s="11">
         <f t="shared" si="116"/>
         <v>42</v>
       </c>
-      <c r="AG37" s="18">
+      <c r="AG37" s="17">
         <f t="shared" si="117"/>
         <v>37292</v>
       </c>
-      <c r="AH37" s="15">
+      <c r="AH37" s="14">
         <v>16630</v>
       </c>
-      <c r="AI37" s="21">
-        <f t="shared" ref="AI37" si="132">AH37-AH38</f>
+      <c r="AI37" s="20">
+        <f t="shared" ref="AI37" si="133">AH37-AH38</f>
         <v>38</v>
       </c>
-      <c r="AJ37" s="15">
-        <f t="shared" ref="AJ37" si="133">AF37/$AI37</f>
+      <c r="AJ37" s="14">
+        <f t="shared" ref="AJ37" si="134">AF37/$AI37</f>
         <v>1.1052631578947369</v>
       </c>
-      <c r="AK37" s="21">
-        <f t="shared" ref="AK37" si="134">AG37/$AI37</f>
+      <c r="AK37" s="20">
+        <f t="shared" ref="AK37" si="135">AG37/$AI37</f>
         <v>981.36842105263156</v>
       </c>
+      <c r="AM37" t="b">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="2:37">
-      <c r="B38" s="9" t="s">
+    <row r="38" spans="2:39">
+      <c r="B38" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="26">
         <v>41998</v>
       </c>
-      <c r="D38" s="53">
+      <c r="D38" s="52">
         <v>56</v>
       </c>
-      <c r="E38" s="32">
+      <c r="E38" s="31">
         <v>37200</v>
       </c>
-      <c r="F38" s="55">
+      <c r="F38" s="54">
         <f t="shared" si="95"/>
         <v>6</v>
       </c>
-      <c r="G38" s="33">
+      <c r="G38" s="32">
         <f t="shared" si="96"/>
         <v>3300</v>
       </c>
-      <c r="H38" s="69">
+      <c r="H38" s="68">
         <v>15</v>
       </c>
-      <c r="I38" s="73">
+      <c r="I38" s="72">
         <v>9588</v>
       </c>
-      <c r="J38" s="71">
+      <c r="J38" s="70">
         <f t="shared" si="98"/>
         <v>3</v>
       </c>
-      <c r="K38" s="75">
+      <c r="K38" s="74">
         <f t="shared" si="99"/>
         <v>1597</v>
       </c>
-      <c r="L38" s="57">
+      <c r="L38" s="56">
         <v>68</v>
       </c>
-      <c r="M38" s="61">
+      <c r="M38" s="60">
         <v>46659</v>
       </c>
-      <c r="N38" s="59">
+      <c r="N38" s="58">
         <f t="shared" si="102"/>
         <v>3</v>
       </c>
-      <c r="O38" s="63">
+      <c r="O38" s="62">
         <f t="shared" si="103"/>
         <v>1399</v>
       </c>
-      <c r="P38" s="35">
+      <c r="P38" s="34">
         <v>30</v>
       </c>
-      <c r="Q38" s="49">
+      <c r="Q38" s="48">
         <v>37687</v>
       </c>
-      <c r="R38" s="37">
+      <c r="R38" s="36">
         <f t="shared" si="106"/>
         <v>24</v>
       </c>
-      <c r="S38" s="51">
+      <c r="S38" s="50">
         <f t="shared" si="107"/>
         <v>23288</v>
       </c>
-      <c r="T38" s="39">
+      <c r="T38" s="38">
         <v>47</v>
       </c>
-      <c r="U38" s="43">
+      <c r="U38" s="42">
         <v>51770</v>
       </c>
-      <c r="V38" s="41">
+      <c r="V38" s="40">
         <f t="shared" si="110"/>
         <v>3</v>
       </c>
-      <c r="W38" s="45">
+      <c r="W38" s="44">
         <f t="shared" si="111"/>
         <v>2782</v>
       </c>
-      <c r="X38" s="65">
+      <c r="X38" s="64">
         <v>48</v>
       </c>
-      <c r="Y38" s="47">
+      <c r="Y38" s="46">
         <v>45844</v>
       </c>
-      <c r="Z38" s="61">
+      <c r="Z38" s="60">
         <f t="shared" si="112"/>
         <v>13</v>
       </c>
-      <c r="AA38" s="67">
+      <c r="AA38" s="66">
         <f t="shared" si="113"/>
         <v>7171</v>
       </c>
-      <c r="AB38" s="77">
+      <c r="AB38" s="76">
         <v>44</v>
       </c>
-      <c r="AC38" s="83">
+      <c r="AC38" s="82">
         <v>56922</v>
       </c>
-      <c r="AD38" s="80">
+      <c r="AD38" s="79">
         <f t="shared" si="114"/>
         <v>2</v>
       </c>
-      <c r="AE38" s="86">
+      <c r="AE38" s="85">
         <f t="shared" si="115"/>
         <v>1131</v>
       </c>
-      <c r="AF38" s="12">
+      <c r="AF38" s="11">
         <f t="shared" si="116"/>
         <v>54</v>
       </c>
-      <c r="AG38" s="18">
+      <c r="AG38" s="17">
         <f t="shared" si="117"/>
         <v>40668</v>
       </c>
-      <c r="AH38" s="15">
+      <c r="AH38" s="14">
         <v>16592</v>
       </c>
-      <c r="AI38" s="21">
-        <f t="shared" ref="AI38" si="135">AH38-AH39</f>
+      <c r="AI38" s="20">
+        <f t="shared" ref="AI38" si="136">AH38-AH39</f>
         <v>56</v>
       </c>
-      <c r="AJ38" s="15">
-        <f t="shared" ref="AJ38" si="136">AF38/$AI38</f>
+      <c r="AJ38" s="14">
+        <f t="shared" ref="AJ38" si="137">AF38/$AI38</f>
         <v>0.9642857142857143</v>
       </c>
-      <c r="AK38" s="21">
-        <f t="shared" ref="AK38" si="137">AG38/$AI38</f>
+      <c r="AK38" s="20">
+        <f t="shared" ref="AK38" si="138">AG38/$AI38</f>
         <v>726.21428571428567</v>
       </c>
+      <c r="AM38" t="b">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="2:37">
-      <c r="B39" s="9" t="s">
+    <row r="39" spans="2:39">
+      <c r="B39" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39" s="26">
         <v>41997</v>
       </c>
-      <c r="D39" s="53">
-        <f t="shared" si="123"/>
+      <c r="D39" s="52">
+        <f t="shared" si="124"/>
         <v>50</v>
       </c>
-      <c r="E39" s="32">
+      <c r="E39" s="31">
         <v>33900</v>
       </c>
-      <c r="F39" s="55">
+      <c r="F39" s="54">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="G39" s="33">
+      <c r="G39" s="32">
         <f t="shared" si="96"/>
         <v>1853</v>
       </c>
-      <c r="H39" s="69">
-        <f t="shared" si="131"/>
+      <c r="H39" s="68">
+        <f t="shared" si="132"/>
         <v>12</v>
       </c>
-      <c r="I39" s="73">
-        <f t="shared" si="131"/>
+      <c r="I39" s="72">
+        <f t="shared" si="132"/>
         <v>7991</v>
       </c>
-      <c r="J39" s="71">
+      <c r="J39" s="70">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K39" s="75">
+      <c r="K39" s="74">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="L39" s="57">
+      <c r="L39" s="56">
         <v>65</v>
       </c>
-      <c r="M39" s="61">
+      <c r="M39" s="60">
         <v>45260</v>
       </c>
-      <c r="N39" s="59">
+      <c r="N39" s="58">
         <f t="shared" si="102"/>
         <v>17</v>
       </c>
-      <c r="O39" s="63">
+      <c r="O39" s="62">
         <f t="shared" si="103"/>
         <v>11845</v>
       </c>
-      <c r="P39" s="35">
+      <c r="P39" s="34">
         <f>P40</f>
         <v>6</v>
       </c>
-      <c r="Q39" s="49">
+      <c r="Q39" s="48">
         <v>14399</v>
       </c>
-      <c r="R39" s="37">
+      <c r="R39" s="36">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="S39" s="51">
+      <c r="S39" s="50">
         <f t="shared" si="107"/>
         <v>837</v>
       </c>
-      <c r="T39" s="39">
+      <c r="T39" s="38">
         <v>44</v>
       </c>
-      <c r="U39" s="43">
+      <c r="U39" s="42">
         <v>48988</v>
       </c>
-      <c r="V39" s="41">
+      <c r="V39" s="40">
         <f t="shared" si="110"/>
         <v>6</v>
       </c>
-      <c r="W39" s="45">
+      <c r="W39" s="44">
         <f t="shared" si="111"/>
         <v>10125</v>
       </c>
-      <c r="X39" s="65">
+      <c r="X39" s="64">
         <v>35</v>
       </c>
-      <c r="Y39" s="47">
+      <c r="Y39" s="46">
         <v>38673</v>
       </c>
-      <c r="Z39" s="61">
+      <c r="Z39" s="60">
         <f t="shared" si="112"/>
         <v>2</v>
       </c>
-      <c r="AA39" s="67">
+      <c r="AA39" s="66">
         <f t="shared" si="113"/>
         <v>4173</v>
       </c>
-      <c r="AB39" s="77">
-        <f t="shared" si="128"/>
+      <c r="AB39" s="76">
+        <f t="shared" si="129"/>
         <v>42</v>
       </c>
-      <c r="AC39" s="83">
+      <c r="AC39" s="82">
         <v>55791</v>
       </c>
-      <c r="AD39" s="80">
+      <c r="AD39" s="79">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="AE39" s="86">
+      <c r="AE39" s="85">
         <f t="shared" si="115"/>
         <v>700</v>
       </c>
-      <c r="AF39" s="12">
+      <c r="AF39" s="11">
         <f t="shared" si="116"/>
         <v>25</v>
       </c>
-      <c r="AG39" s="18">
+      <c r="AG39" s="17">
         <f t="shared" si="117"/>
         <v>29533</v>
       </c>
-      <c r="AH39" s="15">
+      <c r="AH39" s="14">
         <v>16536</v>
       </c>
-      <c r="AI39" s="21">
-        <f t="shared" ref="AI39:AI40" si="138">AH39-AH40</f>
+      <c r="AI39" s="20">
+        <f t="shared" ref="AI39:AI40" si="139">AH39-AH40</f>
         <v>22</v>
       </c>
-      <c r="AJ39" s="15">
-        <f t="shared" ref="AJ39:AK42" si="139">AF39/$AI39</f>
+      <c r="AJ39" s="14">
+        <f t="shared" ref="AJ39:AK42" si="140">AF39/$AI39</f>
         <v>1.1363636363636365</v>
       </c>
-      <c r="AK39" s="21">
-        <f t="shared" si="139"/>
+      <c r="AK39" s="20">
+        <f t="shared" si="140"/>
         <v>1342.409090909091</v>
       </c>
+      <c r="AM39" t="b">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="2:37">
-      <c r="B40" s="9" t="s">
+    <row r="40" spans="2:39">
+      <c r="B40" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="27">
+      <c r="C40" s="26">
         <v>41996</v>
       </c>
-      <c r="D40" s="53">
+      <c r="D40" s="52">
         <v>50</v>
       </c>
-      <c r="E40" s="32">
+      <c r="E40" s="31">
         <v>32047</v>
       </c>
-      <c r="F40" s="55">
+      <c r="F40" s="54">
         <f t="shared" si="95"/>
         <v>3</v>
       </c>
-      <c r="G40" s="33">
+      <c r="G40" s="32">
         <f t="shared" si="96"/>
         <v>1632</v>
       </c>
-      <c r="H40" s="69">
-        <f t="shared" si="131"/>
+      <c r="H40" s="68">
+        <f t="shared" si="132"/>
         <v>12</v>
       </c>
-      <c r="I40" s="73">
-        <f t="shared" si="131"/>
+      <c r="I40" s="72">
+        <f t="shared" si="132"/>
         <v>7991</v>
       </c>
-      <c r="J40" s="71">
+      <c r="J40" s="70">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K40" s="75">
+      <c r="K40" s="74">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="L40" s="57">
+      <c r="L40" s="56">
         <v>48</v>
       </c>
-      <c r="M40" s="61">
+      <c r="M40" s="60">
         <v>33415</v>
       </c>
-      <c r="N40" s="59">
+      <c r="N40" s="58">
         <f t="shared" si="102"/>
         <v>1</v>
       </c>
-      <c r="O40" s="63">
+      <c r="O40" s="62">
         <f t="shared" si="103"/>
         <v>971</v>
       </c>
-      <c r="P40" s="35">
+      <c r="P40" s="34">
         <v>6</v>
       </c>
-      <c r="Q40" s="49">
+      <c r="Q40" s="48">
         <v>13562</v>
       </c>
-      <c r="R40" s="37">
+      <c r="R40" s="36">
         <f t="shared" si="106"/>
         <v>2</v>
       </c>
-      <c r="S40" s="51">
+      <c r="S40" s="50">
         <f t="shared" si="107"/>
         <v>1776</v>
       </c>
-      <c r="T40" s="39">
+      <c r="T40" s="38">
         <f>T41</f>
         <v>38</v>
       </c>
-      <c r="U40" s="43">
+      <c r="U40" s="42">
         <f>U41</f>
         <v>38863</v>
       </c>
-      <c r="V40" s="41">
+      <c r="V40" s="40">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="W40" s="45">
+      <c r="W40" s="44">
         <f t="shared" si="111"/>
         <v>0</v>
       </c>
-      <c r="X40" s="65">
+      <c r="X40" s="64">
         <v>33</v>
       </c>
-      <c r="Y40" s="47">
+      <c r="Y40" s="46">
         <v>34500</v>
       </c>
-      <c r="Z40" s="61">
+      <c r="Z40" s="60">
         <f t="shared" si="112"/>
         <v>3</v>
       </c>
-      <c r="AA40" s="67">
+      <c r="AA40" s="66">
         <f t="shared" si="113"/>
         <v>3162</v>
       </c>
-      <c r="AB40" s="77">
+      <c r="AB40" s="76">
         <v>42</v>
       </c>
-      <c r="AC40" s="83">
+      <c r="AC40" s="82">
         <v>55091</v>
       </c>
-      <c r="AD40" s="80">
+      <c r="AD40" s="79">
         <f t="shared" si="114"/>
         <v>12</v>
       </c>
-      <c r="AE40" s="86">
+      <c r="AE40" s="85">
         <f t="shared" si="115"/>
         <v>5817</v>
       </c>
-      <c r="AF40" s="12">
+      <c r="AF40" s="11">
         <f t="shared" si="116"/>
         <v>21</v>
       </c>
-      <c r="AG40" s="18">
+      <c r="AG40" s="17">
         <f t="shared" si="117"/>
         <v>13358</v>
       </c>
-      <c r="AH40" s="15">
+      <c r="AH40" s="14">
         <v>16514</v>
       </c>
-      <c r="AI40" s="21">
-        <f t="shared" si="138"/>
+      <c r="AI40" s="20">
+        <f t="shared" si="139"/>
         <v>27</v>
       </c>
-      <c r="AJ40" s="15">
-        <f t="shared" si="139"/>
+      <c r="AJ40" s="14">
+        <f t="shared" si="140"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="AK40" s="21">
-        <f t="shared" si="139"/>
+      <c r="AK40" s="20">
+        <f t="shared" si="140"/>
         <v>494.74074074074076</v>
       </c>
+      <c r="AM40" t="b">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="2:37">
-      <c r="B41" s="9" t="s">
+    <row r="41" spans="2:39">
+      <c r="B41" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="27">
+      <c r="C41" s="26">
         <v>41995</v>
       </c>
-      <c r="D41" s="53">
+      <c r="D41" s="52">
         <v>47</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E41" s="31">
         <v>30415</v>
       </c>
-      <c r="F41" s="55">
+      <c r="F41" s="54">
         <f t="shared" si="95"/>
         <v>7</v>
       </c>
-      <c r="G41" s="33">
+      <c r="G41" s="32">
         <f t="shared" si="96"/>
         <v>2923</v>
       </c>
-      <c r="H41" s="69">
-        <f t="shared" si="131"/>
+      <c r="H41" s="68">
+        <f t="shared" si="132"/>
         <v>12</v>
       </c>
-      <c r="I41" s="73">
-        <f t="shared" si="131"/>
+      <c r="I41" s="72">
+        <f t="shared" si="132"/>
         <v>7991</v>
       </c>
-      <c r="J41" s="71">
+      <c r="J41" s="70">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K41" s="75">
+      <c r="K41" s="74">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="L41" s="57">
+      <c r="L41" s="56">
         <v>47</v>
       </c>
-      <c r="M41" s="61">
+      <c r="M41" s="60">
         <v>32444</v>
       </c>
-      <c r="N41" s="59">
+      <c r="N41" s="58">
         <f t="shared" si="102"/>
         <v>3</v>
       </c>
-      <c r="O41" s="63">
+      <c r="O41" s="62">
         <f t="shared" si="103"/>
         <v>1204</v>
       </c>
-      <c r="P41" s="35">
+      <c r="P41" s="34">
         <f>P42</f>
         <v>4</v>
       </c>
-      <c r="Q41" s="49">
+      <c r="Q41" s="48">
         <f>Q42</f>
         <v>11786</v>
       </c>
-      <c r="R41" s="37">
+      <c r="R41" s="36">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="S41" s="51">
+      <c r="S41" s="50">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="T41" s="39">
+      <c r="T41" s="38">
         <f>T42</f>
         <v>38</v>
       </c>
-      <c r="U41" s="43">
+      <c r="U41" s="42">
         <f>U42</f>
         <v>38863</v>
       </c>
-      <c r="V41" s="41">
+      <c r="V41" s="40">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="W41" s="45">
+      <c r="W41" s="44">
         <f t="shared" si="111"/>
         <v>0</v>
       </c>
-      <c r="X41" s="65">
+      <c r="X41" s="64">
         <v>30</v>
       </c>
-      <c r="Y41" s="47">
+      <c r="Y41" s="46">
         <v>31338</v>
       </c>
-      <c r="Z41" s="61">
+      <c r="Z41" s="60">
         <f t="shared" si="112"/>
         <v>3</v>
       </c>
-      <c r="AA41" s="67">
+      <c r="AA41" s="66">
         <f t="shared" si="113"/>
         <v>2739</v>
       </c>
-      <c r="AB41" s="77">
+      <c r="AB41" s="76">
         <v>30</v>
       </c>
-      <c r="AC41" s="83">
+      <c r="AC41" s="82">
         <v>49274</v>
       </c>
-      <c r="AD41" s="80">
+      <c r="AD41" s="79">
         <f t="shared" si="114"/>
         <v>1</v>
       </c>
-      <c r="AE41" s="86">
+      <c r="AE41" s="85">
         <f t="shared" si="115"/>
         <v>1064</v>
       </c>
-      <c r="AF41" s="12">
+      <c r="AF41" s="11">
         <f t="shared" si="116"/>
         <v>14</v>
       </c>
-      <c r="AG41" s="18">
+      <c r="AG41" s="17">
         <f t="shared" si="117"/>
         <v>7930</v>
       </c>
-      <c r="AH41" s="15">
+      <c r="AH41" s="14">
         <v>16487</v>
       </c>
-      <c r="AI41" s="21">
+      <c r="AI41" s="20">
         <f>AH41-AH42</f>
         <v>10</v>
       </c>
-      <c r="AJ41" s="15">
-        <f t="shared" si="139"/>
+      <c r="AJ41" s="14">
+        <f t="shared" si="140"/>
         <v>1.4</v>
       </c>
-      <c r="AK41" s="21">
-        <f t="shared" si="139"/>
+      <c r="AK41" s="20">
+        <f t="shared" si="140"/>
         <v>793</v>
       </c>
+      <c r="AM41" t="b">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="2:37">
-      <c r="B42" s="9" t="s">
+    <row r="42" spans="2:39">
+      <c r="B42" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="27">
+      <c r="C42" s="26">
         <v>41994</v>
       </c>
-      <c r="D42" s="53">
+      <c r="D42" s="52">
         <v>40</v>
       </c>
-      <c r="E42" s="32">
+      <c r="E42" s="31">
         <v>27492</v>
       </c>
-      <c r="F42" s="55">
+      <c r="F42" s="54">
         <f>D42-D43</f>
         <v>8</v>
       </c>
-      <c r="G42" s="33">
+      <c r="G42" s="32">
         <f>E42-E43</f>
         <v>4562</v>
       </c>
-      <c r="H42" s="69">
+      <c r="H42" s="68">
         <v>12</v>
       </c>
-      <c r="I42" s="73">
+      <c r="I42" s="72">
         <v>7991</v>
       </c>
-      <c r="J42" s="71">
+      <c r="J42" s="70">
         <f>H42-H43</f>
         <v>9</v>
       </c>
-      <c r="K42" s="75">
+      <c r="K42" s="74">
         <f>I42-I43</f>
         <v>6258</v>
       </c>
-      <c r="L42" s="57">
+      <c r="L42" s="56">
         <v>44</v>
       </c>
-      <c r="M42" s="61">
+      <c r="M42" s="60">
         <v>31240</v>
       </c>
-      <c r="N42" s="59">
+      <c r="N42" s="58">
         <f>L42-L43</f>
         <v>12</v>
       </c>
-      <c r="O42" s="63">
+      <c r="O42" s="62">
         <f>M42-M43</f>
         <v>8516</v>
       </c>
-      <c r="P42" s="35">
+      <c r="P42" s="34">
         <f>P43</f>
         <v>4</v>
       </c>
-      <c r="Q42" s="49">
+      <c r="Q42" s="48">
         <v>11786</v>
       </c>
-      <c r="R42" s="37">
+      <c r="R42" s="36">
         <f>P42-P43</f>
         <v>0</v>
       </c>
-      <c r="S42" s="51">
+      <c r="S42" s="50">
         <f>Q42-Q43</f>
         <v>474</v>
       </c>
-      <c r="T42" s="39">
+      <c r="T42" s="38">
         <v>38</v>
       </c>
-      <c r="U42" s="43">
+      <c r="U42" s="42">
         <v>38863</v>
       </c>
-      <c r="V42" s="41">
+      <c r="V42" s="40">
         <f>T42-T43</f>
         <v>8</v>
       </c>
-      <c r="W42" s="45">
+      <c r="W42" s="44">
         <f>U42-U43</f>
         <v>7008</v>
       </c>
-      <c r="X42" s="65">
+      <c r="X42" s="64">
         <v>27</v>
       </c>
-      <c r="Y42" s="47">
+      <c r="Y42" s="46">
         <v>28599</v>
       </c>
-      <c r="Z42" s="61">
+      <c r="Z42" s="60">
         <f>X42-X43</f>
         <v>4</v>
       </c>
-      <c r="AA42" s="67">
+      <c r="AA42" s="66">
         <f>Y42-Y43</f>
         <v>5367</v>
       </c>
-      <c r="AB42" s="77">
+      <c r="AB42" s="76">
         <v>29</v>
       </c>
-      <c r="AC42" s="83">
+      <c r="AC42" s="82">
         <v>48210</v>
       </c>
-      <c r="AD42" s="80">
+      <c r="AD42" s="79">
         <f>AB42-AB43</f>
         <v>7</v>
       </c>
-      <c r="AE42" s="86">
+      <c r="AE42" s="85">
         <f>AC42-AC43</f>
         <v>8390</v>
       </c>
-      <c r="AF42" s="12">
+      <c r="AF42" s="11">
         <f t="shared" si="116"/>
         <v>48</v>
       </c>
-      <c r="AG42" s="18">
+      <c r="AG42" s="17">
         <f t="shared" si="117"/>
         <v>40575</v>
       </c>
-      <c r="AH42" s="15">
+      <c r="AH42" s="14">
         <v>16477</v>
       </c>
-      <c r="AI42" s="21">
+      <c r="AI42" s="20">
         <f>AH42-AH43</f>
         <v>28</v>
       </c>
-      <c r="AJ42" s="15">
-        <f t="shared" si="139"/>
+      <c r="AJ42" s="14">
+        <f t="shared" si="140"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="AK42" s="21">
-        <f t="shared" si="139"/>
+      <c r="AK42" s="20">
+        <f t="shared" si="140"/>
         <v>1449.1071428571429</v>
       </c>
+      <c r="AM42" t="b">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="2:37">
-      <c r="B43" s="9" t="s">
+    <row r="43" spans="2:39">
+      <c r="B43" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="27">
+      <c r="C43" s="26">
         <v>41993</v>
       </c>
-      <c r="D43" s="53">
+      <c r="D43" s="52">
         <v>32</v>
       </c>
-      <c r="E43" s="32">
+      <c r="E43" s="31">
         <v>22930</v>
       </c>
-      <c r="F43" s="55">
+      <c r="F43" s="54">
         <f>D43-D44</f>
         <v>9</v>
       </c>
-      <c r="G43" s="33">
+      <c r="G43" s="32">
         <f>E43-E44</f>
         <v>5458</v>
       </c>
-      <c r="H43" s="69">
+      <c r="H43" s="68">
         <v>3</v>
       </c>
-      <c r="I43" s="73">
+      <c r="I43" s="72">
         <v>1733</v>
       </c>
-      <c r="J43" s="71">
+      <c r="J43" s="70">
         <f>H43-H44</f>
         <v>3</v>
       </c>
-      <c r="K43" s="75">
+      <c r="K43" s="74">
         <f>I43-I44</f>
         <v>1733</v>
       </c>
-      <c r="L43" s="57">
+      <c r="L43" s="56">
         <v>32</v>
       </c>
-      <c r="M43" s="61">
+      <c r="M43" s="60">
         <v>22724</v>
       </c>
-      <c r="N43" s="59">
+      <c r="N43" s="58">
         <f>L43-L44</f>
         <v>9</v>
       </c>
-      <c r="O43" s="63">
+      <c r="O43" s="62">
         <f>M43-M44</f>
         <v>6807</v>
       </c>
-      <c r="P43" s="35">
+      <c r="P43" s="34">
         <v>4</v>
       </c>
-      <c r="Q43" s="49">
+      <c r="Q43" s="48">
         <v>11312</v>
       </c>
-      <c r="R43" s="37">
+      <c r="R43" s="36">
         <f>P43-P44</f>
         <v>4</v>
       </c>
-      <c r="S43" s="51">
+      <c r="S43" s="50">
         <f>Q43-Q44</f>
         <v>8725</v>
       </c>
-      <c r="T43" s="39">
+      <c r="T43" s="38">
         <v>30</v>
       </c>
-      <c r="U43" s="43">
+      <c r="U43" s="42">
         <v>31855</v>
       </c>
-      <c r="V43" s="41">
+      <c r="V43" s="40">
         <f>T43-T44</f>
         <v>13</v>
       </c>
-      <c r="W43" s="45">
+      <c r="W43" s="44">
         <f>U43-U44</f>
         <v>14010</v>
       </c>
-      <c r="X43" s="65">
+      <c r="X43" s="64">
         <v>23</v>
       </c>
-      <c r="Y43" s="47">
+      <c r="Y43" s="46">
         <v>23232</v>
       </c>
-      <c r="Z43" s="61">
+      <c r="Z43" s="60">
         <f>X43-X44</f>
         <v>13</v>
       </c>
-      <c r="AA43" s="67">
+      <c r="AA43" s="66">
         <f>Y43-Y44</f>
         <v>16432</v>
       </c>
-      <c r="AB43" s="77">
+      <c r="AB43" s="76">
         <v>22</v>
       </c>
-      <c r="AC43" s="83">
+      <c r="AC43" s="82">
         <v>39820</v>
       </c>
-      <c r="AD43" s="80">
+      <c r="AD43" s="79">
         <f>AB43-AB44</f>
         <v>11</v>
       </c>
-      <c r="AE43" s="86">
+      <c r="AE43" s="85">
         <f>AC43-AC44</f>
         <v>20041</v>
       </c>
-      <c r="AF43" s="12">
+      <c r="AF43" s="11">
         <f t="shared" si="116"/>
         <v>62</v>
       </c>
-      <c r="AG43" s="18">
+      <c r="AG43" s="17">
         <f t="shared" si="117"/>
         <v>73206</v>
       </c>
-      <c r="AH43" s="15">
+      <c r="AH43" s="14">
         <v>16449</v>
       </c>
-      <c r="AI43" s="21"/>
-      <c r="AJ43" s="15"/>
-      <c r="AK43" s="21"/>
+      <c r="AI43" s="20"/>
+      <c r="AJ43" s="14"/>
+      <c r="AK43" s="20"/>
+      <c r="AM43" t="b">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="2:37">
-      <c r="B44" s="9" t="s">
+    <row r="44" spans="2:39">
+      <c r="B44" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="27">
+      <c r="C44" s="26">
         <v>41992</v>
       </c>
-      <c r="D44" s="53">
+      <c r="D44" s="52">
         <v>23</v>
       </c>
-      <c r="E44" s="32">
+      <c r="E44" s="31">
         <v>17472</v>
       </c>
-      <c r="F44" s="55">
-        <f t="shared" ref="F44:G46" si="140">D44-D45</f>
+      <c r="F44" s="54">
+        <f t="shared" ref="F44:G46" si="141">D44-D45</f>
         <v>4</v>
       </c>
-      <c r="G44" s="33">
-        <f t="shared" si="140"/>
+      <c r="G44" s="32">
+        <f t="shared" si="141"/>
         <v>3603</v>
       </c>
-      <c r="H44" s="69">
-        <f t="shared" ref="H44:I45" si="141">H45</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="73">
-        <v>0</v>
-      </c>
-      <c r="J44" s="71">
-        <f t="shared" ref="J44:K46" si="142">H44-H45</f>
-        <v>0</v>
-      </c>
-      <c r="K44" s="75">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="57">
+      <c r="H44" s="68">
+        <f t="shared" ref="H44:I45" si="142">H45</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="72">
+        <v>0</v>
+      </c>
+      <c r="J44" s="70">
+        <f t="shared" ref="J44:K46" si="143">H44-H45</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="74">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="56">
         <v>23</v>
       </c>
-      <c r="M44" s="61">
+      <c r="M44" s="60">
         <v>15917</v>
       </c>
-      <c r="N44" s="59">
-        <f t="shared" ref="N44:O46" si="143">L44-L45</f>
+      <c r="N44" s="58">
+        <f t="shared" ref="N44:O46" si="144">L44-L45</f>
         <v>2</v>
       </c>
-      <c r="O44" s="63">
-        <f t="shared" si="143"/>
+      <c r="O44" s="62">
+        <f t="shared" si="144"/>
         <v>2510</v>
       </c>
-      <c r="P44" s="35">
+      <c r="P44" s="34">
         <f>P45</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="49">
+      <c r="Q44" s="48">
         <v>2587</v>
       </c>
-      <c r="R44" s="37">
-        <f t="shared" ref="R44:S46" si="144">P44-P45</f>
-        <v>0</v>
-      </c>
-      <c r="S44" s="51">
-        <f t="shared" si="144"/>
+      <c r="R44" s="36">
+        <f t="shared" ref="R44:S46" si="145">P44-P45</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="50">
+        <f t="shared" si="145"/>
         <v>2121</v>
       </c>
-      <c r="T44" s="39">
+      <c r="T44" s="38">
         <v>17</v>
       </c>
-      <c r="U44" s="43">
+      <c r="U44" s="42">
         <v>17845</v>
       </c>
-      <c r="V44" s="41">
-        <f t="shared" ref="V44:W46" si="145">T44-T45</f>
-        <v>0</v>
-      </c>
-      <c r="W44" s="45">
-        <f t="shared" si="145"/>
+      <c r="V44" s="40">
+        <f t="shared" ref="V44:W46" si="146">T44-T45</f>
+        <v>0</v>
+      </c>
+      <c r="W44" s="44">
+        <f t="shared" si="146"/>
         <v>1145</v>
       </c>
-      <c r="X44" s="65">
+      <c r="X44" s="64">
         <v>10</v>
       </c>
-      <c r="Y44" s="47">
+      <c r="Y44" s="46">
         <v>6800</v>
       </c>
-      <c r="Z44" s="61">
-        <f t="shared" ref="Z44:AA46" si="146">X44-X45</f>
+      <c r="Z44" s="60">
+        <f t="shared" ref="Z44:AA46" si="147">X44-X45</f>
         <v>5</v>
       </c>
-      <c r="AA44" s="67">
-        <f t="shared" si="146"/>
+      <c r="AA44" s="66">
+        <f t="shared" si="147"/>
         <v>2138</v>
       </c>
-      <c r="AB44" s="77">
+      <c r="AB44" s="76">
         <v>11</v>
       </c>
-      <c r="AC44" s="83">
+      <c r="AC44" s="82">
         <v>19779</v>
       </c>
-      <c r="AD44" s="80">
-        <f t="shared" ref="AD44:AE46" si="147">AB44-AB45</f>
+      <c r="AD44" s="79">
+        <f t="shared" ref="AD44:AE46" si="148">AB44-AB45</f>
         <v>6</v>
       </c>
-      <c r="AE44" s="86">
-        <f t="shared" si="147"/>
+      <c r="AE44" s="85">
+        <f t="shared" si="148"/>
         <v>8542</v>
       </c>
-      <c r="AF44" s="12">
+      <c r="AF44" s="11">
         <f t="shared" si="116"/>
         <v>17</v>
       </c>
-      <c r="AG44" s="18">
+      <c r="AG44" s="17">
         <f t="shared" si="117"/>
         <v>20059</v>
       </c>
-      <c r="AH44" s="15"/>
-      <c r="AI44" s="21"/>
-      <c r="AJ44" s="15"/>
-      <c r="AK44" s="21"/>
+      <c r="AH44" s="14"/>
+      <c r="AI44" s="20"/>
+      <c r="AJ44" s="14"/>
+      <c r="AK44" s="20"/>
+      <c r="AM44" t="b">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="2:37">
-      <c r="B45" s="9" t="s">
+    <row r="45" spans="2:39">
+      <c r="B45" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="26">
         <v>41991</v>
       </c>
-      <c r="D45" s="53">
+      <c r="D45" s="52">
         <v>19</v>
       </c>
-      <c r="E45" s="32">
+      <c r="E45" s="31">
         <v>13869</v>
       </c>
-      <c r="F45" s="55">
-        <f t="shared" si="140"/>
+      <c r="F45" s="54">
+        <f t="shared" si="141"/>
         <v>10</v>
       </c>
-      <c r="G45" s="33">
-        <f t="shared" si="140"/>
+      <c r="G45" s="32">
+        <f t="shared" si="141"/>
         <v>5719</v>
       </c>
-      <c r="H45" s="69">
+      <c r="H45" s="68">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="72">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="70">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="74">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="56">
+        <v>21</v>
+      </c>
+      <c r="M45" s="60">
+        <v>13407</v>
+      </c>
+      <c r="N45" s="58">
+        <f t="shared" si="144"/>
+        <v>12</v>
+      </c>
+      <c r="O45" s="62">
+        <f t="shared" si="144"/>
+        <v>7199</v>
+      </c>
+      <c r="P45" s="34">
+        <f>P46</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="48">
+        <v>466</v>
+      </c>
+      <c r="R45" s="36">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="50">
+        <f t="shared" si="145"/>
+        <v>466</v>
+      </c>
+      <c r="T45" s="38">
+        <v>17</v>
+      </c>
+      <c r="U45" s="42">
+        <v>16700</v>
+      </c>
+      <c r="V45" s="40">
+        <f t="shared" si="146"/>
+        <v>2</v>
+      </c>
+      <c r="W45" s="44">
+        <f t="shared" si="146"/>
+        <v>14</v>
+      </c>
+      <c r="X45" s="64">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="46">
+        <v>4662</v>
+      </c>
+      <c r="Z45" s="60">
+        <f t="shared" si="147"/>
+        <v>3</v>
+      </c>
+      <c r="AA45" s="66">
+        <f t="shared" si="147"/>
+        <v>3582</v>
+      </c>
+      <c r="AB45" s="76">
+        <v>5</v>
+      </c>
+      <c r="AC45" s="82">
+        <v>11237</v>
+      </c>
+      <c r="AD45" s="79">
+        <f t="shared" si="148"/>
+        <v>1</v>
+      </c>
+      <c r="AE45" s="85">
+        <f t="shared" si="148"/>
+        <v>1879</v>
+      </c>
+      <c r="AF45" s="11">
+        <f t="shared" si="116"/>
+        <v>28</v>
+      </c>
+      <c r="AG45" s="17">
+        <f t="shared" si="117"/>
+        <v>18859</v>
+      </c>
+      <c r="AH45" s="14"/>
+      <c r="AI45" s="20"/>
+      <c r="AJ45" s="14"/>
+      <c r="AK45" s="20"/>
+      <c r="AM45" t="b">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:39">
+      <c r="B46" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="26">
+        <v>41990</v>
+      </c>
+      <c r="D46" s="52">
+        <v>9</v>
+      </c>
+      <c r="E46" s="31">
+        <v>8150</v>
+      </c>
+      <c r="F46" s="54">
         <f t="shared" si="141"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="73">
+        <v>5</v>
+      </c>
+      <c r="G46" s="32">
         <f t="shared" si="141"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="71">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="75">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="57">
-        <v>21</v>
-      </c>
-      <c r="M45" s="61">
-        <v>13407</v>
-      </c>
-      <c r="N45" s="59">
+        <v>4075</v>
+      </c>
+      <c r="H46" s="68">
+        <v>0</v>
+      </c>
+      <c r="I46" s="72">
+        <v>0</v>
+      </c>
+      <c r="J46" s="70">
         <f t="shared" si="143"/>
-        <v>12</v>
-      </c>
-      <c r="O45" s="63">
+        <v>0</v>
+      </c>
+      <c r="K46" s="74">
         <f t="shared" si="143"/>
-        <v>7199</v>
-      </c>
-      <c r="P45" s="35">
-        <f>P46</f>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="49">
-        <v>466</v>
-      </c>
-      <c r="R45" s="37">
+        <v>0</v>
+      </c>
+      <c r="L46" s="56">
+        <v>9</v>
+      </c>
+      <c r="M46" s="60">
+        <v>6208</v>
+      </c>
+      <c r="N46" s="58">
         <f t="shared" si="144"/>
-        <v>0</v>
-      </c>
-      <c r="S45" s="51">
+        <v>5</v>
+      </c>
+      <c r="O46" s="62">
         <f t="shared" si="144"/>
-        <v>466</v>
-      </c>
-      <c r="T45" s="39">
-        <v>17</v>
-      </c>
-      <c r="U45" s="43">
-        <v>16700</v>
-      </c>
-      <c r="V45" s="41">
+        <v>3104</v>
+      </c>
+      <c r="P46" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="48">
+        <v>0</v>
+      </c>
+      <c r="R46" s="36">
         <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="50">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="38">
+        <v>15</v>
+      </c>
+      <c r="U46" s="42">
+        <v>16686</v>
+      </c>
+      <c r="V46" s="40">
+        <f t="shared" si="146"/>
+        <v>8</v>
+      </c>
+      <c r="W46" s="44">
+        <f t="shared" si="146"/>
+        <v>8343</v>
+      </c>
+      <c r="X46" s="64">
         <v>2</v>
       </c>
-      <c r="W45" s="45">
-        <f t="shared" si="145"/>
-        <v>14</v>
-      </c>
-      <c r="X45" s="65">
-        <v>5</v>
-      </c>
-      <c r="Y45" s="47">
-        <v>4662</v>
-      </c>
-      <c r="Z45" s="61">
-        <f t="shared" si="146"/>
-        <v>3</v>
-      </c>
-      <c r="AA45" s="67">
-        <f t="shared" si="146"/>
-        <v>3582</v>
-      </c>
-      <c r="AB45" s="77">
-        <v>5</v>
-      </c>
-      <c r="AC45" s="83">
-        <v>11237</v>
-      </c>
-      <c r="AD45" s="80">
+      <c r="Y46" s="46">
+        <v>1080</v>
+      </c>
+      <c r="Z46" s="60">
         <f t="shared" si="147"/>
         <v>1</v>
       </c>
-      <c r="AE45" s="86">
+      <c r="AA46" s="66">
         <f t="shared" si="147"/>
-        <v>1879</v>
-      </c>
-      <c r="AF45" s="12">
-        <f t="shared" si="116"/>
-        <v>28</v>
-      </c>
-      <c r="AG45" s="18">
-        <f t="shared" si="117"/>
-        <v>18859</v>
-      </c>
-      <c r="AH45" s="15"/>
-      <c r="AI45" s="21"/>
-      <c r="AJ45" s="15"/>
-      <c r="AK45" s="21"/>
-    </row>
-    <row r="46" spans="2:37">
-      <c r="B46" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="27">
-        <v>41990</v>
-      </c>
-      <c r="D46" s="53">
-        <v>9</v>
-      </c>
-      <c r="E46" s="32">
-        <v>8150</v>
-      </c>
-      <c r="F46" s="55">
-        <f t="shared" si="140"/>
-        <v>5</v>
-      </c>
-      <c r="G46" s="33">
-        <f t="shared" si="140"/>
-        <v>4075</v>
-      </c>
-      <c r="H46" s="69">
-        <v>0</v>
-      </c>
-      <c r="I46" s="73">
-        <v>0</v>
-      </c>
-      <c r="J46" s="71">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="75">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="57">
-        <v>9</v>
-      </c>
-      <c r="M46" s="61">
-        <v>6208</v>
-      </c>
-      <c r="N46" s="59">
-        <f t="shared" si="143"/>
-        <v>5</v>
-      </c>
-      <c r="O46" s="63">
-        <f t="shared" si="143"/>
-        <v>3104</v>
-      </c>
-      <c r="P46" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="49">
-        <v>0</v>
-      </c>
-      <c r="R46" s="37">
-        <f t="shared" si="144"/>
-        <v>0</v>
-      </c>
-      <c r="S46" s="51">
-        <f t="shared" si="144"/>
-        <v>0</v>
-      </c>
-      <c r="T46" s="39">
-        <v>15</v>
-      </c>
-      <c r="U46" s="43">
-        <v>16686</v>
-      </c>
-      <c r="V46" s="41">
-        <f t="shared" si="145"/>
-        <v>8</v>
-      </c>
-      <c r="W46" s="45">
-        <f t="shared" si="145"/>
-        <v>8343</v>
-      </c>
-      <c r="X46" s="65">
+        <v>540</v>
+      </c>
+      <c r="AB46" s="76">
+        <v>4</v>
+      </c>
+      <c r="AC46" s="82">
+        <v>9358</v>
+      </c>
+      <c r="AD46" s="79">
+        <f t="shared" si="148"/>
         <v>2</v>
       </c>
-      <c r="Y46" s="47">
-        <v>1080</v>
-      </c>
-      <c r="Z46" s="61">
-        <f t="shared" si="146"/>
-        <v>1</v>
-      </c>
-      <c r="AA46" s="67">
-        <f t="shared" si="146"/>
-        <v>540</v>
-      </c>
-      <c r="AB46" s="77">
-        <v>4</v>
-      </c>
-      <c r="AC46" s="83">
-        <v>9358</v>
-      </c>
-      <c r="AD46" s="80">
-        <f t="shared" si="147"/>
-        <v>2</v>
-      </c>
-      <c r="AE46" s="86">
-        <f t="shared" si="147"/>
+      <c r="AE46" s="85">
+        <f t="shared" si="148"/>
         <v>4679</v>
       </c>
-      <c r="AF46" s="12">
+      <c r="AF46" s="11">
         <f t="shared" si="116"/>
         <v>21</v>
       </c>
-      <c r="AG46" s="18">
+      <c r="AG46" s="17">
         <f t="shared" si="117"/>
         <v>20741</v>
       </c>
-      <c r="AH46" s="15"/>
-      <c r="AI46" s="21"/>
-      <c r="AJ46" s="15"/>
-      <c r="AK46" s="21"/>
+      <c r="AH46" s="14"/>
+      <c r="AI46" s="20"/>
+      <c r="AJ46" s="14"/>
+      <c r="AK46" s="20"/>
+      <c r="AM46" t="b">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" spans="2:37" ht="15.75" thickBot="1">
-      <c r="B47" s="10" t="s">
+    <row r="47" spans="2:39" ht="15.75" thickBot="1">
+      <c r="B47" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="28">
+      <c r="C47" s="27">
         <v>41989</v>
       </c>
-      <c r="D47" s="53">
+      <c r="D47" s="52">
         <f>INT(D46/2)</f>
         <v>4</v>
       </c>
-      <c r="E47" s="32">
+      <c r="E47" s="31">
         <f>INT(E46/2)</f>
         <v>4075</v>
       </c>
-      <c r="F47" s="55">
+      <c r="F47" s="54">
         <f>D47-D48</f>
         <v>4</v>
       </c>
-      <c r="G47" s="33">
+      <c r="G47" s="32">
         <f>E47-E48</f>
         <v>4075</v>
       </c>
-      <c r="H47" s="69">
-        <f t="shared" ref="H47:I47" si="148">INT(H46/2)</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="73">
-        <f t="shared" si="148"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="71">
+      <c r="H47" s="68">
+        <f t="shared" ref="H47:I47" si="149">INT(H46/2)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="72">
+        <f t="shared" si="149"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="70">
         <f>H47-H48</f>
         <v>0</v>
       </c>
-      <c r="K47" s="75">
+      <c r="K47" s="74">
         <f>I47-I48</f>
         <v>0</v>
       </c>
-      <c r="L47" s="57">
-        <f t="shared" ref="L47:M47" si="149">INT(L46/2)</f>
+      <c r="L47" s="56">
+        <f t="shared" ref="L47:M47" si="150">INT(L46/2)</f>
         <v>4</v>
       </c>
-      <c r="M47" s="61">
-        <f t="shared" si="149"/>
+      <c r="M47" s="60">
+        <f t="shared" si="150"/>
         <v>3104</v>
       </c>
-      <c r="N47" s="59">
+      <c r="N47" s="58">
         <f>L47-L48</f>
         <v>4</v>
       </c>
-      <c r="O47" s="63">
+      <c r="O47" s="62">
         <f>M47-M48</f>
         <v>3104</v>
       </c>
-      <c r="P47" s="35">
-        <f t="shared" ref="P47:Q47" si="150">INT(P46/2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="49">
-        <f t="shared" si="150"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="37">
+      <c r="P47" s="34">
+        <f t="shared" ref="P47:Q47" si="151">INT(P46/2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="48">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="36">
         <f>P47-P48</f>
         <v>0</v>
       </c>
-      <c r="S47" s="51">
+      <c r="S47" s="50">
         <f>Q47-Q48</f>
         <v>0</v>
       </c>
-      <c r="T47" s="39">
-        <f t="shared" ref="T47:U47" si="151">INT(T46/2)</f>
+      <c r="T47" s="38">
+        <f t="shared" ref="T47:U47" si="152">INT(T46/2)</f>
         <v>7</v>
       </c>
-      <c r="U47" s="43">
-        <f t="shared" si="151"/>
+      <c r="U47" s="42">
+        <f t="shared" si="152"/>
         <v>8343</v>
       </c>
-      <c r="V47" s="41">
+      <c r="V47" s="40">
         <f>T47-T48</f>
         <v>7</v>
       </c>
-      <c r="W47" s="45">
+      <c r="W47" s="44">
         <f>U47-U48</f>
         <v>8343</v>
       </c>
-      <c r="X47" s="65">
-        <f t="shared" ref="X47:Y47" si="152">INT(X46/2)</f>
+      <c r="X47" s="64">
+        <f t="shared" ref="X47:Y47" si="153">INT(X46/2)</f>
         <v>1</v>
       </c>
-      <c r="Y47" s="47">
-        <f t="shared" si="152"/>
+      <c r="Y47" s="46">
+        <f t="shared" si="153"/>
         <v>540</v>
       </c>
-      <c r="Z47" s="61">
+      <c r="Z47" s="60">
         <f>X47-X48</f>
         <v>1</v>
       </c>
-      <c r="AA47" s="67">
+      <c r="AA47" s="66">
         <f>Y47-Y48</f>
         <v>540</v>
       </c>
-      <c r="AB47" s="78">
-        <f t="shared" ref="AB47:AC47" si="153">INT(AB46/2)</f>
+      <c r="AB47" s="77">
+        <f t="shared" ref="AB47:AC47" si="154">INT(AB46/2)</f>
         <v>2</v>
       </c>
-      <c r="AC47" s="84">
-        <f t="shared" si="153"/>
+      <c r="AC47" s="83">
+        <f t="shared" si="154"/>
         <v>4679</v>
       </c>
-      <c r="AD47" s="81">
+      <c r="AD47" s="80">
         <f>AB47-AB48</f>
         <v>2</v>
       </c>
-      <c r="AE47" s="87">
+      <c r="AE47" s="86">
         <f>AC47-AC48</f>
         <v>4679</v>
       </c>
-      <c r="AF47" s="13">
+      <c r="AF47" s="12">
         <f t="shared" si="116"/>
         <v>18</v>
       </c>
-      <c r="AG47" s="19">
+      <c r="AG47" s="18">
         <f t="shared" si="117"/>
         <v>20741</v>
       </c>
-      <c r="AH47" s="16"/>
-      <c r="AI47" s="22"/>
-      <c r="AJ47" s="16"/>
-      <c r="AK47" s="22"/>
+      <c r="AH47" s="15"/>
+      <c r="AI47" s="21"/>
+      <c r="AJ47" s="15"/>
+      <c r="AK47" s="21"/>
+      <c r="AM47" t="b">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="123">
+  <mergeCells count="124">
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="T2:U2"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="D3:E3"/>
@@ -7267,132 +7625,38 @@
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="T1:W1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
   </mergeCells>
-  <conditionalFormatting sqref="AH5:AI5 D5 AB5:AE5 F5:X5 Z5">
-    <cfRule type="cellIs" dxfId="5" priority="18" operator="greaterThan">
+  <conditionalFormatting sqref="AH5:AI5 D5 AB5:AE5 Z5 F5:X5">
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:F2 H2:X2 Z2 AB2:AE2">
-    <cfRule type="cellIs" dxfId="3" priority="17" operator="greaterThan">
+  <conditionalFormatting sqref="D2:F2 Z2 AB2:AE2 H2:X2">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:F2 H2:X2 Z2 AB2:AE2">
-    <cfRule type="cellIs" dxfId="2" priority="15" operator="lessThan">
+  <conditionalFormatting sqref="D2:F2 Z2 AB2:AE2 H2:X2">
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:F2 H2:X2 Z2 AB2:AE2">
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="greaterThan">
+  <conditionalFormatting sqref="D2:F2 Z2 AB2:AE2 H2:X2">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="greaterThan">
       <formula>$AL$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:F2 H2:X2 Z2 AB2:AE2">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThan">
+  <conditionalFormatting sqref="D2:F2 Z2 AB2:AE2 H2:X2">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="lessThan">
       <formula>$AL$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM21:AM47">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mission wz.xlsx
+++ b/mission wz.xlsx
@@ -156,7 +156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,12 +177,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -680,6 +674,15 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -690,7 +693,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -732,65 +735,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -850,18 +853,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -869,6 +860,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -880,64 +916,22 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="31" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="32" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -947,679 +941,7 @@
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
     <cellStyle name="Satisfaisant" xfId="2" builtinId="26"/>
   </cellStyles>
-  <dxfs count="69">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <condense val="0"/>
@@ -2074,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:AM46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6:O6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AH14" sqref="AH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2117,153 +1439,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" ht="15.75" thickBot="1">
-      <c r="D1" s="123" t="s">
+      <c r="D1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="114" t="s">
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="132" t="s">
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="126" t="s">
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="117" t="s">
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="118"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="120" t="s">
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="AC1" s="121"/>
-      <c r="AD1" s="121"/>
-      <c r="AE1" s="122"/>
-      <c r="AF1" s="111" t="s">
+      <c r="AC1" s="117"/>
+      <c r="AD1" s="117"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="AG1" s="111"/>
+      <c r="AG1" s="107"/>
       <c r="AJ1" s="1">
-        <f ca="1">TODAY()</f>
-        <v>42021</v>
+        <v>42022</v>
       </c>
       <c r="AK1" s="1">
         <v>42023</v>
       </c>
       <c r="AL1">
-        <f ca="1">AK1-AJ1</f>
-        <v>2</v>
+        <f>AK1-AJ1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:38">
       <c r="C2" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="135">
+      <c r="D2" s="131">
         <f>(150-D6)/150</f>
         <v>1</v>
       </c>
-      <c r="E2" s="136">
+      <c r="E2" s="132">
         <f>(150000-F6)/150000</f>
         <v>1</v>
       </c>
-      <c r="F2" s="112">
+      <c r="F2" s="108">
         <f>AVERAGE(D2:E2)</f>
         <v>1</v>
       </c>
-      <c r="G2" s="113"/>
-      <c r="H2" s="135">
+      <c r="G2" s="109"/>
+      <c r="H2" s="131">
         <f>(150-H6)/150</f>
         <v>1</v>
       </c>
-      <c r="I2" s="136">
+      <c r="I2" s="132">
         <f>(150000-J6)/150000</f>
-        <v>0.84276666666666666</v>
-      </c>
-      <c r="J2" s="112">
+        <v>1</v>
+      </c>
+      <c r="J2" s="108">
         <f>AVERAGE(H2:I2)</f>
-        <v>0.92138333333333333</v>
-      </c>
-      <c r="K2" s="113"/>
-      <c r="L2" s="135">
+        <v>1</v>
+      </c>
+      <c r="K2" s="109"/>
+      <c r="L2" s="131">
         <f>(150-L6)/150</f>
         <v>1</v>
       </c>
-      <c r="M2" s="136">
+      <c r="M2" s="132">
         <f>(150000-N6)/150000</f>
-        <v>0.94800666666666666</v>
-      </c>
-      <c r="N2" s="112">
+        <v>1</v>
+      </c>
+      <c r="N2" s="108">
         <f>AVERAGE(L2:M2)</f>
-        <v>0.97400333333333333</v>
-      </c>
-      <c r="O2" s="113"/>
-      <c r="P2" s="135">
+        <v>1</v>
+      </c>
+      <c r="O2" s="109"/>
+      <c r="P2" s="131">
         <f>(150-P6)/150</f>
         <v>1</v>
       </c>
-      <c r="Q2" s="136">
+      <c r="Q2" s="132">
         <f>(150000-R6)/150000</f>
         <v>1</v>
       </c>
-      <c r="R2" s="112">
+      <c r="R2" s="108">
         <f>AVERAGE(P2:Q2)</f>
         <v>1</v>
       </c>
-      <c r="S2" s="113"/>
-      <c r="T2" s="135">
+      <c r="S2" s="109"/>
+      <c r="T2" s="131">
         <f>(150-T6)/150</f>
         <v>1</v>
       </c>
-      <c r="U2" s="136">
+      <c r="U2" s="132">
         <f>(150000-V6)/150000</f>
         <v>1</v>
       </c>
-      <c r="V2" s="112">
+      <c r="V2" s="108">
         <f>AVERAGE(T2:U2)</f>
         <v>1</v>
       </c>
-      <c r="W2" s="113"/>
-      <c r="X2" s="135">
+      <c r="W2" s="109"/>
+      <c r="X2" s="131">
         <f t="shared" ref="X2" si="0">(150-X6)/150</f>
         <v>1</v>
       </c>
-      <c r="Y2" s="136"/>
-      <c r="Z2" s="112">
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="108">
         <f t="shared" ref="Z2" si="1">(150000-Z6)/150000</f>
         <v>1</v>
       </c>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="112">
+      <c r="AA2" s="109"/>
+      <c r="AB2" s="108">
         <f t="shared" ref="AB2" si="2">(150-AB6)/150</f>
         <v>1</v>
       </c>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="112">
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="108">
         <f t="shared" ref="AD2" si="3">(150000-AD6)/150000</f>
         <v>1</v>
       </c>
-      <c r="AE2" s="113"/>
+      <c r="AE2" s="109"/>
       <c r="AJ2" s="1">
         <v>41989</v>
       </c>
@@ -2280,82 +1601,82 @@
         <v>11</v>
       </c>
       <c r="D3" s="105">
-        <f ca="1">IF(D6&lt;0,0,INT(D6/$AL$1))</f>
+        <f>IF(D6&lt;0,0,INT(D6/$AL$1))</f>
         <v>0</v>
       </c>
       <c r="E3" s="106"/>
       <c r="F3" s="96">
-        <f ca="1">IF(F6&lt;0,0,INT(F6/($AL$1-1)))</f>
+        <f>IF(F6&lt;0,0,INT(F6/($AL$1)))</f>
         <v>0</v>
       </c>
       <c r="G3" s="97"/>
       <c r="H3" s="105">
-        <f t="shared" ref="H3" ca="1" si="4">IF(H6&lt;0,0,INT(H6/$AL$1))</f>
+        <f t="shared" ref="H3" si="4">IF(H6&lt;0,0,INT(H6/$AL$1))</f>
         <v>0</v>
       </c>
       <c r="I3" s="106"/>
       <c r="J3" s="96">
-        <f ca="1">IF(J6&lt;0,0,INT(J6/($AL$1-($AL$1&gt;0)*1)))</f>
-        <v>23585</v>
+        <f>IF(J6&lt;0,0,INT(J6/($AL$1)))</f>
+        <v>0</v>
       </c>
       <c r="K3" s="97"/>
       <c r="L3" s="105">
-        <f t="shared" ref="L3" ca="1" si="5">IF(L6&lt;0,0,INT(L6/$AL$1))</f>
+        <f t="shared" ref="L3" si="5">IF(L6&lt;0,0,INT(L6/$AL$1))</f>
         <v>0</v>
       </c>
       <c r="M3" s="106"/>
       <c r="N3" s="96">
-        <f ca="1">IF(N6&lt;0,0,INT(N6/($AL$1-($AL$1&gt;0)*1)))</f>
-        <v>7799</v>
+        <f>IF(N6&lt;0,0,INT(N6/($AL$1)))</f>
+        <v>0</v>
       </c>
       <c r="O3" s="97"/>
       <c r="P3" s="105">
-        <f t="shared" ref="P3" ca="1" si="6">IF(P6&lt;0,0,INT(P6/$AL$1))</f>
+        <f t="shared" ref="P3" si="6">IF(P6&lt;0,0,INT(P6/$AL$1))</f>
         <v>0</v>
       </c>
       <c r="Q3" s="106"/>
       <c r="R3" s="96">
-        <f ca="1">IF(R6&lt;0,0,INT(R6/($AL$1-1)))</f>
+        <f>IF(R6&lt;0,0,INT(R6/($AL$1)))</f>
         <v>0</v>
       </c>
       <c r="S3" s="97"/>
       <c r="T3" s="105">
-        <f t="shared" ref="T3" ca="1" si="7">IF(T6&lt;0,0,INT(T6/$AL$1))</f>
+        <f t="shared" ref="T3" si="7">IF(T6&lt;0,0,INT(T6/$AL$1))</f>
         <v>0</v>
       </c>
       <c r="U3" s="106"/>
       <c r="V3" s="96">
-        <f ca="1">IF(V6&lt;0,0,INT(V6/($AL$1-1)))</f>
+        <f>IF(V6&lt;0,0,INT(V6/($AL$1)))</f>
         <v>0</v>
       </c>
       <c r="W3" s="97"/>
       <c r="X3" s="105">
-        <f t="shared" ref="X3" ca="1" si="8">IF(X6&lt;0,0,INT(X6/$AL$1))</f>
+        <f t="shared" ref="X3" si="8">IF(X6&lt;0,0,INT(X6/$AL$1))</f>
         <v>0</v>
       </c>
       <c r="Y3" s="106"/>
       <c r="Z3" s="96">
-        <f ca="1">IF(Z6&lt;0,0,INT(Z6/($AL$1-1)))</f>
+        <f>IF(Z6&lt;0,0,INT(Z6/($AL$1)))</f>
         <v>0</v>
       </c>
       <c r="AA3" s="97"/>
       <c r="AB3" s="96">
-        <f t="shared" ref="AB3" ca="1" si="9">IF(AB6&lt;0,0,INT(AB6/$AL$1))</f>
+        <f t="shared" ref="AB3" si="9">IF(AB6&lt;0,0,INT(AB6/$AL$1))</f>
         <v>0</v>
       </c>
       <c r="AC3" s="97"/>
       <c r="AD3" s="96">
-        <f ca="1">IF(AD6&lt;0,0,INT(AD6/($AL$1-1)))</f>
+        <f>IF(AD6&lt;0,0,INT(AD6/($AL$1)))</f>
         <v>0</v>
       </c>
       <c r="AE3" s="97"/>
       <c r="AF3" s="4">
-        <f ca="1">SUM(D3,P3,T3,L3,H3,X3,AB3)</f>
+        <f>SUM(D3,P3,T3,L3,H3,X3,AB3)</f>
         <v>0</v>
       </c>
       <c r="AG3" s="4">
-        <f ca="1">SUM(F3,R3,V3,N3,J3,Z3,AD3)</f>
-        <v>31384</v>
+        <f>SUM(F3,R3,V3,N3,J3,Z3,AD3)</f>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>41996</v>
@@ -2364,8 +1685,8 @@
         <v>14</v>
       </c>
       <c r="AL3" s="2">
-        <f ca="1">(AL2-AL1)/AL2</f>
-        <v>0.94117647058823528</v>
+        <f>(AL2-AL1+1)/AL2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:38">
@@ -2389,7 +1710,7 @@
       <c r="I4" s="106"/>
       <c r="J4" s="96">
         <f t="shared" ref="J4" si="11">I13-I14</f>
-        <v>0</v>
+        <v>18651</v>
       </c>
       <c r="K4" s="97"/>
       <c r="L4" s="105">
@@ -2399,7 +1720,7 @@
       <c r="M4" s="106"/>
       <c r="N4" s="96">
         <f t="shared" ref="N4" si="13">M13-M14</f>
-        <v>0</v>
+        <v>3361</v>
       </c>
       <c r="O4" s="97"/>
       <c r="P4" s="105">
@@ -2455,91 +1776,91 @@
       <c r="C5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="109">
-        <f ca="1">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-D6)</f>
-        <v>9</v>
-      </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="107">
-        <f ca="1">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-F6)</f>
-        <v>8824</v>
-      </c>
-      <c r="G5" s="108"/>
-      <c r="H5" s="109">
-        <f t="shared" ref="H5" ca="1" si="22">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-H6)</f>
-        <v>9</v>
-      </c>
-      <c r="I5" s="110"/>
-      <c r="J5" s="107">
-        <f ca="1">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-J6)</f>
-        <v>-14761</v>
-      </c>
-      <c r="K5" s="108"/>
-      <c r="L5" s="109">
-        <f t="shared" ref="L5" ca="1" si="23">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-L6)</f>
-        <v>9</v>
-      </c>
-      <c r="M5" s="110"/>
-      <c r="N5" s="107">
-        <f t="shared" ref="N5" ca="1" si="24">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-N6)</f>
-        <v>1025</v>
-      </c>
-      <c r="O5" s="108"/>
-      <c r="P5" s="109">
-        <f t="shared" ref="P5" ca="1" si="25">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-P6)</f>
-        <v>9</v>
-      </c>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="107">
-        <f t="shared" ref="R5" ca="1" si="26">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-R6)</f>
-        <v>8824</v>
-      </c>
-      <c r="S5" s="108"/>
-      <c r="T5" s="109">
-        <f t="shared" ref="T5" ca="1" si="27">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-T6)</f>
-        <v>9</v>
-      </c>
-      <c r="U5" s="110"/>
-      <c r="V5" s="107">
-        <f t="shared" ref="V5" ca="1" si="28">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-V6)</f>
-        <v>8824</v>
-      </c>
-      <c r="W5" s="108"/>
-      <c r="X5" s="109">
-        <f t="shared" ref="X5" ca="1" si="29">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-X6)</f>
-        <v>9</v>
-      </c>
-      <c r="Y5" s="110"/>
-      <c r="Z5" s="107">
-        <f t="shared" ref="Z5" ca="1" si="30">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-Z6)</f>
-        <v>8824</v>
-      </c>
-      <c r="AA5" s="108"/>
-      <c r="AB5" s="107">
-        <f t="shared" ref="AB5" ca="1" si="31">IF(150-INT(150-150/34*$AL$1)&lt;0,0,150-INT(150-150/34*$AL$1)-AB6)</f>
-        <v>9</v>
-      </c>
-      <c r="AC5" s="108"/>
-      <c r="AD5" s="107">
-        <f t="shared" ref="AD5" ca="1" si="32">IF(150000-INT(150000-150000/34*$AL$1)&lt;0,0,150000-INT(150000-150000/34*$AL$1)-AD6)</f>
-        <v>8824</v>
-      </c>
-      <c r="AE5" s="108"/>
+      <c r="D5" s="105">
+        <f>IF(150-INT(150-150/34*($AL$1-1))&lt;0,0,150-INT(150-150/34*($AL$1-1))-D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="133"/>
+      <c r="F5" s="105">
+        <f>IF(150000-INT(150000-150000/34*($AL$1-1))&lt;0,0,150000-INT(150000-150000/34*($AL$1-1))-F6)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="133"/>
+      <c r="H5" s="105">
+        <f>IF(150-INT(150-150/34*($AL$1-1))&lt;0,0,150-INT(150-150/34*($AL$1-1))-H6)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="133"/>
+      <c r="J5" s="105">
+        <f>IF(150000-INT(150000-150000/34*($AL$1-1))&lt;0,0,150000-INT(150000-150000/34*($AL$1-1))-J6)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="133"/>
+      <c r="L5" s="105">
+        <f>IF(150-INT(150-150/34*($AL$1-1))&lt;0,0,150-INT(150-150/34*($AL$1-1))-L6)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="133"/>
+      <c r="N5" s="105">
+        <f>IF(150000-INT(150000-150000/34*($AL$1-1))&lt;0,0,150000-INT(150000-150000/34*($AL$1-1))-N6)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="133"/>
+      <c r="P5" s="105">
+        <f t="shared" ref="P5" si="22">IF(150-INT(150-150/34*($AL$1-1))&lt;0,0,150-INT(150-150/34*($AL$1-1))-P6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="133"/>
+      <c r="R5" s="105">
+        <f t="shared" ref="R5" si="23">IF(150000-INT(150000-150000/34*($AL$1-1))&lt;0,0,150000-INT(150000-150000/34*($AL$1-1))-R6)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="133"/>
+      <c r="T5" s="105">
+        <f t="shared" ref="T5" si="24">IF(150-INT(150-150/34*($AL$1-1))&lt;0,0,150-INT(150-150/34*($AL$1-1))-T6)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="133"/>
+      <c r="V5" s="105">
+        <f t="shared" ref="V5" si="25">IF(150000-INT(150000-150000/34*($AL$1-1))&lt;0,0,150000-INT(150000-150000/34*($AL$1-1))-V6)</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="133"/>
+      <c r="X5" s="105">
+        <f t="shared" ref="X5" si="26">IF(150-INT(150-150/34*($AL$1-1))&lt;0,0,150-INT(150-150/34*($AL$1-1))-X6)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="133"/>
+      <c r="Z5" s="105">
+        <f t="shared" ref="Z5" si="27">IF(150000-INT(150000-150000/34*($AL$1-1))&lt;0,0,150000-INT(150000-150000/34*($AL$1-1))-Z6)</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="133"/>
+      <c r="AB5" s="105">
+        <f t="shared" ref="AB5" si="28">IF(150-INT(150-150/34*($AL$1-1))&lt;0,0,150-INT(150-150/34*($AL$1-1))-AB6)</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="133"/>
+      <c r="AD5" s="105">
+        <f t="shared" ref="AD5" si="29">IF(150000-INT(150000-150000/34*($AL$1-1))&lt;0,0,150000-INT(150000-150000/34*($AL$1-1))-AD6)</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="133"/>
       <c r="AF5" s="4">
-        <f ca="1">SUM(IF(L5&lt;0,L5,0),L5)</f>
-        <v>9</v>
+        <f>SUM(IF(L5&lt;0,L5,0),L5)</f>
+        <v>0</v>
       </c>
       <c r="AG5" s="4">
-        <f ca="1">SUM(J5,N5)</f>
-        <v>-13736</v>
+        <f>SUM(J5,N5)</f>
+        <v>0</v>
       </c>
       <c r="AH5" s="3">
-        <f ca="1">-$AL$3+AH6</f>
-        <v>5.8823529411764719E-2</v>
+        <f>-$AL$3+AH6</f>
+        <v>0</v>
       </c>
       <c r="AI5" s="3">
-        <f ca="1">AI6-$AL$3</f>
-        <v>2.8934005602240909E-2</v>
+        <f>AI6-$AL$3</f>
+        <v>0</v>
       </c>
       <c r="AJ5" s="86" t="s">
         <v>35</v>
@@ -2563,62 +1884,62 @@
       </c>
       <c r="G6" s="97"/>
       <c r="H6" s="105">
-        <f t="shared" ref="H6" si="33">IF(150-H13&lt;0,0,150-H13)</f>
+        <f t="shared" ref="H6" si="30">IF(150-H13&lt;0,0,150-H13)</f>
         <v>0</v>
       </c>
       <c r="I6" s="106"/>
       <c r="J6" s="96">
-        <f t="shared" ref="J6" si="34">IF(150000-I13&lt;0,0,150000-I13)</f>
-        <v>23585</v>
+        <f t="shared" ref="J6" si="31">IF(150000-I13&lt;0,0,150000-I13)</f>
+        <v>0</v>
       </c>
       <c r="K6" s="97"/>
       <c r="L6" s="105">
-        <f t="shared" ref="L6" si="35">IF(150-L13&lt;0,0,150-L13)</f>
+        <f t="shared" ref="L6" si="32">IF(150-L13&lt;0,0,150-L13)</f>
         <v>0</v>
       </c>
       <c r="M6" s="106"/>
       <c r="N6" s="96">
-        <f t="shared" ref="N6" si="36">IF(150000-M13&lt;0,0,150000-M13)</f>
-        <v>7799</v>
+        <f t="shared" ref="N6" si="33">IF(150000-M13&lt;0,0,150000-M13)</f>
+        <v>0</v>
       </c>
       <c r="O6" s="97"/>
       <c r="P6" s="105">
-        <f t="shared" ref="P6" si="37">IF(150-P13&lt;0,0,150-P13)</f>
+        <f t="shared" ref="P6" si="34">IF(150-P13&lt;0,0,150-P13)</f>
         <v>0</v>
       </c>
       <c r="Q6" s="106"/>
       <c r="R6" s="96">
-        <f t="shared" ref="R6" si="38">IF(150000-Q13&lt;0,0,150000-Q13)</f>
+        <f t="shared" ref="R6" si="35">IF(150000-Q13&lt;0,0,150000-Q13)</f>
         <v>0</v>
       </c>
       <c r="S6" s="97"/>
       <c r="T6" s="105">
-        <f t="shared" ref="T6" si="39">IF(150-T13&lt;0,0,150-T13)</f>
+        <f t="shared" ref="T6" si="36">IF(150-T13&lt;0,0,150-T13)</f>
         <v>0</v>
       </c>
       <c r="U6" s="106"/>
       <c r="V6" s="96">
-        <f t="shared" ref="V6" si="40">IF(150000-U13&lt;0,0,150000-U13)</f>
+        <f t="shared" ref="V6" si="37">IF(150000-U13&lt;0,0,150000-U13)</f>
         <v>0</v>
       </c>
       <c r="W6" s="97"/>
       <c r="X6" s="105">
-        <f t="shared" ref="X6" si="41">IF(150-X13&lt;0,0,150-X13)</f>
+        <f t="shared" ref="X6" si="38">IF(150-X13&lt;0,0,150-X13)</f>
         <v>0</v>
       </c>
       <c r="Y6" s="106"/>
       <c r="Z6" s="96">
-        <f t="shared" ref="Z6" si="42">IF(150000-Y13&lt;0,0,150000-Y13)</f>
+        <f t="shared" ref="Z6" si="39">IF(150000-Y13&lt;0,0,150000-Y13)</f>
         <v>0</v>
       </c>
       <c r="AA6" s="97"/>
       <c r="AB6" s="96">
-        <f t="shared" ref="AB6" si="43">IF(150-AB13&lt;0,0,150-AB13)</f>
+        <f t="shared" ref="AB6" si="40">IF(150-AB13&lt;0,0,150-AB13)</f>
         <v>0</v>
       </c>
       <c r="AC6" s="97"/>
       <c r="AD6" s="96">
-        <f t="shared" ref="AD6" si="44">IF(150000-AC13&lt;0,0,150000-AC13)</f>
+        <f t="shared" ref="AD6" si="41">IF(150000-AC13&lt;0,0,150000-AC13)</f>
         <v>0</v>
       </c>
       <c r="AE6" s="97"/>
@@ -2628,7 +1949,7 @@
       </c>
       <c r="AG6" s="4">
         <f>SUM(F6,R6,V6,N6,J6,Z6,AD6)</f>
-        <v>31384</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="3">
         <f>(7*150-AF6)/(7*150)</f>
@@ -2636,15 +1957,15 @@
       </c>
       <c r="AI6" s="3">
         <f>(7*150000-AG6)/(7*150000)</f>
-        <v>0.97011047619047619</v>
+        <v>1</v>
       </c>
       <c r="AJ6" s="1">
-        <f ca="1">AJ1+AF6/35</f>
-        <v>42021</v>
+        <f>AJ1+AF6/35</f>
+        <v>42022</v>
       </c>
       <c r="AK6" s="1">
-        <f ca="1">AJ1+AG6/35000</f>
-        <v>42021.896685714288</v>
+        <f>AJ1+AG6/35000</f>
+        <v>42022</v>
       </c>
     </row>
     <row r="7" spans="2:38" ht="15.75" thickBot="1">
@@ -2662,62 +1983,62 @@
       </c>
       <c r="G7" s="100"/>
       <c r="H7" s="98">
-        <f t="shared" ref="H7" si="45">H6/5</f>
+        <f t="shared" ref="H7" si="42">H6/5</f>
         <v>0</v>
       </c>
       <c r="I7" s="99"/>
       <c r="J7" s="99">
-        <f t="shared" ref="J7" si="46">J6/5000</f>
-        <v>4.7169999999999996</v>
+        <f t="shared" ref="J7" si="43">J6/5000</f>
+        <v>0</v>
       </c>
       <c r="K7" s="100"/>
       <c r="L7" s="101">
-        <f t="shared" ref="L7" si="47">L6/5</f>
+        <f t="shared" ref="L7" si="44">L6/5</f>
         <v>0</v>
       </c>
       <c r="M7" s="102"/>
       <c r="N7" s="103">
-        <f t="shared" ref="N7" si="48">N6/5000</f>
-        <v>1.5598000000000001</v>
+        <f t="shared" ref="N7" si="45">N6/5000</f>
+        <v>0</v>
       </c>
       <c r="O7" s="104"/>
       <c r="P7" s="98">
-        <f t="shared" ref="P7" si="49">P6/5</f>
+        <f t="shared" ref="P7" si="46">P6/5</f>
         <v>0</v>
       </c>
       <c r="Q7" s="99"/>
       <c r="R7" s="99">
-        <f t="shared" ref="R7" si="50">R6/5000</f>
+        <f t="shared" ref="R7" si="47">R6/5000</f>
         <v>0</v>
       </c>
       <c r="S7" s="100"/>
       <c r="T7" s="101">
-        <f t="shared" ref="T7" si="51">T6/5</f>
+        <f t="shared" ref="T7" si="48">T6/5</f>
         <v>0</v>
       </c>
       <c r="U7" s="102"/>
       <c r="V7" s="103">
-        <f t="shared" ref="V7" si="52">V6/5000</f>
+        <f t="shared" ref="V7" si="49">V6/5000</f>
         <v>0</v>
       </c>
       <c r="W7" s="104"/>
       <c r="X7" s="101">
-        <f t="shared" ref="X7" si="53">X6/5</f>
+        <f t="shared" ref="X7" si="50">X6/5</f>
         <v>0</v>
       </c>
       <c r="Y7" s="102"/>
       <c r="Z7" s="103">
-        <f t="shared" ref="Z7" si="54">Z6/5000</f>
+        <f t="shared" ref="Z7" si="51">Z6/5000</f>
         <v>0</v>
       </c>
       <c r="AA7" s="104"/>
       <c r="AB7" s="98">
-        <f t="shared" ref="AB7" si="55">AB6/5</f>
+        <f t="shared" ref="AB7" si="52">AB6/5</f>
         <v>0</v>
       </c>
       <c r="AC7" s="99"/>
       <c r="AD7" s="99">
-        <f t="shared" ref="AD7" si="56">AD6/5000</f>
+        <f t="shared" ref="AD7" si="53">AD6/5000</f>
         <v>0</v>
       </c>
       <c r="AE7" s="100"/>
@@ -2727,7 +2048,7 @@
       </c>
       <c r="AG7" s="4">
         <f>150000*7-AG6</f>
-        <v>1018616</v>
+        <v>1050000</v>
       </c>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
@@ -2752,7 +2073,7 @@
       <c r="I8" s="95"/>
       <c r="J8" s="92">
         <f>J$6/AVERAGE(K16:K17)</f>
-        <v>1.6584045283549556</v>
+        <v>0</v>
       </c>
       <c r="K8" s="93"/>
       <c r="L8" s="94">
@@ -2762,7 +2083,7 @@
       <c r="M8" s="95"/>
       <c r="N8" s="92">
         <f>N$6/AVERAGE(O16:O17)</f>
-        <v>0.87047268262737876</v>
+        <v>0</v>
       </c>
       <c r="O8" s="93"/>
       <c r="P8" s="94">
@@ -2827,7 +2148,7 @@
       <c r="I9" s="93"/>
       <c r="J9" s="92">
         <f>J$6/AVERAGE(K16:K18)</f>
-        <v>1.9220634575681843</v>
+        <v>0</v>
       </c>
       <c r="K9" s="93"/>
       <c r="L9" s="92">
@@ -2837,7 +2158,7 @@
       <c r="M9" s="93"/>
       <c r="N9" s="92">
         <f>N$6/AVERAGE(O16:O18)</f>
-        <v>1.1953711745772237</v>
+        <v>0</v>
       </c>
       <c r="O9" s="93"/>
       <c r="P9" s="92">
@@ -2903,7 +2224,7 @@
       <c r="I10" s="93"/>
       <c r="J10" s="92">
         <f>J$6/AVERAGE(K16:K19)</f>
-        <v>2.5627512767575791</v>
+        <v>0</v>
       </c>
       <c r="K10" s="93"/>
       <c r="L10" s="92">
@@ -2913,7 +2234,7 @@
       <c r="M10" s="93"/>
       <c r="N10" s="92">
         <f>N$6/AVERAGE(O16:O19)</f>
-        <v>1.5938282327696316</v>
+        <v>0</v>
       </c>
       <c r="O10" s="93"/>
       <c r="P10" s="92">
@@ -3068,7 +2389,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:38" ht="15" hidden="1" customHeight="1">
+    <row r="13" spans="2:38" ht="15" customHeight="1">
       <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
@@ -3076,140 +2397,137 @@
         <v>42022</v>
       </c>
       <c r="D13" s="48">
-        <f t="shared" ref="D13:E24" si="57">D14</f>
+        <f t="shared" ref="D13:E24" si="54">D14</f>
         <v>150</v>
       </c>
       <c r="E13" s="27">
-        <f t="shared" si="57"/>
+        <f t="shared" si="54"/>
         <v>150000</v>
       </c>
       <c r="F13" s="50">
-        <f t="shared" ref="F13:F40" si="58">D13-D14</f>
+        <f t="shared" ref="F13:F40" si="55">D13-D14</f>
         <v>0</v>
       </c>
       <c r="G13" s="28">
-        <f t="shared" ref="G13:G40" si="59">E13-E14</f>
+        <f t="shared" ref="G13:G40" si="56">E13-E14</f>
         <v>0</v>
       </c>
       <c r="H13" s="64">
-        <f t="shared" ref="H13:AC33" si="60">H14</f>
+        <f t="shared" ref="H13:AC33" si="57">H14</f>
         <v>150</v>
       </c>
       <c r="I13" s="68">
-        <f t="shared" si="60"/>
-        <v>126415</v>
+        <v>150000</v>
       </c>
       <c r="J13" s="66">
-        <f t="shared" ref="J13:J40" si="61">H13-H14</f>
+        <f t="shared" ref="J13:J40" si="58">H13-H14</f>
         <v>0</v>
       </c>
       <c r="K13" s="70">
-        <f t="shared" ref="K13:K40" si="62">I13-I14</f>
-        <v>0</v>
+        <f t="shared" ref="K13:K40" si="59">I13-I14</f>
+        <v>18651</v>
       </c>
       <c r="L13" s="52">
-        <f t="shared" ref="L13:L19" si="63">L14</f>
+        <f t="shared" ref="L13:L19" si="60">L14</f>
         <v>150</v>
       </c>
       <c r="M13" s="56">
-        <f t="shared" ref="M13:M19" si="64">M14</f>
-        <v>142201</v>
+        <v>150000</v>
       </c>
       <c r="N13" s="54">
-        <f t="shared" ref="N13:N40" si="65">L13-L14</f>
+        <f t="shared" ref="N13:N40" si="61">L13-L14</f>
         <v>0</v>
       </c>
       <c r="O13" s="58">
-        <f t="shared" ref="O13:O40" si="66">M13-M14</f>
-        <v>0</v>
+        <f t="shared" ref="O13:O40" si="62">M13-M14</f>
+        <v>3361</v>
       </c>
       <c r="P13" s="30">
-        <f t="shared" ref="P13:P19" si="67">P14</f>
+        <f t="shared" ref="P13:P19" si="63">P14</f>
         <v>150</v>
       </c>
       <c r="Q13" s="44">
-        <f t="shared" ref="Q13:Q19" si="68">Q14</f>
+        <f t="shared" ref="Q13:Q19" si="64">Q14</f>
         <v>150000</v>
       </c>
       <c r="R13" s="32">
-        <f t="shared" ref="R13:R40" si="69">P13-P14</f>
+        <f t="shared" ref="R13:R40" si="65">P13-P14</f>
         <v>0</v>
       </c>
       <c r="S13" s="46">
-        <f t="shared" ref="S13:S40" si="70">Q13-Q14</f>
+        <f t="shared" ref="S13:S40" si="66">Q13-Q14</f>
         <v>0</v>
       </c>
       <c r="T13" s="34">
-        <f t="shared" ref="T13:T19" si="71">T14</f>
+        <f t="shared" ref="T13:T19" si="67">T14</f>
         <v>150</v>
       </c>
       <c r="U13" s="83">
-        <f t="shared" ref="U13:U20" si="72">U14</f>
+        <f t="shared" ref="U13:U20" si="68">U14</f>
         <v>150000</v>
       </c>
       <c r="V13" s="36">
-        <f t="shared" ref="V13:V40" si="73">T13-T14</f>
+        <f t="shared" ref="V13:V40" si="69">T13-T14</f>
         <v>0</v>
       </c>
       <c r="W13" s="40">
-        <f t="shared" ref="W13:W26" si="74">U13-U14</f>
+        <f t="shared" ref="W13:W26" si="70">U13-U14</f>
         <v>0</v>
       </c>
       <c r="X13" s="60">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>150</v>
       </c>
       <c r="Y13" s="42">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>150000</v>
       </c>
       <c r="Z13" s="56">
-        <f t="shared" ref="Z13:Z40" si="75">X13-X14</f>
+        <f t="shared" ref="Z13:Z40" si="71">X13-X14</f>
         <v>0</v>
       </c>
       <c r="AA13" s="62">
-        <f t="shared" ref="AA13:AA40" si="76">Y13-Y14</f>
+        <f t="shared" ref="AA13:AA40" si="72">Y13-Y14</f>
         <v>0</v>
       </c>
       <c r="AB13" s="72">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>150</v>
       </c>
       <c r="AC13" s="77">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>150000</v>
       </c>
       <c r="AD13" s="75">
-        <f t="shared" ref="AD13:AD40" si="77">AB13-AB14</f>
+        <f t="shared" ref="AD13:AD40" si="73">AB13-AB14</f>
         <v>0</v>
       </c>
       <c r="AE13" s="80">
-        <f t="shared" ref="AE13:AE40" si="78">AC13-AC14</f>
+        <f t="shared" ref="AE13:AE40" si="74">AC13-AC14</f>
         <v>0</v>
       </c>
       <c r="AF13" s="11">
-        <f t="shared" ref="AF13:AF45" si="79">SUM(D13,P13,T13,L13,H13,X13,AB13)-SUM(D14,P14,T14,L14,H14,X14,AB14)</f>
+        <f t="shared" ref="AF13:AF45" si="75">SUM(D13,P13,T13,L13,H13,X13,AB13)-SUM(D14,P14,T14,L14,H14,X14,AB14)</f>
         <v>0</v>
       </c>
       <c r="AG13" s="16">
-        <f t="shared" ref="AG13:AG45" si="80">SUM(E13,Q13,U13,M13,I13,Y13,AC13)-SUM(E14,Q14,U14,M14,I14,Y14,AC14)</f>
-        <v>0</v>
+        <f t="shared" ref="AG13:AG45" si="76">SUM(E13,Q13,U13,M13,I13,Y13,AC13)-SUM(E14,Q14,U14,M14,I14,Y14,AC14)</f>
+        <v>22012</v>
       </c>
       <c r="AH13" s="13">
-        <f t="shared" ref="AH13:AH14" si="81">AH14</f>
-        <v>17440</v>
+        <v>17527</v>
       </c>
       <c r="AI13" s="18">
-        <f t="shared" ref="AI13:AI39" si="82">AH13-AH14</f>
-        <v>0</v>
+        <f t="shared" ref="AI13:AI39" si="77">AH13-AH14</f>
+        <v>35</v>
       </c>
       <c r="AJ13" s="87">
-        <f t="shared" ref="AJ13:AJ29" si="83">IF($AI13=0,0,AF13/$AI13)</f>
+        <f t="shared" ref="AJ13:AJ29" si="78">IF($AI13=0,0,AF13/$AI13)</f>
         <v>0</v>
       </c>
       <c r="AK13" s="88">
-        <f t="shared" ref="AK13:AK29" si="84">IF($AI13=0,0,AG13/$AI13)</f>
-        <v>0</v>
+        <f t="shared" ref="AK13:AK29" si="79">IF($AI13=0,0,AG13/$AI13)</f>
+        <v>628.91428571428571</v>
       </c>
     </row>
     <row r="14" spans="2:38" ht="15" customHeight="1">
@@ -3220,1016 +2538,1016 @@
         <v>42021</v>
       </c>
       <c r="D14" s="48">
-        <f t="shared" si="57"/>
+        <f t="shared" si="54"/>
         <v>150</v>
       </c>
       <c r="E14" s="27">
-        <f t="shared" si="57"/>
+        <f t="shared" si="54"/>
         <v>150000</v>
       </c>
       <c r="F14" s="50">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="G14" s="28">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="H14" s="64">
         <v>150</v>
       </c>
       <c r="I14" s="68">
-        <v>126415</v>
+        <v>131349</v>
       </c>
       <c r="J14" s="66">
+        <f t="shared" si="58"/>
+        <v>25</v>
+      </c>
+      <c r="K14" s="70">
+        <f t="shared" si="59"/>
+        <v>37682</v>
+      </c>
+      <c r="L14" s="52">
+        <f t="shared" si="60"/>
+        <v>150</v>
+      </c>
+      <c r="M14" s="56">
+        <v>146639</v>
+      </c>
+      <c r="N14" s="54">
         <f t="shared" si="61"/>
-        <v>25</v>
-      </c>
-      <c r="K14" s="70">
+        <v>0</v>
+      </c>
+      <c r="O14" s="58">
         <f t="shared" si="62"/>
-        <v>32748</v>
-      </c>
-      <c r="L14" s="52">
+        <v>16501</v>
+      </c>
+      <c r="P14" s="30">
         <f t="shared" si="63"/>
         <v>150</v>
       </c>
-      <c r="M14" s="56">
-        <v>142201</v>
-      </c>
-      <c r="N14" s="54">
+      <c r="Q14" s="44">
+        <f t="shared" si="64"/>
+        <v>150000</v>
+      </c>
+      <c r="R14" s="32">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="O14" s="58">
+      <c r="S14" s="46">
         <f t="shared" si="66"/>
-        <v>12063</v>
-      </c>
-      <c r="P14" s="30">
+        <v>0</v>
+      </c>
+      <c r="T14" s="34">
         <f t="shared" si="67"/>
         <v>150</v>
       </c>
-      <c r="Q14" s="44">
+      <c r="U14" s="83">
         <f t="shared" si="68"/>
         <v>150000</v>
       </c>
-      <c r="R14" s="32">
+      <c r="V14" s="36">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="S14" s="46">
+      <c r="W14" s="40">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="T14" s="34">
+      <c r="X14" s="60">
+        <f t="shared" si="57"/>
+        <v>150</v>
+      </c>
+      <c r="Y14" s="42">
+        <f t="shared" si="57"/>
+        <v>150000</v>
+      </c>
+      <c r="Z14" s="56">
         <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="62">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="72">
+        <f t="shared" si="57"/>
         <v>150</v>
       </c>
-      <c r="U14" s="83">
-        <f t="shared" si="72"/>
+      <c r="AC14" s="77">
+        <f t="shared" si="57"/>
         <v>150000</v>
       </c>
-      <c r="V14" s="36">
+      <c r="AD14" s="75">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="W14" s="40">
+      <c r="AE14" s="80">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="X14" s="60">
+      <c r="AF14" s="11">
+        <f t="shared" si="75"/>
+        <v>25</v>
+      </c>
+      <c r="AG14" s="16">
+        <f t="shared" si="76"/>
+        <v>54183</v>
+      </c>
+      <c r="AH14" s="13">
+        <f>17492</f>
+        <v>17492</v>
+      </c>
+      <c r="AI14" s="18">
+        <f t="shared" si="77"/>
+        <v>52</v>
+      </c>
+      <c r="AJ14" s="89">
+        <f t="shared" si="78"/>
+        <v>0.48076923076923078</v>
+      </c>
+      <c r="AK14" s="88">
+        <f t="shared" si="79"/>
+        <v>1041.9807692307693</v>
+      </c>
+    </row>
+    <row r="15" spans="2:38" ht="15" customHeight="1">
+      <c r="B15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="23">
+        <v>42020</v>
+      </c>
+      <c r="D15" s="48">
+        <f t="shared" si="54"/>
+        <v>150</v>
+      </c>
+      <c r="E15" s="27">
+        <f t="shared" si="54"/>
+        <v>150000</v>
+      </c>
+      <c r="F15" s="50">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="28">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="64">
+        <v>125</v>
+      </c>
+      <c r="I15" s="68">
+        <v>93667</v>
+      </c>
+      <c r="J15" s="66">
+        <f t="shared" si="58"/>
+        <v>20</v>
+      </c>
+      <c r="K15" s="70">
+        <f t="shared" si="59"/>
+        <v>14320</v>
+      </c>
+      <c r="L15" s="52">
         <f t="shared" si="60"/>
         <v>150</v>
       </c>
-      <c r="Y14" s="42">
-        <f t="shared" si="60"/>
+      <c r="M15" s="56">
+        <v>130138</v>
+      </c>
+      <c r="N15" s="54">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="58">
+        <f t="shared" si="62"/>
+        <v>1240</v>
+      </c>
+      <c r="P15" s="30">
+        <v>150</v>
+      </c>
+      <c r="Q15" s="44">
         <v>150000</v>
       </c>
-      <c r="Z14" s="56">
+      <c r="R15" s="32">
+        <f t="shared" si="65"/>
+        <v>12</v>
+      </c>
+      <c r="S15" s="46">
+        <f t="shared" si="66"/>
+        <v>3211</v>
+      </c>
+      <c r="T15" s="34">
+        <f t="shared" si="67"/>
+        <v>150</v>
+      </c>
+      <c r="U15" s="83">
+        <f t="shared" si="68"/>
+        <v>150000</v>
+      </c>
+      <c r="V15" s="36">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="40">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="60">
+        <f t="shared" si="57"/>
+        <v>150</v>
+      </c>
+      <c r="Y15" s="42">
+        <f t="shared" si="57"/>
+        <v>150000</v>
+      </c>
+      <c r="Z15" s="56">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="62">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="72">
+        <f t="shared" si="57"/>
+        <v>150</v>
+      </c>
+      <c r="AC15" s="77">
+        <f t="shared" si="57"/>
+        <v>150000</v>
+      </c>
+      <c r="AD15" s="75">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="80">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="11">
         <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="62">
+        <v>32</v>
+      </c>
+      <c r="AG15" s="16">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="72">
+        <v>18771</v>
+      </c>
+      <c r="AH15" s="13">
+        <v>17440</v>
+      </c>
+      <c r="AI15" s="18">
+        <f t="shared" si="77"/>
+        <v>38</v>
+      </c>
+      <c r="AJ15" s="91">
+        <f t="shared" si="78"/>
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="AK15" s="88">
+        <f t="shared" si="79"/>
+        <v>493.9736842105263</v>
+      </c>
+    </row>
+    <row r="16" spans="2:38" ht="15" customHeight="1">
+      <c r="B16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="23">
+        <v>42019</v>
+      </c>
+      <c r="D16" s="48">
+        <f t="shared" si="54"/>
+        <v>150</v>
+      </c>
+      <c r="E16" s="27">
+        <f t="shared" si="54"/>
+        <v>150000</v>
+      </c>
+      <c r="F16" s="50">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="28">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="64">
+        <v>105</v>
+      </c>
+      <c r="I16" s="68">
+        <v>79347</v>
+      </c>
+      <c r="J16" s="66">
+        <f t="shared" si="58"/>
+        <v>14</v>
+      </c>
+      <c r="K16" s="70">
+        <f t="shared" si="59"/>
+        <v>13817</v>
+      </c>
+      <c r="L16" s="52">
         <f t="shared" si="60"/>
         <v>150</v>
       </c>
-      <c r="AC14" s="77">
-        <f t="shared" si="60"/>
+      <c r="M16" s="56">
+        <v>128898</v>
+      </c>
+      <c r="N16" s="54">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="58">
+        <f t="shared" si="62"/>
+        <v>10375</v>
+      </c>
+      <c r="P16" s="30">
+        <v>138</v>
+      </c>
+      <c r="Q16" s="44">
+        <v>146789</v>
+      </c>
+      <c r="R16" s="32">
+        <f t="shared" si="65"/>
+        <v>5</v>
+      </c>
+      <c r="S16" s="46">
+        <f t="shared" si="66"/>
+        <v>8994</v>
+      </c>
+      <c r="T16" s="34">
+        <f t="shared" si="67"/>
+        <v>150</v>
+      </c>
+      <c r="U16" s="83">
+        <f t="shared" si="68"/>
         <v>150000</v>
       </c>
-      <c r="AD14" s="75">
+      <c r="V16" s="36">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="40">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="60">
+        <f t="shared" si="57"/>
+        <v>150</v>
+      </c>
+      <c r="Y16" s="42">
+        <f t="shared" si="57"/>
+        <v>150000</v>
+      </c>
+      <c r="Z16" s="56">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="62">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="72">
+        <f t="shared" si="57"/>
+        <v>150</v>
+      </c>
+      <c r="AC16" s="77">
+        <f t="shared" si="57"/>
+        <v>150000</v>
+      </c>
+      <c r="AD16" s="75">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="80">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="11">
+        <f t="shared" si="75"/>
+        <v>19</v>
+      </c>
+      <c r="AG16" s="16">
+        <f t="shared" si="76"/>
+        <v>33186</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>17402</v>
+      </c>
+      <c r="AI16" s="18">
         <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="80">
+        <v>40</v>
+      </c>
+      <c r="AJ16" s="89">
         <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="11">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AK16" s="90">
         <f t="shared" si="79"/>
-        <v>25</v>
-      </c>
-      <c r="AG14" s="16">
-        <f t="shared" si="80"/>
-        <v>44811</v>
-      </c>
-      <c r="AH14" s="13">
-        <f t="shared" si="81"/>
-        <v>17440</v>
-      </c>
-      <c r="AI14" s="18">
-        <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="87">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="88">
-        <f t="shared" si="84"/>
-        <v>0</v>
+        <v>829.65</v>
       </c>
     </row>
-    <row r="15" spans="2:38" ht="15" hidden="1" customHeight="1">
-      <c r="B15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="23">
-        <v>42020</v>
-      </c>
-      <c r="D15" s="48">
-        <f t="shared" si="57"/>
+    <row r="17" spans="2:39" ht="15" customHeight="1">
+      <c r="B17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="23">
+        <v>42018</v>
+      </c>
+      <c r="D17" s="48">
+        <f t="shared" si="54"/>
         <v>150</v>
       </c>
-      <c r="E15" s="27">
-        <f t="shared" si="57"/>
+      <c r="E17" s="27">
+        <f t="shared" si="54"/>
         <v>150000</v>
       </c>
-      <c r="F15" s="50">
+      <c r="F17" s="50">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="28">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="64">
+        <v>91</v>
+      </c>
+      <c r="I17" s="68">
+        <v>65530</v>
+      </c>
+      <c r="J17" s="66">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="28">
+        <v>22</v>
+      </c>
+      <c r="K17" s="70">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="64">
-        <v>125</v>
-      </c>
-      <c r="I15" s="68">
-        <v>93667</v>
-      </c>
-      <c r="J15" s="66">
-        <f t="shared" si="61"/>
-        <v>20</v>
-      </c>
-      <c r="K15" s="70">
-        <f t="shared" si="62"/>
-        <v>14320</v>
-      </c>
-      <c r="L15" s="52">
-        <f t="shared" si="63"/>
-        <v>150</v>
-      </c>
-      <c r="M15" s="56">
-        <v>130138</v>
-      </c>
-      <c r="N15" s="54">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="58">
-        <f t="shared" si="66"/>
-        <v>1240</v>
-      </c>
-      <c r="P15" s="30">
-        <v>150</v>
-      </c>
-      <c r="Q15" s="44">
-        <v>150000</v>
-      </c>
-      <c r="R15" s="32">
-        <f t="shared" si="69"/>
-        <v>12</v>
-      </c>
-      <c r="S15" s="46">
-        <f t="shared" si="70"/>
-        <v>3211</v>
-      </c>
-      <c r="T15" s="34">
-        <f t="shared" si="71"/>
-        <v>150</v>
-      </c>
-      <c r="U15" s="83">
-        <f t="shared" si="72"/>
-        <v>150000</v>
-      </c>
-      <c r="V15" s="36">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="40">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="60">
+        <v>14626</v>
+      </c>
+      <c r="L17" s="52">
         <f t="shared" si="60"/>
         <v>150</v>
       </c>
-      <c r="Y15" s="42">
+      <c r="M17" s="56">
+        <v>118523</v>
+      </c>
+      <c r="N17" s="54">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="58">
+        <f t="shared" si="62"/>
+        <v>7544</v>
+      </c>
+      <c r="P17" s="30">
+        <v>133</v>
+      </c>
+      <c r="Q17" s="44">
+        <v>137795</v>
+      </c>
+      <c r="R17" s="32">
+        <f t="shared" si="65"/>
+        <v>3</v>
+      </c>
+      <c r="S17" s="46">
+        <f t="shared" si="66"/>
+        <v>4443</v>
+      </c>
+      <c r="T17" s="34">
+        <f t="shared" si="67"/>
+        <v>150</v>
+      </c>
+      <c r="U17" s="83">
+        <f t="shared" si="68"/>
+        <v>150000</v>
+      </c>
+      <c r="V17" s="36">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="40">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="60">
+        <f t="shared" si="57"/>
+        <v>150</v>
+      </c>
+      <c r="Y17" s="42">
+        <f t="shared" si="57"/>
+        <v>150000</v>
+      </c>
+      <c r="Z17" s="56">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="62">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="72">
+        <f t="shared" si="57"/>
+        <v>150</v>
+      </c>
+      <c r="AC17" s="77">
+        <f t="shared" si="57"/>
+        <v>150000</v>
+      </c>
+      <c r="AD17" s="75">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="80">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="11">
+        <f t="shared" si="75"/>
+        <v>25</v>
+      </c>
+      <c r="AG17" s="16">
+        <f t="shared" si="76"/>
+        <v>26613</v>
+      </c>
+      <c r="AH17" s="13">
+        <v>17362</v>
+      </c>
+      <c r="AI17" s="18">
+        <f t="shared" si="77"/>
+        <v>37</v>
+      </c>
+      <c r="AJ17" s="89">
+        <f t="shared" si="78"/>
+        <v>0.67567567567567566</v>
+      </c>
+      <c r="AK17" s="90">
+        <f t="shared" si="79"/>
+        <v>719.27027027027032</v>
+      </c>
+    </row>
+    <row r="18" spans="2:39" ht="15" customHeight="1">
+      <c r="B18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="23">
+        <v>42017</v>
+      </c>
+      <c r="D18" s="48">
+        <f t="shared" si="54"/>
+        <v>150</v>
+      </c>
+      <c r="E18" s="27">
+        <f t="shared" si="54"/>
+        <v>150000</v>
+      </c>
+      <c r="F18" s="50">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="28">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="64">
+        <v>69</v>
+      </c>
+      <c r="I18" s="68">
+        <v>50904</v>
+      </c>
+      <c r="J18" s="66">
+        <f t="shared" si="58"/>
+        <v>14</v>
+      </c>
+      <c r="K18" s="70">
+        <f t="shared" si="59"/>
+        <v>8369</v>
+      </c>
+      <c r="L18" s="52">
+        <v>150</v>
+      </c>
+      <c r="M18" s="56">
+        <v>110979</v>
+      </c>
+      <c r="N18" s="54">
+        <f t="shared" si="61"/>
+        <v>3</v>
+      </c>
+      <c r="O18" s="58">
+        <f t="shared" si="62"/>
+        <v>1654</v>
+      </c>
+      <c r="P18" s="30">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="44">
+        <v>133352</v>
+      </c>
+      <c r="R18" s="32">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="S18" s="46">
+        <f t="shared" si="66"/>
+        <v>1403</v>
+      </c>
+      <c r="T18" s="34">
+        <f t="shared" si="67"/>
+        <v>150</v>
+      </c>
+      <c r="U18" s="83">
+        <f t="shared" si="68"/>
+        <v>150000</v>
+      </c>
+      <c r="V18" s="36">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="40">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="60">
+        <f t="shared" si="57"/>
+        <v>150</v>
+      </c>
+      <c r="Y18" s="42">
+        <f t="shared" si="57"/>
+        <v>150000</v>
+      </c>
+      <c r="Z18" s="56">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="62">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="72">
+        <f t="shared" si="57"/>
+        <v>150</v>
+      </c>
+      <c r="AC18" s="77">
+        <f t="shared" si="57"/>
+        <v>150000</v>
+      </c>
+      <c r="AD18" s="75">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="80">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="11">
+        <f t="shared" si="75"/>
+        <v>18</v>
+      </c>
+      <c r="AG18" s="16">
+        <f t="shared" si="76"/>
+        <v>11426</v>
+      </c>
+      <c r="AH18" s="13">
+        <v>17325</v>
+      </c>
+      <c r="AI18" s="18">
+        <f t="shared" si="77"/>
+        <v>15</v>
+      </c>
+      <c r="AJ18" s="13">
+        <f t="shared" si="78"/>
+        <v>1.2</v>
+      </c>
+      <c r="AK18" s="18">
+        <f t="shared" si="79"/>
+        <v>761.73333333333335</v>
+      </c>
+    </row>
+    <row r="19" spans="2:39" ht="15" customHeight="1">
+      <c r="B19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="23">
+        <v>42016</v>
+      </c>
+      <c r="D19" s="48">
+        <f t="shared" si="54"/>
+        <v>150</v>
+      </c>
+      <c r="E19" s="27">
+        <v>150000</v>
+      </c>
+      <c r="F19" s="50">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="28">
+        <f t="shared" si="56"/>
+        <v>18211</v>
+      </c>
+      <c r="H19" s="64">
+        <f t="shared" si="57"/>
+        <v>55</v>
+      </c>
+      <c r="I19" s="68">
+        <f t="shared" si="57"/>
+        <v>42535</v>
+      </c>
+      <c r="J19" s="66">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="70">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="52">
         <f t="shared" si="60"/>
+        <v>147</v>
+      </c>
+      <c r="M19" s="56">
+        <f t="shared" ref="M13:M19" si="80">M20</f>
+        <v>109325</v>
+      </c>
+      <c r="N19" s="54">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="58">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="30">
+        <f t="shared" si="63"/>
+        <v>129</v>
+      </c>
+      <c r="Q19" s="44">
+        <f t="shared" si="64"/>
+        <v>131949</v>
+      </c>
+      <c r="R19" s="32">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="46">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="34">
+        <f t="shared" si="67"/>
+        <v>150</v>
+      </c>
+      <c r="U19" s="83">
+        <f t="shared" si="68"/>
         <v>150000</v>
       </c>
-      <c r="Z15" s="56">
+      <c r="V19" s="36">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="40">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="60">
+        <f t="shared" si="57"/>
+        <v>150</v>
+      </c>
+      <c r="Y19" s="42">
+        <f t="shared" si="57"/>
+        <v>150000</v>
+      </c>
+      <c r="Z19" s="56">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="62">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="72">
+        <f t="shared" si="57"/>
+        <v>150</v>
+      </c>
+      <c r="AC19" s="77">
+        <f t="shared" si="57"/>
+        <v>150000</v>
+      </c>
+      <c r="AD19" s="75">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="80">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="11">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="62">
+      <c r="AG19" s="16">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="72">
-        <f t="shared" si="60"/>
+        <v>18211</v>
+      </c>
+      <c r="AH19" s="13">
+        <v>17310</v>
+      </c>
+      <c r="AI19" s="18">
+        <f t="shared" si="77"/>
+        <v>28</v>
+      </c>
+      <c r="AJ19" s="13">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="18">
+        <f t="shared" si="79"/>
+        <v>650.39285714285711</v>
+      </c>
+    </row>
+    <row r="20" spans="2:39" ht="15" customHeight="1">
+      <c r="B20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="23">
+        <v>42015</v>
+      </c>
+      <c r="D20" s="48">
+        <f t="shared" si="54"/>
         <v>150</v>
       </c>
-      <c r="AC15" s="77">
-        <f t="shared" si="60"/>
+      <c r="E20" s="27">
+        <v>131789</v>
+      </c>
+      <c r="F20" s="50">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="28">
+        <f t="shared" si="56"/>
+        <v>8553</v>
+      </c>
+      <c r="H20" s="64">
+        <v>55</v>
+      </c>
+      <c r="I20" s="68">
+        <v>42535</v>
+      </c>
+      <c r="J20" s="66">
+        <f t="shared" si="58"/>
+        <v>25</v>
+      </c>
+      <c r="K20" s="70">
+        <f t="shared" si="59"/>
+        <v>22427</v>
+      </c>
+      <c r="L20" s="52">
+        <v>147</v>
+      </c>
+      <c r="M20" s="56">
+        <v>109325</v>
+      </c>
+      <c r="N20" s="54">
+        <f t="shared" si="61"/>
+        <v>16</v>
+      </c>
+      <c r="O20" s="58">
+        <f t="shared" si="62"/>
+        <v>19369</v>
+      </c>
+      <c r="P20" s="30">
+        <v>129</v>
+      </c>
+      <c r="Q20" s="44">
+        <v>131949</v>
+      </c>
+      <c r="R20" s="32">
+        <f t="shared" si="65"/>
+        <v>10</v>
+      </c>
+      <c r="S20" s="46">
+        <f t="shared" si="66"/>
+        <v>12949</v>
+      </c>
+      <c r="T20" s="34">
+        <v>150</v>
+      </c>
+      <c r="U20" s="83">
+        <f t="shared" si="68"/>
         <v>150000</v>
       </c>
-      <c r="AD15" s="75">
+      <c r="V20" s="36">
+        <f t="shared" si="69"/>
+        <v>7</v>
+      </c>
+      <c r="W20" s="40">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="60">
+        <f t="shared" si="57"/>
+        <v>150</v>
+      </c>
+      <c r="Y20" s="42">
+        <f t="shared" si="57"/>
+        <v>150000</v>
+      </c>
+      <c r="Z20" s="56">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="62">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="72">
+        <f t="shared" si="57"/>
+        <v>150</v>
+      </c>
+      <c r="AC20" s="77">
+        <f t="shared" si="57"/>
+        <v>150000</v>
+      </c>
+      <c r="AD20" s="75">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="80">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="11">
+        <f t="shared" si="75"/>
+        <v>58</v>
+      </c>
+      <c r="AG20" s="16">
+        <f t="shared" si="76"/>
+        <v>63298</v>
+      </c>
+      <c r="AH20" s="13">
+        <v>17282</v>
+      </c>
+      <c r="AI20" s="18">
         <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="AE15" s="80">
+        <v>77</v>
+      </c>
+      <c r="AJ20" s="13">
         <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="11">
+        <v>0.75324675324675328</v>
+      </c>
+      <c r="AK20" s="18">
         <f t="shared" si="79"/>
-        <v>32</v>
-      </c>
-      <c r="AG15" s="16">
-        <f t="shared" si="80"/>
-        <v>18771</v>
-      </c>
-      <c r="AH15" s="13">
-        <v>17440</v>
-      </c>
-      <c r="AI15" s="18">
-        <f t="shared" si="82"/>
-        <v>38</v>
-      </c>
-      <c r="AJ15" s="91">
-        <f t="shared" si="83"/>
-        <v>0.84210526315789469</v>
-      </c>
-      <c r="AK15" s="88">
-        <f t="shared" si="84"/>
-        <v>493.9736842105263</v>
+        <v>822.0519480519481</v>
       </c>
     </row>
-    <row r="16" spans="2:38" ht="15" hidden="1" customHeight="1">
-      <c r="B16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="23">
-        <v>42019</v>
-      </c>
-      <c r="D16" s="48">
-        <f t="shared" si="57"/>
+    <row r="21" spans="2:39">
+      <c r="B21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="23">
+        <v>42014</v>
+      </c>
+      <c r="D21" s="48">
+        <f t="shared" si="54"/>
         <v>150</v>
       </c>
-      <c r="E16" s="27">
-        <f t="shared" si="57"/>
-        <v>150000</v>
-      </c>
-      <c r="F16" s="50">
+      <c r="E21" s="27">
+        <v>123236</v>
+      </c>
+      <c r="F21" s="50">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="28">
+        <f t="shared" si="56"/>
+        <v>9453</v>
+      </c>
+      <c r="H21" s="64">
+        <f t="shared" si="57"/>
+        <v>30</v>
+      </c>
+      <c r="I21" s="68">
+        <v>20108</v>
+      </c>
+      <c r="J21" s="66">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="G16" s="28">
+      <c r="K21" s="70">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="64">
-        <v>105</v>
-      </c>
-      <c r="I16" s="68">
-        <v>79347</v>
-      </c>
-      <c r="J16" s="66">
+        <v>2075</v>
+      </c>
+      <c r="L21" s="52">
+        <v>131</v>
+      </c>
+      <c r="M21" s="56">
+        <v>89956</v>
+      </c>
+      <c r="N21" s="54">
         <f t="shared" si="61"/>
         <v>14</v>
       </c>
-      <c r="K16" s="70">
+      <c r="O21" s="58">
         <f t="shared" si="62"/>
-        <v>13817</v>
-      </c>
-      <c r="L16" s="52">
-        <f t="shared" si="63"/>
-        <v>150</v>
-      </c>
-      <c r="M16" s="56">
-        <v>128898</v>
-      </c>
-      <c r="N16" s="54">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="58">
-        <f t="shared" si="66"/>
-        <v>10375</v>
-      </c>
-      <c r="P16" s="30">
-        <v>138</v>
-      </c>
-      <c r="Q16" s="44">
-        <v>146789</v>
-      </c>
-      <c r="R16" s="32">
-        <f t="shared" si="69"/>
-        <v>5</v>
-      </c>
-      <c r="S16" s="46">
-        <f t="shared" si="70"/>
-        <v>8994</v>
-      </c>
-      <c r="T16" s="34">
-        <f t="shared" si="71"/>
-        <v>150</v>
-      </c>
-      <c r="U16" s="83">
-        <f t="shared" si="72"/>
-        <v>150000</v>
-      </c>
-      <c r="V16" s="36">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="40">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="60">
-        <f t="shared" si="60"/>
-        <v>150</v>
-      </c>
-      <c r="Y16" s="42">
-        <f t="shared" si="60"/>
-        <v>150000</v>
-      </c>
-      <c r="Z16" s="56">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="62">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="72">
-        <f t="shared" si="60"/>
-        <v>150</v>
-      </c>
-      <c r="AC16" s="77">
-        <f t="shared" si="60"/>
-        <v>150000</v>
-      </c>
-      <c r="AD16" s="75">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="AE16" s="80">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="11">
-        <f t="shared" si="79"/>
-        <v>19</v>
-      </c>
-      <c r="AG16" s="16">
-        <f t="shared" si="80"/>
-        <v>33186</v>
-      </c>
-      <c r="AH16" s="13">
-        <v>17402</v>
-      </c>
-      <c r="AI16" s="18">
-        <f t="shared" si="82"/>
-        <v>40</v>
-      </c>
-      <c r="AJ16" s="89">
-        <f t="shared" si="83"/>
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="AK16" s="90">
-        <f t="shared" si="84"/>
-        <v>829.65</v>
-      </c>
-    </row>
-    <row r="17" spans="2:39" ht="15" hidden="1" customHeight="1">
-      <c r="B17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="23">
-        <v>42018</v>
-      </c>
-      <c r="D17" s="48">
-        <f t="shared" si="57"/>
-        <v>150</v>
-      </c>
-      <c r="E17" s="27">
-        <f t="shared" si="57"/>
-        <v>150000</v>
-      </c>
-      <c r="F17" s="50">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="28">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="64">
-        <v>91</v>
-      </c>
-      <c r="I17" s="68">
-        <v>65530</v>
-      </c>
-      <c r="J17" s="66">
-        <f t="shared" si="61"/>
-        <v>22</v>
-      </c>
-      <c r="K17" s="70">
-        <f t="shared" si="62"/>
-        <v>14626</v>
-      </c>
-      <c r="L17" s="52">
-        <f t="shared" si="63"/>
-        <v>150</v>
-      </c>
-      <c r="M17" s="56">
-        <v>118523</v>
-      </c>
-      <c r="N17" s="54">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="58">
-        <f t="shared" si="66"/>
-        <v>7544</v>
-      </c>
-      <c r="P17" s="30">
-        <v>133</v>
-      </c>
-      <c r="Q17" s="44">
-        <v>137795</v>
-      </c>
-      <c r="R17" s="32">
-        <f t="shared" si="69"/>
-        <v>3</v>
-      </c>
-      <c r="S17" s="46">
-        <f t="shared" si="70"/>
-        <v>4443</v>
-      </c>
-      <c r="T17" s="34">
-        <f t="shared" si="71"/>
-        <v>150</v>
-      </c>
-      <c r="U17" s="83">
-        <f t="shared" si="72"/>
-        <v>150000</v>
-      </c>
-      <c r="V17" s="36">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="W17" s="40">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="X17" s="60">
-        <f t="shared" si="60"/>
-        <v>150</v>
-      </c>
-      <c r="Y17" s="42">
-        <f t="shared" si="60"/>
-        <v>150000</v>
-      </c>
-      <c r="Z17" s="56">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="62">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="72">
-        <f t="shared" si="60"/>
-        <v>150</v>
-      </c>
-      <c r="AC17" s="77">
-        <f t="shared" si="60"/>
-        <v>150000</v>
-      </c>
-      <c r="AD17" s="75">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="AE17" s="80">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="AF17" s="11">
-        <f t="shared" si="79"/>
-        <v>25</v>
-      </c>
-      <c r="AG17" s="16">
-        <f t="shared" si="80"/>
-        <v>26613</v>
-      </c>
-      <c r="AH17" s="13">
-        <v>17362</v>
-      </c>
-      <c r="AI17" s="18">
-        <f t="shared" si="82"/>
-        <v>37</v>
-      </c>
-      <c r="AJ17" s="89">
-        <f t="shared" si="83"/>
-        <v>0.67567567567567566</v>
-      </c>
-      <c r="AK17" s="90">
-        <f t="shared" si="84"/>
-        <v>719.27027027027032</v>
-      </c>
-    </row>
-    <row r="18" spans="2:39" ht="15" hidden="1" customHeight="1">
-      <c r="B18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="23">
-        <v>42017</v>
-      </c>
-      <c r="D18" s="48">
-        <f t="shared" si="57"/>
-        <v>150</v>
-      </c>
-      <c r="E18" s="27">
-        <f t="shared" si="57"/>
-        <v>150000</v>
-      </c>
-      <c r="F18" s="50">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="28">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="64">
-        <v>69</v>
-      </c>
-      <c r="I18" s="68">
-        <v>50904</v>
-      </c>
-      <c r="J18" s="66">
-        <f t="shared" si="61"/>
-        <v>14</v>
-      </c>
-      <c r="K18" s="70">
-        <f t="shared" si="62"/>
-        <v>8369</v>
-      </c>
-      <c r="L18" s="52">
-        <v>150</v>
-      </c>
-      <c r="M18" s="56">
-        <v>110979</v>
-      </c>
-      <c r="N18" s="54">
-        <f t="shared" si="65"/>
-        <v>3</v>
-      </c>
-      <c r="O18" s="58">
-        <f t="shared" si="66"/>
-        <v>1654</v>
-      </c>
-      <c r="P18" s="30">
-        <v>130</v>
-      </c>
-      <c r="Q18" s="44">
-        <v>133352</v>
-      </c>
-      <c r="R18" s="32">
-        <f t="shared" si="69"/>
-        <v>1</v>
-      </c>
-      <c r="S18" s="46">
-        <f t="shared" si="70"/>
-        <v>1403</v>
-      </c>
-      <c r="T18" s="34">
-        <f t="shared" si="71"/>
-        <v>150</v>
-      </c>
-      <c r="U18" s="83">
-        <f t="shared" si="72"/>
-        <v>150000</v>
-      </c>
-      <c r="V18" s="36">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="40">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="X18" s="60">
-        <f t="shared" si="60"/>
-        <v>150</v>
-      </c>
-      <c r="Y18" s="42">
-        <f t="shared" si="60"/>
-        <v>150000</v>
-      </c>
-      <c r="Z18" s="56">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="62">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="72">
-        <f t="shared" si="60"/>
-        <v>150</v>
-      </c>
-      <c r="AC18" s="77">
-        <f t="shared" si="60"/>
-        <v>150000</v>
-      </c>
-      <c r="AD18" s="75">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="AE18" s="80">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="AF18" s="11">
-        <f t="shared" si="79"/>
-        <v>18</v>
-      </c>
-      <c r="AG18" s="16">
-        <f t="shared" si="80"/>
-        <v>11426</v>
-      </c>
-      <c r="AH18" s="13">
-        <v>17325</v>
-      </c>
-      <c r="AI18" s="18">
-        <f t="shared" si="82"/>
-        <v>15</v>
-      </c>
-      <c r="AJ18" s="13">
-        <f t="shared" si="83"/>
-        <v>1.2</v>
-      </c>
-      <c r="AK18" s="18">
-        <f t="shared" si="84"/>
-        <v>761.73333333333335</v>
-      </c>
-    </row>
-    <row r="19" spans="2:39" ht="15" hidden="1" customHeight="1">
-      <c r="B19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="23">
-        <v>42016</v>
-      </c>
-      <c r="D19" s="48">
-        <f t="shared" si="57"/>
-        <v>150</v>
-      </c>
-      <c r="E19" s="27">
-        <v>150000</v>
-      </c>
-      <c r="F19" s="50">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="28">
-        <f t="shared" si="59"/>
-        <v>18211</v>
-      </c>
-      <c r="H19" s="64">
-        <f t="shared" si="60"/>
-        <v>55</v>
-      </c>
-      <c r="I19" s="68">
-        <f t="shared" si="60"/>
-        <v>42535</v>
-      </c>
-      <c r="J19" s="66">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="70">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="52">
-        <f t="shared" si="63"/>
-        <v>147</v>
-      </c>
-      <c r="M19" s="56">
-        <f t="shared" si="64"/>
-        <v>109325</v>
-      </c>
-      <c r="N19" s="54">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="58">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="30">
-        <f t="shared" si="67"/>
-        <v>129</v>
-      </c>
-      <c r="Q19" s="44">
-        <f t="shared" si="68"/>
-        <v>131949</v>
-      </c>
-      <c r="R19" s="32">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="46">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="34">
-        <f t="shared" si="71"/>
-        <v>150</v>
-      </c>
-      <c r="U19" s="83">
-        <f t="shared" si="72"/>
-        <v>150000</v>
-      </c>
-      <c r="V19" s="36">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="W19" s="40">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="X19" s="60">
-        <f t="shared" si="60"/>
-        <v>150</v>
-      </c>
-      <c r="Y19" s="42">
-        <f t="shared" si="60"/>
-        <v>150000</v>
-      </c>
-      <c r="Z19" s="56">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="62">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="72">
-        <f t="shared" si="60"/>
-        <v>150</v>
-      </c>
-      <c r="AC19" s="77">
-        <f t="shared" si="60"/>
-        <v>150000</v>
-      </c>
-      <c r="AD19" s="75">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="AE19" s="80">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="AF19" s="11">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="AG19" s="16">
-        <f t="shared" si="80"/>
-        <v>18211</v>
-      </c>
-      <c r="AH19" s="13">
-        <v>17310</v>
-      </c>
-      <c r="AI19" s="18">
-        <f t="shared" si="82"/>
-        <v>28</v>
-      </c>
-      <c r="AJ19" s="13">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="AK19" s="18">
-        <f t="shared" si="84"/>
-        <v>650.39285714285711</v>
-      </c>
-    </row>
-    <row r="20" spans="2:39" ht="15" hidden="1" customHeight="1">
-      <c r="B20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="23">
-        <v>42015</v>
-      </c>
-      <c r="D20" s="48">
-        <f t="shared" si="57"/>
-        <v>150</v>
-      </c>
-      <c r="E20" s="27">
-        <v>131789</v>
-      </c>
-      <c r="F20" s="50">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="28">
-        <f t="shared" si="59"/>
-        <v>8553</v>
-      </c>
-      <c r="H20" s="64">
-        <v>55</v>
-      </c>
-      <c r="I20" s="68">
-        <v>42535</v>
-      </c>
-      <c r="J20" s="66">
-        <f t="shared" si="61"/>
-        <v>25</v>
-      </c>
-      <c r="K20" s="70">
-        <f t="shared" si="62"/>
-        <v>22427</v>
-      </c>
-      <c r="L20" s="52">
-        <v>147</v>
-      </c>
-      <c r="M20" s="56">
-        <v>109325</v>
-      </c>
-      <c r="N20" s="54">
-        <f t="shared" si="65"/>
-        <v>16</v>
-      </c>
-      <c r="O20" s="58">
-        <f t="shared" si="66"/>
-        <v>19369</v>
-      </c>
-      <c r="P20" s="30">
-        <v>129</v>
-      </c>
-      <c r="Q20" s="44">
-        <v>131949</v>
-      </c>
-      <c r="R20" s="32">
-        <f t="shared" si="69"/>
-        <v>10</v>
-      </c>
-      <c r="S20" s="46">
-        <f t="shared" si="70"/>
-        <v>12949</v>
-      </c>
-      <c r="T20" s="34">
-        <v>150</v>
-      </c>
-      <c r="U20" s="83">
-        <f t="shared" si="72"/>
-        <v>150000</v>
-      </c>
-      <c r="V20" s="36">
-        <f t="shared" si="73"/>
-        <v>7</v>
-      </c>
-      <c r="W20" s="40">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="60">
-        <f t="shared" si="60"/>
-        <v>150</v>
-      </c>
-      <c r="Y20" s="42">
-        <f t="shared" si="60"/>
-        <v>150000</v>
-      </c>
-      <c r="Z20" s="56">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="62">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="72">
-        <f t="shared" si="60"/>
-        <v>150</v>
-      </c>
-      <c r="AC20" s="77">
-        <f t="shared" si="60"/>
-        <v>150000</v>
-      </c>
-      <c r="AD20" s="75">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="AE20" s="80">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="11">
-        <f t="shared" si="79"/>
-        <v>58</v>
-      </c>
-      <c r="AG20" s="16">
-        <f t="shared" si="80"/>
-        <v>63298</v>
-      </c>
-      <c r="AH20" s="13">
-        <v>17282</v>
-      </c>
-      <c r="AI20" s="18">
-        <f t="shared" si="82"/>
-        <v>77</v>
-      </c>
-      <c r="AJ20" s="13">
-        <f t="shared" si="83"/>
-        <v>0.75324675324675328</v>
-      </c>
-      <c r="AK20" s="18">
-        <f t="shared" si="84"/>
-        <v>822.0519480519481</v>
-      </c>
-    </row>
-    <row r="21" spans="2:39" hidden="1">
-      <c r="B21" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="23">
-        <v>42014</v>
-      </c>
-      <c r="D21" s="48">
-        <f t="shared" si="57"/>
-        <v>150</v>
-      </c>
-      <c r="E21" s="27">
-        <v>123236</v>
-      </c>
-      <c r="F21" s="50">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="28">
-        <f t="shared" si="59"/>
-        <v>9453</v>
-      </c>
-      <c r="H21" s="64">
-        <f t="shared" si="60"/>
-        <v>30</v>
-      </c>
-      <c r="I21" s="68">
-        <v>20108</v>
-      </c>
-      <c r="J21" s="66">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="70">
-        <f t="shared" si="62"/>
-        <v>2075</v>
-      </c>
-      <c r="L21" s="52">
-        <v>131</v>
-      </c>
-      <c r="M21" s="56">
-        <v>89956</v>
-      </c>
-      <c r="N21" s="54">
-        <f t="shared" si="65"/>
-        <v>14</v>
-      </c>
-      <c r="O21" s="58">
-        <f t="shared" si="66"/>
         <v>7033</v>
       </c>
       <c r="P21" s="30">
@@ -4239,11 +3557,11 @@
         <v>119000</v>
       </c>
       <c r="R21" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>38</v>
       </c>
       <c r="S21" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>33066</v>
       </c>
       <c r="T21" s="34">
@@ -4253,66 +3571,66 @@
         <v>150000</v>
       </c>
       <c r="V21" s="36">
+        <f t="shared" si="69"/>
+        <v>31</v>
+      </c>
+      <c r="W21" s="40">
+        <f t="shared" si="70"/>
+        <v>8004</v>
+      </c>
+      <c r="X21" s="60">
+        <f t="shared" si="57"/>
+        <v>150</v>
+      </c>
+      <c r="Y21" s="42">
+        <f t="shared" si="57"/>
+        <v>150000</v>
+      </c>
+      <c r="Z21" s="56">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="62">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="72">
+        <f t="shared" si="57"/>
+        <v>150</v>
+      </c>
+      <c r="AC21" s="77">
+        <f t="shared" si="57"/>
+        <v>150000</v>
+      </c>
+      <c r="AD21" s="75">
         <f t="shared" si="73"/>
-        <v>31</v>
-      </c>
-      <c r="W21" s="40">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="80">
         <f t="shared" si="74"/>
-        <v>8004</v>
-      </c>
-      <c r="X21" s="60">
-        <f t="shared" si="60"/>
-        <v>150</v>
-      </c>
-      <c r="Y21" s="42">
-        <f t="shared" si="60"/>
-        <v>150000</v>
-      </c>
-      <c r="Z21" s="56">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="11">
         <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="62">
+        <v>83</v>
+      </c>
+      <c r="AG21" s="16">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="72">
-        <f t="shared" si="60"/>
-        <v>150</v>
-      </c>
-      <c r="AC21" s="77">
-        <f t="shared" si="60"/>
-        <v>150000</v>
-      </c>
-      <c r="AD21" s="75">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="AE21" s="80">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="AF21" s="11">
-        <f t="shared" si="79"/>
-        <v>83</v>
-      </c>
-      <c r="AG21" s="16">
-        <f t="shared" si="80"/>
         <v>59631</v>
       </c>
       <c r="AH21" s="13">
         <v>17205</v>
       </c>
       <c r="AI21" s="18">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>108</v>
       </c>
       <c r="AJ21" s="13">
-        <f t="shared" si="83"/>
+        <f t="shared" si="78"/>
         <v>0.76851851851851849</v>
       </c>
       <c r="AK21" s="18">
-        <f t="shared" si="84"/>
+        <f t="shared" si="79"/>
         <v>552.13888888888891</v>
       </c>
       <c r="AM21" t="b">
@@ -4320,7 +3638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:39" hidden="1">
+    <row r="22" spans="2:39">
       <c r="B22" s="8" t="s">
         <v>25</v>
       </c>
@@ -4328,18 +3646,18 @@
         <v>42013</v>
       </c>
       <c r="D22" s="48">
-        <f t="shared" si="57"/>
+        <f t="shared" si="54"/>
         <v>150</v>
       </c>
       <c r="E22" s="27">
         <v>113783</v>
       </c>
       <c r="F22" s="50">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="G22" s="28">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>8091</v>
       </c>
       <c r="H22" s="64">
@@ -4349,11 +3667,11 @@
         <v>18033</v>
       </c>
       <c r="J22" s="66">
-        <f t="shared" si="61"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="K22" s="70">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>714</v>
       </c>
       <c r="L22" s="52">
@@ -4363,11 +3681,11 @@
         <v>82923</v>
       </c>
       <c r="N22" s="54">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="O22" s="58">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>857</v>
       </c>
       <c r="P22" s="30">
@@ -4377,88 +3695,88 @@
         <v>85934</v>
       </c>
       <c r="R22" s="32">
+        <f t="shared" si="65"/>
+        <v>2</v>
+      </c>
+      <c r="S22" s="46">
+        <f t="shared" si="66"/>
+        <v>2025</v>
+      </c>
+      <c r="T22" s="34">
+        <v>112</v>
+      </c>
+      <c r="U22" s="83">
+        <v>141996</v>
+      </c>
+      <c r="V22" s="36">
         <f t="shared" si="69"/>
         <v>2</v>
       </c>
-      <c r="S22" s="46">
+      <c r="W22" s="40">
         <f t="shared" si="70"/>
-        <v>2025</v>
-      </c>
-      <c r="T22" s="34">
-        <v>112</v>
-      </c>
-      <c r="U22" s="83">
-        <v>141996</v>
-      </c>
-      <c r="V22" s="36">
+        <v>217</v>
+      </c>
+      <c r="X22" s="60">
+        <f t="shared" si="57"/>
+        <v>150</v>
+      </c>
+      <c r="Y22" s="42">
+        <f t="shared" si="57"/>
+        <v>150000</v>
+      </c>
+      <c r="Z22" s="56">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="62">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="72">
+        <f t="shared" si="57"/>
+        <v>150</v>
+      </c>
+      <c r="AC22" s="77">
+        <f t="shared" si="57"/>
+        <v>150000</v>
+      </c>
+      <c r="AD22" s="75">
         <f t="shared" si="73"/>
-        <v>2</v>
-      </c>
-      <c r="W22" s="40">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="80">
         <f t="shared" si="74"/>
-        <v>217</v>
-      </c>
-      <c r="X22" s="60">
-        <f t="shared" si="60"/>
-        <v>150</v>
-      </c>
-      <c r="Y22" s="42">
-        <f t="shared" si="60"/>
-        <v>150000</v>
-      </c>
-      <c r="Z22" s="56">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="11">
         <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="62">
+        <v>7</v>
+      </c>
+      <c r="AG22" s="16">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="72">
-        <f t="shared" si="60"/>
-        <v>150</v>
-      </c>
-      <c r="AC22" s="77">
-        <f t="shared" si="60"/>
-        <v>150000</v>
-      </c>
-      <c r="AD22" s="75">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="AE22" s="80">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="11">
-        <f t="shared" si="79"/>
-        <v>7</v>
-      </c>
-      <c r="AG22" s="16">
-        <f t="shared" si="80"/>
         <v>11904</v>
       </c>
       <c r="AH22" s="13">
         <v>17097</v>
       </c>
       <c r="AI22" s="18">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>16</v>
       </c>
       <c r="AJ22" s="13">
-        <f t="shared" si="83"/>
+        <f t="shared" si="78"/>
         <v>0.4375</v>
       </c>
       <c r="AK22" s="18">
-        <f t="shared" si="84"/>
+        <f t="shared" si="79"/>
         <v>744</v>
       </c>
       <c r="AM22" t="b">
-        <f t="shared" ref="AM22:AM46" si="85">(AF22&gt;AG22/1000)</f>
+        <f t="shared" ref="AM22:AM46" si="81">(AF22&gt;AG22/1000)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:39" hidden="1">
+    <row r="23" spans="2:39">
       <c r="B23" s="8" t="s">
         <v>20</v>
       </c>
@@ -4472,11 +3790,11 @@
         <v>105692</v>
       </c>
       <c r="F23" s="50">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="G23" s="28">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>4307</v>
       </c>
       <c r="H23" s="64">
@@ -4486,11 +3804,11 @@
         <v>17319</v>
       </c>
       <c r="J23" s="66">
-        <f t="shared" si="61"/>
+        <f t="shared" si="58"/>
         <v>3</v>
       </c>
       <c r="K23" s="70">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>1762</v>
       </c>
       <c r="L23" s="52">
@@ -4500,11 +3818,11 @@
         <v>82066</v>
       </c>
       <c r="N23" s="54">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="O23" s="58">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>2525</v>
       </c>
       <c r="P23" s="30">
@@ -4514,11 +3832,11 @@
         <v>83909</v>
       </c>
       <c r="R23" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>3</v>
       </c>
       <c r="S23" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>2985</v>
       </c>
       <c r="T23" s="34">
@@ -4528,11 +3846,11 @@
         <v>141779</v>
       </c>
       <c r="V23" s="36">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>9</v>
       </c>
       <c r="W23" s="40">
-        <f t="shared" si="74"/>
+        <f t="shared" si="70"/>
         <v>20352</v>
       </c>
       <c r="X23" s="60">
@@ -4542,58 +3860,58 @@
         <v>150000</v>
       </c>
       <c r="Z23" s="56">
+        <f t="shared" si="71"/>
+        <v>17</v>
+      </c>
+      <c r="AA23" s="62">
+        <f t="shared" si="72"/>
+        <v>11371</v>
+      </c>
+      <c r="AB23" s="72">
+        <f t="shared" si="57"/>
+        <v>150</v>
+      </c>
+      <c r="AC23" s="77">
+        <f t="shared" si="57"/>
+        <v>150000</v>
+      </c>
+      <c r="AD23" s="75">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="80">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="11">
         <f t="shared" si="75"/>
-        <v>17</v>
-      </c>
-      <c r="AA23" s="62">
+        <v>34</v>
+      </c>
+      <c r="AG23" s="16">
         <f t="shared" si="76"/>
-        <v>11371</v>
-      </c>
-      <c r="AB23" s="72">
-        <f t="shared" si="60"/>
-        <v>150</v>
-      </c>
-      <c r="AC23" s="77">
-        <f t="shared" si="60"/>
-        <v>150000</v>
-      </c>
-      <c r="AD23" s="75">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="AE23" s="80">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="AF23" s="11">
-        <f t="shared" si="79"/>
-        <v>34</v>
-      </c>
-      <c r="AG23" s="16">
-        <f t="shared" si="80"/>
         <v>43302</v>
       </c>
       <c r="AH23" s="13">
         <v>17081</v>
       </c>
       <c r="AI23" s="18">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>47</v>
       </c>
       <c r="AJ23" s="13">
-        <f t="shared" si="83"/>
+        <f t="shared" si="78"/>
         <v>0.72340425531914898</v>
       </c>
       <c r="AK23" s="18">
-        <f t="shared" si="84"/>
+        <f t="shared" si="79"/>
         <v>921.31914893617022</v>
       </c>
       <c r="AM23" t="b">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:39" hidden="1">
+    <row r="24" spans="2:39">
       <c r="B24" s="8" t="s">
         <v>21</v>
       </c>
@@ -4601,35 +3919,35 @@
         <v>42011</v>
       </c>
       <c r="D24" s="48">
-        <f t="shared" si="57"/>
+        <f t="shared" si="54"/>
         <v>149</v>
       </c>
       <c r="E24" s="27">
-        <f t="shared" si="57"/>
+        <f t="shared" si="54"/>
         <v>101385</v>
       </c>
       <c r="F24" s="50">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="28">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="64">
+        <f t="shared" si="57"/>
+        <v>25</v>
+      </c>
+      <c r="I24" s="68">
+        <f t="shared" si="57"/>
+        <v>15557</v>
+      </c>
+      <c r="J24" s="66">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="G24" s="28">
+      <c r="K24" s="70">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="64">
-        <f t="shared" si="60"/>
-        <v>25</v>
-      </c>
-      <c r="I24" s="68">
-        <f t="shared" si="60"/>
-        <v>15557</v>
-      </c>
-      <c r="J24" s="66">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="70">
-        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="L24" s="52">
@@ -4641,11 +3959,11 @@
         <v>79541</v>
       </c>
       <c r="N24" s="54">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="O24" s="58">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="P24" s="30">
@@ -4657,11 +3975,11 @@
         <v>80924</v>
       </c>
       <c r="R24" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="S24" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="T24" s="34">
@@ -4673,11 +3991,11 @@
         <v>121427</v>
       </c>
       <c r="V24" s="36">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="W24" s="40">
-        <f t="shared" si="74"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="X24" s="60">
@@ -4687,58 +4005,58 @@
         <v>138629</v>
       </c>
       <c r="Z24" s="56">
+        <f t="shared" si="71"/>
+        <v>16</v>
+      </c>
+      <c r="AA24" s="62">
+        <f t="shared" si="72"/>
+        <v>16053</v>
+      </c>
+      <c r="AB24" s="72">
+        <f t="shared" si="57"/>
+        <v>150</v>
+      </c>
+      <c r="AC24" s="77">
+        <f t="shared" si="57"/>
+        <v>150000</v>
+      </c>
+      <c r="AD24" s="75">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="80">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="11">
         <f t="shared" si="75"/>
         <v>16</v>
       </c>
-      <c r="AA24" s="62">
+      <c r="AG24" s="16">
         <f t="shared" si="76"/>
         <v>16053</v>
       </c>
-      <c r="AB24" s="72">
-        <f t="shared" si="60"/>
-        <v>150</v>
-      </c>
-      <c r="AC24" s="77">
-        <f t="shared" si="60"/>
-        <v>150000</v>
-      </c>
-      <c r="AD24" s="75">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="AE24" s="80">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="AF24" s="11">
-        <f t="shared" si="79"/>
-        <v>16</v>
-      </c>
-      <c r="AG24" s="16">
-        <f t="shared" si="80"/>
-        <v>16053</v>
-      </c>
       <c r="AH24" s="13">
         <v>17034</v>
       </c>
       <c r="AI24" s="18">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>15</v>
       </c>
       <c r="AJ24" s="13">
-        <f t="shared" si="83"/>
+        <f t="shared" si="78"/>
         <v>1.0666666666666667</v>
       </c>
       <c r="AK24" s="18">
-        <f t="shared" si="84"/>
+        <f t="shared" si="79"/>
         <v>1070.2</v>
       </c>
       <c r="AM24" t="b">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:39" hidden="1">
+    <row r="25" spans="2:39">
       <c r="B25" s="8" t="s">
         <v>22</v>
       </c>
@@ -4752,27 +4070,27 @@
         <v>101385</v>
       </c>
       <c r="F25" s="50">
+        <f t="shared" si="55"/>
+        <v>10</v>
+      </c>
+      <c r="G25" s="28">
+        <f t="shared" si="56"/>
+        <v>3866</v>
+      </c>
+      <c r="H25" s="64">
+        <f t="shared" si="57"/>
+        <v>25</v>
+      </c>
+      <c r="I25" s="68">
+        <f t="shared" si="57"/>
+        <v>15557</v>
+      </c>
+      <c r="J25" s="66">
         <f t="shared" si="58"/>
-        <v>10</v>
-      </c>
-      <c r="G25" s="28">
+        <v>0</v>
+      </c>
+      <c r="K25" s="70">
         <f t="shared" si="59"/>
-        <v>3866</v>
-      </c>
-      <c r="H25" s="64">
-        <f t="shared" si="60"/>
-        <v>25</v>
-      </c>
-      <c r="I25" s="68">
-        <f t="shared" si="60"/>
-        <v>15557</v>
-      </c>
-      <c r="J25" s="66">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="70">
-        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="L25" s="52">
@@ -4784,11 +4102,11 @@
         <v>79541</v>
       </c>
       <c r="N25" s="54">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="O25" s="58">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="P25" s="30">
@@ -4798,11 +4116,11 @@
         <v>80924</v>
       </c>
       <c r="R25" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>3</v>
       </c>
       <c r="S25" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>3617</v>
       </c>
       <c r="T25" s="34">
@@ -4812,11 +4130,11 @@
         <v>121427</v>
       </c>
       <c r="V25" s="36">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>4</v>
       </c>
       <c r="W25" s="40">
-        <f t="shared" si="74"/>
+        <f t="shared" si="70"/>
         <v>2447</v>
       </c>
       <c r="X25" s="60">
@@ -4826,58 +4144,58 @@
         <v>122576</v>
       </c>
       <c r="Z25" s="56">
+        <f t="shared" si="71"/>
+        <v>12</v>
+      </c>
+      <c r="AA25" s="62">
+        <f t="shared" si="72"/>
+        <v>18202</v>
+      </c>
+      <c r="AB25" s="72">
+        <f t="shared" si="57"/>
+        <v>150</v>
+      </c>
+      <c r="AC25" s="77">
+        <f t="shared" si="57"/>
+        <v>150000</v>
+      </c>
+      <c r="AD25" s="75">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="80">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="11">
         <f t="shared" si="75"/>
-        <v>12</v>
-      </c>
-      <c r="AA25" s="62">
+        <v>29</v>
+      </c>
+      <c r="AG25" s="16">
         <f t="shared" si="76"/>
-        <v>18202</v>
-      </c>
-      <c r="AB25" s="72">
-        <f t="shared" si="60"/>
-        <v>150</v>
-      </c>
-      <c r="AC25" s="77">
-        <f t="shared" si="60"/>
-        <v>150000</v>
-      </c>
-      <c r="AD25" s="75">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="AE25" s="80">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="11">
-        <f t="shared" si="79"/>
-        <v>29</v>
-      </c>
-      <c r="AG25" s="16">
-        <f t="shared" si="80"/>
         <v>28132</v>
       </c>
       <c r="AH25" s="13">
         <v>17019</v>
       </c>
       <c r="AI25" s="18">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>24</v>
       </c>
       <c r="AJ25" s="13">
-        <f t="shared" si="83"/>
+        <f t="shared" si="78"/>
         <v>1.2083333333333333</v>
       </c>
       <c r="AK25" s="18">
-        <f t="shared" si="84"/>
+        <f t="shared" si="79"/>
         <v>1172.1666666666667</v>
       </c>
       <c r="AM25" t="b">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:39" hidden="1">
+    <row r="26" spans="2:39">
       <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
@@ -4891,27 +4209,27 @@
         <v>97519</v>
       </c>
       <c r="F26" s="50">
+        <f t="shared" si="55"/>
+        <v>4</v>
+      </c>
+      <c r="G26" s="28">
+        <f t="shared" si="56"/>
+        <v>4701</v>
+      </c>
+      <c r="H26" s="64">
+        <f t="shared" si="57"/>
+        <v>25</v>
+      </c>
+      <c r="I26" s="68">
+        <f t="shared" si="57"/>
+        <v>15557</v>
+      </c>
+      <c r="J26" s="66">
         <f t="shared" si="58"/>
-        <v>4</v>
-      </c>
-      <c r="G26" s="28">
+        <v>0</v>
+      </c>
+      <c r="K26" s="70">
         <f t="shared" si="59"/>
-        <v>4701</v>
-      </c>
-      <c r="H26" s="64">
-        <f t="shared" si="60"/>
-        <v>25</v>
-      </c>
-      <c r="I26" s="68">
-        <f t="shared" si="60"/>
-        <v>15557</v>
-      </c>
-      <c r="J26" s="66">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="70">
-        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="L26" s="52">
@@ -4921,11 +4239,11 @@
         <v>79541</v>
       </c>
       <c r="N26" s="54">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>8</v>
       </c>
       <c r="O26" s="58">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>1661</v>
       </c>
       <c r="P26" s="30">
@@ -4935,11 +4253,11 @@
         <v>77307</v>
       </c>
       <c r="R26" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>7</v>
       </c>
       <c r="S26" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>4350</v>
       </c>
       <c r="T26" s="34">
@@ -4949,11 +4267,11 @@
         <v>118980</v>
       </c>
       <c r="V26" s="36">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>5</v>
       </c>
       <c r="W26" s="40">
-        <f t="shared" si="74"/>
+        <f t="shared" si="70"/>
         <v>4591</v>
       </c>
       <c r="X26" s="60">
@@ -4963,58 +4281,58 @@
         <v>104374</v>
       </c>
       <c r="Z26" s="56">
+        <f t="shared" si="71"/>
+        <v>4</v>
+      </c>
+      <c r="AA26" s="62">
+        <f t="shared" si="72"/>
+        <v>5145</v>
+      </c>
+      <c r="AB26" s="72">
+        <f t="shared" si="57"/>
+        <v>150</v>
+      </c>
+      <c r="AC26" s="77">
+        <f t="shared" si="57"/>
+        <v>150000</v>
+      </c>
+      <c r="AD26" s="75">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="80">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="11">
         <f t="shared" si="75"/>
-        <v>4</v>
-      </c>
-      <c r="AA26" s="62">
+        <v>28</v>
+      </c>
+      <c r="AG26" s="16">
         <f t="shared" si="76"/>
-        <v>5145</v>
-      </c>
-      <c r="AB26" s="72">
-        <f t="shared" si="60"/>
-        <v>150</v>
-      </c>
-      <c r="AC26" s="77">
-        <f t="shared" si="60"/>
-        <v>150000</v>
-      </c>
-      <c r="AD26" s="75">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="80">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="11">
-        <f t="shared" si="79"/>
-        <v>28</v>
-      </c>
-      <c r="AG26" s="16">
-        <f t="shared" si="80"/>
         <v>20448</v>
       </c>
       <c r="AH26" s="13">
         <v>16995</v>
       </c>
       <c r="AI26" s="18">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>22</v>
       </c>
       <c r="AJ26" s="13">
-        <f t="shared" si="83"/>
+        <f t="shared" si="78"/>
         <v>1.2727272727272727</v>
       </c>
       <c r="AK26" s="18">
-        <f t="shared" si="84"/>
+        <f t="shared" si="79"/>
         <v>929.4545454545455</v>
       </c>
       <c r="AM26" t="b">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:39" hidden="1">
+    <row r="27" spans="2:39">
       <c r="B27" s="8" t="s">
         <v>24</v>
       </c>
@@ -5028,11 +4346,11 @@
         <v>92818</v>
       </c>
       <c r="F27" s="50">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>32</v>
       </c>
       <c r="G27" s="28">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>23518</v>
       </c>
       <c r="H27" s="64">
@@ -5042,11 +4360,11 @@
         <v>15557</v>
       </c>
       <c r="J27" s="66">
-        <f t="shared" si="61"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="K27" s="70">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>1656</v>
       </c>
       <c r="L27" s="52">
@@ -5056,11 +4374,11 @@
         <v>77880</v>
       </c>
       <c r="N27" s="54">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="O27" s="58">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>12141</v>
       </c>
       <c r="P27" s="30">
@@ -5070,11 +4388,11 @@
         <v>72957</v>
       </c>
       <c r="R27" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>13</v>
       </c>
       <c r="S27" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>10825</v>
       </c>
       <c r="T27" s="34">
@@ -5084,7 +4402,7 @@
         <v>114389</v>
       </c>
       <c r="V27" s="36">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>30</v>
       </c>
       <c r="W27" s="40">
@@ -5098,58 +4416,58 @@
         <v>99229</v>
       </c>
       <c r="Z27" s="56">
+        <f t="shared" si="71"/>
+        <v>27</v>
+      </c>
+      <c r="AA27" s="62">
+        <f t="shared" si="72"/>
+        <v>24483</v>
+      </c>
+      <c r="AB27" s="72">
+        <f t="shared" si="57"/>
+        <v>150</v>
+      </c>
+      <c r="AC27" s="77">
+        <f t="shared" si="57"/>
+        <v>150000</v>
+      </c>
+      <c r="AD27" s="75">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="80">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="11">
         <f t="shared" si="75"/>
-        <v>27</v>
-      </c>
-      <c r="AA27" s="62">
+        <v>114</v>
+      </c>
+      <c r="AG27" s="16">
         <f t="shared" si="76"/>
-        <v>24483</v>
-      </c>
-      <c r="AB27" s="72">
-        <f t="shared" si="60"/>
-        <v>150</v>
-      </c>
-      <c r="AC27" s="77">
-        <f t="shared" si="60"/>
-        <v>150000</v>
-      </c>
-      <c r="AD27" s="75">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="AE27" s="80">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="AF27" s="11">
-        <f t="shared" si="79"/>
-        <v>114</v>
-      </c>
-      <c r="AG27" s="16">
-        <f t="shared" si="80"/>
         <v>110688</v>
       </c>
       <c r="AH27" s="13">
         <v>16973</v>
       </c>
       <c r="AI27" s="18">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>126</v>
       </c>
       <c r="AJ27" s="13">
-        <f t="shared" si="83"/>
+        <f t="shared" si="78"/>
         <v>0.90476190476190477</v>
       </c>
       <c r="AK27" s="18">
-        <f t="shared" si="84"/>
+        <f t="shared" si="79"/>
         <v>878.47619047619048</v>
       </c>
       <c r="AM27" t="b">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:39" hidden="1">
+    <row r="28" spans="2:39">
       <c r="B28" s="8" t="s">
         <v>19</v>
       </c>
@@ -5163,11 +4481,11 @@
         <v>69300</v>
       </c>
       <c r="F28" s="50">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>8</v>
       </c>
       <c r="G28" s="28">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>4151</v>
       </c>
       <c r="H28" s="64">
@@ -5177,11 +4495,11 @@
         <v>13901</v>
       </c>
       <c r="J28" s="66">
-        <f t="shared" si="61"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="K28" s="70">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="L28" s="52">
@@ -5191,11 +4509,11 @@
         <v>65739</v>
       </c>
       <c r="N28" s="54">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>6</v>
       </c>
       <c r="O28" s="58">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>6671</v>
       </c>
       <c r="P28" s="30">
@@ -5205,11 +4523,11 @@
         <v>62132</v>
       </c>
       <c r="R28" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>15</v>
       </c>
       <c r="S28" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>14540</v>
       </c>
       <c r="T28" s="34">
@@ -5219,11 +4537,11 @@
         <v>76324</v>
       </c>
       <c r="V28" s="36">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>2</v>
       </c>
       <c r="W28" s="40">
-        <f t="shared" ref="W28:W33" si="86">U28-U29</f>
+        <f t="shared" ref="W28:W33" si="82">U28-U29</f>
         <v>1209</v>
       </c>
       <c r="X28" s="60">
@@ -5233,11 +4551,11 @@
         <v>74746</v>
       </c>
       <c r="Z28" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v>13</v>
       </c>
       <c r="AA28" s="62">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v>14974</v>
       </c>
       <c r="AB28" s="72">
@@ -5247,42 +4565,42 @@
         <v>150000</v>
       </c>
       <c r="AD28" s="75">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v>14</v>
       </c>
       <c r="AE28" s="80">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="AF28" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="75"/>
         <v>58</v>
       </c>
       <c r="AG28" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>41545</v>
       </c>
       <c r="AH28" s="13">
         <v>16847</v>
       </c>
       <c r="AI28" s="18">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>63</v>
       </c>
       <c r="AJ28" s="13">
-        <f t="shared" si="83"/>
+        <f t="shared" si="78"/>
         <v>0.92063492063492058</v>
       </c>
       <c r="AK28" s="18">
-        <f t="shared" si="84"/>
+        <f t="shared" si="79"/>
         <v>659.44444444444446</v>
       </c>
       <c r="AM28" t="b">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:39" hidden="1">
+    <row r="29" spans="2:39">
       <c r="B29" s="8" t="s">
         <v>25</v>
       </c>
@@ -5290,67 +4608,67 @@
         <v>42006</v>
       </c>
       <c r="D29" s="48">
-        <f t="shared" ref="D29:E38" si="87">D30</f>
+        <f t="shared" ref="D29:E38" si="83">D30</f>
         <v>95</v>
       </c>
       <c r="E29" s="27">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>65149</v>
       </c>
       <c r="F29" s="50">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="28">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="64">
+        <f t="shared" si="57"/>
+        <v>24</v>
+      </c>
+      <c r="I29" s="68">
+        <f t="shared" si="57"/>
+        <v>13901</v>
+      </c>
+      <c r="J29" s="66">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="G29" s="28">
+      <c r="K29" s="70">
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="H29" s="64">
-        <f t="shared" si="60"/>
-        <v>24</v>
-      </c>
-      <c r="I29" s="68">
-        <f t="shared" si="60"/>
-        <v>13901</v>
-      </c>
-      <c r="J29" s="66">
+      <c r="L29" s="52">
+        <f t="shared" ref="L29:M31" si="84">L30</f>
+        <v>90</v>
+      </c>
+      <c r="M29" s="56">
+        <f t="shared" si="84"/>
+        <v>59068</v>
+      </c>
+      <c r="N29" s="54">
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="K29" s="70">
+      <c r="O29" s="58">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="L29" s="52">
-        <f t="shared" ref="L29:M31" si="88">L30</f>
-        <v>90</v>
-      </c>
-      <c r="M29" s="56">
-        <f t="shared" si="88"/>
-        <v>59068</v>
-      </c>
-      <c r="N29" s="54">
+      <c r="P29" s="30">
+        <f t="shared" ref="P29:Q32" si="85">P30</f>
+        <v>38</v>
+      </c>
+      <c r="Q29" s="44">
+        <f t="shared" si="85"/>
+        <v>47592</v>
+      </c>
+      <c r="R29" s="32">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="O29" s="58">
+      <c r="S29" s="46">
         <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="30">
-        <f t="shared" ref="P29:Q32" si="89">P30</f>
-        <v>38</v>
-      </c>
-      <c r="Q29" s="44">
-        <f t="shared" si="89"/>
-        <v>47592</v>
-      </c>
-      <c r="R29" s="32">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="S29" s="46">
-        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T29" s="34">
@@ -5361,27 +4679,27 @@
         <v>75115</v>
       </c>
       <c r="V29" s="36">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="W29" s="40">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v>3216</v>
       </c>
       <c r="X29" s="60">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>61</v>
       </c>
       <c r="Y29" s="42">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>59772</v>
       </c>
       <c r="Z29" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AA29" s="62">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AB29" s="72">
@@ -5391,42 +4709,42 @@
         <v>150000</v>
       </c>
       <c r="AD29" s="75">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v>35</v>
       </c>
       <c r="AE29" s="80">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>28631</v>
       </c>
       <c r="AF29" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="75"/>
         <v>35</v>
       </c>
       <c r="AG29" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>31847</v>
       </c>
       <c r="AH29" s="13">
         <v>16784</v>
       </c>
       <c r="AI29" s="18">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>41</v>
       </c>
       <c r="AJ29" s="13">
-        <f t="shared" si="83"/>
+        <f t="shared" si="78"/>
         <v>0.85365853658536583</v>
       </c>
       <c r="AK29" s="18">
-        <f t="shared" si="84"/>
+        <f t="shared" si="79"/>
         <v>776.7560975609756</v>
       </c>
       <c r="AM29" t="b">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:39" hidden="1">
+    <row r="30" spans="2:39">
       <c r="B30" s="8" t="s">
         <v>20</v>
       </c>
@@ -5434,67 +4752,67 @@
         <v>42005</v>
       </c>
       <c r="D30" s="48">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>95</v>
       </c>
       <c r="E30" s="27">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>65149</v>
       </c>
       <c r="F30" s="50">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="28">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="64">
+        <f t="shared" si="57"/>
+        <v>24</v>
+      </c>
+      <c r="I30" s="68">
+        <f t="shared" si="57"/>
+        <v>13901</v>
+      </c>
+      <c r="J30" s="66">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="G30" s="28">
+      <c r="K30" s="70">
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="H30" s="64">
-        <f t="shared" si="60"/>
-        <v>24</v>
-      </c>
-      <c r="I30" s="68">
-        <f t="shared" si="60"/>
-        <v>13901</v>
-      </c>
-      <c r="J30" s="66">
+      <c r="L30" s="52">
+        <f t="shared" si="84"/>
+        <v>90</v>
+      </c>
+      <c r="M30" s="56">
+        <f t="shared" si="84"/>
+        <v>59068</v>
+      </c>
+      <c r="N30" s="54">
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="K30" s="70">
+      <c r="O30" s="58">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="L30" s="52">
-        <f t="shared" si="88"/>
-        <v>90</v>
-      </c>
-      <c r="M30" s="56">
-        <f t="shared" si="88"/>
-        <v>59068</v>
-      </c>
-      <c r="N30" s="54">
+      <c r="P30" s="30">
+        <f t="shared" si="85"/>
+        <v>38</v>
+      </c>
+      <c r="Q30" s="44">
+        <f t="shared" si="85"/>
+        <v>47592</v>
+      </c>
+      <c r="R30" s="32">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="O30" s="58">
+      <c r="S30" s="46">
         <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="30">
-        <f t="shared" si="89"/>
-        <v>38</v>
-      </c>
-      <c r="Q30" s="44">
-        <f t="shared" si="89"/>
-        <v>47592</v>
-      </c>
-      <c r="R30" s="32">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="46">
-        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T30" s="34">
@@ -5506,27 +4824,27 @@
         <v>71899</v>
       </c>
       <c r="V30" s="36">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="W30" s="40">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="X30" s="60">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>61</v>
       </c>
       <c r="Y30" s="42">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>59772</v>
       </c>
       <c r="Z30" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AA30" s="62">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AB30" s="72">
@@ -5536,26 +4854,26 @@
         <v>121369</v>
       </c>
       <c r="AD30" s="75">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v>23</v>
       </c>
       <c r="AE30" s="80">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>23745</v>
       </c>
       <c r="AF30" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="75"/>
         <v>23</v>
       </c>
       <c r="AG30" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>23745</v>
       </c>
       <c r="AH30" s="13">
         <v>16743</v>
       </c>
       <c r="AI30" s="18">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>21</v>
       </c>
       <c r="AJ30" s="13">
@@ -5567,11 +4885,11 @@
         <v>1130.7142857142858</v>
       </c>
       <c r="AM30" t="b">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:39" hidden="1">
+    <row r="31" spans="2:39">
       <c r="B31" s="8" t="s">
         <v>21</v>
       </c>
@@ -5579,67 +4897,67 @@
         <v>42004</v>
       </c>
       <c r="D31" s="48">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>95</v>
       </c>
       <c r="E31" s="27">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>65149</v>
       </c>
       <c r="F31" s="50">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="28">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="64">
+        <f t="shared" si="57"/>
+        <v>24</v>
+      </c>
+      <c r="I31" s="68">
+        <f t="shared" si="57"/>
+        <v>13901</v>
+      </c>
+      <c r="J31" s="66">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="G31" s="28">
+      <c r="K31" s="70">
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="H31" s="64">
-        <f t="shared" si="60"/>
-        <v>24</v>
-      </c>
-      <c r="I31" s="68">
-        <f t="shared" si="60"/>
-        <v>13901</v>
-      </c>
-      <c r="J31" s="66">
+      <c r="L31" s="52">
+        <f t="shared" si="84"/>
+        <v>90</v>
+      </c>
+      <c r="M31" s="56">
+        <f t="shared" si="84"/>
+        <v>59068</v>
+      </c>
+      <c r="N31" s="54">
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="K31" s="70">
+      <c r="O31" s="58">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="L31" s="52">
-        <f t="shared" si="88"/>
-        <v>90</v>
-      </c>
-      <c r="M31" s="56">
-        <f t="shared" si="88"/>
-        <v>59068</v>
-      </c>
-      <c r="N31" s="54">
+      <c r="P31" s="30">
+        <f t="shared" si="85"/>
+        <v>38</v>
+      </c>
+      <c r="Q31" s="44">
+        <f t="shared" si="85"/>
+        <v>47592</v>
+      </c>
+      <c r="R31" s="32">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="O31" s="58">
+      <c r="S31" s="46">
         <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="30">
-        <f t="shared" si="89"/>
-        <v>38</v>
-      </c>
-      <c r="Q31" s="44">
-        <f t="shared" si="89"/>
-        <v>47592</v>
-      </c>
-      <c r="R31" s="32">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="46">
-        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T31" s="34">
@@ -5651,74 +4969,74 @@
         <v>71899</v>
       </c>
       <c r="V31" s="36">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="40">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="X31" s="60">
+        <f t="shared" si="57"/>
+        <v>61</v>
+      </c>
+      <c r="Y31" s="42">
+        <f t="shared" si="57"/>
+        <v>59772</v>
+      </c>
+      <c r="Z31" s="56">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="62">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="72">
+        <f t="shared" si="57"/>
+        <v>78</v>
+      </c>
+      <c r="AC31" s="77">
+        <f t="shared" si="57"/>
+        <v>97624</v>
+      </c>
+      <c r="AD31" s="75">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="W31" s="40">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="X31" s="60">
-        <f t="shared" si="60"/>
-        <v>61</v>
-      </c>
-      <c r="Y31" s="42">
-        <f t="shared" si="60"/>
-        <v>59772</v>
-      </c>
-      <c r="Z31" s="56">
+      <c r="AE31" s="80">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="11">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="62">
+      <c r="AG31" s="16">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="72">
-        <f t="shared" si="60"/>
-        <v>78</v>
-      </c>
-      <c r="AC31" s="77">
-        <f t="shared" si="60"/>
-        <v>97624</v>
-      </c>
-      <c r="AD31" s="75">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="AE31" s="80">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="11">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="AG31" s="16">
-        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="AH31" s="13">
         <v>16722</v>
       </c>
       <c r="AI31" s="18">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AJ31" s="13">
-        <f t="shared" ref="AJ31:AJ32" si="90">IF($AI31=0,0,AF31/$AI31)</f>
+        <f t="shared" ref="AJ31:AJ32" si="86">IF($AI31=0,0,AF31/$AI31)</f>
         <v>0</v>
       </c>
       <c r="AK31" s="18">
-        <f t="shared" ref="AK31:AK32" si="91">IF($AI31=0,0,AG31/$AI31)</f>
+        <f t="shared" ref="AK31:AK32" si="87">IF($AI31=0,0,AG31/$AI31)</f>
         <v>0</v>
       </c>
       <c r="AM31" t="b">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:39" hidden="1">
+    <row r="32" spans="2:39">
       <c r="B32" s="8" t="s">
         <v>22</v>
       </c>
@@ -5732,27 +5050,27 @@
         <v>65149</v>
       </c>
       <c r="F32" s="50">
+        <f t="shared" si="55"/>
+        <v>9</v>
+      </c>
+      <c r="G32" s="28">
+        <f t="shared" si="56"/>
+        <v>6604</v>
+      </c>
+      <c r="H32" s="64">
+        <f t="shared" si="57"/>
+        <v>24</v>
+      </c>
+      <c r="I32" s="68">
+        <f t="shared" si="57"/>
+        <v>13901</v>
+      </c>
+      <c r="J32" s="66">
         <f t="shared" si="58"/>
-        <v>9</v>
-      </c>
-      <c r="G32" s="28">
+        <v>0</v>
+      </c>
+      <c r="K32" s="70">
         <f t="shared" si="59"/>
-        <v>6604</v>
-      </c>
-      <c r="H32" s="64">
-        <f t="shared" si="60"/>
-        <v>24</v>
-      </c>
-      <c r="I32" s="68">
-        <f t="shared" si="60"/>
-        <v>13901</v>
-      </c>
-      <c r="J32" s="66">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="70">
-        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="L32" s="52">
@@ -5762,27 +5080,27 @@
         <v>59068</v>
       </c>
       <c r="N32" s="54">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="O32" s="58">
+        <f t="shared" si="62"/>
+        <v>909</v>
+      </c>
+      <c r="P32" s="30">
+        <f t="shared" si="85"/>
+        <v>38</v>
+      </c>
+      <c r="Q32" s="44">
+        <f t="shared" si="85"/>
+        <v>47592</v>
+      </c>
+      <c r="R32" s="32">
         <f t="shared" si="65"/>
-        <v>1</v>
-      </c>
-      <c r="O32" s="58">
+        <v>0</v>
+      </c>
+      <c r="S32" s="46">
         <f t="shared" si="66"/>
-        <v>909</v>
-      </c>
-      <c r="P32" s="30">
-        <f t="shared" si="89"/>
-        <v>38</v>
-      </c>
-      <c r="Q32" s="44">
-        <f t="shared" si="89"/>
-        <v>47592</v>
-      </c>
-      <c r="R32" s="32">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="S32" s="46">
-        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T32" s="34">
@@ -5792,27 +5110,27 @@
         <v>71899</v>
       </c>
       <c r="V32" s="36">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>2</v>
       </c>
       <c r="W32" s="40">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v>3515</v>
       </c>
       <c r="X32" s="60">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>61</v>
       </c>
       <c r="Y32" s="42">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>59772</v>
       </c>
       <c r="Z32" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AA32" s="62">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AB32" s="72">
@@ -5822,42 +5140,42 @@
         <v>97624</v>
       </c>
       <c r="AD32" s="75">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v>17</v>
       </c>
       <c r="AE32" s="80">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>15893</v>
       </c>
       <c r="AF32" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="75"/>
         <v>29</v>
       </c>
       <c r="AG32" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>26921</v>
       </c>
       <c r="AH32" s="13">
         <v>16722</v>
       </c>
       <c r="AI32" s="18">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>27</v>
       </c>
       <c r="AJ32" s="13">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v>1.0740740740740742</v>
       </c>
       <c r="AK32" s="18">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v>997.07407407407402</v>
       </c>
       <c r="AM32" t="b">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:39" hidden="1">
+    <row r="33" spans="2:39">
       <c r="B33" s="8" t="s">
         <v>23</v>
       </c>
@@ -5871,27 +5189,27 @@
         <v>58545</v>
       </c>
       <c r="F33" s="50">
+        <f t="shared" si="55"/>
+        <v>5</v>
+      </c>
+      <c r="G33" s="28">
+        <f t="shared" si="56"/>
+        <v>2176</v>
+      </c>
+      <c r="H33" s="64">
+        <f t="shared" si="57"/>
+        <v>24</v>
+      </c>
+      <c r="I33" s="68">
+        <f t="shared" si="57"/>
+        <v>13901</v>
+      </c>
+      <c r="J33" s="66">
         <f t="shared" si="58"/>
-        <v>5</v>
-      </c>
-      <c r="G33" s="28">
+        <v>0</v>
+      </c>
+      <c r="K33" s="70">
         <f t="shared" si="59"/>
-        <v>2176</v>
-      </c>
-      <c r="H33" s="64">
-        <f t="shared" si="60"/>
-        <v>24</v>
-      </c>
-      <c r="I33" s="68">
-        <f t="shared" si="60"/>
-        <v>13901</v>
-      </c>
-      <c r="J33" s="66">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="70">
-        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="L33" s="52">
@@ -5903,11 +5221,11 @@
         <v>58159</v>
       </c>
       <c r="N33" s="54">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="O33" s="58">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="P33" s="30">
@@ -5917,11 +5235,11 @@
         <v>47592</v>
       </c>
       <c r="R33" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>3</v>
       </c>
       <c r="S33" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>3306</v>
       </c>
       <c r="T33" s="34">
@@ -5931,73 +5249,73 @@
         <v>68384</v>
       </c>
       <c r="V33" s="36">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>4</v>
       </c>
       <c r="W33" s="40">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v>7384</v>
       </c>
       <c r="X33" s="60">
-        <f t="shared" ref="X33:AC38" si="92">X34</f>
+        <f t="shared" ref="X33:AC38" si="88">X34</f>
         <v>61</v>
       </c>
       <c r="Y33" s="42">
         <v>59772</v>
       </c>
       <c r="Z33" s="56">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="62">
+        <f t="shared" si="72"/>
+        <v>1572</v>
+      </c>
+      <c r="AB33" s="72">
+        <f t="shared" si="88"/>
+        <v>61</v>
+      </c>
+      <c r="AC33" s="77">
+        <f t="shared" si="88"/>
+        <v>81731</v>
+      </c>
+      <c r="AD33" s="75">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="80">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="11">
         <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="62">
+        <v>12</v>
+      </c>
+      <c r="AG33" s="16">
         <f t="shared" si="76"/>
-        <v>1572</v>
-      </c>
-      <c r="AB33" s="72">
-        <f t="shared" si="92"/>
-        <v>61</v>
-      </c>
-      <c r="AC33" s="77">
-        <f t="shared" si="92"/>
-        <v>81731</v>
-      </c>
-      <c r="AD33" s="75">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="AE33" s="80">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="AF33" s="11">
-        <f t="shared" si="79"/>
-        <v>12</v>
-      </c>
-      <c r="AG33" s="16">
-        <f t="shared" si="80"/>
         <v>14438</v>
       </c>
       <c r="AH33" s="13">
         <v>16695</v>
       </c>
       <c r="AI33" s="18">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>13</v>
       </c>
       <c r="AJ33" s="13">
-        <f t="shared" ref="AJ33:AJ41" si="93">AF33/$AI33</f>
+        <f t="shared" ref="AJ33:AJ41" si="89">AF33/$AI33</f>
         <v>0.92307692307692313</v>
       </c>
       <c r="AK33" s="18">
-        <f t="shared" ref="AK33:AK41" si="94">AG33/$AI33</f>
+        <f t="shared" ref="AK33:AK41" si="90">AG33/$AI33</f>
         <v>1110.6153846153845</v>
       </c>
       <c r="AM33" t="b">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:39" hidden="1">
+    <row r="34" spans="2:39">
       <c r="B34" s="8" t="s">
         <v>24</v>
       </c>
@@ -6011,11 +5329,11 @@
         <v>56369</v>
       </c>
       <c r="F34" s="50">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>8</v>
       </c>
       <c r="G34" s="28">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>8249</v>
       </c>
       <c r="H34" s="64">
@@ -6025,11 +5343,11 @@
         <v>13901</v>
       </c>
       <c r="J34" s="66">
-        <f t="shared" si="61"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="K34" s="70">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>693</v>
       </c>
       <c r="L34" s="52">
@@ -6039,11 +5357,11 @@
         <v>58159</v>
       </c>
       <c r="N34" s="54">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>15</v>
       </c>
       <c r="O34" s="58">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>7495</v>
       </c>
       <c r="P34" s="30">
@@ -6053,11 +5371,11 @@
         <v>44286</v>
       </c>
       <c r="R34" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>2</v>
       </c>
       <c r="S34" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>4444</v>
       </c>
       <c r="T34" s="34">
@@ -6067,7 +5385,7 @@
         <v>61000</v>
       </c>
       <c r="V34" s="36">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>6</v>
       </c>
       <c r="W34" s="40" t="s">
@@ -6080,11 +5398,11 @@
         <v>58200</v>
       </c>
       <c r="Z34" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v>6</v>
       </c>
       <c r="AA34" s="62">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v>4879</v>
       </c>
       <c r="AB34" s="72">
@@ -6094,42 +5412,42 @@
         <v>81731</v>
       </c>
       <c r="AD34" s="75">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v>9</v>
       </c>
       <c r="AE34" s="80">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>13255</v>
       </c>
       <c r="AF34" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="75"/>
         <v>47</v>
       </c>
       <c r="AG34" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>46264</v>
       </c>
       <c r="AH34" s="13">
         <v>16682</v>
       </c>
       <c r="AI34" s="18">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>50</v>
       </c>
       <c r="AJ34" s="13">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>0.94</v>
       </c>
       <c r="AK34" s="18">
-        <f t="shared" si="94"/>
+        <f t="shared" si="90"/>
         <v>925.28</v>
       </c>
       <c r="AM34" t="b">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:39" hidden="1">
+    <row r="35" spans="2:39">
       <c r="B35" s="8" t="s">
         <v>19</v>
       </c>
@@ -6143,27 +5461,27 @@
         <v>48120</v>
       </c>
       <c r="F35" s="50">
+        <f t="shared" si="55"/>
+        <v>8</v>
+      </c>
+      <c r="G35" s="28">
+        <f t="shared" si="56"/>
+        <v>4420</v>
+      </c>
+      <c r="H35" s="64">
+        <f t="shared" ref="H35:I40" si="91">H36</f>
+        <v>23</v>
+      </c>
+      <c r="I35" s="68">
+        <f t="shared" si="91"/>
+        <v>13208</v>
+      </c>
+      <c r="J35" s="66">
         <f t="shared" si="58"/>
-        <v>8</v>
-      </c>
-      <c r="G35" s="28">
+        <v>0</v>
+      </c>
+      <c r="K35" s="70">
         <f t="shared" si="59"/>
-        <v>4420</v>
-      </c>
-      <c r="H35" s="64">
-        <f t="shared" ref="H35:I40" si="95">H36</f>
-        <v>23</v>
-      </c>
-      <c r="I35" s="68">
-        <f t="shared" si="95"/>
-        <v>13208</v>
-      </c>
-      <c r="J35" s="66">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="70">
-        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="L35" s="52">
@@ -6175,11 +5493,11 @@
         <v>50664</v>
       </c>
       <c r="N35" s="54">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="O35" s="58">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="P35" s="30">
@@ -6191,11 +5509,11 @@
         <v>39842</v>
       </c>
       <c r="R35" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="S35" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="T35" s="34">
@@ -6207,74 +5525,74 @@
         <v>53751</v>
       </c>
       <c r="V35" s="36">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="40">
+        <f t="shared" ref="W35:W40" si="92">U35-U36</f>
+        <v>0</v>
+      </c>
+      <c r="X35" s="60">
+        <f t="shared" si="88"/>
+        <v>55</v>
+      </c>
+      <c r="Y35" s="42">
+        <f t="shared" si="88"/>
+        <v>53321</v>
+      </c>
+      <c r="Z35" s="56">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="62">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="72">
+        <f t="shared" si="88"/>
+        <v>52</v>
+      </c>
+      <c r="AC35" s="77">
+        <f t="shared" si="88"/>
+        <v>68476</v>
+      </c>
+      <c r="AD35" s="75">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="W35" s="40">
-        <f t="shared" ref="W35:W40" si="96">U35-U36</f>
-        <v>0</v>
-      </c>
-      <c r="X35" s="60">
-        <f t="shared" si="92"/>
-        <v>55</v>
-      </c>
-      <c r="Y35" s="42">
-        <f t="shared" si="92"/>
-        <v>53321</v>
-      </c>
-      <c r="Z35" s="56">
+      <c r="AE35" s="80">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="11">
         <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="62">
+        <v>8</v>
+      </c>
+      <c r="AG35" s="16">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="AB35" s="72">
-        <f t="shared" si="92"/>
-        <v>52</v>
-      </c>
-      <c r="AC35" s="77">
-        <f t="shared" si="92"/>
-        <v>68476</v>
-      </c>
-      <c r="AD35" s="75">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="AE35" s="80">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="AF35" s="11">
-        <f t="shared" si="79"/>
-        <v>8</v>
-      </c>
-      <c r="AG35" s="16">
-        <f t="shared" si="80"/>
         <v>4420</v>
       </c>
       <c r="AH35" s="13">
         <v>16632</v>
       </c>
       <c r="AI35" s="18">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>2</v>
       </c>
       <c r="AJ35" s="13">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>4</v>
       </c>
       <c r="AK35" s="18">
-        <f t="shared" si="94"/>
+        <f t="shared" si="90"/>
         <v>2210</v>
       </c>
       <c r="AM35" t="b">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:39" hidden="1">
+    <row r="36" spans="2:39">
       <c r="B36" s="8" t="s">
         <v>25</v>
       </c>
@@ -6288,11 +5606,11 @@
         <v>43700</v>
       </c>
       <c r="F36" s="50">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>9</v>
       </c>
       <c r="G36" s="28">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>6500</v>
       </c>
       <c r="H36" s="64">
@@ -6302,11 +5620,11 @@
         <v>13208</v>
       </c>
       <c r="J36" s="66">
-        <f t="shared" si="61"/>
+        <f t="shared" si="58"/>
         <v>8</v>
       </c>
       <c r="K36" s="70">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>3620</v>
       </c>
       <c r="L36" s="52">
@@ -6316,11 +5634,11 @@
         <v>50664</v>
       </c>
       <c r="N36" s="54">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>6</v>
       </c>
       <c r="O36" s="58">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>4005</v>
       </c>
       <c r="P36" s="30">
@@ -6330,158 +5648,158 @@
         <v>39842</v>
       </c>
       <c r="R36" s="32">
+        <f t="shared" si="65"/>
+        <v>3</v>
+      </c>
+      <c r="S36" s="46">
+        <f t="shared" si="66"/>
+        <v>2155</v>
+      </c>
+      <c r="T36" s="34">
+        <v>48</v>
+      </c>
+      <c r="U36" s="38">
+        <v>53751</v>
+      </c>
+      <c r="V36" s="36">
+        <f t="shared" si="69"/>
+        <v>1</v>
+      </c>
+      <c r="W36" s="40">
+        <f t="shared" si="92"/>
+        <v>1981</v>
+      </c>
+      <c r="X36" s="60">
+        <v>55</v>
+      </c>
+      <c r="Y36" s="42">
+        <v>53321</v>
+      </c>
+      <c r="Z36" s="56">
+        <f t="shared" si="71"/>
+        <v>7</v>
+      </c>
+      <c r="AA36" s="62">
+        <f t="shared" si="72"/>
+        <v>7477</v>
+      </c>
+      <c r="AB36" s="72">
+        <v>52</v>
+      </c>
+      <c r="AC36" s="77">
+        <v>68476</v>
+      </c>
+      <c r="AD36" s="75">
+        <f t="shared" si="73"/>
+        <v>8</v>
+      </c>
+      <c r="AE36" s="80">
+        <f t="shared" si="74"/>
+        <v>11554</v>
+      </c>
+      <c r="AF36" s="11">
+        <f t="shared" si="75"/>
+        <v>42</v>
+      </c>
+      <c r="AG36" s="16">
+        <f t="shared" si="76"/>
+        <v>37292</v>
+      </c>
+      <c r="AH36" s="13">
+        <v>16630</v>
+      </c>
+      <c r="AI36" s="18">
+        <f t="shared" si="77"/>
+        <v>38</v>
+      </c>
+      <c r="AJ36" s="13">
+        <f t="shared" si="89"/>
+        <v>1.1052631578947369</v>
+      </c>
+      <c r="AK36" s="18">
+        <f t="shared" si="90"/>
+        <v>981.36842105263156</v>
+      </c>
+      <c r="AM36" t="b">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:39">
+      <c r="B37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="23">
+        <v>41998</v>
+      </c>
+      <c r="D37" s="48">
+        <v>56</v>
+      </c>
+      <c r="E37" s="27">
+        <v>37200</v>
+      </c>
+      <c r="F37" s="50">
+        <f t="shared" si="55"/>
+        <v>6</v>
+      </c>
+      <c r="G37" s="28">
+        <f t="shared" si="56"/>
+        <v>3300</v>
+      </c>
+      <c r="H37" s="64">
+        <v>15</v>
+      </c>
+      <c r="I37" s="68">
+        <v>9588</v>
+      </c>
+      <c r="J37" s="66">
+        <f t="shared" si="58"/>
+        <v>3</v>
+      </c>
+      <c r="K37" s="70">
+        <f t="shared" si="59"/>
+        <v>1597</v>
+      </c>
+      <c r="L37" s="52">
+        <v>68</v>
+      </c>
+      <c r="M37" s="56">
+        <v>46659</v>
+      </c>
+      <c r="N37" s="54">
+        <f t="shared" si="61"/>
+        <v>3</v>
+      </c>
+      <c r="O37" s="58">
+        <f t="shared" si="62"/>
+        <v>1399</v>
+      </c>
+      <c r="P37" s="30">
+        <v>30</v>
+      </c>
+      <c r="Q37" s="44">
+        <v>37687</v>
+      </c>
+      <c r="R37" s="32">
+        <f t="shared" si="65"/>
+        <v>24</v>
+      </c>
+      <c r="S37" s="46">
+        <f t="shared" si="66"/>
+        <v>23288</v>
+      </c>
+      <c r="T37" s="34">
+        <v>47</v>
+      </c>
+      <c r="U37" s="38">
+        <v>51770</v>
+      </c>
+      <c r="V37" s="36">
         <f t="shared" si="69"/>
         <v>3</v>
       </c>
-      <c r="S36" s="46">
-        <f t="shared" si="70"/>
-        <v>2155</v>
-      </c>
-      <c r="T36" s="34">
-        <v>48</v>
-      </c>
-      <c r="U36" s="38">
-        <v>53751</v>
-      </c>
-      <c r="V36" s="36">
-        <f t="shared" si="73"/>
-        <v>1</v>
-      </c>
-      <c r="W36" s="40">
-        <f t="shared" si="96"/>
-        <v>1981</v>
-      </c>
-      <c r="X36" s="60">
-        <v>55</v>
-      </c>
-      <c r="Y36" s="42">
-        <v>53321</v>
-      </c>
-      <c r="Z36" s="56">
-        <f t="shared" si="75"/>
-        <v>7</v>
-      </c>
-      <c r="AA36" s="62">
-        <f t="shared" si="76"/>
-        <v>7477</v>
-      </c>
-      <c r="AB36" s="72">
-        <v>52</v>
-      </c>
-      <c r="AC36" s="77">
-        <v>68476</v>
-      </c>
-      <c r="AD36" s="75">
-        <f t="shared" si="77"/>
-        <v>8</v>
-      </c>
-      <c r="AE36" s="80">
-        <f t="shared" si="78"/>
-        <v>11554</v>
-      </c>
-      <c r="AF36" s="11">
-        <f t="shared" si="79"/>
-        <v>42</v>
-      </c>
-      <c r="AG36" s="16">
-        <f t="shared" si="80"/>
-        <v>37292</v>
-      </c>
-      <c r="AH36" s="13">
-        <v>16630</v>
-      </c>
-      <c r="AI36" s="18">
-        <f t="shared" si="82"/>
-        <v>38</v>
-      </c>
-      <c r="AJ36" s="13">
-        <f t="shared" si="93"/>
-        <v>1.1052631578947369</v>
-      </c>
-      <c r="AK36" s="18">
-        <f t="shared" si="94"/>
-        <v>981.36842105263156</v>
-      </c>
-      <c r="AM36" t="b">
-        <f t="shared" si="85"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:39" hidden="1">
-      <c r="B37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="23">
-        <v>41998</v>
-      </c>
-      <c r="D37" s="48">
-        <v>56</v>
-      </c>
-      <c r="E37" s="27">
-        <v>37200</v>
-      </c>
-      <c r="F37" s="50">
-        <f t="shared" si="58"/>
-        <v>6</v>
-      </c>
-      <c r="G37" s="28">
-        <f t="shared" si="59"/>
-        <v>3300</v>
-      </c>
-      <c r="H37" s="64">
-        <v>15</v>
-      </c>
-      <c r="I37" s="68">
-        <v>9588</v>
-      </c>
-      <c r="J37" s="66">
-        <f t="shared" si="61"/>
-        <v>3</v>
-      </c>
-      <c r="K37" s="70">
-        <f t="shared" si="62"/>
-        <v>1597</v>
-      </c>
-      <c r="L37" s="52">
-        <v>68</v>
-      </c>
-      <c r="M37" s="56">
-        <v>46659</v>
-      </c>
-      <c r="N37" s="54">
-        <f t="shared" si="65"/>
-        <v>3</v>
-      </c>
-      <c r="O37" s="58">
-        <f t="shared" si="66"/>
-        <v>1399</v>
-      </c>
-      <c r="P37" s="30">
-        <v>30</v>
-      </c>
-      <c r="Q37" s="44">
-        <v>37687</v>
-      </c>
-      <c r="R37" s="32">
-        <f t="shared" si="69"/>
-        <v>24</v>
-      </c>
-      <c r="S37" s="46">
-        <f t="shared" si="70"/>
-        <v>23288</v>
-      </c>
-      <c r="T37" s="34">
-        <v>47</v>
-      </c>
-      <c r="U37" s="38">
-        <v>51770</v>
-      </c>
-      <c r="V37" s="36">
-        <f t="shared" si="73"/>
-        <v>3</v>
-      </c>
       <c r="W37" s="40">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v>2782</v>
       </c>
       <c r="X37" s="60">
@@ -6491,11 +5809,11 @@
         <v>45844</v>
       </c>
       <c r="Z37" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v>13</v>
       </c>
       <c r="AA37" s="62">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v>7171</v>
       </c>
       <c r="AB37" s="72">
@@ -6505,42 +5823,42 @@
         <v>56922</v>
       </c>
       <c r="AD37" s="75">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v>2</v>
       </c>
       <c r="AE37" s="80">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>1131</v>
       </c>
       <c r="AF37" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="75"/>
         <v>54</v>
       </c>
       <c r="AG37" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>40668</v>
       </c>
       <c r="AH37" s="13">
         <v>16592</v>
       </c>
       <c r="AI37" s="18">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>56</v>
       </c>
       <c r="AJ37" s="13">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>0.9642857142857143</v>
       </c>
       <c r="AK37" s="18">
-        <f t="shared" si="94"/>
+        <f t="shared" si="90"/>
         <v>726.21428571428567</v>
       </c>
       <c r="AM37" t="b">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:39" hidden="1">
+    <row r="38" spans="2:39">
       <c r="B38" s="8" t="s">
         <v>21</v>
       </c>
@@ -6548,34 +5866,34 @@
         <v>41997</v>
       </c>
       <c r="D38" s="48">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>50</v>
       </c>
       <c r="E38" s="27">
         <v>33900</v>
       </c>
       <c r="F38" s="50">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="28">
+        <f t="shared" si="56"/>
+        <v>1853</v>
+      </c>
+      <c r="H38" s="64">
+        <f t="shared" si="91"/>
+        <v>12</v>
+      </c>
+      <c r="I38" s="68">
+        <f t="shared" si="91"/>
+        <v>7991</v>
+      </c>
+      <c r="J38" s="66">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="G38" s="28">
+      <c r="K38" s="70">
         <f t="shared" si="59"/>
-        <v>1853</v>
-      </c>
-      <c r="H38" s="64">
-        <f t="shared" si="95"/>
-        <v>12</v>
-      </c>
-      <c r="I38" s="68">
-        <f t="shared" si="95"/>
-        <v>7991</v>
-      </c>
-      <c r="J38" s="66">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="70">
-        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="L38" s="52">
@@ -6585,11 +5903,11 @@
         <v>45260</v>
       </c>
       <c r="N38" s="54">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>17</v>
       </c>
       <c r="O38" s="58">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>11845</v>
       </c>
       <c r="P38" s="30">
@@ -6600,11 +5918,11 @@
         <v>14399</v>
       </c>
       <c r="R38" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="S38" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>837</v>
       </c>
       <c r="T38" s="34">
@@ -6614,11 +5932,11 @@
         <v>48988</v>
       </c>
       <c r="V38" s="36">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>6</v>
       </c>
       <c r="W38" s="40">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v>10125</v>
       </c>
       <c r="X38" s="60">
@@ -6628,57 +5946,57 @@
         <v>38673</v>
       </c>
       <c r="Z38" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v>2</v>
       </c>
       <c r="AA38" s="62">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v>4173</v>
       </c>
       <c r="AB38" s="72">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>42</v>
       </c>
       <c r="AC38" s="77">
         <v>55791</v>
       </c>
       <c r="AD38" s="75">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="AE38" s="80">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>700</v>
       </c>
       <c r="AF38" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="75"/>
         <v>25</v>
       </c>
       <c r="AG38" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>29533</v>
       </c>
       <c r="AH38" s="13">
         <v>16536</v>
       </c>
       <c r="AI38" s="18">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>22</v>
       </c>
       <c r="AJ38" s="13">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>1.1363636363636365</v>
       </c>
       <c r="AK38" s="18">
-        <f t="shared" si="94"/>
+        <f t="shared" si="90"/>
         <v>1342.409090909091</v>
       </c>
       <c r="AM38" t="b">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:39" hidden="1">
+    <row r="39" spans="2:39">
       <c r="B39" s="8" t="s">
         <v>22</v>
       </c>
@@ -6692,27 +6010,27 @@
         <v>32047</v>
       </c>
       <c r="F39" s="50">
+        <f t="shared" si="55"/>
+        <v>3</v>
+      </c>
+      <c r="G39" s="28">
+        <f t="shared" si="56"/>
+        <v>1632</v>
+      </c>
+      <c r="H39" s="64">
+        <f t="shared" si="91"/>
+        <v>12</v>
+      </c>
+      <c r="I39" s="68">
+        <f t="shared" si="91"/>
+        <v>7991</v>
+      </c>
+      <c r="J39" s="66">
         <f t="shared" si="58"/>
-        <v>3</v>
-      </c>
-      <c r="G39" s="28">
+        <v>0</v>
+      </c>
+      <c r="K39" s="70">
         <f t="shared" si="59"/>
-        <v>1632</v>
-      </c>
-      <c r="H39" s="64">
-        <f t="shared" si="95"/>
-        <v>12</v>
-      </c>
-      <c r="I39" s="68">
-        <f t="shared" si="95"/>
-        <v>7991</v>
-      </c>
-      <c r="J39" s="66">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="70">
-        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="L39" s="52">
@@ -6722,11 +6040,11 @@
         <v>33415</v>
       </c>
       <c r="N39" s="54">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="O39" s="58">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>971</v>
       </c>
       <c r="P39" s="30">
@@ -6736,11 +6054,11 @@
         <v>13562</v>
       </c>
       <c r="R39" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>2</v>
       </c>
       <c r="S39" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>1776</v>
       </c>
       <c r="T39" s="34">
@@ -6752,11 +6070,11 @@
         <v>38863</v>
       </c>
       <c r="V39" s="36">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="W39" s="40">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="X39" s="60">
@@ -6766,11 +6084,11 @@
         <v>34500</v>
       </c>
       <c r="Z39" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v>3</v>
       </c>
       <c r="AA39" s="62">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v>3162</v>
       </c>
       <c r="AB39" s="72">
@@ -6780,42 +6098,42 @@
         <v>55091</v>
       </c>
       <c r="AD39" s="75">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v>12</v>
       </c>
       <c r="AE39" s="80">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>5817</v>
       </c>
       <c r="AF39" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="75"/>
         <v>21</v>
       </c>
       <c r="AG39" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>13358</v>
       </c>
       <c r="AH39" s="13">
         <v>16514</v>
       </c>
       <c r="AI39" s="18">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>27</v>
       </c>
       <c r="AJ39" s="13">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="AK39" s="18">
-        <f t="shared" si="94"/>
+        <f t="shared" si="90"/>
         <v>494.74074074074076</v>
       </c>
       <c r="AM39" t="b">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:39" hidden="1">
+    <row r="40" spans="2:39">
       <c r="B40" s="8" t="s">
         <v>23</v>
       </c>
@@ -6829,27 +6147,27 @@
         <v>30415</v>
       </c>
       <c r="F40" s="50">
+        <f t="shared" si="55"/>
+        <v>7</v>
+      </c>
+      <c r="G40" s="28">
+        <f t="shared" si="56"/>
+        <v>2923</v>
+      </c>
+      <c r="H40" s="64">
+        <f t="shared" si="91"/>
+        <v>12</v>
+      </c>
+      <c r="I40" s="68">
+        <f t="shared" si="91"/>
+        <v>7991</v>
+      </c>
+      <c r="J40" s="66">
         <f t="shared" si="58"/>
-        <v>7</v>
-      </c>
-      <c r="G40" s="28">
+        <v>0</v>
+      </c>
+      <c r="K40" s="70">
         <f t="shared" si="59"/>
-        <v>2923</v>
-      </c>
-      <c r="H40" s="64">
-        <f t="shared" si="95"/>
-        <v>12</v>
-      </c>
-      <c r="I40" s="68">
-        <f t="shared" si="95"/>
-        <v>7991</v>
-      </c>
-      <c r="J40" s="66">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="70">
-        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="L40" s="52">
@@ -6859,11 +6177,11 @@
         <v>32444</v>
       </c>
       <c r="N40" s="54">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>3</v>
       </c>
       <c r="O40" s="58">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>1204</v>
       </c>
       <c r="P40" s="30">
@@ -6875,11 +6193,11 @@
         <v>11786</v>
       </c>
       <c r="R40" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="S40" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="T40" s="34">
@@ -6891,11 +6209,11 @@
         <v>38863</v>
       </c>
       <c r="V40" s="36">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="W40" s="40">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="X40" s="60">
@@ -6905,11 +6223,11 @@
         <v>31338</v>
       </c>
       <c r="Z40" s="56">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v>3</v>
       </c>
       <c r="AA40" s="62">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v>2739</v>
       </c>
       <c r="AB40" s="72">
@@ -6919,19 +6237,19 @@
         <v>49274</v>
       </c>
       <c r="AD40" s="75">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="AE40" s="80">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>1064</v>
       </c>
       <c r="AF40" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="75"/>
         <v>14</v>
       </c>
       <c r="AG40" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>7930</v>
       </c>
       <c r="AH40" s="13">
@@ -6942,19 +6260,19 @@
         <v>10</v>
       </c>
       <c r="AJ40" s="13">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>1.4</v>
       </c>
       <c r="AK40" s="18">
-        <f t="shared" si="94"/>
+        <f t="shared" si="90"/>
         <v>793</v>
       </c>
       <c r="AM40" t="b">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:39" hidden="1">
+    <row r="41" spans="2:39">
       <c r="B41" s="8" t="s">
         <v>24</v>
       </c>
@@ -7061,11 +6379,11 @@
         <v>8390</v>
       </c>
       <c r="AF41" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="75"/>
         <v>48</v>
       </c>
       <c r="AG41" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>40575</v>
       </c>
       <c r="AH41" s="13">
@@ -7076,19 +6394,19 @@
         <v>28</v>
       </c>
       <c r="AJ41" s="13">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="AK41" s="18">
-        <f t="shared" si="94"/>
+        <f t="shared" si="90"/>
         <v>1449.1071428571429</v>
       </c>
       <c r="AM41" t="b">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:39" hidden="1">
+    <row r="42" spans="2:39">
       <c r="B42" s="8" t="s">
         <v>19</v>
       </c>
@@ -7194,11 +6512,11 @@
         <v>20041</v>
       </c>
       <c r="AF42" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="75"/>
         <v>62</v>
       </c>
       <c r="AG42" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>73206</v>
       </c>
       <c r="AH42" s="13">
@@ -7208,11 +6526,11 @@
       <c r="AJ42" s="13"/>
       <c r="AK42" s="18"/>
       <c r="AM42" t="b">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:39" hidden="1">
+    <row r="43" spans="2:39">
       <c r="B43" s="8" t="s">
         <v>25</v>
       </c>
@@ -7226,26 +6544,26 @@
         <v>17472</v>
       </c>
       <c r="F43" s="50">
-        <f t="shared" ref="F43:F45" si="97">D43-D44</f>
+        <f t="shared" ref="F43:F45" si="93">D43-D44</f>
         <v>4</v>
       </c>
       <c r="G43" s="28">
-        <f t="shared" ref="G43:G45" si="98">E43-E44</f>
+        <f t="shared" ref="G43:G45" si="94">E43-E44</f>
         <v>3603</v>
       </c>
       <c r="H43" s="64">
-        <f t="shared" ref="H43:I44" si="99">H44</f>
+        <f t="shared" ref="H43:I44" si="95">H44</f>
         <v>0</v>
       </c>
       <c r="I43" s="68">
         <v>0</v>
       </c>
       <c r="J43" s="66">
-        <f t="shared" ref="J43:J46" si="100">H43-H44</f>
+        <f t="shared" ref="J43:J46" si="96">H43-H44</f>
         <v>0</v>
       </c>
       <c r="K43" s="70">
-        <f t="shared" ref="K43:K46" si="101">I43-I44</f>
+        <f t="shared" ref="K43:K46" si="97">I43-I44</f>
         <v>0</v>
       </c>
       <c r="L43" s="52">
@@ -7255,11 +6573,11 @@
         <v>15917</v>
       </c>
       <c r="N43" s="54">
-        <f t="shared" ref="N43:N45" si="102">L43-L44</f>
+        <f t="shared" ref="N43:N45" si="98">L43-L44</f>
         <v>2</v>
       </c>
       <c r="O43" s="58">
-        <f t="shared" ref="O43:O45" si="103">M43-M44</f>
+        <f t="shared" ref="O43:O45" si="99">M43-M44</f>
         <v>2510</v>
       </c>
       <c r="P43" s="30">
@@ -7270,11 +6588,11 @@
         <v>2587</v>
       </c>
       <c r="R43" s="32">
-        <f t="shared" ref="R43:R45" si="104">P43-P44</f>
+        <f t="shared" ref="R43:R45" si="100">P43-P44</f>
         <v>0</v>
       </c>
       <c r="S43" s="46">
-        <f t="shared" ref="S43:S45" si="105">Q43-Q44</f>
+        <f t="shared" ref="S43:S45" si="101">Q43-Q44</f>
         <v>2121</v>
       </c>
       <c r="T43" s="34">
@@ -7284,11 +6602,11 @@
         <v>17845</v>
       </c>
       <c r="V43" s="36">
-        <f t="shared" ref="V43:V45" si="106">T43-T44</f>
+        <f t="shared" ref="V43:V45" si="102">T43-T44</f>
         <v>0</v>
       </c>
       <c r="W43" s="40">
-        <f t="shared" ref="W43:W45" si="107">U43-U44</f>
+        <f t="shared" ref="W43:W45" si="103">U43-U44</f>
         <v>1145</v>
       </c>
       <c r="X43" s="60">
@@ -7298,11 +6616,11 @@
         <v>6800</v>
       </c>
       <c r="Z43" s="56">
-        <f t="shared" ref="Z43:Z45" si="108">X43-X44</f>
+        <f t="shared" ref="Z43:Z45" si="104">X43-X44</f>
         <v>5</v>
       </c>
       <c r="AA43" s="62">
-        <f t="shared" ref="AA43:AA45" si="109">Y43-Y44</f>
+        <f t="shared" ref="AA43:AA45" si="105">Y43-Y44</f>
         <v>2138</v>
       </c>
       <c r="AB43" s="72">
@@ -7312,19 +6630,19 @@
         <v>19779</v>
       </c>
       <c r="AD43" s="75">
-        <f t="shared" ref="AD43:AD45" si="110">AB43-AB44</f>
+        <f t="shared" ref="AD43:AD45" si="106">AB43-AB44</f>
         <v>6</v>
       </c>
       <c r="AE43" s="80">
-        <f t="shared" ref="AE43:AE45" si="111">AC43-AC44</f>
+        <f t="shared" ref="AE43:AE45" si="107">AC43-AC44</f>
         <v>8542</v>
       </c>
       <c r="AF43" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="75"/>
         <v>17</v>
       </c>
       <c r="AG43" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>20059</v>
       </c>
       <c r="AH43" s="13"/>
@@ -7332,11 +6650,11 @@
       <c r="AJ43" s="13"/>
       <c r="AK43" s="18"/>
       <c r="AM43" t="b">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:39" hidden="1">
+    <row r="44" spans="2:39">
       <c r="B44" s="8" t="s">
         <v>20</v>
       </c>
@@ -7350,27 +6668,27 @@
         <v>13869</v>
       </c>
       <c r="F44" s="50">
+        <f t="shared" si="93"/>
+        <v>10</v>
+      </c>
+      <c r="G44" s="28">
+        <f t="shared" si="94"/>
+        <v>5719</v>
+      </c>
+      <c r="H44" s="64">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="68">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="66">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="70">
         <f t="shared" si="97"/>
-        <v>10</v>
-      </c>
-      <c r="G44" s="28">
-        <f t="shared" si="98"/>
-        <v>5719</v>
-      </c>
-      <c r="H44" s="64">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="68">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="66">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="70">
-        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="L44" s="52">
@@ -7380,11 +6698,11 @@
         <v>13407</v>
       </c>
       <c r="N44" s="54">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>12</v>
       </c>
       <c r="O44" s="58">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>7199</v>
       </c>
       <c r="P44" s="30">
@@ -7395,11 +6713,11 @@
         <v>466</v>
       </c>
       <c r="R44" s="32">
-        <f t="shared" si="104"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="S44" s="46">
-        <f t="shared" si="105"/>
+        <f t="shared" si="101"/>
         <v>466</v>
       </c>
       <c r="T44" s="34">
@@ -7409,11 +6727,11 @@
         <v>16700</v>
       </c>
       <c r="V44" s="36">
-        <f t="shared" si="106"/>
+        <f t="shared" si="102"/>
         <v>2</v>
       </c>
       <c r="W44" s="40">
-        <f t="shared" si="107"/>
+        <f t="shared" si="103"/>
         <v>14</v>
       </c>
       <c r="X44" s="60">
@@ -7423,11 +6741,11 @@
         <v>4662</v>
       </c>
       <c r="Z44" s="56">
-        <f t="shared" si="108"/>
+        <f t="shared" si="104"/>
         <v>3</v>
       </c>
       <c r="AA44" s="62">
-        <f t="shared" si="109"/>
+        <f t="shared" si="105"/>
         <v>3582</v>
       </c>
       <c r="AB44" s="72">
@@ -7437,19 +6755,19 @@
         <v>11237</v>
       </c>
       <c r="AD44" s="75">
-        <f t="shared" si="110"/>
+        <f t="shared" si="106"/>
         <v>1</v>
       </c>
       <c r="AE44" s="80">
-        <f t="shared" si="111"/>
+        <f t="shared" si="107"/>
         <v>1879</v>
       </c>
       <c r="AF44" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="75"/>
         <v>28</v>
       </c>
       <c r="AG44" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>18859</v>
       </c>
       <c r="AH44" s="13"/>
@@ -7457,11 +6775,11 @@
       <c r="AJ44" s="13"/>
       <c r="AK44" s="18"/>
       <c r="AM44" t="b">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:39" hidden="1">
+    <row r="45" spans="2:39">
       <c r="B45" s="8" t="s">
         <v>21</v>
       </c>
@@ -7475,25 +6793,25 @@
         <v>8150</v>
       </c>
       <c r="F45" s="50">
+        <f t="shared" si="93"/>
+        <v>5</v>
+      </c>
+      <c r="G45" s="28">
+        <f t="shared" si="94"/>
+        <v>4075</v>
+      </c>
+      <c r="H45" s="64">
+        <v>0</v>
+      </c>
+      <c r="I45" s="68">
+        <v>0</v>
+      </c>
+      <c r="J45" s="66">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="70">
         <f t="shared" si="97"/>
-        <v>5</v>
-      </c>
-      <c r="G45" s="28">
-        <f t="shared" si="98"/>
-        <v>4075</v>
-      </c>
-      <c r="H45" s="64">
-        <v>0</v>
-      </c>
-      <c r="I45" s="68">
-        <v>0</v>
-      </c>
-      <c r="J45" s="66">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="70">
-        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="L45" s="52">
@@ -7503,11 +6821,11 @@
         <v>6208</v>
       </c>
       <c r="N45" s="54">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>5</v>
       </c>
       <c r="O45" s="58">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>3104</v>
       </c>
       <c r="P45" s="30">
@@ -7517,11 +6835,11 @@
         <v>0</v>
       </c>
       <c r="R45" s="32">
-        <f t="shared" si="104"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="S45" s="46">
-        <f t="shared" si="105"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="T45" s="34">
@@ -7531,11 +6849,11 @@
         <v>16686</v>
       </c>
       <c r="V45" s="36">
-        <f t="shared" si="106"/>
+        <f t="shared" si="102"/>
         <v>8</v>
       </c>
       <c r="W45" s="40">
-        <f t="shared" si="107"/>
+        <f t="shared" si="103"/>
         <v>8343</v>
       </c>
       <c r="X45" s="60">
@@ -7545,11 +6863,11 @@
         <v>1080</v>
       </c>
       <c r="Z45" s="56">
-        <f t="shared" si="108"/>
+        <f t="shared" si="104"/>
         <v>1</v>
       </c>
       <c r="AA45" s="62">
-        <f t="shared" si="109"/>
+        <f t="shared" si="105"/>
         <v>540</v>
       </c>
       <c r="AB45" s="72">
@@ -7559,19 +6877,19 @@
         <v>9358</v>
       </c>
       <c r="AD45" s="75">
-        <f t="shared" si="110"/>
+        <f t="shared" si="106"/>
         <v>2</v>
       </c>
       <c r="AE45" s="80">
-        <f t="shared" si="111"/>
+        <f t="shared" si="107"/>
         <v>4679</v>
       </c>
       <c r="AF45" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="75"/>
         <v>21</v>
       </c>
       <c r="AG45" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>20741</v>
       </c>
       <c r="AH45" s="13"/>
@@ -7579,11 +6897,11 @@
       <c r="AJ45" s="13"/>
       <c r="AK45" s="18"/>
       <c r="AM45" t="b">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:39" ht="15.75" hidden="1" thickBot="1">
+    <row r="46" spans="2:39" ht="15.75" thickBot="1">
       <c r="B46" s="9" t="s">
         <v>22</v>
       </c>
@@ -7599,115 +6917,115 @@
         <v>4075</v>
       </c>
       <c r="F46" s="50">
-        <f t="shared" ref="F46" si="112">D46-D47</f>
+        <f t="shared" ref="F46" si="108">D46-D47</f>
         <v>4</v>
       </c>
       <c r="G46" s="28">
-        <f t="shared" ref="G46" si="113">E46-E47</f>
+        <f t="shared" ref="G46" si="109">E46-E47</f>
         <v>4075</v>
       </c>
       <c r="H46" s="64">
-        <f t="shared" ref="H46:I46" si="114">INT(H45/2)</f>
+        <f t="shared" ref="H46:I46" si="110">INT(H45/2)</f>
         <v>0</v>
       </c>
       <c r="I46" s="68">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="66">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="70">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="52">
+        <f t="shared" ref="L46:M46" si="111">INT(L45/2)</f>
+        <v>4</v>
+      </c>
+      <c r="M46" s="56">
+        <f t="shared" si="111"/>
+        <v>3104</v>
+      </c>
+      <c r="N46" s="54">
+        <f t="shared" ref="N46" si="112">L46-L47</f>
+        <v>4</v>
+      </c>
+      <c r="O46" s="58">
+        <f t="shared" ref="O46" si="113">M46-M47</f>
+        <v>3104</v>
+      </c>
+      <c r="P46" s="30">
+        <f t="shared" ref="P46:Q46" si="114">INT(P45/2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="44">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="J46" s="66">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="70">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="52">
-        <f t="shared" ref="L46:M46" si="115">INT(L45/2)</f>
-        <v>4</v>
-      </c>
-      <c r="M46" s="56">
-        <f t="shared" si="115"/>
-        <v>3104</v>
-      </c>
-      <c r="N46" s="54">
-        <f t="shared" ref="N46" si="116">L46-L47</f>
-        <v>4</v>
-      </c>
-      <c r="O46" s="58">
-        <f t="shared" ref="O46" si="117">M46-M47</f>
-        <v>3104</v>
-      </c>
-      <c r="P46" s="30">
-        <f t="shared" ref="P46:Q46" si="118">INT(P45/2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="44">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
       <c r="R46" s="32">
-        <f t="shared" ref="R46" si="119">P46-P47</f>
+        <f t="shared" ref="R46" si="115">P46-P47</f>
         <v>0</v>
       </c>
       <c r="S46" s="46">
-        <f t="shared" ref="S46" si="120">Q46-Q47</f>
+        <f t="shared" ref="S46" si="116">Q46-Q47</f>
         <v>0</v>
       </c>
       <c r="T46" s="34">
-        <f t="shared" ref="T46:U46" si="121">INT(T45/2)</f>
+        <f t="shared" ref="T46:U46" si="117">INT(T45/2)</f>
         <v>7</v>
       </c>
       <c r="U46" s="38">
-        <f t="shared" si="121"/>
+        <f t="shared" si="117"/>
         <v>8343</v>
       </c>
       <c r="V46" s="36">
-        <f t="shared" ref="V46" si="122">T46-T47</f>
+        <f t="shared" ref="V46" si="118">T46-T47</f>
         <v>7</v>
       </c>
       <c r="W46" s="40">
-        <f t="shared" ref="W46" si="123">U46-U47</f>
+        <f t="shared" ref="W46" si="119">U46-U47</f>
         <v>8343</v>
       </c>
       <c r="X46" s="60">
-        <f t="shared" ref="X46:Y46" si="124">INT(X45/2)</f>
+        <f t="shared" ref="X46:Y46" si="120">INT(X45/2)</f>
         <v>1</v>
       </c>
       <c r="Y46" s="42">
-        <f t="shared" si="124"/>
+        <f t="shared" si="120"/>
         <v>540</v>
       </c>
       <c r="Z46" s="56">
-        <f t="shared" ref="Z46" si="125">X46-X47</f>
+        <f t="shared" ref="Z46" si="121">X46-X47</f>
         <v>1</v>
       </c>
       <c r="AA46" s="62">
-        <f t="shared" ref="AA46" si="126">Y46-Y47</f>
+        <f t="shared" ref="AA46" si="122">Y46-Y47</f>
         <v>540</v>
       </c>
       <c r="AB46" s="73">
-        <f t="shared" ref="AB46:AC46" si="127">INT(AB45/2)</f>
+        <f t="shared" ref="AB46:AC46" si="123">INT(AB45/2)</f>
         <v>2</v>
       </c>
       <c r="AC46" s="78">
-        <f t="shared" si="127"/>
+        <f t="shared" si="123"/>
         <v>4679</v>
       </c>
       <c r="AD46" s="75">
-        <f t="shared" ref="AD46" si="128">AB46-AB47</f>
+        <f t="shared" ref="AD46" si="124">AB46-AB47</f>
         <v>2</v>
       </c>
       <c r="AE46" s="80">
-        <f t="shared" ref="AE46" si="129">AC46-AC47</f>
+        <f t="shared" ref="AE46" si="125">AC46-AC47</f>
         <v>4679</v>
       </c>
       <c r="AF46" s="11">
-        <f t="shared" ref="AF46" si="130">SUM(D46,P46,T46,L46,H46,X46,AB46)-SUM(D47,P47,T47,L47,H47,X47,AB47)</f>
+        <f t="shared" ref="AF46" si="126">SUM(D46,P46,T46,L46,H46,X46,AB46)-SUM(D47,P47,T47,L47,H47,X47,AB47)</f>
         <v>18</v>
       </c>
       <c r="AG46" s="16">
-        <f t="shared" ref="AG46" si="131">SUM(E46,Q46,U46,M46,I46,Y46,AC46)-SUM(E47,Q47,U47,M47,I47,Y47,AC47)</f>
+        <f t="shared" ref="AG46" si="127">SUM(E46,Q46,U46,M46,I46,Y46,AC46)-SUM(E47,Q47,U47,M47,I47,Y47,AC47)</f>
         <v>20741</v>
       </c>
       <c r="AH46" s="14"/>
@@ -7715,14 +7033,12 @@
       <c r="AJ46" s="14"/>
       <c r="AK46" s="19"/>
       <c r="AM46" t="b">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="134">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="L2:M2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AD8:AE8"/>
@@ -7730,6 +7046,21 @@
     <mergeCell ref="AD9:AE9"/>
     <mergeCell ref="AB10:AC10"/>
     <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
@@ -7741,13 +7072,17 @@
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
@@ -7772,17 +7107,6 @@
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="L4:M4"/>
@@ -7792,8 +7116,6 @@
     <mergeCell ref="V5:W5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
     <mergeCell ref="X5:Y5"/>
     <mergeCell ref="AB6:AC6"/>
     <mergeCell ref="AD6:AE6"/>
@@ -7803,15 +7125,11 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="N6:O6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="X6:Y6"/>
     <mergeCell ref="Z6:AA6"/>
     <mergeCell ref="P6:Q6"/>
@@ -7856,43 +7174,43 @@
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="T10:U10"/>
   </mergeCells>
-  <conditionalFormatting sqref="AH5:AI5 D5:AE5">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="greaterThan">
+  <conditionalFormatting sqref="AH5:AI5 J5 H5 F5 D5 N5 L5 R5 V5 Z5 AD5 P5 T5 X5 AB5">
+    <cfRule type="cellIs" dxfId="7" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:AE2">
-    <cfRule type="cellIs" dxfId="68" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:AE2">
-    <cfRule type="cellIs" dxfId="67" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:AE2">
-    <cfRule type="cellIs" dxfId="66" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>$AL$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:AE2">
-    <cfRule type="cellIs" dxfId="65" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
       <formula>$AL$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM21:AM46">
-    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F4:F6" formula="1"/>
+    <ignoredError sqref="F4 F6" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
